--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3751F22-D300-42E0-9712-C2DA44E58BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="40">
   <si>
     <t>Our Model</t>
   </si>
@@ -145,7 +144,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,19 +202,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -492,11 +491,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="I120" sqref="I120"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="X115" sqref="X115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,28 +616,28 @@
       <c r="I3" s="6">
         <v>4.0811E-2</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="7">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="7">
+      <c r="K3" s="9">
         <v>0.22309999999999999</v>
       </c>
       <c r="L3" s="8">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="8" t="s">
@@ -654,16 +653,16 @@
       <c r="I4" s="6">
         <v>3.3570999999999997E-2</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="7">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="9"/>
       <c r="L4" s="8"/>
-      <c r="M4" s="7"/>
+      <c r="M4" s="9"/>
       <c r="N4" s="8"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="9"/>
       <c r="P4" s="8"/>
-      <c r="Q4" s="7"/>
+      <c r="Q4" s="9"/>
       <c r="R4" s="8"/>
       <c r="T4" s="1"/>
     </row>
@@ -675,16 +674,16 @@
       <c r="I5" s="6">
         <v>2.8816000000000001E-2</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="7">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="9"/>
       <c r="L5" s="8"/>
-      <c r="M5" s="7"/>
+      <c r="M5" s="9"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="9"/>
       <c r="P5" s="8"/>
-      <c r="Q5" s="7"/>
+      <c r="Q5" s="9"/>
       <c r="R5" s="8"/>
       <c r="T5" s="1"/>
     </row>
@@ -696,16 +695,16 @@
       <c r="I6" s="6">
         <v>2.2353999999999999E-2</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="7">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="7"/>
+      <c r="K6" s="9"/>
       <c r="L6" s="8"/>
-      <c r="M6" s="7"/>
+      <c r="M6" s="9"/>
       <c r="N6" s="8"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="9"/>
       <c r="P6" s="8"/>
-      <c r="Q6" s="7"/>
+      <c r="Q6" s="9"/>
       <c r="R6" s="8"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
@@ -718,21 +717,21 @@
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="7"/>
+      <c r="K7" s="9"/>
       <c r="L7" s="8"/>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="7" t="s">
+      <c r="Q7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R7" s="8" t="s">
@@ -746,13 +745,13 @@
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="7"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="8"/>
-      <c r="M8" s="7"/>
+      <c r="M8" s="9"/>
       <c r="N8" s="8"/>
-      <c r="O8" s="7"/>
+      <c r="O8" s="9"/>
       <c r="P8" s="8"/>
-      <c r="Q8" s="7"/>
+      <c r="Q8" s="9"/>
       <c r="R8" s="8"/>
       <c r="T8" s="1"/>
     </row>
@@ -762,13 +761,13 @@
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="7"/>
+      <c r="K9" s="9"/>
       <c r="L9" s="8"/>
-      <c r="M9" s="7"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="8"/>
-      <c r="O9" s="7"/>
+      <c r="O9" s="9"/>
       <c r="P9" s="8"/>
-      <c r="Q9" s="7"/>
+      <c r="Q9" s="9"/>
       <c r="R9" s="8"/>
       <c r="T9" s="1"/>
     </row>
@@ -778,13 +777,13 @@
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="7"/>
+      <c r="K10" s="9"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="7"/>
+      <c r="M10" s="9"/>
       <c r="N10" s="8"/>
-      <c r="O10" s="7"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="8"/>
-      <c r="Q10" s="7"/>
+      <c r="Q10" s="9"/>
       <c r="R10" s="8"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
@@ -797,25 +796,25 @@
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="7">
+      <c r="K11" s="9">
         <v>0.26700000000000002</v>
       </c>
       <c r="L11" s="8">
         <v>0.435</v>
       </c>
-      <c r="M11" s="7" t="s">
+      <c r="M11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="7" t="s">
+      <c r="O11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="7" t="s">
+      <c r="Q11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R11" s="8" t="s">
@@ -829,13 +828,13 @@
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="7"/>
+      <c r="K12" s="9"/>
       <c r="L12" s="8"/>
-      <c r="M12" s="7"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="8"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="9"/>
       <c r="P12" s="8"/>
-      <c r="Q12" s="7"/>
+      <c r="Q12" s="9"/>
       <c r="R12" s="8"/>
       <c r="T12" s="1"/>
     </row>
@@ -845,13 +844,13 @@
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="7"/>
+      <c r="K13" s="9"/>
       <c r="L13" s="8"/>
-      <c r="M13" s="7"/>
+      <c r="M13" s="9"/>
       <c r="N13" s="8"/>
-      <c r="O13" s="7"/>
+      <c r="O13" s="9"/>
       <c r="P13" s="8"/>
-      <c r="Q13" s="7"/>
+      <c r="Q13" s="9"/>
       <c r="R13" s="8"/>
       <c r="T13" s="1"/>
     </row>
@@ -861,13 +860,13 @@
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="7"/>
+      <c r="K14" s="9"/>
       <c r="L14" s="8"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="9"/>
       <c r="N14" s="8"/>
-      <c r="O14" s="7"/>
+      <c r="O14" s="9"/>
       <c r="P14" s="8"/>
-      <c r="Q14" s="7"/>
+      <c r="Q14" s="9"/>
       <c r="R14" s="8"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
@@ -887,21 +886,21 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="7"/>
+      <c r="K15" s="9"/>
       <c r="L15" s="8"/>
-      <c r="M15" s="7" t="s">
+      <c r="M15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="7" t="s">
+      <c r="O15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P15" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="7" t="s">
+      <c r="Q15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R15" s="8" t="s">
@@ -923,13 +922,13 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="7"/>
+      <c r="K16" s="9"/>
       <c r="L16" s="8"/>
-      <c r="M16" s="7"/>
+      <c r="M16" s="9"/>
       <c r="N16" s="8"/>
-      <c r="O16" s="7"/>
+      <c r="O16" s="9"/>
       <c r="P16" s="8"/>
-      <c r="Q16" s="7"/>
+      <c r="Q16" s="9"/>
       <c r="R16" s="8"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
@@ -947,13 +946,13 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="7"/>
+      <c r="K17" s="9"/>
       <c r="L17" s="8"/>
-      <c r="M17" s="7"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="8"/>
-      <c r="O17" s="7"/>
+      <c r="O17" s="9"/>
       <c r="P17" s="8"/>
-      <c r="Q17" s="7"/>
+      <c r="Q17" s="9"/>
       <c r="R17" s="8"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
@@ -967,13 +966,13 @@
       <c r="E18" s="6"/>
       <c r="G18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="K18" s="7"/>
+      <c r="K18" s="9"/>
       <c r="L18" s="8"/>
-      <c r="M18" s="7"/>
+      <c r="M18" s="9"/>
       <c r="N18" s="8"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="9"/>
       <c r="P18" s="8"/>
-      <c r="Q18" s="7"/>
+      <c r="Q18" s="9"/>
       <c r="R18" s="8"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
@@ -989,21 +988,21 @@
       <c r="E19" s="6"/>
       <c r="G19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="7"/>
+      <c r="K19" s="9"/>
       <c r="L19" s="8"/>
-      <c r="M19" s="7" t="s">
+      <c r="M19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="7" t="s">
+      <c r="O19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="7" t="s">
+      <c r="Q19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R19" s="8" t="s">
@@ -1021,13 +1020,13 @@
       <c r="E20" s="6"/>
       <c r="G20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="K20" s="7"/>
+      <c r="K20" s="9"/>
       <c r="L20" s="8"/>
-      <c r="M20" s="7"/>
+      <c r="M20" s="9"/>
       <c r="N20" s="8"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="9"/>
       <c r="P20" s="8"/>
-      <c r="Q20" s="7"/>
+      <c r="Q20" s="9"/>
       <c r="R20" s="8"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
@@ -1041,13 +1040,13 @@
       <c r="E21" s="6"/>
       <c r="G21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="K21" s="7"/>
+      <c r="K21" s="9"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="7"/>
+      <c r="M21" s="9"/>
       <c r="N21" s="8"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="9"/>
       <c r="P21" s="8"/>
-      <c r="Q21" s="7"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="8"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
@@ -1061,13 +1060,13 @@
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="K22" s="7"/>
+      <c r="K22" s="9"/>
       <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
+      <c r="M22" s="9"/>
       <c r="N22" s="8"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="9"/>
       <c r="P22" s="8"/>
-      <c r="Q22" s="7"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="8"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
@@ -1085,22 +1084,22 @@
       <c r="I24" s="6">
         <v>9.5463000000000006E-2</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="7">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="7">
+      <c r="K24" s="9">
         <v>0.26700000000000002</v>
       </c>
       <c r="L24" s="8">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="7">
+      <c r="M24" s="9">
         <v>0.17100000000000001</v>
       </c>
       <c r="N24" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="7">
+      <c r="O24" s="9">
         <v>0.153</v>
       </c>
       <c r="P24" s="8" t="s">
@@ -1121,14 +1120,14 @@
       <c r="I25" s="6">
         <v>8.5849999999999996E-2</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="7">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="7"/>
+      <c r="K25" s="9"/>
       <c r="L25" s="8"/>
-      <c r="M25" s="7"/>
+      <c r="M25" s="9"/>
       <c r="N25" s="8"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="9"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -1141,14 +1140,14 @@
       <c r="I26" s="6">
         <v>7.1389999999999995E-2</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="7">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="9"/>
       <c r="L26" s="8"/>
-      <c r="M26" s="7"/>
+      <c r="M26" s="9"/>
       <c r="N26" s="8"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="9"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
@@ -1161,14 +1160,14 @@
       <c r="I27" s="6">
         <v>6.1741999999999998E-2</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="7">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="7"/>
+      <c r="K27" s="9"/>
       <c r="L27" s="8"/>
-      <c r="M27" s="7"/>
+      <c r="M27" s="9"/>
       <c r="N27" s="8"/>
-      <c r="O27" s="7"/>
+      <c r="O27" s="9"/>
       <c r="P27" s="8"/>
       <c r="Q27" s="8"/>
       <c r="R27" s="8"/>
@@ -1183,22 +1182,22 @@
       <c r="I28" s="6">
         <v>0.123304</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="7">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="7">
+      <c r="K28" s="9">
         <v>0.2601</v>
       </c>
       <c r="L28" s="8">
         <v>0.624</v>
       </c>
-      <c r="M28" s="7">
+      <c r="M28" s="9">
         <v>0.20200000000000001</v>
       </c>
       <c r="N28" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="7">
+      <c r="O28" s="9">
         <v>0.19400000000000001</v>
       </c>
       <c r="P28" s="8" t="s">
@@ -1219,14 +1218,14 @@
       <c r="I29" s="6">
         <v>0.113194</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="7">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="7"/>
+      <c r="K29" s="9"/>
       <c r="L29" s="8"/>
-      <c r="M29" s="7"/>
+      <c r="M29" s="9"/>
       <c r="N29" s="8"/>
-      <c r="O29" s="7"/>
+      <c r="O29" s="9"/>
       <c r="P29" s="8"/>
       <c r="Q29" s="8"/>
       <c r="R29" s="8"/>
@@ -1239,14 +1238,14 @@
       <c r="I30" s="6">
         <v>9.955E-2</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="7">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="7"/>
+      <c r="K30" s="9"/>
       <c r="L30" s="8"/>
-      <c r="M30" s="7"/>
+      <c r="M30" s="9"/>
       <c r="N30" s="8"/>
-      <c r="O30" s="7"/>
+      <c r="O30" s="9"/>
       <c r="P30" s="8"/>
       <c r="Q30" s="8"/>
       <c r="R30" s="8"/>
@@ -1259,14 +1258,14 @@
       <c r="I31" s="6">
         <v>8.6886000000000005E-2</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="7">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="9"/>
       <c r="L31" s="8"/>
-      <c r="M31" s="7"/>
+      <c r="M31" s="9"/>
       <c r="N31" s="8"/>
-      <c r="O31" s="7"/>
+      <c r="O31" s="9"/>
       <c r="P31" s="8"/>
       <c r="Q31" s="8"/>
       <c r="R31" s="8"/>
@@ -1281,22 +1280,22 @@
       <c r="I32" s="6">
         <v>0.129631</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="7">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="7">
+      <c r="K32" s="9">
         <v>0.30220000000000002</v>
       </c>
       <c r="L32" s="8">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="7">
+      <c r="M32" s="9">
         <v>0.22800000000000001</v>
       </c>
       <c r="N32" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="7">
+      <c r="O32" s="9">
         <v>0.17199999999999999</v>
       </c>
       <c r="P32" s="8" t="s">
@@ -1317,14 +1316,14 @@
       <c r="I33" s="6">
         <v>0.116268</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="7">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="9"/>
       <c r="L33" s="8"/>
-      <c r="M33" s="7"/>
+      <c r="M33" s="9"/>
       <c r="N33" s="8"/>
-      <c r="O33" s="7"/>
+      <c r="O33" s="9"/>
       <c r="P33" s="8"/>
       <c r="Q33" s="8"/>
       <c r="R33" s="8"/>
@@ -1337,14 +1336,14 @@
       <c r="I34" s="6">
         <v>0.102479</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="7">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="7"/>
+      <c r="K34" s="9"/>
       <c r="L34" s="8"/>
-      <c r="M34" s="7"/>
+      <c r="M34" s="9"/>
       <c r="N34" s="8"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="9"/>
       <c r="P34" s="8"/>
       <c r="Q34" s="8"/>
       <c r="R34" s="8"/>
@@ -1357,14 +1356,14 @@
       <c r="I35" s="6">
         <v>8.9824000000000001E-2</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="7">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="9"/>
       <c r="L35" s="8"/>
-      <c r="M35" s="7"/>
+      <c r="M35" s="9"/>
       <c r="N35" s="8"/>
-      <c r="O35" s="7"/>
+      <c r="O35" s="9"/>
       <c r="P35" s="8"/>
       <c r="Q35" s="8"/>
       <c r="R35" s="8"/>
@@ -1379,22 +1378,22 @@
       <c r="I36" s="6">
         <v>0.15876999999999999</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="7">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="7">
+      <c r="K36" s="9">
         <v>0.3165</v>
       </c>
       <c r="L36" s="8">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="7">
+      <c r="M36" s="9">
         <v>0.189</v>
       </c>
       <c r="N36" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O36" s="7">
+      <c r="O36" s="9">
         <v>0.18</v>
       </c>
       <c r="P36" s="8" t="s">
@@ -1415,14 +1414,14 @@
       <c r="I37" s="6">
         <v>0.13111600000000001</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="7">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="7"/>
+      <c r="K37" s="9"/>
       <c r="L37" s="8"/>
-      <c r="M37" s="7"/>
+      <c r="M37" s="9"/>
       <c r="N37" s="8"/>
-      <c r="O37" s="7"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -1435,14 +1434,14 @@
       <c r="I38" s="6">
         <v>0.105418</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="7">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="9"/>
       <c r="L38" s="8"/>
-      <c r="M38" s="7"/>
+      <c r="M38" s="9"/>
       <c r="N38" s="8"/>
-      <c r="O38" s="7"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="8"/>
       <c r="Q38" s="8"/>
       <c r="R38" s="8"/>
@@ -1455,14 +1454,14 @@
       <c r="I39" s="6">
         <v>9.2197000000000001E-2</v>
       </c>
-      <c r="J39" s="9">
+      <c r="J39" s="7">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="7"/>
+      <c r="K39" s="9"/>
       <c r="L39" s="8"/>
-      <c r="M39" s="7"/>
+      <c r="M39" s="9"/>
       <c r="N39" s="8"/>
-      <c r="O39" s="7"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="8"/>
       <c r="Q39" s="8"/>
       <c r="R39" s="8"/>
@@ -1477,28 +1476,28 @@
       <c r="I40" s="6">
         <v>0.186613</v>
       </c>
-      <c r="J40" s="9">
+      <c r="J40" s="7">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="7">
+      <c r="K40" s="9">
         <v>0.33110000000000001</v>
       </c>
       <c r="L40" s="8">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="7">
+      <c r="M40" s="9">
         <v>0.254</v>
       </c>
       <c r="N40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="7">
+      <c r="O40" s="9">
         <v>0.187</v>
       </c>
       <c r="P40" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="7">
+      <c r="Q40" s="9">
         <v>0.13080554883214199</v>
       </c>
       <c r="R40" s="8">
@@ -1513,16 +1512,16 @@
       <c r="I41" s="6">
         <v>0.166847</v>
       </c>
-      <c r="J41" s="9">
+      <c r="J41" s="7">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="7"/>
+      <c r="K41" s="9"/>
       <c r="L41" s="8"/>
-      <c r="M41" s="7"/>
+      <c r="M41" s="9"/>
       <c r="N41" s="8"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="8"/>
-      <c r="Q41" s="7"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="8"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
@@ -1533,16 +1532,16 @@
       <c r="I42" s="6">
         <v>0.149227</v>
       </c>
-      <c r="J42" s="9">
+      <c r="J42" s="7">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="9"/>
       <c r="L42" s="8"/>
-      <c r="M42" s="7"/>
+      <c r="M42" s="9"/>
       <c r="N42" s="8"/>
-      <c r="O42" s="7"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="8"/>
-      <c r="Q42" s="7"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="8"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
@@ -1553,16 +1552,16 @@
       <c r="I43" s="6">
         <v>0.13051599999999999</v>
       </c>
-      <c r="J43" s="9">
+      <c r="J43" s="7">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="7"/>
+      <c r="K43" s="9"/>
       <c r="L43" s="8"/>
-      <c r="M43" s="7"/>
+      <c r="M43" s="9"/>
       <c r="N43" s="8"/>
-      <c r="O43" s="7"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="8"/>
-      <c r="Q43" s="7"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="8"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
@@ -1575,22 +1574,22 @@
       <c r="I44" s="6">
         <v>0.10859099999999999</v>
       </c>
-      <c r="J44" s="9">
+      <c r="J44" s="7">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="7">
+      <c r="K44" s="9">
         <v>0.33660000000000001</v>
       </c>
       <c r="L44" s="8">
         <v>2.7</v>
       </c>
-      <c r="M44" s="7">
+      <c r="M44" s="9">
         <v>0.159</v>
       </c>
       <c r="N44" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="7">
+      <c r="O44" s="9">
         <v>0.13800000000000001</v>
       </c>
       <c r="P44" s="8" t="s">
@@ -1611,14 +1610,14 @@
       <c r="I45" s="6">
         <v>9.0360999999999997E-2</v>
       </c>
-      <c r="J45" s="9">
+      <c r="J45" s="7">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="9"/>
       <c r="L45" s="8"/>
-      <c r="M45" s="7"/>
+      <c r="M45" s="9"/>
       <c r="N45" s="8"/>
-      <c r="O45" s="7"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="8"/>
       <c r="Q45" s="8"/>
       <c r="R45" s="8"/>
@@ -1631,14 +1630,14 @@
       <c r="I46" s="6">
         <v>6.4596000000000001E-2</v>
       </c>
-      <c r="J46" s="9">
+      <c r="J46" s="7">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="7"/>
+      <c r="K46" s="9"/>
       <c r="L46" s="8"/>
-      <c r="M46" s="7"/>
+      <c r="M46" s="9"/>
       <c r="N46" s="8"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="8"/>
       <c r="Q46" s="8"/>
       <c r="R46" s="8"/>
@@ -1651,14 +1650,14 @@
       <c r="I47" s="6">
         <v>3.7137000000000003E-2</v>
       </c>
-      <c r="J47" s="9">
+      <c r="J47" s="7">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="9"/>
       <c r="L47" s="8"/>
-      <c r="M47" s="7"/>
+      <c r="M47" s="9"/>
       <c r="N47" s="8"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="8"/>
       <c r="Q47" s="8"/>
       <c r="R47" s="8"/>
@@ -1673,22 +1672,22 @@
       <c r="I48" s="6">
         <v>0.13170399999999999</v>
       </c>
-      <c r="J48" s="9">
+      <c r="J48" s="7">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="7">
+      <c r="K48" s="9">
         <v>0.22470000000000001</v>
       </c>
       <c r="L48" s="8">
         <v>4.883</v>
       </c>
-      <c r="M48" s="7">
+      <c r="M48" s="9">
         <v>0.17399999999999999</v>
       </c>
       <c r="N48" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="7">
+      <c r="O48" s="9">
         <v>0.13500000000000001</v>
       </c>
       <c r="P48" s="8" t="s">
@@ -1709,14 +1708,14 @@
       <c r="I49" s="6">
         <v>0.11490499999999999</v>
       </c>
-      <c r="J49" s="9">
+      <c r="J49" s="7">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="7"/>
+      <c r="K49" s="9"/>
       <c r="L49" s="8"/>
-      <c r="M49" s="7"/>
+      <c r="M49" s="9"/>
       <c r="N49" s="8"/>
-      <c r="O49" s="7"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="8"/>
       <c r="Q49" s="8"/>
       <c r="R49" s="8"/>
@@ -1729,14 +1728,14 @@
       <c r="I50" s="6">
         <v>9.4871999999999998E-2</v>
       </c>
-      <c r="J50" s="9">
+      <c r="J50" s="7">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="7"/>
+      <c r="K50" s="9"/>
       <c r="L50" s="8"/>
-      <c r="M50" s="7"/>
+      <c r="M50" s="9"/>
       <c r="N50" s="8"/>
-      <c r="O50" s="7"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="8"/>
       <c r="Q50" s="8"/>
       <c r="R50" s="8"/>
@@ -1749,14 +1748,14 @@
       <c r="I51" s="6">
         <v>6.5272999999999998E-2</v>
       </c>
-      <c r="J51" s="9">
+      <c r="J51" s="7">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="7"/>
+      <c r="K51" s="9"/>
       <c r="L51" s="8"/>
-      <c r="M51" s="7"/>
+      <c r="M51" s="9"/>
       <c r="N51" s="8"/>
-      <c r="O51" s="7"/>
+      <c r="O51" s="9"/>
       <c r="P51" s="8"/>
       <c r="Q51" s="8"/>
       <c r="R51" s="8"/>
@@ -1771,22 +1770,22 @@
       <c r="I52" s="6">
         <v>7.0554000000000006E-2</v>
       </c>
-      <c r="J52" s="9">
+      <c r="J52" s="7">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="7">
+      <c r="K52" s="9">
         <v>0.26550000000000001</v>
       </c>
       <c r="L52" s="8">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="7">
+      <c r="M52" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N52" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="O52" s="7">
+      <c r="O52" s="9">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="P52" s="8" t="s">
@@ -1807,14 +1806,14 @@
       <c r="I53" s="6">
         <v>5.4175000000000001E-2</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="7">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="7"/>
+      <c r="K53" s="9"/>
       <c r="L53" s="8"/>
-      <c r="M53" s="7"/>
+      <c r="M53" s="9"/>
       <c r="N53" s="8"/>
-      <c r="O53" s="7"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="8"/>
       <c r="Q53" s="8"/>
       <c r="R53" s="8"/>
@@ -1827,14 +1826,14 @@
       <c r="I54" s="6">
         <v>3.5038E-2</v>
       </c>
-      <c r="J54" s="9">
+      <c r="J54" s="7">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="7"/>
+      <c r="K54" s="9"/>
       <c r="L54" s="8"/>
-      <c r="M54" s="7"/>
+      <c r="M54" s="9"/>
       <c r="N54" s="8"/>
-      <c r="O54" s="7"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="8"/>
       <c r="Q54" s="8"/>
       <c r="R54" s="8"/>
@@ -1847,14 +1846,14 @@
       <c r="I55" s="6">
         <v>1.8312999999999999E-2</v>
       </c>
-      <c r="J55" s="9">
+      <c r="J55" s="7">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="7"/>
+      <c r="K55" s="9"/>
       <c r="L55" s="8"/>
-      <c r="M55" s="7"/>
+      <c r="M55" s="9"/>
       <c r="N55" s="8"/>
-      <c r="O55" s="7"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="8"/>
       <c r="Q55" s="8"/>
       <c r="R55" s="8"/>
@@ -1872,16 +1871,24 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
+      <c r="K57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="9">
+        <v>0.101239449255883</v>
+      </c>
+      <c r="N57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="9">
+        <v>6.1477473699407502E-2</v>
+      </c>
+      <c r="P57" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q57" s="8" t="s">
         <v>11</v>
       </c>
@@ -1897,12 +1904,12 @@
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="7"/>
-      <c r="L58" s="7"/>
-      <c r="M58" s="7"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
-      <c r="P58" s="7"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="8"/>
       <c r="Q58" s="8"/>
       <c r="R58" s="8"/>
     </row>
@@ -1914,12 +1921,12 @@
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="7"/>
-      <c r="L59" s="7"/>
-      <c r="M59" s="7"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
-      <c r="P59" s="7"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="8"/>
       <c r="Q59" s="8"/>
       <c r="R59" s="8"/>
     </row>
@@ -1931,12 +1938,12 @@
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="8"/>
       <c r="Q60" s="8"/>
       <c r="R60" s="8"/>
     </row>
@@ -1950,16 +1957,24 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="7"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
-      <c r="P61" s="7"/>
+      <c r="K61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0.29018026080021198</v>
+      </c>
+      <c r="N61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="9">
+        <v>0.205463324203739</v>
+      </c>
+      <c r="P61" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q61" s="8" t="s">
         <v>11</v>
       </c>
@@ -1975,12 +1990,12 @@
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="7"/>
-      <c r="L62" s="7"/>
-      <c r="M62" s="7"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
-      <c r="P62" s="7"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="8"/>
       <c r="Q62" s="8"/>
       <c r="R62" s="8"/>
     </row>
@@ -1992,12 +2007,12 @@
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="7"/>
-      <c r="L63" s="7"/>
-      <c r="M63" s="7"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
-      <c r="P63" s="7"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="8"/>
       <c r="Q63" s="8"/>
       <c r="R63" s="8"/>
     </row>
@@ -2009,12 +2024,12 @@
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="7"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="7"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="8"/>
       <c r="Q64" s="8"/>
       <c r="R64" s="8"/>
     </row>
@@ -2031,16 +2046,24 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
+      <c r="K66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="9">
+        <v>0.21826059724466901</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="9">
+        <v>0.199782125806655</v>
+      </c>
+      <c r="P66" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q66" s="8" t="s">
         <v>11</v>
       </c>
@@ -2056,12 +2079,12 @@
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="7"/>
-      <c r="L67" s="7"/>
-      <c r="M67" s="7"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
-      <c r="P67" s="7"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="8"/>
       <c r="Q67" s="8"/>
       <c r="R67" s="8"/>
     </row>
@@ -2073,12 +2096,12 @@
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="7"/>
-      <c r="L68" s="7"/>
-      <c r="M68" s="7"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="8"/>
       <c r="Q68" s="8"/>
       <c r="R68" s="8"/>
     </row>
@@ -2090,12 +2113,12 @@
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="7"/>
-      <c r="L69" s="7"/>
-      <c r="M69" s="7"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
-      <c r="P69" s="7"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="8"/>
       <c r="Q69" s="8"/>
       <c r="R69" s="8"/>
     </row>
@@ -2112,16 +2135,24 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M71" s="7"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
-      <c r="P71" s="7"/>
+      <c r="K71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="9">
+        <v>0.24797844874295</v>
+      </c>
+      <c r="N71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" s="9">
+        <v>0.18443317167635301</v>
+      </c>
+      <c r="P71" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q71" s="8" t="s">
         <v>11</v>
       </c>
@@ -2137,12 +2168,12 @@
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="7"/>
-      <c r="L72" s="7"/>
-      <c r="M72" s="7"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
-      <c r="P72" s="7"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="8"/>
       <c r="Q72" s="8"/>
       <c r="R72" s="8"/>
     </row>
@@ -2154,12 +2185,12 @@
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="8"/>
       <c r="Q73" s="8"/>
       <c r="R73" s="8"/>
     </row>
@@ -2171,12 +2202,12 @@
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="7"/>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="8"/>
       <c r="Q74" s="8"/>
       <c r="R74" s="8"/>
     </row>
@@ -2193,16 +2224,24 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="7"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
-      <c r="P76" s="7"/>
+      <c r="K76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="9">
+        <v>0.28420023201354799</v>
+      </c>
+      <c r="N76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="9">
+        <v>0.34385002851765301</v>
+      </c>
+      <c r="P76" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q76" s="8" t="s">
         <v>11</v>
       </c>
@@ -2218,12 +2257,12 @@
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="7"/>
-      <c r="L77" s="7"/>
-      <c r="M77" s="7"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
-      <c r="P77" s="7"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="8"/>
       <c r="Q77" s="8"/>
       <c r="R77" s="8"/>
     </row>
@@ -2235,12 +2274,12 @@
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="7"/>
-      <c r="L78" s="7"/>
-      <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="8"/>
       <c r="Q78" s="8"/>
       <c r="R78" s="8"/>
     </row>
@@ -2252,12 +2291,12 @@
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="7"/>
-      <c r="L79" s="7"/>
-      <c r="M79" s="7"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
-      <c r="P79" s="7"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="8"/>
       <c r="Q79" s="8"/>
       <c r="R79" s="8"/>
     </row>
@@ -2271,16 +2310,24 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
+      <c r="K80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="9">
+        <v>0.29386831802036401</v>
+      </c>
+      <c r="N80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" s="9">
+        <v>0.30511472915739701</v>
+      </c>
+      <c r="P80" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q80" s="8" t="s">
         <v>11</v>
       </c>
@@ -2296,12 +2343,12 @@
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="7"/>
-      <c r="L81" s="7"/>
-      <c r="M81" s="7"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
-      <c r="P81" s="7"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="8"/>
       <c r="Q81" s="8"/>
       <c r="R81" s="8"/>
     </row>
@@ -2313,12 +2360,12 @@
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="7"/>
-      <c r="L82" s="7"/>
-      <c r="M82" s="7"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
-      <c r="P82" s="7"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="8"/>
       <c r="Q82" s="8"/>
       <c r="R82" s="8"/>
     </row>
@@ -2330,12 +2377,12 @@
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="7"/>
-      <c r="L83" s="7"/>
-      <c r="M83" s="7"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
-      <c r="P83" s="7"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="8"/>
       <c r="Q83" s="8"/>
       <c r="R83" s="8"/>
     </row>
@@ -2349,16 +2396,24 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" s="7"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
-      <c r="P84" s="7"/>
+      <c r="K84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M84" s="9">
+        <v>0.167989635290166</v>
+      </c>
+      <c r="N84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" s="9">
+        <v>0.25329462101632999</v>
+      </c>
+      <c r="P84" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q84" s="8" t="s">
         <v>11</v>
       </c>
@@ -2374,12 +2429,12 @@
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="7"/>
-      <c r="L85" s="7"/>
-      <c r="M85" s="7"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
-      <c r="P85" s="7"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="8"/>
       <c r="Q85" s="8"/>
       <c r="R85" s="8"/>
     </row>
@@ -2391,12 +2446,12 @@
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="7"/>
-      <c r="L86" s="7"/>
-      <c r="M86" s="7"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
-      <c r="P86" s="7"/>
+      <c r="K86" s="9"/>
+      <c r="L86" s="9"/>
+      <c r="M86" s="9"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="9"/>
+      <c r="P86" s="8"/>
       <c r="Q86" s="8"/>
       <c r="R86" s="8"/>
     </row>
@@ -2408,12 +2463,12 @@
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="7"/>
-      <c r="L87" s="7"/>
-      <c r="M87" s="7"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
-      <c r="P87" s="7"/>
+      <c r="K87" s="9"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="9"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="9"/>
+      <c r="P87" s="8"/>
       <c r="Q87" s="8"/>
       <c r="R87" s="8"/>
     </row>
@@ -2430,16 +2485,24 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="7"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
-      <c r="P89" s="7"/>
+      <c r="K89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="9">
+        <v>0.16062893658948699</v>
+      </c>
+      <c r="N89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89" s="9">
+        <v>0.121214337893307</v>
+      </c>
+      <c r="P89" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q89" s="8" t="s">
         <v>11</v>
       </c>
@@ -2455,12 +2518,12 @@
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="7"/>
-      <c r="L90" s="7"/>
-      <c r="M90" s="7"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
-      <c r="P90" s="7"/>
+      <c r="K90" s="9"/>
+      <c r="L90" s="9"/>
+      <c r="M90" s="9"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="9"/>
+      <c r="P90" s="8"/>
       <c r="Q90" s="8"/>
       <c r="R90" s="8"/>
     </row>
@@ -2472,12 +2535,12 @@
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="7"/>
-      <c r="L91" s="7"/>
-      <c r="M91" s="7"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
-      <c r="P91" s="7"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="9"/>
+      <c r="P91" s="8"/>
       <c r="Q91" s="8"/>
       <c r="R91" s="8"/>
     </row>
@@ -2489,12 +2552,12 @@
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="7"/>
-      <c r="L92" s="7"/>
-      <c r="M92" s="7"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
-      <c r="P92" s="7"/>
+      <c r="K92" s="9"/>
+      <c r="L92" s="9"/>
+      <c r="M92" s="9"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="9"/>
+      <c r="P92" s="8"/>
       <c r="Q92" s="8"/>
       <c r="R92" s="8"/>
     </row>
@@ -2508,16 +2571,24 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L93" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M93" s="7"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
-      <c r="P93" s="7"/>
+      <c r="K93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="9">
+        <v>1.0883629283854401E-2</v>
+      </c>
+      <c r="N93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93" s="9">
+        <v>2.6516853932584201E-2</v>
+      </c>
+      <c r="P93" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q93" s="8" t="s">
         <v>11</v>
       </c>
@@ -2533,12 +2604,12 @@
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="7"/>
-      <c r="L94" s="7"/>
-      <c r="M94" s="7"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
-      <c r="P94" s="7"/>
+      <c r="K94" s="9"/>
+      <c r="L94" s="9"/>
+      <c r="M94" s="9"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="9"/>
+      <c r="P94" s="8"/>
       <c r="Q94" s="8"/>
       <c r="R94" s="8"/>
     </row>
@@ -2550,12 +2621,12 @@
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="7"/>
-      <c r="L95" s="7"/>
-      <c r="M95" s="7"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
-      <c r="P95" s="7"/>
+      <c r="K95" s="9"/>
+      <c r="L95" s="9"/>
+      <c r="M95" s="9"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="9"/>
+      <c r="P95" s="8"/>
       <c r="Q95" s="8"/>
       <c r="R95" s="8"/>
     </row>
@@ -2567,12 +2638,12 @@
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="7"/>
-      <c r="L96" s="7"/>
-      <c r="M96" s="7"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
-      <c r="P96" s="7"/>
+      <c r="K96" s="9"/>
+      <c r="L96" s="9"/>
+      <c r="M96" s="9"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="9"/>
+      <c r="P96" s="8"/>
       <c r="Q96" s="8"/>
       <c r="R96" s="8"/>
     </row>
@@ -2586,16 +2657,24 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M97" s="7"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
-      <c r="P97" s="7"/>
+      <c r="K97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="9">
+        <v>2.1265476753851299E-2</v>
+      </c>
+      <c r="N97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O97" s="9">
+        <v>3.6388931451421497E-2</v>
+      </c>
+      <c r="P97" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q97" s="8" t="s">
         <v>11</v>
       </c>
@@ -2611,12 +2690,12 @@
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="7"/>
-      <c r="L98" s="7"/>
-      <c r="M98" s="7"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
-      <c r="P98" s="7"/>
+      <c r="K98" s="9"/>
+      <c r="L98" s="9"/>
+      <c r="M98" s="9"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="9"/>
+      <c r="P98" s="8"/>
       <c r="Q98" s="8"/>
       <c r="R98" s="8"/>
     </row>
@@ -2628,12 +2707,12 @@
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="7"/>
-      <c r="L99" s="7"/>
-      <c r="M99" s="7"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
-      <c r="P99" s="7"/>
+      <c r="K99" s="9"/>
+      <c r="L99" s="9"/>
+      <c r="M99" s="9"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="9"/>
+      <c r="P99" s="8"/>
       <c r="Q99" s="8"/>
       <c r="R99" s="8"/>
     </row>
@@ -2645,12 +2724,12 @@
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="7"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="9"/>
+      <c r="M100" s="9"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="9"/>
+      <c r="P100" s="8"/>
       <c r="Q100" s="8"/>
       <c r="R100" s="8"/>
     </row>
@@ -2664,16 +2743,24 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L101" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="7"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
+      <c r="K101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="9">
+        <v>0.17058616214445499</v>
+      </c>
+      <c r="N101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101" s="9">
+        <v>0.11949852870448099</v>
+      </c>
+      <c r="P101" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q101" s="8" t="s">
         <v>11</v>
       </c>
@@ -2689,12 +2776,12 @@
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="7"/>
-      <c r="L102" s="7"/>
-      <c r="M102" s="7"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
-      <c r="P102" s="7"/>
+      <c r="K102" s="9"/>
+      <c r="L102" s="9"/>
+      <c r="M102" s="9"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="9"/>
+      <c r="P102" s="8"/>
       <c r="Q102" s="8"/>
       <c r="R102" s="8"/>
     </row>
@@ -2706,12 +2793,12 @@
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="7"/>
-      <c r="L103" s="7"/>
-      <c r="M103" s="7"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
-      <c r="P103" s="7"/>
+      <c r="K103" s="9"/>
+      <c r="L103" s="9"/>
+      <c r="M103" s="9"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="9"/>
+      <c r="P103" s="8"/>
       <c r="Q103" s="8"/>
       <c r="R103" s="8"/>
     </row>
@@ -2723,12 +2810,12 @@
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="7"/>
-      <c r="L104" s="7"/>
-      <c r="M104" s="7"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
-      <c r="P104" s="7"/>
+      <c r="K104" s="9"/>
+      <c r="L104" s="9"/>
+      <c r="M104" s="9"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="9"/>
+      <c r="P104" s="8"/>
       <c r="Q104" s="8"/>
       <c r="R104" s="8"/>
     </row>
@@ -2742,16 +2829,24 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="7"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
-      <c r="P105" s="7"/>
+      <c r="K105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="9">
+        <v>0.219652082835287</v>
+      </c>
+      <c r="N105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O105" s="9">
+        <v>0.145969617876444</v>
+      </c>
+      <c r="P105" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q105" s="8" t="s">
         <v>11</v>
       </c>
@@ -2767,12 +2862,12 @@
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="7"/>
-      <c r="L106" s="7"/>
-      <c r="M106" s="7"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
-      <c r="P106" s="7"/>
+      <c r="K106" s="9"/>
+      <c r="L106" s="9"/>
+      <c r="M106" s="9"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="8"/>
       <c r="Q106" s="8"/>
       <c r="R106" s="8"/>
     </row>
@@ -2784,12 +2879,12 @@
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="7"/>
-      <c r="L107" s="7"/>
-      <c r="M107" s="7"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
-      <c r="P107" s="7"/>
+      <c r="K107" s="9"/>
+      <c r="L107" s="9"/>
+      <c r="M107" s="9"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="9"/>
+      <c r="P107" s="8"/>
       <c r="Q107" s="8"/>
       <c r="R107" s="8"/>
     </row>
@@ -2801,12 +2896,12 @@
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="7"/>
-      <c r="L108" s="7"/>
-      <c r="M108" s="7"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
-      <c r="P108" s="7"/>
+      <c r="K108" s="9"/>
+      <c r="L108" s="9"/>
+      <c r="M108" s="9"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="9"/>
+      <c r="P108" s="8"/>
       <c r="Q108" s="8"/>
       <c r="R108" s="8"/>
     </row>
@@ -2820,16 +2915,24 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M109" s="7"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
-      <c r="P109" s="7"/>
+      <c r="K109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M109" s="9">
+        <v>0.27256493121848202</v>
+      </c>
+      <c r="N109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O109" s="9">
+        <v>0.15719859527191099</v>
+      </c>
+      <c r="P109" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q109" s="8" t="s">
         <v>11</v>
       </c>
@@ -2845,12 +2948,12 @@
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="7"/>
-      <c r="L110" s="7"/>
-      <c r="M110" s="7"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
-      <c r="P110" s="7"/>
+      <c r="K110" s="9"/>
+      <c r="L110" s="9"/>
+      <c r="M110" s="9"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="9"/>
+      <c r="P110" s="8"/>
       <c r="Q110" s="8"/>
       <c r="R110" s="8"/>
     </row>
@@ -2862,12 +2965,12 @@
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="7"/>
-      <c r="L111" s="7"/>
-      <c r="M111" s="7"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
-      <c r="P111" s="7"/>
+      <c r="K111" s="9"/>
+      <c r="L111" s="9"/>
+      <c r="M111" s="9"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="9"/>
+      <c r="P111" s="8"/>
       <c r="Q111" s="8"/>
       <c r="R111" s="8"/>
     </row>
@@ -2879,12 +2982,12 @@
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="7"/>
-      <c r="L112" s="7"/>
-      <c r="M112" s="7"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
-      <c r="P112" s="7"/>
+      <c r="K112" s="9"/>
+      <c r="L112" s="9"/>
+      <c r="M112" s="9"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="9"/>
+      <c r="P112" s="8"/>
       <c r="Q112" s="8"/>
       <c r="R112" s="8"/>
     </row>
@@ -2898,16 +3001,24 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L113" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M113" s="7"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
-      <c r="P113" s="7"/>
+      <c r="K113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="9">
+        <v>6.2700060480871303E-2</v>
+      </c>
+      <c r="N113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O113" s="9">
+        <v>3.09751238890398E-2</v>
+      </c>
+      <c r="P113" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q113" s="8" t="s">
         <v>11</v>
       </c>
@@ -2923,12 +3034,12 @@
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="7"/>
-      <c r="L114" s="7"/>
-      <c r="M114" s="7"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
-      <c r="P114" s="7"/>
+      <c r="K114" s="9"/>
+      <c r="L114" s="9"/>
+      <c r="M114" s="9"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="9"/>
+      <c r="P114" s="8"/>
       <c r="Q114" s="8"/>
       <c r="R114" s="8"/>
     </row>
@@ -2940,12 +3051,12 @@
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="7"/>
-      <c r="L115" s="7"/>
-      <c r="M115" s="7"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
-      <c r="P115" s="7"/>
+      <c r="K115" s="9"/>
+      <c r="L115" s="9"/>
+      <c r="M115" s="9"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="9"/>
+      <c r="P115" s="8"/>
       <c r="Q115" s="8"/>
       <c r="R115" s="8"/>
     </row>
@@ -2957,12 +3068,12 @@
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="7"/>
-      <c r="L116" s="7"/>
-      <c r="M116" s="7"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
-      <c r="P116" s="7"/>
+      <c r="K116" s="9"/>
+      <c r="L116" s="9"/>
+      <c r="M116" s="9"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="9"/>
+      <c r="P116" s="8"/>
       <c r="Q116" s="8"/>
       <c r="R116" s="8"/>
     </row>
@@ -2976,16 +3087,24 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L117" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M117" s="7"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
-      <c r="P117" s="7"/>
+      <c r="K117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0.21402465142211599</v>
+      </c>
+      <c r="N117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="O117" s="9">
+        <v>0.16071994068421799</v>
+      </c>
+      <c r="P117" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="Q117" s="8" t="s">
         <v>11</v>
       </c>
@@ -3001,12 +3120,12 @@
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="7"/>
-      <c r="L118" s="7"/>
-      <c r="M118" s="7"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
-      <c r="P118" s="7"/>
+      <c r="K118" s="9"/>
+      <c r="L118" s="9"/>
+      <c r="M118" s="9"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="9"/>
+      <c r="P118" s="8"/>
       <c r="Q118" s="8"/>
       <c r="R118" s="8"/>
     </row>
@@ -3018,12 +3137,12 @@
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="7"/>
-      <c r="L119" s="7"/>
-      <c r="M119" s="7"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
-      <c r="P119" s="7"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="8"/>
       <c r="Q119" s="8"/>
       <c r="R119" s="8"/>
     </row>
@@ -3035,28 +3154,241 @@
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="7"/>
-      <c r="L120" s="7"/>
-      <c r="M120" s="7"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
-      <c r="P120" s="7"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="8"/>
       <c r="Q120" s="8"/>
       <c r="R120" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -3081,231 +3413,18 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="P3:P6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -205,10 +205,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -494,8 +494,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="X115" sqref="X115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B79" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="I94" sqref="I94:I100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,38 +523,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8"/>
+      <c r="R1" s="9"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -607,7 +610,7 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
@@ -619,34 +622,34 @@
       <c r="J3" s="7">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="9">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="8" t="s">
+      <c r="M3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>11</v>
       </c>
       <c r="T3" s="1"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -656,18 +659,18 @@
       <c r="J4" s="7">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="9"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="9"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="9"/>
       <c r="T4" s="1"/>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -677,18 +680,18 @@
       <c r="J5" s="7">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="9"/>
       <c r="T5" s="1"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -698,181 +701,181 @@
       <c r="J6" s="7">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="8"/>
+      <c r="R6" s="9"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="8" t="s">
+      <c r="K7" s="8"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="9"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="9"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="9"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="9"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="8"/>
+      <c r="R9" s="9"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="8"/>
+      <c r="R10" s="9"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="9">
+      <c r="K11" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <v>0.435</v>
       </c>
-      <c r="M11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="8" t="s">
+      <c r="M11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>11</v>
       </c>
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="9"/>
-      <c r="P12" s="8"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="8"/>
+      <c r="R12" s="9"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="9"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="9"/>
-      <c r="P13" s="8"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="8"/>
+      <c r="R13" s="9"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="9"/>
-      <c r="P14" s="8"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="8"/>
+      <c r="R14" s="9"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="5">
@@ -886,31 +889,31 @@
       <c r="H15" s="5"/>
       <c r="I15" s="6"/>
       <c r="J15" s="5"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="8" t="s">
+      <c r="K15" s="8"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
@@ -922,19 +925,19 @@
       <c r="H16" s="5"/>
       <c r="I16" s="6"/>
       <c r="J16" s="5"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="9"/>
-      <c r="P16" s="8"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="8"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="9"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
@@ -946,19 +949,19 @@
       <c r="H17" s="5"/>
       <c r="I17" s="6"/>
       <c r="J17" s="5"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="8"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="8"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="8"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="8"/>
+      <c r="R17" s="9"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -966,19 +969,19 @@
       <c r="E18" s="6"/>
       <c r="G18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="9"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="8"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="8"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="9"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
     </row>
     <row r="19" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="5">
@@ -988,31 +991,31 @@
       <c r="E19" s="6"/>
       <c r="G19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="8" t="s">
+      <c r="K19" s="8"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="R19" s="9" t="s">
         <v>11</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="1"/>
     </row>
     <row r="20" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1020,19 +1023,19 @@
       <c r="E20" s="6"/>
       <c r="G20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="9"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="8"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="8"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
     </row>
     <row r="21" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1040,19 +1043,19 @@
       <c r="E21" s="6"/>
       <c r="G21" s="6"/>
       <c r="I21" s="6"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="9"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="9"/>
-      <c r="P21" s="8"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="8"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="9"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
     </row>
     <row r="22" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1060,14 +1063,14 @@
       <c r="E22" s="6"/>
       <c r="G22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="8"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="9"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
     </row>
@@ -1075,7 +1078,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="2">
@@ -1087,33 +1090,33 @@
       <c r="J24" s="7">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="8">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="9">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="8">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="9">
+      <c r="N24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O24" s="8">
         <v>0.153</v>
       </c>
-      <c r="P24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="8" t="s">
+      <c r="P24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1123,17 +1126,17 @@
       <c r="J25" s="7">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="9"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="9"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="9"/>
-      <c r="P25" s="8"/>
-      <c r="Q25" s="8"/>
-      <c r="R25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="8"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+      <c r="R25" s="9"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1143,17 +1146,17 @@
       <c r="J26" s="7">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="9"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="8"/>
-      <c r="Q26" s="8"/>
-      <c r="R26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="8"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="9"/>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="9"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1163,17 +1166,17 @@
       <c r="J27" s="7">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="9"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="9"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="9"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
+      <c r="K27" s="8"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="8"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="9"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2">
@@ -1185,33 +1188,33 @@
       <c r="J28" s="7">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="8">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="9">
         <v>0.624</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="8">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="9">
+      <c r="N28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O28" s="8">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="8" t="s">
+      <c r="P28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R28" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1221,17 +1224,17 @@
       <c r="J29" s="7">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="9"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="9"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="9"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-      <c r="R29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="9"/>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1241,17 +1244,17 @@
       <c r="J30" s="7">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="9"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="9"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="9"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="9"/>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1261,17 +1264,17 @@
       <c r="J31" s="7">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="9"/>
-      <c r="L31" s="8"/>
-      <c r="M31" s="9"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
+      <c r="K31" s="8"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="8"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="9"/>
     </row>
     <row r="32" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2">
@@ -1283,33 +1286,33 @@
       <c r="J32" s="7">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="8">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="8">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="9">
+      <c r="N32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O32" s="8">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" s="8" t="s">
+      <c r="P32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R32" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -1319,17 +1322,17 @@
       <c r="J33" s="7">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="9"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="9"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="9"/>
-      <c r="P33" s="8"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="8"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="8"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -1339,17 +1342,17 @@
       <c r="J34" s="7">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="9"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="9"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
+      <c r="K34" s="8"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="8"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -1359,17 +1362,17 @@
       <c r="J35" s="7">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="9"/>
-      <c r="L35" s="8"/>
-      <c r="M35" s="9"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="8"/>
-      <c r="Q35" s="8"/>
-      <c r="R35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="2">
@@ -1381,33 +1384,33 @@
       <c r="J36" s="7">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="8">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="8">
+      <c r="L36" s="9">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="8">
         <v>0.189</v>
       </c>
-      <c r="N36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="9">
+      <c r="N36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O36" s="8">
         <v>0.18</v>
       </c>
-      <c r="P36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R36" s="8" t="s">
+      <c r="P36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R36" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -1417,17 +1420,17 @@
       <c r="J37" s="7">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="9"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="9"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
+      <c r="K37" s="8"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="8"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -1437,17 +1440,17 @@
       <c r="J38" s="7">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="9"/>
-      <c r="L38" s="8"/>
-      <c r="M38" s="9"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="9"/>
-      <c r="P38" s="8"/>
-      <c r="Q38" s="8"/>
-      <c r="R38" s="8"/>
+      <c r="K38" s="8"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="8"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -1457,17 +1460,17 @@
       <c r="J39" s="7">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="9"/>
-      <c r="L39" s="8"/>
-      <c r="M39" s="9"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="9"/>
-      <c r="P39" s="8"/>
-      <c r="Q39" s="8"/>
-      <c r="R39" s="8"/>
+      <c r="K39" s="8"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="8"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="2">
@@ -1479,33 +1482,33 @@
       <c r="J40" s="7">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="8">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="8">
+      <c r="L40" s="9">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <v>0.254</v>
       </c>
-      <c r="N40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="9">
+      <c r="N40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="8">
         <v>0.187</v>
       </c>
-      <c r="P40" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="9">
+      <c r="P40" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="8">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="8">
+      <c r="R40" s="9">
         <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -1515,17 +1518,17 @@
       <c r="J41" s="7">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="9"/>
-      <c r="L41" s="8"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="8"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="9"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -1535,17 +1538,17 @@
       <c r="J42" s="7">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="9"/>
-      <c r="L42" s="8"/>
-      <c r="M42" s="9"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="9"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="9"/>
-      <c r="R42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="8"/>
+      <c r="R42" s="9"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -1555,17 +1558,17 @@
       <c r="J43" s="7">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="9"/>
-      <c r="L43" s="8"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="8"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="9"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2">
@@ -1577,33 +1580,33 @@
       <c r="J44" s="7">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="8">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="8">
+      <c r="L44" s="9">
         <v>2.7</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="8">
         <v>0.159</v>
       </c>
-      <c r="N44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" s="9">
+      <c r="N44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="8">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44" s="8" t="s">
+      <c r="P44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R44" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -1613,17 +1616,17 @@
       <c r="J45" s="7">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="9"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -1633,17 +1636,17 @@
       <c r="J46" s="7">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="9"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="8"/>
-      <c r="Q46" s="8"/>
-      <c r="R46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -1653,17 +1656,17 @@
       <c r="J47" s="7">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="9"/>
-      <c r="L47" s="8"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="8"/>
-      <c r="Q47" s="8"/>
-      <c r="R47" s="8"/>
+      <c r="K47" s="8"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="8"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2">
@@ -1675,33 +1678,33 @@
       <c r="J48" s="7">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="8">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="8">
+      <c r="L48" s="9">
         <v>4.883</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="8">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O48" s="9">
+      <c r="N48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O48" s="8">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" s="8" t="s">
+      <c r="P48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R48" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
@@ -1711,17 +1714,17 @@
       <c r="J49" s="7">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="9"/>
-      <c r="L49" s="8"/>
-      <c r="M49" s="9"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="9"/>
-      <c r="P49" s="8"/>
-      <c r="Q49" s="8"/>
-      <c r="R49" s="8"/>
+      <c r="K49" s="8"/>
+      <c r="L49" s="9"/>
+      <c r="M49" s="8"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
@@ -1731,17 +1734,17 @@
       <c r="J50" s="7">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="9"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="9"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="9"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
+      <c r="K50" s="8"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="8"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
@@ -1751,17 +1754,17 @@
       <c r="J51" s="7">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="9"/>
-      <c r="L51" s="8"/>
-      <c r="M51" s="9"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="9"/>
-      <c r="P51" s="8"/>
-      <c r="Q51" s="8"/>
-      <c r="R51" s="8"/>
+      <c r="K51" s="8"/>
+      <c r="L51" s="9"/>
+      <c r="M51" s="8"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="9"/>
+      <c r="Q51" s="9"/>
+      <c r="R51" s="9"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="2">
@@ -1773,33 +1776,33 @@
       <c r="J52" s="7">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="8">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="8">
+      <c r="L52" s="9">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O52" s="9">
+      <c r="N52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O52" s="8">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52" s="8" t="s">
+      <c r="P52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R52" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
@@ -1809,17 +1812,17 @@
       <c r="J53" s="7">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="9"/>
-      <c r="L53" s="8"/>
-      <c r="M53" s="9"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="9"/>
-      <c r="P53" s="8"/>
-      <c r="Q53" s="8"/>
-      <c r="R53" s="8"/>
+      <c r="K53" s="8"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="8"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
@@ -1829,17 +1832,17 @@
       <c r="J54" s="7">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="9"/>
-      <c r="L54" s="8"/>
-      <c r="M54" s="9"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="9"/>
-      <c r="P54" s="8"/>
-      <c r="Q54" s="8"/>
-      <c r="R54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
@@ -1849,20 +1852,20 @@
       <c r="J55" s="7">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="9"/>
-      <c r="L55" s="8"/>
-      <c r="M55" s="9"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="9"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
-      <c r="R55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="8"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="8"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="2">
@@ -1871,84 +1874,84 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="9">
+      <c r="K57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M57" s="8">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O57" s="9">
+      <c r="N57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O57" s="8">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R57" s="8" t="s">
+      <c r="P57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R57" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="9"/>
-      <c r="L58" s="9"/>
-      <c r="M58" s="9"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="9"/>
-      <c r="P58" s="8"/>
-      <c r="Q58" s="8"/>
-      <c r="R58" s="8"/>
+      <c r="K58" s="8"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="8"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="9"/>
-      <c r="L59" s="9"/>
-      <c r="M59" s="9"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="9"/>
-      <c r="P59" s="8"/>
-      <c r="Q59" s="8"/>
-      <c r="R59" s="8"/>
+      <c r="K59" s="8"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="8"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="9"/>
-      <c r="L60" s="9"/>
-      <c r="M60" s="9"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="9"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
-      <c r="R60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="2">
@@ -1957,87 +1960,87 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="9">
+      <c r="K61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M61" s="8">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O61" s="9">
+      <c r="N61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O61" s="8">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R61" s="8" t="s">
+      <c r="P61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R61" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="9"/>
-      <c r="L62" s="9"/>
-      <c r="M62" s="9"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="9"/>
-      <c r="P62" s="8"/>
-      <c r="Q62" s="8"/>
-      <c r="R62" s="8"/>
+      <c r="K62" s="8"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="8"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="9"/>
-      <c r="L63" s="9"/>
-      <c r="M63" s="9"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="9"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
+      <c r="K63" s="8"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="8"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="9"/>
-      <c r="L64" s="9"/>
-      <c r="M64" s="9"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="9"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
-      <c r="R64" s="8"/>
+      <c r="K64" s="8"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="8"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B66" s="2">
@@ -2046,87 +2049,87 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M66" s="9">
+      <c r="K66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M66" s="8">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" s="9">
+      <c r="N66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O66" s="8">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R66" s="8" t="s">
+      <c r="P66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q66" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R66" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="9"/>
-      <c r="L67" s="9"/>
-      <c r="M67" s="9"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="9"/>
-      <c r="P67" s="8"/>
-      <c r="Q67" s="8"/>
-      <c r="R67" s="8"/>
+      <c r="K67" s="8"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="8"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="9"/>
-      <c r="L68" s="9"/>
-      <c r="M68" s="9"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="9"/>
-      <c r="P68" s="8"/>
-      <c r="Q68" s="8"/>
-      <c r="R68" s="8"/>
+      <c r="K68" s="8"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="8"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="9"/>
-      <c r="L69" s="9"/>
-      <c r="M69" s="9"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="9"/>
-      <c r="P69" s="8"/>
-      <c r="Q69" s="8"/>
-      <c r="R69" s="8"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="2">
@@ -2135,87 +2138,87 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M71" s="9">
+      <c r="K71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M71" s="8">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O71" s="9">
+      <c r="N71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O71" s="8">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q71" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R71" s="8" t="s">
+      <c r="P71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q71" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R71" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="9"/>
-      <c r="L72" s="9"/>
-      <c r="M72" s="9"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="9"/>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="9"/>
-      <c r="L73" s="9"/>
-      <c r="M73" s="9"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="9"/>
-      <c r="P73" s="8"/>
-      <c r="Q73" s="8"/>
-      <c r="R73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="8"/>
-      <c r="Q74" s="8"/>
-      <c r="R74" s="8"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="8"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B76" s="2">
@@ -2224,84 +2227,84 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="9">
+      <c r="K76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L76" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M76" s="8">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O76" s="9">
+      <c r="N76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O76" s="8">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R76" s="8" t="s">
+      <c r="P76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q76" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R76" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="9"/>
-      <c r="L77" s="9"/>
-      <c r="M77" s="9"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="9"/>
-      <c r="P77" s="8"/>
-      <c r="Q77" s="8"/>
-      <c r="R77" s="8"/>
+      <c r="K77" s="8"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="8"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="9"/>
-      <c r="L78" s="9"/>
-      <c r="M78" s="9"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="9"/>
-      <c r="P78" s="8"/>
-      <c r="Q78" s="8"/>
-      <c r="R78" s="8"/>
+      <c r="K78" s="8"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="8"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="9"/>
-      <c r="L79" s="9"/>
-      <c r="M79" s="9"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="9"/>
-      <c r="P79" s="8"/>
-      <c r="Q79" s="8"/>
-      <c r="R79" s="8"/>
+      <c r="K79" s="8"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="8"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="2">
@@ -2310,84 +2313,84 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M80" s="9">
+      <c r="K80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L80" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M80" s="8">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O80" s="9">
+      <c r="N80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O80" s="8">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q80" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R80" s="8" t="s">
+      <c r="P80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q80" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R80" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="9"/>
-      <c r="L81" s="9"/>
-      <c r="M81" s="9"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="9"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
+      <c r="K81" s="8"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="8"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="9"/>
-      <c r="L82" s="9"/>
-      <c r="M82" s="9"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="9"/>
-      <c r="P82" s="8"/>
-      <c r="Q82" s="8"/>
-      <c r="R82" s="8"/>
+      <c r="K82" s="8"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="8"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="9"/>
-      <c r="L83" s="9"/>
-      <c r="M83" s="9"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="9"/>
-      <c r="P83" s="8"/>
-      <c r="Q83" s="8"/>
-      <c r="R83" s="8"/>
+      <c r="K83" s="8"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="8"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B84" s="2">
@@ -2396,87 +2399,87 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" s="9">
+      <c r="K84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L84" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M84" s="8">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84" s="9">
+      <c r="N84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O84" s="8">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q84" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R84" s="8" t="s">
+      <c r="P84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q84" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R84" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="9"/>
-      <c r="L85" s="9"/>
-      <c r="M85" s="9"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="9"/>
-      <c r="P85" s="8"/>
-      <c r="Q85" s="8"/>
-      <c r="R85" s="8"/>
+      <c r="K85" s="8"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="8"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="9"/>
-      <c r="L86" s="9"/>
-      <c r="M86" s="9"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="9"/>
-      <c r="P86" s="8"/>
-      <c r="Q86" s="8"/>
-      <c r="R86" s="8"/>
+      <c r="K86" s="8"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="8"/>
+      <c r="P86" s="9"/>
+      <c r="Q86" s="9"/>
+      <c r="R86" s="9"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="9"/>
-      <c r="L87" s="9"/>
-      <c r="M87" s="9"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="9"/>
-      <c r="P87" s="8"/>
-      <c r="Q87" s="8"/>
-      <c r="R87" s="8"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="9"/>
+      <c r="Q87" s="9"/>
+      <c r="R87" s="9"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="2">
@@ -2485,84 +2488,84 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="9">
+      <c r="K89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M89" s="8">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O89" s="9">
+      <c r="N89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O89" s="8">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q89" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R89" s="8" t="s">
+      <c r="P89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q89" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R89" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="9"/>
-      <c r="L90" s="9"/>
-      <c r="M90" s="9"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="9"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="9"/>
+      <c r="Q90" s="9"/>
+      <c r="R90" s="9"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="9"/>
-      <c r="L91" s="9"/>
-      <c r="M91" s="9"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="8"/>
-      <c r="Q91" s="8"/>
-      <c r="R91" s="8"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="8"/>
+      <c r="P91" s="9"/>
+      <c r="Q91" s="9"/>
+      <c r="R91" s="9"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="9"/>
-      <c r="L92" s="9"/>
-      <c r="M92" s="9"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="9"/>
-      <c r="P92" s="8"/>
-      <c r="Q92" s="8"/>
-      <c r="R92" s="8"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="8"/>
+      <c r="P92" s="9"/>
+      <c r="Q92" s="9"/>
+      <c r="R92" s="9"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="2">
@@ -2571,84 +2574,84 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M93" s="9">
+      <c r="K93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L93" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M93" s="8">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O93" s="9">
+      <c r="N93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O93" s="8">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q93" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R93" s="8" t="s">
+      <c r="P93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q93" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R93" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="9"/>
-      <c r="L94" s="9"/>
-      <c r="M94" s="9"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="9"/>
-      <c r="P94" s="8"/>
-      <c r="Q94" s="8"/>
-      <c r="R94" s="8"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="8"/>
+      <c r="P94" s="9"/>
+      <c r="Q94" s="9"/>
+      <c r="R94" s="9"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="9"/>
-      <c r="L95" s="9"/>
-      <c r="M95" s="9"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="9"/>
-      <c r="P95" s="8"/>
-      <c r="Q95" s="8"/>
-      <c r="R95" s="8"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="8"/>
+      <c r="P95" s="9"/>
+      <c r="Q95" s="9"/>
+      <c r="R95" s="9"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="9"/>
-      <c r="L96" s="9"/>
-      <c r="M96" s="9"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="9"/>
-      <c r="P96" s="8"/>
-      <c r="Q96" s="8"/>
-      <c r="R96" s="8"/>
+      <c r="K96" s="8"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="8"/>
+      <c r="P96" s="9"/>
+      <c r="Q96" s="9"/>
+      <c r="R96" s="9"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="2">
@@ -2657,84 +2660,84 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M97" s="9">
+      <c r="K97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L97" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="8">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O97" s="9">
+      <c r="N97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O97" s="8">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R97" s="8" t="s">
+      <c r="P97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q97" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R97" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="9"/>
-      <c r="L98" s="9"/>
-      <c r="M98" s="9"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="9"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
-      <c r="R98" s="8"/>
+      <c r="K98" s="8"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="8"/>
+      <c r="P98" s="9"/>
+      <c r="Q98" s="9"/>
+      <c r="R98" s="9"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="9"/>
-      <c r="L99" s="9"/>
-      <c r="M99" s="9"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="9"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
+      <c r="K99" s="8"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="8"/>
+      <c r="P99" s="9"/>
+      <c r="Q99" s="9"/>
+      <c r="R99" s="9"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="9"/>
-      <c r="L100" s="9"/>
-      <c r="M100" s="9"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="9"/>
-      <c r="P100" s="8"/>
-      <c r="Q100" s="8"/>
-      <c r="R100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="8"/>
+      <c r="P100" s="9"/>
+      <c r="Q100" s="9"/>
+      <c r="R100" s="9"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B101" s="2">
@@ -2743,84 +2746,84 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="9">
+      <c r="K101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L101" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M101" s="8">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O101" s="9">
+      <c r="N101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O101" s="8">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R101" s="8" t="s">
+      <c r="P101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q101" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R101" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="9"/>
-      <c r="L102" s="9"/>
-      <c r="M102" s="9"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="9"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
+      <c r="K102" s="8"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="8"/>
+      <c r="P102" s="9"/>
+      <c r="Q102" s="9"/>
+      <c r="R102" s="9"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="9"/>
-      <c r="L103" s="9"/>
-      <c r="M103" s="9"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="9"/>
-      <c r="P103" s="8"/>
-      <c r="Q103" s="8"/>
-      <c r="R103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="9"/>
+      <c r="Q103" s="9"/>
+      <c r="R103" s="9"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="9"/>
-      <c r="L104" s="9"/>
-      <c r="M104" s="9"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="9"/>
-      <c r="P104" s="8"/>
-      <c r="Q104" s="8"/>
-      <c r="R104" s="8"/>
+      <c r="K104" s="8"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="8"/>
+      <c r="P104" s="9"/>
+      <c r="Q104" s="9"/>
+      <c r="R104" s="9"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="2">
@@ -2829,84 +2832,84 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="9">
+      <c r="K105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L105" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M105" s="8">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O105" s="9">
+      <c r="N105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O105" s="8">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R105" s="8" t="s">
+      <c r="P105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q105" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R105" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="9"/>
-      <c r="L106" s="9"/>
-      <c r="M106" s="9"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="9"/>
-      <c r="P106" s="8"/>
-      <c r="Q106" s="8"/>
-      <c r="R106" s="8"/>
+      <c r="K106" s="8"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="8"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="9"/>
-      <c r="L107" s="9"/>
-      <c r="M107" s="9"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="9"/>
-      <c r="P107" s="8"/>
-      <c r="Q107" s="8"/>
-      <c r="R107" s="8"/>
+      <c r="K107" s="8"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="8"/>
+      <c r="P107" s="9"/>
+      <c r="Q107" s="9"/>
+      <c r="R107" s="9"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="9"/>
-      <c r="L108" s="9"/>
-      <c r="M108" s="9"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="9"/>
-      <c r="P108" s="8"/>
-      <c r="Q108" s="8"/>
-      <c r="R108" s="8"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="9"/>
+      <c r="Q108" s="9"/>
+      <c r="R108" s="9"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B109" s="2">
@@ -2915,84 +2918,84 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M109" s="9">
+      <c r="K109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L109" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M109" s="8">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O109" s="9">
+      <c r="N109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O109" s="8">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q109" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R109" s="8" t="s">
+      <c r="P109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q109" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R109" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="9"/>
-      <c r="L110" s="9"/>
-      <c r="M110" s="9"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="9"/>
-      <c r="P110" s="8"/>
-      <c r="Q110" s="8"/>
-      <c r="R110" s="8"/>
+      <c r="K110" s="8"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="8"/>
+      <c r="P110" s="9"/>
+      <c r="Q110" s="9"/>
+      <c r="R110" s="9"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="9"/>
-      <c r="L111" s="9"/>
-      <c r="M111" s="9"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="9"/>
-      <c r="P111" s="8"/>
-      <c r="Q111" s="8"/>
-      <c r="R111" s="8"/>
+      <c r="K111" s="8"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="8"/>
+      <c r="P111" s="9"/>
+      <c r="Q111" s="9"/>
+      <c r="R111" s="9"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="9"/>
-      <c r="L112" s="9"/>
-      <c r="M112" s="9"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="9"/>
-      <c r="P112" s="8"/>
-      <c r="Q112" s="8"/>
-      <c r="R112" s="8"/>
+      <c r="K112" s="8"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="8"/>
+      <c r="P112" s="9"/>
+      <c r="Q112" s="9"/>
+      <c r="R112" s="9"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B113" s="2">
@@ -3001,84 +3004,84 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M113" s="9">
+      <c r="K113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L113" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M113" s="8">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O113" s="9">
+      <c r="N113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O113" s="8">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q113" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R113" s="8" t="s">
+      <c r="P113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q113" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R113" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="9"/>
-      <c r="L114" s="9"/>
-      <c r="M114" s="9"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="9"/>
-      <c r="P114" s="8"/>
-      <c r="Q114" s="8"/>
-      <c r="R114" s="8"/>
+      <c r="K114" s="8"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="8"/>
+      <c r="P114" s="9"/>
+      <c r="Q114" s="9"/>
+      <c r="R114" s="9"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="9"/>
-      <c r="L115" s="9"/>
-      <c r="M115" s="9"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="9"/>
-      <c r="P115" s="8"/>
-      <c r="Q115" s="8"/>
-      <c r="R115" s="8"/>
+      <c r="K115" s="8"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="8"/>
+      <c r="P115" s="9"/>
+      <c r="Q115" s="9"/>
+      <c r="R115" s="9"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="9"/>
-      <c r="L116" s="9"/>
-      <c r="M116" s="9"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="9"/>
-      <c r="P116" s="8"/>
-      <c r="Q116" s="8"/>
-      <c r="R116" s="8"/>
+      <c r="K116" s="8"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="8"/>
+      <c r="P116" s="9"/>
+      <c r="Q116" s="9"/>
+      <c r="R116" s="9"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B117" s="2">
@@ -3087,169 +3090,235 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="L117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="M117" s="9">
+      <c r="K117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L117" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="M117" s="8">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="O117" s="9">
+      <c r="N117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="O117" s="8">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q117" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="R117" s="8" t="s">
+      <c r="P117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q117" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="R117" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="9"/>
-      <c r="L118" s="9"/>
-      <c r="M118" s="9"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="9"/>
-      <c r="P118" s="8"/>
-      <c r="Q118" s="8"/>
-      <c r="R118" s="8"/>
+      <c r="K118" s="8"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="8"/>
+      <c r="P118" s="9"/>
+      <c r="Q118" s="9"/>
+      <c r="R118" s="9"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="9"/>
-      <c r="L119" s="9"/>
-      <c r="M119" s="9"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="9"/>
-      <c r="P119" s="8"/>
-      <c r="Q119" s="8"/>
-      <c r="R119" s="8"/>
+      <c r="K119" s="8"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="8"/>
+      <c r="P119" s="9"/>
+      <c r="Q119" s="9"/>
+      <c r="R119" s="9"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="9"/>
-      <c r="L120" s="9"/>
-      <c r="M120" s="9"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="9"/>
-      <c r="P120" s="8"/>
-      <c r="Q120" s="8"/>
-      <c r="R120" s="8"/>
+      <c r="K120" s="8"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="8"/>
+      <c r="P120" s="9"/>
+      <c r="Q120" s="9"/>
+      <c r="R120" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="260">
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
     <mergeCell ref="L109:L112"/>
     <mergeCell ref="K113:K116"/>
     <mergeCell ref="L113:L116"/>
@@ -3274,157 +3343,91 @@
     <mergeCell ref="L84:L87"/>
     <mergeCell ref="K89:K92"/>
     <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,17 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04A71E1B-CE95-45D1-ACEF-67EBC4EABD75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597817EF-EACF-42C0-851F-C88F5892A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3780" yWindow="2595" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -156,7 +165,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -218,19 +227,19 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -249,6 +258,105 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>375297</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>83829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68A82E8-5576-475B-AF65-C81DF54EA5D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12230100" y="1219200"/>
+          <a:ext cx="5852172" cy="4389129"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>135537</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>151317</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB1CE9C-D8CE-4A31-A3B0-F397795C7B4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12211050" y="5829300"/>
+          <a:ext cx="8069862" cy="4418517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -520,28 +628,28 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Y1" sqref="Y1:Z1"/>
+      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="3" max="3" width="9.140625" style="3"/>
-    <col min="4" max="4" width="9.140625" style="10"/>
+    <col min="4" max="4" width="9.140625" style="8"/>
     <col min="5" max="5" width="9.140625" style="3"/>
-    <col min="6" max="6" width="9.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.140625" style="3"/>
-    <col min="8" max="8" width="9.140625" style="10"/>
+    <col min="8" max="8" width="9.140625" style="8"/>
     <col min="9" max="9" width="9.140625" style="2"/>
-    <col min="10" max="10" width="9.140625" style="10"/>
+    <col min="10" max="10" width="9.140625" style="8"/>
     <col min="11" max="11" width="9.140625" style="3"/>
-    <col min="12" max="12" width="9.140625" style="10"/>
+    <col min="12" max="12" width="9.140625" style="8"/>
     <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="14" max="14" width="9.140625" style="10"/>
+    <col min="14" max="14" width="9.140625" style="8"/>
     <col min="15" max="15" width="9.140625" style="3"/>
-    <col min="16" max="16" width="9.140625" style="10"/>
+    <col min="16" max="16" width="9.140625" style="8"/>
     <col min="17" max="17" width="9.140625" style="3"/>
-    <col min="18" max="18" width="9.140625" style="10"/>
+    <col min="18" max="18" width="9.140625" style="8"/>
     <col min="19" max="19" width="9.140625" style="3"/>
     <col min="20" max="20" width="9.140625" style="2"/>
     <col min="21" max="21" width="9.140625" style="7"/>
@@ -553,50 +661,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8" t="s">
+      <c r="D1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8" t="s">
+      <c r="H1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8" t="s">
+      <c r="J1" s="9"/>
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8" t="s">
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8" t="s">
+      <c r="N1" s="9"/>
+      <c r="O1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8" t="s">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="8"/>
-      <c r="U1" s="8" t="s">
+      <c r="R1" s="9"/>
+      <c r="U1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8" t="s">
+      <c r="V1" s="9"/>
+      <c r="W1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8" t="s">
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="Z1" s="8"/>
+      <c r="Z1" s="9"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -605,72 +713,72 @@
       <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="M2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="O2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="10" t="s">
+      <c r="P2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="10" t="s">
+      <c r="R2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="U2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="10" t="s">
+      <c r="V2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="10" t="s">
+      <c r="X2" s="8" t="s">
         <v>10</v>
       </c>
       <c r="Y2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="10" t="s">
+      <c r="Z2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="2">
@@ -679,28 +787,28 @@
       <c r="I3" s="6">
         <v>4.0811E-2</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="8">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>0.22309999999999999</v>
       </c>
       <c r="L3" s="11">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R3" s="11" t="s">
@@ -710,163 +818,163 @@
       <c r="U3" s="7">
         <v>4.5740999999999997E-2</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="8">
         <v>0.71581600000000001</v>
       </c>
       <c r="W3" s="7">
         <v>4.7111E-2</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="8">
         <v>0.71581600000000001</v>
       </c>
       <c r="Y3" s="7">
         <v>4.0811E-2</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="8">
         <v>0.81581599999999999</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="8"/>
+      <c r="A4" s="9"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
       <c r="I4" s="6">
         <v>3.3570999999999997E-2</v>
       </c>
-      <c r="J4" s="10">
+      <c r="J4" s="8">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="9"/>
+      <c r="K4" s="10"/>
       <c r="L4" s="11"/>
-      <c r="M4" s="9"/>
+      <c r="M4" s="10"/>
       <c r="N4" s="11"/>
-      <c r="O4" s="9"/>
+      <c r="O4" s="10"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="9"/>
+      <c r="Q4" s="10"/>
       <c r="R4" s="11"/>
       <c r="T4" s="1"/>
       <c r="U4" s="7">
         <v>3.9321000000000002E-2</v>
       </c>
-      <c r="V4" s="10">
+      <c r="V4" s="8">
         <v>1.410979</v>
       </c>
       <c r="W4" s="7">
         <v>4.0571000000000003E-2</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="8">
         <v>1.5109790000000001</v>
       </c>
       <c r="Y4" s="7">
         <v>3.3570999999999997E-2</v>
       </c>
-      <c r="Z4" s="10">
+      <c r="Z4" s="8">
         <v>1.6109789999999999</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
       <c r="I5" s="6">
         <v>2.8816000000000001E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="J5" s="8">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="9"/>
+      <c r="K5" s="10"/>
       <c r="L5" s="11"/>
-      <c r="M5" s="9"/>
+      <c r="M5" s="10"/>
       <c r="N5" s="11"/>
-      <c r="O5" s="9"/>
+      <c r="O5" s="10"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="9"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="11"/>
       <c r="T5" s="1"/>
       <c r="U5" s="7">
         <v>3.1038E-2</v>
       </c>
-      <c r="V5" s="10">
+      <c r="V5" s="8">
         <v>2.9</v>
       </c>
       <c r="W5" s="7">
         <v>3.3815999999999999E-2</v>
       </c>
-      <c r="X5" s="10">
+      <c r="X5" s="8">
         <v>3.0145</v>
       </c>
       <c r="Y5" s="7">
         <v>2.8816000000000001E-2</v>
       </c>
-      <c r="Z5" s="10">
+      <c r="Z5" s="8">
         <v>3.1995640000000001</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
+      <c r="A6" s="9"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
       <c r="I6" s="6">
         <v>2.2353999999999999E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="J6" s="8">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="9"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="11"/>
-      <c r="M6" s="9"/>
+      <c r="M6" s="10"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="9"/>
+      <c r="O6" s="10"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="9"/>
+      <c r="Q6" s="10"/>
       <c r="R6" s="11"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
       <c r="U6" s="7">
         <v>2.6339999999999999E-2</v>
       </c>
-      <c r="V6" s="10">
+      <c r="V6" s="8">
         <v>6.3</v>
       </c>
       <c r="W6" s="7">
         <v>2.8354000000000001E-2</v>
       </c>
-      <c r="X6" s="10">
+      <c r="X6" s="8">
         <v>6.6</v>
       </c>
       <c r="Y6" s="7">
         <v>2.2353999999999999E-2</v>
       </c>
-      <c r="Z6" s="10">
+      <c r="Z6" s="8">
         <v>7.9486220000000003</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="9"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="11"/>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P7" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R7" s="11" t="s">
@@ -875,81 +983,81 @@
       <c r="T7" s="1"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="9"/>
+      <c r="K8" s="10"/>
       <c r="L8" s="11"/>
-      <c r="M8" s="9"/>
+      <c r="M8" s="10"/>
       <c r="N8" s="11"/>
-      <c r="O8" s="9"/>
+      <c r="O8" s="10"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="9"/>
+      <c r="Q8" s="10"/>
       <c r="R8" s="11"/>
       <c r="T8" s="1"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="9"/>
+      <c r="K9" s="10"/>
       <c r="L9" s="11"/>
-      <c r="M9" s="9"/>
+      <c r="M9" s="10"/>
       <c r="N9" s="11"/>
-      <c r="O9" s="9"/>
+      <c r="O9" s="10"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="9"/>
+      <c r="Q9" s="10"/>
       <c r="R9" s="11"/>
       <c r="T9" s="1"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
+      <c r="A10" s="9"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="9"/>
+      <c r="K10" s="10"/>
       <c r="L10" s="11"/>
-      <c r="M10" s="9"/>
+      <c r="M10" s="10"/>
       <c r="N10" s="11"/>
-      <c r="O10" s="9"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="9"/>
+      <c r="Q10" s="10"/>
       <c r="R10" s="11"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
+      <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="9">
+      <c r="K11" s="10">
         <v>0.26700000000000002</v>
       </c>
       <c r="L11" s="11">
         <v>0.435</v>
       </c>
-      <c r="M11" s="9" t="s">
+      <c r="M11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O11" s="9" t="s">
+      <c r="O11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P11" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q11" s="9" t="s">
+      <c r="Q11" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R11" s="11" t="s">
@@ -958,56 +1066,56 @@
       <c r="T11" s="1"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
+      <c r="A12" s="9"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="9"/>
+      <c r="K12" s="10"/>
       <c r="L12" s="11"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="10"/>
       <c r="N12" s="11"/>
-      <c r="O12" s="9"/>
+      <c r="O12" s="10"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="9"/>
+      <c r="Q12" s="10"/>
       <c r="R12" s="11"/>
       <c r="T12" s="1"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
+      <c r="A13" s="9"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="9"/>
+      <c r="K13" s="10"/>
       <c r="L13" s="11"/>
-      <c r="M13" s="9"/>
+      <c r="M13" s="10"/>
       <c r="N13" s="11"/>
-      <c r="O13" s="9"/>
+      <c r="O13" s="10"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="9"/>
+      <c r="Q13" s="10"/>
       <c r="R13" s="11"/>
       <c r="T13" s="1"/>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
+      <c r="A14" s="9"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="9"/>
+      <c r="K14" s="10"/>
       <c r="L14" s="11"/>
-      <c r="M14" s="9"/>
+      <c r="M14" s="10"/>
       <c r="N14" s="11"/>
-      <c r="O14" s="9"/>
+      <c r="O14" s="10"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="9"/>
+      <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="9" t="s">
         <v>38</v>
       </c>
       <c r="B15" s="5">
@@ -1017,21 +1125,21 @@
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="9"/>
+      <c r="K15" s="10"/>
       <c r="L15" s="11"/>
-      <c r="M15" s="9" t="s">
+      <c r="M15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O15" s="9" t="s">
+      <c r="O15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q15" s="9" t="s">
+      <c r="Q15" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R15" s="11" t="s">
@@ -1041,7 +1149,7 @@
       <c r="T15" s="1"/>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
+      <c r="A16" s="9"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
@@ -1049,19 +1157,19 @@
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="9"/>
+      <c r="K16" s="10"/>
       <c r="L16" s="11"/>
-      <c r="M16" s="9"/>
+      <c r="M16" s="10"/>
       <c r="N16" s="11"/>
-      <c r="O16" s="9"/>
+      <c r="O16" s="10"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="9"/>
+      <c r="Q16" s="10"/>
       <c r="R16" s="11"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
+      <c r="A17" s="9"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
@@ -1069,37 +1177,37 @@
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="9"/>
+      <c r="K17" s="10"/>
       <c r="L17" s="11"/>
-      <c r="M17" s="9"/>
+      <c r="M17" s="10"/>
       <c r="N17" s="11"/>
-      <c r="O17" s="9"/>
+      <c r="O17" s="10"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="9"/>
+      <c r="Q17" s="10"/>
       <c r="R17" s="11"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
     </row>
     <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
       <c r="C18" s="6"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="10"/>
+      <c r="F18" s="8"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="10"/>
+      <c r="H18" s="8"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="8"/>
+      <c r="K18" s="10"/>
       <c r="L18" s="11"/>
-      <c r="M18" s="9"/>
+      <c r="M18" s="10"/>
       <c r="N18" s="11"/>
-      <c r="O18" s="9"/>
+      <c r="O18" s="10"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="9"/>
+      <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
@@ -1108,35 +1216,35 @@
       <c r="Y18" s="7"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B19" s="5">
         <v>500</v>
       </c>
       <c r="C19" s="6"/>
-      <c r="D19" s="10"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="6"/>
-      <c r="F19" s="10"/>
+      <c r="F19" s="8"/>
       <c r="G19" s="6"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="8"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="10"/>
       <c r="L19" s="11"/>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="N19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O19" s="9" t="s">
+      <c r="O19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="P19" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q19" s="9" t="s">
+      <c r="Q19" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R19" s="11" t="s">
@@ -1149,25 +1257,25 @@
       <c r="Y19" s="7"/>
     </row>
     <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
       <c r="C20" s="6"/>
-      <c r="D20" s="10"/>
+      <c r="D20" s="8"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="10"/>
+      <c r="F20" s="8"/>
       <c r="G20" s="6"/>
-      <c r="H20" s="10"/>
+      <c r="H20" s="8"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="8"/>
+      <c r="K20" s="10"/>
       <c r="L20" s="11"/>
-      <c r="M20" s="9"/>
+      <c r="M20" s="10"/>
       <c r="N20" s="11"/>
-      <c r="O20" s="9"/>
+      <c r="O20" s="10"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="9"/>
+      <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
@@ -1176,25 +1284,25 @@
       <c r="Y20" s="7"/>
     </row>
     <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
+      <c r="A21" s="9"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
       <c r="C21" s="6"/>
-      <c r="D21" s="10"/>
+      <c r="D21" s="8"/>
       <c r="E21" s="6"/>
-      <c r="F21" s="10"/>
+      <c r="F21" s="8"/>
       <c r="G21" s="6"/>
-      <c r="H21" s="10"/>
+      <c r="H21" s="8"/>
       <c r="I21" s="6"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="8"/>
+      <c r="K21" s="10"/>
       <c r="L21" s="11"/>
-      <c r="M21" s="9"/>
+      <c r="M21" s="10"/>
       <c r="N21" s="11"/>
-      <c r="O21" s="9"/>
+      <c r="O21" s="10"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="9"/>
+      <c r="Q21" s="10"/>
       <c r="R21" s="11"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
@@ -1203,25 +1311,25 @@
       <c r="Y21" s="7"/>
     </row>
     <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
       <c r="C22" s="6"/>
-      <c r="D22" s="10"/>
+      <c r="D22" s="8"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="10"/>
+      <c r="F22" s="8"/>
       <c r="G22" s="6"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="8"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="10"/>
       <c r="L22" s="11"/>
-      <c r="M22" s="9"/>
+      <c r="M22" s="10"/>
       <c r="N22" s="11"/>
-      <c r="O22" s="9"/>
+      <c r="O22" s="10"/>
       <c r="P22" s="11"/>
-      <c r="Q22" s="9"/>
+      <c r="Q22" s="10"/>
       <c r="R22" s="11"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
@@ -1233,7 +1341,7 @@
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
+      <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
       <c r="B24" s="2">
@@ -1242,46 +1350,46 @@
       <c r="C24" s="7">
         <v>0.11919315</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>47.35692298</v>
       </c>
       <c r="E24" s="7">
         <v>0.14943234999999999</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>82.706655029999993</v>
       </c>
       <c r="G24" s="7">
         <v>0.1950189</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="8">
         <v>85.715054749999993</v>
       </c>
       <c r="I24" s="6">
         <v>9.5463000000000006E-2</v>
       </c>
-      <c r="J24" s="10">
+      <c r="J24" s="8">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="10">
         <v>0.26700000000000002</v>
       </c>
       <c r="L24" s="11">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="9">
+      <c r="M24" s="10">
         <v>0.17100000000000001</v>
       </c>
       <c r="N24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O24" s="9">
+      <c r="O24" s="10">
         <v>0.153</v>
       </c>
       <c r="P24" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q24" s="8" t="s">
+      <c r="Q24" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R24" s="11" t="s">
@@ -1289,121 +1397,121 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
+      <c r="A25" s="9"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
       <c r="C25" s="7">
         <v>0.11919315</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>93.827354310000004</v>
       </c>
       <c r="E25" s="7">
         <v>0.14943234999999999</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>165.36722040000001</v>
       </c>
       <c r="G25" s="7">
         <v>0.1950189</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="8">
         <v>164.00883055</v>
       </c>
       <c r="I25" s="6">
         <v>8.5849999999999996E-2</v>
       </c>
-      <c r="J25" s="10">
+      <c r="J25" s="8">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="9"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="11"/>
-      <c r="M25" s="9"/>
+      <c r="M25" s="10"/>
       <c r="N25" s="11"/>
-      <c r="O25" s="9"/>
+      <c r="O25" s="10"/>
       <c r="P25" s="11"/>
-      <c r="Q25" s="8"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="11"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
+      <c r="A26" s="9"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
       <c r="C26" s="7">
         <v>0.11919315</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>185.83584508999999</v>
       </c>
       <c r="E26" s="7">
         <v>0.14943234999999999</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>330.25536822999999</v>
       </c>
       <c r="G26" s="7">
         <v>0.1950189</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="8">
         <v>320.50865793000003</v>
       </c>
       <c r="I26" s="6">
         <v>7.1389999999999995E-2</v>
       </c>
-      <c r="J26" s="10">
+      <c r="J26" s="8">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="9"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="11"/>
-      <c r="M26" s="9"/>
+      <c r="M26" s="10"/>
       <c r="N26" s="11"/>
-      <c r="O26" s="9"/>
+      <c r="O26" s="10"/>
       <c r="P26" s="11"/>
-      <c r="Q26" s="8"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="11"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
+      <c r="A27" s="9"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
       <c r="C27" s="7">
         <v>0.11919315</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>464.97284223999998</v>
       </c>
       <c r="E27" s="7">
         <v>0.14943234999999999</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>819.04617929000005</v>
       </c>
       <c r="G27" s="7">
         <v>0.15675876</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="8">
         <v>777.18993831</v>
       </c>
       <c r="I27" s="6">
         <v>6.1741999999999998E-2</v>
       </c>
-      <c r="J27" s="10">
+      <c r="J27" s="8">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="9"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="11"/>
-      <c r="M27" s="9"/>
+      <c r="M27" s="10"/>
       <c r="N27" s="11"/>
-      <c r="O27" s="9"/>
+      <c r="O27" s="10"/>
       <c r="P27" s="11"/>
-      <c r="Q27" s="8"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="11"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="A28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="B28" s="2">
@@ -1412,46 +1520,46 @@
       <c r="C28" s="7">
         <v>0.14447014999999999</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>61.145862700000002</v>
       </c>
       <c r="E28" s="7">
         <v>0.23270507000000001</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>124.44330764</v>
       </c>
       <c r="G28" s="7">
         <v>0.26715045999999998</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="8">
         <v>118.31681322999999</v>
       </c>
       <c r="I28" s="6">
         <v>0.123304</v>
       </c>
-      <c r="J28" s="10">
+      <c r="J28" s="8">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="9">
+      <c r="K28" s="10">
         <v>0.2601</v>
       </c>
       <c r="L28" s="11">
         <v>0.624</v>
       </c>
-      <c r="M28" s="9">
+      <c r="M28" s="10">
         <v>0.20200000000000001</v>
       </c>
       <c r="N28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O28" s="9">
+      <c r="O28" s="10">
         <v>0.19400000000000001</v>
       </c>
       <c r="P28" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q28" s="8" t="s">
+      <c r="Q28" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R28" s="11" t="s">
@@ -1459,121 +1567,121 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="8"/>
+      <c r="A29" s="9"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
       <c r="C29" s="7">
         <v>0.14447014999999999</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>120.57370141</v>
       </c>
       <c r="E29" s="7">
         <v>0.23270507000000001</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>248.91053056999999</v>
       </c>
       <c r="G29" s="7">
         <v>0.26715045999999998</v>
       </c>
-      <c r="H29" s="10">
+      <c r="H29" s="8">
         <v>233.93687320000001</v>
       </c>
       <c r="I29" s="6">
         <v>0.113194</v>
       </c>
-      <c r="J29" s="10">
+      <c r="J29" s="8">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="9"/>
+      <c r="K29" s="10"/>
       <c r="L29" s="11"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="10"/>
       <c r="N29" s="11"/>
-      <c r="O29" s="9"/>
+      <c r="O29" s="10"/>
       <c r="P29" s="11"/>
-      <c r="Q29" s="8"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="11"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="8"/>
+      <c r="A30" s="9"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
       <c r="C30" s="7">
         <v>0.14447014999999999</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>242.45598602000001</v>
       </c>
       <c r="E30" s="7">
         <v>0.23270507000000001</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>489.81045389000002</v>
       </c>
       <c r="G30" s="7">
         <v>0.26715045999999998</v>
       </c>
-      <c r="H30" s="10">
+      <c r="H30" s="8">
         <v>469.41567397</v>
       </c>
       <c r="I30" s="6">
         <v>9.955E-2</v>
       </c>
-      <c r="J30" s="10">
+      <c r="J30" s="8">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="9"/>
+      <c r="K30" s="10"/>
       <c r="L30" s="11"/>
-      <c r="M30" s="9"/>
+      <c r="M30" s="10"/>
       <c r="N30" s="11"/>
-      <c r="O30" s="9"/>
+      <c r="O30" s="10"/>
       <c r="P30" s="11"/>
-      <c r="Q30" s="8"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="11"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="8"/>
+      <c r="A31" s="9"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
       <c r="C31" s="7">
         <v>0.14447014999999999</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>615.28000001999999</v>
       </c>
       <c r="E31" s="7">
         <v>0.23270507000000001</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>1214.73366523</v>
       </c>
       <c r="G31" s="7">
         <v>0.26715045999999998</v>
       </c>
-      <c r="H31" s="10">
+      <c r="H31" s="8">
         <v>1192.2706356000001</v>
       </c>
       <c r="I31" s="6">
         <v>8.6886000000000005E-2</v>
       </c>
-      <c r="J31" s="10">
+      <c r="J31" s="8">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="9"/>
+      <c r="K31" s="10"/>
       <c r="L31" s="11"/>
-      <c r="M31" s="9"/>
+      <c r="M31" s="10"/>
       <c r="N31" s="11"/>
-      <c r="O31" s="9"/>
+      <c r="O31" s="10"/>
       <c r="P31" s="11"/>
-      <c r="Q31" s="8"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="11"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B32" s="2">
@@ -1582,46 +1690,46 @@
       <c r="C32" s="7">
         <v>0.15675147</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>99.552814100000006</v>
       </c>
       <c r="E32" s="7">
         <v>0.21353130000000001</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>217.70762991999999</v>
       </c>
       <c r="G32" s="7">
         <v>0.15910176000000001</v>
       </c>
-      <c r="H32" s="10">
+      <c r="H32" s="8">
         <v>70.446268320000001</v>
       </c>
       <c r="I32" s="6">
         <v>0.129631</v>
       </c>
-      <c r="J32" s="10">
+      <c r="J32" s="8">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="9">
+      <c r="K32" s="10">
         <v>0.30220000000000002</v>
       </c>
       <c r="L32" s="11">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="9">
+      <c r="M32" s="10">
         <v>0.22800000000000001</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O32" s="9">
+      <c r="O32" s="10">
         <v>0.17199999999999999</v>
       </c>
       <c r="P32" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q32" s="8" t="s">
+      <c r="Q32" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R32" s="11" t="s">
@@ -1629,121 +1737,121 @@
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="8"/>
+      <c r="A33" s="9"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
       <c r="C33" s="7">
         <v>0.15675147</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>200.00423663000001</v>
       </c>
       <c r="E33" s="7">
         <v>0.21353130000000001</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>425.98945665000002</v>
       </c>
       <c r="G33" s="7">
         <v>0.15910176000000001</v>
       </c>
-      <c r="H33" s="10">
+      <c r="H33" s="8">
         <v>343.73055410000001</v>
       </c>
       <c r="I33" s="6">
         <v>0.116268</v>
       </c>
-      <c r="J33" s="10">
+      <c r="J33" s="8">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="9"/>
+      <c r="K33" s="10"/>
       <c r="L33" s="11"/>
-      <c r="M33" s="9"/>
+      <c r="M33" s="10"/>
       <c r="N33" s="11"/>
-      <c r="O33" s="9"/>
+      <c r="O33" s="10"/>
       <c r="P33" s="11"/>
-      <c r="Q33" s="8"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="11"/>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="8"/>
+      <c r="A34" s="9"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
       <c r="C34" s="7">
         <v>0.15675147</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>398.40725965000001</v>
       </c>
       <c r="E34" s="7">
         <v>0.21353130000000001</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>822.21848750000004</v>
       </c>
       <c r="G34" s="7">
         <v>0.15910176000000001</v>
       </c>
-      <c r="H34" s="10">
+      <c r="H34" s="8">
         <v>712.44786477000002</v>
       </c>
       <c r="I34" s="6">
         <v>0.102479</v>
       </c>
-      <c r="J34" s="10">
+      <c r="J34" s="8">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="9"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="11"/>
-      <c r="M34" s="9"/>
+      <c r="M34" s="10"/>
       <c r="N34" s="11"/>
-      <c r="O34" s="9"/>
+      <c r="O34" s="10"/>
       <c r="P34" s="11"/>
-      <c r="Q34" s="8"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="11"/>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="8"/>
+      <c r="A35" s="9"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
       <c r="C35" s="7">
         <v>0.15675147</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>998.67807429000004</v>
       </c>
       <c r="E35" s="7">
         <v>0.21353130000000001</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>1918.7642810299999</v>
       </c>
       <c r="G35" s="7">
         <v>0.15910176000000001</v>
       </c>
-      <c r="H35" s="10">
+      <c r="H35" s="8">
         <v>1814.96402216</v>
       </c>
       <c r="I35" s="6">
         <v>8.9824000000000001E-2</v>
       </c>
-      <c r="J35" s="10">
+      <c r="J35" s="8">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="9"/>
+      <c r="K35" s="10"/>
       <c r="L35" s="11"/>
-      <c r="M35" s="9"/>
+      <c r="M35" s="10"/>
       <c r="N35" s="11"/>
-      <c r="O35" s="9"/>
+      <c r="O35" s="10"/>
       <c r="P35" s="11"/>
-      <c r="Q35" s="8"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="11"/>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="9" t="s">
         <v>17</v>
       </c>
       <c r="B36" s="2">
@@ -1752,46 +1860,46 @@
       <c r="C36" s="7">
         <v>0.17881791</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>88.120324949999997</v>
       </c>
       <c r="E36" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>233.97937965</v>
       </c>
       <c r="G36" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="H36" s="10">
+      <c r="H36" s="8">
         <v>230.1504209</v>
       </c>
       <c r="I36" s="6">
         <v>0.15876999999999999</v>
       </c>
-      <c r="J36" s="10">
+      <c r="J36" s="8">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="9">
+      <c r="K36" s="10">
         <v>0.3165</v>
       </c>
       <c r="L36" s="11">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="9">
+      <c r="M36" s="10">
         <v>0.189</v>
       </c>
       <c r="N36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O36" s="9">
+      <c r="O36" s="10">
         <v>0.18</v>
       </c>
       <c r="P36" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q36" s="8" t="s">
+      <c r="Q36" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R36" s="11" t="s">
@@ -1799,121 +1907,121 @@
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="8"/>
+      <c r="A37" s="9"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
       <c r="C37" s="7">
         <v>0.17881791</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>174.86377671</v>
       </c>
       <c r="E37" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>483.48190689</v>
       </c>
       <c r="G37" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="H37" s="10">
+      <c r="H37" s="8">
         <v>488.04992247000001</v>
       </c>
       <c r="I37" s="6">
         <v>0.13111600000000001</v>
       </c>
-      <c r="J37" s="10">
+      <c r="J37" s="8">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="9"/>
+      <c r="K37" s="10"/>
       <c r="L37" s="11"/>
-      <c r="M37" s="9"/>
+      <c r="M37" s="10"/>
       <c r="N37" s="11"/>
-      <c r="O37" s="9"/>
+      <c r="O37" s="10"/>
       <c r="P37" s="11"/>
-      <c r="Q37" s="8"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="11"/>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="8"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
       <c r="C38" s="7">
         <v>0.17881791</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>346.23731937000002</v>
       </c>
       <c r="E38" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>971.78598570999998</v>
       </c>
       <c r="G38" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="H38" s="10">
+      <c r="H38" s="8">
         <v>937.89697813999999</v>
       </c>
       <c r="I38" s="6">
         <v>0.105418</v>
       </c>
-      <c r="J38" s="10">
+      <c r="J38" s="8">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="9"/>
+      <c r="K38" s="10"/>
       <c r="L38" s="11"/>
-      <c r="M38" s="9"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="11"/>
-      <c r="O38" s="9"/>
+      <c r="O38" s="10"/>
       <c r="P38" s="11"/>
-      <c r="Q38" s="8"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="11"/>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="8"/>
+      <c r="A39" s="9"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
       <c r="C39" s="7">
         <v>0.17881791</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>867.31997582999998</v>
       </c>
       <c r="E39" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <v>2407.4345629200002</v>
       </c>
       <c r="G39" s="7">
         <v>0.24524435999999999</v>
       </c>
-      <c r="H39" s="10">
+      <c r="H39" s="8">
         <v>2398.0101513899999</v>
       </c>
       <c r="I39" s="6">
         <v>9.2197000000000001E-2</v>
       </c>
-      <c r="J39" s="10">
+      <c r="J39" s="8">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="9"/>
+      <c r="K39" s="10"/>
       <c r="L39" s="11"/>
-      <c r="M39" s="9"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="11"/>
-      <c r="O39" s="9"/>
+      <c r="O39" s="10"/>
       <c r="P39" s="11"/>
-      <c r="Q39" s="8"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="11"/>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="9" t="s">
         <v>18</v>
       </c>
       <c r="B40" s="2">
@@ -1922,46 +2030,46 @@
       <c r="C40" s="7">
         <v>0.20072708</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>138.04547109999999</v>
       </c>
       <c r="E40" s="7">
         <v>0.30219650999999997</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>377.80713749</v>
       </c>
       <c r="G40" s="7">
         <v>0.29449424000000002</v>
       </c>
-      <c r="H40" s="10">
+      <c r="H40" s="8">
         <v>386.22343849999999</v>
       </c>
       <c r="I40" s="6">
         <v>0.186613</v>
       </c>
-      <c r="J40" s="10">
+      <c r="J40" s="8">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="9">
+      <c r="K40" s="10">
         <v>0.33110000000000001</v>
       </c>
       <c r="L40" s="11">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="10">
         <v>0.254</v>
       </c>
       <c r="N40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="9">
+      <c r="O40" s="10">
         <v>0.187</v>
       </c>
       <c r="P40" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q40" s="9">
+      <c r="Q40" s="10">
         <v>0.13080554883214199</v>
       </c>
       <c r="R40" s="11">
@@ -1969,121 +2077,121 @@
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="8"/>
+      <c r="A41" s="9"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
       <c r="C41" s="7">
         <v>0.20072708</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>272.13257525</v>
       </c>
       <c r="E41" s="7">
         <v>0.30219650999999997</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <v>792.86960887999999</v>
       </c>
       <c r="G41" s="7">
         <v>0.29449424000000002</v>
       </c>
-      <c r="H41" s="10">
+      <c r="H41" s="8">
         <v>807.91166234000002</v>
       </c>
       <c r="I41" s="6">
         <v>0.166847</v>
       </c>
-      <c r="J41" s="10">
+      <c r="J41" s="8">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="9"/>
+      <c r="K41" s="10"/>
       <c r="L41" s="11"/>
-      <c r="M41" s="9"/>
+      <c r="M41" s="10"/>
       <c r="N41" s="11"/>
-      <c r="O41" s="9"/>
+      <c r="O41" s="10"/>
       <c r="P41" s="11"/>
-      <c r="Q41" s="9"/>
+      <c r="Q41" s="10"/>
       <c r="R41" s="11"/>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="8"/>
+      <c r="A42" s="9"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
       <c r="C42" s="7">
         <v>0.20072708</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>540.86478131000001</v>
       </c>
       <c r="E42" s="7">
         <v>0.30219650999999997</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <v>1602.63333201</v>
       </c>
       <c r="G42" s="7">
         <v>0.29449424000000002</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="8">
         <v>1622.3438525199999</v>
       </c>
       <c r="I42" s="6">
         <v>0.149227</v>
       </c>
-      <c r="J42" s="10">
+      <c r="J42" s="8">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="9"/>
+      <c r="K42" s="10"/>
       <c r="L42" s="11"/>
-      <c r="M42" s="9"/>
+      <c r="M42" s="10"/>
       <c r="N42" s="11"/>
-      <c r="O42" s="9"/>
+      <c r="O42" s="10"/>
       <c r="P42" s="11"/>
-      <c r="Q42" s="9"/>
+      <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="8"/>
+      <c r="A43" s="9"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
       <c r="C43" s="7">
         <v>0.20072708</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>1352.95838768</v>
       </c>
       <c r="E43" s="7">
         <v>0.30219650999999997</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="8">
         <v>3946.2847349600002</v>
       </c>
       <c r="G43" s="7">
         <v>0.29449424000000002</v>
       </c>
-      <c r="H43" s="10">
+      <c r="H43" s="8">
         <v>4045.9814677200002</v>
       </c>
       <c r="I43" s="6">
         <v>0.13051599999999999</v>
       </c>
-      <c r="J43" s="10">
+      <c r="J43" s="8">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="9"/>
+      <c r="K43" s="10"/>
       <c r="L43" s="11"/>
-      <c r="M43" s="9"/>
+      <c r="M43" s="10"/>
       <c r="N43" s="11"/>
-      <c r="O43" s="9"/>
+      <c r="O43" s="10"/>
       <c r="P43" s="11"/>
-      <c r="Q43" s="9"/>
+      <c r="Q43" s="10"/>
       <c r="R43" s="11"/>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B44" s="2">
@@ -2092,46 +2200,46 @@
       <c r="C44" s="7">
         <v>0.12465227</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>130.72400956000001</v>
       </c>
       <c r="E44" s="7">
         <v>0.26048725</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <v>537.81391286999997</v>
       </c>
       <c r="G44" s="7">
         <v>0.25182659000000002</v>
       </c>
-      <c r="H44" s="10">
+      <c r="H44" s="8">
         <v>561.57670212000005</v>
       </c>
       <c r="I44" s="6">
         <v>0.10859099999999999</v>
       </c>
-      <c r="J44" s="10">
+      <c r="J44" s="8">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="9">
+      <c r="K44" s="10">
         <v>0.33660000000000001</v>
       </c>
       <c r="L44" s="11">
         <v>2.7</v>
       </c>
-      <c r="M44" s="9">
+      <c r="M44" s="10">
         <v>0.159</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O44" s="9">
+      <c r="O44" s="10">
         <v>0.13800000000000001</v>
       </c>
       <c r="P44" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q44" s="8" t="s">
+      <c r="Q44" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R44" s="11" t="s">
@@ -2139,121 +2247,121 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="8"/>
+      <c r="A45" s="9"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
       <c r="C45" s="7">
         <v>0.12465227</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>255.45641595999999</v>
       </c>
       <c r="E45" s="7">
         <v>0.26048725</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="8">
         <v>1107.67814445</v>
       </c>
       <c r="G45" s="7">
         <v>0.25182659000000002</v>
       </c>
-      <c r="H45" s="10">
+      <c r="H45" s="8">
         <v>1132.2781443599999</v>
       </c>
       <c r="I45" s="6">
         <v>9.0360999999999997E-2</v>
       </c>
-      <c r="J45" s="10">
+      <c r="J45" s="8">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="9"/>
+      <c r="K45" s="10"/>
       <c r="L45" s="11"/>
-      <c r="M45" s="9"/>
+      <c r="M45" s="10"/>
       <c r="N45" s="11"/>
-      <c r="O45" s="9"/>
+      <c r="O45" s="10"/>
       <c r="P45" s="11"/>
-      <c r="Q45" s="8"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="11"/>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="8"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
       <c r="C46" s="7">
         <v>0.12465227</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>502.88990924000001</v>
       </c>
       <c r="E46" s="7">
         <v>0.26048725</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="8">
         <v>2173.9790659</v>
       </c>
       <c r="G46" s="7">
         <v>0.25182659000000002</v>
       </c>
-      <c r="H46" s="10">
+      <c r="H46" s="8">
         <v>2158.43117738</v>
       </c>
       <c r="I46" s="6">
         <v>6.4596000000000001E-2</v>
       </c>
-      <c r="J46" s="10">
+      <c r="J46" s="8">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="9"/>
+      <c r="K46" s="10"/>
       <c r="L46" s="11"/>
-      <c r="M46" s="9"/>
+      <c r="M46" s="10"/>
       <c r="N46" s="11"/>
-      <c r="O46" s="9"/>
+      <c r="O46" s="10"/>
       <c r="P46" s="11"/>
-      <c r="Q46" s="8"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="11"/>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="8"/>
+      <c r="A47" s="9"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
       <c r="C47" s="7">
         <v>0.12465227</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>1243.85864401</v>
       </c>
       <c r="E47" s="7">
         <v>0.26048725</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <v>5286.9968733799997</v>
       </c>
       <c r="G47" s="7">
         <v>0.25182659000000002</v>
       </c>
-      <c r="H47" s="10">
+      <c r="H47" s="8">
         <v>5532.4828727200002</v>
       </c>
       <c r="I47" s="6">
         <v>3.7137000000000003E-2</v>
       </c>
-      <c r="J47" s="10">
+      <c r="J47" s="8">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="9"/>
+      <c r="K47" s="10"/>
       <c r="L47" s="11"/>
-      <c r="M47" s="9"/>
+      <c r="M47" s="10"/>
       <c r="N47" s="11"/>
-      <c r="O47" s="9"/>
+      <c r="O47" s="10"/>
       <c r="P47" s="11"/>
-      <c r="Q47" s="8"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="11"/>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="9" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="2">
@@ -2262,46 +2370,46 @@
       <c r="C48" s="7">
         <v>0.13669308999999999</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>231.23680282000001</v>
       </c>
       <c r="E48" s="7">
         <v>0.1994099</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="8">
         <v>1003.98148584</v>
       </c>
       <c r="G48" s="7">
         <v>0.20574854000000001</v>
       </c>
-      <c r="H48" s="10">
+      <c r="H48" s="8">
         <v>949.55767940999999</v>
       </c>
       <c r="I48" s="6">
         <v>0.13170399999999999</v>
       </c>
-      <c r="J48" s="10">
+      <c r="J48" s="8">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="9">
+      <c r="K48" s="10">
         <v>0.22470000000000001</v>
       </c>
       <c r="L48" s="11">
         <v>4.883</v>
       </c>
-      <c r="M48" s="9">
+      <c r="M48" s="10">
         <v>0.17399999999999999</v>
       </c>
       <c r="N48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O48" s="9">
+      <c r="O48" s="10">
         <v>0.13500000000000001</v>
       </c>
       <c r="P48" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q48" s="8" t="s">
+      <c r="Q48" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R48" s="11" t="s">
@@ -2309,121 +2417,121 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="8"/>
+      <c r="A49" s="9"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
       <c r="C49" s="7">
         <v>0.13669308999999999</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>441.64662721000002</v>
       </c>
       <c r="E49" s="7">
         <v>0.1994099</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <v>2225.7648918599998</v>
       </c>
       <c r="G49" s="7">
         <v>0.20574854000000001</v>
       </c>
-      <c r="H49" s="10">
+      <c r="H49" s="8">
         <v>1823.3479774</v>
       </c>
       <c r="I49" s="6">
         <v>0.11490499999999999</v>
       </c>
-      <c r="J49" s="10">
+      <c r="J49" s="8">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="9"/>
+      <c r="K49" s="10"/>
       <c r="L49" s="11"/>
-      <c r="M49" s="9"/>
+      <c r="M49" s="10"/>
       <c r="N49" s="11"/>
-      <c r="O49" s="9"/>
+      <c r="O49" s="10"/>
       <c r="P49" s="11"/>
-      <c r="Q49" s="8"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="11"/>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="8"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
       <c r="C50" s="7">
         <v>0.13669308999999999</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>858.16573853</v>
       </c>
       <c r="E50" s="7">
         <v>0.1994099</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>4380.80267525</v>
       </c>
       <c r="G50" s="7">
         <v>0.20574854000000001</v>
       </c>
-      <c r="H50" s="10">
+      <c r="H50" s="8">
         <v>3580.43250799</v>
       </c>
       <c r="I50" s="6">
         <v>9.4871999999999998E-2</v>
       </c>
-      <c r="J50" s="10">
+      <c r="J50" s="8">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="9"/>
+      <c r="K50" s="10"/>
       <c r="L50" s="11"/>
-      <c r="M50" s="9"/>
+      <c r="M50" s="10"/>
       <c r="N50" s="11"/>
-      <c r="O50" s="9"/>
+      <c r="O50" s="10"/>
       <c r="P50" s="11"/>
-      <c r="Q50" s="8"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="11"/>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="8"/>
+      <c r="A51" s="9"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
       <c r="C51" s="7">
         <v>0.13669308999999999</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>2125.5384703899999</v>
       </c>
       <c r="E51" s="7">
         <v>0.1994099</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>10160.301476479999</v>
       </c>
       <c r="G51" s="7">
         <v>0.20574854000000001</v>
       </c>
-      <c r="H51" s="10">
+      <c r="H51" s="8">
         <v>9009.6752314599998</v>
       </c>
       <c r="I51" s="6">
         <v>6.5272999999999998E-2</v>
       </c>
-      <c r="J51" s="10">
+      <c r="J51" s="8">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="9"/>
+      <c r="K51" s="10"/>
       <c r="L51" s="11"/>
-      <c r="M51" s="9"/>
+      <c r="M51" s="10"/>
       <c r="N51" s="11"/>
-      <c r="O51" s="9"/>
+      <c r="O51" s="10"/>
       <c r="P51" s="11"/>
-      <c r="Q51" s="8"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="11"/>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="9" t="s">
         <v>21</v>
       </c>
       <c r="B52" s="2">
@@ -2432,28 +2540,28 @@
       <c r="I52" s="6">
         <v>7.0554000000000006E-2</v>
       </c>
-      <c r="J52" s="10">
+      <c r="J52" s="8">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="9">
+      <c r="K52" s="10">
         <v>0.26550000000000001</v>
       </c>
       <c r="L52" s="11">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="9">
+      <c r="M52" s="10">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="N52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O52" s="9">
+      <c r="O52" s="10">
         <v>6.6000000000000003E-2</v>
       </c>
       <c r="P52" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q52" s="8" t="s">
+      <c r="Q52" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R52" s="11" t="s">
@@ -2461,70 +2569,70 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="8"/>
+      <c r="A53" s="9"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
       <c r="I53" s="6">
         <v>5.4175000000000001E-2</v>
       </c>
-      <c r="J53" s="10">
+      <c r="J53" s="8">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="9"/>
+      <c r="K53" s="10"/>
       <c r="L53" s="11"/>
-      <c r="M53" s="9"/>
+      <c r="M53" s="10"/>
       <c r="N53" s="11"/>
-      <c r="O53" s="9"/>
+      <c r="O53" s="10"/>
       <c r="P53" s="11"/>
-      <c r="Q53" s="8"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="11"/>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="8"/>
+      <c r="A54" s="9"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
       <c r="I54" s="6">
         <v>3.5038E-2</v>
       </c>
-      <c r="J54" s="10">
+      <c r="J54" s="8">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="9"/>
+      <c r="K54" s="10"/>
       <c r="L54" s="11"/>
-      <c r="M54" s="9"/>
+      <c r="M54" s="10"/>
       <c r="N54" s="11"/>
-      <c r="O54" s="9"/>
+      <c r="O54" s="10"/>
       <c r="P54" s="11"/>
-      <c r="Q54" s="8"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="11"/>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="8"/>
+      <c r="A55" s="9"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
       <c r="I55" s="6">
         <v>1.8312999999999999E-2</v>
       </c>
-      <c r="J55" s="10">
+      <c r="J55" s="8">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="9"/>
+      <c r="K55" s="10"/>
       <c r="L55" s="11"/>
-      <c r="M55" s="9"/>
+      <c r="M55" s="10"/>
       <c r="N55" s="11"/>
-      <c r="O55" s="9"/>
+      <c r="O55" s="10"/>
       <c r="P55" s="11"/>
-      <c r="Q55" s="8"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="11"/>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="9" t="s">
         <v>22</v>
       </c>
       <c r="B57" s="2">
@@ -2533,25 +2641,25 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="9" t="s">
+      <c r="K57" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L57" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M57" s="9">
+      <c r="M57" s="10">
         <v>0.101239449255883</v>
       </c>
       <c r="N57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O57" s="9">
+      <c r="O57" s="10">
         <v>6.1477473699407502E-2</v>
       </c>
       <c r="P57" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q57" s="8" t="s">
+      <c r="Q57" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R57" s="11" t="s">
@@ -2559,58 +2667,58 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="8"/>
+      <c r="A58" s="9"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="9"/>
+      <c r="K58" s="10"/>
       <c r="L58" s="12"/>
-      <c r="M58" s="9"/>
+      <c r="M58" s="10"/>
       <c r="N58" s="11"/>
-      <c r="O58" s="9"/>
+      <c r="O58" s="10"/>
       <c r="P58" s="11"/>
-      <c r="Q58" s="8"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="11"/>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="8"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="9"/>
+      <c r="K59" s="10"/>
       <c r="L59" s="12"/>
-      <c r="M59" s="9"/>
+      <c r="M59" s="10"/>
       <c r="N59" s="11"/>
-      <c r="O59" s="9"/>
+      <c r="O59" s="10"/>
       <c r="P59" s="11"/>
-      <c r="Q59" s="8"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="11"/>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="8"/>
+      <c r="A60" s="9"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="9"/>
+      <c r="K60" s="10"/>
       <c r="L60" s="12"/>
-      <c r="M60" s="9"/>
+      <c r="M60" s="10"/>
       <c r="N60" s="11"/>
-      <c r="O60" s="9"/>
+      <c r="O60" s="10"/>
       <c r="P60" s="11"/>
-      <c r="Q60" s="8"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="11"/>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="9" t="s">
         <v>23</v>
       </c>
       <c r="B61" s="2">
@@ -2619,25 +2727,25 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="9" t="s">
+      <c r="K61" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L61" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M61" s="9">
+      <c r="M61" s="10">
         <v>0.29018026080021198</v>
       </c>
       <c r="N61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O61" s="9">
+      <c r="O61" s="10">
         <v>0.205463324203739</v>
       </c>
       <c r="P61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q61" s="8" t="s">
+      <c r="Q61" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R61" s="11" t="s">
@@ -2645,61 +2753,61 @@
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="8"/>
+      <c r="A62" s="9"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="9"/>
+      <c r="K62" s="10"/>
       <c r="L62" s="12"/>
-      <c r="M62" s="9"/>
+      <c r="M62" s="10"/>
       <c r="N62" s="11"/>
-      <c r="O62" s="9"/>
+      <c r="O62" s="10"/>
       <c r="P62" s="11"/>
-      <c r="Q62" s="8"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="11"/>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="8"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="9"/>
+      <c r="K63" s="10"/>
       <c r="L63" s="12"/>
-      <c r="M63" s="9"/>
+      <c r="M63" s="10"/>
       <c r="N63" s="11"/>
-      <c r="O63" s="9"/>
+      <c r="O63" s="10"/>
       <c r="P63" s="11"/>
-      <c r="Q63" s="8"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="11"/>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="8"/>
+      <c r="A64" s="9"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="9"/>
+      <c r="K64" s="10"/>
       <c r="L64" s="12"/>
-      <c r="M64" s="9"/>
+      <c r="M64" s="10"/>
       <c r="N64" s="11"/>
-      <c r="O64" s="9"/>
+      <c r="O64" s="10"/>
       <c r="P64" s="11"/>
-      <c r="Q64" s="8"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="11"/>
     </row>
     <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I65" s="6"/>
     </row>
     <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B66" s="2">
@@ -2708,25 +2816,25 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="9" t="s">
+      <c r="K66" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L66" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M66" s="9">
+      <c r="M66" s="10">
         <v>0.21826059724466901</v>
       </c>
       <c r="N66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O66" s="9">
+      <c r="O66" s="10">
         <v>0.199782125806655</v>
       </c>
       <c r="P66" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q66" s="8" t="s">
+      <c r="Q66" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R66" s="11" t="s">
@@ -2734,61 +2842,61 @@
       </c>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="8"/>
+      <c r="A67" s="9"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="9"/>
+      <c r="K67" s="10"/>
       <c r="L67" s="12"/>
-      <c r="M67" s="9"/>
+      <c r="M67" s="10"/>
       <c r="N67" s="11"/>
-      <c r="O67" s="9"/>
+      <c r="O67" s="10"/>
       <c r="P67" s="11"/>
-      <c r="Q67" s="8"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="11"/>
     </row>
     <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="8"/>
+      <c r="A68" s="9"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="9"/>
+      <c r="K68" s="10"/>
       <c r="L68" s="12"/>
-      <c r="M68" s="9"/>
+      <c r="M68" s="10"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="9"/>
+      <c r="O68" s="10"/>
       <c r="P68" s="11"/>
-      <c r="Q68" s="8"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="11"/>
     </row>
     <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="8"/>
+      <c r="A69" s="9"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="9"/>
+      <c r="K69" s="10"/>
       <c r="L69" s="12"/>
-      <c r="M69" s="9"/>
+      <c r="M69" s="10"/>
       <c r="N69" s="11"/>
-      <c r="O69" s="9"/>
+      <c r="O69" s="10"/>
       <c r="P69" s="11"/>
-      <c r="Q69" s="8"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="11"/>
     </row>
     <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I70" s="6"/>
     </row>
     <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B71" s="2">
@@ -2797,25 +2905,25 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="9" t="s">
+      <c r="K71" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M71" s="9">
+      <c r="M71" s="10">
         <v>0.24797844874295</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O71" s="9">
+      <c r="O71" s="10">
         <v>0.18443317167635301</v>
       </c>
       <c r="P71" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q71" s="8" t="s">
+      <c r="Q71" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R71" s="11" t="s">
@@ -2823,61 +2931,61 @@
       </c>
     </row>
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="8"/>
+      <c r="A72" s="9"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="9"/>
+      <c r="K72" s="10"/>
       <c r="L72" s="12"/>
-      <c r="M72" s="9"/>
+      <c r="M72" s="10"/>
       <c r="N72" s="11"/>
-      <c r="O72" s="9"/>
+      <c r="O72" s="10"/>
       <c r="P72" s="11"/>
-      <c r="Q72" s="8"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="11"/>
     </row>
     <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="8"/>
+      <c r="A73" s="9"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="9"/>
+      <c r="K73" s="10"/>
       <c r="L73" s="12"/>
-      <c r="M73" s="9"/>
+      <c r="M73" s="10"/>
       <c r="N73" s="11"/>
-      <c r="O73" s="9"/>
+      <c r="O73" s="10"/>
       <c r="P73" s="11"/>
-      <c r="Q73" s="8"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="11"/>
     </row>
     <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="8"/>
+      <c r="A74" s="9"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="9"/>
+      <c r="K74" s="10"/>
       <c r="L74" s="12"/>
-      <c r="M74" s="9"/>
+      <c r="M74" s="10"/>
       <c r="N74" s="11"/>
-      <c r="O74" s="9"/>
+      <c r="O74" s="10"/>
       <c r="P74" s="11"/>
-      <c r="Q74" s="8"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="11"/>
     </row>
     <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I75" s="6"/>
     </row>
     <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
+      <c r="A76" s="9" t="s">
         <v>25</v>
       </c>
       <c r="B76" s="2">
@@ -2886,25 +2994,25 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="9" t="s">
+      <c r="K76" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L76" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M76" s="9">
+      <c r="M76" s="10">
         <v>0.28420023201354799</v>
       </c>
       <c r="N76" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O76" s="9">
+      <c r="O76" s="10">
         <v>0.34385002851765301</v>
       </c>
       <c r="P76" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q76" s="8" t="s">
+      <c r="Q76" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R76" s="11" t="s">
@@ -2912,58 +3020,58 @@
       </c>
     </row>
     <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="8"/>
+      <c r="A77" s="9"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="9"/>
+      <c r="K77" s="10"/>
       <c r="L77" s="12"/>
-      <c r="M77" s="9"/>
+      <c r="M77" s="10"/>
       <c r="N77" s="11"/>
-      <c r="O77" s="9"/>
+      <c r="O77" s="10"/>
       <c r="P77" s="11"/>
-      <c r="Q77" s="8"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="11"/>
     </row>
     <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="8"/>
+      <c r="A78" s="9"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="9"/>
+      <c r="K78" s="10"/>
       <c r="L78" s="12"/>
-      <c r="M78" s="9"/>
+      <c r="M78" s="10"/>
       <c r="N78" s="11"/>
-      <c r="O78" s="9"/>
+      <c r="O78" s="10"/>
       <c r="P78" s="11"/>
-      <c r="Q78" s="8"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="11"/>
     </row>
     <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="8"/>
+      <c r="A79" s="9"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="9"/>
+      <c r="K79" s="10"/>
       <c r="L79" s="12"/>
-      <c r="M79" s="9"/>
+      <c r="M79" s="10"/>
       <c r="N79" s="11"/>
-      <c r="O79" s="9"/>
+      <c r="O79" s="10"/>
       <c r="P79" s="11"/>
-      <c r="Q79" s="8"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="11"/>
     </row>
     <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
+      <c r="A80" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B80" s="2">
@@ -2972,25 +3080,25 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="9" t="s">
+      <c r="K80" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L80" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M80" s="9">
+      <c r="M80" s="10">
         <v>0.29386831802036401</v>
       </c>
       <c r="N80" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O80" s="9">
+      <c r="O80" s="10">
         <v>0.30511472915739701</v>
       </c>
       <c r="P80" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q80" s="8" t="s">
+      <c r="Q80" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R80" s="11" t="s">
@@ -2998,58 +3106,58 @@
       </c>
     </row>
     <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="8"/>
+      <c r="A81" s="9"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="9"/>
+      <c r="K81" s="10"/>
       <c r="L81" s="12"/>
-      <c r="M81" s="9"/>
+      <c r="M81" s="10"/>
       <c r="N81" s="11"/>
-      <c r="O81" s="9"/>
+      <c r="O81" s="10"/>
       <c r="P81" s="11"/>
-      <c r="Q81" s="8"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="11"/>
     </row>
     <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="8"/>
+      <c r="A82" s="9"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="9"/>
+      <c r="K82" s="10"/>
       <c r="L82" s="12"/>
-      <c r="M82" s="9"/>
+      <c r="M82" s="10"/>
       <c r="N82" s="11"/>
-      <c r="O82" s="9"/>
+      <c r="O82" s="10"/>
       <c r="P82" s="11"/>
-      <c r="Q82" s="8"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="11"/>
     </row>
     <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="8"/>
+      <c r="A83" s="9"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="9"/>
+      <c r="K83" s="10"/>
       <c r="L83" s="12"/>
-      <c r="M83" s="9"/>
+      <c r="M83" s="10"/>
       <c r="N83" s="11"/>
-      <c r="O83" s="9"/>
+      <c r="O83" s="10"/>
       <c r="P83" s="11"/>
-      <c r="Q83" s="8"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="11"/>
     </row>
     <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B84" s="2">
@@ -3058,25 +3166,25 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="9" t="s">
+      <c r="K84" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L84" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M84" s="9">
+      <c r="M84" s="10">
         <v>0.167989635290166</v>
       </c>
       <c r="N84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O84" s="9">
+      <c r="O84" s="10">
         <v>0.25329462101632999</v>
       </c>
       <c r="P84" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q84" s="8" t="s">
+      <c r="Q84" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R84" s="11" t="s">
@@ -3084,61 +3192,61 @@
       </c>
     </row>
     <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="8"/>
+      <c r="A85" s="9"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="9"/>
+      <c r="K85" s="10"/>
       <c r="L85" s="12"/>
-      <c r="M85" s="9"/>
+      <c r="M85" s="10"/>
       <c r="N85" s="11"/>
-      <c r="O85" s="9"/>
+      <c r="O85" s="10"/>
       <c r="P85" s="11"/>
-      <c r="Q85" s="8"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="11"/>
     </row>
     <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="8"/>
+      <c r="A86" s="9"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="9"/>
+      <c r="K86" s="10"/>
       <c r="L86" s="12"/>
-      <c r="M86" s="9"/>
+      <c r="M86" s="10"/>
       <c r="N86" s="11"/>
-      <c r="O86" s="9"/>
+      <c r="O86" s="10"/>
       <c r="P86" s="11"/>
-      <c r="Q86" s="8"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="11"/>
     </row>
     <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="8"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="9"/>
+      <c r="K87" s="10"/>
       <c r="L87" s="12"/>
-      <c r="M87" s="9"/>
+      <c r="M87" s="10"/>
       <c r="N87" s="11"/>
-      <c r="O87" s="9"/>
+      <c r="O87" s="10"/>
       <c r="P87" s="11"/>
-      <c r="Q87" s="8"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="11"/>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.25">
       <c r="I88" s="6"/>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="9" t="s">
         <v>29</v>
       </c>
       <c r="B89" s="2">
@@ -3147,25 +3255,25 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="9" t="s">
+      <c r="K89" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L89" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M89" s="9">
+      <c r="M89" s="10">
         <v>0.16062893658948699</v>
       </c>
       <c r="N89" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O89" s="9">
+      <c r="O89" s="10">
         <v>0.121214337893307</v>
       </c>
       <c r="P89" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q89" s="8" t="s">
+      <c r="Q89" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R89" s="11" t="s">
@@ -3173,58 +3281,58 @@
       </c>
     </row>
     <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="8"/>
+      <c r="A90" s="9"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="9"/>
+      <c r="K90" s="10"/>
       <c r="L90" s="12"/>
-      <c r="M90" s="9"/>
+      <c r="M90" s="10"/>
       <c r="N90" s="11"/>
-      <c r="O90" s="9"/>
+      <c r="O90" s="10"/>
       <c r="P90" s="11"/>
-      <c r="Q90" s="8"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="11"/>
     </row>
     <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="8"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="9"/>
+      <c r="K91" s="10"/>
       <c r="L91" s="12"/>
-      <c r="M91" s="9"/>
+      <c r="M91" s="10"/>
       <c r="N91" s="11"/>
-      <c r="O91" s="9"/>
+      <c r="O91" s="10"/>
       <c r="P91" s="11"/>
-      <c r="Q91" s="8"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="11"/>
     </row>
     <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="8"/>
+      <c r="A92" s="9"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="9"/>
+      <c r="K92" s="10"/>
       <c r="L92" s="12"/>
-      <c r="M92" s="9"/>
+      <c r="M92" s="10"/>
       <c r="N92" s="11"/>
-      <c r="O92" s="9"/>
+      <c r="O92" s="10"/>
       <c r="P92" s="11"/>
-      <c r="Q92" s="8"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="11"/>
     </row>
     <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="9" t="s">
         <v>30</v>
       </c>
       <c r="B93" s="2">
@@ -3233,25 +3341,25 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="9" t="s">
+      <c r="K93" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L93" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M93" s="9">
+      <c r="M93" s="10">
         <v>1.0883629283854401E-2</v>
       </c>
       <c r="N93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O93" s="9">
+      <c r="O93" s="10">
         <v>2.6516853932584201E-2</v>
       </c>
       <c r="P93" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q93" s="8" t="s">
+      <c r="Q93" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R93" s="11" t="s">
@@ -3259,58 +3367,58 @@
       </c>
     </row>
     <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="8"/>
+      <c r="A94" s="9"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="9"/>
+      <c r="K94" s="10"/>
       <c r="L94" s="12"/>
-      <c r="M94" s="9"/>
+      <c r="M94" s="10"/>
       <c r="N94" s="11"/>
-      <c r="O94" s="9"/>
+      <c r="O94" s="10"/>
       <c r="P94" s="11"/>
-      <c r="Q94" s="8"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="11"/>
     </row>
     <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="8"/>
+      <c r="A95" s="9"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="9"/>
+      <c r="K95" s="10"/>
       <c r="L95" s="12"/>
-      <c r="M95" s="9"/>
+      <c r="M95" s="10"/>
       <c r="N95" s="11"/>
-      <c r="O95" s="9"/>
+      <c r="O95" s="10"/>
       <c r="P95" s="11"/>
-      <c r="Q95" s="8"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="11"/>
     </row>
     <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="8"/>
+      <c r="A96" s="9"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="9"/>
+      <c r="K96" s="10"/>
       <c r="L96" s="12"/>
-      <c r="M96" s="9"/>
+      <c r="M96" s="10"/>
       <c r="N96" s="11"/>
-      <c r="O96" s="9"/>
+      <c r="O96" s="10"/>
       <c r="P96" s="11"/>
-      <c r="Q96" s="8"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="11"/>
     </row>
     <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="9" t="s">
         <v>31</v>
       </c>
       <c r="B97" s="2">
@@ -3319,25 +3427,25 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="9" t="s">
+      <c r="K97" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L97" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M97" s="9">
+      <c r="M97" s="10">
         <v>2.1265476753851299E-2</v>
       </c>
       <c r="N97" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O97" s="9">
+      <c r="O97" s="10">
         <v>3.6388931451421497E-2</v>
       </c>
       <c r="P97" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q97" s="8" t="s">
+      <c r="Q97" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R97" s="11" t="s">
@@ -3345,58 +3453,58 @@
       </c>
     </row>
     <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="8"/>
+      <c r="A98" s="9"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="9"/>
+      <c r="K98" s="10"/>
       <c r="L98" s="12"/>
-      <c r="M98" s="9"/>
+      <c r="M98" s="10"/>
       <c r="N98" s="11"/>
-      <c r="O98" s="9"/>
+      <c r="O98" s="10"/>
       <c r="P98" s="11"/>
-      <c r="Q98" s="8"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="11"/>
     </row>
     <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="8"/>
+      <c r="A99" s="9"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="9"/>
+      <c r="K99" s="10"/>
       <c r="L99" s="12"/>
-      <c r="M99" s="9"/>
+      <c r="M99" s="10"/>
       <c r="N99" s="11"/>
-      <c r="O99" s="9"/>
+      <c r="O99" s="10"/>
       <c r="P99" s="11"/>
-      <c r="Q99" s="8"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="11"/>
     </row>
     <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="8"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="9"/>
+      <c r="K100" s="10"/>
       <c r="L100" s="12"/>
-      <c r="M100" s="9"/>
+      <c r="M100" s="10"/>
       <c r="N100" s="11"/>
-      <c r="O100" s="9"/>
+      <c r="O100" s="10"/>
       <c r="P100" s="11"/>
-      <c r="Q100" s="8"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="11"/>
     </row>
     <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="9" t="s">
         <v>32</v>
       </c>
       <c r="B101" s="2">
@@ -3405,25 +3513,25 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="9" t="s">
+      <c r="K101" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L101" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M101" s="9">
+      <c r="M101" s="10">
         <v>0.17058616214445499</v>
       </c>
       <c r="N101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O101" s="9">
+      <c r="O101" s="10">
         <v>0.11949852870448099</v>
       </c>
       <c r="P101" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q101" s="8" t="s">
+      <c r="Q101" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R101" s="11" t="s">
@@ -3431,58 +3539,58 @@
       </c>
     </row>
     <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="8"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="9"/>
+      <c r="K102" s="10"/>
       <c r="L102" s="12"/>
-      <c r="M102" s="9"/>
+      <c r="M102" s="10"/>
       <c r="N102" s="11"/>
-      <c r="O102" s="9"/>
+      <c r="O102" s="10"/>
       <c r="P102" s="11"/>
-      <c r="Q102" s="8"/>
+      <c r="Q102" s="9"/>
       <c r="R102" s="11"/>
     </row>
     <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="8"/>
+      <c r="A103" s="9"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="9"/>
+      <c r="K103" s="10"/>
       <c r="L103" s="12"/>
-      <c r="M103" s="9"/>
+      <c r="M103" s="10"/>
       <c r="N103" s="11"/>
-      <c r="O103" s="9"/>
+      <c r="O103" s="10"/>
       <c r="P103" s="11"/>
-      <c r="Q103" s="8"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="11"/>
     </row>
     <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="8"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="9"/>
+      <c r="K104" s="10"/>
       <c r="L104" s="12"/>
-      <c r="M104" s="9"/>
+      <c r="M104" s="10"/>
       <c r="N104" s="11"/>
-      <c r="O104" s="9"/>
+      <c r="O104" s="10"/>
       <c r="P104" s="11"/>
-      <c r="Q104" s="8"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="11"/>
     </row>
     <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="9" t="s">
         <v>33</v>
       </c>
       <c r="B105" s="2">
@@ -3491,25 +3599,25 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="9" t="s">
+      <c r="K105" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L105" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M105" s="9">
+      <c r="M105" s="10">
         <v>0.219652082835287</v>
       </c>
       <c r="N105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O105" s="9">
+      <c r="O105" s="10">
         <v>0.145969617876444</v>
       </c>
       <c r="P105" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q105" s="8" t="s">
+      <c r="Q105" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R105" s="11" t="s">
@@ -3517,58 +3625,58 @@
       </c>
     </row>
     <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="8"/>
+      <c r="A106" s="9"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="9"/>
+      <c r="K106" s="10"/>
       <c r="L106" s="12"/>
-      <c r="M106" s="9"/>
+      <c r="M106" s="10"/>
       <c r="N106" s="11"/>
-      <c r="O106" s="9"/>
+      <c r="O106" s="10"/>
       <c r="P106" s="11"/>
-      <c r="Q106" s="8"/>
+      <c r="Q106" s="9"/>
       <c r="R106" s="11"/>
     </row>
     <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="8"/>
+      <c r="A107" s="9"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="9"/>
+      <c r="K107" s="10"/>
       <c r="L107" s="12"/>
-      <c r="M107" s="9"/>
+      <c r="M107" s="10"/>
       <c r="N107" s="11"/>
-      <c r="O107" s="9"/>
+      <c r="O107" s="10"/>
       <c r="P107" s="11"/>
-      <c r="Q107" s="8"/>
+      <c r="Q107" s="9"/>
       <c r="R107" s="11"/>
     </row>
     <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="8"/>
+      <c r="A108" s="9"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="9"/>
+      <c r="K108" s="10"/>
       <c r="L108" s="12"/>
-      <c r="M108" s="9"/>
+      <c r="M108" s="10"/>
       <c r="N108" s="11"/>
-      <c r="O108" s="9"/>
+      <c r="O108" s="10"/>
       <c r="P108" s="11"/>
-      <c r="Q108" s="8"/>
+      <c r="Q108" s="9"/>
       <c r="R108" s="11"/>
     </row>
     <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="9" t="s">
         <v>28</v>
       </c>
       <c r="B109" s="2">
@@ -3577,25 +3685,25 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="9" t="s">
+      <c r="K109" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L109" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M109" s="9">
+      <c r="M109" s="10">
         <v>0.27256493121848202</v>
       </c>
       <c r="N109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O109" s="9">
+      <c r="O109" s="10">
         <v>0.15719859527191099</v>
       </c>
       <c r="P109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q109" s="8" t="s">
+      <c r="Q109" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R109" s="11" t="s">
@@ -3603,58 +3711,58 @@
       </c>
     </row>
     <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="8"/>
+      <c r="A110" s="9"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="9"/>
+      <c r="K110" s="10"/>
       <c r="L110" s="12"/>
-      <c r="M110" s="9"/>
+      <c r="M110" s="10"/>
       <c r="N110" s="11"/>
-      <c r="O110" s="9"/>
+      <c r="O110" s="10"/>
       <c r="P110" s="11"/>
-      <c r="Q110" s="8"/>
+      <c r="Q110" s="9"/>
       <c r="R110" s="11"/>
     </row>
     <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="8"/>
+      <c r="A111" s="9"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="9"/>
+      <c r="K111" s="10"/>
       <c r="L111" s="12"/>
-      <c r="M111" s="9"/>
+      <c r="M111" s="10"/>
       <c r="N111" s="11"/>
-      <c r="O111" s="9"/>
+      <c r="O111" s="10"/>
       <c r="P111" s="11"/>
-      <c r="Q111" s="8"/>
+      <c r="Q111" s="9"/>
       <c r="R111" s="11"/>
     </row>
     <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="8"/>
+      <c r="A112" s="9"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="9"/>
+      <c r="K112" s="10"/>
       <c r="L112" s="12"/>
-      <c r="M112" s="9"/>
+      <c r="M112" s="10"/>
       <c r="N112" s="11"/>
-      <c r="O112" s="9"/>
+      <c r="O112" s="10"/>
       <c r="P112" s="11"/>
-      <c r="Q112" s="8"/>
+      <c r="Q112" s="9"/>
       <c r="R112" s="11"/>
     </row>
     <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="9" t="s">
         <v>34</v>
       </c>
       <c r="B113" s="2">
@@ -3663,25 +3771,25 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="9" t="s">
+      <c r="K113" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L113" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M113" s="9">
+      <c r="M113" s="10">
         <v>6.2700060480871303E-2</v>
       </c>
       <c r="N113" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O113" s="9">
+      <c r="O113" s="10">
         <v>3.09751238890398E-2</v>
       </c>
       <c r="P113" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q113" s="8" t="s">
+      <c r="Q113" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R113" s="11" t="s">
@@ -3689,58 +3797,58 @@
       </c>
     </row>
     <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="8"/>
+      <c r="A114" s="9"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="9"/>
+      <c r="K114" s="10"/>
       <c r="L114" s="12"/>
-      <c r="M114" s="9"/>
+      <c r="M114" s="10"/>
       <c r="N114" s="11"/>
-      <c r="O114" s="9"/>
+      <c r="O114" s="10"/>
       <c r="P114" s="11"/>
-      <c r="Q114" s="8"/>
+      <c r="Q114" s="9"/>
       <c r="R114" s="11"/>
     </row>
     <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="8"/>
+      <c r="A115" s="9"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="9"/>
+      <c r="K115" s="10"/>
       <c r="L115" s="12"/>
-      <c r="M115" s="9"/>
+      <c r="M115" s="10"/>
       <c r="N115" s="11"/>
-      <c r="O115" s="9"/>
+      <c r="O115" s="10"/>
       <c r="P115" s="11"/>
-      <c r="Q115" s="8"/>
+      <c r="Q115" s="9"/>
       <c r="R115" s="11"/>
     </row>
     <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="8"/>
+      <c r="A116" s="9"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="9"/>
+      <c r="K116" s="10"/>
       <c r="L116" s="12"/>
-      <c r="M116" s="9"/>
+      <c r="M116" s="10"/>
       <c r="N116" s="11"/>
-      <c r="O116" s="9"/>
+      <c r="O116" s="10"/>
       <c r="P116" s="11"/>
-      <c r="Q116" s="8"/>
+      <c r="Q116" s="9"/>
       <c r="R116" s="11"/>
     </row>
     <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B117" s="2">
@@ -3749,25 +3857,25 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="9" t="s">
+      <c r="K117" s="10" t="s">
         <v>11</v>
       </c>
       <c r="L117" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="M117" s="9">
+      <c r="M117" s="10">
         <v>0.21402465142211599</v>
       </c>
       <c r="N117" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="O117" s="9">
+      <c r="O117" s="10">
         <v>0.16071994068421799</v>
       </c>
       <c r="P117" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="Q117" s="8" t="s">
+      <c r="Q117" s="9" t="s">
         <v>11</v>
       </c>
       <c r="R117" s="11" t="s">
@@ -3775,58 +3883,297 @@
       </c>
     </row>
     <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="8"/>
+      <c r="A118" s="9"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="9"/>
+      <c r="K118" s="10"/>
       <c r="L118" s="12"/>
-      <c r="M118" s="9"/>
+      <c r="M118" s="10"/>
       <c r="N118" s="11"/>
-      <c r="O118" s="9"/>
+      <c r="O118" s="10"/>
       <c r="P118" s="11"/>
-      <c r="Q118" s="8"/>
+      <c r="Q118" s="9"/>
       <c r="R118" s="11"/>
     </row>
     <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="8"/>
+      <c r="A119" s="9"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="9"/>
+      <c r="K119" s="10"/>
       <c r="L119" s="12"/>
-      <c r="M119" s="9"/>
+      <c r="M119" s="10"/>
       <c r="N119" s="11"/>
-      <c r="O119" s="9"/>
+      <c r="O119" s="10"/>
       <c r="P119" s="11"/>
-      <c r="Q119" s="8"/>
+      <c r="Q119" s="9"/>
       <c r="R119" s="11"/>
     </row>
     <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="8"/>
+      <c r="A120" s="9"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="9"/>
+      <c r="K120" s="10"/>
       <c r="L120" s="12"/>
-      <c r="M120" s="9"/>
+      <c r="M120" s="10"/>
       <c r="N120" s="11"/>
-      <c r="O120" s="9"/>
+      <c r="O120" s="10"/>
       <c r="P120" s="11"/>
-      <c r="Q120" s="8"/>
+      <c r="Q120" s="9"/>
       <c r="R120" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -3851,247 +4198,9 @@
     <mergeCell ref="O105:O108"/>
     <mergeCell ref="P105:P108"/>
     <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597817EF-EACF-42C0-851F-C88F5892A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F6AB6-9BEF-4579-A999-6B285D560313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -628,7 +628,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AE30" sqref="AE30"/>
+      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,18 +3935,233 @@
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -3971,233 +4186,18 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F6AB6-9BEF-4579-A999-6B285D560313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA13C98-0E5E-41B6-8D42-631B204B8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,10 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="43">
-  <si>
-    <t>Our Model</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
   <si>
     <t>Greedy</t>
   </si>
@@ -159,13 +156,23 @@
   <si>
     <t>GIN + DGHAN</t>
   </si>
+  <si>
+    <t>10x10_gin+dghan_128000</t>
+  </si>
+  <si>
+    <t>20x10_gin+dghan_128000</t>
+  </si>
+  <si>
+    <t>Time(s)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -204,7 +211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -239,7 +246,19 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -622,13 +641,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:AQ120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -657,129 +676,149 @@
     <col min="23" max="23" width="9.140625" style="7"/>
     <col min="24" max="24" width="9.140625" style="2"/>
     <col min="25" max="25" width="9.140625" style="7"/>
-    <col min="26" max="16384" width="9.140625" style="2"/>
+    <col min="26" max="40" width="9.140625" style="2"/>
+    <col min="41" max="41" width="25" style="9" customWidth="1"/>
+    <col min="42" max="42" width="25.140625" style="10" customWidth="1"/>
+    <col min="43" max="43" width="14.28515625" style="11" customWidth="1"/>
+    <col min="44" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="C1" s="9" t="s">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="C1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="12"/>
+      <c r="G1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="12"/>
+      <c r="I1" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9" t="s">
+      <c r="L1" s="12"/>
+      <c r="M1" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="12"/>
+      <c r="O1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9" t="s">
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9" t="s">
+      <c r="R1" s="12"/>
+      <c r="U1" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" s="12"/>
+      <c r="Y1" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z1" s="12"/>
+      <c r="AO1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="AQ1" s="1"/>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="R1" s="9"/>
-      <c r="U1" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="V1" s="9"/>
-      <c r="W1" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" s="9"/>
-      <c r="Y1" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z1" s="9"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="I2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="K2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="M2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="O2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="P2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="Q2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="U2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="V2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="V2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="W2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="X2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="X2" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="Y2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="Z2" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>12</v>
+      <c r="AN2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AP2" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
@@ -790,29 +829,29 @@
       <c r="J3" s="8">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="13">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="14">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R3" s="11" t="s">
-        <v>11</v>
+      <c r="M3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="T3" s="1"/>
       <c r="U3" s="7">
@@ -833,9 +872,18 @@
       <c r="Z3" s="8">
         <v>0.81581599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+      <c r="AN3" s="11">
+        <v>0.81581599999999999</v>
+      </c>
+      <c r="AO3" s="10">
+        <v>4.0811E-2</v>
+      </c>
+      <c r="AP3" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -845,14 +893,14 @@
       <c r="J4" s="8">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="10"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="11"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="14"/>
       <c r="T4" s="1"/>
       <c r="U4" s="7">
         <v>3.9321000000000002E-2</v>
@@ -872,9 +920,18 @@
       <c r="Z4" s="8">
         <v>1.6109789999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+      <c r="AN4" s="11">
+        <v>1.6109789999999999</v>
+      </c>
+      <c r="AO4" s="10">
+        <v>3.3570999999999997E-2</v>
+      </c>
+      <c r="AP4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -884,14 +941,14 @@
       <c r="J5" s="8">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="11"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="14"/>
       <c r="T5" s="1"/>
       <c r="U5" s="7">
         <v>3.1038E-2</v>
@@ -911,9 +968,18 @@
       <c r="Z5" s="8">
         <v>3.1995640000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="AN5" s="11">
+        <v>3.1995640000000001</v>
+      </c>
+      <c r="AO5" s="10">
+        <v>2.8816000000000001E-2</v>
+      </c>
+      <c r="AP5" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6" s="12"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -923,14 +989,14 @@
       <c r="J6" s="8">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="11"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="14"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
       <c r="U6" s="7">
@@ -951,172 +1017,197 @@
       <c r="Z6" s="8">
         <v>7.9486220000000003</v>
       </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>37</v>
+      <c r="AN6" s="11">
+        <v>7.9486220000000003</v>
+      </c>
+      <c r="AO6" s="10">
+        <v>2.2353999999999999E-2</v>
+      </c>
+      <c r="AP6" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P7" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R7" s="11" t="s">
-        <v>11</v>
+      <c r="K7" s="13"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="T7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+      <c r="AN7" s="11"/>
+      <c r="AO7" s="10"/>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="11"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="14"/>
       <c r="T8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+      <c r="AN8" s="11"/>
+      <c r="AO8" s="10"/>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="11"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
       <c r="T9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+      <c r="AN9" s="11"/>
+      <c r="AO9" s="10"/>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="11"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="14"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>13</v>
+      <c r="AN10" s="11"/>
+      <c r="AO10" s="10"/>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="10">
+      <c r="K11" s="13">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="11">
+      <c r="L11" s="14">
         <v>0.435</v>
       </c>
-      <c r="M11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P11" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R11" s="11" t="s">
-        <v>11</v>
+      <c r="M11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="T11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="AN11" s="11"/>
+      <c r="AO11" s="10"/>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="11"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="14"/>
       <c r="T12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="9"/>
+      <c r="AN12" s="11"/>
+      <c r="AO12" s="10"/>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="11"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="14"/>
       <c r="T13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="9"/>
+      <c r="AN13" s="11"/>
+      <c r="AO13" s="10"/>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="11"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="14"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>38</v>
+      <c r="AN14" s="11"/>
+      <c r="AO14" s="10"/>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="B15" s="5">
         <v>500</v>
@@ -1125,31 +1216,33 @@
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P15" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R15" s="11" t="s">
-        <v>11</v>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="S15" s="6"/>
       <c r="T15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="9"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="10"/>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
@@ -1157,19 +1250,21 @@
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="11"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="14"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="9"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="10"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
@@ -1177,19 +1272,21 @@
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="10"/>
-      <c r="R17" s="11"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+      <c r="Q17" s="13"/>
+      <c r="R17" s="14"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
-    </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9"/>
+      <c r="AN17" s="11"/>
+      <c r="AO17" s="10"/>
+    </row>
+    <row r="18" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1201,23 +1298,27 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="10"/>
-      <c r="R18" s="11"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="14"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
       <c r="U18" s="7"/>
       <c r="W18" s="7"/>
       <c r="Y18" s="7"/>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>39</v>
+      <c r="AN18" s="11"/>
+      <c r="AO18" s="10"/>
+      <c r="AP18" s="10"/>
+      <c r="AQ18" s="11"/>
+    </row>
+    <row r="19" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>38</v>
       </c>
       <c r="B19" s="5">
         <v>500</v>
@@ -1230,34 +1331,38 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="N19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="R19" s="11" t="s">
-        <v>11</v>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="S19" s="4"/>
       <c r="T19" s="1"/>
       <c r="U19" s="7"/>
       <c r="W19" s="7"/>
       <c r="Y19" s="7"/>
-    </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
+      <c r="AN19" s="11"/>
+      <c r="AO19" s="10"/>
+      <c r="AP19" s="10"/>
+      <c r="AQ19" s="11"/>
+    </row>
+    <row r="20" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1269,22 +1374,26 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="10"/>
-      <c r="R20" s="11"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="14"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
       <c r="U20" s="7"/>
       <c r="W20" s="7"/>
       <c r="Y20" s="7"/>
-    </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
+      <c r="AN20" s="11"/>
+      <c r="AO20" s="10"/>
+      <c r="AP20" s="10"/>
+      <c r="AQ20" s="11"/>
+    </row>
+    <row r="21" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1296,22 +1405,26 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="11"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="13"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="14"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
       <c r="U21" s="7"/>
       <c r="W21" s="7"/>
       <c r="Y21" s="7"/>
-    </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
+      <c r="AN21" s="11"/>
+      <c r="AO21" s="10"/>
+      <c r="AP21" s="10"/>
+      <c r="AQ21" s="11"/>
+    </row>
+    <row r="22" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1323,26 +1436,32 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="10"/>
-      <c r="R22" s="11"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="14"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="14"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
       <c r="U22" s="7"/>
       <c r="W22" s="7"/>
       <c r="Y22" s="7"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="AN22" s="11"/>
+      <c r="AO22" s="10"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="11"/>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>14</v>
+      <c r="AN23" s="11"/>
+      <c r="AO23" s="10"/>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>13</v>
       </c>
       <c r="B24" s="2">
         <v>500</v>
@@ -1371,33 +1490,46 @@
       <c r="J24" s="8">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="13">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="11">
+      <c r="L24" s="14">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="10">
+      <c r="M24" s="13">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O24" s="10">
+      <c r="N24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="13">
         <v>0.153</v>
       </c>
-      <c r="P24" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="9"/>
+      <c r="P24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN24" s="11">
+        <v>3.355451</v>
+      </c>
+      <c r="AO24" s="10">
+        <v>9.5463000000000006E-2</v>
+      </c>
+      <c r="AP24" s="10">
+        <v>8.6752999999999997E-2</v>
+      </c>
+      <c r="AQ24" s="16">
+        <f>(AO24 - AP24)/AP24</f>
+        <v>0.10039998616762544</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25" s="12"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1425,17 +1557,30 @@
       <c r="J25" s="8">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="10"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="11"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="9"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="14"/>
+      <c r="AN25" s="11">
+        <v>6.6267579999999997</v>
+      </c>
+      <c r="AO25" s="10">
+        <v>8.5849999999999996E-2</v>
+      </c>
+      <c r="AP25" s="10">
+        <v>8.1361000000000003E-2</v>
+      </c>
+      <c r="AQ25" s="16">
+        <f t="shared" ref="AQ25:AQ88" si="0">(AO25 - AP25)/AP25</f>
+        <v>5.5173854795294956E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1463,17 +1608,30 @@
       <c r="J26" s="8">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="10"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="11"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="9"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="14"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="12"/>
+      <c r="R26" s="14"/>
+      <c r="AN26" s="11">
+        <v>13.110008000000001</v>
+      </c>
+      <c r="AO26" s="10">
+        <v>7.1389999999999995E-2</v>
+      </c>
+      <c r="AP26" s="10">
+        <v>7.4099999999999999E-2</v>
+      </c>
+      <c r="AQ26" s="16">
+        <f t="shared" si="0"/>
+        <v>-3.6572199730094519E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27" s="12"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1501,18 +1659,31 @@
       <c r="J27" s="8">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="11"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>15</v>
+      <c r="K27" s="13"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="12"/>
+      <c r="R27" s="14"/>
+      <c r="AN27" s="11">
+        <v>32.676729999999999</v>
+      </c>
+      <c r="AO27" s="10">
+        <v>6.1741999999999998E-2</v>
+      </c>
+      <c r="AP27" s="10">
+        <v>5.9912E-2</v>
+      </c>
+      <c r="AQ27" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0544799038589903E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>500</v>
@@ -1541,33 +1712,46 @@
       <c r="J28" s="8">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="13">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="11">
+      <c r="L28" s="14">
         <v>0.624</v>
       </c>
-      <c r="M28" s="10">
+      <c r="M28" s="13">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O28" s="10">
+      <c r="N28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="13">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="9"/>
+      <c r="P28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN28" s="11">
+        <v>4.002434</v>
+      </c>
+      <c r="AO28" s="10">
+        <v>0.123304</v>
+      </c>
+      <c r="AP28" s="10">
+        <v>0.118543</v>
+      </c>
+      <c r="AQ28" s="16">
+        <f t="shared" si="0"/>
+        <v>4.016264140438492E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29" s="12"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1595,17 +1779,30 @@
       <c r="J29" s="8">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="11"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="9"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="12"/>
+      <c r="R29" s="14"/>
+      <c r="AN29" s="11">
+        <v>7.9348150000000004</v>
+      </c>
+      <c r="AO29" s="10">
+        <v>0.113194</v>
+      </c>
+      <c r="AP29" s="10">
+        <v>0.105272</v>
+      </c>
+      <c r="AQ29" s="16">
+        <f t="shared" si="0"/>
+        <v>7.5252678774982887E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30" s="12"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1633,17 +1830,30 @@
       <c r="J30" s="8">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="11"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="9"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="13"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="12"/>
+      <c r="R30" s="14"/>
+      <c r="AN30" s="11">
+        <v>15.800986</v>
+      </c>
+      <c r="AO30" s="10">
+        <v>9.955E-2</v>
+      </c>
+      <c r="AP30" s="10">
+        <v>9.0529999999999999E-2</v>
+      </c>
+      <c r="AQ30" s="16">
+        <f t="shared" si="0"/>
+        <v>9.9635479951397335E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31" s="12"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1671,18 +1881,31 @@
       <c r="J31" s="8">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="11"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>16</v>
+      <c r="K31" s="13"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="14"/>
+      <c r="AN31" s="11">
+        <v>39.365931000000003</v>
+      </c>
+      <c r="AO31" s="10">
+        <v>8.6886000000000005E-2</v>
+      </c>
+      <c r="AP31" s="10">
+        <v>7.9843999999999998E-2</v>
+      </c>
+      <c r="AQ31" s="16">
+        <f t="shared" si="0"/>
+        <v>8.8196984119032193E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>15</v>
       </c>
       <c r="B32" s="2">
         <v>500</v>
@@ -1711,33 +1934,46 @@
       <c r="J32" s="8">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="13">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="11">
+      <c r="L32" s="14">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="10">
+      <c r="M32" s="13">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="10">
+      <c r="N32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="13">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="9"/>
+      <c r="P32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN32" s="11">
+        <v>4.9335690000000003</v>
+      </c>
+      <c r="AO32" s="10">
+        <v>0.129631</v>
+      </c>
+      <c r="AP32" s="10">
+        <v>0.12837799999999999</v>
+      </c>
+      <c r="AQ32" s="16">
+        <f t="shared" si="0"/>
+        <v>9.7602392933368969E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33" s="12"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -1765,17 +2001,30 @@
       <c r="J33" s="8">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="11"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="9"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="12"/>
+      <c r="R33" s="14"/>
+      <c r="AN33" s="11">
+        <v>9.7972990000000006</v>
+      </c>
+      <c r="AO33" s="10">
+        <v>0.116268</v>
+      </c>
+      <c r="AP33" s="10">
+        <v>0.111888</v>
+      </c>
+      <c r="AQ33" s="16">
+        <f t="shared" si="0"/>
+        <v>3.91462891462891E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34" s="12"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -1803,17 +2052,30 @@
       <c r="J34" s="8">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="10"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="9"/>
-      <c r="R34" s="11"/>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="12"/>
+      <c r="R34" s="14"/>
+      <c r="AN34" s="11">
+        <v>19.567959999999999</v>
+      </c>
+      <c r="AO34" s="10">
+        <v>0.102479</v>
+      </c>
+      <c r="AP34" s="10">
+        <v>0.10563400000000001</v>
+      </c>
+      <c r="AQ34" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.9867277581081896E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -1841,18 +2103,31 @@
       <c r="J35" s="8">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="10"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="11"/>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>17</v>
+      <c r="K35" s="13"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="13"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="14"/>
+      <c r="AN35" s="11">
+        <v>48.782482999999999</v>
+      </c>
+      <c r="AO35" s="10">
+        <v>8.9824000000000001E-2</v>
+      </c>
+      <c r="AP35" s="10">
+        <v>9.5658000000000007E-2</v>
+      </c>
+      <c r="AQ35" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.0988103451880715E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>16</v>
       </c>
       <c r="B36" s="2">
         <v>500</v>
@@ -1881,33 +2156,46 @@
       <c r="J36" s="8">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="13">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="11">
+      <c r="L36" s="14">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="10">
+      <c r="M36" s="13">
         <v>0.189</v>
       </c>
-      <c r="N36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O36" s="10">
+      <c r="N36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="13">
         <v>0.18</v>
       </c>
-      <c r="P36" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R36" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="9"/>
+      <c r="P36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN36" s="11">
+        <v>5.413564</v>
+      </c>
+      <c r="AO36" s="10">
+        <v>0.15876999999999999</v>
+      </c>
+      <c r="AP36" s="10">
+        <v>0.14421300000000001</v>
+      </c>
+      <c r="AQ36" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10094096926074615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -1935,17 +2223,30 @@
       <c r="J37" s="8">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="10"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="11"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A38" s="9"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="14"/>
+      <c r="Q37" s="12"/>
+      <c r="R37" s="14"/>
+      <c r="AN37" s="11">
+        <v>10.807356</v>
+      </c>
+      <c r="AO37" s="10">
+        <v>0.13111600000000001</v>
+      </c>
+      <c r="AP37" s="10">
+        <v>0.12191200000000001</v>
+      </c>
+      <c r="AQ37" s="16">
+        <f t="shared" si="0"/>
+        <v>7.549707986088329E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -1973,17 +2274,30 @@
       <c r="J38" s="8">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="10"/>
-      <c r="L38" s="11"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="11"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="11"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" s="9"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="14"/>
+      <c r="Q38" s="12"/>
+      <c r="R38" s="14"/>
+      <c r="AN38" s="11">
+        <v>21.628416999999999</v>
+      </c>
+      <c r="AO38" s="10">
+        <v>0.105418</v>
+      </c>
+      <c r="AP38" s="10">
+        <v>0.106071</v>
+      </c>
+      <c r="AQ38" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.156253829981812E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2011,18 +2325,31 @@
       <c r="J39" s="8">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="10"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="11"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>18</v>
+      <c r="K39" s="13"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="14"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="14"/>
+      <c r="Q39" s="12"/>
+      <c r="R39" s="14"/>
+      <c r="AN39" s="11">
+        <v>53.830657000000002</v>
+      </c>
+      <c r="AO39" s="10">
+        <v>9.2197000000000001E-2</v>
+      </c>
+      <c r="AP39" s="10">
+        <v>8.5440000000000002E-2</v>
+      </c>
+      <c r="AQ39" s="16">
+        <f t="shared" si="0"/>
+        <v>7.9084737827715343E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>17</v>
       </c>
       <c r="B40" s="2">
         <v>500</v>
@@ -2051,33 +2378,46 @@
       <c r="J40" s="8">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="13">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="11">
+      <c r="L40" s="14">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="10">
+      <c r="M40" s="13">
         <v>0.254</v>
       </c>
-      <c r="N40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O40" s="10">
+      <c r="N40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="13">
         <v>0.187</v>
       </c>
-      <c r="P40" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="10">
+      <c r="P40" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="13">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="11">
+      <c r="R40" s="14">
         <v>600</v>
       </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="9"/>
+      <c r="AN40" s="11">
+        <v>6.7596759999999998</v>
+      </c>
+      <c r="AO40" s="10">
+        <v>0.186613</v>
+      </c>
+      <c r="AP40" s="10">
+        <v>0.189831</v>
+      </c>
+      <c r="AQ40" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.6951920392348978E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2105,17 +2445,30 @@
       <c r="J41" s="8">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="10"/>
-      <c r="L41" s="11"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="11"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="10"/>
-      <c r="R41" s="11"/>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A42" s="9"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="14"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="14"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="14"/>
+      <c r="AN41" s="11">
+        <v>13.471734</v>
+      </c>
+      <c r="AO41" s="10">
+        <v>0.166847</v>
+      </c>
+      <c r="AP41" s="10">
+        <v>0.16696800000000001</v>
+      </c>
+      <c r="AQ41" s="16">
+        <f t="shared" si="0"/>
+        <v>-7.2468976091233036E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2143,17 +2496,30 @@
       <c r="J42" s="8">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="10"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="10"/>
-      <c r="R42" s="11"/>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A43" s="9"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="14"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="14"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="14"/>
+      <c r="AN42" s="11">
+        <v>26.813558</v>
+      </c>
+      <c r="AO42" s="10">
+        <v>0.149227</v>
+      </c>
+      <c r="AP42" s="10">
+        <v>0.14726700000000001</v>
+      </c>
+      <c r="AQ42" s="16">
+        <f t="shared" si="0"/>
+        <v>1.3309159553735659E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2181,18 +2547,31 @@
       <c r="J43" s="8">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="10"/>
-      <c r="L43" s="11"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="11"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="10"/>
-      <c r="R43" s="11"/>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>19</v>
+      <c r="K43" s="13"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="14"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="14"/>
+      <c r="AN43" s="11">
+        <v>66.724900000000005</v>
+      </c>
+      <c r="AO43" s="10">
+        <v>0.13051599999999999</v>
+      </c>
+      <c r="AP43" s="10">
+        <v>0.12436</v>
+      </c>
+      <c r="AQ43" s="16">
+        <f t="shared" si="0"/>
+        <v>4.9501447410742964E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>500</v>
@@ -2221,33 +2600,46 @@
       <c r="J44" s="8">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="13">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="14">
         <v>2.7</v>
       </c>
-      <c r="M44" s="10">
+      <c r="M44" s="13">
         <v>0.159</v>
       </c>
-      <c r="N44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O44" s="10">
+      <c r="N44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="13">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A45" s="9"/>
+      <c r="P44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN44" s="11">
+        <v>8.6928560000000008</v>
+      </c>
+      <c r="AO44" s="10">
+        <v>0.10859099999999999</v>
+      </c>
+      <c r="AP44" s="10">
+        <v>0.104395</v>
+      </c>
+      <c r="AQ44" s="16">
+        <f t="shared" si="0"/>
+        <v>4.0193495857081193E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -2275,17 +2667,30 @@
       <c r="J45" s="8">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="10"/>
-      <c r="L45" s="11"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="11"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="11"/>
-    </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="14"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="14"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="14"/>
+      <c r="Q45" s="12"/>
+      <c r="R45" s="14"/>
+      <c r="AN45" s="11">
+        <v>17.285457000000001</v>
+      </c>
+      <c r="AO45" s="10">
+        <v>9.0360999999999997E-2</v>
+      </c>
+      <c r="AP45" s="10">
+        <v>8.4803000000000003E-2</v>
+      </c>
+      <c r="AQ45" s="16">
+        <f t="shared" si="0"/>
+        <v>6.5540134193365726E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A46" s="12"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -2313,17 +2718,30 @@
       <c r="J46" s="8">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="10"/>
-      <c r="L46" s="11"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="11"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="11"/>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A47" s="9"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="14"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="14"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="14"/>
+      <c r="Q46" s="12"/>
+      <c r="R46" s="14"/>
+      <c r="AN46" s="11">
+        <v>34.49512</v>
+      </c>
+      <c r="AO46" s="10">
+        <v>6.4596000000000001E-2</v>
+      </c>
+      <c r="AP46" s="10">
+        <v>6.5229999999999996E-2</v>
+      </c>
+      <c r="AQ46" s="16">
+        <f t="shared" si="0"/>
+        <v>-9.7194542388470903E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A47" s="12"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -2351,18 +2769,31 @@
       <c r="J47" s="8">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="10"/>
-      <c r="L47" s="11"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="11"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="11"/>
-    </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A48" s="9" t="s">
-        <v>20</v>
+      <c r="K47" s="13"/>
+      <c r="L47" s="14"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="14"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="14"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="14"/>
+      <c r="AN47" s="11">
+        <v>85.965810000000005</v>
+      </c>
+      <c r="AO47" s="10">
+        <v>3.7137000000000003E-2</v>
+      </c>
+      <c r="AP47" s="10">
+        <v>4.0752999999999998E-2</v>
+      </c>
+      <c r="AQ47" s="16">
+        <f t="shared" si="0"/>
+        <v>-8.8729664073810374E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="B48" s="2">
         <v>500</v>
@@ -2391,33 +2822,46 @@
       <c r="J48" s="8">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="13">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="11">
+      <c r="L48" s="14">
         <v>4.883</v>
       </c>
-      <c r="M48" s="10">
+      <c r="M48" s="13">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O48" s="10">
+      <c r="N48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="13">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R48" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A49" s="9"/>
+      <c r="P48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN48" s="11">
+        <v>11.603604000000001</v>
+      </c>
+      <c r="AO48" s="10">
+        <v>0.13170399999999999</v>
+      </c>
+      <c r="AP48" s="10">
+        <v>0.131967</v>
+      </c>
+      <c r="AQ48" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.9929224730426032E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A49" s="12"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
@@ -2445,17 +2889,30 @@
       <c r="J49" s="8">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="10"/>
-      <c r="L49" s="11"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="11"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="11"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="11"/>
-    </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A50" s="9"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="12"/>
+      <c r="R49" s="14"/>
+      <c r="AN49" s="11">
+        <v>23.158722999999998</v>
+      </c>
+      <c r="AO49" s="10">
+        <v>0.11490499999999999</v>
+      </c>
+      <c r="AP49" s="10">
+        <v>0.109731</v>
+      </c>
+      <c r="AQ49" s="16">
+        <f t="shared" si="0"/>
+        <v>4.715167090430232E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A50" s="12"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
@@ -2483,17 +2940,30 @@
       <c r="J50" s="8">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="10"/>
-      <c r="L50" s="11"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="11"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="11"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="11"/>
-    </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A51" s="9"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="14"/>
+      <c r="M50" s="13"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="12"/>
+      <c r="R50" s="14"/>
+      <c r="AN50" s="11">
+        <v>46.277225999999999</v>
+      </c>
+      <c r="AO50" s="10">
+        <v>9.4871999999999998E-2</v>
+      </c>
+      <c r="AP50" s="10">
+        <v>9.2076000000000005E-2</v>
+      </c>
+      <c r="AQ50" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0366219210217569E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A51" s="12"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
@@ -2521,18 +2991,31 @@
       <c r="J51" s="8">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="11"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="11"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="11"/>
-    </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>21</v>
+      <c r="K51" s="13"/>
+      <c r="L51" s="14"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="12"/>
+      <c r="R51" s="14"/>
+      <c r="AN51" s="11">
+        <v>115.449259</v>
+      </c>
+      <c r="AO51" s="10">
+        <v>6.5272999999999998E-2</v>
+      </c>
+      <c r="AP51" s="10">
+        <v>6.8575999999999998E-2</v>
+      </c>
+      <c r="AQ51" s="16">
+        <f t="shared" si="0"/>
+        <v>-4.8165538964069068E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>500</v>
@@ -2543,33 +3026,46 @@
       <c r="J52" s="8">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="13">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="11">
+      <c r="L52" s="14">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="10">
+      <c r="M52" s="13">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O52" s="10">
+      <c r="N52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="13">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A53" s="9"/>
+      <c r="P52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN52" s="11">
+        <v>32.667169999999999</v>
+      </c>
+      <c r="AO52" s="10">
+        <v>7.0554000000000006E-2</v>
+      </c>
+      <c r="AP52" s="10">
+        <v>7.3601E-2</v>
+      </c>
+      <c r="AQ52" s="16">
+        <f t="shared" si="0"/>
+        <v>-4.1398894036765728E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
@@ -2579,17 +3075,30 @@
       <c r="J53" s="8">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="10"/>
-      <c r="L53" s="11"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="11"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="11"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="11"/>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A54" s="9"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="14"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="12"/>
+      <c r="R53" s="14"/>
+      <c r="AN53" s="11">
+        <v>65.318888000000001</v>
+      </c>
+      <c r="AO53" s="10">
+        <v>5.4175000000000001E-2</v>
+      </c>
+      <c r="AP53" s="10">
+        <v>6.1533999999999998E-2</v>
+      </c>
+      <c r="AQ53" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.11959242045048263</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A54" s="12"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
@@ -2599,17 +3108,30 @@
       <c r="J54" s="8">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="11"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="11"/>
-      <c r="Q54" s="9"/>
-      <c r="R54" s="11"/>
-    </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A55" s="9"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="14"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="14"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="14"/>
+      <c r="Q54" s="12"/>
+      <c r="R54" s="14"/>
+      <c r="AN54" s="11">
+        <v>130.456557</v>
+      </c>
+      <c r="AO54" s="10">
+        <v>3.5038E-2</v>
+      </c>
+      <c r="AP54" s="10">
+        <v>4.5533999999999998E-2</v>
+      </c>
+      <c r="AQ54" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.23050907014538585</v>
+      </c>
+    </row>
+    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A55" s="12"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
@@ -2619,21 +3141,36 @@
       <c r="J55" s="8">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="11"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="11"/>
-      <c r="Q55" s="9"/>
-      <c r="R55" s="11"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K55" s="13"/>
+      <c r="L55" s="14"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="14"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="14"/>
+      <c r="Q55" s="12"/>
+      <c r="R55" s="14"/>
+      <c r="AN55" s="11">
+        <v>323.3809</v>
+      </c>
+      <c r="AO55" s="10">
+        <v>1.8312999999999999E-2</v>
+      </c>
+      <c r="AP55" s="10">
+        <v>3.1931000000000001E-2</v>
+      </c>
+      <c r="AQ55" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.42648210203250764</v>
+      </c>
+    </row>
+    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>22</v>
+      <c r="AO56" s="10"/>
+      <c r="AQ56" s="16"/>
+    </row>
+    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>500</v>
@@ -2641,85 +3178,137 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L57" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M57" s="10">
+      <c r="K57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="13">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O57" s="10">
+      <c r="N57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="13">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R57" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A58" s="9"/>
+      <c r="P57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN57" s="11">
+        <v>7.3689210000000003</v>
+      </c>
+      <c r="AO57" s="10">
+        <v>2.2509999999999999E-2</v>
+      </c>
+      <c r="AP57" s="10">
+        <v>2.9302999999999999E-2</v>
+      </c>
+      <c r="AQ57" s="16">
+        <f t="shared" si="0"/>
+        <v>-0.2318192676517763</v>
+      </c>
+    </row>
+    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A58" s="12"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="11"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="11"/>
-      <c r="Q58" s="9"/>
-      <c r="R58" s="11"/>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A59" s="9"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="14"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="14"/>
+      <c r="Q58" s="12"/>
+      <c r="R58" s="14"/>
+      <c r="AN58" s="11">
+        <v>14.524684000000001</v>
+      </c>
+      <c r="AO58" s="10">
+        <v>1.5617000000000001E-2</v>
+      </c>
+      <c r="AP58" s="10">
+        <v>1.6742E-2</v>
+      </c>
+      <c r="AQ58" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.7196272846732727E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A59" s="12"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="10"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="11"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="11"/>
-      <c r="Q59" s="9"/>
-      <c r="R59" s="11"/>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A60" s="9"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="15"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="14"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="14"/>
+      <c r="Q59" s="12"/>
+      <c r="R59" s="14"/>
+      <c r="AN59" s="11">
+        <v>29.065647999999999</v>
+      </c>
+      <c r="AO59" s="10">
+        <v>1.5617000000000001E-2</v>
+      </c>
+      <c r="AP59" s="10">
+        <v>1.6742E-2</v>
+      </c>
+      <c r="AQ59" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.7196272846732727E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="11"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="11"/>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="9" t="s">
-        <v>23</v>
+      <c r="K60" s="13"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="14"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="14"/>
+      <c r="Q60" s="12"/>
+      <c r="R60" s="14"/>
+      <c r="AN60" s="11">
+        <v>72.090327000000002</v>
+      </c>
+      <c r="AO60" s="10">
+        <v>1.5617000000000001E-2</v>
+      </c>
+      <c r="AP60" s="10">
+        <v>1.6742E-2</v>
+      </c>
+      <c r="AQ60" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.7196272846732727E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="B61" s="2">
         <v>500</v>
@@ -2727,88 +3316,143 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L61" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M61" s="10">
+      <c r="K61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="13">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O61" s="10">
+      <c r="N61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="13">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R61" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A62" s="9"/>
+      <c r="P61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN61" s="11">
+        <v>8.3890449999999994</v>
+      </c>
+      <c r="AO61" s="10">
+        <v>0.13607</v>
+      </c>
+      <c r="AP61" s="10">
+        <v>0.125916</v>
+      </c>
+      <c r="AQ61" s="16">
+        <f t="shared" si="0"/>
+        <v>8.0641062295498556E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A62" s="12"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="10"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="11"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="11"/>
-      <c r="Q62" s="9"/>
-      <c r="R62" s="11"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A63" s="9"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="14"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="14"/>
+      <c r="Q62" s="12"/>
+      <c r="R62" s="14"/>
+      <c r="AN62" s="11">
+        <v>16.511437999999998</v>
+      </c>
+      <c r="AO62" s="10">
+        <v>0.116073</v>
+      </c>
+      <c r="AP62" s="10">
+        <v>0.110542</v>
+      </c>
+      <c r="AQ62" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0035280707785221E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A63" s="12"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="10"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="11"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="11"/>
-      <c r="Q63" s="9"/>
-      <c r="R63" s="11"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A64" s="9"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="12"/>
+      <c r="R63" s="14"/>
+      <c r="AN63" s="11">
+        <v>32.639651000000001</v>
+      </c>
+      <c r="AO63" s="10">
+        <v>0.10845100000000001</v>
+      </c>
+      <c r="AP63" s="10">
+        <v>0.10363</v>
+      </c>
+      <c r="AQ63" s="16">
+        <f t="shared" si="0"/>
+        <v>4.6521277622310196E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A64" s="12"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="10"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="11"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="11"/>
-      <c r="Q64" s="9"/>
-      <c r="R64" s="11"/>
-    </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K64" s="13"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="14"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="14"/>
+      <c r="Q64" s="12"/>
+      <c r="R64" s="14"/>
+      <c r="AN64" s="11">
+        <v>81.209215999999998</v>
+      </c>
+      <c r="AO64" s="10">
+        <v>9.4404000000000002E-2</v>
+      </c>
+      <c r="AP64" s="10">
+        <v>9.3549999999999994E-2</v>
+      </c>
+      <c r="AQ64" s="16">
+        <f t="shared" si="0"/>
+        <v>9.1288081239979425E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I65" s="6"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A66" s="9" t="s">
-        <v>36</v>
+      <c r="AN65" s="11"/>
+      <c r="AO65" s="10"/>
+      <c r="AQ65" s="16"/>
+    </row>
+    <row r="66" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
@@ -2816,88 +3460,143 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L66" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M66" s="10">
+      <c r="K66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="13">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O66" s="10">
+      <c r="N66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="13">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R66" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A67" s="9"/>
+      <c r="P66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN66" s="11">
+        <v>2.2728280000000001</v>
+      </c>
+      <c r="AO66" s="10">
+        <v>8.3298999999999998E-2</v>
+      </c>
+      <c r="AP66" s="10">
+        <v>8.1192E-2</v>
+      </c>
+      <c r="AQ66" s="16">
+        <f t="shared" si="0"/>
+        <v>2.5950832594344244E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A67" s="12"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="10"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="11"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="11"/>
-      <c r="Q67" s="9"/>
-      <c r="R67" s="11"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A68" s="9"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="15"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="14"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="14"/>
+      <c r="Q67" s="12"/>
+      <c r="R67" s="14"/>
+      <c r="AN67" s="11">
+        <v>4.5111670000000004</v>
+      </c>
+      <c r="AO67" s="10">
+        <v>7.2553000000000006E-2</v>
+      </c>
+      <c r="AP67" s="10">
+        <v>6.4822000000000005E-2</v>
+      </c>
+      <c r="AQ67" s="16">
+        <f t="shared" si="0"/>
+        <v>0.11926506433001144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A68" s="12"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="10"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="11"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="11"/>
-      <c r="Q68" s="9"/>
-      <c r="R68" s="11"/>
-    </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A69" s="9"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="15"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="14"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="14"/>
+      <c r="Q68" s="12"/>
+      <c r="R68" s="14"/>
+      <c r="AN68" s="11">
+        <v>8.9939009999999993</v>
+      </c>
+      <c r="AO68" s="10">
+        <v>6.1851999999999997E-2</v>
+      </c>
+      <c r="AP68" s="10">
+        <v>5.4363000000000002E-2</v>
+      </c>
+      <c r="AQ68" s="16">
+        <f t="shared" si="0"/>
+        <v>0.13775913764876838</v>
+      </c>
+    </row>
+    <row r="69" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A69" s="12"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="10"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="11"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="11"/>
-      <c r="Q69" s="9"/>
-      <c r="R69" s="11"/>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K69" s="13"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="14"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="14"/>
+      <c r="Q69" s="12"/>
+      <c r="R69" s="14"/>
+      <c r="AN69" s="11">
+        <v>22.490936999999999</v>
+      </c>
+      <c r="AO69" s="10">
+        <v>4.7836999999999998E-2</v>
+      </c>
+      <c r="AP69" s="10">
+        <v>3.9944E-2</v>
+      </c>
+      <c r="AQ69" s="16">
+        <f t="shared" si="0"/>
+        <v>0.19760164229921884</v>
+      </c>
+    </row>
+    <row r="70" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I70" s="6"/>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>24</v>
+      <c r="AN70" s="11"/>
+      <c r="AO70" s="10"/>
+      <c r="AQ70" s="16"/>
+    </row>
+    <row r="71" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A71" s="12" t="s">
+        <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
@@ -2905,88 +3604,143 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M71" s="10">
+      <c r="K71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="13">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O71" s="10">
+      <c r="N71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="13">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q71" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A72" s="9"/>
+      <c r="P71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN71" s="11">
+        <v>8.1978240000000007</v>
+      </c>
+      <c r="AO71" s="10">
+        <v>0.13461799999999999</v>
+      </c>
+      <c r="AP71" s="10">
+        <v>0.13474900000000001</v>
+      </c>
+      <c r="AQ71" s="16">
+        <f t="shared" si="0"/>
+        <v>-9.7217790113485062E-4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A72" s="12"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="10"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="11"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="11"/>
-      <c r="Q72" s="9"/>
-      <c r="R72" s="11"/>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A73" s="9"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="15"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="14"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="14"/>
+      <c r="Q72" s="12"/>
+      <c r="R72" s="14"/>
+      <c r="AN72" s="11">
+        <v>16.520105999999998</v>
+      </c>
+      <c r="AO72" s="10">
+        <v>0.117969</v>
+      </c>
+      <c r="AP72" s="10">
+        <v>0.11869200000000001</v>
+      </c>
+      <c r="AQ72" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.0913962187847653E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A73" s="12"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="10"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="11"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="9"/>
-      <c r="R73" s="11"/>
-    </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A74" s="9"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="15"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="14"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="14"/>
+      <c r="Q73" s="12"/>
+      <c r="R73" s="14"/>
+      <c r="AN73" s="11">
+        <v>32.814861000000001</v>
+      </c>
+      <c r="AO73" s="10">
+        <v>9.9063999999999999E-2</v>
+      </c>
+      <c r="AP73" s="10">
+        <v>0.106517</v>
+      </c>
+      <c r="AQ73" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.9970051728832028E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A74" s="12"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="10"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="11"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="11"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="11"/>
-    </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K74" s="13"/>
+      <c r="L74" s="15"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="14"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="14"/>
+      <c r="Q74" s="12"/>
+      <c r="R74" s="14"/>
+      <c r="AN74" s="11">
+        <v>80.115144999999998</v>
+      </c>
+      <c r="AO74" s="10">
+        <v>8.8543999999999998E-2</v>
+      </c>
+      <c r="AP74" s="10">
+        <v>8.2544999999999993E-2</v>
+      </c>
+      <c r="AQ74" s="16">
+        <f t="shared" si="0"/>
+        <v>7.2675510327700102E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I75" s="6"/>
-    </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>25</v>
+      <c r="AN75" s="11"/>
+      <c r="AO75" s="10"/>
+      <c r="AQ75" s="16"/>
+    </row>
+    <row r="76" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
+        <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
@@ -2994,85 +3748,137 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M76" s="10">
+      <c r="K76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="13">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O76" s="10">
+      <c r="N76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="13">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q76" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R76" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A77" s="9"/>
+      <c r="P76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN76" s="11">
+        <v>5.8302040000000002</v>
+      </c>
+      <c r="AO76" s="10">
+        <v>0.29073399999999999</v>
+      </c>
+      <c r="AP76" s="10">
+        <v>0.29579</v>
+      </c>
+      <c r="AQ76" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.7093208019202829E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A77" s="12"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="10"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="11"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="11"/>
-      <c r="Q77" s="9"/>
-      <c r="R77" s="11"/>
-    </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A78" s="9"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="15"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="14"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="14"/>
+      <c r="Q77" s="12"/>
+      <c r="R77" s="14"/>
+      <c r="AN77" s="11">
+        <v>11.555717</v>
+      </c>
+      <c r="AO77" s="10">
+        <v>0.27129799999999998</v>
+      </c>
+      <c r="AP77" s="10">
+        <v>0.24493599999999999</v>
+      </c>
+      <c r="AQ77" s="16">
+        <f t="shared" si="0"/>
+        <v>0.10762811509945454</v>
+      </c>
+    </row>
+    <row r="78" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="10"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="11"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="11"/>
-      <c r="Q78" s="9"/>
-      <c r="R78" s="11"/>
-    </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A79" s="9"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="15"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="14"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="14"/>
+      <c r="Q78" s="12"/>
+      <c r="R78" s="14"/>
+      <c r="AN78" s="11">
+        <v>23.124298</v>
+      </c>
+      <c r="AO78" s="10">
+        <v>0.238071</v>
+      </c>
+      <c r="AP78" s="10">
+        <v>0.21759100000000001</v>
+      </c>
+      <c r="AQ78" s="16">
+        <f t="shared" si="0"/>
+        <v>9.4121539953398795E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A79" s="12"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="10"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="11"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="9"/>
-      <c r="R79" s="11"/>
-    </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A80" s="9" t="s">
-        <v>26</v>
+      <c r="K79" s="13"/>
+      <c r="L79" s="15"/>
+      <c r="M79" s="13"/>
+      <c r="N79" s="14"/>
+      <c r="O79" s="13"/>
+      <c r="P79" s="14"/>
+      <c r="Q79" s="12"/>
+      <c r="R79" s="14"/>
+      <c r="AN79" s="11">
+        <v>58.029696999999999</v>
+      </c>
+      <c r="AO79" s="10">
+        <v>0.18349199999999999</v>
+      </c>
+      <c r="AP79" s="10">
+        <v>0.17799799999999999</v>
+      </c>
+      <c r="AQ79" s="16">
+        <f t="shared" si="0"/>
+        <v>3.0865515342869018E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
@@ -3080,85 +3886,137 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L80" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M80" s="10">
+      <c r="K80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="13">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O80" s="10">
+      <c r="N80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="13">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q80" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R80" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A81" s="9"/>
+      <c r="P80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN80" s="11">
+        <v>7.0910570000000002</v>
+      </c>
+      <c r="AO80" s="10">
+        <v>0.276924</v>
+      </c>
+      <c r="AP80" s="10">
+        <v>0.2606</v>
+      </c>
+      <c r="AQ80" s="16">
+        <f t="shared" si="0"/>
+        <v>6.2640061396776692E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A81" s="12"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="10"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="11"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="11"/>
-      <c r="Q81" s="9"/>
-      <c r="R81" s="11"/>
-    </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A82" s="9"/>
+      <c r="K81" s="13"/>
+      <c r="L81" s="15"/>
+      <c r="M81" s="13"/>
+      <c r="N81" s="14"/>
+      <c r="O81" s="13"/>
+      <c r="P81" s="14"/>
+      <c r="Q81" s="12"/>
+      <c r="R81" s="14"/>
+      <c r="AN81" s="11">
+        <v>14.007052</v>
+      </c>
+      <c r="AO81" s="10">
+        <v>0.24307999999999999</v>
+      </c>
+      <c r="AP81" s="10">
+        <v>0.248502</v>
+      </c>
+      <c r="AQ81" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.1818737877361188E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A82" s="12"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="10"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="11"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="9"/>
-      <c r="R82" s="11"/>
-    </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A83" s="9"/>
+      <c r="K82" s="13"/>
+      <c r="L82" s="15"/>
+      <c r="M82" s="13"/>
+      <c r="N82" s="14"/>
+      <c r="O82" s="13"/>
+      <c r="P82" s="14"/>
+      <c r="Q82" s="12"/>
+      <c r="R82" s="14"/>
+      <c r="AN82" s="11">
+        <v>27.958158999999998</v>
+      </c>
+      <c r="AO82" s="10">
+        <v>0.21668599999999999</v>
+      </c>
+      <c r="AP82" s="10">
+        <v>0.220607</v>
+      </c>
+      <c r="AQ82" s="16">
+        <f t="shared" si="0"/>
+        <v>-1.7773688051603113E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A83" s="12"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="10"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="11"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="11"/>
-      <c r="Q83" s="9"/>
-      <c r="R83" s="11"/>
-    </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A84" s="9" t="s">
-        <v>27</v>
+      <c r="K83" s="13"/>
+      <c r="L83" s="15"/>
+      <c r="M83" s="13"/>
+      <c r="N83" s="14"/>
+      <c r="O83" s="13"/>
+      <c r="P83" s="14"/>
+      <c r="Q83" s="12"/>
+      <c r="R83" s="14"/>
+      <c r="AN83" s="11">
+        <v>69.326909000000001</v>
+      </c>
+      <c r="AO83" s="10">
+        <v>0.18281800000000001</v>
+      </c>
+      <c r="AP83" s="10">
+        <v>0.200214</v>
+      </c>
+      <c r="AQ83" s="16">
+        <f t="shared" si="0"/>
+        <v>-8.6887030876961618E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>500</v>
@@ -3166,88 +4024,143 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L84" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M84" s="10">
+      <c r="K84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" s="13">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O84" s="10">
+      <c r="N84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="13">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q84" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R84" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A85" s="9"/>
+      <c r="P84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN84" s="11">
+        <v>7.4597910000000001</v>
+      </c>
+      <c r="AO84" s="10">
+        <v>0.21903600000000001</v>
+      </c>
+      <c r="AP84" s="10">
+        <v>0.215563</v>
+      </c>
+      <c r="AQ84" s="16">
+        <f t="shared" si="0"/>
+        <v>1.6111299248943483E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A85" s="12"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="10"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="11"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="11"/>
-      <c r="Q85" s="9"/>
-      <c r="R85" s="11"/>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A86" s="9"/>
+      <c r="K85" s="13"/>
+      <c r="L85" s="15"/>
+      <c r="M85" s="13"/>
+      <c r="N85" s="14"/>
+      <c r="O85" s="13"/>
+      <c r="P85" s="14"/>
+      <c r="Q85" s="12"/>
+      <c r="R85" s="14"/>
+      <c r="AN85" s="11">
+        <v>14.86237</v>
+      </c>
+      <c r="AO85" s="10">
+        <v>0.206872</v>
+      </c>
+      <c r="AP85" s="10">
+        <v>0.204427</v>
+      </c>
+      <c r="AQ85" s="16">
+        <f t="shared" si="0"/>
+        <v>1.1960259652589936E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A86" s="12"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="10"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="11"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="11"/>
-      <c r="Q86" s="9"/>
-      <c r="R86" s="11"/>
-    </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A87" s="9"/>
+      <c r="K86" s="13"/>
+      <c r="L86" s="15"/>
+      <c r="M86" s="13"/>
+      <c r="N86" s="14"/>
+      <c r="O86" s="13"/>
+      <c r="P86" s="14"/>
+      <c r="Q86" s="12"/>
+      <c r="R86" s="14"/>
+      <c r="AN86" s="11">
+        <v>29.561377</v>
+      </c>
+      <c r="AO86" s="10">
+        <v>0.19339200000000001</v>
+      </c>
+      <c r="AP86" s="10">
+        <v>0.197687</v>
+      </c>
+      <c r="AQ86" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.1726264246005014E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A87" s="12"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="10"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="11"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="11"/>
-      <c r="Q87" s="9"/>
-      <c r="R87" s="11"/>
-    </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K87" s="13"/>
+      <c r="L87" s="15"/>
+      <c r="M87" s="13"/>
+      <c r="N87" s="14"/>
+      <c r="O87" s="13"/>
+      <c r="P87" s="14"/>
+      <c r="Q87" s="12"/>
+      <c r="R87" s="14"/>
+      <c r="AN87" s="11">
+        <v>73.479196999999999</v>
+      </c>
+      <c r="AO87" s="10">
+        <v>0.18232999999999999</v>
+      </c>
+      <c r="AP87" s="10">
+        <v>0.18768799999999999</v>
+      </c>
+      <c r="AQ87" s="16">
+        <f t="shared" si="0"/>
+        <v>-2.854737649716552E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:43" x14ac:dyDescent="0.25">
       <c r="I88" s="6"/>
-    </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>29</v>
+      <c r="AN88" s="11"/>
+      <c r="AO88" s="10"/>
+      <c r="AQ88" s="16"/>
+    </row>
+    <row r="89" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
+        <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>500</v>
@@ -3255,85 +4168,137 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L89" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M89" s="10">
+      <c r="K89" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="13">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O89" s="10">
+      <c r="N89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="13">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q89" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R89" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A90" s="9"/>
+      <c r="P89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN89" s="11">
+        <v>2.7527020000000002</v>
+      </c>
+      <c r="AO89" s="10">
+        <v>2.4570000000000002E-2</v>
+      </c>
+      <c r="AP89" s="10">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="AQ89" s="16">
+        <f t="shared" ref="AQ89:AQ120" si="1">(AO89 - AP89)/AP89</f>
+        <v>-4.6565774155995332E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A90" s="12"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="10"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="11"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="11"/>
-      <c r="Q90" s="9"/>
-      <c r="R90" s="11"/>
-    </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A91" s="9"/>
+      <c r="K90" s="13"/>
+      <c r="L90" s="15"/>
+      <c r="M90" s="13"/>
+      <c r="N90" s="14"/>
+      <c r="O90" s="13"/>
+      <c r="P90" s="14"/>
+      <c r="Q90" s="12"/>
+      <c r="R90" s="14"/>
+      <c r="AN90" s="11">
+        <v>5.4598659999999999</v>
+      </c>
+      <c r="AO90" s="10">
+        <v>2.4570000000000002E-2</v>
+      </c>
+      <c r="AP90" s="10">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="AQ90" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.6565774155995332E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A91" s="12"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="10"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="11"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="11"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="11"/>
-    </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A92" s="9"/>
+      <c r="K91" s="13"/>
+      <c r="L91" s="15"/>
+      <c r="M91" s="13"/>
+      <c r="N91" s="14"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="14"/>
+      <c r="Q91" s="12"/>
+      <c r="R91" s="14"/>
+      <c r="AN91" s="11">
+        <v>10.888598999999999</v>
+      </c>
+      <c r="AO91" s="10">
+        <v>2.4570000000000002E-2</v>
+      </c>
+      <c r="AP91" s="10">
+        <v>2.5770000000000001E-2</v>
+      </c>
+      <c r="AQ91" s="16">
+        <f t="shared" si="1"/>
+        <v>-4.6565774155995332E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A92" s="12"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="10"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="11"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="9"/>
-      <c r="R92" s="11"/>
-    </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>30</v>
+      <c r="K92" s="13"/>
+      <c r="L92" s="15"/>
+      <c r="M92" s="13"/>
+      <c r="N92" s="14"/>
+      <c r="O92" s="13"/>
+      <c r="P92" s="14"/>
+      <c r="Q92" s="12"/>
+      <c r="R92" s="14"/>
+      <c r="AN92" s="11">
+        <v>27.119754</v>
+      </c>
+      <c r="AO92" s="10">
+        <v>2.4570000000000002E-2</v>
+      </c>
+      <c r="AP92" s="10">
+        <v>2.3397000000000001E-2</v>
+      </c>
+      <c r="AQ92" s="16">
+        <f t="shared" si="1"/>
+        <v>5.0134632645210939E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
@@ -3341,85 +4306,125 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M93" s="10">
+      <c r="K93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="13">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O93" s="10">
+      <c r="N93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="13">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q93" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R93" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A94" s="9"/>
+      <c r="P93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN93" s="11">
+        <v>3.1482399999999999</v>
+      </c>
+      <c r="AO93" s="10">
+        <v>1.0429000000000001E-2</v>
+      </c>
+      <c r="AP93" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="16"/>
+    </row>
+    <row r="94" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A94" s="12"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="10"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="11"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="11"/>
-      <c r="Q94" s="9"/>
-      <c r="R94" s="11"/>
-    </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
+      <c r="K94" s="13"/>
+      <c r="L94" s="15"/>
+      <c r="M94" s="13"/>
+      <c r="N94" s="14"/>
+      <c r="O94" s="13"/>
+      <c r="P94" s="14"/>
+      <c r="Q94" s="12"/>
+      <c r="R94" s="14"/>
+      <c r="AN94" s="11">
+        <v>6.2835929999999998</v>
+      </c>
+      <c r="AO94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP94" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="16"/>
+    </row>
+    <row r="95" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A95" s="12"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="10"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="11"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="11"/>
-      <c r="Q95" s="9"/>
-      <c r="R95" s="11"/>
-    </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A96" s="9"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="15"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="14"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="14"/>
+      <c r="Q95" s="12"/>
+      <c r="R95" s="14"/>
+      <c r="AN95" s="11">
+        <v>12.554895999999999</v>
+      </c>
+      <c r="AO95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="16"/>
+    </row>
+    <row r="96" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A96" s="12"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="10"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="11"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="11"/>
-      <c r="Q96" s="9"/>
-      <c r="R96" s="11"/>
-    </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>31</v>
+      <c r="K96" s="13"/>
+      <c r="L96" s="15"/>
+      <c r="M96" s="13"/>
+      <c r="N96" s="14"/>
+      <c r="O96" s="13"/>
+      <c r="P96" s="14"/>
+      <c r="Q96" s="12"/>
+      <c r="R96" s="14"/>
+      <c r="AN96" s="11">
+        <v>31.354782</v>
+      </c>
+      <c r="AO96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="16"/>
+    </row>
+    <row r="97" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A97" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
@@ -3427,85 +4432,125 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L97" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M97" s="10">
+      <c r="K97" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" s="13">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O97" s="10">
+      <c r="N97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="13">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q97" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R97" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A98" s="9"/>
+      <c r="P97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN97" s="11">
+        <v>3.7235830000000001</v>
+      </c>
+      <c r="AO97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP97" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ97" s="16"/>
+    </row>
+    <row r="98" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A98" s="12"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="10"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="11"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="11"/>
-      <c r="Q98" s="9"/>
-      <c r="R98" s="11"/>
-    </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A99" s="9"/>
+      <c r="K98" s="13"/>
+      <c r="L98" s="15"/>
+      <c r="M98" s="13"/>
+      <c r="N98" s="14"/>
+      <c r="O98" s="13"/>
+      <c r="P98" s="14"/>
+      <c r="Q98" s="12"/>
+      <c r="R98" s="14"/>
+      <c r="AN98" s="11">
+        <v>7.4339560000000002</v>
+      </c>
+      <c r="AO98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP98" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ98" s="16"/>
+    </row>
+    <row r="99" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A99" s="12"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="10"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="11"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="11"/>
-      <c r="Q99" s="9"/>
-      <c r="R99" s="11"/>
-    </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A100" s="9"/>
+      <c r="K99" s="13"/>
+      <c r="L99" s="15"/>
+      <c r="M99" s="13"/>
+      <c r="N99" s="14"/>
+      <c r="O99" s="13"/>
+      <c r="P99" s="14"/>
+      <c r="Q99" s="12"/>
+      <c r="R99" s="14"/>
+      <c r="AN99" s="11">
+        <v>14.859114</v>
+      </c>
+      <c r="AO99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP99" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ99" s="16"/>
+    </row>
+    <row r="100" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A100" s="12"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="10"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="11"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="11"/>
-      <c r="Q100" s="9"/>
-      <c r="R100" s="11"/>
-    </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>32</v>
+      <c r="K100" s="13"/>
+      <c r="L100" s="15"/>
+      <c r="M100" s="13"/>
+      <c r="N100" s="14"/>
+      <c r="O100" s="13"/>
+      <c r="P100" s="14"/>
+      <c r="Q100" s="12"/>
+      <c r="R100" s="14"/>
+      <c r="AN100" s="11">
+        <v>37.086013000000001</v>
+      </c>
+      <c r="AO100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP100" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ100" s="16"/>
+    </row>
+    <row r="101" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>31</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
@@ -3513,85 +4558,137 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L101" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M101" s="10">
+      <c r="K101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="13">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O101" s="10">
+      <c r="N101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="13">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q101" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R101" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A102" s="9"/>
+      <c r="P101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN101" s="11">
+        <v>3.4546389999999998</v>
+      </c>
+      <c r="AO101" s="10">
+        <v>4.2403000000000003E-2</v>
+      </c>
+      <c r="AP101" s="10">
+        <v>3.6013999999999997E-2</v>
+      </c>
+      <c r="AQ101" s="16">
+        <f t="shared" si="1"/>
+        <v>0.1774032320764149</v>
+      </c>
+    </row>
+    <row r="102" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A102" s="12"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="10"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="11"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="11"/>
-      <c r="Q102" s="9"/>
-      <c r="R102" s="11"/>
-    </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A103" s="9"/>
+      <c r="K102" s="13"/>
+      <c r="L102" s="15"/>
+      <c r="M102" s="13"/>
+      <c r="N102" s="14"/>
+      <c r="O102" s="13"/>
+      <c r="P102" s="14"/>
+      <c r="Q102" s="12"/>
+      <c r="R102" s="14"/>
+      <c r="AN102" s="11">
+        <v>6.9478160000000004</v>
+      </c>
+      <c r="AO102" s="10">
+        <v>3.7478999999999998E-2</v>
+      </c>
+      <c r="AP102" s="10">
+        <v>3.4756000000000002E-2</v>
+      </c>
+      <c r="AQ102" s="16">
+        <f t="shared" si="1"/>
+        <v>7.834618483139591E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A103" s="12"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="10"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="11"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="11"/>
-      <c r="Q103" s="9"/>
-      <c r="R103" s="11"/>
-    </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A104" s="9"/>
+      <c r="K103" s="13"/>
+      <c r="L103" s="15"/>
+      <c r="M103" s="13"/>
+      <c r="N103" s="14"/>
+      <c r="O103" s="13"/>
+      <c r="P103" s="14"/>
+      <c r="Q103" s="12"/>
+      <c r="R103" s="14"/>
+      <c r="AN103" s="11">
+        <v>14.081699</v>
+      </c>
+      <c r="AO103" s="10">
+        <v>2.9395000000000001E-2</v>
+      </c>
+      <c r="AP103" s="10">
+        <v>3.4756000000000002E-2</v>
+      </c>
+      <c r="AQ103" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.15424674876280356</v>
+      </c>
+    </row>
+    <row r="104" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A104" s="12"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="10"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="11"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="11"/>
-      <c r="Q104" s="9"/>
-      <c r="R104" s="11"/>
-    </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A105" s="9" t="s">
-        <v>33</v>
+      <c r="K104" s="13"/>
+      <c r="L104" s="15"/>
+      <c r="M104" s="13"/>
+      <c r="N104" s="14"/>
+      <c r="O104" s="13"/>
+      <c r="P104" s="14"/>
+      <c r="Q104" s="12"/>
+      <c r="R104" s="14"/>
+      <c r="AN104" s="11">
+        <v>35.508873000000001</v>
+      </c>
+      <c r="AO104" s="10">
+        <v>1.7829000000000001E-2</v>
+      </c>
+      <c r="AP104" s="10">
+        <v>2.9411E-2</v>
+      </c>
+      <c r="AQ104" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.39379823875420755</v>
+      </c>
+    </row>
+    <row r="105" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>32</v>
       </c>
       <c r="B105" s="2">
         <v>500</v>
@@ -3599,85 +4696,137 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L105" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M105" s="10">
+      <c r="K105" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="13">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O105" s="10">
+      <c r="N105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="13">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q105" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R105" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A106" s="9"/>
+      <c r="P105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN105" s="11">
+        <v>4.0850150000000003</v>
+      </c>
+      <c r="AO105" s="10">
+        <v>4.8120999999999997E-2</v>
+      </c>
+      <c r="AP105" s="10">
+        <v>4.7495999999999997E-2</v>
+      </c>
+      <c r="AQ105" s="16">
+        <f t="shared" si="1"/>
+        <v>1.3159002863399036E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A106" s="12"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="10"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="11"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="11"/>
-      <c r="Q106" s="9"/>
-      <c r="R106" s="11"/>
-    </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A107" s="9"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="15"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="14"/>
+      <c r="O106" s="13"/>
+      <c r="P106" s="14"/>
+      <c r="Q106" s="12"/>
+      <c r="R106" s="14"/>
+      <c r="AN106" s="11">
+        <v>8.2311809999999994</v>
+      </c>
+      <c r="AO106" s="10">
+        <v>4.1047E-2</v>
+      </c>
+      <c r="AP106" s="10">
+        <v>3.8675000000000001E-2</v>
+      </c>
+      <c r="AQ106" s="16">
+        <f t="shared" si="1"/>
+        <v>6.1331609566903658E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A107" s="12"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="10"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="11"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="11"/>
-      <c r="Q107" s="9"/>
-      <c r="R107" s="11"/>
-    </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A108" s="9"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="15"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="14"/>
+      <c r="O107" s="13"/>
+      <c r="P107" s="14"/>
+      <c r="Q107" s="12"/>
+      <c r="R107" s="14"/>
+      <c r="AN107" s="11">
+        <v>16.372955999999999</v>
+      </c>
+      <c r="AO107" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="AP107" s="10">
+        <v>3.8675000000000001E-2</v>
+      </c>
+      <c r="AQ107" s="16">
+        <f t="shared" si="1"/>
+        <v>3.425985778926955E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A108" s="12"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="10"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="11"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="11"/>
-      <c r="Q108" s="9"/>
-      <c r="R108" s="11"/>
-    </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>28</v>
+      <c r="K108" s="13"/>
+      <c r="L108" s="15"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="14"/>
+      <c r="O108" s="13"/>
+      <c r="P108" s="14"/>
+      <c r="Q108" s="12"/>
+      <c r="R108" s="14"/>
+      <c r="AN108" s="11">
+        <v>41.484876999999997</v>
+      </c>
+      <c r="AO108" s="10">
+        <v>3.0512000000000001E-2</v>
+      </c>
+      <c r="AP108" s="10">
+        <v>3.5061000000000002E-2</v>
+      </c>
+      <c r="AQ108" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.12974530104674711</v>
+      </c>
+    </row>
+    <row r="109" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>500</v>
@@ -3685,85 +4834,137 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L109" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M109" s="10">
+      <c r="K109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M109" s="13">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O109" s="10">
+      <c r="N109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="13">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q109" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R109" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A110" s="9"/>
+      <c r="P109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN109" s="11">
+        <v>4.7877510000000001</v>
+      </c>
+      <c r="AO109" s="10">
+        <v>7.2281999999999999E-2</v>
+      </c>
+      <c r="AP109" s="10">
+        <v>7.0127999999999996E-2</v>
+      </c>
+      <c r="AQ109" s="16">
+        <f t="shared" si="1"/>
+        <v>3.071526351813831E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="10"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="11"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="11"/>
-      <c r="Q110" s="9"/>
-      <c r="R110" s="11"/>
-    </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A111" s="9"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="15"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="14"/>
+      <c r="O110" s="13"/>
+      <c r="P110" s="14"/>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="14"/>
+      <c r="AN110" s="11">
+        <v>9.6713889999999996</v>
+      </c>
+      <c r="AO110" s="10">
+        <v>6.0512999999999997E-2</v>
+      </c>
+      <c r="AP110" s="10">
+        <v>5.6954999999999999E-2</v>
+      </c>
+      <c r="AQ110" s="16">
+        <f t="shared" si="1"/>
+        <v>6.2470371345799296E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="10"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="11"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="11"/>
-      <c r="Q111" s="9"/>
-      <c r="R111" s="11"/>
-    </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A112" s="9"/>
+      <c r="K111" s="13"/>
+      <c r="L111" s="15"/>
+      <c r="M111" s="13"/>
+      <c r="N111" s="14"/>
+      <c r="O111" s="13"/>
+      <c r="P111" s="14"/>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="14"/>
+      <c r="AN111" s="11">
+        <v>19.316754</v>
+      </c>
+      <c r="AO111" s="10">
+        <v>5.5724999999999997E-2</v>
+      </c>
+      <c r="AP111" s="10">
+        <v>3.4072999999999999E-2</v>
+      </c>
+      <c r="AQ111" s="16">
+        <f t="shared" si="1"/>
+        <v>0.6354591612126903</v>
+      </c>
+    </row>
+    <row r="112" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="10"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="11"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="11"/>
-      <c r="Q112" s="9"/>
-      <c r="R112" s="11"/>
-    </row>
-    <row r="113" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A113" s="9" t="s">
-        <v>34</v>
+      <c r="K112" s="13"/>
+      <c r="L112" s="15"/>
+      <c r="M112" s="13"/>
+      <c r="N112" s="14"/>
+      <c r="O112" s="13"/>
+      <c r="P112" s="14"/>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="14"/>
+      <c r="AN112" s="11">
+        <v>47.262852000000002</v>
+      </c>
+      <c r="AO112" s="10">
+        <v>4.1868000000000002E-2</v>
+      </c>
+      <c r="AP112" s="10">
+        <v>2.6265E-2</v>
+      </c>
+      <c r="AQ112" s="16">
+        <f t="shared" si="1"/>
+        <v>0.59406053683609372</v>
+      </c>
+    </row>
+    <row r="113" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A113" s="12" t="s">
+        <v>33</v>
       </c>
       <c r="B113" s="2">
         <v>500</v>
@@ -3771,85 +4972,128 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L113" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M113" s="10">
+      <c r="K113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M113" s="13">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O113" s="10">
+      <c r="N113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="13">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q113" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R113" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="114" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A114" s="9"/>
+      <c r="P113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN113" s="11">
+        <v>6.1680070000000002</v>
+      </c>
+      <c r="AO113" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP113" s="10">
+        <v>1.0460000000000001E-3</v>
+      </c>
+      <c r="AQ113" s="16">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A114" s="12"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="10"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="11"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="11"/>
-      <c r="Q114" s="9"/>
-      <c r="R114" s="11"/>
-    </row>
-    <row r="115" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A115" s="9"/>
+      <c r="K114" s="13"/>
+      <c r="L114" s="15"/>
+      <c r="M114" s="13"/>
+      <c r="N114" s="14"/>
+      <c r="O114" s="13"/>
+      <c r="P114" s="14"/>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="14"/>
+      <c r="AN114" s="11">
+        <v>12.293174</v>
+      </c>
+      <c r="AO114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP114" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ114" s="16"/>
+    </row>
+    <row r="115" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A115" s="12"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="10"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="11"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="11"/>
-      <c r="Q115" s="9"/>
-      <c r="R115" s="11"/>
-    </row>
-    <row r="116" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A116" s="9"/>
+      <c r="K115" s="13"/>
+      <c r="L115" s="15"/>
+      <c r="M115" s="13"/>
+      <c r="N115" s="14"/>
+      <c r="O115" s="13"/>
+      <c r="P115" s="14"/>
+      <c r="Q115" s="12"/>
+      <c r="R115" s="14"/>
+      <c r="AN115" s="11">
+        <v>24.530194999999999</v>
+      </c>
+      <c r="AO115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP115" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ115" s="16"/>
+    </row>
+    <row r="116" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="10"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="11"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="11"/>
-      <c r="Q116" s="9"/>
-      <c r="R116" s="11"/>
-    </row>
-    <row r="117" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A117" s="9" t="s">
-        <v>35</v>
+      <c r="K116" s="13"/>
+      <c r="L116" s="15"/>
+      <c r="M116" s="13"/>
+      <c r="N116" s="14"/>
+      <c r="O116" s="13"/>
+      <c r="P116" s="14"/>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="14"/>
+      <c r="AN116" s="11">
+        <v>61.224843</v>
+      </c>
+      <c r="AO116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AP116" s="10">
+        <v>0</v>
+      </c>
+      <c r="AQ116" s="16"/>
+    </row>
+    <row r="117" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A117" s="12" t="s">
+        <v>34</v>
       </c>
       <c r="B117" s="2">
         <v>500</v>
@@ -3857,84 +5101,375 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="L117" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="M117" s="10">
+      <c r="K117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M117" s="13">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O117" s="10">
+      <c r="N117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="13">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q117" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="R117" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="118" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A118" s="9"/>
+      <c r="P117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN117" s="11">
+        <v>5.129162</v>
+      </c>
+      <c r="AO117" s="10">
+        <v>6.9264999999999993E-2</v>
+      </c>
+      <c r="AP117" s="10">
+        <v>8.9202000000000004E-2</v>
+      </c>
+      <c r="AQ117" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.22350395731037431</v>
+      </c>
+    </row>
+    <row r="118" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="10"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="11"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="11"/>
-      <c r="Q118" s="9"/>
-      <c r="R118" s="11"/>
-    </row>
-    <row r="119" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A119" s="9"/>
+      <c r="K118" s="13"/>
+      <c r="L118" s="15"/>
+      <c r="M118" s="13"/>
+      <c r="N118" s="14"/>
+      <c r="O118" s="13"/>
+      <c r="P118" s="14"/>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="14"/>
+      <c r="AN118" s="11">
+        <v>10.24381</v>
+      </c>
+      <c r="AO118" s="10">
+        <v>5.7067E-2</v>
+      </c>
+      <c r="AP118" s="10">
+        <v>7.9154000000000002E-2</v>
+      </c>
+      <c r="AQ118" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.27903833034338127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A119" s="12"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="10"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="11"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="11"/>
-      <c r="Q119" s="9"/>
-      <c r="R119" s="11"/>
-    </row>
-    <row r="120" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A120" s="9"/>
+      <c r="K119" s="13"/>
+      <c r="L119" s="15"/>
+      <c r="M119" s="13"/>
+      <c r="N119" s="14"/>
+      <c r="O119" s="13"/>
+      <c r="P119" s="14"/>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="14"/>
+      <c r="AN119" s="11">
+        <v>20.481614</v>
+      </c>
+      <c r="AO119" s="10">
+        <v>5.2463000000000003E-2</v>
+      </c>
+      <c r="AP119" s="10">
+        <v>6.6012000000000001E-2</v>
+      </c>
+      <c r="AQ119" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.20525056050415075</v>
+      </c>
+    </row>
+    <row r="120" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A120" s="12"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="10"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="11"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="11"/>
-      <c r="Q120" s="9"/>
-      <c r="R120" s="11"/>
+      <c r="K120" s="13"/>
+      <c r="L120" s="15"/>
+      <c r="M120" s="13"/>
+      <c r="N120" s="14"/>
+      <c r="O120" s="13"/>
+      <c r="P120" s="14"/>
+      <c r="Q120" s="12"/>
+      <c r="R120" s="14"/>
+      <c r="AN120" s="11">
+        <v>51.171509</v>
+      </c>
+      <c r="AO120" s="10">
+        <v>3.8795999999999997E-2</v>
+      </c>
+      <c r="AP120" s="10">
+        <v>5.5113000000000002E-2</v>
+      </c>
+      <c r="AQ120" s="16">
+        <f t="shared" si="1"/>
+        <v>-0.29606444940395193</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -3959,245 +5494,6 @@
     <mergeCell ref="O105:O108"/>
     <mergeCell ref="P105:P108"/>
     <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,35 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA13C98-0E5E-41B6-8D42-631B204B8DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="48">
   <si>
     <t>Greedy</t>
   </si>
@@ -165,14 +155,23 @@
   <si>
     <t>Time(s)</t>
   </si>
+  <si>
+    <t>ramdon</t>
+  </si>
+  <si>
+    <t>best improvement</t>
+  </si>
+  <si>
+    <t>merged_training_log.png</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -211,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -246,6 +245,9 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -258,13 +260,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -281,56 +292,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>375297</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83829</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D68A82E8-5576-475B-AF65-C81DF54EA5D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12230100" y="1219200"/>
-          <a:ext cx="5852172" cy="4389129"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -358,7 +319,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -367,6 +328,50 @@
         <a:xfrm>
           <a:off x="12211050" y="5829300"/>
           <a:ext cx="8069862" cy="4418517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>394347</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102879</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12249150" y="1238250"/>
+          <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -640,14 +645,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AQ120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AV120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="AG3" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AR6" sqref="AR6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,54 +685,56 @@
     <col min="41" max="41" width="25" style="9" customWidth="1"/>
     <col min="42" max="42" width="25.140625" style="10" customWidth="1"/>
     <col min="43" max="43" width="14.28515625" style="11" customWidth="1"/>
-    <col min="44" max="16384" width="9.140625" style="2"/>
+    <col min="44" max="44" width="9.140625" style="2"/>
+    <col min="45" max="45" width="18.140625" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="D1" s="13"/>
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="13"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12" t="s">
+      <c r="N1" s="13"/>
+      <c r="O1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12" t="s">
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="12"/>
-      <c r="U1" s="12" t="s">
+      <c r="R1" s="13"/>
+      <c r="U1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12" t="s">
+      <c r="V1" s="13"/>
+      <c r="W1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12" t="s">
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="12"/>
+      <c r="Z1" s="13"/>
       <c r="AO1" s="9" t="s">
         <v>42</v>
       </c>
@@ -817,7 +824,7 @@
       </c>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -829,28 +836,28 @@
       <c r="J3" s="8">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="14">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="14">
+      <c r="L3" s="15">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="14" t="s">
+      <c r="M3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="15" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="1"/>
@@ -883,7 +890,7 @@
       </c>
     </row>
     <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="12"/>
+      <c r="A4" s="13"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -893,14 +900,14 @@
       <c r="J4" s="8">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="15"/>
       <c r="T4" s="1"/>
       <c r="U4" s="7">
         <v>3.9321000000000002E-2</v>
@@ -931,7 +938,7 @@
       </c>
     </row>
     <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="13"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -941,14 +948,14 @@
       <c r="J5" s="8">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="13"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="15"/>
       <c r="T5" s="1"/>
       <c r="U5" s="7">
         <v>3.1038E-2</v>
@@ -979,7 +986,7 @@
       </c>
     </row>
     <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="12"/>
+      <c r="A6" s="13"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -989,14 +996,14 @@
       <c r="J6" s="8">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="13"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="15"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
       <c r="U6" s="7">
@@ -1028,31 +1035,31 @@
       </c>
     </row>
     <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="14" t="s">
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="15" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="1"/>
@@ -1060,90 +1067,90 @@
       <c r="AO7" s="10"/>
     </row>
     <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
+      <c r="A8" s="13"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="15"/>
       <c r="T8" s="1"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="10"/>
     </row>
     <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="12"/>
+      <c r="A9" s="13"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="15"/>
       <c r="T9" s="1"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="10"/>
     </row>
     <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
+      <c r="A10" s="13"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="15"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="10"/>
     </row>
     <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="13">
+      <c r="K11" s="14">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="15">
         <v>0.435</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="14" t="s">
+      <c r="M11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="15" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="1"/>
@@ -1151,62 +1158,62 @@
       <c r="AO11" s="10"/>
     </row>
     <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
+      <c r="A12" s="13"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="15"/>
       <c r="T12" s="1"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="10"/>
     </row>
     <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="12"/>
+      <c r="A13" s="13"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="15"/>
       <c r="T13" s="1"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="10"/>
     </row>
     <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
+      <c r="A14" s="13"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
-      <c r="Q14" s="13"/>
-      <c r="R14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="Q14" s="14"/>
+      <c r="R14" s="15"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="10"/>
     </row>
     <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="13" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1216,24 +1223,24 @@
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="14" t="s">
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="15" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1242,7 +1249,7 @@
       <c r="AO15" s="10"/>
     </row>
     <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
+      <c r="A16" s="13"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
@@ -1250,21 +1257,21 @@
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
-      <c r="Q16" s="13"/>
-      <c r="R16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="14"/>
+      <c r="R16" s="15"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="10"/>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
+    <row r="17" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
@@ -1272,21 +1279,23 @@
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-      <c r="Q17" s="13"/>
-      <c r="R17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="14"/>
+      <c r="R17" s="15"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="10"/>
-    </row>
-    <row r="18" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
+      <c r="AR17" s="18"/>
+      <c r="AS17" s="18"/>
+    </row>
+    <row r="18" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1298,14 +1307,14 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="13"/>
-      <c r="R18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="15"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
       <c r="U18" s="7"/>
@@ -1315,9 +1324,11 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="11"/>
-    </row>
-    <row r="19" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="12" t="s">
+      <c r="AR18" s="20"/>
+      <c r="AS18" s="20"/>
+    </row>
+    <row r="19" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1331,24 +1342,24 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="14" t="s">
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="15" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1360,9 +1371,11 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
       <c r="AQ19" s="11"/>
-    </row>
-    <row r="20" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
+      <c r="AR19" s="20"/>
+      <c r="AS19" s="20"/>
+    </row>
+    <row r="20" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="13"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1374,14 +1387,14 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="13"/>
-      <c r="R20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="15"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="14"/>
+      <c r="R20" s="15"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
       <c r="U20" s="7"/>
@@ -1391,9 +1404,11 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="11"/>
-    </row>
-    <row r="21" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="20"/>
+    </row>
+    <row r="21" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1405,14 +1420,14 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="13"/>
-      <c r="R21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="15"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="14"/>
+      <c r="R21" s="15"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
       <c r="U21" s="7"/>
@@ -1422,9 +1437,11 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
       <c r="AQ21" s="11"/>
-    </row>
-    <row r="22" spans="1:43" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
+      <c r="AR21" s="20"/>
+      <c r="AS21" s="20"/>
+    </row>
+    <row r="22" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1436,14 +1453,14 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="14"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="14"/>
+      <c r="N22" s="15"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="15"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
       <c r="U22" s="7"/>
@@ -1453,14 +1470,22 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="11"/>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="20"/>
+    </row>
+    <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="10"/>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
+      <c r="AR23" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS23" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1490,28 +1515,28 @@
       <c r="J24" s="8">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="13">
+      <c r="K24" s="14">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="15">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="13">
+      <c r="M24" s="14">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="13">
+      <c r="N24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="14">
         <v>0.153</v>
       </c>
-      <c r="P24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="14" t="s">
+      <c r="P24" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN24" s="11">
@@ -1523,13 +1548,19 @@
       <c r="AP24" s="10">
         <v>8.6752999999999997E-2</v>
       </c>
-      <c r="AQ24" s="16">
+      <c r="AQ24" s="12">
         <f>(AO24 - AP24)/AP24</f>
         <v>0.10039998616762544</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A25" s="12"/>
+      <c r="AR24" s="20">
+        <v>0.13688711602378539</v>
+      </c>
+      <c r="AS24" s="20">
+        <v>7.5060378575190295E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1557,14 +1588,14 @@
       <c r="J25" s="8">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="13"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="14"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="15"/>
+      <c r="M25" s="14"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="14"/>
+      <c r="P25" s="15"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="15"/>
       <c r="AN25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1574,13 +1605,19 @@
       <c r="AP25" s="10">
         <v>8.1361000000000003E-2</v>
       </c>
-      <c r="AQ25" s="16">
-        <f t="shared" ref="AQ25:AQ88" si="0">(AO25 - AP25)/AP25</f>
+      <c r="AQ25" s="12">
+        <f t="shared" ref="AQ25:AQ87" si="0">(AO25 - AP25)/AP25</f>
         <v>5.5173854795294956E-2</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A26" s="12"/>
+      <c r="AR25" s="20">
+        <v>0.1239270127592192</v>
+      </c>
+      <c r="AS25" s="20">
+        <v>6.2918757652814239E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1608,14 +1645,14 @@
       <c r="J26" s="8">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="13"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="12"/>
-      <c r="R26" s="14"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="15"/>
+      <c r="M26" s="14"/>
+      <c r="N26" s="15"/>
+      <c r="O26" s="14"/>
+      <c r="P26" s="15"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="15"/>
       <c r="AN26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1625,13 +1662,19 @@
       <c r="AP26" s="10">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="AQ26" s="16">
+      <c r="AQ26" s="12">
         <f t="shared" si="0"/>
         <v>-3.6572199730094519E-2</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A27" s="12"/>
+      <c r="AR26" s="20">
+        <v>0.1050443467852758</v>
+      </c>
+      <c r="AS26" s="20">
+        <v>5.3326321728132453E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1659,14 +1702,14 @@
       <c r="J27" s="8">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="13"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="12"/>
-      <c r="R27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="15"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="15"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="15"/>
       <c r="AN27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1676,13 +1719,13 @@
       <c r="AP27" s="10">
         <v>5.9912E-2</v>
       </c>
-      <c r="AQ27" s="16">
+      <c r="AQ27" s="12">
         <f t="shared" si="0"/>
         <v>3.0544799038589903E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+    <row r="28" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -1712,28 +1755,28 @@
       <c r="J28" s="8">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="13">
+      <c r="K28" s="14">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="14">
+      <c r="L28" s="15">
         <v>0.624</v>
       </c>
-      <c r="M28" s="13">
+      <c r="M28" s="14">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="13">
+      <c r="N28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="14">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="14" t="s">
+      <c r="P28" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN28" s="11">
@@ -1745,13 +1788,19 @@
       <c r="AP28" s="10">
         <v>0.118543</v>
       </c>
-      <c r="AQ28" s="16">
+      <c r="AQ28" s="12">
         <f t="shared" si="0"/>
         <v>4.016264140438492E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A29" s="12"/>
+      <c r="AR28" s="20">
+        <v>0.14166088738559399</v>
+      </c>
+      <c r="AS28" s="20">
+        <v>9.5576566423238279E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1779,14 +1828,14 @@
       <c r="J29" s="8">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="13"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="12"/>
-      <c r="R29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="15"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="15"/>
       <c r="AN29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1796,13 +1845,19 @@
       <c r="AP29" s="10">
         <v>0.105272</v>
       </c>
-      <c r="AQ29" s="16">
+      <c r="AQ29" s="12">
         <f t="shared" si="0"/>
         <v>7.5252678774982887E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A30" s="12"/>
+      <c r="AR29" s="20">
+        <v>0.13076665587687061</v>
+      </c>
+      <c r="AS29" s="20">
+        <v>9.0800495453678173E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1830,14 +1885,14 @@
       <c r="J30" s="8">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="13"/>
-      <c r="N30" s="14"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="12"/>
-      <c r="R30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="15"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="15"/>
       <c r="AN30" s="11">
         <v>15.800986</v>
       </c>
@@ -1847,13 +1902,19 @@
       <c r="AP30" s="10">
         <v>9.0529999999999999E-2</v>
       </c>
-      <c r="AQ30" s="16">
+      <c r="AQ30" s="12">
         <f t="shared" si="0"/>
         <v>9.9635479951397335E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A31" s="12"/>
+      <c r="AR30" s="20">
+        <v>0.11610475192718191</v>
+      </c>
+      <c r="AS30" s="20">
+        <v>8.0211340873238432E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1881,14 +1942,14 @@
       <c r="J31" s="8">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="13"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="12"/>
-      <c r="R31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="15"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="15"/>
       <c r="AN31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -1898,13 +1959,13 @@
       <c r="AP31" s="10">
         <v>7.9843999999999998E-2</v>
       </c>
-      <c r="AQ31" s="16">
+      <c r="AQ31" s="12">
         <f t="shared" si="0"/>
         <v>8.8196984119032193E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -1934,28 +1995,28 @@
       <c r="J32" s="8">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="13">
+      <c r="K32" s="14">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="14">
+      <c r="L32" s="15">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="13">
+      <c r="M32" s="14">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="13">
+      <c r="N32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="14">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="14" t="s">
+      <c r="P32" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN32" s="11">
@@ -1967,13 +2028,19 @@
       <c r="AP32" s="10">
         <v>0.12837799999999999</v>
       </c>
-      <c r="AQ32" s="16">
+      <c r="AQ32" s="12">
         <f t="shared" si="0"/>
         <v>9.7602392933368969E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A33" s="12"/>
+      <c r="AR32" s="20">
+        <v>0.1598100151558659</v>
+      </c>
+      <c r="AS32" s="20">
+        <v>9.5042090819800223E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A33" s="13"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -2001,14 +2068,14 @@
       <c r="J33" s="8">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="13"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="13"/>
-      <c r="N33" s="14"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="14"/>
-      <c r="Q33" s="12"/>
-      <c r="R33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="15"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="15"/>
       <c r="AN33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2018,13 +2085,19 @@
       <c r="AP33" s="10">
         <v>0.111888</v>
       </c>
-      <c r="AQ33" s="16">
+      <c r="AQ33" s="12">
         <f t="shared" si="0"/>
         <v>3.91462891462891E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A34" s="12"/>
+      <c r="AR33" s="20">
+        <v>0.14760589447770911</v>
+      </c>
+      <c r="AS33" s="20">
+        <v>8.1518245526609412E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A34" s="13"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -2052,14 +2125,14 @@
       <c r="J34" s="8">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="13"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="13"/>
-      <c r="N34" s="14"/>
-      <c r="O34" s="13"/>
-      <c r="P34" s="14"/>
-      <c r="Q34" s="12"/>
-      <c r="R34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="15"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="15"/>
       <c r="AN34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2069,13 +2142,19 @@
       <c r="AP34" s="10">
         <v>0.10563400000000001</v>
       </c>
-      <c r="AQ34" s="16">
+      <c r="AQ34" s="12">
         <f t="shared" si="0"/>
         <v>-2.9867277581081896E-2</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A35" s="12"/>
+      <c r="AR34" s="20">
+        <v>0.1427892837570599</v>
+      </c>
+      <c r="AS34" s="20">
+        <v>7.9552882005758413E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A35" s="13"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -2103,14 +2182,14 @@
       <c r="J35" s="8">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="14"/>
-      <c r="O35" s="13"/>
-      <c r="P35" s="14"/>
-      <c r="Q35" s="12"/>
-      <c r="R35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="15"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="15"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="15"/>
       <c r="AN35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2120,13 +2199,13 @@
       <c r="AP35" s="10">
         <v>9.5658000000000007E-2</v>
       </c>
-      <c r="AQ35" s="16">
+      <c r="AQ35" s="12">
         <f t="shared" si="0"/>
         <v>-6.0988103451880715E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
@@ -2156,28 +2235,28 @@
       <c r="J36" s="8">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="13">
+      <c r="K36" s="14">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="14">
+      <c r="L36" s="15">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="13">
+      <c r="M36" s="14">
         <v>0.189</v>
       </c>
-      <c r="N36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="13">
+      <c r="N36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="14">
         <v>0.18</v>
       </c>
-      <c r="P36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="14" t="s">
+      <c r="P36" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN36" s="11">
@@ -2189,13 +2268,19 @@
       <c r="AP36" s="10">
         <v>0.14421300000000001</v>
       </c>
-      <c r="AQ36" s="16">
+      <c r="AQ36" s="12">
         <f t="shared" si="0"/>
         <v>0.10094096926074615</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A37" s="12"/>
+      <c r="AR36" s="20">
+        <v>0.16159056949776701</v>
+      </c>
+      <c r="AS36" s="20">
+        <v>0.15015819804763289</v>
+      </c>
+    </row>
+    <row r="37" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A37" s="13"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -2223,14 +2308,14 @@
       <c r="J37" s="8">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="13"/>
-      <c r="P37" s="14"/>
-      <c r="Q37" s="12"/>
-      <c r="R37" s="14"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="14"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="15"/>
       <c r="AN37" s="11">
         <v>10.807356</v>
       </c>
@@ -2240,13 +2325,19 @@
       <c r="AP37" s="10">
         <v>0.12191200000000001</v>
       </c>
-      <c r="AQ37" s="16">
+      <c r="AQ37" s="12">
         <f t="shared" si="0"/>
         <v>7.549707986088329E-2</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A38" s="12"/>
+      <c r="AR37" s="20">
+        <v>0.14201630857310801</v>
+      </c>
+      <c r="AS37" s="20">
+        <v>0.1224445226875083</v>
+      </c>
+    </row>
+    <row r="38" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -2274,14 +2365,14 @@
       <c r="J38" s="8">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="13"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="13"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="13"/>
-      <c r="P38" s="14"/>
-      <c r="Q38" s="12"/>
-      <c r="R38" s="14"/>
+      <c r="K38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="15"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="15"/>
       <c r="AN38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2291,13 +2382,19 @@
       <c r="AP38" s="10">
         <v>0.106071</v>
       </c>
-      <c r="AQ38" s="16">
+      <c r="AQ38" s="12">
         <f t="shared" si="0"/>
         <v>-6.156253829981812E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A39" s="12"/>
+      <c r="AR38" s="20">
+        <v>0.1223589494365398</v>
+      </c>
+      <c r="AS38" s="20">
+        <v>0.13044688553761841</v>
+      </c>
+    </row>
+    <row r="39" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2325,14 +2422,14 @@
       <c r="J39" s="8">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="13"/>
-      <c r="L39" s="14"/>
-      <c r="M39" s="13"/>
-      <c r="N39" s="14"/>
-      <c r="O39" s="13"/>
-      <c r="P39" s="14"/>
-      <c r="Q39" s="12"/>
-      <c r="R39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="14"/>
+      <c r="N39" s="15"/>
+      <c r="O39" s="14"/>
+      <c r="P39" s="15"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="15"/>
       <c r="AN39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2342,13 +2439,13 @@
       <c r="AP39" s="10">
         <v>8.5440000000000002E-2</v>
       </c>
-      <c r="AQ39" s="16">
+      <c r="AQ39" s="12">
         <f t="shared" si="0"/>
         <v>7.9084737827715343E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+    <row r="40" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A40" s="13" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -2378,28 +2475,28 @@
       <c r="J40" s="8">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="13">
+      <c r="K40" s="14">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="14">
+      <c r="L40" s="15">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="13">
+      <c r="M40" s="14">
         <v>0.254</v>
       </c>
-      <c r="N40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="13">
+      <c r="N40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="14">
         <v>0.187</v>
       </c>
-      <c r="P40" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="13">
+      <c r="P40" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="14">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="14">
+      <c r="R40" s="15">
         <v>600</v>
       </c>
       <c r="AN40" s="11">
@@ -2411,13 +2508,19 @@
       <c r="AP40" s="10">
         <v>0.189831</v>
       </c>
-      <c r="AQ40" s="16">
+      <c r="AQ40" s="12">
         <f t="shared" si="0"/>
         <v>-1.6951920392348978E-2</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A41" s="12"/>
+      <c r="AR40" s="19">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AS40" s="19">
+        <v>0.15554999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2445,14 +2548,14 @@
       <c r="J41" s="8">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="14"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="14"/>
-      <c r="O41" s="13"/>
-      <c r="P41" s="14"/>
-      <c r="Q41" s="13"/>
-      <c r="R41" s="14"/>
+      <c r="K41" s="14"/>
+      <c r="L41" s="15"/>
+      <c r="M41" s="14"/>
+      <c r="N41" s="15"/>
+      <c r="O41" s="14"/>
+      <c r="P41" s="15"/>
+      <c r="Q41" s="14"/>
+      <c r="R41" s="15"/>
       <c r="AN41" s="11">
         <v>13.471734</v>
       </c>
@@ -2462,13 +2565,19 @@
       <c r="AP41" s="10">
         <v>0.16696800000000001</v>
       </c>
-      <c r="AQ41" s="16">
+      <c r="AQ41" s="12">
         <f t="shared" si="0"/>
         <v>-7.2468976091233036E-4</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A42" s="12"/>
+      <c r="AR41" s="19">
+        <v>0.18522</v>
+      </c>
+      <c r="AS41" s="19">
+        <v>0.13542999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2496,14 +2605,14 @@
       <c r="J42" s="8">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="14"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="14"/>
-      <c r="O42" s="13"/>
-      <c r="P42" s="14"/>
-      <c r="Q42" s="13"/>
-      <c r="R42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="15"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="15"/>
+      <c r="O42" s="14"/>
+      <c r="P42" s="15"/>
+      <c r="Q42" s="14"/>
+      <c r="R42" s="15"/>
       <c r="AN42" s="11">
         <v>26.813558</v>
       </c>
@@ -2513,13 +2622,19 @@
       <c r="AP42" s="10">
         <v>0.14726700000000001</v>
       </c>
-      <c r="AQ42" s="16">
+      <c r="AQ42" s="12">
         <f t="shared" si="0"/>
         <v>1.3309159553735659E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A43" s="12"/>
+      <c r="AR42" s="19">
+        <v>0.16964000000000001</v>
+      </c>
+      <c r="AS42" s="19">
+        <v>0.13653999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2547,14 +2662,14 @@
       <c r="J43" s="8">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="13"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="13"/>
-      <c r="N43" s="14"/>
-      <c r="O43" s="13"/>
-      <c r="P43" s="14"/>
-      <c r="Q43" s="13"/>
-      <c r="R43" s="14"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="15"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="15"/>
+      <c r="O43" s="14"/>
+      <c r="P43" s="15"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="15"/>
       <c r="AN43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2564,13 +2679,13 @@
       <c r="AP43" s="10">
         <v>0.12436</v>
       </c>
-      <c r="AQ43" s="16">
+      <c r="AQ43" s="12">
         <f t="shared" si="0"/>
         <v>4.9501447410742964E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A44" s="12" t="s">
+    <row r="44" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
@@ -2600,28 +2715,28 @@
       <c r="J44" s="8">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="13">
+      <c r="K44" s="14">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="14">
+      <c r="L44" s="15">
         <v>2.7</v>
       </c>
-      <c r="M44" s="13">
+      <c r="M44" s="14">
         <v>0.159</v>
       </c>
-      <c r="N44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="13">
+      <c r="N44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="14">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="14" t="s">
+      <c r="P44" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN44" s="11">
@@ -2633,13 +2748,19 @@
       <c r="AP44" s="10">
         <v>0.104395</v>
       </c>
-      <c r="AQ44" s="16">
+      <c r="AQ44" s="12">
         <f t="shared" si="0"/>
         <v>4.0193495857081193E-2</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A45" s="12"/>
+      <c r="AR44" s="20">
+        <v>0.10443781416783531</v>
+      </c>
+      <c r="AS44" s="20">
+        <v>9.5992092848552785E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -2667,14 +2788,14 @@
       <c r="J45" s="8">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="13"/>
-      <c r="L45" s="14"/>
-      <c r="M45" s="13"/>
-      <c r="N45" s="14"/>
-      <c r="O45" s="13"/>
-      <c r="P45" s="14"/>
-      <c r="Q45" s="12"/>
-      <c r="R45" s="14"/>
+      <c r="K45" s="14"/>
+      <c r="L45" s="15"/>
+      <c r="M45" s="14"/>
+      <c r="N45" s="15"/>
+      <c r="O45" s="14"/>
+      <c r="P45" s="15"/>
+      <c r="Q45" s="13"/>
+      <c r="R45" s="15"/>
       <c r="AN45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2684,13 +2805,19 @@
       <c r="AP45" s="10">
         <v>8.4803000000000003E-2</v>
       </c>
-      <c r="AQ45" s="16">
+      <c r="AQ45" s="12">
         <f t="shared" si="0"/>
         <v>6.5540134193365726E-2</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A46" s="12"/>
+      <c r="AR45" s="20">
+        <v>8.4659632275924407E-2</v>
+      </c>
+      <c r="AS45" s="20">
+        <v>8.7989755185643365E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -2718,14 +2845,14 @@
       <c r="J46" s="8">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="13"/>
-      <c r="L46" s="14"/>
-      <c r="M46" s="13"/>
-      <c r="N46" s="14"/>
-      <c r="O46" s="13"/>
-      <c r="P46" s="14"/>
-      <c r="Q46" s="12"/>
-      <c r="R46" s="14"/>
+      <c r="K46" s="14"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="14"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="14"/>
+      <c r="P46" s="15"/>
+      <c r="Q46" s="13"/>
+      <c r="R46" s="15"/>
       <c r="AN46" s="11">
         <v>34.49512</v>
       </c>
@@ -2735,13 +2862,19 @@
       <c r="AP46" s="10">
         <v>6.5229999999999996E-2</v>
       </c>
-      <c r="AQ46" s="16">
+      <c r="AQ46" s="12">
         <f t="shared" si="0"/>
         <v>-9.7194542388470903E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A47" s="12"/>
+      <c r="AR46" s="20">
+        <v>6.3550861874559078E-2</v>
+      </c>
+      <c r="AS46" s="20">
+        <v>8.9122340895006563E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -2769,14 +2902,14 @@
       <c r="J47" s="8">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="13"/>
-      <c r="L47" s="14"/>
-      <c r="M47" s="13"/>
-      <c r="N47" s="14"/>
-      <c r="O47" s="13"/>
-      <c r="P47" s="14"/>
-      <c r="Q47" s="12"/>
-      <c r="R47" s="14"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="15"/>
+      <c r="M47" s="14"/>
+      <c r="N47" s="15"/>
+      <c r="O47" s="14"/>
+      <c r="P47" s="15"/>
+      <c r="Q47" s="13"/>
+      <c r="R47" s="15"/>
       <c r="AN47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2786,13 +2919,13 @@
       <c r="AP47" s="10">
         <v>4.0752999999999998E-2</v>
       </c>
-      <c r="AQ47" s="16">
+      <c r="AQ47" s="12">
         <f t="shared" si="0"/>
         <v>-8.8729664073810374E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -2822,28 +2955,28 @@
       <c r="J48" s="8">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="13">
+      <c r="K48" s="14">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="14">
+      <c r="L48" s="15">
         <v>4.883</v>
       </c>
-      <c r="M48" s="13">
+      <c r="M48" s="14">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="13">
+      <c r="N48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="14">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="14" t="s">
+      <c r="P48" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN48" s="11">
@@ -2855,13 +2988,19 @@
       <c r="AP48" s="10">
         <v>0.131967</v>
       </c>
-      <c r="AQ48" s="16">
+      <c r="AQ48" s="12">
         <f t="shared" si="0"/>
         <v>-1.9929224730426032E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A49" s="12"/>
+      <c r="AR48" s="20">
+        <v>0.133479895821493</v>
+      </c>
+      <c r="AS48" s="20">
+        <v>0.11002205723648149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
@@ -2889,14 +3028,14 @@
       <c r="J49" s="8">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="13"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="13"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="13"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="12"/>
-      <c r="R49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="13"/>
+      <c r="R49" s="15"/>
       <c r="AN49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -2906,13 +3045,19 @@
       <c r="AP49" s="10">
         <v>0.109731</v>
       </c>
-      <c r="AQ49" s="16">
+      <c r="AQ49" s="12">
         <f t="shared" si="0"/>
         <v>4.715167090430232E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A50" s="12"/>
+      <c r="AR49" s="20">
+        <v>0.1160838308532421</v>
+      </c>
+      <c r="AS49" s="20">
+        <v>9.9799436468565761E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A50" s="13"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
@@ -2940,14 +3085,14 @@
       <c r="J50" s="8">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="13"/>
-      <c r="L50" s="14"/>
-      <c r="M50" s="13"/>
-      <c r="N50" s="14"/>
-      <c r="O50" s="13"/>
-      <c r="P50" s="14"/>
-      <c r="Q50" s="12"/>
-      <c r="R50" s="14"/>
+      <c r="K50" s="14"/>
+      <c r="L50" s="15"/>
+      <c r="M50" s="14"/>
+      <c r="N50" s="15"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="15"/>
+      <c r="Q50" s="13"/>
+      <c r="R50" s="15"/>
       <c r="AN50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -2957,13 +3102,19 @@
       <c r="AP50" s="10">
         <v>9.2076000000000005E-2</v>
       </c>
-      <c r="AQ50" s="16">
+      <c r="AQ50" s="12">
         <f t="shared" si="0"/>
         <v>3.0366219210217569E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A51" s="12"/>
+      <c r="AR50" s="20">
+        <v>9.4201676253653582E-2</v>
+      </c>
+      <c r="AS50" s="20">
+        <v>8.620059030379669E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
@@ -2991,14 +3142,14 @@
       <c r="J51" s="8">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="13"/>
-      <c r="L51" s="14"/>
-      <c r="M51" s="13"/>
-      <c r="N51" s="14"/>
-      <c r="O51" s="13"/>
-      <c r="P51" s="14"/>
-      <c r="Q51" s="12"/>
-      <c r="R51" s="14"/>
+      <c r="K51" s="14"/>
+      <c r="L51" s="15"/>
+      <c r="M51" s="14"/>
+      <c r="N51" s="15"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="13"/>
+      <c r="R51" s="15"/>
       <c r="AN51" s="11">
         <v>115.449259</v>
       </c>
@@ -3008,13 +3159,16 @@
       <c r="AP51" s="10">
         <v>6.8575999999999998E-2</v>
       </c>
-      <c r="AQ51" s="16">
+      <c r="AQ51" s="12">
         <f t="shared" si="0"/>
         <v>-4.8165538964069068E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A52" s="12" t="s">
+      <c r="AV51" s="17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
@@ -3026,28 +3180,28 @@
       <c r="J52" s="8">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="13">
+      <c r="K52" s="14">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="14">
+      <c r="L52" s="15">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="13">
+      <c r="M52" s="14">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="13">
+      <c r="N52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="14">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="14" t="s">
+      <c r="P52" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN52" s="11">
@@ -3059,13 +3213,19 @@
       <c r="AP52" s="10">
         <v>7.3601E-2</v>
       </c>
-      <c r="AQ52" s="16">
+      <c r="AQ52" s="12">
         <f t="shared" si="0"/>
         <v>-4.1398894036765728E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A53" s="12"/>
+      <c r="AR52" s="20">
+        <v>6.9684492109871168E-2</v>
+      </c>
+      <c r="AS52" s="20">
+        <v>6.2987731738569364E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
@@ -3075,14 +3235,14 @@
       <c r="J53" s="8">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="13"/>
-      <c r="L53" s="14"/>
-      <c r="M53" s="13"/>
-      <c r="N53" s="14"/>
-      <c r="O53" s="13"/>
-      <c r="P53" s="14"/>
-      <c r="Q53" s="12"/>
-      <c r="R53" s="14"/>
+      <c r="K53" s="14"/>
+      <c r="L53" s="15"/>
+      <c r="M53" s="14"/>
+      <c r="N53" s="15"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="15"/>
+      <c r="Q53" s="13"/>
+      <c r="R53" s="15"/>
       <c r="AN53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -3092,13 +3252,19 @@
       <c r="AP53" s="10">
         <v>6.1533999999999998E-2</v>
       </c>
-      <c r="AQ53" s="16">
+      <c r="AQ53" s="12">
         <f t="shared" si="0"/>
         <v>-0.11959242045048263</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A54" s="12"/>
+      <c r="AR53" s="20">
+        <v>5.4501220071836332E-2</v>
+      </c>
+      <c r="AS53" s="20">
+        <v>4.8776938486307993E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
@@ -3108,14 +3274,14 @@
       <c r="J54" s="8">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="13"/>
-      <c r="L54" s="14"/>
-      <c r="M54" s="13"/>
-      <c r="N54" s="14"/>
-      <c r="O54" s="13"/>
-      <c r="P54" s="14"/>
-      <c r="Q54" s="12"/>
-      <c r="R54" s="14"/>
+      <c r="K54" s="14"/>
+      <c r="L54" s="15"/>
+      <c r="M54" s="14"/>
+      <c r="N54" s="15"/>
+      <c r="O54" s="14"/>
+      <c r="P54" s="15"/>
+      <c r="Q54" s="13"/>
+      <c r="R54" s="15"/>
       <c r="AN54" s="11">
         <v>130.456557</v>
       </c>
@@ -3125,13 +3291,19 @@
       <c r="AP54" s="10">
         <v>4.5533999999999998E-2</v>
       </c>
-      <c r="AQ54" s="16">
+      <c r="AQ54" s="12">
         <f t="shared" si="0"/>
         <v>-0.23050907014538585</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A55" s="12"/>
+      <c r="AR54" s="20">
+        <v>3.6751807155286573E-2</v>
+      </c>
+      <c r="AS54" s="20">
+        <v>4.3658381259155027E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
@@ -3141,14 +3313,14 @@
       <c r="J55" s="8">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="13"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="13"/>
-      <c r="N55" s="14"/>
-      <c r="O55" s="13"/>
-      <c r="P55" s="14"/>
-      <c r="Q55" s="12"/>
-      <c r="R55" s="14"/>
+      <c r="K55" s="14"/>
+      <c r="L55" s="15"/>
+      <c r="M55" s="14"/>
+      <c r="N55" s="15"/>
+      <c r="O55" s="14"/>
+      <c r="P55" s="15"/>
+      <c r="Q55" s="13"/>
+      <c r="R55" s="15"/>
       <c r="AN55" s="11">
         <v>323.3809</v>
       </c>
@@ -3158,18 +3330,18 @@
       <c r="AP55" s="10">
         <v>3.1931000000000001E-2</v>
       </c>
-      <c r="AQ55" s="16">
+      <c r="AQ55" s="12">
         <f t="shared" si="0"/>
         <v>-0.42648210203250764</v>
       </c>
     </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
       <c r="I56" s="6"/>
       <c r="AO56" s="10"/>
-      <c r="AQ56" s="16"/>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A57" s="12" t="s">
+      <c r="AQ56" s="12"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
@@ -3178,28 +3350,28 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="13">
+      <c r="K57" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="14">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="13">
+      <c r="N57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="14">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="14" t="s">
+      <c r="P57" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN57" s="11">
@@ -3211,27 +3383,27 @@
       <c r="AP57" s="10">
         <v>2.9302999999999999E-2</v>
       </c>
-      <c r="AQ57" s="16">
+      <c r="AQ57" s="12">
         <f t="shared" si="0"/>
         <v>-0.2318192676517763</v>
       </c>
     </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="13"/>
-      <c r="L58" s="15"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="14"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="14"/>
-      <c r="Q58" s="12"/>
-      <c r="R58" s="14"/>
+      <c r="K58" s="14"/>
+      <c r="L58" s="16"/>
+      <c r="M58" s="14"/>
+      <c r="N58" s="15"/>
+      <c r="O58" s="14"/>
+      <c r="P58" s="15"/>
+      <c r="Q58" s="13"/>
+      <c r="R58" s="15"/>
       <c r="AN58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3241,27 +3413,27 @@
       <c r="AP58" s="10">
         <v>1.6742E-2</v>
       </c>
-      <c r="AQ58" s="16">
+      <c r="AQ58" s="12">
         <f t="shared" si="0"/>
         <v>-6.7196272846732727E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="13"/>
-      <c r="L59" s="15"/>
-      <c r="M59" s="13"/>
-      <c r="N59" s="14"/>
-      <c r="O59" s="13"/>
-      <c r="P59" s="14"/>
-      <c r="Q59" s="12"/>
-      <c r="R59" s="14"/>
+      <c r="K59" s="14"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="14"/>
+      <c r="N59" s="15"/>
+      <c r="O59" s="14"/>
+      <c r="P59" s="15"/>
+      <c r="Q59" s="13"/>
+      <c r="R59" s="15"/>
       <c r="AN59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3271,27 +3443,27 @@
       <c r="AP59" s="10">
         <v>1.6742E-2</v>
       </c>
-      <c r="AQ59" s="16">
+      <c r="AQ59" s="12">
         <f t="shared" si="0"/>
         <v>-6.7196272846732727E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A60" s="12"/>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="13"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="13"/>
-      <c r="N60" s="14"/>
-      <c r="O60" s="13"/>
-      <c r="P60" s="14"/>
-      <c r="Q60" s="12"/>
-      <c r="R60" s="14"/>
+      <c r="K60" s="14"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="14"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="14"/>
+      <c r="P60" s="15"/>
+      <c r="Q60" s="13"/>
+      <c r="R60" s="15"/>
       <c r="AN60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3301,13 +3473,13 @@
       <c r="AP60" s="10">
         <v>1.6742E-2</v>
       </c>
-      <c r="AQ60" s="16">
+      <c r="AQ60" s="12">
         <f t="shared" si="0"/>
         <v>-6.7196272846732727E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A61" s="12" t="s">
+    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
@@ -3316,28 +3488,28 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M61" s="13">
+      <c r="K61" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="14">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="13">
+      <c r="N61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="14">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="14" t="s">
+      <c r="P61" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN61" s="11">
@@ -3349,27 +3521,27 @@
       <c r="AP61" s="10">
         <v>0.125916</v>
       </c>
-      <c r="AQ61" s="16">
+      <c r="AQ61" s="12">
         <f t="shared" si="0"/>
         <v>8.0641062295498556E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A62" s="12"/>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A62" s="13"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="13"/>
-      <c r="L62" s="15"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="14"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="14"/>
-      <c r="Q62" s="12"/>
-      <c r="R62" s="14"/>
+      <c r="K62" s="14"/>
+      <c r="L62" s="16"/>
+      <c r="M62" s="14"/>
+      <c r="N62" s="15"/>
+      <c r="O62" s="14"/>
+      <c r="P62" s="15"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="15"/>
       <c r="AN62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3379,27 +3551,27 @@
       <c r="AP62" s="10">
         <v>0.110542</v>
       </c>
-      <c r="AQ62" s="16">
+      <c r="AQ62" s="12">
         <f t="shared" si="0"/>
         <v>5.0035280707785221E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A63" s="12"/>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="13"/>
-      <c r="L63" s="15"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="14"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="14"/>
-      <c r="Q63" s="12"/>
-      <c r="R63" s="14"/>
+      <c r="K63" s="14"/>
+      <c r="L63" s="16"/>
+      <c r="M63" s="14"/>
+      <c r="N63" s="15"/>
+      <c r="O63" s="14"/>
+      <c r="P63" s="15"/>
+      <c r="Q63" s="13"/>
+      <c r="R63" s="15"/>
       <c r="AN63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3409,27 +3581,27 @@
       <c r="AP63" s="10">
         <v>0.10363</v>
       </c>
-      <c r="AQ63" s="16">
+      <c r="AQ63" s="12">
         <f t="shared" si="0"/>
         <v>4.6521277622310196E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A64" s="12"/>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="13"/>
-      <c r="L64" s="15"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="14"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="14"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="14"/>
+      <c r="K64" s="14"/>
+      <c r="L64" s="16"/>
+      <c r="M64" s="14"/>
+      <c r="N64" s="15"/>
+      <c r="O64" s="14"/>
+      <c r="P64" s="15"/>
+      <c r="Q64" s="13"/>
+      <c r="R64" s="15"/>
       <c r="AN64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3439,7 +3611,7 @@
       <c r="AP64" s="10">
         <v>9.3549999999999994E-2</v>
       </c>
-      <c r="AQ64" s="16">
+      <c r="AQ64" s="12">
         <f t="shared" si="0"/>
         <v>9.1288081239979425E-3</v>
       </c>
@@ -3448,10 +3620,10 @@
       <c r="I65" s="6"/>
       <c r="AN65" s="11"/>
       <c r="AO65" s="10"/>
-      <c r="AQ65" s="16"/>
+      <c r="AQ65" s="12"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="12" t="s">
+      <c r="A66" s="13" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
@@ -3460,28 +3632,28 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="13">
+      <c r="K66" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="14">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="13">
+      <c r="N66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="14">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="14" t="s">
+      <c r="P66" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN66" s="11">
@@ -3493,27 +3665,27 @@
       <c r="AP66" s="10">
         <v>8.1192E-2</v>
       </c>
-      <c r="AQ66" s="16">
+      <c r="AQ66" s="12">
         <f t="shared" si="0"/>
         <v>2.5950832594344244E-2</v>
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="12"/>
+      <c r="A67" s="13"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="13"/>
-      <c r="L67" s="15"/>
-      <c r="M67" s="13"/>
-      <c r="N67" s="14"/>
-      <c r="O67" s="13"/>
-      <c r="P67" s="14"/>
-      <c r="Q67" s="12"/>
-      <c r="R67" s="14"/>
+      <c r="K67" s="14"/>
+      <c r="L67" s="16"/>
+      <c r="M67" s="14"/>
+      <c r="N67" s="15"/>
+      <c r="O67" s="14"/>
+      <c r="P67" s="15"/>
+      <c r="Q67" s="13"/>
+      <c r="R67" s="15"/>
       <c r="AN67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3523,27 +3695,27 @@
       <c r="AP67" s="10">
         <v>6.4822000000000005E-2</v>
       </c>
-      <c r="AQ67" s="16">
+      <c r="AQ67" s="12">
         <f t="shared" si="0"/>
         <v>0.11926506433001144</v>
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="12"/>
+      <c r="A68" s="13"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="13"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="13"/>
-      <c r="N68" s="14"/>
-      <c r="O68" s="13"/>
-      <c r="P68" s="14"/>
-      <c r="Q68" s="12"/>
-      <c r="R68" s="14"/>
+      <c r="K68" s="14"/>
+      <c r="L68" s="16"/>
+      <c r="M68" s="14"/>
+      <c r="N68" s="15"/>
+      <c r="O68" s="14"/>
+      <c r="P68" s="15"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="15"/>
       <c r="AN68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3553,27 +3725,27 @@
       <c r="AP68" s="10">
         <v>5.4363000000000002E-2</v>
       </c>
-      <c r="AQ68" s="16">
+      <c r="AQ68" s="12">
         <f t="shared" si="0"/>
         <v>0.13775913764876838</v>
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="12"/>
+      <c r="A69" s="13"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="13"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="13"/>
-      <c r="N69" s="14"/>
-      <c r="O69" s="13"/>
-      <c r="P69" s="14"/>
-      <c r="Q69" s="12"/>
-      <c r="R69" s="14"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="16"/>
+      <c r="M69" s="14"/>
+      <c r="N69" s="15"/>
+      <c r="O69" s="14"/>
+      <c r="P69" s="15"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="15"/>
       <c r="AN69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3583,7 +3755,7 @@
       <c r="AP69" s="10">
         <v>3.9944E-2</v>
       </c>
-      <c r="AQ69" s="16">
+      <c r="AQ69" s="12">
         <f t="shared" si="0"/>
         <v>0.19760164229921884</v>
       </c>
@@ -3592,10 +3764,10 @@
       <c r="I70" s="6"/>
       <c r="AN70" s="11"/>
       <c r="AO70" s="10"/>
-      <c r="AQ70" s="16"/>
+      <c r="AQ70" s="12"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A71" s="12" t="s">
+      <c r="A71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
@@ -3604,28 +3776,28 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="13">
+      <c r="K71" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="14">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="13">
+      <c r="N71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="14">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="14" t="s">
+      <c r="P71" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN71" s="11">
@@ -3637,27 +3809,27 @@
       <c r="AP71" s="10">
         <v>0.13474900000000001</v>
       </c>
-      <c r="AQ71" s="16">
+      <c r="AQ71" s="12">
         <f t="shared" si="0"/>
         <v>-9.7217790113485062E-4</v>
       </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="12"/>
+      <c r="A72" s="13"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="13"/>
-      <c r="L72" s="15"/>
-      <c r="M72" s="13"/>
-      <c r="N72" s="14"/>
-      <c r="O72" s="13"/>
-      <c r="P72" s="14"/>
-      <c r="Q72" s="12"/>
-      <c r="R72" s="14"/>
+      <c r="K72" s="14"/>
+      <c r="L72" s="16"/>
+      <c r="M72" s="14"/>
+      <c r="N72" s="15"/>
+      <c r="O72" s="14"/>
+      <c r="P72" s="15"/>
+      <c r="Q72" s="13"/>
+      <c r="R72" s="15"/>
       <c r="AN72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3667,27 +3839,27 @@
       <c r="AP72" s="10">
         <v>0.11869200000000001</v>
       </c>
-      <c r="AQ72" s="16">
+      <c r="AQ72" s="12">
         <f t="shared" si="0"/>
         <v>-6.0913962187847653E-3</v>
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="12"/>
+      <c r="A73" s="13"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="13"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="13"/>
-      <c r="N73" s="14"/>
-      <c r="O73" s="13"/>
-      <c r="P73" s="14"/>
-      <c r="Q73" s="12"/>
-      <c r="R73" s="14"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="16"/>
+      <c r="M73" s="14"/>
+      <c r="N73" s="15"/>
+      <c r="O73" s="14"/>
+      <c r="P73" s="15"/>
+      <c r="Q73" s="13"/>
+      <c r="R73" s="15"/>
       <c r="AN73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3697,27 +3869,27 @@
       <c r="AP73" s="10">
         <v>0.106517</v>
       </c>
-      <c r="AQ73" s="16">
+      <c r="AQ73" s="12">
         <f t="shared" si="0"/>
         <v>-6.9970051728832028E-2</v>
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="12"/>
+      <c r="A74" s="13"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="13"/>
-      <c r="L74" s="15"/>
-      <c r="M74" s="13"/>
-      <c r="N74" s="14"/>
-      <c r="O74" s="13"/>
-      <c r="P74" s="14"/>
-      <c r="Q74" s="12"/>
-      <c r="R74" s="14"/>
+      <c r="K74" s="14"/>
+      <c r="L74" s="16"/>
+      <c r="M74" s="14"/>
+      <c r="N74" s="15"/>
+      <c r="O74" s="14"/>
+      <c r="P74" s="15"/>
+      <c r="Q74" s="13"/>
+      <c r="R74" s="15"/>
       <c r="AN74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3727,7 +3899,7 @@
       <c r="AP74" s="10">
         <v>8.2544999999999993E-2</v>
       </c>
-      <c r="AQ74" s="16">
+      <c r="AQ74" s="12">
         <f t="shared" si="0"/>
         <v>7.2675510327700102E-2</v>
       </c>
@@ -3736,10 +3908,10 @@
       <c r="I75" s="6"/>
       <c r="AN75" s="11"/>
       <c r="AO75" s="10"/>
-      <c r="AQ75" s="16"/>
+      <c r="AQ75" s="12"/>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A76" s="12" t="s">
+      <c r="A76" s="13" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
@@ -3748,28 +3920,28 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="13">
+      <c r="K76" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="14">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="13">
+      <c r="N76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="14">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="14" t="s">
+      <c r="P76" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN76" s="11">
@@ -3781,27 +3953,27 @@
       <c r="AP76" s="10">
         <v>0.29579</v>
       </c>
-      <c r="AQ76" s="16">
+      <c r="AQ76" s="12">
         <f t="shared" si="0"/>
         <v>-1.7093208019202829E-2</v>
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="12"/>
+      <c r="A77" s="13"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="13"/>
-      <c r="L77" s="15"/>
-      <c r="M77" s="13"/>
-      <c r="N77" s="14"/>
-      <c r="O77" s="13"/>
-      <c r="P77" s="14"/>
-      <c r="Q77" s="12"/>
-      <c r="R77" s="14"/>
+      <c r="K77" s="14"/>
+      <c r="L77" s="16"/>
+      <c r="M77" s="14"/>
+      <c r="N77" s="15"/>
+      <c r="O77" s="14"/>
+      <c r="P77" s="15"/>
+      <c r="Q77" s="13"/>
+      <c r="R77" s="15"/>
       <c r="AN77" s="11">
         <v>11.555717</v>
       </c>
@@ -3811,27 +3983,27 @@
       <c r="AP77" s="10">
         <v>0.24493599999999999</v>
       </c>
-      <c r="AQ77" s="16">
+      <c r="AQ77" s="12">
         <f t="shared" si="0"/>
         <v>0.10762811509945454</v>
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="12"/>
+      <c r="A78" s="13"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="13"/>
-      <c r="L78" s="15"/>
-      <c r="M78" s="13"/>
-      <c r="N78" s="14"/>
-      <c r="O78" s="13"/>
-      <c r="P78" s="14"/>
-      <c r="Q78" s="12"/>
-      <c r="R78" s="14"/>
+      <c r="K78" s="14"/>
+      <c r="L78" s="16"/>
+      <c r="M78" s="14"/>
+      <c r="N78" s="15"/>
+      <c r="O78" s="14"/>
+      <c r="P78" s="15"/>
+      <c r="Q78" s="13"/>
+      <c r="R78" s="15"/>
       <c r="AN78" s="11">
         <v>23.124298</v>
       </c>
@@ -3841,27 +4013,27 @@
       <c r="AP78" s="10">
         <v>0.21759100000000001</v>
       </c>
-      <c r="AQ78" s="16">
+      <c r="AQ78" s="12">
         <f t="shared" si="0"/>
         <v>9.4121539953398795E-2</v>
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="12"/>
+      <c r="A79" s="13"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="13"/>
-      <c r="L79" s="15"/>
-      <c r="M79" s="13"/>
-      <c r="N79" s="14"/>
-      <c r="O79" s="13"/>
-      <c r="P79" s="14"/>
-      <c r="Q79" s="12"/>
-      <c r="R79" s="14"/>
+      <c r="K79" s="14"/>
+      <c r="L79" s="16"/>
+      <c r="M79" s="14"/>
+      <c r="N79" s="15"/>
+      <c r="O79" s="14"/>
+      <c r="P79" s="15"/>
+      <c r="Q79" s="13"/>
+      <c r="R79" s="15"/>
       <c r="AN79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -3871,13 +4043,13 @@
       <c r="AP79" s="10">
         <v>0.17799799999999999</v>
       </c>
-      <c r="AQ79" s="16">
+      <c r="AQ79" s="12">
         <f t="shared" si="0"/>
         <v>3.0865515342869018E-2</v>
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A80" s="12" t="s">
+      <c r="A80" s="13" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
@@ -3886,28 +4058,28 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="13">
+      <c r="K80" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="14">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="13">
+      <c r="N80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="14">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="14" t="s">
+      <c r="P80" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN80" s="11">
@@ -3919,27 +4091,27 @@
       <c r="AP80" s="10">
         <v>0.2606</v>
       </c>
-      <c r="AQ80" s="16">
+      <c r="AQ80" s="12">
         <f t="shared" si="0"/>
         <v>6.2640061396776692E-2</v>
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A81" s="12"/>
+      <c r="A81" s="13"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="13"/>
-      <c r="L81" s="15"/>
-      <c r="M81" s="13"/>
-      <c r="N81" s="14"/>
-      <c r="O81" s="13"/>
-      <c r="P81" s="14"/>
-      <c r="Q81" s="12"/>
-      <c r="R81" s="14"/>
+      <c r="K81" s="14"/>
+      <c r="L81" s="16"/>
+      <c r="M81" s="14"/>
+      <c r="N81" s="15"/>
+      <c r="O81" s="14"/>
+      <c r="P81" s="15"/>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="15"/>
       <c r="AN81" s="11">
         <v>14.007052</v>
       </c>
@@ -3949,27 +4121,27 @@
       <c r="AP81" s="10">
         <v>0.248502</v>
       </c>
-      <c r="AQ81" s="16">
+      <c r="AQ81" s="12">
         <f t="shared" si="0"/>
         <v>-2.1818737877361188E-2</v>
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A82" s="12"/>
+      <c r="A82" s="13"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="13"/>
-      <c r="L82" s="15"/>
-      <c r="M82" s="13"/>
-      <c r="N82" s="14"/>
-      <c r="O82" s="13"/>
-      <c r="P82" s="14"/>
-      <c r="Q82" s="12"/>
-      <c r="R82" s="14"/>
+      <c r="K82" s="14"/>
+      <c r="L82" s="16"/>
+      <c r="M82" s="14"/>
+      <c r="N82" s="15"/>
+      <c r="O82" s="14"/>
+      <c r="P82" s="15"/>
+      <c r="Q82" s="13"/>
+      <c r="R82" s="15"/>
       <c r="AN82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -3979,27 +4151,27 @@
       <c r="AP82" s="10">
         <v>0.220607</v>
       </c>
-      <c r="AQ82" s="16">
+      <c r="AQ82" s="12">
         <f t="shared" si="0"/>
         <v>-1.7773688051603113E-2</v>
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A83" s="12"/>
+      <c r="A83" s="13"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="13"/>
-      <c r="L83" s="15"/>
-      <c r="M83" s="13"/>
-      <c r="N83" s="14"/>
-      <c r="O83" s="13"/>
-      <c r="P83" s="14"/>
-      <c r="Q83" s="12"/>
-      <c r="R83" s="14"/>
+      <c r="K83" s="14"/>
+      <c r="L83" s="16"/>
+      <c r="M83" s="14"/>
+      <c r="N83" s="15"/>
+      <c r="O83" s="14"/>
+      <c r="P83" s="15"/>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="15"/>
       <c r="AN83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -4009,13 +4181,13 @@
       <c r="AP83" s="10">
         <v>0.200214</v>
       </c>
-      <c r="AQ83" s="16">
+      <c r="AQ83" s="12">
         <f t="shared" si="0"/>
         <v>-8.6887030876961618E-2</v>
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A84" s="12" t="s">
+      <c r="A84" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
@@ -4024,28 +4196,28 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M84" s="13">
+      <c r="K84" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" s="14">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="13">
+      <c r="N84" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="14">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="14" t="s">
+      <c r="P84" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN84" s="11">
@@ -4057,27 +4229,27 @@
       <c r="AP84" s="10">
         <v>0.215563</v>
       </c>
-      <c r="AQ84" s="16">
+      <c r="AQ84" s="12">
         <f t="shared" si="0"/>
         <v>1.6111299248943483E-2</v>
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A85" s="12"/>
+      <c r="A85" s="13"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="13"/>
-      <c r="L85" s="15"/>
-      <c r="M85" s="13"/>
-      <c r="N85" s="14"/>
-      <c r="O85" s="13"/>
-      <c r="P85" s="14"/>
-      <c r="Q85" s="12"/>
-      <c r="R85" s="14"/>
+      <c r="K85" s="14"/>
+      <c r="L85" s="16"/>
+      <c r="M85" s="14"/>
+      <c r="N85" s="15"/>
+      <c r="O85" s="14"/>
+      <c r="P85" s="15"/>
+      <c r="Q85" s="13"/>
+      <c r="R85" s="15"/>
       <c r="AN85" s="11">
         <v>14.86237</v>
       </c>
@@ -4087,27 +4259,27 @@
       <c r="AP85" s="10">
         <v>0.204427</v>
       </c>
-      <c r="AQ85" s="16">
+      <c r="AQ85" s="12">
         <f t="shared" si="0"/>
         <v>1.1960259652589936E-2</v>
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="12"/>
+      <c r="A86" s="13"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="13"/>
-      <c r="L86" s="15"/>
-      <c r="M86" s="13"/>
-      <c r="N86" s="14"/>
-      <c r="O86" s="13"/>
-      <c r="P86" s="14"/>
-      <c r="Q86" s="12"/>
-      <c r="R86" s="14"/>
+      <c r="K86" s="14"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="14"/>
+      <c r="N86" s="15"/>
+      <c r="O86" s="14"/>
+      <c r="P86" s="15"/>
+      <c r="Q86" s="13"/>
+      <c r="R86" s="15"/>
       <c r="AN86" s="11">
         <v>29.561377</v>
       </c>
@@ -4117,27 +4289,27 @@
       <c r="AP86" s="10">
         <v>0.197687</v>
       </c>
-      <c r="AQ86" s="16">
+      <c r="AQ86" s="12">
         <f t="shared" si="0"/>
         <v>-2.1726264246005014E-2</v>
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="12"/>
+      <c r="A87" s="13"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="13"/>
-      <c r="L87" s="15"/>
-      <c r="M87" s="13"/>
-      <c r="N87" s="14"/>
-      <c r="O87" s="13"/>
-      <c r="P87" s="14"/>
-      <c r="Q87" s="12"/>
-      <c r="R87" s="14"/>
+      <c r="K87" s="14"/>
+      <c r="L87" s="16"/>
+      <c r="M87" s="14"/>
+      <c r="N87" s="15"/>
+      <c r="O87" s="14"/>
+      <c r="P87" s="15"/>
+      <c r="Q87" s="13"/>
+      <c r="R87" s="15"/>
       <c r="AN87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -4147,7 +4319,7 @@
       <c r="AP87" s="10">
         <v>0.18768799999999999</v>
       </c>
-      <c r="AQ87" s="16">
+      <c r="AQ87" s="12">
         <f t="shared" si="0"/>
         <v>-2.854737649716552E-2</v>
       </c>
@@ -4156,10 +4328,10 @@
       <c r="I88" s="6"/>
       <c r="AN88" s="11"/>
       <c r="AO88" s="10"/>
-      <c r="AQ88" s="16"/>
+      <c r="AQ88" s="12"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A89" s="12" t="s">
+      <c r="A89" s="13" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
@@ -4168,28 +4340,28 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="13">
+      <c r="K89" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="14">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="13">
+      <c r="N89" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="14">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="14" t="s">
+      <c r="P89" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN89" s="11">
@@ -4201,27 +4373,27 @@
       <c r="AP89" s="10">
         <v>2.5770000000000001E-2</v>
       </c>
-      <c r="AQ89" s="16">
+      <c r="AQ89" s="12">
         <f t="shared" ref="AQ89:AQ120" si="1">(AO89 - AP89)/AP89</f>
         <v>-4.6565774155995332E-2</v>
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A90" s="12"/>
+      <c r="A90" s="13"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="13"/>
-      <c r="L90" s="15"/>
-      <c r="M90" s="13"/>
-      <c r="N90" s="14"/>
-      <c r="O90" s="13"/>
-      <c r="P90" s="14"/>
-      <c r="Q90" s="12"/>
-      <c r="R90" s="14"/>
+      <c r="K90" s="14"/>
+      <c r="L90" s="16"/>
+      <c r="M90" s="14"/>
+      <c r="N90" s="15"/>
+      <c r="O90" s="14"/>
+      <c r="P90" s="15"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="15"/>
       <c r="AN90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4231,27 +4403,27 @@
       <c r="AP90" s="10">
         <v>2.5770000000000001E-2</v>
       </c>
-      <c r="AQ90" s="16">
+      <c r="AQ90" s="12">
         <f t="shared" si="1"/>
         <v>-4.6565774155995332E-2</v>
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A91" s="12"/>
+      <c r="A91" s="13"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="13"/>
-      <c r="L91" s="15"/>
-      <c r="M91" s="13"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="13"/>
-      <c r="P91" s="14"/>
-      <c r="Q91" s="12"/>
-      <c r="R91" s="14"/>
+      <c r="K91" s="14"/>
+      <c r="L91" s="16"/>
+      <c r="M91" s="14"/>
+      <c r="N91" s="15"/>
+      <c r="O91" s="14"/>
+      <c r="P91" s="15"/>
+      <c r="Q91" s="13"/>
+      <c r="R91" s="15"/>
       <c r="AN91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4261,27 +4433,27 @@
       <c r="AP91" s="10">
         <v>2.5770000000000001E-2</v>
       </c>
-      <c r="AQ91" s="16">
+      <c r="AQ91" s="12">
         <f t="shared" si="1"/>
         <v>-4.6565774155995332E-2</v>
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A92" s="12"/>
+      <c r="A92" s="13"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="13"/>
-      <c r="L92" s="15"/>
-      <c r="M92" s="13"/>
-      <c r="N92" s="14"/>
-      <c r="O92" s="13"/>
-      <c r="P92" s="14"/>
-      <c r="Q92" s="12"/>
-      <c r="R92" s="14"/>
+      <c r="K92" s="14"/>
+      <c r="L92" s="16"/>
+      <c r="M92" s="14"/>
+      <c r="N92" s="15"/>
+      <c r="O92" s="14"/>
+      <c r="P92" s="15"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="15"/>
       <c r="AN92" s="11">
         <v>27.119754</v>
       </c>
@@ -4291,13 +4463,13 @@
       <c r="AP92" s="10">
         <v>2.3397000000000001E-2</v>
       </c>
-      <c r="AQ92" s="16">
+      <c r="AQ92" s="12">
         <f t="shared" si="1"/>
         <v>5.0134632645210939E-2</v>
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A93" s="12" t="s">
+      <c r="A93" s="13" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
@@ -4306,28 +4478,28 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="13">
+      <c r="K93" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="14">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="13">
+      <c r="N93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="14">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="14" t="s">
+      <c r="P93" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN93" s="11">
@@ -4339,24 +4511,24 @@
       <c r="AP93" s="10">
         <v>0</v>
       </c>
-      <c r="AQ93" s="16"/>
+      <c r="AQ93" s="12"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A94" s="12"/>
+      <c r="A94" s="13"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="13"/>
-      <c r="L94" s="15"/>
-      <c r="M94" s="13"/>
-      <c r="N94" s="14"/>
-      <c r="O94" s="13"/>
-      <c r="P94" s="14"/>
-      <c r="Q94" s="12"/>
-      <c r="R94" s="14"/>
+      <c r="K94" s="14"/>
+      <c r="L94" s="16"/>
+      <c r="M94" s="14"/>
+      <c r="N94" s="15"/>
+      <c r="O94" s="14"/>
+      <c r="P94" s="15"/>
+      <c r="Q94" s="13"/>
+      <c r="R94" s="15"/>
       <c r="AN94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4366,24 +4538,24 @@
       <c r="AP94" s="10">
         <v>0</v>
       </c>
-      <c r="AQ94" s="16"/>
+      <c r="AQ94" s="12"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A95" s="12"/>
+      <c r="A95" s="13"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="13"/>
-      <c r="L95" s="15"/>
-      <c r="M95" s="13"/>
-      <c r="N95" s="14"/>
-      <c r="O95" s="13"/>
-      <c r="P95" s="14"/>
-      <c r="Q95" s="12"/>
-      <c r="R95" s="14"/>
+      <c r="K95" s="14"/>
+      <c r="L95" s="16"/>
+      <c r="M95" s="14"/>
+      <c r="N95" s="15"/>
+      <c r="O95" s="14"/>
+      <c r="P95" s="15"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="15"/>
       <c r="AN95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4393,24 +4565,24 @@
       <c r="AP95" s="10">
         <v>0</v>
       </c>
-      <c r="AQ95" s="16"/>
+      <c r="AQ95" s="12"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A96" s="12"/>
+      <c r="A96" s="13"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="13"/>
-      <c r="L96" s="15"/>
-      <c r="M96" s="13"/>
-      <c r="N96" s="14"/>
-      <c r="O96" s="13"/>
-      <c r="P96" s="14"/>
-      <c r="Q96" s="12"/>
-      <c r="R96" s="14"/>
+      <c r="K96" s="14"/>
+      <c r="L96" s="16"/>
+      <c r="M96" s="14"/>
+      <c r="N96" s="15"/>
+      <c r="O96" s="14"/>
+      <c r="P96" s="15"/>
+      <c r="Q96" s="13"/>
+      <c r="R96" s="15"/>
       <c r="AN96" s="11">
         <v>31.354782</v>
       </c>
@@ -4420,10 +4592,10 @@
       <c r="AP96" s="10">
         <v>0</v>
       </c>
-      <c r="AQ96" s="16"/>
+      <c r="AQ96" s="12"/>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" s="12" t="s">
+      <c r="A97" s="13" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
@@ -4432,28 +4604,28 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="13">
+      <c r="K97" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" s="14">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="13">
+      <c r="N97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="14">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="14" t="s">
+      <c r="P97" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN97" s="11">
@@ -4465,24 +4637,24 @@
       <c r="AP97" s="10">
         <v>0</v>
       </c>
-      <c r="AQ97" s="16"/>
+      <c r="AQ97" s="12"/>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" s="12"/>
+      <c r="A98" s="13"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="13"/>
-      <c r="L98" s="15"/>
-      <c r="M98" s="13"/>
-      <c r="N98" s="14"/>
-      <c r="O98" s="13"/>
-      <c r="P98" s="14"/>
-      <c r="Q98" s="12"/>
-      <c r="R98" s="14"/>
+      <c r="K98" s="14"/>
+      <c r="L98" s="16"/>
+      <c r="M98" s="14"/>
+      <c r="N98" s="15"/>
+      <c r="O98" s="14"/>
+      <c r="P98" s="15"/>
+      <c r="Q98" s="13"/>
+      <c r="R98" s="15"/>
       <c r="AN98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4492,24 +4664,24 @@
       <c r="AP98" s="10">
         <v>0</v>
       </c>
-      <c r="AQ98" s="16"/>
+      <c r="AQ98" s="12"/>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" s="12"/>
+      <c r="A99" s="13"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="13"/>
-      <c r="L99" s="15"/>
-      <c r="M99" s="13"/>
-      <c r="N99" s="14"/>
-      <c r="O99" s="13"/>
-      <c r="P99" s="14"/>
-      <c r="Q99" s="12"/>
-      <c r="R99" s="14"/>
+      <c r="K99" s="14"/>
+      <c r="L99" s="16"/>
+      <c r="M99" s="14"/>
+      <c r="N99" s="15"/>
+      <c r="O99" s="14"/>
+      <c r="P99" s="15"/>
+      <c r="Q99" s="13"/>
+      <c r="R99" s="15"/>
       <c r="AN99" s="11">
         <v>14.859114</v>
       </c>
@@ -4519,24 +4691,24 @@
       <c r="AP99" s="10">
         <v>0</v>
       </c>
-      <c r="AQ99" s="16"/>
+      <c r="AQ99" s="12"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" s="12"/>
+      <c r="A100" s="13"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="13"/>
-      <c r="L100" s="15"/>
-      <c r="M100" s="13"/>
-      <c r="N100" s="14"/>
-      <c r="O100" s="13"/>
-      <c r="P100" s="14"/>
-      <c r="Q100" s="12"/>
-      <c r="R100" s="14"/>
+      <c r="K100" s="14"/>
+      <c r="L100" s="16"/>
+      <c r="M100" s="14"/>
+      <c r="N100" s="15"/>
+      <c r="O100" s="14"/>
+      <c r="P100" s="15"/>
+      <c r="Q100" s="13"/>
+      <c r="R100" s="15"/>
       <c r="AN100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4546,10 +4718,10 @@
       <c r="AP100" s="10">
         <v>0</v>
       </c>
-      <c r="AQ100" s="16"/>
+      <c r="AQ100" s="12"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" s="12" t="s">
+      <c r="A101" s="13" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
@@ -4558,28 +4730,28 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="13">
+      <c r="K101" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="14">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="13">
+      <c r="N101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="14">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="14" t="s">
+      <c r="P101" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN101" s="11">
@@ -4591,27 +4763,27 @@
       <c r="AP101" s="10">
         <v>3.6013999999999997E-2</v>
       </c>
-      <c r="AQ101" s="16">
+      <c r="AQ101" s="12">
         <f t="shared" si="1"/>
         <v>0.1774032320764149</v>
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" s="12"/>
+      <c r="A102" s="13"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="13"/>
-      <c r="L102" s="15"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="14"/>
-      <c r="O102" s="13"/>
-      <c r="P102" s="14"/>
-      <c r="Q102" s="12"/>
-      <c r="R102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="16"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="15"/>
+      <c r="O102" s="14"/>
+      <c r="P102" s="15"/>
+      <c r="Q102" s="13"/>
+      <c r="R102" s="15"/>
       <c r="AN102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4621,27 +4793,27 @@
       <c r="AP102" s="10">
         <v>3.4756000000000002E-2</v>
       </c>
-      <c r="AQ102" s="16">
+      <c r="AQ102" s="12">
         <f t="shared" si="1"/>
         <v>7.834618483139591E-2</v>
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" s="12"/>
+      <c r="A103" s="13"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="13"/>
-      <c r="L103" s="15"/>
-      <c r="M103" s="13"/>
-      <c r="N103" s="14"/>
-      <c r="O103" s="13"/>
-      <c r="P103" s="14"/>
-      <c r="Q103" s="12"/>
-      <c r="R103" s="14"/>
+      <c r="K103" s="14"/>
+      <c r="L103" s="16"/>
+      <c r="M103" s="14"/>
+      <c r="N103" s="15"/>
+      <c r="O103" s="14"/>
+      <c r="P103" s="15"/>
+      <c r="Q103" s="13"/>
+      <c r="R103" s="15"/>
       <c r="AN103" s="11">
         <v>14.081699</v>
       </c>
@@ -4651,27 +4823,27 @@
       <c r="AP103" s="10">
         <v>3.4756000000000002E-2</v>
       </c>
-      <c r="AQ103" s="16">
+      <c r="AQ103" s="12">
         <f t="shared" si="1"/>
         <v>-0.15424674876280356</v>
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="12"/>
+      <c r="A104" s="13"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="13"/>
-      <c r="L104" s="15"/>
-      <c r="M104" s="13"/>
-      <c r="N104" s="14"/>
-      <c r="O104" s="13"/>
-      <c r="P104" s="14"/>
-      <c r="Q104" s="12"/>
-      <c r="R104" s="14"/>
+      <c r="K104" s="14"/>
+      <c r="L104" s="16"/>
+      <c r="M104" s="14"/>
+      <c r="N104" s="15"/>
+      <c r="O104" s="14"/>
+      <c r="P104" s="15"/>
+      <c r="Q104" s="13"/>
+      <c r="R104" s="15"/>
       <c r="AN104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4681,13 +4853,13 @@
       <c r="AP104" s="10">
         <v>2.9411E-2</v>
       </c>
-      <c r="AQ104" s="16">
+      <c r="AQ104" s="12">
         <f t="shared" si="1"/>
         <v>-0.39379823875420755</v>
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="13" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
@@ -4696,28 +4868,28 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M105" s="13">
+      <c r="K105" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="14">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="13">
+      <c r="N105" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="14">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="14" t="s">
+      <c r="P105" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN105" s="11">
@@ -4729,27 +4901,27 @@
       <c r="AP105" s="10">
         <v>4.7495999999999997E-2</v>
       </c>
-      <c r="AQ105" s="16">
+      <c r="AQ105" s="12">
         <f t="shared" si="1"/>
         <v>1.3159002863399036E-2</v>
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+      <c r="A106" s="13"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="13"/>
-      <c r="L106" s="15"/>
-      <c r="M106" s="13"/>
-      <c r="N106" s="14"/>
-      <c r="O106" s="13"/>
-      <c r="P106" s="14"/>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="14"/>
+      <c r="K106" s="14"/>
+      <c r="L106" s="16"/>
+      <c r="M106" s="14"/>
+      <c r="N106" s="15"/>
+      <c r="O106" s="14"/>
+      <c r="P106" s="15"/>
+      <c r="Q106" s="13"/>
+      <c r="R106" s="15"/>
       <c r="AN106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4759,27 +4931,27 @@
       <c r="AP106" s="10">
         <v>3.8675000000000001E-2</v>
       </c>
-      <c r="AQ106" s="16">
+      <c r="AQ106" s="12">
         <f t="shared" si="1"/>
         <v>6.1331609566903658E-2</v>
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A107" s="12"/>
+      <c r="A107" s="13"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="13"/>
-      <c r="L107" s="15"/>
-      <c r="M107" s="13"/>
-      <c r="N107" s="14"/>
-      <c r="O107" s="13"/>
-      <c r="P107" s="14"/>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="14"/>
+      <c r="K107" s="14"/>
+      <c r="L107" s="16"/>
+      <c r="M107" s="14"/>
+      <c r="N107" s="15"/>
+      <c r="O107" s="14"/>
+      <c r="P107" s="15"/>
+      <c r="Q107" s="13"/>
+      <c r="R107" s="15"/>
       <c r="AN107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4789,27 +4961,27 @@
       <c r="AP107" s="10">
         <v>3.8675000000000001E-2</v>
       </c>
-      <c r="AQ107" s="16">
+      <c r="AQ107" s="12">
         <f t="shared" si="1"/>
         <v>3.425985778926955E-2</v>
       </c>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+      <c r="A108" s="13"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="13"/>
-      <c r="L108" s="15"/>
-      <c r="M108" s="13"/>
-      <c r="N108" s="14"/>
-      <c r="O108" s="13"/>
-      <c r="P108" s="14"/>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="14"/>
+      <c r="K108" s="14"/>
+      <c r="L108" s="16"/>
+      <c r="M108" s="14"/>
+      <c r="N108" s="15"/>
+      <c r="O108" s="14"/>
+      <c r="P108" s="15"/>
+      <c r="Q108" s="13"/>
+      <c r="R108" s="15"/>
       <c r="AN108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4819,13 +4991,13 @@
       <c r="AP108" s="10">
         <v>3.5061000000000002E-2</v>
       </c>
-      <c r="AQ108" s="16">
+      <c r="AQ108" s="12">
         <f t="shared" si="1"/>
         <v>-0.12974530104674711</v>
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="13" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
@@ -4834,28 +5006,28 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M109" s="13">
+      <c r="K109" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M109" s="14">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="13">
+      <c r="N109" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="14">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="14" t="s">
+      <c r="P109" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN109" s="11">
@@ -4867,27 +5039,27 @@
       <c r="AP109" s="10">
         <v>7.0127999999999996E-2</v>
       </c>
-      <c r="AQ109" s="16">
+      <c r="AQ109" s="12">
         <f t="shared" si="1"/>
         <v>3.071526351813831E-2</v>
       </c>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A110" s="12"/>
+      <c r="A110" s="13"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="13"/>
-      <c r="L110" s="15"/>
-      <c r="M110" s="13"/>
-      <c r="N110" s="14"/>
-      <c r="O110" s="13"/>
-      <c r="P110" s="14"/>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="14"/>
+      <c r="K110" s="14"/>
+      <c r="L110" s="16"/>
+      <c r="M110" s="14"/>
+      <c r="N110" s="15"/>
+      <c r="O110" s="14"/>
+      <c r="P110" s="15"/>
+      <c r="Q110" s="13"/>
+      <c r="R110" s="15"/>
       <c r="AN110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -4897,27 +5069,27 @@
       <c r="AP110" s="10">
         <v>5.6954999999999999E-2</v>
       </c>
-      <c r="AQ110" s="16">
+      <c r="AQ110" s="12">
         <f t="shared" si="1"/>
         <v>6.2470371345799296E-2</v>
       </c>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+      <c r="A111" s="13"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="13"/>
-      <c r="L111" s="15"/>
-      <c r="M111" s="13"/>
-      <c r="N111" s="14"/>
-      <c r="O111" s="13"/>
-      <c r="P111" s="14"/>
-      <c r="Q111" s="12"/>
-      <c r="R111" s="14"/>
+      <c r="K111" s="14"/>
+      <c r="L111" s="16"/>
+      <c r="M111" s="14"/>
+      <c r="N111" s="15"/>
+      <c r="O111" s="14"/>
+      <c r="P111" s="15"/>
+      <c r="Q111" s="13"/>
+      <c r="R111" s="15"/>
       <c r="AN111" s="11">
         <v>19.316754</v>
       </c>
@@ -4927,27 +5099,27 @@
       <c r="AP111" s="10">
         <v>3.4072999999999999E-2</v>
       </c>
-      <c r="AQ111" s="16">
+      <c r="AQ111" s="12">
         <f t="shared" si="1"/>
         <v>0.6354591612126903</v>
       </c>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A112" s="12"/>
+      <c r="A112" s="13"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="13"/>
-      <c r="L112" s="15"/>
-      <c r="M112" s="13"/>
-      <c r="N112" s="14"/>
-      <c r="O112" s="13"/>
-      <c r="P112" s="14"/>
-      <c r="Q112" s="12"/>
-      <c r="R112" s="14"/>
+      <c r="K112" s="14"/>
+      <c r="L112" s="16"/>
+      <c r="M112" s="14"/>
+      <c r="N112" s="15"/>
+      <c r="O112" s="14"/>
+      <c r="P112" s="15"/>
+      <c r="Q112" s="13"/>
+      <c r="R112" s="15"/>
       <c r="AN112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -4957,13 +5129,13 @@
       <c r="AP112" s="10">
         <v>2.6265E-2</v>
       </c>
-      <c r="AQ112" s="16">
+      <c r="AQ112" s="12">
         <f t="shared" si="1"/>
         <v>0.59406053683609372</v>
       </c>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="13" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
@@ -4972,28 +5144,28 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M113" s="13">
+      <c r="K113" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M113" s="14">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="13">
+      <c r="N113" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="14">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="14" t="s">
+      <c r="P113" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN113" s="11">
@@ -5005,27 +5177,27 @@
       <c r="AP113" s="10">
         <v>1.0460000000000001E-3</v>
       </c>
-      <c r="AQ113" s="16">
+      <c r="AQ113" s="12">
         <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
+      <c r="A114" s="13"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="13"/>
-      <c r="L114" s="15"/>
-      <c r="M114" s="13"/>
-      <c r="N114" s="14"/>
-      <c r="O114" s="13"/>
-      <c r="P114" s="14"/>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="14"/>
+      <c r="K114" s="14"/>
+      <c r="L114" s="16"/>
+      <c r="M114" s="14"/>
+      <c r="N114" s="15"/>
+      <c r="O114" s="14"/>
+      <c r="P114" s="15"/>
+      <c r="Q114" s="13"/>
+      <c r="R114" s="15"/>
       <c r="AN114" s="11">
         <v>12.293174</v>
       </c>
@@ -5035,24 +5207,24 @@
       <c r="AP114" s="10">
         <v>0</v>
       </c>
-      <c r="AQ114" s="16"/>
+      <c r="AQ114" s="12"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A115" s="12"/>
+      <c r="A115" s="13"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="13"/>
-      <c r="L115" s="15"/>
-      <c r="M115" s="13"/>
-      <c r="N115" s="14"/>
-      <c r="O115" s="13"/>
-      <c r="P115" s="14"/>
-      <c r="Q115" s="12"/>
-      <c r="R115" s="14"/>
+      <c r="K115" s="14"/>
+      <c r="L115" s="16"/>
+      <c r="M115" s="14"/>
+      <c r="N115" s="15"/>
+      <c r="O115" s="14"/>
+      <c r="P115" s="15"/>
+      <c r="Q115" s="13"/>
+      <c r="R115" s="15"/>
       <c r="AN115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -5062,24 +5234,24 @@
       <c r="AP115" s="10">
         <v>0</v>
       </c>
-      <c r="AQ115" s="16"/>
+      <c r="AQ115" s="12"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
+      <c r="A116" s="13"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="13"/>
-      <c r="L116" s="15"/>
-      <c r="M116" s="13"/>
-      <c r="N116" s="14"/>
-      <c r="O116" s="13"/>
-      <c r="P116" s="14"/>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="14"/>
+      <c r="K116" s="14"/>
+      <c r="L116" s="16"/>
+      <c r="M116" s="14"/>
+      <c r="N116" s="15"/>
+      <c r="O116" s="14"/>
+      <c r="P116" s="15"/>
+      <c r="Q116" s="13"/>
+      <c r="R116" s="15"/>
       <c r="AN116" s="11">
         <v>61.224843</v>
       </c>
@@ -5089,10 +5261,10 @@
       <c r="AP116" s="10">
         <v>0</v>
       </c>
-      <c r="AQ116" s="16"/>
+      <c r="AQ116" s="12"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A117" s="12" t="s">
+      <c r="A117" s="13" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
@@ -5101,28 +5273,28 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="M117" s="13">
+      <c r="K117" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="M117" s="14">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="13">
+      <c r="N117" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="14">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="14" t="s">
+      <c r="P117" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="15" t="s">
         <v>10</v>
       </c>
       <c r="AN117" s="11">
@@ -5134,27 +5306,27 @@
       <c r="AP117" s="10">
         <v>8.9202000000000004E-2</v>
       </c>
-      <c r="AQ117" s="16">
+      <c r="AQ117" s="12">
         <f t="shared" si="1"/>
         <v>-0.22350395731037431</v>
       </c>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A118" s="12"/>
+      <c r="A118" s="13"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="13"/>
-      <c r="L118" s="15"/>
-      <c r="M118" s="13"/>
-      <c r="N118" s="14"/>
-      <c r="O118" s="13"/>
-      <c r="P118" s="14"/>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="14"/>
+      <c r="K118" s="14"/>
+      <c r="L118" s="16"/>
+      <c r="M118" s="14"/>
+      <c r="N118" s="15"/>
+      <c r="O118" s="14"/>
+      <c r="P118" s="15"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="15"/>
       <c r="AN118" s="11">
         <v>10.24381</v>
       </c>
@@ -5164,27 +5336,27 @@
       <c r="AP118" s="10">
         <v>7.9154000000000002E-2</v>
       </c>
-      <c r="AQ118" s="16">
+      <c r="AQ118" s="12">
         <f t="shared" si="1"/>
         <v>-0.27903833034338127</v>
       </c>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
+      <c r="A119" s="13"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="13"/>
-      <c r="L119" s="15"/>
-      <c r="M119" s="13"/>
-      <c r="N119" s="14"/>
-      <c r="O119" s="13"/>
-      <c r="P119" s="14"/>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="14"/>
+      <c r="K119" s="14"/>
+      <c r="L119" s="16"/>
+      <c r="M119" s="14"/>
+      <c r="N119" s="15"/>
+      <c r="O119" s="14"/>
+      <c r="P119" s="15"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="15"/>
       <c r="AN119" s="11">
         <v>20.481614</v>
       </c>
@@ -5194,27 +5366,27 @@
       <c r="AP119" s="10">
         <v>6.6012000000000001E-2</v>
       </c>
-      <c r="AQ119" s="16">
+      <c r="AQ119" s="12">
         <f t="shared" si="1"/>
         <v>-0.20525056050415075</v>
       </c>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A120" s="12"/>
+      <c r="A120" s="13"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="13"/>
-      <c r="L120" s="15"/>
-      <c r="M120" s="13"/>
-      <c r="N120" s="14"/>
-      <c r="O120" s="13"/>
-      <c r="P120" s="14"/>
-      <c r="Q120" s="12"/>
-      <c r="R120" s="14"/>
+      <c r="K120" s="14"/>
+      <c r="L120" s="16"/>
+      <c r="M120" s="14"/>
+      <c r="N120" s="15"/>
+      <c r="O120" s="14"/>
+      <c r="P120" s="15"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="15"/>
       <c r="AN120" s="11">
         <v>51.171509</v>
       </c>
@@ -5224,25 +5396,240 @@
       <c r="AP120" s="10">
         <v>5.5113000000000002E-2</v>
       </c>
-      <c r="AQ120" s="16">
+      <c r="AQ120" s="12">
         <f t="shared" si="1"/>
         <v>-0.29606444940395193</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="263">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="U1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -5267,233 +5654,18 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:Z1"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="47">
   <si>
     <t>Greedy</t>
   </si>
@@ -161,9 +161,6 @@
   <si>
     <t>best improvement</t>
   </si>
-  <si>
-    <t>merged_training_log.png</t>
-  </si>
 </sst>
 </file>
 
@@ -210,7 +207,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -251,6 +248,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -260,16 +269,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -339,15 +339,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>394347</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>102879</xdr:rowOff>
+      <xdr:colOff>375297</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>45729</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -370,7 +370,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12249150" y="1238250"/>
+          <a:off x="12230100" y="1371600"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -649,10 +649,10 @@
   <dimension ref="A1:AV120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="N2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AA23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AH12" sqref="AH12"/>
+      <selection pane="bottomRight" activeCell="AS52" sqref="AS52:AS54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,51 +690,51 @@
     <col min="46" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="C1" s="13" t="s">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="C1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13" t="s">
+      <c r="D1" s="17"/>
+      <c r="E1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13" t="s">
+      <c r="J1" s="17"/>
+      <c r="K1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13" t="s">
+      <c r="L1" s="17"/>
+      <c r="M1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13" t="s">
+      <c r="N1" s="17"/>
+      <c r="O1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13" t="s">
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="13"/>
-      <c r="U1" s="13" t="s">
+      <c r="R1" s="17"/>
+      <c r="U1" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="V1" s="13"/>
-      <c r="W1" s="13" t="s">
+      <c r="V1" s="17"/>
+      <c r="W1" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="13"/>
-      <c r="Y1" s="13" t="s">
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="Z1" s="13"/>
+      <c r="Z1" s="17"/>
       <c r="AO1" s="9" t="s">
         <v>42</v>
       </c>
@@ -742,8 +742,14 @@
         <v>43</v>
       </c>
       <c r="AQ1" s="1"/>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR1" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="AS1" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -823,8 +829,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -836,28 +842,28 @@
       <c r="J3" s="8">
         <v>0.81581599999999999</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="18">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="19">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="15" t="s">
+      <c r="M3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="1"/>
@@ -888,9 +894,15 @@
       <c r="AP3" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
+      <c r="AR3" s="16">
+        <v>6.4761865432645171E-2</v>
+      </c>
+      <c r="AS3" s="16">
+        <v>3.5342664440224207E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A4" s="17"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -900,14 +912,14 @@
       <c r="J4" s="8">
         <v>1.6109789999999999</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="15"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="19"/>
       <c r="T4" s="1"/>
       <c r="U4" s="7">
         <v>3.9321000000000002E-2</v>
@@ -936,9 +948,15 @@
       <c r="AP4" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A5" s="13"/>
+      <c r="AR4" s="16">
+        <v>5.4245447183507253E-2</v>
+      </c>
+      <c r="AS4" s="16">
+        <v>3.1441507074241162E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A5" s="17"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -948,14 +966,14 @@
       <c r="J5" s="8">
         <v>3.1995640000000001</v>
       </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="18"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="18"/>
+      <c r="R5" s="19"/>
       <c r="T5" s="1"/>
       <c r="U5" s="7">
         <v>3.1038E-2</v>
@@ -984,9 +1002,15 @@
       <c r="AP5" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A6" s="13"/>
+      <c r="AR5" s="16">
+        <v>4.6422633774552538E-2</v>
+      </c>
+      <c r="AS5" s="16">
+        <v>3.1289883051820649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A6" s="17"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -996,14 +1020,14 @@
       <c r="J6" s="8">
         <v>7.9486220000000003</v>
       </c>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="15"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="19"/>
       <c r="S6" s="4"/>
       <c r="T6" s="1"/>
       <c r="U6" s="7">
@@ -1034,186 +1058,204 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
       <c r="I7" s="6"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="15" t="s">
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="19" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="1"/>
       <c r="AN7" s="11"/>
       <c r="AO7" s="10"/>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A8" s="17"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
       <c r="I8" s="6"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="15"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="18"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="18"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="19"/>
       <c r="T8" s="1"/>
       <c r="AN8" s="11"/>
       <c r="AO8" s="10"/>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
+    <row r="9" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A9" s="17"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
       <c r="I9" s="6"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="15"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="19"/>
       <c r="T9" s="1"/>
       <c r="AN9" s="11"/>
       <c r="AO9" s="10"/>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A10" s="17"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
       <c r="I10" s="6"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="15"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="18"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="19"/>
       <c r="S10" s="4"/>
       <c r="T10" s="1"/>
       <c r="AN10" s="11"/>
       <c r="AO10" s="10"/>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
       <c r="I11" s="6"/>
-      <c r="K11" s="14">
+      <c r="K11" s="18">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="19">
         <v>0.435</v>
       </c>
-      <c r="M11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="15" t="s">
+      <c r="M11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="19" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="1"/>
       <c r="AN11" s="11"/>
       <c r="AO11" s="10"/>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
+      <c r="AR11" s="16">
+        <v>0.12645979872118801</v>
+      </c>
+      <c r="AS11" s="16">
+        <v>6.8531275343270401E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="15"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="18"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="19"/>
       <c r="T12" s="1"/>
       <c r="AN12" s="11"/>
       <c r="AO12" s="10"/>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
+      <c r="AR12" s="16">
+        <v>0.11615750071948699</v>
+      </c>
+      <c r="AS12" s="16">
+        <v>6.1596683870547099E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A13" s="17"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
       <c r="I13" s="6"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="18"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="19"/>
       <c r="T13" s="1"/>
       <c r="AN13" s="11"/>
       <c r="AO13" s="10"/>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
+      <c r="AR13" s="21">
+        <v>0.104140937635714</v>
+      </c>
+      <c r="AS13" s="21">
+        <v>5.8596683870547103E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A14" s="17"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
       <c r="I14" s="6"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="14"/>
-      <c r="R14" s="15"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="19"/>
       <c r="S14" s="4"/>
       <c r="T14" s="1"/>
       <c r="AN14" s="11"/>
       <c r="AO14" s="10"/>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+    <row r="15" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1223,24 +1265,24 @@
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="15" t="s">
+      <c r="K15" s="18"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="19" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1248,8 +1290,8 @@
       <c r="AN15" s="11"/>
       <c r="AO15" s="10"/>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
+    <row r="16" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="A16" s="17"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
@@ -1257,21 +1299,21 @@
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="14"/>
-      <c r="R16" s="15"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="19"/>
       <c r="S16" s="6"/>
       <c r="T16" s="1"/>
       <c r="AN16" s="11"/>
       <c r="AO16" s="10"/>
     </row>
     <row r="17" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
+      <c r="A17" s="17"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
@@ -1279,23 +1321,23 @@
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="14"/>
-      <c r="R17" s="15"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="19"/>
       <c r="S17" s="6"/>
       <c r="T17" s="1"/>
       <c r="AN17" s="11"/>
       <c r="AO17" s="10"/>
-      <c r="AR17" s="18"/>
-      <c r="AS17" s="18"/>
+      <c r="AR17" s="14"/>
+      <c r="AS17" s="14"/>
     </row>
     <row r="18" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
+      <c r="A18" s="17"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1307,14 +1349,14 @@
       <c r="H18" s="8"/>
       <c r="I18" s="6"/>
       <c r="J18" s="8"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="14"/>
-      <c r="R18" s="15"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="19"/>
       <c r="S18" s="4"/>
       <c r="T18" s="1"/>
       <c r="U18" s="7"/>
@@ -1324,11 +1366,11 @@
       <c r="AO18" s="10"/>
       <c r="AP18" s="10"/>
       <c r="AQ18" s="11"/>
-      <c r="AR18" s="20"/>
-      <c r="AS18" s="20"/>
+      <c r="AR18" s="16"/>
+      <c r="AS18" s="16"/>
     </row>
     <row r="19" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1342,24 +1384,24 @@
       <c r="H19" s="8"/>
       <c r="I19" s="6"/>
       <c r="J19" s="8"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="15" t="s">
+      <c r="K19" s="18"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="19" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1371,11 +1413,11 @@
       <c r="AO19" s="10"/>
       <c r="AP19" s="10"/>
       <c r="AQ19" s="11"/>
-      <c r="AR19" s="20"/>
-      <c r="AS19" s="20"/>
+      <c r="AR19" s="16"/>
+      <c r="AS19" s="16"/>
     </row>
     <row r="20" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13"/>
+      <c r="A20" s="17"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1387,14 +1429,14 @@
       <c r="H20" s="8"/>
       <c r="I20" s="6"/>
       <c r="J20" s="8"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="15"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="14"/>
-      <c r="R20" s="15"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="19"/>
       <c r="S20" s="4"/>
       <c r="T20" s="1"/>
       <c r="U20" s="7"/>
@@ -1404,11 +1446,11 @@
       <c r="AO20" s="10"/>
       <c r="AP20" s="10"/>
       <c r="AQ20" s="11"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="20"/>
+      <c r="AR20" s="16"/>
+      <c r="AS20" s="16"/>
     </row>
     <row r="21" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
+      <c r="A21" s="17"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1420,14 +1462,14 @@
       <c r="H21" s="8"/>
       <c r="I21" s="6"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="15"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="15"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-      <c r="Q21" s="14"/>
-      <c r="R21" s="15"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="19"/>
       <c r="S21" s="4"/>
       <c r="T21" s="1"/>
       <c r="U21" s="7"/>
@@ -1437,11 +1479,11 @@
       <c r="AO21" s="10"/>
       <c r="AP21" s="10"/>
       <c r="AQ21" s="11"/>
-      <c r="AR21" s="20"/>
-      <c r="AS21" s="20"/>
+      <c r="AR21" s="16"/>
+      <c r="AS21" s="16"/>
     </row>
     <row r="22" spans="1:45" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
+      <c r="A22" s="17"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1453,14 +1495,14 @@
       <c r="H22" s="8"/>
       <c r="I22" s="6"/>
       <c r="J22" s="8"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="14"/>
-      <c r="R22" s="15"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="4"/>
       <c r="T22" s="1"/>
       <c r="U22" s="7"/>
@@ -1470,22 +1512,16 @@
       <c r="AO22" s="10"/>
       <c r="AP22" s="10"/>
       <c r="AQ22" s="11"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="20"/>
+      <c r="AR22" s="16"/>
+      <c r="AS22" s="16"/>
     </row>
     <row r="23" spans="1:45" x14ac:dyDescent="0.25">
       <c r="I23" s="6"/>
       <c r="AN23" s="11"/>
       <c r="AO23" s="10"/>
-      <c r="AR23" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="AS23" s="17" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1515,28 +1551,28 @@
       <c r="J24" s="8">
         <v>3.355451</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="18">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="19">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="18">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="14">
+      <c r="N24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="18">
         <v>0.153</v>
       </c>
-      <c r="P24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="15" t="s">
+      <c r="P24" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN24" s="11">
@@ -1552,15 +1588,15 @@
         <f>(AO24 - AP24)/AP24</f>
         <v>0.10039998616762544</v>
       </c>
-      <c r="AR24" s="20">
+      <c r="AR24" s="16">
         <v>0.13688711602378539</v>
       </c>
-      <c r="AS24" s="20">
+      <c r="AS24" s="16">
         <v>7.5060378575190295E-2</v>
       </c>
     </row>
     <row r="25" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
+      <c r="A25" s="17"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1588,14 +1624,14 @@
       <c r="J25" s="8">
         <v>6.6267579999999997</v>
       </c>
-      <c r="K25" s="14"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="15"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="15"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="19"/>
       <c r="AN25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1609,15 +1645,15 @@
         <f t="shared" ref="AQ25:AQ87" si="0">(AO25 - AP25)/AP25</f>
         <v>5.5173854795294956E-2</v>
       </c>
-      <c r="AR25" s="20">
+      <c r="AR25" s="16">
         <v>0.1239270127592192</v>
       </c>
-      <c r="AS25" s="20">
+      <c r="AS25" s="16">
         <v>6.2918757652814239E-2</v>
       </c>
     </row>
     <row r="26" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
+      <c r="A26" s="17"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1645,14 +1681,14 @@
       <c r="J26" s="8">
         <v>13.110008000000001</v>
       </c>
-      <c r="K26" s="14"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="13"/>
-      <c r="R26" s="15"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="19"/>
       <c r="AN26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1666,15 +1702,15 @@
         <f t="shared" si="0"/>
         <v>-3.6572199730094519E-2</v>
       </c>
-      <c r="AR26" s="20">
+      <c r="AR26" s="16">
         <v>0.1050443467852758</v>
       </c>
-      <c r="AS26" s="20">
+      <c r="AS26" s="16">
         <v>5.3326321728132453E-2</v>
       </c>
     </row>
     <row r="27" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
+      <c r="A27" s="17"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1702,14 +1738,14 @@
       <c r="J27" s="8">
         <v>32.676729999999999</v>
       </c>
-      <c r="K27" s="14"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="14"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="13"/>
-      <c r="R27" s="15"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="19"/>
       <c r="AN27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1725,7 +1761,7 @@
       </c>
     </row>
     <row r="28" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="17" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -1755,28 +1791,28 @@
       <c r="J28" s="8">
         <v>4.002434</v>
       </c>
-      <c r="K28" s="14">
+      <c r="K28" s="18">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="19">
         <v>0.624</v>
       </c>
-      <c r="M28" s="14">
+      <c r="M28" s="18">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="14">
+      <c r="N28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="18">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="15" t="s">
+      <c r="P28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN28" s="11">
@@ -1792,15 +1828,15 @@
         <f t="shared" si="0"/>
         <v>4.016264140438492E-2</v>
       </c>
-      <c r="AR28" s="20">
+      <c r="AR28" s="16">
         <v>0.14166088738559399</v>
       </c>
-      <c r="AS28" s="20">
+      <c r="AS28" s="16">
         <v>9.5576566423238279E-2</v>
       </c>
     </row>
     <row r="29" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
+      <c r="A29" s="17"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1828,14 +1864,14 @@
       <c r="J29" s="8">
         <v>7.9348150000000004</v>
       </c>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="14"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="13"/>
-      <c r="R29" s="15"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="19"/>
       <c r="AN29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1849,15 +1885,15 @@
         <f t="shared" si="0"/>
         <v>7.5252678774982887E-2</v>
       </c>
-      <c r="AR29" s="20">
+      <c r="AR29" s="16">
         <v>0.13076665587687061</v>
       </c>
-      <c r="AS29" s="20">
+      <c r="AS29" s="16">
         <v>9.0800495453678173E-2</v>
       </c>
     </row>
     <row r="30" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
+      <c r="A30" s="17"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1885,14 +1921,14 @@
       <c r="J30" s="8">
         <v>15.800986</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="15"/>
-      <c r="O30" s="14"/>
-      <c r="P30" s="15"/>
-      <c r="Q30" s="13"/>
-      <c r="R30" s="15"/>
+      <c r="K30" s="18"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="18"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="18"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="19"/>
       <c r="AN30" s="11">
         <v>15.800986</v>
       </c>
@@ -1906,15 +1942,15 @@
         <f t="shared" si="0"/>
         <v>9.9635479951397335E-2</v>
       </c>
-      <c r="AR30" s="20">
+      <c r="AR30" s="16">
         <v>0.11610475192718191</v>
       </c>
-      <c r="AS30" s="20">
+      <c r="AS30" s="16">
         <v>8.0211340873238432E-2</v>
       </c>
     </row>
     <row r="31" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
+      <c r="A31" s="17"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1942,14 +1978,14 @@
       <c r="J31" s="8">
         <v>39.365931000000003</v>
       </c>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="15"/>
-      <c r="O31" s="14"/>
-      <c r="P31" s="15"/>
-      <c r="Q31" s="13"/>
-      <c r="R31" s="15"/>
+      <c r="K31" s="18"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="18"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="18"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="19"/>
       <c r="AN31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -1965,7 +2001,7 @@
       </c>
     </row>
     <row r="32" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="17" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -1995,28 +2031,28 @@
       <c r="J32" s="8">
         <v>4.9335690000000003</v>
       </c>
-      <c r="K32" s="14">
+      <c r="K32" s="18">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="19">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="14">
+      <c r="M32" s="18">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="14">
+      <c r="N32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="18">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="15" t="s">
+      <c r="P32" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN32" s="11">
@@ -2032,15 +2068,15 @@
         <f t="shared" si="0"/>
         <v>9.7602392933368969E-3</v>
       </c>
-      <c r="AR32" s="20">
+      <c r="AR32" s="16">
         <v>0.1598100151558659</v>
       </c>
-      <c r="AS32" s="20">
+      <c r="AS32" s="16">
         <v>9.5042090819800223E-2</v>
       </c>
     </row>
     <row r="33" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A33" s="13"/>
+      <c r="A33" s="17"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -2068,14 +2104,14 @@
       <c r="J33" s="8">
         <v>9.7972990000000006</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="14"/>
-      <c r="N33" s="15"/>
-      <c r="O33" s="14"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="13"/>
-      <c r="R33" s="15"/>
+      <c r="K33" s="18"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="18"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="19"/>
       <c r="AN33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2089,15 +2125,15 @@
         <f t="shared" si="0"/>
         <v>3.91462891462891E-2</v>
       </c>
-      <c r="AR33" s="20">
+      <c r="AR33" s="16">
         <v>0.14760589447770911</v>
       </c>
-      <c r="AS33" s="20">
+      <c r="AS33" s="16">
         <v>8.1518245526609412E-2</v>
       </c>
     </row>
     <row r="34" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A34" s="13"/>
+      <c r="A34" s="17"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -2125,14 +2161,14 @@
       <c r="J34" s="8">
         <v>19.567959999999999</v>
       </c>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="14"/>
-      <c r="N34" s="15"/>
-      <c r="O34" s="14"/>
-      <c r="P34" s="15"/>
-      <c r="Q34" s="13"/>
-      <c r="R34" s="15"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="18"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="18"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="19"/>
       <c r="AN34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2146,15 +2182,15 @@
         <f t="shared" si="0"/>
         <v>-2.9867277581081896E-2</v>
       </c>
-      <c r="AR34" s="20">
+      <c r="AR34" s="16">
         <v>0.1427892837570599</v>
       </c>
-      <c r="AS34" s="20">
+      <c r="AS34" s="16">
         <v>7.9552882005758413E-2</v>
       </c>
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A35" s="13"/>
+      <c r="A35" s="17"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -2182,14 +2218,14 @@
       <c r="J35" s="8">
         <v>48.782482999999999</v>
       </c>
-      <c r="K35" s="14"/>
-      <c r="L35" s="15"/>
-      <c r="M35" s="14"/>
-      <c r="N35" s="15"/>
-      <c r="O35" s="14"/>
-      <c r="P35" s="15"/>
-      <c r="Q35" s="13"/>
-      <c r="R35" s="15"/>
+      <c r="K35" s="18"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="18"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="18"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="19"/>
       <c r="AN35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2205,7 +2241,7 @@
       </c>
     </row>
     <row r="36" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
@@ -2235,28 +2271,28 @@
       <c r="J36" s="8">
         <v>5.413564</v>
       </c>
-      <c r="K36" s="14">
+      <c r="K36" s="18">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="19">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="14">
+      <c r="M36" s="18">
         <v>0.189</v>
       </c>
-      <c r="N36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="14">
+      <c r="N36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="18">
         <v>0.18</v>
       </c>
-      <c r="P36" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="15" t="s">
+      <c r="P36" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN36" s="11">
@@ -2272,15 +2308,15 @@
         <f t="shared" si="0"/>
         <v>0.10094096926074615</v>
       </c>
-      <c r="AR36" s="20">
+      <c r="AR36" s="16">
         <v>0.16159056949776701</v>
       </c>
-      <c r="AS36" s="20">
+      <c r="AS36" s="16">
         <v>0.15015819804763289</v>
       </c>
     </row>
     <row r="37" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13"/>
+      <c r="A37" s="17"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -2308,14 +2344,14 @@
       <c r="J37" s="8">
         <v>10.807356</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="15"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="15"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="15"/>
-      <c r="Q37" s="13"/>
-      <c r="R37" s="15"/>
+      <c r="K37" s="18"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="18"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="19"/>
       <c r="AN37" s="11">
         <v>10.807356</v>
       </c>
@@ -2329,15 +2365,15 @@
         <f t="shared" si="0"/>
         <v>7.549707986088329E-2</v>
       </c>
-      <c r="AR37" s="20">
+      <c r="AR37" s="16">
         <v>0.14201630857310801</v>
       </c>
-      <c r="AS37" s="20">
+      <c r="AS37" s="16">
         <v>0.1224445226875083</v>
       </c>
     </row>
     <row r="38" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+      <c r="A38" s="17"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -2365,14 +2401,14 @@
       <c r="J38" s="8">
         <v>21.628416999999999</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="15"/>
-      <c r="Q38" s="13"/>
-      <c r="R38" s="15"/>
+      <c r="K38" s="18"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="18"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="18"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="19"/>
       <c r="AN38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2386,15 +2422,15 @@
         <f t="shared" si="0"/>
         <v>-6.156253829981812E-3</v>
       </c>
-      <c r="AR38" s="20">
+      <c r="AR38" s="16">
         <v>0.1223589494365398</v>
       </c>
-      <c r="AS38" s="20">
+      <c r="AS38" s="16">
         <v>0.13044688553761841</v>
       </c>
     </row>
     <row r="39" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A39" s="13"/>
+      <c r="A39" s="17"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2422,14 +2458,14 @@
       <c r="J39" s="8">
         <v>53.830657000000002</v>
       </c>
-      <c r="K39" s="14"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="14"/>
-      <c r="N39" s="15"/>
-      <c r="O39" s="14"/>
-      <c r="P39" s="15"/>
-      <c r="Q39" s="13"/>
-      <c r="R39" s="15"/>
+      <c r="K39" s="18"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="18"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="18"/>
+      <c r="P39" s="19"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="19"/>
       <c r="AN39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2445,7 +2481,7 @@
       </c>
     </row>
     <row r="40" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="17" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -2475,28 +2511,28 @@
       <c r="J40" s="8">
         <v>6.7596759999999998</v>
       </c>
-      <c r="K40" s="14">
+      <c r="K40" s="18">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="19">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="14">
+      <c r="M40" s="18">
         <v>0.254</v>
       </c>
-      <c r="N40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="14">
+      <c r="N40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="18">
         <v>0.187</v>
       </c>
-      <c r="P40" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="14">
+      <c r="P40" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="18">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="15">
+      <c r="R40" s="19">
         <v>600</v>
       </c>
       <c r="AN40" s="11">
@@ -2512,15 +2548,15 @@
         <f t="shared" si="0"/>
         <v>-1.6951920392348978E-2</v>
       </c>
-      <c r="AR40" s="19">
+      <c r="AR40" s="15">
         <v>0.21199999999999999</v>
       </c>
-      <c r="AS40" s="19">
+      <c r="AS40" s="15">
         <v>0.15554999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A41" s="13"/>
+      <c r="A41" s="17"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2548,14 +2584,14 @@
       <c r="J41" s="8">
         <v>13.471734</v>
       </c>
-      <c r="K41" s="14"/>
-      <c r="L41" s="15"/>
-      <c r="M41" s="14"/>
-      <c r="N41" s="15"/>
-      <c r="O41" s="14"/>
-      <c r="P41" s="15"/>
-      <c r="Q41" s="14"/>
-      <c r="R41" s="15"/>
+      <c r="K41" s="18"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="18"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="18"/>
+      <c r="P41" s="19"/>
+      <c r="Q41" s="18"/>
+      <c r="R41" s="19"/>
       <c r="AN41" s="11">
         <v>13.471734</v>
       </c>
@@ -2569,15 +2605,15 @@
         <f t="shared" si="0"/>
         <v>-7.2468976091233036E-4</v>
       </c>
-      <c r="AR41" s="19">
+      <c r="AR41" s="15">
         <v>0.18522</v>
       </c>
-      <c r="AS41" s="19">
+      <c r="AS41" s="15">
         <v>0.13542999999999999</v>
       </c>
     </row>
     <row r="42" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A42" s="13"/>
+      <c r="A42" s="17"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2605,14 +2641,14 @@
       <c r="J42" s="8">
         <v>26.813558</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="14"/>
-      <c r="N42" s="15"/>
-      <c r="O42" s="14"/>
-      <c r="P42" s="15"/>
-      <c r="Q42" s="14"/>
-      <c r="R42" s="15"/>
+      <c r="K42" s="18"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="18"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="18"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="19"/>
       <c r="AN42" s="11">
         <v>26.813558</v>
       </c>
@@ -2626,15 +2662,15 @@
         <f t="shared" si="0"/>
         <v>1.3309159553735659E-2</v>
       </c>
-      <c r="AR42" s="19">
+      <c r="AR42" s="15">
         <v>0.16964000000000001</v>
       </c>
-      <c r="AS42" s="19">
+      <c r="AS42" s="15">
         <v>0.13653999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A43" s="13"/>
+      <c r="A43" s="17"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2662,14 +2698,14 @@
       <c r="J43" s="8">
         <v>66.724900000000005</v>
       </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="15"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="15"/>
-      <c r="O43" s="14"/>
-      <c r="P43" s="15"/>
-      <c r="Q43" s="14"/>
-      <c r="R43" s="15"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="19"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="19"/>
       <c r="AN43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2685,7 +2721,7 @@
       </c>
     </row>
     <row r="44" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="17" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
@@ -2715,28 +2751,28 @@
       <c r="J44" s="8">
         <v>8.6928560000000008</v>
       </c>
-      <c r="K44" s="14">
+      <c r="K44" s="18">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="19">
         <v>2.7</v>
       </c>
-      <c r="M44" s="14">
+      <c r="M44" s="18">
         <v>0.159</v>
       </c>
-      <c r="N44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="14">
+      <c r="N44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="18">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="15" t="s">
+      <c r="P44" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN44" s="11">
@@ -2752,15 +2788,15 @@
         <f t="shared" si="0"/>
         <v>4.0193495857081193E-2</v>
       </c>
-      <c r="AR44" s="20">
+      <c r="AR44" s="16">
         <v>0.10443781416783531</v>
       </c>
-      <c r="AS44" s="20">
+      <c r="AS44" s="16">
         <v>9.5992092848552785E-2</v>
       </c>
     </row>
     <row r="45" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="17"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -2788,14 +2824,14 @@
       <c r="J45" s="8">
         <v>17.285457000000001</v>
       </c>
-      <c r="K45" s="14"/>
-      <c r="L45" s="15"/>
-      <c r="M45" s="14"/>
-      <c r="N45" s="15"/>
-      <c r="O45" s="14"/>
-      <c r="P45" s="15"/>
-      <c r="Q45" s="13"/>
-      <c r="R45" s="15"/>
+      <c r="K45" s="18"/>
+      <c r="L45" s="19"/>
+      <c r="M45" s="18"/>
+      <c r="N45" s="19"/>
+      <c r="O45" s="18"/>
+      <c r="P45" s="19"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="19"/>
       <c r="AN45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2809,15 +2845,15 @@
         <f t="shared" si="0"/>
         <v>6.5540134193365726E-2</v>
       </c>
-      <c r="AR45" s="20">
+      <c r="AR45" s="16">
         <v>8.4659632275924407E-2</v>
       </c>
-      <c r="AS45" s="20">
+      <c r="AS45" s="16">
         <v>8.7989755185643365E-2</v>
       </c>
     </row>
     <row r="46" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A46" s="13"/>
+      <c r="A46" s="17"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -2845,14 +2881,14 @@
       <c r="J46" s="8">
         <v>34.49512</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="15"/>
-      <c r="M46" s="14"/>
-      <c r="N46" s="15"/>
-      <c r="O46" s="14"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="13"/>
-      <c r="R46" s="15"/>
+      <c r="K46" s="18"/>
+      <c r="L46" s="19"/>
+      <c r="M46" s="18"/>
+      <c r="N46" s="19"/>
+      <c r="O46" s="18"/>
+      <c r="P46" s="19"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="19"/>
       <c r="AN46" s="11">
         <v>34.49512</v>
       </c>
@@ -2866,15 +2902,15 @@
         <f t="shared" si="0"/>
         <v>-9.7194542388470903E-3</v>
       </c>
-      <c r="AR46" s="20">
+      <c r="AR46" s="16">
         <v>6.3550861874559078E-2</v>
       </c>
-      <c r="AS46" s="20">
+      <c r="AS46" s="16">
         <v>8.9122340895006563E-2</v>
       </c>
     </row>
     <row r="47" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A47" s="13"/>
+      <c r="A47" s="17"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -2902,14 +2938,14 @@
       <c r="J47" s="8">
         <v>85.965810000000005</v>
       </c>
-      <c r="K47" s="14"/>
-      <c r="L47" s="15"/>
-      <c r="M47" s="14"/>
-      <c r="N47" s="15"/>
-      <c r="O47" s="14"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="13"/>
-      <c r="R47" s="15"/>
+      <c r="K47" s="18"/>
+      <c r="L47" s="19"/>
+      <c r="M47" s="18"/>
+      <c r="N47" s="19"/>
+      <c r="O47" s="18"/>
+      <c r="P47" s="19"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="19"/>
       <c r="AN47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2925,7 +2961,7 @@
       </c>
     </row>
     <row r="48" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -2955,28 +2991,28 @@
       <c r="J48" s="8">
         <v>11.603604000000001</v>
       </c>
-      <c r="K48" s="14">
+      <c r="K48" s="18">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="19">
         <v>4.883</v>
       </c>
-      <c r="M48" s="14">
+      <c r="M48" s="18">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="14">
+      <c r="N48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="18">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="15" t="s">
+      <c r="P48" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN48" s="11">
@@ -2992,15 +3028,15 @@
         <f t="shared" si="0"/>
         <v>-1.9929224730426032E-3</v>
       </c>
-      <c r="AR48" s="20">
+      <c r="AR48" s="16">
         <v>0.133479895821493</v>
       </c>
-      <c r="AS48" s="20">
+      <c r="AS48" s="16">
         <v>0.11002205723648149</v>
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="13"/>
+      <c r="A49" s="17"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
@@ -3028,14 +3064,14 @@
       <c r="J49" s="8">
         <v>23.158722999999998</v>
       </c>
-      <c r="K49" s="14"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="13"/>
-      <c r="R49" s="15"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="19"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
+      <c r="O49" s="18"/>
+      <c r="P49" s="19"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="19"/>
       <c r="AN49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -3049,15 +3085,15 @@
         <f t="shared" si="0"/>
         <v>4.715167090430232E-2</v>
       </c>
-      <c r="AR49" s="20">
+      <c r="AR49" s="16">
         <v>0.1160838308532421</v>
       </c>
-      <c r="AS49" s="20">
+      <c r="AS49" s="16">
         <v>9.9799436468565761E-2</v>
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="13"/>
+      <c r="A50" s="17"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
@@ -3085,14 +3121,14 @@
       <c r="J50" s="8">
         <v>46.277225999999999</v>
       </c>
-      <c r="K50" s="14"/>
-      <c r="L50" s="15"/>
-      <c r="M50" s="14"/>
-      <c r="N50" s="15"/>
-      <c r="O50" s="14"/>
-      <c r="P50" s="15"/>
-      <c r="Q50" s="13"/>
-      <c r="R50" s="15"/>
+      <c r="K50" s="18"/>
+      <c r="L50" s="19"/>
+      <c r="M50" s="18"/>
+      <c r="N50" s="19"/>
+      <c r="O50" s="18"/>
+      <c r="P50" s="19"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="19"/>
       <c r="AN50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -3106,15 +3142,15 @@
         <f t="shared" si="0"/>
         <v>3.0366219210217569E-2</v>
       </c>
-      <c r="AR50" s="20">
+      <c r="AR50" s="16">
         <v>9.4201676253653582E-2</v>
       </c>
-      <c r="AS50" s="20">
+      <c r="AS50" s="16">
         <v>8.620059030379669E-2</v>
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
+      <c r="A51" s="17"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
@@ -3142,14 +3178,14 @@
       <c r="J51" s="8">
         <v>115.449259</v>
       </c>
-      <c r="K51" s="14"/>
-      <c r="L51" s="15"/>
-      <c r="M51" s="14"/>
-      <c r="N51" s="15"/>
-      <c r="O51" s="14"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="15"/>
+      <c r="K51" s="18"/>
+      <c r="L51" s="19"/>
+      <c r="M51" s="18"/>
+      <c r="N51" s="19"/>
+      <c r="O51" s="18"/>
+      <c r="P51" s="19"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="19"/>
       <c r="AN51" s="11">
         <v>115.449259</v>
       </c>
@@ -3163,12 +3199,10 @@
         <f t="shared" si="0"/>
         <v>-4.8165538964069068E-2</v>
       </c>
-      <c r="AV51" s="17" t="s">
-        <v>47</v>
-      </c>
+      <c r="AV51" s="13"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="17" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
@@ -3180,28 +3214,28 @@
       <c r="J52" s="8">
         <v>32.667169999999999</v>
       </c>
-      <c r="K52" s="14">
+      <c r="K52" s="18">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="19">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="14">
+      <c r="M52" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="14">
+      <c r="N52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="18">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="15" t="s">
+      <c r="P52" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN52" s="11">
@@ -3217,15 +3251,15 @@
         <f t="shared" si="0"/>
         <v>-4.1398894036765728E-2</v>
       </c>
-      <c r="AR52" s="20">
+      <c r="AR52" s="16">
         <v>6.9684492109871168E-2</v>
       </c>
-      <c r="AS52" s="20">
+      <c r="AS52" s="16">
         <v>6.2987731738569364E-2</v>
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="13"/>
+      <c r="A53" s="17"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
@@ -3235,14 +3269,14 @@
       <c r="J53" s="8">
         <v>65.318888000000001</v>
       </c>
-      <c r="K53" s="14"/>
-      <c r="L53" s="15"/>
-      <c r="M53" s="14"/>
-      <c r="N53" s="15"/>
-      <c r="O53" s="14"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="13"/>
-      <c r="R53" s="15"/>
+      <c r="K53" s="18"/>
+      <c r="L53" s="19"/>
+      <c r="M53" s="18"/>
+      <c r="N53" s="19"/>
+      <c r="O53" s="18"/>
+      <c r="P53" s="19"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="19"/>
       <c r="AN53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -3256,15 +3290,15 @@
         <f t="shared" si="0"/>
         <v>-0.11959242045048263</v>
       </c>
-      <c r="AR53" s="20">
+      <c r="AR53" s="16">
         <v>5.4501220071836332E-2</v>
       </c>
-      <c r="AS53" s="20">
+      <c r="AS53" s="16">
         <v>4.8776938486307993E-2</v>
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A54" s="13"/>
+      <c r="A54" s="17"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
@@ -3274,14 +3308,14 @@
       <c r="J54" s="8">
         <v>130.456557</v>
       </c>
-      <c r="K54" s="14"/>
-      <c r="L54" s="15"/>
-      <c r="M54" s="14"/>
-      <c r="N54" s="15"/>
-      <c r="O54" s="14"/>
-      <c r="P54" s="15"/>
-      <c r="Q54" s="13"/>
-      <c r="R54" s="15"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="19"/>
+      <c r="M54" s="18"/>
+      <c r="N54" s="19"/>
+      <c r="O54" s="18"/>
+      <c r="P54" s="19"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="19"/>
       <c r="AN54" s="11">
         <v>130.456557</v>
       </c>
@@ -3295,15 +3329,15 @@
         <f t="shared" si="0"/>
         <v>-0.23050907014538585</v>
       </c>
-      <c r="AR54" s="20">
+      <c r="AR54" s="16">
         <v>3.6751807155286573E-2</v>
       </c>
-      <c r="AS54" s="20">
+      <c r="AS54" s="16">
         <v>4.3658381259155027E-2</v>
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="13"/>
+      <c r="A55" s="17"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
@@ -3313,14 +3347,14 @@
       <c r="J55" s="8">
         <v>323.3809</v>
       </c>
-      <c r="K55" s="14"/>
-      <c r="L55" s="15"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="15"/>
-      <c r="O55" s="14"/>
-      <c r="P55" s="15"/>
-      <c r="Q55" s="13"/>
-      <c r="R55" s="15"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="19"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="19"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="19"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="19"/>
       <c r="AN55" s="11">
         <v>323.3809</v>
       </c>
@@ -3341,7 +3375,7 @@
       <c r="AQ56" s="12"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="17" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
@@ -3350,28 +3384,28 @@
       <c r="I57" s="6">
         <v>2.2509999999999999E-2</v>
       </c>
-      <c r="K57" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="14">
+      <c r="K57" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L57" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M57" s="18">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="14">
+      <c r="N57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="18">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="15" t="s">
+      <c r="P57" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN57" s="11">
@@ -3389,21 +3423,21 @@
       </c>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="13"/>
+      <c r="A58" s="17"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
       <c r="I58" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K58" s="14"/>
-      <c r="L58" s="16"/>
-      <c r="M58" s="14"/>
-      <c r="N58" s="15"/>
-      <c r="O58" s="14"/>
-      <c r="P58" s="15"/>
-      <c r="Q58" s="13"/>
-      <c r="R58" s="15"/>
+      <c r="K58" s="18"/>
+      <c r="L58" s="20"/>
+      <c r="M58" s="18"/>
+      <c r="N58" s="19"/>
+      <c r="O58" s="18"/>
+      <c r="P58" s="19"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="19"/>
       <c r="AN58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3419,21 +3453,21 @@
       </c>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
+      <c r="A59" s="17"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
       <c r="I59" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K59" s="14"/>
-      <c r="L59" s="16"/>
-      <c r="M59" s="14"/>
-      <c r="N59" s="15"/>
-      <c r="O59" s="14"/>
-      <c r="P59" s="15"/>
-      <c r="Q59" s="13"/>
-      <c r="R59" s="15"/>
+      <c r="K59" s="18"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="18"/>
+      <c r="N59" s="19"/>
+      <c r="O59" s="18"/>
+      <c r="P59" s="19"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="19"/>
       <c r="AN59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3449,21 +3483,21 @@
       </c>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="13"/>
+      <c r="A60" s="17"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
       <c r="I60" s="6">
         <v>1.5617000000000001E-2</v>
       </c>
-      <c r="K60" s="14"/>
-      <c r="L60" s="16"/>
-      <c r="M60" s="14"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="14"/>
-      <c r="P60" s="15"/>
-      <c r="Q60" s="13"/>
-      <c r="R60" s="15"/>
+      <c r="K60" s="18"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="19"/>
       <c r="AN60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3479,7 +3513,7 @@
       </c>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
@@ -3488,28 +3522,28 @@
       <c r="I61" s="6">
         <v>0.13607</v>
       </c>
-      <c r="K61" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M61" s="14">
+      <c r="K61" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L61" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M61" s="18">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="14">
+      <c r="N61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="18">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="15" t="s">
+      <c r="P61" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN61" s="11">
@@ -3527,21 +3561,21 @@
       </c>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="13"/>
+      <c r="A62" s="17"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
       <c r="I62" s="6">
         <v>0.116073</v>
       </c>
-      <c r="K62" s="14"/>
-      <c r="L62" s="16"/>
-      <c r="M62" s="14"/>
-      <c r="N62" s="15"/>
-      <c r="O62" s="14"/>
-      <c r="P62" s="15"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="15"/>
+      <c r="K62" s="18"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="18"/>
+      <c r="N62" s="19"/>
+      <c r="O62" s="18"/>
+      <c r="P62" s="19"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="19"/>
       <c r="AN62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3557,21 +3591,21 @@
       </c>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A63" s="13"/>
+      <c r="A63" s="17"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
       <c r="I63" s="6">
         <v>0.10845100000000001</v>
       </c>
-      <c r="K63" s="14"/>
-      <c r="L63" s="16"/>
-      <c r="M63" s="14"/>
-      <c r="N63" s="15"/>
-      <c r="O63" s="14"/>
-      <c r="P63" s="15"/>
-      <c r="Q63" s="13"/>
-      <c r="R63" s="15"/>
+      <c r="K63" s="18"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="19"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="19"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="19"/>
       <c r="AN63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3587,21 +3621,21 @@
       </c>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A64" s="13"/>
+      <c r="A64" s="17"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
       <c r="I64" s="6">
         <v>9.4404000000000002E-2</v>
       </c>
-      <c r="K64" s="14"/>
-      <c r="L64" s="16"/>
-      <c r="M64" s="14"/>
-      <c r="N64" s="15"/>
-      <c r="O64" s="14"/>
-      <c r="P64" s="15"/>
-      <c r="Q64" s="13"/>
-      <c r="R64" s="15"/>
+      <c r="K64" s="18"/>
+      <c r="L64" s="20"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="19"/>
       <c r="AN64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3623,7 +3657,7 @@
       <c r="AQ65" s="12"/>
     </row>
     <row r="66" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
@@ -3632,28 +3666,28 @@
       <c r="I66" s="6">
         <v>8.3298999999999998E-2</v>
       </c>
-      <c r="K66" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="14">
+      <c r="K66" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L66" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M66" s="18">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="14">
+      <c r="N66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="18">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="15" t="s">
+      <c r="P66" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN66" s="11">
@@ -3671,21 +3705,21 @@
       </c>
     </row>
     <row r="67" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="17"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
       <c r="I67" s="6">
         <v>7.2553000000000006E-2</v>
       </c>
-      <c r="K67" s="14"/>
-      <c r="L67" s="16"/>
-      <c r="M67" s="14"/>
-      <c r="N67" s="15"/>
-      <c r="O67" s="14"/>
-      <c r="P67" s="15"/>
-      <c r="Q67" s="13"/>
-      <c r="R67" s="15"/>
+      <c r="K67" s="18"/>
+      <c r="L67" s="20"/>
+      <c r="M67" s="18"/>
+      <c r="N67" s="19"/>
+      <c r="O67" s="18"/>
+      <c r="P67" s="19"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="19"/>
       <c r="AN67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3701,21 +3735,21 @@
       </c>
     </row>
     <row r="68" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="A68" s="17"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
       <c r="I68" s="6">
         <v>6.1851999999999997E-2</v>
       </c>
-      <c r="K68" s="14"/>
-      <c r="L68" s="16"/>
-      <c r="M68" s="14"/>
-      <c r="N68" s="15"/>
-      <c r="O68" s="14"/>
-      <c r="P68" s="15"/>
-      <c r="Q68" s="13"/>
-      <c r="R68" s="15"/>
+      <c r="K68" s="18"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="18"/>
+      <c r="N68" s="19"/>
+      <c r="O68" s="18"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="19"/>
       <c r="AN68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3731,21 +3765,21 @@
       </c>
     </row>
     <row r="69" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A69" s="13"/>
+      <c r="A69" s="17"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
       <c r="I69" s="6">
         <v>4.7836999999999998E-2</v>
       </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="16"/>
-      <c r="M69" s="14"/>
-      <c r="N69" s="15"/>
-      <c r="O69" s="14"/>
-      <c r="P69" s="15"/>
-      <c r="Q69" s="13"/>
-      <c r="R69" s="15"/>
+      <c r="K69" s="18"/>
+      <c r="L69" s="20"/>
+      <c r="M69" s="18"/>
+      <c r="N69" s="19"/>
+      <c r="O69" s="18"/>
+      <c r="P69" s="19"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="19"/>
       <c r="AN69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3767,7 +3801,7 @@
       <c r="AQ70" s="12"/>
     </row>
     <row r="71" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="17" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
@@ -3776,28 +3810,28 @@
       <c r="I71" s="6">
         <v>0.13461799999999999</v>
       </c>
-      <c r="K71" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="14">
+      <c r="K71" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L71" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M71" s="18">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="14">
+      <c r="N71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="18">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="15" t="s">
+      <c r="P71" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN71" s="11">
@@ -3815,21 +3849,21 @@
       </c>
     </row>
     <row r="72" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A72" s="13"/>
+      <c r="A72" s="17"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
       <c r="I72" s="6">
         <v>0.117969</v>
       </c>
-      <c r="K72" s="14"/>
-      <c r="L72" s="16"/>
-      <c r="M72" s="14"/>
-      <c r="N72" s="15"/>
-      <c r="O72" s="14"/>
-      <c r="P72" s="15"/>
-      <c r="Q72" s="13"/>
-      <c r="R72" s="15"/>
+      <c r="K72" s="18"/>
+      <c r="L72" s="20"/>
+      <c r="M72" s="18"/>
+      <c r="N72" s="19"/>
+      <c r="O72" s="18"/>
+      <c r="P72" s="19"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="19"/>
       <c r="AN72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3845,21 +3879,21 @@
       </c>
     </row>
     <row r="73" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A73" s="13"/>
+      <c r="A73" s="17"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
       <c r="I73" s="6">
         <v>9.9063999999999999E-2</v>
       </c>
-      <c r="K73" s="14"/>
-      <c r="L73" s="16"/>
-      <c r="M73" s="14"/>
-      <c r="N73" s="15"/>
-      <c r="O73" s="14"/>
-      <c r="P73" s="15"/>
-      <c r="Q73" s="13"/>
-      <c r="R73" s="15"/>
+      <c r="K73" s="18"/>
+      <c r="L73" s="20"/>
+      <c r="M73" s="18"/>
+      <c r="N73" s="19"/>
+      <c r="O73" s="18"/>
+      <c r="P73" s="19"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="19"/>
       <c r="AN73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3875,21 +3909,21 @@
       </c>
     </row>
     <row r="74" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A74" s="13"/>
+      <c r="A74" s="17"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
       <c r="I74" s="6">
         <v>8.8543999999999998E-2</v>
       </c>
-      <c r="K74" s="14"/>
-      <c r="L74" s="16"/>
-      <c r="M74" s="14"/>
-      <c r="N74" s="15"/>
-      <c r="O74" s="14"/>
-      <c r="P74" s="15"/>
-      <c r="Q74" s="13"/>
-      <c r="R74" s="15"/>
+      <c r="K74" s="18"/>
+      <c r="L74" s="20"/>
+      <c r="M74" s="18"/>
+      <c r="N74" s="19"/>
+      <c r="O74" s="18"/>
+      <c r="P74" s="19"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="19"/>
       <c r="AN74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3911,7 +3945,7 @@
       <c r="AQ75" s="12"/>
     </row>
     <row r="76" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
@@ -3920,28 +3954,28 @@
       <c r="I76" s="6">
         <v>0.29073399999999999</v>
       </c>
-      <c r="K76" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="14">
+      <c r="K76" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L76" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M76" s="18">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="14">
+      <c r="N76" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="18">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="15" t="s">
+      <c r="P76" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN76" s="11">
@@ -3959,21 +3993,21 @@
       </c>
     </row>
     <row r="77" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A77" s="13"/>
+      <c r="A77" s="17"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
       <c r="I77" s="6">
         <v>0.27129799999999998</v>
       </c>
-      <c r="K77" s="14"/>
-      <c r="L77" s="16"/>
-      <c r="M77" s="14"/>
-      <c r="N77" s="15"/>
-      <c r="O77" s="14"/>
-      <c r="P77" s="15"/>
-      <c r="Q77" s="13"/>
-      <c r="R77" s="15"/>
+      <c r="K77" s="18"/>
+      <c r="L77" s="20"/>
+      <c r="M77" s="18"/>
+      <c r="N77" s="19"/>
+      <c r="O77" s="18"/>
+      <c r="P77" s="19"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="19"/>
       <c r="AN77" s="11">
         <v>11.555717</v>
       </c>
@@ -3989,21 +4023,21 @@
       </c>
     </row>
     <row r="78" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+      <c r="A78" s="17"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
       <c r="I78" s="6">
         <v>0.238071</v>
       </c>
-      <c r="K78" s="14"/>
-      <c r="L78" s="16"/>
-      <c r="M78" s="14"/>
-      <c r="N78" s="15"/>
-      <c r="O78" s="14"/>
-      <c r="P78" s="15"/>
-      <c r="Q78" s="13"/>
-      <c r="R78" s="15"/>
+      <c r="K78" s="18"/>
+      <c r="L78" s="20"/>
+      <c r="M78" s="18"/>
+      <c r="N78" s="19"/>
+      <c r="O78" s="18"/>
+      <c r="P78" s="19"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="19"/>
       <c r="AN78" s="11">
         <v>23.124298</v>
       </c>
@@ -4019,21 +4053,21 @@
       </c>
     </row>
     <row r="79" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
+      <c r="A79" s="17"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
       <c r="I79" s="6">
         <v>0.18349199999999999</v>
       </c>
-      <c r="K79" s="14"/>
-      <c r="L79" s="16"/>
-      <c r="M79" s="14"/>
-      <c r="N79" s="15"/>
-      <c r="O79" s="14"/>
-      <c r="P79" s="15"/>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="15"/>
+      <c r="K79" s="18"/>
+      <c r="L79" s="20"/>
+      <c r="M79" s="18"/>
+      <c r="N79" s="19"/>
+      <c r="O79" s="18"/>
+      <c r="P79" s="19"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="19"/>
       <c r="AN79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -4049,7 +4083,7 @@
       </c>
     </row>
     <row r="80" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="17" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
@@ -4058,28 +4092,28 @@
       <c r="I80" s="6">
         <v>0.276924</v>
       </c>
-      <c r="K80" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="14">
+      <c r="K80" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L80" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M80" s="18">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="14">
+      <c r="N80" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="18">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="15" t="s">
+      <c r="P80" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN80" s="11">
@@ -4097,21 +4131,21 @@
       </c>
     </row>
     <row r="81" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
+      <c r="A81" s="17"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
       <c r="I81" s="6">
         <v>0.24307999999999999</v>
       </c>
-      <c r="K81" s="14"/>
-      <c r="L81" s="16"/>
-      <c r="M81" s="14"/>
-      <c r="N81" s="15"/>
-      <c r="O81" s="14"/>
-      <c r="P81" s="15"/>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="15"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="20"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="19"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="19"/>
+      <c r="Q81" s="17"/>
+      <c r="R81" s="19"/>
       <c r="AN81" s="11">
         <v>14.007052</v>
       </c>
@@ -4127,21 +4161,21 @@
       </c>
     </row>
     <row r="82" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
+      <c r="A82" s="17"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
       <c r="I82" s="6">
         <v>0.21668599999999999</v>
       </c>
-      <c r="K82" s="14"/>
-      <c r="L82" s="16"/>
-      <c r="M82" s="14"/>
-      <c r="N82" s="15"/>
-      <c r="O82" s="14"/>
-      <c r="P82" s="15"/>
-      <c r="Q82" s="13"/>
-      <c r="R82" s="15"/>
+      <c r="K82" s="18"/>
+      <c r="L82" s="20"/>
+      <c r="M82" s="18"/>
+      <c r="N82" s="19"/>
+      <c r="O82" s="18"/>
+      <c r="P82" s="19"/>
+      <c r="Q82" s="17"/>
+      <c r="R82" s="19"/>
       <c r="AN82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -4157,21 +4191,21 @@
       </c>
     </row>
     <row r="83" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
+      <c r="A83" s="17"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
       <c r="I83" s="6">
         <v>0.18281800000000001</v>
       </c>
-      <c r="K83" s="14"/>
-      <c r="L83" s="16"/>
-      <c r="M83" s="14"/>
-      <c r="N83" s="15"/>
-      <c r="O83" s="14"/>
-      <c r="P83" s="15"/>
-      <c r="Q83" s="13"/>
-      <c r="R83" s="15"/>
+      <c r="K83" s="18"/>
+      <c r="L83" s="20"/>
+      <c r="M83" s="18"/>
+      <c r="N83" s="19"/>
+      <c r="O83" s="18"/>
+      <c r="P83" s="19"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="19"/>
       <c r="AN83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -4187,7 +4221,7 @@
       </c>
     </row>
     <row r="84" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="17" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
@@ -4196,28 +4230,28 @@
       <c r="I84" s="6">
         <v>0.21903600000000001</v>
       </c>
-      <c r="K84" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M84" s="14">
+      <c r="K84" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L84" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M84" s="18">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="14">
+      <c r="N84" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="18">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="15" t="s">
+      <c r="P84" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN84" s="11">
@@ -4235,21 +4269,21 @@
       </c>
     </row>
     <row r="85" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="A85" s="17"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
       <c r="I85" s="6">
         <v>0.206872</v>
       </c>
-      <c r="K85" s="14"/>
-      <c r="L85" s="16"/>
-      <c r="M85" s="14"/>
-      <c r="N85" s="15"/>
-      <c r="O85" s="14"/>
-      <c r="P85" s="15"/>
-      <c r="Q85" s="13"/>
-      <c r="R85" s="15"/>
+      <c r="K85" s="18"/>
+      <c r="L85" s="20"/>
+      <c r="M85" s="18"/>
+      <c r="N85" s="19"/>
+      <c r="O85" s="18"/>
+      <c r="P85" s="19"/>
+      <c r="Q85" s="17"/>
+      <c r="R85" s="19"/>
       <c r="AN85" s="11">
         <v>14.86237</v>
       </c>
@@ -4265,21 +4299,21 @@
       </c>
     </row>
     <row r="86" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
+      <c r="A86" s="17"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
       <c r="I86" s="6">
         <v>0.19339200000000001</v>
       </c>
-      <c r="K86" s="14"/>
-      <c r="L86" s="16"/>
-      <c r="M86" s="14"/>
-      <c r="N86" s="15"/>
-      <c r="O86" s="14"/>
-      <c r="P86" s="15"/>
-      <c r="Q86" s="13"/>
-      <c r="R86" s="15"/>
+      <c r="K86" s="18"/>
+      <c r="L86" s="20"/>
+      <c r="M86" s="18"/>
+      <c r="N86" s="19"/>
+      <c r="O86" s="18"/>
+      <c r="P86" s="19"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="19"/>
       <c r="AN86" s="11">
         <v>29.561377</v>
       </c>
@@ -4295,21 +4329,21 @@
       </c>
     </row>
     <row r="87" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="A87" s="17"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
       <c r="I87" s="6">
         <v>0.18232999999999999</v>
       </c>
-      <c r="K87" s="14"/>
-      <c r="L87" s="16"/>
-      <c r="M87" s="14"/>
-      <c r="N87" s="15"/>
-      <c r="O87" s="14"/>
-      <c r="P87" s="15"/>
-      <c r="Q87" s="13"/>
-      <c r="R87" s="15"/>
+      <c r="K87" s="18"/>
+      <c r="L87" s="20"/>
+      <c r="M87" s="18"/>
+      <c r="N87" s="19"/>
+      <c r="O87" s="18"/>
+      <c r="P87" s="19"/>
+      <c r="Q87" s="17"/>
+      <c r="R87" s="19"/>
       <c r="AN87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -4331,7 +4365,7 @@
       <c r="AQ88" s="12"/>
     </row>
     <row r="89" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="17" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
@@ -4340,28 +4374,28 @@
       <c r="I89" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K89" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="14">
+      <c r="K89" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L89" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M89" s="18">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="14">
+      <c r="N89" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="18">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="15" t="s">
+      <c r="P89" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN89" s="11">
@@ -4379,21 +4413,21 @@
       </c>
     </row>
     <row r="90" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
+      <c r="A90" s="17"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
       <c r="I90" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K90" s="14"/>
-      <c r="L90" s="16"/>
-      <c r="M90" s="14"/>
-      <c r="N90" s="15"/>
-      <c r="O90" s="14"/>
-      <c r="P90" s="15"/>
-      <c r="Q90" s="13"/>
-      <c r="R90" s="15"/>
+      <c r="K90" s="18"/>
+      <c r="L90" s="20"/>
+      <c r="M90" s="18"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="18"/>
+      <c r="P90" s="19"/>
+      <c r="Q90" s="17"/>
+      <c r="R90" s="19"/>
       <c r="AN90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4409,21 +4443,21 @@
       </c>
     </row>
     <row r="91" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
+      <c r="A91" s="17"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
       <c r="I91" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K91" s="14"/>
-      <c r="L91" s="16"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="15"/>
-      <c r="O91" s="14"/>
-      <c r="P91" s="15"/>
-      <c r="Q91" s="13"/>
-      <c r="R91" s="15"/>
+      <c r="K91" s="18"/>
+      <c r="L91" s="20"/>
+      <c r="M91" s="18"/>
+      <c r="N91" s="19"/>
+      <c r="O91" s="18"/>
+      <c r="P91" s="19"/>
+      <c r="Q91" s="17"/>
+      <c r="R91" s="19"/>
       <c r="AN91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4439,21 +4473,21 @@
       </c>
     </row>
     <row r="92" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
+      <c r="A92" s="17"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
       <c r="I92" s="6">
         <v>2.4570000000000002E-2</v>
       </c>
-      <c r="K92" s="14"/>
-      <c r="L92" s="16"/>
-      <c r="M92" s="14"/>
-      <c r="N92" s="15"/>
-      <c r="O92" s="14"/>
-      <c r="P92" s="15"/>
-      <c r="Q92" s="13"/>
-      <c r="R92" s="15"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="20"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="19"/>
+      <c r="O92" s="18"/>
+      <c r="P92" s="19"/>
+      <c r="Q92" s="17"/>
+      <c r="R92" s="19"/>
       <c r="AN92" s="11">
         <v>27.119754</v>
       </c>
@@ -4469,7 +4503,7 @@
       </c>
     </row>
     <row r="93" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="17" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
@@ -4478,28 +4512,28 @@
       <c r="I93" s="6">
         <v>1.0429000000000001E-2</v>
       </c>
-      <c r="K93" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="14">
+      <c r="K93" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L93" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M93" s="18">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="14">
+      <c r="N93" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="18">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="15" t="s">
+      <c r="P93" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN93" s="11">
@@ -4514,21 +4548,21 @@
       <c r="AQ93" s="12"/>
     </row>
     <row r="94" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
+      <c r="A94" s="17"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
       <c r="I94" s="6">
         <v>0</v>
       </c>
-      <c r="K94" s="14"/>
-      <c r="L94" s="16"/>
-      <c r="M94" s="14"/>
-      <c r="N94" s="15"/>
-      <c r="O94" s="14"/>
-      <c r="P94" s="15"/>
-      <c r="Q94" s="13"/>
-      <c r="R94" s="15"/>
+      <c r="K94" s="18"/>
+      <c r="L94" s="20"/>
+      <c r="M94" s="18"/>
+      <c r="N94" s="19"/>
+      <c r="O94" s="18"/>
+      <c r="P94" s="19"/>
+      <c r="Q94" s="17"/>
+      <c r="R94" s="19"/>
       <c r="AN94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4541,21 +4575,21 @@
       <c r="AQ94" s="12"/>
     </row>
     <row r="95" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A95" s="13"/>
+      <c r="A95" s="17"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
       <c r="I95" s="6">
         <v>0</v>
       </c>
-      <c r="K95" s="14"/>
-      <c r="L95" s="16"/>
-      <c r="M95" s="14"/>
-      <c r="N95" s="15"/>
-      <c r="O95" s="14"/>
-      <c r="P95" s="15"/>
-      <c r="Q95" s="13"/>
-      <c r="R95" s="15"/>
+      <c r="K95" s="18"/>
+      <c r="L95" s="20"/>
+      <c r="M95" s="18"/>
+      <c r="N95" s="19"/>
+      <c r="O95" s="18"/>
+      <c r="P95" s="19"/>
+      <c r="Q95" s="17"/>
+      <c r="R95" s="19"/>
       <c r="AN95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4568,21 +4602,21 @@
       <c r="AQ95" s="12"/>
     </row>
     <row r="96" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
+      <c r="A96" s="17"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
       <c r="I96" s="6">
         <v>0</v>
       </c>
-      <c r="K96" s="14"/>
-      <c r="L96" s="16"/>
-      <c r="M96" s="14"/>
-      <c r="N96" s="15"/>
-      <c r="O96" s="14"/>
-      <c r="P96" s="15"/>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="15"/>
+      <c r="K96" s="18"/>
+      <c r="L96" s="20"/>
+      <c r="M96" s="18"/>
+      <c r="N96" s="19"/>
+      <c r="O96" s="18"/>
+      <c r="P96" s="19"/>
+      <c r="Q96" s="17"/>
+      <c r="R96" s="19"/>
       <c r="AN96" s="11">
         <v>31.354782</v>
       </c>
@@ -4595,7 +4629,7 @@
       <c r="AQ96" s="12"/>
     </row>
     <row r="97" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="17" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
@@ -4604,28 +4638,28 @@
       <c r="I97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="14">
+      <c r="K97" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M97" s="18">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="14">
+      <c r="N97" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="18">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="15" t="s">
+      <c r="P97" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN97" s="11">
@@ -4640,21 +4674,21 @@
       <c r="AQ97" s="12"/>
     </row>
     <row r="98" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
+      <c r="A98" s="17"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
       <c r="I98" s="6">
         <v>0</v>
       </c>
-      <c r="K98" s="14"/>
-      <c r="L98" s="16"/>
-      <c r="M98" s="14"/>
-      <c r="N98" s="15"/>
-      <c r="O98" s="14"/>
-      <c r="P98" s="15"/>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="15"/>
+      <c r="K98" s="18"/>
+      <c r="L98" s="20"/>
+      <c r="M98" s="18"/>
+      <c r="N98" s="19"/>
+      <c r="O98" s="18"/>
+      <c r="P98" s="19"/>
+      <c r="Q98" s="17"/>
+      <c r="R98" s="19"/>
       <c r="AN98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4667,21 +4701,21 @@
       <c r="AQ98" s="12"/>
     </row>
     <row r="99" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
+      <c r="A99" s="17"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
       <c r="I99" s="6">
         <v>0</v>
       </c>
-      <c r="K99" s="14"/>
-      <c r="L99" s="16"/>
-      <c r="M99" s="14"/>
-      <c r="N99" s="15"/>
-      <c r="O99" s="14"/>
-      <c r="P99" s="15"/>
-      <c r="Q99" s="13"/>
-      <c r="R99" s="15"/>
+      <c r="K99" s="18"/>
+      <c r="L99" s="20"/>
+      <c r="M99" s="18"/>
+      <c r="N99" s="19"/>
+      <c r="O99" s="18"/>
+      <c r="P99" s="19"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="19"/>
       <c r="AN99" s="11">
         <v>14.859114</v>
       </c>
@@ -4694,21 +4728,21 @@
       <c r="AQ99" s="12"/>
     </row>
     <row r="100" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A100" s="13"/>
+      <c r="A100" s="17"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
       <c r="I100" s="6">
         <v>0</v>
       </c>
-      <c r="K100" s="14"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="14"/>
-      <c r="N100" s="15"/>
-      <c r="O100" s="14"/>
-      <c r="P100" s="15"/>
-      <c r="Q100" s="13"/>
-      <c r="R100" s="15"/>
+      <c r="K100" s="18"/>
+      <c r="L100" s="20"/>
+      <c r="M100" s="18"/>
+      <c r="N100" s="19"/>
+      <c r="O100" s="18"/>
+      <c r="P100" s="19"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="19"/>
       <c r="AN100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4721,7 +4755,7 @@
       <c r="AQ100" s="12"/>
     </row>
     <row r="101" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="17" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
@@ -4730,28 +4764,28 @@
       <c r="I101" s="6">
         <v>4.2403000000000003E-2</v>
       </c>
-      <c r="K101" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="14">
+      <c r="K101" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L101" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M101" s="18">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="14">
+      <c r="N101" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="18">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="15" t="s">
+      <c r="P101" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN101" s="11">
@@ -4769,21 +4803,21 @@
       </c>
     </row>
     <row r="102" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A102" s="13"/>
+      <c r="A102" s="17"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
       <c r="I102" s="6">
         <v>3.7478999999999998E-2</v>
       </c>
-      <c r="K102" s="14"/>
-      <c r="L102" s="16"/>
-      <c r="M102" s="14"/>
-      <c r="N102" s="15"/>
-      <c r="O102" s="14"/>
-      <c r="P102" s="15"/>
-      <c r="Q102" s="13"/>
-      <c r="R102" s="15"/>
+      <c r="K102" s="18"/>
+      <c r="L102" s="20"/>
+      <c r="M102" s="18"/>
+      <c r="N102" s="19"/>
+      <c r="O102" s="18"/>
+      <c r="P102" s="19"/>
+      <c r="Q102" s="17"/>
+      <c r="R102" s="19"/>
       <c r="AN102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4799,21 +4833,21 @@
       </c>
     </row>
     <row r="103" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A103" s="13"/>
+      <c r="A103" s="17"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
       <c r="I103" s="6">
         <v>2.9395000000000001E-2</v>
       </c>
-      <c r="K103" s="14"/>
-      <c r="L103" s="16"/>
-      <c r="M103" s="14"/>
-      <c r="N103" s="15"/>
-      <c r="O103" s="14"/>
-      <c r="P103" s="15"/>
-      <c r="Q103" s="13"/>
-      <c r="R103" s="15"/>
+      <c r="K103" s="18"/>
+      <c r="L103" s="20"/>
+      <c r="M103" s="18"/>
+      <c r="N103" s="19"/>
+      <c r="O103" s="18"/>
+      <c r="P103" s="19"/>
+      <c r="Q103" s="17"/>
+      <c r="R103" s="19"/>
       <c r="AN103" s="11">
         <v>14.081699</v>
       </c>
@@ -4829,21 +4863,21 @@
       </c>
     </row>
     <row r="104" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A104" s="13"/>
+      <c r="A104" s="17"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
       <c r="I104" s="6">
         <v>1.7829000000000001E-2</v>
       </c>
-      <c r="K104" s="14"/>
-      <c r="L104" s="16"/>
-      <c r="M104" s="14"/>
-      <c r="N104" s="15"/>
-      <c r="O104" s="14"/>
-      <c r="P104" s="15"/>
-      <c r="Q104" s="13"/>
-      <c r="R104" s="15"/>
+      <c r="K104" s="18"/>
+      <c r="L104" s="20"/>
+      <c r="M104" s="18"/>
+      <c r="N104" s="19"/>
+      <c r="O104" s="18"/>
+      <c r="P104" s="19"/>
+      <c r="Q104" s="17"/>
+      <c r="R104" s="19"/>
       <c r="AN104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4859,7 +4893,7 @@
       </c>
     </row>
     <row r="105" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="17" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
@@ -4868,28 +4902,28 @@
       <c r="I105" s="6">
         <v>4.8120999999999997E-2</v>
       </c>
-      <c r="K105" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M105" s="14">
+      <c r="K105" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L105" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M105" s="18">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="14">
+      <c r="N105" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="18">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="15" t="s">
+      <c r="P105" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN105" s="11">
@@ -4907,21 +4941,21 @@
       </c>
     </row>
     <row r="106" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A106" s="13"/>
+      <c r="A106" s="17"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
       <c r="I106" s="6">
         <v>4.1047E-2</v>
       </c>
-      <c r="K106" s="14"/>
-      <c r="L106" s="16"/>
-      <c r="M106" s="14"/>
-      <c r="N106" s="15"/>
-      <c r="O106" s="14"/>
-      <c r="P106" s="15"/>
-      <c r="Q106" s="13"/>
-      <c r="R106" s="15"/>
+      <c r="K106" s="18"/>
+      <c r="L106" s="20"/>
+      <c r="M106" s="18"/>
+      <c r="N106" s="19"/>
+      <c r="O106" s="18"/>
+      <c r="P106" s="19"/>
+      <c r="Q106" s="17"/>
+      <c r="R106" s="19"/>
       <c r="AN106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4937,21 +4971,21 @@
       </c>
     </row>
     <row r="107" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A107" s="13"/>
+      <c r="A107" s="17"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
       <c r="I107" s="6">
         <v>0.04</v>
       </c>
-      <c r="K107" s="14"/>
-      <c r="L107" s="16"/>
-      <c r="M107" s="14"/>
-      <c r="N107" s="15"/>
-      <c r="O107" s="14"/>
-      <c r="P107" s="15"/>
-      <c r="Q107" s="13"/>
-      <c r="R107" s="15"/>
+      <c r="K107" s="18"/>
+      <c r="L107" s="20"/>
+      <c r="M107" s="18"/>
+      <c r="N107" s="19"/>
+      <c r="O107" s="18"/>
+      <c r="P107" s="19"/>
+      <c r="Q107" s="17"/>
+      <c r="R107" s="19"/>
       <c r="AN107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4967,21 +5001,21 @@
       </c>
     </row>
     <row r="108" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A108" s="13"/>
+      <c r="A108" s="17"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
       <c r="I108" s="6">
         <v>3.0512000000000001E-2</v>
       </c>
-      <c r="K108" s="14"/>
-      <c r="L108" s="16"/>
-      <c r="M108" s="14"/>
-      <c r="N108" s="15"/>
-      <c r="O108" s="14"/>
-      <c r="P108" s="15"/>
-      <c r="Q108" s="13"/>
-      <c r="R108" s="15"/>
+      <c r="K108" s="18"/>
+      <c r="L108" s="20"/>
+      <c r="M108" s="18"/>
+      <c r="N108" s="19"/>
+      <c r="O108" s="18"/>
+      <c r="P108" s="19"/>
+      <c r="Q108" s="17"/>
+      <c r="R108" s="19"/>
       <c r="AN108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4997,7 +5031,7 @@
       </c>
     </row>
     <row r="109" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="17" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
@@ -5006,28 +5040,28 @@
       <c r="I109" s="6">
         <v>7.2281999999999999E-2</v>
       </c>
-      <c r="K109" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M109" s="14">
+      <c r="K109" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M109" s="18">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="14">
+      <c r="N109" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="18">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="15" t="s">
+      <c r="P109" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN109" s="11">
@@ -5045,21 +5079,21 @@
       </c>
     </row>
     <row r="110" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A110" s="13"/>
+      <c r="A110" s="17"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
       <c r="I110" s="6">
         <v>6.0512999999999997E-2</v>
       </c>
-      <c r="K110" s="14"/>
-      <c r="L110" s="16"/>
-      <c r="M110" s="14"/>
-      <c r="N110" s="15"/>
-      <c r="O110" s="14"/>
-      <c r="P110" s="15"/>
-      <c r="Q110" s="13"/>
-      <c r="R110" s="15"/>
+      <c r="K110" s="18"/>
+      <c r="L110" s="20"/>
+      <c r="M110" s="18"/>
+      <c r="N110" s="19"/>
+      <c r="O110" s="18"/>
+      <c r="P110" s="19"/>
+      <c r="Q110" s="17"/>
+      <c r="R110" s="19"/>
       <c r="AN110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -5075,21 +5109,21 @@
       </c>
     </row>
     <row r="111" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A111" s="13"/>
+      <c r="A111" s="17"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
       <c r="I111" s="6">
         <v>5.5724999999999997E-2</v>
       </c>
-      <c r="K111" s="14"/>
-      <c r="L111" s="16"/>
-      <c r="M111" s="14"/>
-      <c r="N111" s="15"/>
-      <c r="O111" s="14"/>
-      <c r="P111" s="15"/>
-      <c r="Q111" s="13"/>
-      <c r="R111" s="15"/>
+      <c r="K111" s="18"/>
+      <c r="L111" s="20"/>
+      <c r="M111" s="18"/>
+      <c r="N111" s="19"/>
+      <c r="O111" s="18"/>
+      <c r="P111" s="19"/>
+      <c r="Q111" s="17"/>
+      <c r="R111" s="19"/>
       <c r="AN111" s="11">
         <v>19.316754</v>
       </c>
@@ -5105,21 +5139,21 @@
       </c>
     </row>
     <row r="112" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A112" s="13"/>
+      <c r="A112" s="17"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
       <c r="I112" s="6">
         <v>4.1868000000000002E-2</v>
       </c>
-      <c r="K112" s="14"/>
-      <c r="L112" s="16"/>
-      <c r="M112" s="14"/>
-      <c r="N112" s="15"/>
-      <c r="O112" s="14"/>
-      <c r="P112" s="15"/>
-      <c r="Q112" s="13"/>
-      <c r="R112" s="15"/>
+      <c r="K112" s="18"/>
+      <c r="L112" s="20"/>
+      <c r="M112" s="18"/>
+      <c r="N112" s="19"/>
+      <c r="O112" s="18"/>
+      <c r="P112" s="19"/>
+      <c r="Q112" s="17"/>
+      <c r="R112" s="19"/>
       <c r="AN112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -5135,7 +5169,7 @@
       </c>
     </row>
     <row r="113" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="17" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
@@ -5144,28 +5178,28 @@
       <c r="I113" s="6">
         <v>0</v>
       </c>
-      <c r="K113" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M113" s="14">
+      <c r="K113" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L113" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M113" s="18">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="14">
+      <c r="N113" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="18">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="15" t="s">
+      <c r="P113" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN113" s="11">
@@ -5183,21 +5217,21 @@
       </c>
     </row>
     <row r="114" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A114" s="13"/>
+      <c r="A114" s="17"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
       <c r="I114" s="6">
         <v>0</v>
       </c>
-      <c r="K114" s="14"/>
-      <c r="L114" s="16"/>
-      <c r="M114" s="14"/>
-      <c r="N114" s="15"/>
-      <c r="O114" s="14"/>
-      <c r="P114" s="15"/>
-      <c r="Q114" s="13"/>
-      <c r="R114" s="15"/>
+      <c r="K114" s="18"/>
+      <c r="L114" s="20"/>
+      <c r="M114" s="18"/>
+      <c r="N114" s="19"/>
+      <c r="O114" s="18"/>
+      <c r="P114" s="19"/>
+      <c r="Q114" s="17"/>
+      <c r="R114" s="19"/>
       <c r="AN114" s="11">
         <v>12.293174</v>
       </c>
@@ -5210,21 +5244,21 @@
       <c r="AQ114" s="12"/>
     </row>
     <row r="115" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
+      <c r="A115" s="17"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
       <c r="I115" s="6">
         <v>0</v>
       </c>
-      <c r="K115" s="14"/>
-      <c r="L115" s="16"/>
-      <c r="M115" s="14"/>
-      <c r="N115" s="15"/>
-      <c r="O115" s="14"/>
-      <c r="P115" s="15"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="15"/>
+      <c r="K115" s="18"/>
+      <c r="L115" s="20"/>
+      <c r="M115" s="18"/>
+      <c r="N115" s="19"/>
+      <c r="O115" s="18"/>
+      <c r="P115" s="19"/>
+      <c r="Q115" s="17"/>
+      <c r="R115" s="19"/>
       <c r="AN115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -5237,21 +5271,21 @@
       <c r="AQ115" s="12"/>
     </row>
     <row r="116" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A116" s="13"/>
+      <c r="A116" s="17"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
       <c r="I116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="14"/>
-      <c r="L116" s="16"/>
-      <c r="M116" s="14"/>
-      <c r="N116" s="15"/>
-      <c r="O116" s="14"/>
-      <c r="P116" s="15"/>
-      <c r="Q116" s="13"/>
-      <c r="R116" s="15"/>
+      <c r="K116" s="18"/>
+      <c r="L116" s="20"/>
+      <c r="M116" s="18"/>
+      <c r="N116" s="19"/>
+      <c r="O116" s="18"/>
+      <c r="P116" s="19"/>
+      <c r="Q116" s="17"/>
+      <c r="R116" s="19"/>
       <c r="AN116" s="11">
         <v>61.224843</v>
       </c>
@@ -5264,7 +5298,7 @@
       <c r="AQ116" s="12"/>
     </row>
     <row r="117" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="17" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
@@ -5273,28 +5307,28 @@
       <c r="I117" s="6">
         <v>6.9264999999999993E-2</v>
       </c>
-      <c r="K117" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="M117" s="14">
+      <c r="K117" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L117" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="M117" s="18">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="14">
+      <c r="N117" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="18">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="15" t="s">
+      <c r="P117" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="19" t="s">
         <v>10</v>
       </c>
       <c r="AN117" s="11">
@@ -5312,21 +5346,21 @@
       </c>
     </row>
     <row r="118" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A118" s="13"/>
+      <c r="A118" s="17"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
       <c r="I118" s="6">
         <v>5.7067E-2</v>
       </c>
-      <c r="K118" s="14"/>
-      <c r="L118" s="16"/>
-      <c r="M118" s="14"/>
-      <c r="N118" s="15"/>
-      <c r="O118" s="14"/>
-      <c r="P118" s="15"/>
-      <c r="Q118" s="13"/>
-      <c r="R118" s="15"/>
+      <c r="K118" s="18"/>
+      <c r="L118" s="20"/>
+      <c r="M118" s="18"/>
+      <c r="N118" s="19"/>
+      <c r="O118" s="18"/>
+      <c r="P118" s="19"/>
+      <c r="Q118" s="17"/>
+      <c r="R118" s="19"/>
       <c r="AN118" s="11">
         <v>10.24381</v>
       </c>
@@ -5342,21 +5376,21 @@
       </c>
     </row>
     <row r="119" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A119" s="13"/>
+      <c r="A119" s="17"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
       <c r="I119" s="6">
         <v>5.2463000000000003E-2</v>
       </c>
-      <c r="K119" s="14"/>
-      <c r="L119" s="16"/>
-      <c r="M119" s="14"/>
-      <c r="N119" s="15"/>
-      <c r="O119" s="14"/>
-      <c r="P119" s="15"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="15"/>
+      <c r="K119" s="18"/>
+      <c r="L119" s="20"/>
+      <c r="M119" s="18"/>
+      <c r="N119" s="19"/>
+      <c r="O119" s="18"/>
+      <c r="P119" s="19"/>
+      <c r="Q119" s="17"/>
+      <c r="R119" s="19"/>
       <c r="AN119" s="11">
         <v>20.481614</v>
       </c>
@@ -5372,21 +5406,21 @@
       </c>
     </row>
     <row r="120" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="A120" s="13"/>
+      <c r="A120" s="17"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
       <c r="I120" s="6">
         <v>3.8795999999999997E-2</v>
       </c>
-      <c r="K120" s="14"/>
-      <c r="L120" s="16"/>
-      <c r="M120" s="14"/>
-      <c r="N120" s="15"/>
-      <c r="O120" s="14"/>
-      <c r="P120" s="15"/>
-      <c r="Q120" s="13"/>
-      <c r="R120" s="15"/>
+      <c r="K120" s="18"/>
+      <c r="L120" s="20"/>
+      <c r="M120" s="18"/>
+      <c r="N120" s="19"/>
+      <c r="O120" s="18"/>
+      <c r="P120" s="19"/>
+      <c r="Q120" s="17"/>
+      <c r="R120" s="19"/>
       <c r="AN120" s="11">
         <v>51.171509</v>
       </c>
@@ -5403,6 +5437,245 @@
     </row>
   </sheetData>
   <mergeCells count="263">
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
     <mergeCell ref="U1:V1"/>
     <mergeCell ref="W1:X1"/>
     <mergeCell ref="Y1:Z1"/>
@@ -5427,245 +5700,6 @@
     <mergeCell ref="O105:O108"/>
     <mergeCell ref="P105:P108"/>
     <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -273,9 +273,6 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +280,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -665,10 +665,10 @@
   <dimension ref="A1:BR120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C47" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I76" sqref="I76:I79"/>
+      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,38 +707,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22" t="s">
+      <c r="D1" s="21"/>
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22" t="s">
+      <c r="F1" s="21"/>
+      <c r="G1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22" t="s">
+      <c r="H1" s="21"/>
+      <c r="I1" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22" t="s">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22" t="s">
+      <c r="L1" s="21"/>
+      <c r="M1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22" t="s">
+      <c r="N1" s="21"/>
+      <c r="O1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22" t="s">
+      <c r="P1" s="21"/>
+      <c r="Q1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="22"/>
+      <c r="R1" s="21"/>
       <c r="U1" s="9" t="s">
         <v>42</v>
       </c>
@@ -752,18 +752,18 @@
       <c r="Y1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="22" t="s">
+      <c r="BM1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="22"/>
-      <c r="BO1" s="22" t="s">
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="22"/>
-      <c r="BQ1" s="22" t="s">
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="22"/>
+      <c r="BR1" s="21"/>
     </row>
     <row r="2" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -853,38 +853,38 @@
       </c>
     </row>
     <row r="3" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="I3" s="21"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="8">
         <v>3600</v>
       </c>
-      <c r="K3" s="23">
+      <c r="K3" s="22">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="24">
+      <c r="L3" s="23">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="24" t="s">
+      <c r="M3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="11">
@@ -923,22 +923,22 @@
       </c>
     </row>
     <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="I4" s="21"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="18">
         <v>3600</v>
       </c>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="24"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="23"/>
       <c r="T4" s="11">
         <v>1.6109789999999999</v>
       </c>
@@ -975,22 +975,22 @@
       </c>
     </row>
     <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="I5" s="21"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="18">
         <v>3600</v>
       </c>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="23"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="24"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
       <c r="T5" s="11">
         <v>3.1995640000000001</v>
       </c>
@@ -1027,22 +1027,22 @@
       </c>
     </row>
     <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
-      <c r="I6" s="21"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="18">
         <v>3600</v>
       </c>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="23"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="23"/>
       <c r="S6" s="4"/>
       <c r="T6" s="11">
         <v>7.9486220000000003</v>
@@ -1075,34 +1075,34 @@
       </c>
     </row>
     <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="21"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="18">
         <v>3600</v>
       </c>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="24" t="s">
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="11"/>
@@ -1112,22 +1112,22 @@
       <c r="Y7" s="2"/>
     </row>
     <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="21"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="18">
         <v>3600</v>
       </c>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="24"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="23"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
       <c r="T8" s="11"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
@@ -1135,22 +1135,22 @@
       <c r="Y8" s="2"/>
     </row>
     <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
-      <c r="I9" s="21"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="18">
         <v>3600</v>
       </c>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="24"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="23"/>
       <c r="T9" s="11"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
@@ -1158,22 +1158,22 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="21"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="18">
         <v>3600</v>
       </c>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="24"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="23"/>
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
       <c r="U10" s="10"/>
@@ -1182,38 +1182,38 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="21"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="18">
         <v>3600</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="22">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="24">
+      <c r="L11" s="23">
         <v>0.435</v>
       </c>
-      <c r="M11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="24" t="s">
+      <c r="M11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="11"/>
@@ -1228,22 +1228,22 @@
       </c>
     </row>
     <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="21"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="18">
         <v>3600</v>
       </c>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="23"/>
       <c r="T12" s="11"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -1256,22 +1256,22 @@
       </c>
     </row>
     <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="I13" s="21"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="18">
         <v>3600</v>
       </c>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="23"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="24"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="23"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="23"/>
       <c r="T13" s="11"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -1284,22 +1284,22 @@
       </c>
     </row>
     <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
-      <c r="I14" s="21"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="18">
         <v>3600</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="24"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="23"/>
       <c r="S14" s="4"/>
       <c r="T14" s="11"/>
       <c r="U14" s="10"/>
@@ -1308,7 +1308,7 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1317,28 +1317,28 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="21"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="18">
         <v>3600</v>
       </c>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="24" t="s">
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+      <c r="M15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="23" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1349,25 +1349,25 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="21"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="18">
         <v>3600</v>
       </c>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="24"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="24"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="23"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="23"/>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="10"/>
@@ -1376,25 +1376,25 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="21"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="18">
         <v>3600</v>
       </c>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="24"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="24"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="23"/>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="10"/>
@@ -1404,7 +1404,7 @@
       <c r="Y17" s="14"/>
     </row>
     <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1414,18 +1414,18 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="21"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="18">
         <v>3600</v>
       </c>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="24"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="24"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="23"/>
       <c r="S18" s="4"/>
       <c r="T18" s="11"/>
       <c r="U18" s="10"/>
@@ -1435,7 +1435,7 @@
       <c r="Y18" s="16"/>
     </row>
     <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="21" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1447,28 +1447,28 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="21"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="18">
         <v>3600</v>
       </c>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="24" t="s">
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="23" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1480,7 +1480,7 @@
       <c r="Y19" s="16"/>
     </row>
     <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1490,18 +1490,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="21"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="18">
         <v>3600</v>
       </c>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="24"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="24"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="23"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="23"/>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
       <c r="U20" s="10"/>
@@ -1511,7 +1511,7 @@
       <c r="Y20" s="16"/>
     </row>
     <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1521,18 +1521,18 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="21"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="18">
         <v>3600</v>
       </c>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="24"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="24"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="23"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="23"/>
       <c r="S21" s="4"/>
       <c r="T21" s="11"/>
       <c r="U21" s="10"/>
@@ -1542,7 +1542,7 @@
       <c r="Y21" s="16"/>
     </row>
     <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1552,18 +1552,18 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="21"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="18">
         <v>3600</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="24"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="24"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="23"/>
       <c r="S22" s="4"/>
       <c r="T22" s="11"/>
       <c r="U22" s="10"/>
@@ -1581,7 +1581,7 @@
       <c r="Y23" s="2"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="A24" s="21" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1605,34 +1605,34 @@
       <c r="H24" s="8">
         <v>85.715054749999993</v>
       </c>
-      <c r="I24" s="21">
+      <c r="I24" s="24">
         <v>8.0775444264943394E-5</v>
       </c>
       <c r="J24" s="18">
         <v>3600</v>
       </c>
-      <c r="K24" s="23">
+      <c r="K24" s="22">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="24">
+      <c r="L24" s="23">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="23">
+      <c r="M24" s="22">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="23">
+      <c r="N24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="22">
         <v>0.153</v>
       </c>
-      <c r="P24" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="24" t="s">
+      <c r="P24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="11">
@@ -1653,7 +1653,7 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1675,18 +1675,18 @@
       <c r="H25" s="8">
         <v>164.00883055</v>
       </c>
-      <c r="I25" s="21"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="18">
         <v>3600</v>
       </c>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="23"/>
-      <c r="N25" s="24"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="24"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="24"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="23"/>
       <c r="T25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1705,7 +1705,7 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="22"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1727,18 +1727,18 @@
       <c r="H26" s="8">
         <v>320.50865793000003</v>
       </c>
-      <c r="I26" s="21"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="18">
         <v>3600</v>
       </c>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="23"/>
-      <c r="N26" s="24"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="24"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="24"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="23"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="23"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="23"/>
       <c r="T26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1757,7 +1757,7 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1779,18 +1779,18 @@
       <c r="H27" s="8">
         <v>777.18993831</v>
       </c>
-      <c r="I27" s="21"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="18">
         <v>3600</v>
       </c>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="23"/>
-      <c r="N27" s="24"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="24"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="24"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="23"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="23"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="23"/>
       <c r="T27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="Y27" s="2"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -1828,34 +1828,34 @@
       <c r="H28" s="8">
         <v>118.31681322999999</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="24">
         <v>2.1135191933276802E-3</v>
       </c>
       <c r="J28" s="18">
         <v>3600</v>
       </c>
-      <c r="K28" s="23">
+      <c r="K28" s="22">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="24">
+      <c r="L28" s="23">
         <v>0.624</v>
       </c>
-      <c r="M28" s="23">
+      <c r="M28" s="22">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="23">
+      <c r="N28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="22">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="24" t="s">
+      <c r="P28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="11">
@@ -1876,7 +1876,7 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1898,18 +1898,18 @@
       <c r="H29" s="8">
         <v>233.93687320000001</v>
       </c>
-      <c r="I29" s="21"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="18">
         <v>3600</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="24"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="24"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="24"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="23"/>
       <c r="T29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1950,18 +1950,18 @@
       <c r="H30" s="8">
         <v>469.41567397</v>
       </c>
-      <c r="I30" s="21"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="18">
         <v>3600</v>
       </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="23"/>
-      <c r="N30" s="24"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="24"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="24"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="23"/>
       <c r="T30" s="11">
         <v>15.800986</v>
       </c>
@@ -1980,7 +1980,7 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="22"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -2002,18 +2002,18 @@
       <c r="H31" s="8">
         <v>1192.2706356000001</v>
       </c>
-      <c r="I31" s="21"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="18">
         <v>3600</v>
       </c>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="23"/>
-      <c r="N31" s="24"/>
-      <c r="O31" s="23"/>
-      <c r="P31" s="24"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="24"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="23"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="23"/>
       <c r="T31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="Y31" s="2"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="22" t="s">
+      <c r="A32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -2051,34 +2051,34 @@
       <c r="H32" s="8">
         <v>70.446268320000001</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="24">
         <v>7.0089728609427004E-3</v>
       </c>
       <c r="J32" s="18">
         <v>3600</v>
       </c>
-      <c r="K32" s="23">
+      <c r="K32" s="22">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="24">
+      <c r="L32" s="23">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="22">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="23">
+      <c r="N32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="22">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="24" t="s">
+      <c r="P32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="11">
@@ -2099,7 +2099,7 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -2121,18 +2121,18 @@
       <c r="H33" s="8">
         <v>343.73055410000001</v>
       </c>
-      <c r="I33" s="21"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="18">
         <v>3600</v>
       </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="23"/>
-      <c r="N33" s="24"/>
-      <c r="O33" s="23"/>
-      <c r="P33" s="24"/>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="24"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="23"/>
       <c r="T33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2151,7 +2151,7 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -2173,18 +2173,18 @@
       <c r="H34" s="8">
         <v>712.44786477000002</v>
       </c>
-      <c r="I34" s="21"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="18">
         <v>3600</v>
       </c>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="23"/>
-      <c r="N34" s="24"/>
-      <c r="O34" s="23"/>
-      <c r="P34" s="24"/>
-      <c r="Q34" s="22"/>
-      <c r="R34" s="24"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="23"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="23"/>
       <c r="T34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2203,7 +2203,7 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -2225,18 +2225,18 @@
       <c r="H35" s="8">
         <v>1814.96402216</v>
       </c>
-      <c r="I35" s="21"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="18">
         <v>3600</v>
       </c>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="23"/>
-      <c r="N35" s="24"/>
-      <c r="O35" s="23"/>
-      <c r="P35" s="24"/>
-      <c r="Q35" s="22"/>
-      <c r="R35" s="24"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="23"/>
+      <c r="O35" s="22"/>
+      <c r="P35" s="23"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="23"/>
       <c r="T35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2250,7 +2250,7 @@
       <c r="Y35" s="2"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="A36" s="21" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
@@ -2274,34 +2274,34 @@
       <c r="H36" s="8">
         <v>230.1504209</v>
       </c>
-      <c r="I36" s="21">
+      <c r="I36" s="24">
         <v>2.0514895543250498E-2</v>
       </c>
       <c r="J36" s="18">
         <v>3600</v>
       </c>
-      <c r="K36" s="23">
+      <c r="K36" s="22">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="24">
+      <c r="L36" s="23">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="23">
+      <c r="M36" s="22">
         <v>0.189</v>
       </c>
-      <c r="N36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="23">
+      <c r="N36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="22">
         <v>0.18</v>
       </c>
-      <c r="P36" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="24" t="s">
+      <c r="P36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T36" s="11">
@@ -2322,7 +2322,7 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -2344,18 +2344,18 @@
       <c r="H37" s="8">
         <v>488.04992247000001</v>
       </c>
-      <c r="I37" s="21"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="18">
         <v>3600</v>
       </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
-      <c r="M37" s="23"/>
-      <c r="N37" s="24"/>
-      <c r="O37" s="23"/>
-      <c r="P37" s="24"/>
-      <c r="Q37" s="22"/>
-      <c r="R37" s="24"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="23"/>
+      <c r="O37" s="22"/>
+      <c r="P37" s="23"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="23"/>
       <c r="T37" s="11">
         <v>10.807356</v>
       </c>
@@ -2374,7 +2374,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -2396,18 +2396,18 @@
       <c r="H38" s="8">
         <v>937.89697813999999</v>
       </c>
-      <c r="I38" s="21"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="18">
         <v>3600</v>
       </c>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
-      <c r="M38" s="23"/>
-      <c r="N38" s="24"/>
-      <c r="O38" s="23"/>
-      <c r="P38" s="24"/>
-      <c r="Q38" s="22"/>
-      <c r="R38" s="24"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="23"/>
+      <c r="O38" s="22"/>
+      <c r="P38" s="23"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="23"/>
       <c r="T38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2448,18 +2448,18 @@
       <c r="H39" s="8">
         <v>2398.0101513899999</v>
       </c>
-      <c r="I39" s="21"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="18">
         <v>3600</v>
       </c>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-      <c r="M39" s="23"/>
-      <c r="N39" s="24"/>
-      <c r="O39" s="23"/>
-      <c r="P39" s="24"/>
-      <c r="Q39" s="22"/>
-      <c r="R39" s="24"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="23"/>
+      <c r="O39" s="22"/>
+      <c r="P39" s="23"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="23"/>
       <c r="T39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="Y39" s="2"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="21" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -2497,34 +2497,34 @@
       <c r="H40" s="8">
         <v>386.22343849999999</v>
       </c>
-      <c r="I40" s="21">
+      <c r="I40" s="24">
         <v>2.97301842356399E-2</v>
       </c>
       <c r="J40" s="18">
         <v>3600</v>
       </c>
-      <c r="K40" s="23">
+      <c r="K40" s="22">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="24">
+      <c r="L40" s="23">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="23">
+      <c r="M40" s="22">
         <v>0.254</v>
       </c>
-      <c r="N40" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="23">
+      <c r="N40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="22">
         <v>0.187</v>
       </c>
-      <c r="P40" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="23">
+      <c r="P40" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="22">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="24">
+      <c r="R40" s="23">
         <v>600</v>
       </c>
       <c r="T40" s="11">
@@ -2545,7 +2545,7 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2567,18 +2567,18 @@
       <c r="H41" s="8">
         <v>807.91166234000002</v>
       </c>
-      <c r="I41" s="21"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="18">
         <v>3600</v>
       </c>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
-      <c r="M41" s="23"/>
-      <c r="N41" s="24"/>
-      <c r="O41" s="23"/>
-      <c r="P41" s="24"/>
-      <c r="Q41" s="23"/>
-      <c r="R41" s="24"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="23"/>
+      <c r="O41" s="22"/>
+      <c r="P41" s="23"/>
+      <c r="Q41" s="22"/>
+      <c r="R41" s="23"/>
       <c r="T41" s="11">
         <v>13.471734</v>
       </c>
@@ -2597,7 +2597,7 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2619,18 +2619,18 @@
       <c r="H42" s="8">
         <v>1622.3438525199999</v>
       </c>
-      <c r="I42" s="21"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="18">
         <v>3600</v>
       </c>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
-      <c r="M42" s="23"/>
-      <c r="N42" s="24"/>
-      <c r="O42" s="23"/>
-      <c r="P42" s="24"/>
-      <c r="Q42" s="23"/>
-      <c r="R42" s="24"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="23"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="23"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="23"/>
       <c r="T42" s="11">
         <v>26.813558</v>
       </c>
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2671,18 +2671,18 @@
       <c r="H43" s="8">
         <v>4045.9814677200002</v>
       </c>
-      <c r="I43" s="21"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="18">
         <v>3600</v>
       </c>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="24"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="24"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="24"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="23"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="23"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="23"/>
       <c r="T43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2696,7 +2696,7 @@
       <c r="Y43" s="2"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="21" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
@@ -2720,34 +2720,34 @@
       <c r="H44" s="8">
         <v>561.57670212000005</v>
       </c>
-      <c r="I44" s="21">
+      <c r="I44" s="24">
         <v>1.3831368901879601E-3</v>
       </c>
       <c r="J44" s="18">
         <v>3600</v>
       </c>
-      <c r="K44" s="23">
+      <c r="K44" s="22">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="24">
+      <c r="L44" s="23">
         <v>2.7</v>
       </c>
-      <c r="M44" s="23">
+      <c r="M44" s="22">
         <v>0.159</v>
       </c>
-      <c r="N44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="23">
+      <c r="N44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="22">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="24" t="s">
+      <c r="P44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T44" s="11">
@@ -2768,7 +2768,7 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
+      <c r="A45" s="21"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -2790,18 +2790,18 @@
       <c r="H45" s="8">
         <v>1132.2781443599999</v>
       </c>
-      <c r="I45" s="21"/>
+      <c r="I45" s="24"/>
       <c r="J45" s="18">
         <v>3600</v>
       </c>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="24"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="24"/>
-      <c r="Q45" s="22"/>
-      <c r="R45" s="24"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
+      <c r="M45" s="22"/>
+      <c r="N45" s="23"/>
+      <c r="O45" s="22"/>
+      <c r="P45" s="23"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="23"/>
       <c r="T45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2820,7 +2820,7 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
+      <c r="A46" s="21"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -2842,18 +2842,18 @@
       <c r="H46" s="8">
         <v>2158.43117738</v>
       </c>
-      <c r="I46" s="21"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="18">
         <v>3600</v>
       </c>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="24"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="24"/>
-      <c r="Q46" s="22"/>
-      <c r="R46" s="24"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="22"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="22"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="23"/>
       <c r="T46" s="11">
         <v>34.49512</v>
       </c>
@@ -2872,7 +2872,7 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="22"/>
+      <c r="A47" s="21"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -2894,18 +2894,18 @@
       <c r="H47" s="8">
         <v>5532.4828727200002</v>
       </c>
-      <c r="I47" s="21"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="18">
         <v>3600</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="22"/>
-      <c r="R47" s="24"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="22"/>
+      <c r="N47" s="23"/>
+      <c r="O47" s="22"/>
+      <c r="P47" s="23"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="23"/>
       <c r="T47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2919,7 +2919,7 @@
       <c r="Y47" s="2"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="22" t="s">
+      <c r="A48" s="21" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -2943,34 +2943,34 @@
       <c r="H48" s="8">
         <v>949.55767940999999</v>
       </c>
-      <c r="I48" s="21">
+      <c r="I48" s="24">
         <v>2.2173780908445601E-2</v>
       </c>
       <c r="J48" s="18">
         <v>3600</v>
       </c>
-      <c r="K48" s="23">
+      <c r="K48" s="22">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="24">
+      <c r="L48" s="23">
         <v>4.883</v>
       </c>
-      <c r="M48" s="23">
+      <c r="M48" s="22">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="23">
+      <c r="N48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="22">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="24" t="s">
+      <c r="P48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T48" s="11">
@@ -2991,7 +2991,7 @@
       </c>
     </row>
     <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
+      <c r="A49" s="21"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
@@ -3013,18 +3013,18 @@
       <c r="H49" s="8">
         <v>1823.3479774</v>
       </c>
-      <c r="I49" s="21"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="18">
         <v>3600</v>
       </c>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="24"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="24"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="24"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
+      <c r="M49" s="22"/>
+      <c r="N49" s="23"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="23"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="23"/>
       <c r="T49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -3043,7 +3043,7 @@
       </c>
     </row>
     <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
+      <c r="A50" s="21"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
@@ -3065,18 +3065,18 @@
       <c r="H50" s="8">
         <v>3580.43250799</v>
       </c>
-      <c r="I50" s="21"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="18">
         <v>3600</v>
       </c>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="24"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="24"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="24"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
+      <c r="M50" s="22"/>
+      <c r="N50" s="23"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="23"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="23"/>
       <c r="T50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -3095,7 +3095,7 @@
       </c>
     </row>
     <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
+      <c r="A51" s="21"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
@@ -3117,18 +3117,18 @@
       <c r="H51" s="8">
         <v>9009.6752314599998</v>
       </c>
-      <c r="I51" s="21"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="18">
         <v>3600</v>
       </c>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="24"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="24"/>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="24"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="23"/>
       <c r="T51" s="11">
         <v>115.449259</v>
       </c>
@@ -3143,40 +3143,40 @@
       <c r="AV51" s="13"/>
     </row>
     <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="22" t="s">
+      <c r="A52" s="21" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="I52" s="21">
+      <c r="I52" s="24">
         <v>3.8355352332044797E-2</v>
       </c>
       <c r="J52" s="18">
         <v>3600</v>
       </c>
-      <c r="K52" s="23">
+      <c r="K52" s="22">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="24">
+      <c r="L52" s="23">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="23">
+      <c r="M52" s="22">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="23">
+      <c r="N52" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="22">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="24" t="s">
+      <c r="P52" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="11">
@@ -3197,22 +3197,22 @@
       </c>
     </row>
     <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="22"/>
+      <c r="A53" s="21"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="I53" s="21"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="18">
         <v>3600</v>
       </c>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="24"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="24"/>
-      <c r="Q53" s="22"/>
-      <c r="R53" s="24"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="22"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="22"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="21"/>
+      <c r="R53" s="23"/>
       <c r="T53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -3231,22 +3231,22 @@
       </c>
     </row>
     <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A54" s="22"/>
+      <c r="A54" s="21"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
-      <c r="I54" s="21"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="18">
         <v>3600</v>
       </c>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="24"/>
-      <c r="Q54" s="22"/>
-      <c r="R54" s="24"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="22"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="22"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="21"/>
+      <c r="R54" s="23"/>
       <c r="T54" s="11">
         <v>130.456557</v>
       </c>
@@ -3265,22 +3265,22 @@
       </c>
     </row>
     <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
+      <c r="A55" s="21"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
-      <c r="I55" s="21"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="18">
         <v>3600</v>
       </c>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="24"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="24"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="24"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="22"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="22"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="21"/>
+      <c r="R55" s="23"/>
       <c r="T55" s="11">
         <v>323.3809</v>
       </c>
@@ -3301,40 +3301,40 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="22" t="s">
+      <c r="A57" s="21" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>500</v>
       </c>
-      <c r="I57" s="21">
+      <c r="I57" s="24">
         <v>0</v>
       </c>
       <c r="J57" s="18">
         <v>3600</v>
       </c>
-      <c r="K57" s="23" t="s">
+      <c r="K57" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L57" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M57" s="23">
+      <c r="M57" s="22">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="23">
+      <c r="N57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="22">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="24" t="s">
+      <c r="P57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T57" s="11">
@@ -3350,22 +3350,22 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
+      <c r="A58" s="21"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="I58" s="21"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="18">
         <v>3600</v>
       </c>
-      <c r="K58" s="23"/>
+      <c r="K58" s="22"/>
       <c r="L58" s="25"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="24"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="24"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="24"/>
+      <c r="M58" s="22"/>
+      <c r="N58" s="23"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="23"/>
+      <c r="Q58" s="21"/>
+      <c r="R58" s="23"/>
       <c r="T58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3379,22 +3379,22 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
+      <c r="A59" s="21"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
-      <c r="I59" s="21"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="18">
         <v>3600</v>
       </c>
-      <c r="K59" s="23"/>
+      <c r="K59" s="22"/>
       <c r="L59" s="25"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="24"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="24"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="24"/>
+      <c r="M59" s="22"/>
+      <c r="N59" s="23"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="23"/>
+      <c r="Q59" s="21"/>
+      <c r="R59" s="23"/>
       <c r="T59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3408,22 +3408,22 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="22"/>
+      <c r="A60" s="21"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
-      <c r="I60" s="21"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="18">
         <v>3600</v>
       </c>
-      <c r="K60" s="23"/>
+      <c r="K60" s="22"/>
       <c r="L60" s="25"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="24"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="22"/>
-      <c r="R60" s="24"/>
+      <c r="M60" s="22"/>
+      <c r="N60" s="23"/>
+      <c r="O60" s="22"/>
+      <c r="P60" s="23"/>
+      <c r="Q60" s="21"/>
+      <c r="R60" s="23"/>
       <c r="T60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3437,40 +3437,40 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
+      <c r="A61" s="21" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
         <v>500</v>
       </c>
-      <c r="I61" s="21">
+      <c r="I61" s="24">
         <v>6.94753242196072E-3</v>
       </c>
       <c r="J61" s="18">
         <v>3600</v>
       </c>
-      <c r="K61" s="23" t="s">
+      <c r="K61" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L61" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M61" s="23">
+      <c r="M61" s="22">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="23">
+      <c r="N61" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="22">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="24" t="s">
+      <c r="P61" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T61" s="11">
@@ -3486,22 +3486,22 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
+      <c r="A62" s="21"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
-      <c r="I62" s="21"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="18">
         <v>3600</v>
       </c>
-      <c r="K62" s="23"/>
+      <c r="K62" s="22"/>
       <c r="L62" s="25"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="24"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="24"/>
-      <c r="Q62" s="22"/>
-      <c r="R62" s="24"/>
+      <c r="M62" s="22"/>
+      <c r="N62" s="23"/>
+      <c r="O62" s="22"/>
+      <c r="P62" s="23"/>
+      <c r="Q62" s="21"/>
+      <c r="R62" s="23"/>
       <c r="T62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3515,22 +3515,22 @@
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
+      <c r="A63" s="21"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
-      <c r="I63" s="21"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="18">
         <v>3600</v>
       </c>
-      <c r="K63" s="23"/>
+      <c r="K63" s="22"/>
       <c r="L63" s="25"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="24"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="24"/>
-      <c r="Q63" s="22"/>
-      <c r="R63" s="24"/>
+      <c r="M63" s="22"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="22"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="21"/>
+      <c r="R63" s="23"/>
       <c r="T63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3544,22 +3544,22 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
+      <c r="A64" s="21"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
-      <c r="I64" s="21"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="18">
         <v>3600</v>
       </c>
-      <c r="K64" s="23"/>
+      <c r="K64" s="22"/>
       <c r="L64" s="25"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="24"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="24"/>
-      <c r="Q64" s="22"/>
-      <c r="R64" s="24"/>
+      <c r="M64" s="22"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="22"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="23"/>
       <c r="T64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3581,40 +3581,40 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="22" t="s">
+      <c r="A66" s="21" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
       </c>
-      <c r="I66" s="21">
+      <c r="I66" s="24">
         <v>0</v>
       </c>
       <c r="J66" s="18">
         <v>3600</v>
       </c>
-      <c r="K66" s="23" t="s">
+      <c r="K66" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L66" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M66" s="23">
+      <c r="M66" s="22">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="23">
+      <c r="N66" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="22">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="24" t="s">
+      <c r="P66" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T66" s="11">
@@ -3630,22 +3630,22 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="22"/>
+      <c r="A67" s="21"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
-      <c r="I67" s="21"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="18">
         <v>3600</v>
       </c>
-      <c r="K67" s="23"/>
+      <c r="K67" s="22"/>
       <c r="L67" s="25"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="24"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="24"/>
-      <c r="Q67" s="22"/>
-      <c r="R67" s="24"/>
+      <c r="M67" s="22"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="22"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="21"/>
+      <c r="R67" s="23"/>
       <c r="T67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3659,22 +3659,22 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
+      <c r="A68" s="21"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
-      <c r="I68" s="21"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="18">
         <v>3600</v>
       </c>
-      <c r="K68" s="23"/>
+      <c r="K68" s="22"/>
       <c r="L68" s="25"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="24"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="24"/>
-      <c r="Q68" s="22"/>
-      <c r="R68" s="24"/>
+      <c r="M68" s="22"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="22"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="21"/>
+      <c r="R68" s="23"/>
       <c r="T68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3688,22 +3688,22 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="22"/>
+      <c r="A69" s="21"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
-      <c r="I69" s="21"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="18">
         <v>3600</v>
       </c>
-      <c r="K69" s="23"/>
+      <c r="K69" s="22"/>
       <c r="L69" s="25"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="24"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="24"/>
-      <c r="Q69" s="22"/>
-      <c r="R69" s="24"/>
+      <c r="M69" s="22"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="22"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="21"/>
+      <c r="R69" s="23"/>
       <c r="T69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3725,40 +3725,40 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="22" t="s">
+      <c r="A71" s="21" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
       </c>
-      <c r="I71" s="21">
+      <c r="I71" s="24">
         <v>6.7616724409469602E-3</v>
       </c>
       <c r="J71" s="18">
         <v>3600</v>
       </c>
-      <c r="K71" s="23" t="s">
+      <c r="K71" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L71" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M71" s="23">
+      <c r="M71" s="22">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="23">
+      <c r="N71" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="22">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="24" t="s">
+      <c r="P71" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T71" s="11">
@@ -3774,22 +3774,22 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="22"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
-      <c r="I72" s="21"/>
+      <c r="I72" s="24"/>
       <c r="J72" s="18">
         <v>3600</v>
       </c>
-      <c r="K72" s="23"/>
+      <c r="K72" s="22"/>
       <c r="L72" s="25"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="22"/>
-      <c r="R72" s="24"/>
+      <c r="M72" s="22"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="22"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="21"/>
+      <c r="R72" s="23"/>
       <c r="T72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3803,22 +3803,22 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="22"/>
+      <c r="A73" s="21"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
-      <c r="I73" s="21"/>
+      <c r="I73" s="24"/>
       <c r="J73" s="18">
         <v>3600</v>
       </c>
-      <c r="K73" s="23"/>
+      <c r="K73" s="22"/>
       <c r="L73" s="25"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="24"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="24"/>
-      <c r="Q73" s="22"/>
-      <c r="R73" s="24"/>
+      <c r="M73" s="22"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="22"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="21"/>
+      <c r="R73" s="23"/>
       <c r="T73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3832,22 +3832,22 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="22"/>
+      <c r="A74" s="21"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
-      <c r="I74" s="21"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="18">
         <v>3600</v>
       </c>
-      <c r="K74" s="23"/>
+      <c r="K74" s="22"/>
       <c r="L74" s="25"/>
-      <c r="M74" s="23"/>
-      <c r="N74" s="24"/>
-      <c r="O74" s="23"/>
-      <c r="P74" s="24"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="24"/>
+      <c r="M74" s="22"/>
+      <c r="N74" s="23"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="23"/>
+      <c r="Q74" s="21"/>
+      <c r="R74" s="23"/>
       <c r="T74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3869,40 +3869,40 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="22" t="s">
+      <c r="A76" s="21" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="21">
+      <c r="I76" s="24">
         <v>2.6177659710813601E-3</v>
       </c>
       <c r="J76" s="18">
         <v>3600</v>
       </c>
-      <c r="K76" s="23" t="s">
+      <c r="K76" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L76" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M76" s="23">
+      <c r="M76" s="22">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="23">
+      <c r="N76" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="22">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="24" t="s">
+      <c r="P76" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T76" s="11">
@@ -3918,22 +3918,22 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="22"/>
+      <c r="A77" s="21"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
-      <c r="I77" s="21"/>
+      <c r="I77" s="24"/>
       <c r="J77" s="18">
         <v>3600</v>
       </c>
-      <c r="K77" s="23"/>
+      <c r="K77" s="22"/>
       <c r="L77" s="25"/>
-      <c r="M77" s="23"/>
-      <c r="N77" s="24"/>
-      <c r="O77" s="23"/>
-      <c r="P77" s="24"/>
-      <c r="Q77" s="22"/>
-      <c r="R77" s="24"/>
+      <c r="M77" s="22"/>
+      <c r="N77" s="23"/>
+      <c r="O77" s="22"/>
+      <c r="P77" s="23"/>
+      <c r="Q77" s="21"/>
+      <c r="R77" s="23"/>
       <c r="T77" s="11">
         <v>11.555717</v>
       </c>
@@ -3947,22 +3947,22 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="22"/>
+      <c r="A78" s="21"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
-      <c r="I78" s="21"/>
+      <c r="I78" s="24"/>
       <c r="J78" s="18">
         <v>3600</v>
       </c>
-      <c r="K78" s="23"/>
+      <c r="K78" s="22"/>
       <c r="L78" s="25"/>
-      <c r="M78" s="23"/>
-      <c r="N78" s="24"/>
-      <c r="O78" s="23"/>
-      <c r="P78" s="24"/>
-      <c r="Q78" s="22"/>
-      <c r="R78" s="24"/>
+      <c r="M78" s="22"/>
+      <c r="N78" s="23"/>
+      <c r="O78" s="22"/>
+      <c r="P78" s="23"/>
+      <c r="Q78" s="21"/>
+      <c r="R78" s="23"/>
       <c r="T78" s="11">
         <v>23.124298</v>
       </c>
@@ -3976,22 +3976,22 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="22"/>
+      <c r="A79" s="21"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
-      <c r="I79" s="21"/>
+      <c r="I79" s="24"/>
       <c r="J79" s="18">
         <v>3600</v>
       </c>
-      <c r="K79" s="23"/>
+      <c r="K79" s="22"/>
       <c r="L79" s="25"/>
-      <c r="M79" s="23"/>
-      <c r="N79" s="24"/>
-      <c r="O79" s="23"/>
-      <c r="P79" s="24"/>
-      <c r="Q79" s="22"/>
-      <c r="R79" s="24"/>
+      <c r="M79" s="22"/>
+      <c r="N79" s="23"/>
+      <c r="O79" s="22"/>
+      <c r="P79" s="23"/>
+      <c r="Q79" s="21"/>
+      <c r="R79" s="23"/>
       <c r="T79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -4005,38 +4005,40 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
+      <c r="A80" s="21" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
       </c>
-      <c r="I80" s="21"/>
+      <c r="I80" s="24">
+        <v>2.37598662590718E-2</v>
+      </c>
       <c r="J80" s="18">
         <v>3600</v>
       </c>
-      <c r="K80" s="23" t="s">
+      <c r="K80" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L80" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M80" s="23">
+      <c r="M80" s="22">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="23">
+      <c r="N80" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="22">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="24" t="s">
+      <c r="P80" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T80" s="11">
@@ -4052,22 +4054,22 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="22"/>
+      <c r="A81" s="21"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
-      <c r="I81" s="21"/>
+      <c r="I81" s="24"/>
       <c r="J81" s="18">
         <v>3600</v>
       </c>
-      <c r="K81" s="23"/>
+      <c r="K81" s="22"/>
       <c r="L81" s="25"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="24"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="24"/>
-      <c r="Q81" s="22"/>
-      <c r="R81" s="24"/>
+      <c r="M81" s="22"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="22"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="21"/>
+      <c r="R81" s="23"/>
       <c r="T81" s="11">
         <v>14.007052</v>
       </c>
@@ -4081,22 +4083,22 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
+      <c r="A82" s="21"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
-      <c r="I82" s="21"/>
+      <c r="I82" s="24"/>
       <c r="J82" s="18">
         <v>3600</v>
       </c>
-      <c r="K82" s="23"/>
+      <c r="K82" s="22"/>
       <c r="L82" s="25"/>
-      <c r="M82" s="23"/>
-      <c r="N82" s="24"/>
-      <c r="O82" s="23"/>
-      <c r="P82" s="24"/>
-      <c r="Q82" s="22"/>
-      <c r="R82" s="24"/>
+      <c r="M82" s="22"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="22"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="21"/>
+      <c r="R82" s="23"/>
       <c r="T82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -4110,22 +4112,22 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="22"/>
+      <c r="A83" s="21"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
-      <c r="I83" s="21"/>
+      <c r="I83" s="24"/>
       <c r="J83" s="18">
         <v>3600</v>
       </c>
-      <c r="K83" s="23"/>
+      <c r="K83" s="22"/>
       <c r="L83" s="25"/>
-      <c r="M83" s="23"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="23"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="24"/>
+      <c r="M83" s="22"/>
+      <c r="N83" s="23"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="23"/>
+      <c r="Q83" s="21"/>
+      <c r="R83" s="23"/>
       <c r="T83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -4139,38 +4141,40 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="22" t="s">
+      <c r="A84" s="21" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>500</v>
       </c>
-      <c r="I84" s="21"/>
+      <c r="I84" s="24">
+        <v>1.47481695465506E-2</v>
+      </c>
       <c r="J84" s="18">
         <v>3600</v>
       </c>
-      <c r="K84" s="23" t="s">
+      <c r="K84" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L84" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M84" s="23">
+      <c r="M84" s="22">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="23">
+      <c r="N84" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="22">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="24" t="s">
+      <c r="P84" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T84" s="11">
@@ -4186,22 +4190,22 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="22"/>
+      <c r="A85" s="21"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
-      <c r="I85" s="21"/>
+      <c r="I85" s="24"/>
       <c r="J85" s="18">
         <v>3600</v>
       </c>
-      <c r="K85" s="23"/>
+      <c r="K85" s="22"/>
       <c r="L85" s="25"/>
-      <c r="M85" s="23"/>
-      <c r="N85" s="24"/>
-      <c r="O85" s="23"/>
-      <c r="P85" s="24"/>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="24"/>
+      <c r="M85" s="22"/>
+      <c r="N85" s="23"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="23"/>
+      <c r="Q85" s="21"/>
+      <c r="R85" s="23"/>
       <c r="T85" s="11">
         <v>14.86237</v>
       </c>
@@ -4215,22 +4219,22 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="22"/>
+      <c r="A86" s="21"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
-      <c r="I86" s="21"/>
+      <c r="I86" s="24"/>
       <c r="J86" s="18">
         <v>3600</v>
       </c>
-      <c r="K86" s="23"/>
+      <c r="K86" s="22"/>
       <c r="L86" s="25"/>
-      <c r="M86" s="23"/>
-      <c r="N86" s="24"/>
-      <c r="O86" s="23"/>
-      <c r="P86" s="24"/>
-      <c r="Q86" s="22"/>
-      <c r="R86" s="24"/>
+      <c r="M86" s="22"/>
+      <c r="N86" s="23"/>
+      <c r="O86" s="22"/>
+      <c r="P86" s="23"/>
+      <c r="Q86" s="21"/>
+      <c r="R86" s="23"/>
       <c r="T86" s="11">
         <v>29.561377</v>
       </c>
@@ -4244,22 +4248,22 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="22"/>
+      <c r="A87" s="21"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
-      <c r="I87" s="21"/>
+      <c r="I87" s="24"/>
       <c r="J87" s="18">
         <v>3600</v>
       </c>
-      <c r="K87" s="23"/>
+      <c r="K87" s="22"/>
       <c r="L87" s="25"/>
-      <c r="M87" s="23"/>
-      <c r="N87" s="24"/>
-      <c r="O87" s="23"/>
-      <c r="P87" s="24"/>
-      <c r="Q87" s="22"/>
-      <c r="R87" s="24"/>
+      <c r="M87" s="22"/>
+      <c r="N87" s="23"/>
+      <c r="O87" s="22"/>
+      <c r="P87" s="23"/>
+      <c r="Q87" s="21"/>
+      <c r="R87" s="23"/>
       <c r="T87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -4281,38 +4285,40 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="22" t="s">
+      <c r="A89" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>500</v>
       </c>
-      <c r="I89" s="21"/>
+      <c r="I89" s="24">
+        <v>0</v>
+      </c>
       <c r="J89" s="18">
         <v>3600</v>
       </c>
-      <c r="K89" s="23" t="s">
+      <c r="K89" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L89" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M89" s="23">
+      <c r="M89" s="22">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="23">
+      <c r="N89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="22">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="24" t="s">
+      <c r="P89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T89" s="11">
@@ -4328,22 +4334,22 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="22"/>
+      <c r="A90" s="21"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
-      <c r="I90" s="21"/>
+      <c r="I90" s="24"/>
       <c r="J90" s="18">
         <v>3600</v>
       </c>
-      <c r="K90" s="23"/>
+      <c r="K90" s="22"/>
       <c r="L90" s="25"/>
-      <c r="M90" s="23"/>
-      <c r="N90" s="24"/>
-      <c r="O90" s="23"/>
-      <c r="P90" s="24"/>
-      <c r="Q90" s="22"/>
-      <c r="R90" s="24"/>
+      <c r="M90" s="22"/>
+      <c r="N90" s="23"/>
+      <c r="O90" s="22"/>
+      <c r="P90" s="23"/>
+      <c r="Q90" s="21"/>
+      <c r="R90" s="23"/>
       <c r="T90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4357,22 +4363,22 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="22"/>
+      <c r="A91" s="21"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
-      <c r="I91" s="21"/>
+      <c r="I91" s="24"/>
       <c r="J91" s="18">
         <v>3600</v>
       </c>
-      <c r="K91" s="23"/>
+      <c r="K91" s="22"/>
       <c r="L91" s="25"/>
-      <c r="M91" s="23"/>
-      <c r="N91" s="24"/>
-      <c r="O91" s="23"/>
-      <c r="P91" s="24"/>
-      <c r="Q91" s="22"/>
-      <c r="R91" s="24"/>
+      <c r="M91" s="22"/>
+      <c r="N91" s="23"/>
+      <c r="O91" s="22"/>
+      <c r="P91" s="23"/>
+      <c r="Q91" s="21"/>
+      <c r="R91" s="23"/>
       <c r="T91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4386,22 +4392,22 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="22"/>
+      <c r="A92" s="21"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
-      <c r="I92" s="21"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="18">
         <v>3600</v>
       </c>
-      <c r="K92" s="23"/>
+      <c r="K92" s="22"/>
       <c r="L92" s="25"/>
-      <c r="M92" s="23"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="23"/>
-      <c r="P92" s="24"/>
-      <c r="Q92" s="22"/>
-      <c r="R92" s="24"/>
+      <c r="M92" s="22"/>
+      <c r="N92" s="23"/>
+      <c r="O92" s="22"/>
+      <c r="P92" s="23"/>
+      <c r="Q92" s="21"/>
+      <c r="R92" s="23"/>
       <c r="T92" s="11">
         <v>27.119754</v>
       </c>
@@ -4415,38 +4421,40 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="22" t="s">
+      <c r="A93" s="21" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
       </c>
-      <c r="I93" s="21"/>
+      <c r="I93" s="24">
+        <v>0</v>
+      </c>
       <c r="J93" s="18">
         <v>3600</v>
       </c>
-      <c r="K93" s="23" t="s">
+      <c r="K93" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L93" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M93" s="23">
+      <c r="M93" s="22">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="23">
+      <c r="N93" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="22">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="24" t="s">
+      <c r="P93" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T93" s="11">
@@ -4462,22 +4470,22 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="22"/>
+      <c r="A94" s="21"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="I94" s="21"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="18">
         <v>3600</v>
       </c>
-      <c r="K94" s="23"/>
+      <c r="K94" s="22"/>
       <c r="L94" s="25"/>
-      <c r="M94" s="23"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="23"/>
-      <c r="P94" s="24"/>
-      <c r="Q94" s="22"/>
-      <c r="R94" s="24"/>
+      <c r="M94" s="22"/>
+      <c r="N94" s="23"/>
+      <c r="O94" s="22"/>
+      <c r="P94" s="23"/>
+      <c r="Q94" s="21"/>
+      <c r="R94" s="23"/>
       <c r="T94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4491,22 +4499,22 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="22"/>
+      <c r="A95" s="21"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
-      <c r="I95" s="21"/>
+      <c r="I95" s="24"/>
       <c r="J95" s="18">
         <v>3600</v>
       </c>
-      <c r="K95" s="23"/>
+      <c r="K95" s="22"/>
       <c r="L95" s="25"/>
-      <c r="M95" s="23"/>
-      <c r="N95" s="24"/>
-      <c r="O95" s="23"/>
-      <c r="P95" s="24"/>
-      <c r="Q95" s="22"/>
-      <c r="R95" s="24"/>
+      <c r="M95" s="22"/>
+      <c r="N95" s="23"/>
+      <c r="O95" s="22"/>
+      <c r="P95" s="23"/>
+      <c r="Q95" s="21"/>
+      <c r="R95" s="23"/>
       <c r="T95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4520,22 +4528,22 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="22"/>
+      <c r="A96" s="21"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
-      <c r="I96" s="21"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="18">
         <v>3600</v>
       </c>
-      <c r="K96" s="23"/>
+      <c r="K96" s="22"/>
       <c r="L96" s="25"/>
-      <c r="M96" s="23"/>
-      <c r="N96" s="24"/>
-      <c r="O96" s="23"/>
-      <c r="P96" s="24"/>
-      <c r="Q96" s="22"/>
-      <c r="R96" s="24"/>
+      <c r="M96" s="22"/>
+      <c r="N96" s="23"/>
+      <c r="O96" s="22"/>
+      <c r="P96" s="23"/>
+      <c r="Q96" s="21"/>
+      <c r="R96" s="23"/>
       <c r="T96" s="11">
         <v>31.354782</v>
       </c>
@@ -4549,38 +4557,40 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="22" t="s">
+      <c r="A97" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
       </c>
-      <c r="I97" s="21"/>
+      <c r="I97" s="24">
+        <v>0</v>
+      </c>
       <c r="J97" s="18">
         <v>3600</v>
       </c>
-      <c r="K97" s="23" t="s">
+      <c r="K97" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L97" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M97" s="23">
+      <c r="M97" s="22">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="23">
+      <c r="N97" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="22">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="24" t="s">
+      <c r="P97" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T97" s="11">
@@ -4596,22 +4606,22 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="22"/>
+      <c r="A98" s="21"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
-      <c r="I98" s="21"/>
+      <c r="I98" s="24"/>
       <c r="J98" s="18">
         <v>3600</v>
       </c>
-      <c r="K98" s="23"/>
+      <c r="K98" s="22"/>
       <c r="L98" s="25"/>
-      <c r="M98" s="23"/>
-      <c r="N98" s="24"/>
-      <c r="O98" s="23"/>
-      <c r="P98" s="24"/>
-      <c r="Q98" s="22"/>
-      <c r="R98" s="24"/>
+      <c r="M98" s="22"/>
+      <c r="N98" s="23"/>
+      <c r="O98" s="22"/>
+      <c r="P98" s="23"/>
+      <c r="Q98" s="21"/>
+      <c r="R98" s="23"/>
       <c r="T98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4625,22 +4635,22 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="22"/>
+      <c r="A99" s="21"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
-      <c r="I99" s="21"/>
+      <c r="I99" s="24"/>
       <c r="J99" s="18">
         <v>3600</v>
       </c>
-      <c r="K99" s="23"/>
+      <c r="K99" s="22"/>
       <c r="L99" s="25"/>
-      <c r="M99" s="23"/>
-      <c r="N99" s="24"/>
-      <c r="O99" s="23"/>
-      <c r="P99" s="24"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="24"/>
+      <c r="M99" s="22"/>
+      <c r="N99" s="23"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="23"/>
+      <c r="Q99" s="21"/>
+      <c r="R99" s="23"/>
       <c r="T99" s="11">
         <v>14.859114</v>
       </c>
@@ -4654,22 +4664,22 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="22"/>
+      <c r="A100" s="21"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
-      <c r="I100" s="21"/>
+      <c r="I100" s="24"/>
       <c r="J100" s="18">
         <v>3600</v>
       </c>
-      <c r="K100" s="23"/>
+      <c r="K100" s="22"/>
       <c r="L100" s="25"/>
-      <c r="M100" s="23"/>
-      <c r="N100" s="24"/>
-      <c r="O100" s="23"/>
-      <c r="P100" s="24"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="24"/>
+      <c r="M100" s="22"/>
+      <c r="N100" s="23"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="23"/>
+      <c r="Q100" s="21"/>
+      <c r="R100" s="23"/>
       <c r="T100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4683,38 +4693,40 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="22" t="s">
+      <c r="A101" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
       </c>
-      <c r="I101" s="21"/>
+      <c r="I101" s="24">
+        <v>0</v>
+      </c>
       <c r="J101" s="18">
         <v>3600</v>
       </c>
-      <c r="K101" s="23" t="s">
+      <c r="K101" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L101" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M101" s="23">
+      <c r="M101" s="22">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="23">
+      <c r="N101" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="22">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="24" t="s">
+      <c r="P101" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T101" s="11">
@@ -4730,22 +4742,22 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
+      <c r="A102" s="21"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
-      <c r="I102" s="21"/>
+      <c r="I102" s="24"/>
       <c r="J102" s="18">
         <v>3600</v>
       </c>
-      <c r="K102" s="23"/>
+      <c r="K102" s="22"/>
       <c r="L102" s="25"/>
-      <c r="M102" s="23"/>
-      <c r="N102" s="24"/>
-      <c r="O102" s="23"/>
-      <c r="P102" s="24"/>
-      <c r="Q102" s="22"/>
-      <c r="R102" s="24"/>
+      <c r="M102" s="22"/>
+      <c r="N102" s="23"/>
+      <c r="O102" s="22"/>
+      <c r="P102" s="23"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="23"/>
       <c r="T102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4759,22 +4771,22 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
+      <c r="A103" s="21"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
-      <c r="I103" s="21"/>
+      <c r="I103" s="24"/>
       <c r="J103" s="18">
         <v>3600</v>
       </c>
-      <c r="K103" s="23"/>
+      <c r="K103" s="22"/>
       <c r="L103" s="25"/>
-      <c r="M103" s="23"/>
-      <c r="N103" s="24"/>
-      <c r="O103" s="23"/>
-      <c r="P103" s="24"/>
-      <c r="Q103" s="22"/>
-      <c r="R103" s="24"/>
+      <c r="M103" s="22"/>
+      <c r="N103" s="23"/>
+      <c r="O103" s="22"/>
+      <c r="P103" s="23"/>
+      <c r="Q103" s="21"/>
+      <c r="R103" s="23"/>
       <c r="T103" s="11">
         <v>14.081699</v>
       </c>
@@ -4788,22 +4800,22 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="22"/>
+      <c r="A104" s="21"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
-      <c r="I104" s="21"/>
+      <c r="I104" s="24"/>
       <c r="J104" s="18">
         <v>3600</v>
       </c>
-      <c r="K104" s="23"/>
+      <c r="K104" s="22"/>
       <c r="L104" s="25"/>
-      <c r="M104" s="23"/>
-      <c r="N104" s="24"/>
-      <c r="O104" s="23"/>
-      <c r="P104" s="24"/>
-      <c r="Q104" s="22"/>
-      <c r="R104" s="24"/>
+      <c r="M104" s="22"/>
+      <c r="N104" s="23"/>
+      <c r="O104" s="22"/>
+      <c r="P104" s="23"/>
+      <c r="Q104" s="21"/>
+      <c r="R104" s="23"/>
       <c r="T104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4817,38 +4829,40 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="22" t="s">
+      <c r="A105" s="21" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
         <v>500</v>
       </c>
-      <c r="I105" s="21"/>
+      <c r="I105" s="24">
+        <v>0</v>
+      </c>
       <c r="J105" s="18">
         <v>3600</v>
       </c>
-      <c r="K105" s="23" t="s">
+      <c r="K105" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L105" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M105" s="23">
+      <c r="M105" s="22">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="23">
+      <c r="N105" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="22">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="24" t="s">
+      <c r="P105" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T105" s="11">
@@ -4864,22 +4878,22 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="22"/>
+      <c r="A106" s="21"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
-      <c r="I106" s="21"/>
+      <c r="I106" s="24"/>
       <c r="J106" s="18">
         <v>3600</v>
       </c>
-      <c r="K106" s="23"/>
+      <c r="K106" s="22"/>
       <c r="L106" s="25"/>
-      <c r="M106" s="23"/>
-      <c r="N106" s="24"/>
-      <c r="O106" s="23"/>
-      <c r="P106" s="24"/>
-      <c r="Q106" s="22"/>
-      <c r="R106" s="24"/>
+      <c r="M106" s="22"/>
+      <c r="N106" s="23"/>
+      <c r="O106" s="22"/>
+      <c r="P106" s="23"/>
+      <c r="Q106" s="21"/>
+      <c r="R106" s="23"/>
       <c r="T106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4893,22 +4907,22 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="22"/>
+      <c r="A107" s="21"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
-      <c r="I107" s="21"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="18">
         <v>3600</v>
       </c>
-      <c r="K107" s="23"/>
+      <c r="K107" s="22"/>
       <c r="L107" s="25"/>
-      <c r="M107" s="23"/>
-      <c r="N107" s="24"/>
-      <c r="O107" s="23"/>
-      <c r="P107" s="24"/>
-      <c r="Q107" s="22"/>
-      <c r="R107" s="24"/>
+      <c r="M107" s="22"/>
+      <c r="N107" s="23"/>
+      <c r="O107" s="22"/>
+      <c r="P107" s="23"/>
+      <c r="Q107" s="21"/>
+      <c r="R107" s="23"/>
       <c r="T107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4922,22 +4936,22 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="22"/>
+      <c r="A108" s="21"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
-      <c r="I108" s="21"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="18">
         <v>3600</v>
       </c>
-      <c r="K108" s="23"/>
+      <c r="K108" s="22"/>
       <c r="L108" s="25"/>
-      <c r="M108" s="23"/>
-      <c r="N108" s="24"/>
-      <c r="O108" s="23"/>
-      <c r="P108" s="24"/>
-      <c r="Q108" s="22"/>
-      <c r="R108" s="24"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="23"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="23"/>
+      <c r="Q108" s="21"/>
+      <c r="R108" s="23"/>
       <c r="T108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4951,38 +4965,40 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="22" t="s">
+      <c r="A109" s="21" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>500</v>
       </c>
-      <c r="I109" s="21"/>
+      <c r="I109" s="24">
+        <v>0</v>
+      </c>
       <c r="J109" s="18">
         <v>3600</v>
       </c>
-      <c r="K109" s="23" t="s">
+      <c r="K109" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L109" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M109" s="23">
+      <c r="M109" s="22">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="23">
+      <c r="N109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="22">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="24" t="s">
+      <c r="P109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T109" s="11">
@@ -4998,22 +5014,22 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="22"/>
+      <c r="A110" s="21"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
-      <c r="I110" s="21"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="18">
         <v>3600</v>
       </c>
-      <c r="K110" s="23"/>
+      <c r="K110" s="22"/>
       <c r="L110" s="25"/>
-      <c r="M110" s="23"/>
-      <c r="N110" s="24"/>
-      <c r="O110" s="23"/>
-      <c r="P110" s="24"/>
-      <c r="Q110" s="22"/>
-      <c r="R110" s="24"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="23"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="23"/>
+      <c r="Q110" s="21"/>
+      <c r="R110" s="23"/>
       <c r="T110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -5027,22 +5043,22 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="22"/>
+      <c r="A111" s="21"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
-      <c r="I111" s="21"/>
+      <c r="I111" s="24"/>
       <c r="J111" s="18">
         <v>3600</v>
       </c>
-      <c r="K111" s="23"/>
+      <c r="K111" s="22"/>
       <c r="L111" s="25"/>
-      <c r="M111" s="23"/>
-      <c r="N111" s="24"/>
-      <c r="O111" s="23"/>
-      <c r="P111" s="24"/>
-      <c r="Q111" s="22"/>
-      <c r="R111" s="24"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="23"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="23"/>
+      <c r="Q111" s="21"/>
+      <c r="R111" s="23"/>
       <c r="T111" s="11">
         <v>19.316754</v>
       </c>
@@ -5056,22 +5072,22 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="22"/>
+      <c r="A112" s="21"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
-      <c r="I112" s="21"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="18">
         <v>3600</v>
       </c>
-      <c r="K112" s="23"/>
+      <c r="K112" s="22"/>
       <c r="L112" s="25"/>
-      <c r="M112" s="23"/>
-      <c r="N112" s="24"/>
-      <c r="O112" s="23"/>
-      <c r="P112" s="24"/>
-      <c r="Q112" s="22"/>
-      <c r="R112" s="24"/>
+      <c r="M112" s="22"/>
+      <c r="N112" s="23"/>
+      <c r="O112" s="22"/>
+      <c r="P112" s="23"/>
+      <c r="Q112" s="21"/>
+      <c r="R112" s="23"/>
       <c r="T112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -5085,38 +5101,40 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="22" t="s">
+      <c r="A113" s="21" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
         <v>500</v>
       </c>
-      <c r="I113" s="21"/>
+      <c r="I113" s="24">
+        <v>0</v>
+      </c>
       <c r="J113" s="18">
         <v>3600</v>
       </c>
-      <c r="K113" s="23" t="s">
+      <c r="K113" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L113" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M113" s="23">
+      <c r="M113" s="22">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="23">
+      <c r="N113" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="22">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="24" t="s">
+      <c r="P113" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T113" s="11">
@@ -5132,22 +5150,22 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="22"/>
+      <c r="A114" s="21"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
-      <c r="I114" s="21"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="18">
         <v>3600</v>
       </c>
-      <c r="K114" s="23"/>
+      <c r="K114" s="22"/>
       <c r="L114" s="25"/>
-      <c r="M114" s="23"/>
-      <c r="N114" s="24"/>
-      <c r="O114" s="23"/>
-      <c r="P114" s="24"/>
-      <c r="Q114" s="22"/>
-      <c r="R114" s="24"/>
+      <c r="M114" s="22"/>
+      <c r="N114" s="23"/>
+      <c r="O114" s="22"/>
+      <c r="P114" s="23"/>
+      <c r="Q114" s="21"/>
+      <c r="R114" s="23"/>
       <c r="T114" s="11">
         <v>12.293174</v>
       </c>
@@ -5161,22 +5179,22 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="22"/>
+      <c r="A115" s="21"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
-      <c r="I115" s="21"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="18">
         <v>3600</v>
       </c>
-      <c r="K115" s="23"/>
+      <c r="K115" s="22"/>
       <c r="L115" s="25"/>
-      <c r="M115" s="23"/>
-      <c r="N115" s="24"/>
-      <c r="O115" s="23"/>
-      <c r="P115" s="24"/>
-      <c r="Q115" s="22"/>
-      <c r="R115" s="24"/>
+      <c r="M115" s="22"/>
+      <c r="N115" s="23"/>
+      <c r="O115" s="22"/>
+      <c r="P115" s="23"/>
+      <c r="Q115" s="21"/>
+      <c r="R115" s="23"/>
       <c r="T115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -5190,22 +5208,22 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="22"/>
+      <c r="A116" s="21"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
-      <c r="I116" s="21"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="18">
         <v>3600</v>
       </c>
-      <c r="K116" s="23"/>
+      <c r="K116" s="22"/>
       <c r="L116" s="25"/>
-      <c r="M116" s="23"/>
-      <c r="N116" s="24"/>
-      <c r="O116" s="23"/>
-      <c r="P116" s="24"/>
-      <c r="Q116" s="22"/>
-      <c r="R116" s="24"/>
+      <c r="M116" s="22"/>
+      <c r="N116" s="23"/>
+      <c r="O116" s="22"/>
+      <c r="P116" s="23"/>
+      <c r="Q116" s="21"/>
+      <c r="R116" s="23"/>
       <c r="T116" s="11">
         <v>61.224843</v>
       </c>
@@ -5219,38 +5237,40 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="22" t="s">
+      <c r="A117" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
         <v>500</v>
       </c>
-      <c r="I117" s="21"/>
+      <c r="I117" s="24">
+        <v>0</v>
+      </c>
       <c r="J117" s="18">
         <v>3600</v>
       </c>
-      <c r="K117" s="23" t="s">
+      <c r="K117" s="22" t="s">
         <v>10</v>
       </c>
       <c r="L117" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="M117" s="23">
+      <c r="M117" s="22">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="23">
+      <c r="N117" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="22">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="24" t="s">
+      <c r="P117" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="23" t="s">
         <v>10</v>
       </c>
       <c r="T117" s="11">
@@ -5266,22 +5286,22 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="22"/>
+      <c r="A118" s="21"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
-      <c r="I118" s="21"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="18">
         <v>3600</v>
       </c>
-      <c r="K118" s="23"/>
+      <c r="K118" s="22"/>
       <c r="L118" s="25"/>
-      <c r="M118" s="23"/>
-      <c r="N118" s="24"/>
-      <c r="O118" s="23"/>
-      <c r="P118" s="24"/>
-      <c r="Q118" s="22"/>
-      <c r="R118" s="24"/>
+      <c r="M118" s="22"/>
+      <c r="N118" s="23"/>
+      <c r="O118" s="22"/>
+      <c r="P118" s="23"/>
+      <c r="Q118" s="21"/>
+      <c r="R118" s="23"/>
       <c r="T118" s="11">
         <v>10.24381</v>
       </c>
@@ -5295,22 +5315,22 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="22"/>
+      <c r="A119" s="21"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
-      <c r="I119" s="21"/>
+      <c r="I119" s="24"/>
       <c r="J119" s="18">
         <v>3600</v>
       </c>
-      <c r="K119" s="23"/>
+      <c r="K119" s="22"/>
       <c r="L119" s="25"/>
-      <c r="M119" s="23"/>
-      <c r="N119" s="24"/>
-      <c r="O119" s="23"/>
-      <c r="P119" s="24"/>
-      <c r="Q119" s="22"/>
-      <c r="R119" s="24"/>
+      <c r="M119" s="22"/>
+      <c r="N119" s="23"/>
+      <c r="O119" s="22"/>
+      <c r="P119" s="23"/>
+      <c r="Q119" s="21"/>
+      <c r="R119" s="23"/>
       <c r="T119" s="11">
         <v>20.481614</v>
       </c>
@@ -5324,22 +5344,22 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="22"/>
+      <c r="A120" s="21"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
-      <c r="I120" s="21"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="18">
         <v>3600</v>
       </c>
-      <c r="K120" s="23"/>
+      <c r="K120" s="22"/>
       <c r="L120" s="25"/>
-      <c r="M120" s="23"/>
-      <c r="N120" s="24"/>
-      <c r="O120" s="23"/>
-      <c r="P120" s="24"/>
-      <c r="Q120" s="22"/>
-      <c r="R120" s="24"/>
+      <c r="M120" s="22"/>
+      <c r="N120" s="23"/>
+      <c r="O120" s="22"/>
+      <c r="P120" s="23"/>
+      <c r="Q120" s="21"/>
+      <c r="R120" s="23"/>
       <c r="T120" s="11">
         <v>51.171509</v>
       </c>
@@ -5354,23 +5374,256 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -5395,256 +5648,23 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4818402-BED9-46C5-B1E7-C0656AEBE9C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770"/>
+    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="48">
   <si>
     <t>Greedy</t>
   </si>
@@ -168,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -211,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -273,6 +274,12 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -280,9 +287,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -326,7 +330,7 @@
         <xdr:cNvPr id="5" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB1CE9C-D8CE-4A31-A3B0-F397795C7B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -367,7 +371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -661,14 +671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CF120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H109" sqref="H109"/>
+      <selection pane="bottomRight" activeCell="K89" sqref="K89:L120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,39 +716,39 @@
     <col min="46" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="C1" s="21" t="s">
+    <row r="1" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21" t="s">
+      <c r="D1" s="23"/>
+      <c r="E1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21" t="s">
+      <c r="F1" s="23"/>
+      <c r="G1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21" t="s">
+      <c r="H1" s="23"/>
+      <c r="I1" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21" t="s">
+      <c r="J1" s="23"/>
+      <c r="K1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21" t="s">
+      <c r="L1" s="23"/>
+      <c r="M1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="21"/>
-      <c r="O1" s="21" t="s">
+      <c r="N1" s="23"/>
+      <c r="O1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="21"/>
-      <c r="Q1" s="21" t="s">
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="21"/>
+      <c r="R1" s="23"/>
       <c r="U1" s="9" t="s">
         <v>42</v>
       </c>
@@ -746,26 +756,26 @@
         <v>43</v>
       </c>
       <c r="W1" s="1"/>
-      <c r="X1" s="13" t="s">
+      <c r="BM1" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="BR1" s="23"/>
+      <c r="CE1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Y1" s="13" t="s">
+      <c r="CF1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="BR1" s="21"/>
-    </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:84" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -827,12 +837,6 @@
         <v>8</v>
       </c>
       <c r="W2" s="11"/>
-      <c r="X2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y2" s="17" t="s">
-        <v>8</v>
-      </c>
       <c r="BM2" s="7" t="s">
         <v>8</v>
       </c>
@@ -851,40 +855,55 @@
       <c r="BR2" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+      <c r="CE2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="CF2" s="17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
         <v>500</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="C3" s="21">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="E3" s="21">
+        <v>5.778026E-2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>5.8592720000000001E-2</v>
+      </c>
+      <c r="I3" s="22"/>
       <c r="J3" s="8">
         <v>3600</v>
       </c>
-      <c r="K3" s="22">
+      <c r="K3" s="24">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="23">
+      <c r="L3" s="25">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="23" t="s">
+      <c r="M3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="11">
@@ -897,12 +916,6 @@
         <v>10</v>
       </c>
       <c r="W3" s="11"/>
-      <c r="X3" s="16">
-        <v>6.4761865432645171E-2</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>3.5342664440224207E-2</v>
-      </c>
       <c r="BM3" s="7">
         <v>4.5740999999999997E-2</v>
       </c>
@@ -921,24 +934,39 @@
       <c r="BR3" s="8">
         <v>0.81581599999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A4" s="21"/>
+      <c r="CE3" s="16">
+        <v>6.4761865432645171E-2</v>
+      </c>
+      <c r="CF3" s="16">
+        <v>3.5342664440224207E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="C4" s="21">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="E4" s="21">
+        <v>5.224322E-2</v>
+      </c>
+      <c r="G4" s="21">
+        <v>5.345987E-2</v>
+      </c>
+      <c r="I4" s="22"/>
       <c r="J4" s="18">
         <v>3600</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="23"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="25"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="25"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="25"/>
       <c r="T4" s="11">
         <v>1.6109789999999999</v>
       </c>
@@ -949,12 +977,6 @@
         <v>10</v>
       </c>
       <c r="W4" s="11"/>
-      <c r="X4" s="16">
-        <v>5.4245447183507253E-2</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>3.1441507074241162E-2</v>
-      </c>
       <c r="BM4" s="7">
         <v>3.9321000000000002E-2</v>
       </c>
@@ -973,24 +995,39 @@
       <c r="BR4" s="8">
         <v>1.6109789999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A5" s="21"/>
+      <c r="CE4" s="16">
+        <v>5.4245447183507253E-2</v>
+      </c>
+      <c r="CF4" s="16">
+        <v>3.1441507074241162E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A5" s="23"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="C5" s="21">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="E5" s="21">
+        <v>4.8954900000000003E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>5.1010319999999998E-2</v>
+      </c>
+      <c r="I5" s="22"/>
       <c r="J5" s="18">
         <v>3600</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="25"/>
       <c r="T5" s="11">
         <v>3.1995640000000001</v>
       </c>
@@ -1001,12 +1038,6 @@
         <v>10</v>
       </c>
       <c r="W5" s="11"/>
-      <c r="X5" s="16">
-        <v>4.6422633774552538E-2</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>3.1289883051820649E-2</v>
-      </c>
       <c r="BM5" s="7">
         <v>3.1038E-2</v>
       </c>
@@ -1025,24 +1056,39 @@
       <c r="BR5" s="8">
         <v>3.1995640000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
+      <c r="CE5" s="16">
+        <v>4.6422633774552538E-2</v>
+      </c>
+      <c r="CF5" s="16">
+        <v>3.1289883051820649E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A6" s="23"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="C6" s="21">
+        <v>6.5181710000000004E-2</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4.670651E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>4.5764609999999997E-2</v>
+      </c>
+      <c r="I6" s="22"/>
       <c r="J6" s="18">
         <v>3600</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="25"/>
       <c r="S6" s="4"/>
       <c r="T6" s="11">
         <v>7.9486220000000003</v>
@@ -1054,7 +1100,6 @@
         <v>10</v>
       </c>
       <c r="W6" s="11"/>
-      <c r="Y6" s="2"/>
       <c r="BM6" s="7">
         <v>2.6339999999999999E-2</v>
       </c>
@@ -1074,241 +1119,236 @@
         <v>7.9486220000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A7" s="23" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="18">
         <v>3600</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="23" t="s">
+      <c r="K7" s="24"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="11"/>
       <c r="U7" s="10"/>
       <c r="V7" s="10"/>
       <c r="W7" s="11"/>
-      <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+    </row>
+    <row r="8" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="22"/>
       <c r="J8" s="18">
         <v>3600</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="25"/>
       <c r="T8" s="11"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
-      <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+    </row>
+    <row r="9" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="22"/>
       <c r="J9" s="18">
         <v>3600</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="25"/>
       <c r="T9" s="11"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
-      <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+    </row>
+    <row r="10" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="22"/>
       <c r="J10" s="18">
         <v>3600</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="25"/>
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
       <c r="U10" s="10"/>
       <c r="V10" s="10"/>
       <c r="W10" s="11"/>
-      <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    </row>
+    <row r="11" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="22"/>
       <c r="J11" s="18">
         <v>3600</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="24">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="25">
         <v>0.435</v>
       </c>
-      <c r="M11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="23" t="s">
+      <c r="M11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="11"/>
       <c r="U11" s="10"/>
       <c r="V11" s="10"/>
       <c r="W11" s="11"/>
-      <c r="X11" s="16">
+      <c r="CE11" s="16">
         <v>0.12645979872118801</v>
       </c>
-      <c r="Y11" s="16">
+      <c r="CF11" s="16">
         <v>6.8531275343270401E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="22"/>
       <c r="J12" s="18">
         <v>3600</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="25"/>
       <c r="T12" s="11"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
       <c r="W12" s="11"/>
-      <c r="X12" s="16">
+      <c r="CE12" s="16">
         <v>0.11615750071948699</v>
       </c>
-      <c r="Y12" s="16">
+      <c r="CF12" s="16">
         <v>6.1596683870547099E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A13" s="23"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="22"/>
       <c r="J13" s="18">
         <v>3600</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="23"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="25"/>
       <c r="T13" s="11"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
       <c r="W13" s="11"/>
-      <c r="X13" s="19">
+      <c r="CE13" s="19">
         <v>0.104140937635714</v>
       </c>
-      <c r="Y13" s="19">
+      <c r="CF13" s="19">
         <v>5.8596683870547103E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A14" s="23"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="22"/>
       <c r="J14" s="18">
         <v>3600</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="23"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="25"/>
       <c r="S14" s="4"/>
       <c r="T14" s="11"/>
       <c r="U14" s="10"/>
       <c r="V14" s="10"/>
       <c r="W14" s="11"/>
-      <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    </row>
+    <row r="15" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1317,28 +1357,28 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="22"/>
       <c r="J15" s="18">
         <v>3600</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="23"/>
-      <c r="M15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="23" t="s">
+      <c r="K15" s="24"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="25" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1346,65 +1386,63 @@
       <c r="U15" s="10"/>
       <c r="V15" s="10"/>
       <c r="W15" s="11"/>
-      <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.25">
-      <c r="A16" s="21"/>
+    </row>
+    <row r="16" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A16" s="23"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="22"/>
       <c r="J16" s="18">
         <v>3600</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="23"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="23"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="25"/>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="10"/>
       <c r="V16" s="10"/>
       <c r="W16" s="11"/>
-      <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+    </row>
+    <row r="17" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A17" s="23"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="22"/>
       <c r="J17" s="18">
         <v>3600</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="23"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="23"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="25"/>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="10"/>
       <c r="V17" s="10"/>
       <c r="W17" s="11"/>
-      <c r="X17" s="14"/>
-      <c r="Y17" s="14"/>
-    </row>
-    <row r="18" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
+      <c r="CE17" s="14"/>
+      <c r="CF17" s="14"/>
+    </row>
+    <row r="18" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="23"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1414,28 +1452,28 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="22"/>
       <c r="J18" s="18">
         <v>3600</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="23"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="23"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="25"/>
       <c r="S18" s="4"/>
       <c r="T18" s="11"/>
       <c r="U18" s="10"/>
       <c r="V18" s="10"/>
       <c r="W18" s="11"/>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-    </row>
-    <row r="19" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="CE18" s="16"/>
+      <c r="CF18" s="16"/>
+    </row>
+    <row r="19" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1447,28 +1485,28 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="22"/>
       <c r="J19" s="18">
         <v>3600</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="23"/>
-      <c r="M19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="23" t="s">
+      <c r="K19" s="24"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="25" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1476,11 +1514,11 @@
       <c r="U19" s="10"/>
       <c r="V19" s="10"/>
       <c r="W19" s="11"/>
-      <c r="X19" s="16"/>
-      <c r="Y19" s="16"/>
-    </row>
-    <row r="20" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
+      <c r="CE19" s="16"/>
+      <c r="CF19" s="16"/>
+    </row>
+    <row r="20" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1490,28 +1528,28 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="22"/>
       <c r="J20" s="18">
         <v>3600</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="23"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
       <c r="U20" s="10"/>
       <c r="V20" s="10"/>
       <c r="W20" s="11"/>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-    </row>
-    <row r="21" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
+      <c r="CE20" s="16"/>
+      <c r="CF20" s="16"/>
+    </row>
+    <row r="21" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1521,28 +1559,28 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="22"/>
       <c r="J21" s="18">
         <v>3600</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="23"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="25"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="25"/>
       <c r="S21" s="4"/>
       <c r="T21" s="11"/>
       <c r="U21" s="10"/>
       <c r="V21" s="10"/>
       <c r="W21" s="11"/>
-      <c r="X21" s="16"/>
-      <c r="Y21" s="16"/>
-    </row>
-    <row r="22" spans="1:25" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
+      <c r="CE21" s="16"/>
+      <c r="CF21" s="16"/>
+    </row>
+    <row r="22" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="23"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1552,87 +1590,71 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="22"/>
       <c r="J22" s="18">
         <v>3600</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="23"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="25"/>
       <c r="S22" s="4"/>
       <c r="T22" s="11"/>
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
       <c r="W22" s="11"/>
-      <c r="X22" s="16"/>
-      <c r="Y22" s="16"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="CE22" s="16"/>
+      <c r="CF22" s="16"/>
+    </row>
+    <row r="23" spans="1:84" x14ac:dyDescent="0.25">
       <c r="J23" s="18"/>
       <c r="T23" s="11"/>
       <c r="U23" s="10"/>
       <c r="V23" s="10"/>
       <c r="W23" s="11"/>
-      <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+    </row>
+    <row r="24" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
         <v>500</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.11919315</v>
-      </c>
-      <c r="D24" s="8">
-        <v>47.35692298</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0.14943234999999999</v>
-      </c>
-      <c r="F24" s="8">
-        <v>82.706655029999993</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0.1950189</v>
-      </c>
-      <c r="H24" s="8">
-        <v>85.715054749999993</v>
-      </c>
-      <c r="I24" s="24">
+      <c r="C24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="I24" s="22">
         <v>8.0775444264943394E-5</v>
       </c>
       <c r="J24" s="18">
         <v>3600</v>
       </c>
-      <c r="K24" s="22">
+      <c r="K24" s="24">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="23">
+      <c r="L24" s="25">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="22">
+      <c r="M24" s="24">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="22">
+      <c r="N24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="24">
         <v>0.153</v>
       </c>
-      <c r="P24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="23" t="s">
+      <c r="P24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="11">
@@ -1645,48 +1667,33 @@
         <v>8.6752999999999997E-2</v>
       </c>
       <c r="W24" s="12"/>
-      <c r="X24" s="16">
+      <c r="CE24" s="16">
         <v>0.13688711602378539</v>
       </c>
-      <c r="Y24" s="16">
+      <c r="CF24" s="16">
         <v>7.5060378575190295E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="21"/>
+    <row r="25" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.11919315</v>
-      </c>
-      <c r="D25" s="8">
-        <v>93.827354310000004</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0.14943234999999999</v>
-      </c>
-      <c r="F25" s="8">
-        <v>165.36722040000001</v>
-      </c>
-      <c r="G25" s="7">
-        <v>0.1950189</v>
-      </c>
-      <c r="H25" s="8">
-        <v>164.00883055</v>
-      </c>
-      <c r="I25" s="24"/>
+      <c r="C25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="I25" s="22"/>
       <c r="J25" s="18">
         <v>3600</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="23"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="23"/>
+      <c r="R25" s="25"/>
       <c r="T25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1697,48 +1704,33 @@
         <v>8.1361000000000003E-2</v>
       </c>
       <c r="W25" s="12"/>
-      <c r="X25" s="16">
+      <c r="CE25" s="16">
         <v>0.1239270127592192</v>
       </c>
-      <c r="Y25" s="16">
+      <c r="CF25" s="16">
         <v>6.2918757652814239E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="21"/>
+    <row r="26" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A26" s="23"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.11919315</v>
-      </c>
-      <c r="D26" s="8">
-        <v>185.83584508999999</v>
-      </c>
-      <c r="E26" s="7">
-        <v>0.14943234999999999</v>
-      </c>
-      <c r="F26" s="8">
-        <v>330.25536822999999</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0.1950189</v>
-      </c>
-      <c r="H26" s="8">
-        <v>320.50865793000003</v>
-      </c>
-      <c r="I26" s="24"/>
+      <c r="C26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="I26" s="22"/>
       <c r="J26" s="18">
         <v>3600</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="23"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="23"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="25"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="25"/>
+      <c r="Q26" s="23"/>
+      <c r="R26" s="25"/>
       <c r="T26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1749,48 +1741,33 @@
         <v>7.4099999999999999E-2</v>
       </c>
       <c r="W26" s="12"/>
-      <c r="X26" s="16">
+      <c r="CE26" s="16">
         <v>0.1050443467852758</v>
       </c>
-      <c r="Y26" s="16">
+      <c r="CF26" s="16">
         <v>5.3326321728132453E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="21"/>
+    <row r="27" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A27" s="23"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.11919315</v>
-      </c>
-      <c r="D27" s="8">
-        <v>464.97284223999998</v>
-      </c>
-      <c r="E27" s="7">
-        <v>0.14943234999999999</v>
-      </c>
-      <c r="F27" s="8">
-        <v>819.04617929000005</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0.15675876</v>
-      </c>
-      <c r="H27" s="8">
-        <v>777.18993831</v>
-      </c>
-      <c r="I27" s="24"/>
+      <c r="C27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="I27" s="22"/>
       <c r="J27" s="18">
         <v>3600</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="23"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="25"/>
+      <c r="Q27" s="23"/>
+      <c r="R27" s="25"/>
       <c r="T27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1801,61 +1778,45 @@
         <v>5.9912E-2</v>
       </c>
       <c r="W27" s="12"/>
-      <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+    </row>
+    <row r="28" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
         <v>500</v>
       </c>
-      <c r="C28" s="7">
-        <v>0.14447014999999999</v>
-      </c>
-      <c r="D28" s="8">
-        <v>61.145862700000002</v>
-      </c>
-      <c r="E28" s="7">
-        <v>0.23270507000000001</v>
-      </c>
-      <c r="F28" s="8">
-        <v>124.44330764</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0.26715045999999998</v>
-      </c>
-      <c r="H28" s="8">
-        <v>118.31681322999999</v>
-      </c>
-      <c r="I28" s="24">
+      <c r="C28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="I28" s="22">
         <v>2.1135191933276802E-3</v>
       </c>
       <c r="J28" s="18">
         <v>3600</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="24">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="23">
+      <c r="L28" s="25">
         <v>0.624</v>
       </c>
-      <c r="M28" s="22">
+      <c r="M28" s="24">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="22">
+      <c r="N28" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="24">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="23" t="s">
+      <c r="P28" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="11">
@@ -1868,48 +1829,33 @@
         <v>0.118543</v>
       </c>
       <c r="W28" s="12"/>
-      <c r="X28" s="16">
+      <c r="CE28" s="16">
         <v>0.14166088738559399</v>
       </c>
-      <c r="Y28" s="16">
+      <c r="CF28" s="16">
         <v>9.5576566423238279E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="21"/>
+    <row r="29" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A29" s="23"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
-      <c r="C29" s="7">
-        <v>0.14447014999999999</v>
-      </c>
-      <c r="D29" s="8">
-        <v>120.57370141</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0.23270507000000001</v>
-      </c>
-      <c r="F29" s="8">
-        <v>248.91053056999999</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0.26715045999999998</v>
-      </c>
-      <c r="H29" s="8">
-        <v>233.93687320000001</v>
-      </c>
-      <c r="I29" s="24"/>
+      <c r="C29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="I29" s="22"/>
       <c r="J29" s="18">
         <v>3600</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="23"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="25"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="25"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="25"/>
       <c r="T29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1920,48 +1866,33 @@
         <v>0.105272</v>
       </c>
       <c r="W29" s="12"/>
-      <c r="X29" s="16">
+      <c r="CE29" s="16">
         <v>0.13076665587687061</v>
       </c>
-      <c r="Y29" s="16">
+      <c r="CF29" s="16">
         <v>9.0800495453678173E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="21"/>
+    <row r="30" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A30" s="23"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
-      <c r="C30" s="7">
-        <v>0.14447014999999999</v>
-      </c>
-      <c r="D30" s="8">
-        <v>242.45598602000001</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0.23270507000000001</v>
-      </c>
-      <c r="F30" s="8">
-        <v>489.81045389000002</v>
-      </c>
-      <c r="G30" s="7">
-        <v>0.26715045999999998</v>
-      </c>
-      <c r="H30" s="8">
-        <v>469.41567397</v>
-      </c>
-      <c r="I30" s="24"/>
+      <c r="C30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="I30" s="22"/>
       <c r="J30" s="18">
         <v>3600</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="23"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="25"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="25"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="25"/>
       <c r="T30" s="11">
         <v>15.800986</v>
       </c>
@@ -1972,48 +1903,33 @@
         <v>9.0529999999999999E-2</v>
       </c>
       <c r="W30" s="12"/>
-      <c r="X30" s="16">
+      <c r="CE30" s="16">
         <v>0.11610475192718191</v>
       </c>
-      <c r="Y30" s="16">
+      <c r="CF30" s="16">
         <v>8.0211340873238432E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
+    <row r="31" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A31" s="23"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
-      <c r="C31" s="7">
-        <v>0.14447014999999999</v>
-      </c>
-      <c r="D31" s="8">
-        <v>615.28000001999999</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0.23270507000000001</v>
-      </c>
-      <c r="F31" s="8">
-        <v>1214.73366523</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0.26715045999999998</v>
-      </c>
-      <c r="H31" s="8">
-        <v>1192.2706356000001</v>
-      </c>
-      <c r="I31" s="24"/>
+      <c r="C31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="I31" s="22"/>
       <c r="J31" s="18">
         <v>3600</v>
       </c>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="23"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="23"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="25"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="25"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="25"/>
+      <c r="Q31" s="23"/>
+      <c r="R31" s="25"/>
       <c r="T31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -2024,61 +1940,45 @@
         <v>7.9843999999999998E-2</v>
       </c>
       <c r="W31" s="12"/>
-      <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+    </row>
+    <row r="32" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
         <v>500</v>
       </c>
-      <c r="C32" s="7">
-        <v>0.15675147</v>
-      </c>
-      <c r="D32" s="8">
-        <v>99.552814100000006</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0.21353130000000001</v>
-      </c>
-      <c r="F32" s="8">
-        <v>217.70762991999999</v>
-      </c>
-      <c r="G32" s="7">
-        <v>0.15910176000000001</v>
-      </c>
-      <c r="H32" s="8">
-        <v>70.446268320000001</v>
-      </c>
-      <c r="I32" s="24">
+      <c r="C32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="I32" s="22">
         <v>7.0089728609427004E-3</v>
       </c>
       <c r="J32" s="18">
         <v>3600</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="24">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="23">
+      <c r="L32" s="25">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="22">
+      <c r="M32" s="24">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="22">
+      <c r="N32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="24">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="23" t="s">
+      <c r="P32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="11">
@@ -2091,48 +1991,33 @@
         <v>0.12837799999999999</v>
       </c>
       <c r="W32" s="12"/>
-      <c r="X32" s="16">
+      <c r="CE32" s="16">
         <v>0.1598100151558659</v>
       </c>
-      <c r="Y32" s="16">
+      <c r="CF32" s="16">
         <v>9.5042090819800223E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="21"/>
+    <row r="33" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A33" s="23"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
-      <c r="C33" s="7">
-        <v>0.15675147</v>
-      </c>
-      <c r="D33" s="8">
-        <v>200.00423663000001</v>
-      </c>
-      <c r="E33" s="7">
-        <v>0.21353130000000001</v>
-      </c>
-      <c r="F33" s="8">
-        <v>425.98945665000002</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0.15910176000000001</v>
-      </c>
-      <c r="H33" s="8">
-        <v>343.73055410000001</v>
-      </c>
-      <c r="I33" s="24"/>
+      <c r="C33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="18">
         <v>3600</v>
       </c>
-      <c r="K33" s="22"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="23"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="23"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="25"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="25"/>
+      <c r="Q33" s="23"/>
+      <c r="R33" s="25"/>
       <c r="T33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2143,48 +2028,33 @@
         <v>0.111888</v>
       </c>
       <c r="W33" s="12"/>
-      <c r="X33" s="16">
+      <c r="CE33" s="16">
         <v>0.14760589447770911</v>
       </c>
-      <c r="Y33" s="16">
+      <c r="CF33" s="16">
         <v>8.1518245526609412E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="21"/>
+    <row r="34" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A34" s="23"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
-      <c r="C34" s="7">
-        <v>0.15675147</v>
-      </c>
-      <c r="D34" s="8">
-        <v>398.40725965000001</v>
-      </c>
-      <c r="E34" s="7">
-        <v>0.21353130000000001</v>
-      </c>
-      <c r="F34" s="8">
-        <v>822.21848750000004</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0.15910176000000001</v>
-      </c>
-      <c r="H34" s="8">
-        <v>712.44786477000002</v>
-      </c>
-      <c r="I34" s="24"/>
+      <c r="C34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="18">
         <v>3600</v>
       </c>
-      <c r="K34" s="22"/>
-      <c r="L34" s="23"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="22"/>
-      <c r="P34" s="23"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="23"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="25"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="25"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="25"/>
+      <c r="Q34" s="23"/>
+      <c r="R34" s="25"/>
       <c r="T34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2195,48 +2065,33 @@
         <v>0.10563400000000001</v>
       </c>
       <c r="W34" s="12"/>
-      <c r="X34" s="16">
+      <c r="CE34" s="16">
         <v>0.1427892837570599</v>
       </c>
-      <c r="Y34" s="16">
+      <c r="CF34" s="16">
         <v>7.9552882005758413E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="21"/>
+    <row r="35" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A35" s="23"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
-      <c r="C35" s="7">
-        <v>0.15675147</v>
-      </c>
-      <c r="D35" s="8">
-        <v>998.67807429000004</v>
-      </c>
-      <c r="E35" s="7">
-        <v>0.21353130000000001</v>
-      </c>
-      <c r="F35" s="8">
-        <v>1918.7642810299999</v>
-      </c>
-      <c r="G35" s="7">
-        <v>0.15910176000000001</v>
-      </c>
-      <c r="H35" s="8">
-        <v>1814.96402216</v>
-      </c>
-      <c r="I35" s="24"/>
+      <c r="C35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="18">
         <v>3600</v>
       </c>
-      <c r="K35" s="22"/>
-      <c r="L35" s="23"/>
-      <c r="M35" s="22"/>
-      <c r="N35" s="23"/>
-      <c r="O35" s="22"/>
-      <c r="P35" s="23"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="23"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="25"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="25"/>
+      <c r="Q35" s="23"/>
+      <c r="R35" s="25"/>
       <c r="T35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2247,61 +2102,45 @@
         <v>9.5658000000000007E-2</v>
       </c>
       <c r="W35" s="12"/>
-      <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+    </row>
+    <row r="36" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
         <v>500</v>
       </c>
-      <c r="C36" s="7">
-        <v>0.17881791</v>
-      </c>
-      <c r="D36" s="8">
-        <v>88.120324949999997</v>
-      </c>
-      <c r="E36" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="F36" s="8">
-        <v>233.97937965</v>
-      </c>
-      <c r="G36" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="H36" s="8">
-        <v>230.1504209</v>
-      </c>
-      <c r="I36" s="24">
+      <c r="C36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="I36" s="22">
         <v>2.0514895543250498E-2</v>
       </c>
       <c r="J36" s="18">
         <v>3600</v>
       </c>
-      <c r="K36" s="22">
+      <c r="K36" s="24">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="23">
+      <c r="L36" s="25">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="22">
+      <c r="M36" s="24">
         <v>0.189</v>
       </c>
-      <c r="N36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="22">
+      <c r="N36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="24">
         <v>0.18</v>
       </c>
-      <c r="P36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="23" t="s">
+      <c r="P36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T36" s="11">
@@ -2314,48 +2153,33 @@
         <v>0.14421300000000001</v>
       </c>
       <c r="W36" s="12"/>
-      <c r="X36" s="16">
+      <c r="CE36" s="16">
         <v>0.16159056949776701</v>
       </c>
-      <c r="Y36" s="16">
+      <c r="CF36" s="16">
         <v>0.15015819804763289</v>
       </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="21"/>
+    <row r="37" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A37" s="23"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
-      <c r="C37" s="7">
-        <v>0.17881791</v>
-      </c>
-      <c r="D37" s="8">
-        <v>174.86377671</v>
-      </c>
-      <c r="E37" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="F37" s="8">
-        <v>483.48190689</v>
-      </c>
-      <c r="G37" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="H37" s="8">
-        <v>488.04992247000001</v>
-      </c>
-      <c r="I37" s="24"/>
+      <c r="C37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="I37" s="22"/>
       <c r="J37" s="18">
         <v>3600</v>
       </c>
-      <c r="K37" s="22"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="22"/>
-      <c r="N37" s="23"/>
-      <c r="O37" s="22"/>
-      <c r="P37" s="23"/>
-      <c r="Q37" s="21"/>
-      <c r="R37" s="23"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="25"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="25"/>
+      <c r="Q37" s="23"/>
+      <c r="R37" s="25"/>
       <c r="T37" s="11">
         <v>10.807356</v>
       </c>
@@ -2366,48 +2190,33 @@
         <v>0.12191200000000001</v>
       </c>
       <c r="W37" s="12"/>
-      <c r="X37" s="16">
+      <c r="CE37" s="16">
         <v>0.14201630857310801</v>
       </c>
-      <c r="Y37" s="16">
+      <c r="CF37" s="16">
         <v>0.1224445226875083</v>
       </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
+    <row r="38" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A38" s="23"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
-      <c r="C38" s="7">
-        <v>0.17881791</v>
-      </c>
-      <c r="D38" s="8">
-        <v>346.23731937000002</v>
-      </c>
-      <c r="E38" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="F38" s="8">
-        <v>971.78598570999998</v>
-      </c>
-      <c r="G38" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="H38" s="8">
-        <v>937.89697813999999</v>
-      </c>
-      <c r="I38" s="24"/>
+      <c r="C38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="I38" s="22"/>
       <c r="J38" s="18">
         <v>3600</v>
       </c>
-      <c r="K38" s="22"/>
-      <c r="L38" s="23"/>
-      <c r="M38" s="22"/>
-      <c r="N38" s="23"/>
-      <c r="O38" s="22"/>
-      <c r="P38" s="23"/>
-      <c r="Q38" s="21"/>
-      <c r="R38" s="23"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="25"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="25"/>
+      <c r="Q38" s="23"/>
+      <c r="R38" s="25"/>
       <c r="T38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2418,48 +2227,33 @@
         <v>0.106071</v>
       </c>
       <c r="W38" s="12"/>
-      <c r="X38" s="16">
+      <c r="CE38" s="16">
         <v>0.1223589494365398</v>
       </c>
-      <c r="Y38" s="16">
+      <c r="CF38" s="16">
         <v>0.13044688553761841</v>
       </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="21"/>
+    <row r="39" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A39" s="23"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
-      <c r="C39" s="7">
-        <v>0.17881791</v>
-      </c>
-      <c r="D39" s="8">
-        <v>867.31997582999998</v>
-      </c>
-      <c r="E39" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="F39" s="8">
-        <v>2407.4345629200002</v>
-      </c>
-      <c r="G39" s="7">
-        <v>0.24524435999999999</v>
-      </c>
-      <c r="H39" s="8">
-        <v>2398.0101513899999</v>
-      </c>
-      <c r="I39" s="24"/>
+      <c r="C39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="18">
         <v>3600</v>
       </c>
-      <c r="K39" s="22"/>
-      <c r="L39" s="23"/>
-      <c r="M39" s="22"/>
-      <c r="N39" s="23"/>
-      <c r="O39" s="22"/>
-      <c r="P39" s="23"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="23"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="25"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="25"/>
+      <c r="O39" s="24"/>
+      <c r="P39" s="25"/>
+      <c r="Q39" s="23"/>
+      <c r="R39" s="25"/>
       <c r="T39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2470,61 +2264,45 @@
         <v>8.5440000000000002E-2</v>
       </c>
       <c r="W39" s="12"/>
-      <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    </row>
+    <row r="40" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A40" s="23" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
         <v>500</v>
       </c>
-      <c r="C40" s="7">
-        <v>0.20072708</v>
-      </c>
-      <c r="D40" s="8">
-        <v>138.04547109999999</v>
-      </c>
-      <c r="E40" s="7">
-        <v>0.30219650999999997</v>
-      </c>
-      <c r="F40" s="8">
-        <v>377.80713749</v>
-      </c>
-      <c r="G40" s="7">
-        <v>0.29449424000000002</v>
-      </c>
-      <c r="H40" s="8">
-        <v>386.22343849999999</v>
-      </c>
-      <c r="I40" s="24">
+      <c r="C40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="I40" s="22">
         <v>2.97301842356399E-2</v>
       </c>
       <c r="J40" s="18">
         <v>3600</v>
       </c>
-      <c r="K40" s="22">
+      <c r="K40" s="24">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="23">
+      <c r="L40" s="25">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="22">
+      <c r="M40" s="24">
         <v>0.254</v>
       </c>
-      <c r="N40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="22">
+      <c r="N40" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="24">
         <v>0.187</v>
       </c>
-      <c r="P40" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="22">
+      <c r="P40" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="24">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="23">
+      <c r="R40" s="25">
         <v>600</v>
       </c>
       <c r="T40" s="11">
@@ -2537,48 +2315,33 @@
         <v>0.189831</v>
       </c>
       <c r="W40" s="12"/>
-      <c r="X40" s="15">
+      <c r="CE40" s="15">
         <v>0.21199999999999999</v>
       </c>
-      <c r="Y40" s="15">
+      <c r="CF40" s="15">
         <v>0.15554999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="21"/>
+    <row r="41" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A41" s="23"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
-      <c r="C41" s="7">
-        <v>0.20072708</v>
-      </c>
-      <c r="D41" s="8">
-        <v>272.13257525</v>
-      </c>
-      <c r="E41" s="7">
-        <v>0.30219650999999997</v>
-      </c>
-      <c r="F41" s="8">
-        <v>792.86960887999999</v>
-      </c>
-      <c r="G41" s="7">
-        <v>0.29449424000000002</v>
-      </c>
-      <c r="H41" s="8">
-        <v>807.91166234000002</v>
-      </c>
-      <c r="I41" s="24"/>
+      <c r="C41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="18">
         <v>3600</v>
       </c>
-      <c r="K41" s="22"/>
-      <c r="L41" s="23"/>
-      <c r="M41" s="22"/>
-      <c r="N41" s="23"/>
-      <c r="O41" s="22"/>
-      <c r="P41" s="23"/>
-      <c r="Q41" s="22"/>
-      <c r="R41" s="23"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="25"/>
+      <c r="O41" s="24"/>
+      <c r="P41" s="25"/>
+      <c r="Q41" s="24"/>
+      <c r="R41" s="25"/>
       <c r="T41" s="11">
         <v>13.471734</v>
       </c>
@@ -2589,48 +2352,33 @@
         <v>0.16696800000000001</v>
       </c>
       <c r="W41" s="12"/>
-      <c r="X41" s="15">
+      <c r="CE41" s="15">
         <v>0.18522</v>
       </c>
-      <c r="Y41" s="15">
+      <c r="CF41" s="15">
         <v>0.13542999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="21"/>
+    <row r="42" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A42" s="23"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
-      <c r="C42" s="7">
-        <v>0.20072708</v>
-      </c>
-      <c r="D42" s="8">
-        <v>540.86478131000001</v>
-      </c>
-      <c r="E42" s="7">
-        <v>0.30219650999999997</v>
-      </c>
-      <c r="F42" s="8">
-        <v>1602.63333201</v>
-      </c>
-      <c r="G42" s="7">
-        <v>0.29449424000000002</v>
-      </c>
-      <c r="H42" s="8">
-        <v>1622.3438525199999</v>
-      </c>
-      <c r="I42" s="24"/>
+      <c r="C42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="18">
         <v>3600</v>
       </c>
-      <c r="K42" s="22"/>
-      <c r="L42" s="23"/>
-      <c r="M42" s="22"/>
-      <c r="N42" s="23"/>
-      <c r="O42" s="22"/>
-      <c r="P42" s="23"/>
-      <c r="Q42" s="22"/>
-      <c r="R42" s="23"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="25"/>
+      <c r="O42" s="24"/>
+      <c r="P42" s="25"/>
+      <c r="Q42" s="24"/>
+      <c r="R42" s="25"/>
       <c r="T42" s="11">
         <v>26.813558</v>
       </c>
@@ -2641,48 +2389,33 @@
         <v>0.14726700000000001</v>
       </c>
       <c r="W42" s="12"/>
-      <c r="X42" s="15">
+      <c r="CE42" s="15">
         <v>0.16964000000000001</v>
       </c>
-      <c r="Y42" s="15">
+      <c r="CF42" s="15">
         <v>0.13653999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="21"/>
+    <row r="43" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A43" s="23"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
-      <c r="C43" s="7">
-        <v>0.20072708</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1352.95838768</v>
-      </c>
-      <c r="E43" s="7">
-        <v>0.30219650999999997</v>
-      </c>
-      <c r="F43" s="8">
-        <v>3946.2847349600002</v>
-      </c>
-      <c r="G43" s="7">
-        <v>0.29449424000000002</v>
-      </c>
-      <c r="H43" s="8">
-        <v>4045.9814677200002</v>
-      </c>
-      <c r="I43" s="24"/>
+      <c r="C43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="I43" s="22"/>
       <c r="J43" s="18">
         <v>3600</v>
       </c>
-      <c r="K43" s="22"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="22"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="22"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="22"/>
-      <c r="R43" s="23"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="25"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="25"/>
+      <c r="O43" s="24"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="24"/>
+      <c r="R43" s="25"/>
       <c r="T43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2693,61 +2426,45 @@
         <v>0.12436</v>
       </c>
       <c r="W43" s="12"/>
-      <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+    </row>
+    <row r="44" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>500</v>
       </c>
-      <c r="C44" s="7">
-        <v>0.12465227</v>
-      </c>
-      <c r="D44" s="8">
-        <v>130.72400956000001</v>
-      </c>
-      <c r="E44" s="7">
-        <v>0.26048725</v>
-      </c>
-      <c r="F44" s="8">
-        <v>537.81391286999997</v>
-      </c>
-      <c r="G44" s="7">
-        <v>0.25182659000000002</v>
-      </c>
-      <c r="H44" s="8">
-        <v>561.57670212000005</v>
-      </c>
-      <c r="I44" s="24">
+      <c r="C44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="I44" s="22">
         <v>1.3831368901879601E-3</v>
       </c>
       <c r="J44" s="18">
         <v>3600</v>
       </c>
-      <c r="K44" s="22">
+      <c r="K44" s="24">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="23">
+      <c r="L44" s="25">
         <v>2.7</v>
       </c>
-      <c r="M44" s="22">
+      <c r="M44" s="24">
         <v>0.159</v>
       </c>
-      <c r="N44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="22">
+      <c r="N44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="24">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="23" t="s">
+      <c r="P44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T44" s="11">
@@ -2760,48 +2477,33 @@
         <v>0.104395</v>
       </c>
       <c r="W44" s="12"/>
-      <c r="X44" s="16">
+      <c r="CE44" s="16">
         <v>0.10443781416783531</v>
       </c>
-      <c r="Y44" s="16">
+      <c r="CF44" s="16">
         <v>9.5992092848552785E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="21"/>
+    <row r="45" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A45" s="23"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
-      <c r="C45" s="7">
-        <v>0.12465227</v>
-      </c>
-      <c r="D45" s="8">
-        <v>255.45641595999999</v>
-      </c>
-      <c r="E45" s="7">
-        <v>0.26048725</v>
-      </c>
-      <c r="F45" s="8">
-        <v>1107.67814445</v>
-      </c>
-      <c r="G45" s="7">
-        <v>0.25182659000000002</v>
-      </c>
-      <c r="H45" s="8">
-        <v>1132.2781443599999</v>
-      </c>
-      <c r="I45" s="24"/>
+      <c r="C45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="I45" s="22"/>
       <c r="J45" s="18">
         <v>3600</v>
       </c>
-      <c r="K45" s="22"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="22"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="22"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="23"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="25"/>
+      <c r="O45" s="24"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="23"/>
+      <c r="R45" s="25"/>
       <c r="T45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2812,48 +2514,33 @@
         <v>8.4803000000000003E-2</v>
       </c>
       <c r="W45" s="12"/>
-      <c r="X45" s="16">
+      <c r="CE45" s="16">
         <v>8.4659632275924407E-2</v>
       </c>
-      <c r="Y45" s="16">
+      <c r="CF45" s="16">
         <v>8.7989755185643365E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="21"/>
+    <row r="46" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A46" s="23"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
-      <c r="C46" s="7">
-        <v>0.12465227</v>
-      </c>
-      <c r="D46" s="8">
-        <v>502.88990924000001</v>
-      </c>
-      <c r="E46" s="7">
-        <v>0.26048725</v>
-      </c>
-      <c r="F46" s="8">
-        <v>2173.9790659</v>
-      </c>
-      <c r="G46" s="7">
-        <v>0.25182659000000002</v>
-      </c>
-      <c r="H46" s="8">
-        <v>2158.43117738</v>
-      </c>
-      <c r="I46" s="24"/>
+      <c r="C46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="I46" s="22"/>
       <c r="J46" s="18">
         <v>3600</v>
       </c>
-      <c r="K46" s="22"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="22"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="22"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="23"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="24"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="25"/>
       <c r="T46" s="11">
         <v>34.49512</v>
       </c>
@@ -2864,48 +2551,33 @@
         <v>6.5229999999999996E-2</v>
       </c>
       <c r="W46" s="12"/>
-      <c r="X46" s="16">
+      <c r="CE46" s="16">
         <v>6.3550861874559078E-2</v>
       </c>
-      <c r="Y46" s="16">
+      <c r="CF46" s="16">
         <v>8.9122340895006563E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="21"/>
+    <row r="47" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A47" s="23"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
-      <c r="C47" s="7">
-        <v>0.12465227</v>
-      </c>
-      <c r="D47" s="8">
-        <v>1243.85864401</v>
-      </c>
-      <c r="E47" s="7">
-        <v>0.26048725</v>
-      </c>
-      <c r="F47" s="8">
-        <v>5286.9968733799997</v>
-      </c>
-      <c r="G47" s="7">
-        <v>0.25182659000000002</v>
-      </c>
-      <c r="H47" s="8">
-        <v>5532.4828727200002</v>
-      </c>
-      <c r="I47" s="24"/>
+      <c r="C47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="I47" s="22"/>
       <c r="J47" s="18">
         <v>3600</v>
       </c>
-      <c r="K47" s="22"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="22"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="22"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="23"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="24"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="23"/>
+      <c r="R47" s="25"/>
       <c r="T47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2916,61 +2588,45 @@
         <v>4.0752999999999998E-2</v>
       </c>
       <c r="W47" s="12"/>
-      <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="21" t="s">
+    </row>
+    <row r="48" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
         <v>500</v>
       </c>
-      <c r="C48" s="7">
-        <v>0.13669308999999999</v>
-      </c>
-      <c r="D48" s="8">
-        <v>231.23680282000001</v>
-      </c>
-      <c r="E48" s="7">
-        <v>0.1994099</v>
-      </c>
-      <c r="F48" s="8">
-        <v>1003.98148584</v>
-      </c>
-      <c r="G48" s="7">
-        <v>0.20574854000000001</v>
-      </c>
-      <c r="H48" s="8">
-        <v>949.55767940999999</v>
-      </c>
-      <c r="I48" s="24">
+      <c r="C48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="I48" s="22">
         <v>2.2173780908445601E-2</v>
       </c>
       <c r="J48" s="18">
         <v>3600</v>
       </c>
-      <c r="K48" s="22">
+      <c r="K48" s="24">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="23">
+      <c r="L48" s="25">
         <v>4.883</v>
       </c>
-      <c r="M48" s="22">
+      <c r="M48" s="24">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="22">
+      <c r="N48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="24">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="23" t="s">
+      <c r="P48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T48" s="11">
@@ -2983,48 +2639,33 @@
         <v>0.131967</v>
       </c>
       <c r="W48" s="12"/>
-      <c r="X48" s="16">
+      <c r="CE48" s="16">
         <v>0.133479895821493</v>
       </c>
-      <c r="Y48" s="16">
+      <c r="CF48" s="16">
         <v>0.11002205723648149</v>
       </c>
     </row>
-    <row r="49" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A49" s="21"/>
+    <row r="49" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A49" s="23"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
-      <c r="C49" s="7">
-        <v>0.13669308999999999</v>
-      </c>
-      <c r="D49" s="8">
-        <v>441.64662721000002</v>
-      </c>
-      <c r="E49" s="7">
-        <v>0.1994099</v>
-      </c>
-      <c r="F49" s="8">
-        <v>2225.7648918599998</v>
-      </c>
-      <c r="G49" s="7">
-        <v>0.20574854000000001</v>
-      </c>
-      <c r="H49" s="8">
-        <v>1823.3479774</v>
-      </c>
-      <c r="I49" s="24"/>
+      <c r="C49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="I49" s="22"/>
       <c r="J49" s="18">
         <v>3600</v>
       </c>
-      <c r="K49" s="22"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="22"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="23"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="24"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="23"/>
+      <c r="R49" s="25"/>
       <c r="T49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -3035,48 +2676,33 @@
         <v>0.109731</v>
       </c>
       <c r="W49" s="12"/>
-      <c r="X49" s="16">
+      <c r="CE49" s="16">
         <v>0.1160838308532421</v>
       </c>
-      <c r="Y49" s="16">
+      <c r="CF49" s="16">
         <v>9.9799436468565761E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A50" s="21"/>
+    <row r="50" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A50" s="23"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
-      <c r="C50" s="7">
-        <v>0.13669308999999999</v>
-      </c>
-      <c r="D50" s="8">
-        <v>858.16573853</v>
-      </c>
-      <c r="E50" s="7">
-        <v>0.1994099</v>
-      </c>
-      <c r="F50" s="8">
-        <v>4380.80267525</v>
-      </c>
-      <c r="G50" s="7">
-        <v>0.20574854000000001</v>
-      </c>
-      <c r="H50" s="8">
-        <v>3580.43250799</v>
-      </c>
-      <c r="I50" s="24"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="I50" s="22"/>
       <c r="J50" s="18">
         <v>3600</v>
       </c>
-      <c r="K50" s="22"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="22"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="23"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="24"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="23"/>
+      <c r="R50" s="25"/>
       <c r="T50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -3087,48 +2713,33 @@
         <v>9.2076000000000005E-2</v>
       </c>
       <c r="W50" s="12"/>
-      <c r="X50" s="16">
+      <c r="CE50" s="16">
         <v>9.4201676253653582E-2</v>
       </c>
-      <c r="Y50" s="16">
+      <c r="CF50" s="16">
         <v>8.620059030379669E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A51" s="21"/>
+    <row r="51" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A51" s="23"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
-      <c r="C51" s="7">
-        <v>0.13669308999999999</v>
-      </c>
-      <c r="D51" s="8">
-        <v>2125.5384703899999</v>
-      </c>
-      <c r="E51" s="7">
-        <v>0.1994099</v>
-      </c>
-      <c r="F51" s="8">
-        <v>10160.301476479999</v>
-      </c>
-      <c r="G51" s="7">
-        <v>0.20574854000000001</v>
-      </c>
-      <c r="H51" s="8">
-        <v>9009.6752314599998</v>
-      </c>
-      <c r="I51" s="24"/>
+      <c r="C51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="I51" s="22"/>
       <c r="J51" s="18">
         <v>3600</v>
       </c>
-      <c r="K51" s="22"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="23"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="24"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="24"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="25"/>
       <c r="T51" s="11">
         <v>115.449259</v>
       </c>
@@ -3139,44 +2750,43 @@
         <v>6.8575999999999998E-2</v>
       </c>
       <c r="W51" s="12"/>
-      <c r="Y51" s="2"/>
       <c r="AV51" s="13"/>
     </row>
-    <row r="52" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A52" s="21" t="s">
+    <row r="52" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A52" s="23" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="22">
         <v>3.8355352332044797E-2</v>
       </c>
       <c r="J52" s="18">
         <v>3600</v>
       </c>
-      <c r="K52" s="22">
+      <c r="K52" s="24">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="23">
+      <c r="L52" s="25">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="22">
+      <c r="M52" s="24">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="22">
+      <c r="N52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="24">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="23" t="s">
+      <c r="P52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="11">
@@ -3189,30 +2799,30 @@
         <v>7.3601E-2</v>
       </c>
       <c r="W52" s="12"/>
-      <c r="X52" s="16">
+      <c r="CE52" s="16">
         <v>6.9684492109871168E-2</v>
       </c>
-      <c r="Y52" s="16">
+      <c r="CF52" s="16">
         <v>6.2987731738569364E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A53" s="21"/>
+    <row r="53" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A53" s="23"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="22"/>
       <c r="J53" s="18">
         <v>3600</v>
       </c>
-      <c r="K53" s="22"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="22"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="22"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="21"/>
-      <c r="R53" s="23"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="24"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="24"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="25"/>
       <c r="T53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -3223,30 +2833,30 @@
         <v>6.1533999999999998E-2</v>
       </c>
       <c r="W53" s="12"/>
-      <c r="X53" s="16">
+      <c r="CE53" s="16">
         <v>5.4501220071836332E-2</v>
       </c>
-      <c r="Y53" s="16">
+      <c r="CF53" s="16">
         <v>4.8776938486307993E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
+    <row r="54" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A54" s="23"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="22"/>
       <c r="J54" s="18">
         <v>3600</v>
       </c>
-      <c r="K54" s="22"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="22"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="22"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="21"/>
-      <c r="R54" s="23"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="24"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="24"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="25"/>
       <c r="T54" s="11">
         <v>130.456557</v>
       </c>
@@ -3257,30 +2867,30 @@
         <v>4.5533999999999998E-2</v>
       </c>
       <c r="W54" s="12"/>
-      <c r="X54" s="16">
+      <c r="CE54" s="16">
         <v>3.6751807155286573E-2</v>
       </c>
-      <c r="Y54" s="16">
+      <c r="CF54" s="16">
         <v>4.3658381259155027E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A55" s="21"/>
+    <row r="55" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A55" s="23"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="22"/>
       <c r="J55" s="18">
         <v>3600</v>
       </c>
-      <c r="K55" s="22"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="22"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="21"/>
-      <c r="R55" s="23"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="24"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="24"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="25"/>
       <c r="T55" s="11">
         <v>323.3809</v>
       </c>
@@ -3293,48 +2903,44 @@
       <c r="W55" s="12"/>
       <c r="Y55" s="2"/>
     </row>
-    <row r="56" spans="1:48" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:84" x14ac:dyDescent="0.25">
       <c r="J56" s="18"/>
       <c r="U56" s="10"/>
       <c r="V56" s="10"/>
       <c r="W56" s="12"/>
       <c r="Y56" s="2"/>
     </row>
-    <row r="57" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A57" s="21" t="s">
+    <row r="57" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>500</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="22">
         <v>0</v>
       </c>
       <c r="J57" s="18">
         <v>3600</v>
       </c>
-      <c r="K57" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M57" s="22">
+      <c r="K57" s="24"/>
+      <c r="L57" s="26"/>
+      <c r="M57" s="24">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="22">
+      <c r="N57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="24">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="23" t="s">
+      <c r="P57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T57" s="11">
@@ -3349,23 +2955,23 @@
       <c r="W57" s="12"/>
       <c r="Y57" s="2"/>
     </row>
-    <row r="58" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A58" s="21"/>
+    <row r="58" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A58" s="23"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="22"/>
       <c r="J58" s="18">
         <v>3600</v>
       </c>
-      <c r="K58" s="22"/>
-      <c r="L58" s="25"/>
-      <c r="M58" s="22"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="21"/>
-      <c r="R58" s="23"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="26"/>
+      <c r="M58" s="24"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="24"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="23"/>
+      <c r="R58" s="25"/>
       <c r="T58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3378,23 +2984,23 @@
       <c r="W58" s="12"/>
       <c r="Y58" s="2"/>
     </row>
-    <row r="59" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A59" s="21"/>
+    <row r="59" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A59" s="23"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="22"/>
       <c r="J59" s="18">
         <v>3600</v>
       </c>
-      <c r="K59" s="22"/>
-      <c r="L59" s="25"/>
-      <c r="M59" s="22"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="21"/>
-      <c r="R59" s="23"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="24"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="24"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="23"/>
+      <c r="R59" s="25"/>
       <c r="T59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3407,23 +3013,23 @@
       <c r="W59" s="12"/>
       <c r="Y59" s="2"/>
     </row>
-    <row r="60" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A60" s="21"/>
+    <row r="60" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A60" s="23"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="22"/>
       <c r="J60" s="18">
         <v>3600</v>
       </c>
-      <c r="K60" s="22"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="22"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="22"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="21"/>
-      <c r="R60" s="23"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="26"/>
+      <c r="M60" s="24"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="23"/>
+      <c r="R60" s="25"/>
       <c r="T60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3436,41 +3042,37 @@
       <c r="W60" s="12"/>
       <c r="Y60" s="2"/>
     </row>
-    <row r="61" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
+    <row r="61" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A61" s="23" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
         <v>500</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="22">
         <v>6.94753242196072E-3</v>
       </c>
       <c r="J61" s="18">
         <v>3600</v>
       </c>
-      <c r="K61" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M61" s="22">
+      <c r="K61" s="24"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="24">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="22">
+      <c r="N61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="24">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="23" t="s">
+      <c r="P61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T61" s="11">
@@ -3485,23 +3087,23 @@
       <c r="W61" s="12"/>
       <c r="Y61" s="2"/>
     </row>
-    <row r="62" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A62" s="21"/>
+    <row r="62" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A62" s="23"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="22"/>
       <c r="J62" s="18">
         <v>3600</v>
       </c>
-      <c r="K62" s="22"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="22"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="22"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="21"/>
-      <c r="R62" s="23"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="26"/>
+      <c r="M62" s="24"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="24"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="23"/>
+      <c r="R62" s="25"/>
       <c r="T62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3514,23 +3116,23 @@
       <c r="W62" s="12"/>
       <c r="Y62" s="2"/>
     </row>
-    <row r="63" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A63" s="21"/>
+    <row r="63" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A63" s="23"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="22"/>
       <c r="J63" s="18">
         <v>3600</v>
       </c>
-      <c r="K63" s="22"/>
-      <c r="L63" s="25"/>
-      <c r="M63" s="22"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="22"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="21"/>
-      <c r="R63" s="23"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="26"/>
+      <c r="M63" s="24"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="24"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="25"/>
       <c r="T63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3543,23 +3145,23 @@
       <c r="W63" s="12"/>
       <c r="Y63" s="2"/>
     </row>
-    <row r="64" spans="1:48" x14ac:dyDescent="0.25">
-      <c r="A64" s="21"/>
+    <row r="64" spans="1:84" x14ac:dyDescent="0.25">
+      <c r="A64" s="23"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="22"/>
       <c r="J64" s="18">
         <v>3600</v>
       </c>
-      <c r="K64" s="22"/>
-      <c r="L64" s="25"/>
-      <c r="M64" s="22"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="22"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="23"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="26"/>
+      <c r="M64" s="24"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="24"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="25"/>
       <c r="T64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3581,40 +3183,36 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="21" t="s">
+      <c r="A66" s="23" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="22">
         <v>0</v>
       </c>
       <c r="J66" s="18">
         <v>3600</v>
       </c>
-      <c r="K66" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M66" s="22">
+      <c r="K66" s="24"/>
+      <c r="L66" s="26"/>
+      <c r="M66" s="24">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="22">
+      <c r="N66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="24">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="23" t="s">
+      <c r="P66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T66" s="11">
@@ -3630,22 +3228,22 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
-      <c r="I67" s="24"/>
+      <c r="I67" s="22"/>
       <c r="J67" s="18">
         <v>3600</v>
       </c>
-      <c r="K67" s="22"/>
-      <c r="L67" s="25"/>
-      <c r="M67" s="22"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="22"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="21"/>
-      <c r="R67" s="23"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="24"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="24"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="25"/>
       <c r="T67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3659,22 +3257,22 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="21"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
-      <c r="I68" s="24"/>
+      <c r="I68" s="22"/>
       <c r="J68" s="18">
         <v>3600</v>
       </c>
-      <c r="K68" s="22"/>
-      <c r="L68" s="25"/>
-      <c r="M68" s="22"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="22"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="21"/>
-      <c r="R68" s="23"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="24"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="24"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="25"/>
       <c r="T68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3688,22 +3286,22 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
-      <c r="I69" s="24"/>
+      <c r="I69" s="22"/>
       <c r="J69" s="18">
         <v>3600</v>
       </c>
-      <c r="K69" s="22"/>
-      <c r="L69" s="25"/>
-      <c r="M69" s="22"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="22"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="21"/>
-      <c r="R69" s="23"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="26"/>
+      <c r="M69" s="24"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="24"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="25"/>
       <c r="T69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3725,40 +3323,36 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="21" t="s">
+      <c r="A71" s="23" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="22">
         <v>6.7616724409469602E-3</v>
       </c>
       <c r="J71" s="18">
         <v>3600</v>
       </c>
-      <c r="K71" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M71" s="22">
+      <c r="K71" s="24"/>
+      <c r="L71" s="26"/>
+      <c r="M71" s="24">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="22">
+      <c r="N71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="24">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="23" t="s">
+      <c r="P71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T71" s="11">
@@ -3774,22 +3368,22 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="21"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="22"/>
       <c r="J72" s="18">
         <v>3600</v>
       </c>
-      <c r="K72" s="22"/>
-      <c r="L72" s="25"/>
-      <c r="M72" s="22"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="22"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="21"/>
-      <c r="R72" s="23"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="24"/>
+      <c r="N72" s="25"/>
+      <c r="O72" s="24"/>
+      <c r="P72" s="25"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="25"/>
       <c r="T72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3803,22 +3397,22 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="21"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
-      <c r="I73" s="24"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="18">
         <v>3600</v>
       </c>
-      <c r="K73" s="22"/>
-      <c r="L73" s="25"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="22"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="21"/>
-      <c r="R73" s="23"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="26"/>
+      <c r="M73" s="24"/>
+      <c r="N73" s="25"/>
+      <c r="O73" s="24"/>
+      <c r="P73" s="25"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="25"/>
       <c r="T73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3832,22 +3426,22 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="21"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
-      <c r="I74" s="24"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="18">
         <v>3600</v>
       </c>
-      <c r="K74" s="22"/>
-      <c r="L74" s="25"/>
-      <c r="M74" s="22"/>
-      <c r="N74" s="23"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="23"/>
-      <c r="Q74" s="21"/>
-      <c r="R74" s="23"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="26"/>
+      <c r="M74" s="24"/>
+      <c r="N74" s="25"/>
+      <c r="O74" s="24"/>
+      <c r="P74" s="25"/>
+      <c r="Q74" s="23"/>
+      <c r="R74" s="25"/>
       <c r="T74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3869,40 +3463,36 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="21" t="s">
+      <c r="A76" s="23" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="22">
         <v>2.6177659710813601E-3</v>
       </c>
       <c r="J76" s="18">
         <v>3600</v>
       </c>
-      <c r="K76" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M76" s="22">
+      <c r="K76" s="24"/>
+      <c r="L76" s="26"/>
+      <c r="M76" s="24">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="22">
+      <c r="N76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="24">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="23" t="s">
+      <c r="P76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T76" s="11">
@@ -3918,22 +3508,22 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
-      <c r="I77" s="24"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="18">
         <v>3600</v>
       </c>
-      <c r="K77" s="22"/>
-      <c r="L77" s="25"/>
-      <c r="M77" s="22"/>
-      <c r="N77" s="23"/>
-      <c r="O77" s="22"/>
-      <c r="P77" s="23"/>
-      <c r="Q77" s="21"/>
-      <c r="R77" s="23"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="26"/>
+      <c r="M77" s="24"/>
+      <c r="N77" s="25"/>
+      <c r="O77" s="24"/>
+      <c r="P77" s="25"/>
+      <c r="Q77" s="23"/>
+      <c r="R77" s="25"/>
       <c r="T77" s="11">
         <v>11.555717</v>
       </c>
@@ -3947,22 +3537,22 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
-      <c r="I78" s="24"/>
+      <c r="I78" s="22"/>
       <c r="J78" s="18">
         <v>3600</v>
       </c>
-      <c r="K78" s="22"/>
-      <c r="L78" s="25"/>
-      <c r="M78" s="22"/>
-      <c r="N78" s="23"/>
-      <c r="O78" s="22"/>
-      <c r="P78" s="23"/>
-      <c r="Q78" s="21"/>
-      <c r="R78" s="23"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="26"/>
+      <c r="M78" s="24"/>
+      <c r="N78" s="25"/>
+      <c r="O78" s="24"/>
+      <c r="P78" s="25"/>
+      <c r="Q78" s="23"/>
+      <c r="R78" s="25"/>
       <c r="T78" s="11">
         <v>23.124298</v>
       </c>
@@ -3976,22 +3566,22 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
-      <c r="I79" s="24"/>
+      <c r="I79" s="22"/>
       <c r="J79" s="18">
         <v>3600</v>
       </c>
-      <c r="K79" s="22"/>
-      <c r="L79" s="25"/>
-      <c r="M79" s="22"/>
-      <c r="N79" s="23"/>
-      <c r="O79" s="22"/>
-      <c r="P79" s="23"/>
-      <c r="Q79" s="21"/>
-      <c r="R79" s="23"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="26"/>
+      <c r="M79" s="24"/>
+      <c r="N79" s="25"/>
+      <c r="O79" s="24"/>
+      <c r="P79" s="25"/>
+      <c r="Q79" s="23"/>
+      <c r="R79" s="25"/>
       <c r="T79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -4005,40 +3595,36 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="21" t="s">
+      <c r="A80" s="23" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="22">
         <v>2.37598662590718E-2</v>
       </c>
       <c r="J80" s="18">
         <v>3600</v>
       </c>
-      <c r="K80" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M80" s="22">
+      <c r="K80" s="24"/>
+      <c r="L80" s="26"/>
+      <c r="M80" s="24">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="22">
+      <c r="N80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="24">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="23" t="s">
+      <c r="P80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T80" s="11">
@@ -4054,22 +3640,22 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
-      <c r="I81" s="24"/>
+      <c r="I81" s="22"/>
       <c r="J81" s="18">
         <v>3600</v>
       </c>
-      <c r="K81" s="22"/>
-      <c r="L81" s="25"/>
-      <c r="M81" s="22"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="22"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="21"/>
-      <c r="R81" s="23"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="26"/>
+      <c r="M81" s="24"/>
+      <c r="N81" s="25"/>
+      <c r="O81" s="24"/>
+      <c r="P81" s="25"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="25"/>
       <c r="T81" s="11">
         <v>14.007052</v>
       </c>
@@ -4083,22 +3669,22 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="21"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
-      <c r="I82" s="24"/>
+      <c r="I82" s="22"/>
       <c r="J82" s="18">
         <v>3600</v>
       </c>
-      <c r="K82" s="22"/>
-      <c r="L82" s="25"/>
-      <c r="M82" s="22"/>
-      <c r="N82" s="23"/>
-      <c r="O82" s="22"/>
-      <c r="P82" s="23"/>
-      <c r="Q82" s="21"/>
-      <c r="R82" s="23"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="26"/>
+      <c r="M82" s="24"/>
+      <c r="N82" s="25"/>
+      <c r="O82" s="24"/>
+      <c r="P82" s="25"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="25"/>
       <c r="T82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -4112,22 +3698,22 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="21"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
-      <c r="I83" s="24"/>
+      <c r="I83" s="22"/>
       <c r="J83" s="18">
         <v>3600</v>
       </c>
-      <c r="K83" s="22"/>
-      <c r="L83" s="25"/>
-      <c r="M83" s="22"/>
-      <c r="N83" s="23"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="23"/>
-      <c r="Q83" s="21"/>
-      <c r="R83" s="23"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="26"/>
+      <c r="M83" s="24"/>
+      <c r="N83" s="25"/>
+      <c r="O83" s="24"/>
+      <c r="P83" s="25"/>
+      <c r="Q83" s="23"/>
+      <c r="R83" s="25"/>
       <c r="T83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -4141,40 +3727,36 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="23" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>500</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="22">
         <v>1.47481695465506E-2</v>
       </c>
       <c r="J84" s="18">
         <v>3600</v>
       </c>
-      <c r="K84" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M84" s="22">
+      <c r="K84" s="24"/>
+      <c r="L84" s="26"/>
+      <c r="M84" s="24">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="22">
+      <c r="N84" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="24">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="23" t="s">
+      <c r="P84" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T84" s="11">
@@ -4190,22 +3772,22 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="21"/>
+      <c r="A85" s="23"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
-      <c r="I85" s="24"/>
+      <c r="I85" s="22"/>
       <c r="J85" s="18">
         <v>3600</v>
       </c>
-      <c r="K85" s="22"/>
-      <c r="L85" s="25"/>
-      <c r="M85" s="22"/>
-      <c r="N85" s="23"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="23"/>
-      <c r="Q85" s="21"/>
-      <c r="R85" s="23"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="26"/>
+      <c r="M85" s="24"/>
+      <c r="N85" s="25"/>
+      <c r="O85" s="24"/>
+      <c r="P85" s="25"/>
+      <c r="Q85" s="23"/>
+      <c r="R85" s="25"/>
       <c r="T85" s="11">
         <v>14.86237</v>
       </c>
@@ -4219,22 +3801,22 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="21"/>
+      <c r="A86" s="23"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
-      <c r="I86" s="24"/>
+      <c r="I86" s="22"/>
       <c r="J86" s="18">
         <v>3600</v>
       </c>
-      <c r="K86" s="22"/>
-      <c r="L86" s="25"/>
-      <c r="M86" s="22"/>
-      <c r="N86" s="23"/>
-      <c r="O86" s="22"/>
-      <c r="P86" s="23"/>
-      <c r="Q86" s="21"/>
-      <c r="R86" s="23"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="26"/>
+      <c r="M86" s="24"/>
+      <c r="N86" s="25"/>
+      <c r="O86" s="24"/>
+      <c r="P86" s="25"/>
+      <c r="Q86" s="23"/>
+      <c r="R86" s="25"/>
       <c r="T86" s="11">
         <v>29.561377</v>
       </c>
@@ -4248,22 +3830,22 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="21"/>
+      <c r="A87" s="23"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
-      <c r="I87" s="24"/>
+      <c r="I87" s="22"/>
       <c r="J87" s="18">
         <v>3600</v>
       </c>
-      <c r="K87" s="22"/>
-      <c r="L87" s="25"/>
-      <c r="M87" s="22"/>
-      <c r="N87" s="23"/>
-      <c r="O87" s="22"/>
-      <c r="P87" s="23"/>
-      <c r="Q87" s="21"/>
-      <c r="R87" s="23"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="26"/>
+      <c r="M87" s="24"/>
+      <c r="N87" s="25"/>
+      <c r="O87" s="24"/>
+      <c r="P87" s="25"/>
+      <c r="Q87" s="23"/>
+      <c r="R87" s="25"/>
       <c r="T87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -4285,40 +3867,36 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="23" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>500</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="22">
         <v>0</v>
       </c>
       <c r="J89" s="18">
         <v>3600</v>
       </c>
-      <c r="K89" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L89" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M89" s="22">
+      <c r="K89" s="24"/>
+      <c r="L89" s="26"/>
+      <c r="M89" s="24">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="22">
+      <c r="N89" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="24">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="23" t="s">
+      <c r="P89" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T89" s="11">
@@ -4334,22 +3912,22 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="21"/>
+      <c r="A90" s="23"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
-      <c r="I90" s="24"/>
+      <c r="I90" s="22"/>
       <c r="J90" s="18">
         <v>3600</v>
       </c>
-      <c r="K90" s="22"/>
-      <c r="L90" s="25"/>
-      <c r="M90" s="22"/>
-      <c r="N90" s="23"/>
-      <c r="O90" s="22"/>
-      <c r="P90" s="23"/>
-      <c r="Q90" s="21"/>
-      <c r="R90" s="23"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="26"/>
+      <c r="M90" s="24"/>
+      <c r="N90" s="25"/>
+      <c r="O90" s="24"/>
+      <c r="P90" s="25"/>
+      <c r="Q90" s="23"/>
+      <c r="R90" s="25"/>
       <c r="T90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4363,22 +3941,22 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="21"/>
+      <c r="A91" s="23"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
-      <c r="I91" s="24"/>
+      <c r="I91" s="22"/>
       <c r="J91" s="18">
         <v>3600</v>
       </c>
-      <c r="K91" s="22"/>
-      <c r="L91" s="25"/>
-      <c r="M91" s="22"/>
-      <c r="N91" s="23"/>
-      <c r="O91" s="22"/>
-      <c r="P91" s="23"/>
-      <c r="Q91" s="21"/>
-      <c r="R91" s="23"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="26"/>
+      <c r="M91" s="24"/>
+      <c r="N91" s="25"/>
+      <c r="O91" s="24"/>
+      <c r="P91" s="25"/>
+      <c r="Q91" s="23"/>
+      <c r="R91" s="25"/>
       <c r="T91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4392,22 +3970,22 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
+      <c r="A92" s="23"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
-      <c r="I92" s="24"/>
+      <c r="I92" s="22"/>
       <c r="J92" s="18">
         <v>3600</v>
       </c>
-      <c r="K92" s="22"/>
-      <c r="L92" s="25"/>
-      <c r="M92" s="22"/>
-      <c r="N92" s="23"/>
-      <c r="O92" s="22"/>
-      <c r="P92" s="23"/>
-      <c r="Q92" s="21"/>
-      <c r="R92" s="23"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="26"/>
+      <c r="M92" s="24"/>
+      <c r="N92" s="25"/>
+      <c r="O92" s="24"/>
+      <c r="P92" s="25"/>
+      <c r="Q92" s="23"/>
+      <c r="R92" s="25"/>
       <c r="T92" s="11">
         <v>27.119754</v>
       </c>
@@ -4421,40 +3999,36 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="23" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="22">
         <v>0</v>
       </c>
       <c r="J93" s="18">
         <v>3600</v>
       </c>
-      <c r="K93" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M93" s="22">
+      <c r="K93" s="24"/>
+      <c r="L93" s="26"/>
+      <c r="M93" s="24">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="22">
+      <c r="N93" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="24">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="23" t="s">
+      <c r="P93" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T93" s="11">
@@ -4470,22 +4044,22 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
+      <c r="A94" s="23"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="I94" s="24"/>
+      <c r="I94" s="22"/>
       <c r="J94" s="18">
         <v>3600</v>
       </c>
-      <c r="K94" s="22"/>
-      <c r="L94" s="25"/>
-      <c r="M94" s="22"/>
-      <c r="N94" s="23"/>
-      <c r="O94" s="22"/>
-      <c r="P94" s="23"/>
-      <c r="Q94" s="21"/>
-      <c r="R94" s="23"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="26"/>
+      <c r="M94" s="24"/>
+      <c r="N94" s="25"/>
+      <c r="O94" s="24"/>
+      <c r="P94" s="25"/>
+      <c r="Q94" s="23"/>
+      <c r="R94" s="25"/>
       <c r="T94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4499,22 +4073,22 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
+      <c r="A95" s="23"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
-      <c r="I95" s="24"/>
+      <c r="I95" s="22"/>
       <c r="J95" s="18">
         <v>3600</v>
       </c>
-      <c r="K95" s="22"/>
-      <c r="L95" s="25"/>
-      <c r="M95" s="22"/>
-      <c r="N95" s="23"/>
-      <c r="O95" s="22"/>
-      <c r="P95" s="23"/>
-      <c r="Q95" s="21"/>
-      <c r="R95" s="23"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="26"/>
+      <c r="M95" s="24"/>
+      <c r="N95" s="25"/>
+      <c r="O95" s="24"/>
+      <c r="P95" s="25"/>
+      <c r="Q95" s="23"/>
+      <c r="R95" s="25"/>
       <c r="T95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4528,22 +4102,22 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
+      <c r="A96" s="23"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
-      <c r="I96" s="24"/>
+      <c r="I96" s="22"/>
       <c r="J96" s="18">
         <v>3600</v>
       </c>
-      <c r="K96" s="22"/>
-      <c r="L96" s="25"/>
-      <c r="M96" s="22"/>
-      <c r="N96" s="23"/>
-      <c r="O96" s="22"/>
-      <c r="P96" s="23"/>
-      <c r="Q96" s="21"/>
-      <c r="R96" s="23"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="26"/>
+      <c r="M96" s="24"/>
+      <c r="N96" s="25"/>
+      <c r="O96" s="24"/>
+      <c r="P96" s="25"/>
+      <c r="Q96" s="23"/>
+      <c r="R96" s="25"/>
       <c r="T96" s="11">
         <v>31.354782</v>
       </c>
@@ -4557,40 +4131,36 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="23" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="22">
         <v>0</v>
       </c>
       <c r="J97" s="18">
         <v>3600</v>
       </c>
-      <c r="K97" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L97" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M97" s="22">
+      <c r="K97" s="24"/>
+      <c r="L97" s="26"/>
+      <c r="M97" s="24">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="22">
+      <c r="N97" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="24">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="23" t="s">
+      <c r="P97" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T97" s="11">
@@ -4606,22 +4176,22 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
+      <c r="A98" s="23"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
-      <c r="I98" s="24"/>
+      <c r="I98" s="22"/>
       <c r="J98" s="18">
         <v>3600</v>
       </c>
-      <c r="K98" s="22"/>
-      <c r="L98" s="25"/>
-      <c r="M98" s="22"/>
-      <c r="N98" s="23"/>
-      <c r="O98" s="22"/>
-      <c r="P98" s="23"/>
-      <c r="Q98" s="21"/>
-      <c r="R98" s="23"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="26"/>
+      <c r="M98" s="24"/>
+      <c r="N98" s="25"/>
+      <c r="O98" s="24"/>
+      <c r="P98" s="25"/>
+      <c r="Q98" s="23"/>
+      <c r="R98" s="25"/>
       <c r="T98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4635,22 +4205,22 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
+      <c r="A99" s="23"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
-      <c r="I99" s="24"/>
+      <c r="I99" s="22"/>
       <c r="J99" s="18">
         <v>3600</v>
       </c>
-      <c r="K99" s="22"/>
-      <c r="L99" s="25"/>
-      <c r="M99" s="22"/>
-      <c r="N99" s="23"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="23"/>
-      <c r="Q99" s="21"/>
-      <c r="R99" s="23"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="26"/>
+      <c r="M99" s="24"/>
+      <c r="N99" s="25"/>
+      <c r="O99" s="24"/>
+      <c r="P99" s="25"/>
+      <c r="Q99" s="23"/>
+      <c r="R99" s="25"/>
       <c r="T99" s="11">
         <v>14.859114</v>
       </c>
@@ -4664,22 +4234,22 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
+      <c r="A100" s="23"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
-      <c r="I100" s="24"/>
+      <c r="I100" s="22"/>
       <c r="J100" s="18">
         <v>3600</v>
       </c>
-      <c r="K100" s="22"/>
-      <c r="L100" s="25"/>
-      <c r="M100" s="22"/>
-      <c r="N100" s="23"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="23"/>
-      <c r="Q100" s="21"/>
-      <c r="R100" s="23"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="26"/>
+      <c r="M100" s="24"/>
+      <c r="N100" s="25"/>
+      <c r="O100" s="24"/>
+      <c r="P100" s="25"/>
+      <c r="Q100" s="23"/>
+      <c r="R100" s="25"/>
       <c r="T100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4693,40 +4263,36 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="23" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="22">
         <v>0</v>
       </c>
       <c r="J101" s="18">
         <v>3600</v>
       </c>
-      <c r="K101" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M101" s="22">
+      <c r="K101" s="24"/>
+      <c r="L101" s="26"/>
+      <c r="M101" s="24">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="22">
+      <c r="N101" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="24">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="23" t="s">
+      <c r="P101" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T101" s="11">
@@ -4742,22 +4308,22 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="21"/>
+      <c r="A102" s="23"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
-      <c r="I102" s="24"/>
+      <c r="I102" s="22"/>
       <c r="J102" s="18">
         <v>3600</v>
       </c>
-      <c r="K102" s="22"/>
-      <c r="L102" s="25"/>
-      <c r="M102" s="22"/>
-      <c r="N102" s="23"/>
-      <c r="O102" s="22"/>
-      <c r="P102" s="23"/>
-      <c r="Q102" s="21"/>
-      <c r="R102" s="23"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="26"/>
+      <c r="M102" s="24"/>
+      <c r="N102" s="25"/>
+      <c r="O102" s="24"/>
+      <c r="P102" s="25"/>
+      <c r="Q102" s="23"/>
+      <c r="R102" s="25"/>
       <c r="T102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4771,22 +4337,22 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="21"/>
+      <c r="A103" s="23"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
-      <c r="I103" s="24"/>
+      <c r="I103" s="22"/>
       <c r="J103" s="18">
         <v>3600</v>
       </c>
-      <c r="K103" s="22"/>
-      <c r="L103" s="25"/>
-      <c r="M103" s="22"/>
-      <c r="N103" s="23"/>
-      <c r="O103" s="22"/>
-      <c r="P103" s="23"/>
-      <c r="Q103" s="21"/>
-      <c r="R103" s="23"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="26"/>
+      <c r="M103" s="24"/>
+      <c r="N103" s="25"/>
+      <c r="O103" s="24"/>
+      <c r="P103" s="25"/>
+      <c r="Q103" s="23"/>
+      <c r="R103" s="25"/>
       <c r="T103" s="11">
         <v>14.081699</v>
       </c>
@@ -4800,22 +4366,22 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="21"/>
+      <c r="A104" s="23"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
-      <c r="I104" s="24"/>
+      <c r="I104" s="22"/>
       <c r="J104" s="18">
         <v>3600</v>
       </c>
-      <c r="K104" s="22"/>
-      <c r="L104" s="25"/>
-      <c r="M104" s="22"/>
-      <c r="N104" s="23"/>
-      <c r="O104" s="22"/>
-      <c r="P104" s="23"/>
-      <c r="Q104" s="21"/>
-      <c r="R104" s="23"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="26"/>
+      <c r="M104" s="24"/>
+      <c r="N104" s="25"/>
+      <c r="O104" s="24"/>
+      <c r="P104" s="25"/>
+      <c r="Q104" s="23"/>
+      <c r="R104" s="25"/>
       <c r="T104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4829,40 +4395,36 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="21" t="s">
+      <c r="A105" s="23" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
         <v>500</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I105" s="22">
         <v>0</v>
       </c>
       <c r="J105" s="18">
         <v>3600</v>
       </c>
-      <c r="K105" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M105" s="22">
+      <c r="K105" s="24"/>
+      <c r="L105" s="26"/>
+      <c r="M105" s="24">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="22">
+      <c r="N105" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="24">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="23" t="s">
+      <c r="P105" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T105" s="11">
@@ -4878,22 +4440,22 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="21"/>
+      <c r="A106" s="23"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
-      <c r="I106" s="24"/>
+      <c r="I106" s="22"/>
       <c r="J106" s="18">
         <v>3600</v>
       </c>
-      <c r="K106" s="22"/>
-      <c r="L106" s="25"/>
-      <c r="M106" s="22"/>
-      <c r="N106" s="23"/>
-      <c r="O106" s="22"/>
-      <c r="P106" s="23"/>
-      <c r="Q106" s="21"/>
-      <c r="R106" s="23"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="26"/>
+      <c r="M106" s="24"/>
+      <c r="N106" s="25"/>
+      <c r="O106" s="24"/>
+      <c r="P106" s="25"/>
+      <c r="Q106" s="23"/>
+      <c r="R106" s="25"/>
       <c r="T106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4907,22 +4469,22 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="21"/>
+      <c r="A107" s="23"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
-      <c r="I107" s="24"/>
+      <c r="I107" s="22"/>
       <c r="J107" s="18">
         <v>3600</v>
       </c>
-      <c r="K107" s="22"/>
-      <c r="L107" s="25"/>
-      <c r="M107" s="22"/>
-      <c r="N107" s="23"/>
-      <c r="O107" s="22"/>
-      <c r="P107" s="23"/>
-      <c r="Q107" s="21"/>
-      <c r="R107" s="23"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="26"/>
+      <c r="M107" s="24"/>
+      <c r="N107" s="25"/>
+      <c r="O107" s="24"/>
+      <c r="P107" s="25"/>
+      <c r="Q107" s="23"/>
+      <c r="R107" s="25"/>
       <c r="T107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4936,22 +4498,22 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="21"/>
+      <c r="A108" s="23"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
-      <c r="I108" s="24"/>
+      <c r="I108" s="22"/>
       <c r="J108" s="18">
         <v>3600</v>
       </c>
-      <c r="K108" s="22"/>
-      <c r="L108" s="25"/>
-      <c r="M108" s="22"/>
-      <c r="N108" s="23"/>
-      <c r="O108" s="22"/>
-      <c r="P108" s="23"/>
-      <c r="Q108" s="21"/>
-      <c r="R108" s="23"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="26"/>
+      <c r="M108" s="24"/>
+      <c r="N108" s="25"/>
+      <c r="O108" s="24"/>
+      <c r="P108" s="25"/>
+      <c r="Q108" s="23"/>
+      <c r="R108" s="25"/>
       <c r="T108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4965,40 +4527,36 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+      <c r="A109" s="23" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>500</v>
       </c>
-      <c r="I109" s="24">
+      <c r="I109" s="22">
         <v>0</v>
       </c>
       <c r="J109" s="18">
         <v>3600</v>
       </c>
-      <c r="K109" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M109" s="22">
+      <c r="K109" s="24"/>
+      <c r="L109" s="26"/>
+      <c r="M109" s="24">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="22">
+      <c r="N109" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="24">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="23" t="s">
+      <c r="P109" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T109" s="11">
@@ -5014,22 +4572,22 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="21"/>
+      <c r="A110" s="23"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
-      <c r="I110" s="24"/>
+      <c r="I110" s="22"/>
       <c r="J110" s="18">
         <v>3600</v>
       </c>
-      <c r="K110" s="22"/>
-      <c r="L110" s="25"/>
-      <c r="M110" s="22"/>
-      <c r="N110" s="23"/>
-      <c r="O110" s="22"/>
-      <c r="P110" s="23"/>
-      <c r="Q110" s="21"/>
-      <c r="R110" s="23"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="26"/>
+      <c r="M110" s="24"/>
+      <c r="N110" s="25"/>
+      <c r="O110" s="24"/>
+      <c r="P110" s="25"/>
+      <c r="Q110" s="23"/>
+      <c r="R110" s="25"/>
       <c r="T110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -5043,22 +4601,22 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="21"/>
+      <c r="A111" s="23"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
-      <c r="I111" s="24"/>
+      <c r="I111" s="22"/>
       <c r="J111" s="18">
         <v>3600</v>
       </c>
-      <c r="K111" s="22"/>
-      <c r="L111" s="25"/>
-      <c r="M111" s="22"/>
-      <c r="N111" s="23"/>
-      <c r="O111" s="22"/>
-      <c r="P111" s="23"/>
-      <c r="Q111" s="21"/>
-      <c r="R111" s="23"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="26"/>
+      <c r="M111" s="24"/>
+      <c r="N111" s="25"/>
+      <c r="O111" s="24"/>
+      <c r="P111" s="25"/>
+      <c r="Q111" s="23"/>
+      <c r="R111" s="25"/>
       <c r="T111" s="11">
         <v>19.316754</v>
       </c>
@@ -5072,22 +4630,22 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="21"/>
+      <c r="A112" s="23"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
-      <c r="I112" s="24"/>
+      <c r="I112" s="22"/>
       <c r="J112" s="18">
         <v>3600</v>
       </c>
-      <c r="K112" s="22"/>
-      <c r="L112" s="25"/>
-      <c r="M112" s="22"/>
-      <c r="N112" s="23"/>
-      <c r="O112" s="22"/>
-      <c r="P112" s="23"/>
-      <c r="Q112" s="21"/>
-      <c r="R112" s="23"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="26"/>
+      <c r="M112" s="24"/>
+      <c r="N112" s="25"/>
+      <c r="O112" s="24"/>
+      <c r="P112" s="25"/>
+      <c r="Q112" s="23"/>
+      <c r="R112" s="25"/>
       <c r="T112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -5101,40 +4659,36 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="21" t="s">
+      <c r="A113" s="23" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
         <v>500</v>
       </c>
-      <c r="I113" s="24">
+      <c r="I113" s="22">
         <v>0</v>
       </c>
       <c r="J113" s="18">
         <v>3600</v>
       </c>
-      <c r="K113" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M113" s="22">
+      <c r="K113" s="24"/>
+      <c r="L113" s="26"/>
+      <c r="M113" s="24">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="22">
+      <c r="N113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="24">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="23" t="s">
+      <c r="P113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T113" s="11">
@@ -5150,22 +4704,22 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="21"/>
+      <c r="A114" s="23"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
-      <c r="I114" s="24"/>
+      <c r="I114" s="22"/>
       <c r="J114" s="18">
         <v>3600</v>
       </c>
-      <c r="K114" s="22"/>
-      <c r="L114" s="25"/>
-      <c r="M114" s="22"/>
-      <c r="N114" s="23"/>
-      <c r="O114" s="22"/>
-      <c r="P114" s="23"/>
-      <c r="Q114" s="21"/>
-      <c r="R114" s="23"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="26"/>
+      <c r="M114" s="24"/>
+      <c r="N114" s="25"/>
+      <c r="O114" s="24"/>
+      <c r="P114" s="25"/>
+      <c r="Q114" s="23"/>
+      <c r="R114" s="25"/>
       <c r="T114" s="11">
         <v>12.293174</v>
       </c>
@@ -5179,22 +4733,22 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="21"/>
+      <c r="A115" s="23"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
-      <c r="I115" s="24"/>
+      <c r="I115" s="22"/>
       <c r="J115" s="18">
         <v>3600</v>
       </c>
-      <c r="K115" s="22"/>
-      <c r="L115" s="25"/>
-      <c r="M115" s="22"/>
-      <c r="N115" s="23"/>
-      <c r="O115" s="22"/>
-      <c r="P115" s="23"/>
-      <c r="Q115" s="21"/>
-      <c r="R115" s="23"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="26"/>
+      <c r="M115" s="24"/>
+      <c r="N115" s="25"/>
+      <c r="O115" s="24"/>
+      <c r="P115" s="25"/>
+      <c r="Q115" s="23"/>
+      <c r="R115" s="25"/>
       <c r="T115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -5208,22 +4762,22 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="21"/>
+      <c r="A116" s="23"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
-      <c r="I116" s="24"/>
+      <c r="I116" s="22"/>
       <c r="J116" s="18">
         <v>3600</v>
       </c>
-      <c r="K116" s="22"/>
-      <c r="L116" s="25"/>
-      <c r="M116" s="22"/>
-      <c r="N116" s="23"/>
-      <c r="O116" s="22"/>
-      <c r="P116" s="23"/>
-      <c r="Q116" s="21"/>
-      <c r="R116" s="23"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="26"/>
+      <c r="M116" s="24"/>
+      <c r="N116" s="25"/>
+      <c r="O116" s="24"/>
+      <c r="P116" s="25"/>
+      <c r="Q116" s="23"/>
+      <c r="R116" s="25"/>
       <c r="T116" s="11">
         <v>61.224843</v>
       </c>
@@ -5237,40 +4791,36 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="21" t="s">
+      <c r="A117" s="23" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
         <v>500</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I117" s="22">
         <v>0</v>
       </c>
       <c r="J117" s="18">
         <v>3600</v>
       </c>
-      <c r="K117" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="M117" s="22">
+      <c r="K117" s="24"/>
+      <c r="L117" s="26"/>
+      <c r="M117" s="24">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="22">
+      <c r="N117" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="24">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="23" t="s">
+      <c r="P117" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="25" t="s">
         <v>10</v>
       </c>
       <c r="T117" s="11">
@@ -5286,22 +4836,22 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="21"/>
+      <c r="A118" s="23"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
-      <c r="I118" s="24"/>
+      <c r="I118" s="22"/>
       <c r="J118" s="18">
         <v>3600</v>
       </c>
-      <c r="K118" s="22"/>
-      <c r="L118" s="25"/>
-      <c r="M118" s="22"/>
-      <c r="N118" s="23"/>
-      <c r="O118" s="22"/>
-      <c r="P118" s="23"/>
-      <c r="Q118" s="21"/>
-      <c r="R118" s="23"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="26"/>
+      <c r="M118" s="24"/>
+      <c r="N118" s="25"/>
+      <c r="O118" s="24"/>
+      <c r="P118" s="25"/>
+      <c r="Q118" s="23"/>
+      <c r="R118" s="25"/>
       <c r="T118" s="11">
         <v>10.24381</v>
       </c>
@@ -5315,22 +4865,22 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="21"/>
+      <c r="A119" s="23"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
-      <c r="I119" s="24"/>
+      <c r="I119" s="22"/>
       <c r="J119" s="18">
         <v>3600</v>
       </c>
-      <c r="K119" s="22"/>
-      <c r="L119" s="25"/>
-      <c r="M119" s="22"/>
-      <c r="N119" s="23"/>
-      <c r="O119" s="22"/>
-      <c r="P119" s="23"/>
-      <c r="Q119" s="21"/>
-      <c r="R119" s="23"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="26"/>
+      <c r="M119" s="24"/>
+      <c r="N119" s="25"/>
+      <c r="O119" s="24"/>
+      <c r="P119" s="25"/>
+      <c r="Q119" s="23"/>
+      <c r="R119" s="25"/>
       <c r="T119" s="11">
         <v>20.481614</v>
       </c>
@@ -5344,22 +4894,22 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="21"/>
+      <c r="A120" s="23"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
-      <c r="I120" s="24"/>
+      <c r="I120" s="22"/>
       <c r="J120" s="18">
         <v>3600</v>
       </c>
-      <c r="K120" s="22"/>
-      <c r="L120" s="25"/>
-      <c r="M120" s="22"/>
-      <c r="N120" s="23"/>
-      <c r="O120" s="22"/>
-      <c r="P120" s="23"/>
-      <c r="Q120" s="21"/>
-      <c r="R120" s="23"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="26"/>
+      <c r="M120" s="24"/>
+      <c r="N120" s="25"/>
+      <c r="O120" s="24"/>
+      <c r="P120" s="25"/>
+      <c r="Q120" s="23"/>
+      <c r="R120" s="25"/>
       <c r="T120" s="11">
         <v>51.171509</v>
       </c>
@@ -5374,15 +4924,264 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BQ1:BR1"/>
@@ -5407,264 +5206,15 @@
     <mergeCell ref="O105:O108"/>
     <mergeCell ref="P105:P108"/>
     <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="I89:I92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4818402-BED9-46C5-B1E7-C0656AEBE9C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BC9A0-CC17-4983-AEF4-D14C471F57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14730" yWindow="2100" windowWidth="28800" windowHeight="16770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -277,7 +277,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -289,13 +289,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -678,7 +681,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K89" sqref="K89:L120"/>
+      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -878,7 +881,7 @@
       <c r="G3" s="21">
         <v>5.8592720000000001E-2</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="26"/>
       <c r="J3" s="8">
         <v>3600</v>
       </c>
@@ -955,7 +958,7 @@
       <c r="G4" s="21">
         <v>5.345987E-2</v>
       </c>
-      <c r="I4" s="22"/>
+      <c r="I4" s="26"/>
       <c r="J4" s="18">
         <v>3600</v>
       </c>
@@ -1016,7 +1019,7 @@
       <c r="G5" s="21">
         <v>5.1010319999999998E-2</v>
       </c>
-      <c r="I5" s="22"/>
+      <c r="I5" s="26"/>
       <c r="J5" s="18">
         <v>3600</v>
       </c>
@@ -1077,7 +1080,7 @@
       <c r="G6" s="21">
         <v>4.5764609999999997E-2</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="26"/>
       <c r="J6" s="18">
         <v>3600</v>
       </c>
@@ -1126,7 +1129,7 @@
       <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="22"/>
+      <c r="I7" s="26"/>
       <c r="J7" s="18">
         <v>3600</v>
       </c>
@@ -1160,7 +1163,7 @@
       <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="26"/>
       <c r="J8" s="18">
         <v>3600</v>
       </c>
@@ -1182,7 +1185,7 @@
       <c r="B9" s="2">
         <v>2000</v>
       </c>
-      <c r="I9" s="22"/>
+      <c r="I9" s="26"/>
       <c r="J9" s="18">
         <v>3600</v>
       </c>
@@ -1204,7 +1207,7 @@
       <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="22"/>
+      <c r="I10" s="26"/>
       <c r="J10" s="18">
         <v>3600</v>
       </c>
@@ -1229,7 +1232,7 @@
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="22"/>
+      <c r="I11" s="26"/>
       <c r="J11" s="18">
         <v>3600</v>
       </c>
@@ -1273,7 +1276,7 @@
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="22"/>
+      <c r="I12" s="26"/>
       <c r="J12" s="18">
         <v>3600</v>
       </c>
@@ -1301,7 +1304,7 @@
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="I13" s="22"/>
+      <c r="I13" s="26"/>
       <c r="J13" s="18">
         <v>3600</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="B14" s="2">
         <v>5000</v>
       </c>
-      <c r="I14" s="22"/>
+      <c r="I14" s="26"/>
       <c r="J14" s="18">
         <v>3600</v>
       </c>
@@ -1357,7 +1360,7 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="22"/>
+      <c r="I15" s="26"/>
       <c r="J15" s="18">
         <v>3600</v>
       </c>
@@ -1395,7 +1398,7 @@
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="22"/>
+      <c r="I16" s="26"/>
       <c r="J16" s="18">
         <v>3600</v>
       </c>
@@ -1421,7 +1424,7 @@
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="22"/>
+      <c r="I17" s="26"/>
       <c r="J17" s="18">
         <v>3600</v>
       </c>
@@ -1452,7 +1455,7 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="22"/>
+      <c r="I18" s="26"/>
       <c r="J18" s="18">
         <v>3600</v>
       </c>
@@ -1485,7 +1488,7 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="22"/>
+      <c r="I19" s="26"/>
       <c r="J19" s="18">
         <v>3600</v>
       </c>
@@ -1528,7 +1531,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="22"/>
+      <c r="I20" s="26"/>
       <c r="J20" s="18">
         <v>3600</v>
       </c>
@@ -1559,7 +1562,7 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="22"/>
+      <c r="I21" s="26"/>
       <c r="J21" s="18">
         <v>3600</v>
       </c>
@@ -1590,7 +1593,7 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="22"/>
+      <c r="I22" s="26"/>
       <c r="J22" s="18">
         <v>3600</v>
       </c>
@@ -1625,9 +1628,13 @@
         <v>500</v>
       </c>
       <c r="C24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="I24" s="22">
+      <c r="E24" s="22">
+        <v>0.12318613</v>
+      </c>
+      <c r="G24" s="22">
+        <v>0.12707135</v>
+      </c>
+      <c r="I24" s="26">
         <v>8.0775444264943394E-5</v>
       </c>
       <c r="J24" s="18">
@@ -1680,9 +1687,13 @@
         <v>1000</v>
       </c>
       <c r="C25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="I25" s="22"/>
+      <c r="E25" s="22">
+        <v>0.11195018</v>
+      </c>
+      <c r="G25" s="22">
+        <v>0.11860896</v>
+      </c>
+      <c r="I25" s="26"/>
       <c r="J25" s="18">
         <v>3600</v>
       </c>
@@ -1717,9 +1728,13 @@
         <v>2000</v>
       </c>
       <c r="C26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="I26" s="22"/>
+      <c r="E26" s="22">
+        <v>0.11195018</v>
+      </c>
+      <c r="G26" s="22">
+        <v>0.11498809</v>
+      </c>
+      <c r="I26" s="26"/>
       <c r="J26" s="18">
         <v>3600</v>
       </c>
@@ -1754,9 +1769,13 @@
         <v>5000</v>
       </c>
       <c r="C27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="I27" s="22"/>
+      <c r="E27" s="22">
+        <v>0.10353252</v>
+      </c>
+      <c r="G27" s="22">
+        <v>0.10464065</v>
+      </c>
+      <c r="I27" s="26"/>
       <c r="J27" s="18">
         <v>3600</v>
       </c>
@@ -1787,9 +1806,13 @@
         <v>500</v>
       </c>
       <c r="C28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="I28" s="22">
+      <c r="E28" s="22">
+        <v>0.15582156</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0.16553485000000001</v>
+      </c>
+      <c r="I28" s="26">
         <v>2.1135191933276802E-3</v>
       </c>
       <c r="J28" s="18">
@@ -1842,9 +1865,13 @@
         <v>1000</v>
       </c>
       <c r="C29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="I29" s="22"/>
+      <c r="E29" s="22">
+        <v>0.15442449999999999</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0.15381023999999999</v>
+      </c>
+      <c r="I29" s="26"/>
       <c r="J29" s="18">
         <v>3600</v>
       </c>
@@ -1879,9 +1906,13 @@
         <v>2000</v>
       </c>
       <c r="C30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="I30" s="22"/>
+      <c r="E30" s="22">
+        <v>0.14652123</v>
+      </c>
+      <c r="G30" s="22">
+        <v>0.14907977</v>
+      </c>
+      <c r="I30" s="26"/>
       <c r="J30" s="18">
         <v>3600</v>
       </c>
@@ -1916,9 +1947,13 @@
         <v>5000</v>
       </c>
       <c r="C31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="I31" s="22"/>
+      <c r="E31" s="22">
+        <v>0.13133151000000001</v>
+      </c>
+      <c r="G31" s="22">
+        <v>0.14077903</v>
+      </c>
+      <c r="I31" s="26"/>
       <c r="J31" s="18">
         <v>3600</v>
       </c>
@@ -1949,9 +1984,13 @@
         <v>500</v>
       </c>
       <c r="C32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="I32" s="22">
+      <c r="E32" s="22">
+        <v>0.14194190000000001</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.14890099000000001</v>
+      </c>
+      <c r="I32" s="26">
         <v>7.0089728609427004E-3</v>
       </c>
       <c r="J32" s="18">
@@ -2004,9 +2043,13 @@
         <v>1000</v>
       </c>
       <c r="C33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="I33" s="22"/>
+      <c r="E33" s="22">
+        <v>0.14194190000000001</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0.14093238999999999</v>
+      </c>
+      <c r="I33" s="26"/>
       <c r="J33" s="18">
         <v>3600</v>
       </c>
@@ -2041,9 +2084,13 @@
         <v>2000</v>
       </c>
       <c r="C34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="I34" s="22"/>
+      <c r="E34" s="22">
+        <v>0.12950996000000001</v>
+      </c>
+      <c r="G34" s="22">
+        <v>0.13792193</v>
+      </c>
+      <c r="I34" s="26"/>
       <c r="J34" s="18">
         <v>3600</v>
       </c>
@@ -2078,9 +2125,13 @@
         <v>5000</v>
       </c>
       <c r="C35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="I35" s="22"/>
+      <c r="E35" s="22">
+        <v>0.12799479999999999</v>
+      </c>
+      <c r="G35" s="22">
+        <v>0.12556243</v>
+      </c>
+      <c r="I35" s="26"/>
       <c r="J35" s="18">
         <v>3600</v>
       </c>
@@ -2111,9 +2162,13 @@
         <v>500</v>
       </c>
       <c r="C36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="I36" s="22">
+      <c r="E36" s="22">
+        <v>0.18792771999999999</v>
+      </c>
+      <c r="G36" s="22">
+        <v>0.18608110999999999</v>
+      </c>
+      <c r="I36" s="26">
         <v>2.0514895543250498E-2</v>
       </c>
       <c r="J36" s="18">
@@ -2166,9 +2221,13 @@
         <v>1000</v>
       </c>
       <c r="C37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="I37" s="22"/>
+      <c r="E37" s="22">
+        <v>0.17814068999999999</v>
+      </c>
+      <c r="G37" s="22">
+        <v>0.18200377000000001</v>
+      </c>
+      <c r="I37" s="26"/>
       <c r="J37" s="18">
         <v>3600</v>
       </c>
@@ -2203,9 +2262,13 @@
         <v>2000</v>
       </c>
       <c r="C38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="I38" s="22"/>
+      <c r="E38" s="22">
+        <v>0.16913449</v>
+      </c>
+      <c r="G38" s="22">
+        <v>0.17299987999999999</v>
+      </c>
+      <c r="I38" s="26"/>
       <c r="J38" s="18">
         <v>3600</v>
       </c>
@@ -2240,9 +2303,13 @@
         <v>5000</v>
       </c>
       <c r="C39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="I39" s="22"/>
+      <c r="E39" s="22">
+        <v>0.16129980999999999</v>
+      </c>
+      <c r="G39" s="22">
+        <v>0.16159451999999999</v>
+      </c>
+      <c r="I39" s="26"/>
       <c r="J39" s="18">
         <v>3600</v>
       </c>
@@ -2273,9 +2340,13 @@
         <v>500</v>
       </c>
       <c r="C40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="I40" s="22">
+      <c r="E40" s="22">
+        <v>0.21641166000000001</v>
+      </c>
+      <c r="G40" s="22">
+        <v>0.21995459000000001</v>
+      </c>
+      <c r="I40" s="26">
         <v>2.97301842356399E-2</v>
       </c>
       <c r="J40" s="18">
@@ -2328,9 +2399,13 @@
         <v>1000</v>
       </c>
       <c r="C41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="I41" s="22"/>
+      <c r="E41" s="22">
+        <v>0.21464617</v>
+      </c>
+      <c r="G41" s="22">
+        <v>0.21548316000000001</v>
+      </c>
+      <c r="I41" s="26"/>
       <c r="J41" s="18">
         <v>3600</v>
       </c>
@@ -2365,9 +2440,13 @@
         <v>2000</v>
       </c>
       <c r="C42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="I42" s="22"/>
+      <c r="E42" s="22">
+        <v>0.20367008</v>
+      </c>
+      <c r="G42" s="22">
+        <v>0.20450039</v>
+      </c>
+      <c r="I42" s="26"/>
       <c r="J42" s="18">
         <v>3600</v>
       </c>
@@ -2402,9 +2481,13 @@
         <v>5000</v>
       </c>
       <c r="C43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="I43" s="22"/>
+      <c r="E43" s="22">
+        <v>0.18817238999999999</v>
+      </c>
+      <c r="G43" s="22">
+        <v>0.18931542000000001</v>
+      </c>
+      <c r="I43" s="26"/>
       <c r="J43" s="18">
         <v>3600</v>
       </c>
@@ -2437,7 +2520,7 @@
       <c r="C44" s="7"/>
       <c r="E44" s="7"/>
       <c r="G44" s="7"/>
-      <c r="I44" s="22">
+      <c r="I44" s="26">
         <v>1.3831368901879601E-3</v>
       </c>
       <c r="J44" s="18">
@@ -2492,7 +2575,7 @@
       <c r="C45" s="7"/>
       <c r="E45" s="7"/>
       <c r="G45" s="7"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="26"/>
       <c r="J45" s="18">
         <v>3600</v>
       </c>
@@ -2529,7 +2612,7 @@
       <c r="C46" s="7"/>
       <c r="E46" s="7"/>
       <c r="G46" s="7"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="26"/>
       <c r="J46" s="18">
         <v>3600</v>
       </c>
@@ -2566,7 +2649,7 @@
       <c r="C47" s="7"/>
       <c r="E47" s="7"/>
       <c r="G47" s="7"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="26"/>
       <c r="J47" s="18">
         <v>3600</v>
       </c>
@@ -2599,7 +2682,7 @@
       <c r="C48" s="7"/>
       <c r="E48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="I48" s="22">
+      <c r="I48" s="26">
         <v>2.2173780908445601E-2</v>
       </c>
       <c r="J48" s="18">
@@ -2654,7 +2737,7 @@
       <c r="C49" s="7"/>
       <c r="E49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="I49" s="22"/>
+      <c r="I49" s="26"/>
       <c r="J49" s="18">
         <v>3600</v>
       </c>
@@ -2691,7 +2774,7 @@
       <c r="C50" s="7"/>
       <c r="E50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="I50" s="22"/>
+      <c r="I50" s="26"/>
       <c r="J50" s="18">
         <v>3600</v>
       </c>
@@ -2728,7 +2811,7 @@
       <c r="C51" s="7"/>
       <c r="E51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="I51" s="22"/>
+      <c r="I51" s="26"/>
       <c r="J51" s="18">
         <v>3600</v>
       </c>
@@ -2759,7 +2842,7 @@
       <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="I52" s="22">
+      <c r="I52" s="26">
         <v>3.8355352332044797E-2</v>
       </c>
       <c r="J52" s="18">
@@ -2811,7 +2894,7 @@
       <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="I53" s="22"/>
+      <c r="I53" s="26"/>
       <c r="J53" s="18">
         <v>3600</v>
       </c>
@@ -2845,7 +2928,7 @@
       <c r="B54" s="2">
         <v>2000</v>
       </c>
-      <c r="I54" s="22"/>
+      <c r="I54" s="26"/>
       <c r="J54" s="18">
         <v>3600</v>
       </c>
@@ -2879,7 +2962,7 @@
       <c r="B55" s="2">
         <v>5000</v>
       </c>
-      <c r="I55" s="22"/>
+      <c r="I55" s="26"/>
       <c r="J55" s="18">
         <v>3600</v>
       </c>
@@ -2917,14 +3000,14 @@
       <c r="B57" s="2">
         <v>500</v>
       </c>
-      <c r="I57" s="22">
+      <c r="I57" s="26">
         <v>0</v>
       </c>
       <c r="J57" s="18">
         <v>3600</v>
       </c>
       <c r="K57" s="24"/>
-      <c r="L57" s="26"/>
+      <c r="L57" s="27"/>
       <c r="M57" s="24">
         <v>0.101239449255883</v>
       </c>
@@ -2960,12 +3043,12 @@
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="I58" s="22"/>
+      <c r="I58" s="26"/>
       <c r="J58" s="18">
         <v>3600</v>
       </c>
       <c r="K58" s="24"/>
-      <c r="L58" s="26"/>
+      <c r="L58" s="27"/>
       <c r="M58" s="24"/>
       <c r="N58" s="25"/>
       <c r="O58" s="24"/>
@@ -2989,12 +3072,12 @@
       <c r="B59" s="2">
         <v>2000</v>
       </c>
-      <c r="I59" s="22"/>
+      <c r="I59" s="26"/>
       <c r="J59" s="18">
         <v>3600</v>
       </c>
       <c r="K59" s="24"/>
-      <c r="L59" s="26"/>
+      <c r="L59" s="27"/>
       <c r="M59" s="24"/>
       <c r="N59" s="25"/>
       <c r="O59" s="24"/>
@@ -3018,12 +3101,12 @@
       <c r="B60" s="2">
         <v>5000</v>
       </c>
-      <c r="I60" s="22"/>
+      <c r="I60" s="26"/>
       <c r="J60" s="18">
         <v>3600</v>
       </c>
       <c r="K60" s="24"/>
-      <c r="L60" s="26"/>
+      <c r="L60" s="27"/>
       <c r="M60" s="24"/>
       <c r="N60" s="25"/>
       <c r="O60" s="24"/>
@@ -3049,14 +3132,14 @@
       <c r="B61" s="2">
         <v>500</v>
       </c>
-      <c r="I61" s="22">
+      <c r="I61" s="26">
         <v>6.94753242196072E-3</v>
       </c>
       <c r="J61" s="18">
         <v>3600</v>
       </c>
       <c r="K61" s="24"/>
-      <c r="L61" s="26"/>
+      <c r="L61" s="27"/>
       <c r="M61" s="24">
         <v>0.29018026080021198</v>
       </c>
@@ -3092,12 +3175,12 @@
       <c r="B62" s="2">
         <v>1000</v>
       </c>
-      <c r="I62" s="22"/>
+      <c r="I62" s="26"/>
       <c r="J62" s="18">
         <v>3600</v>
       </c>
       <c r="K62" s="24"/>
-      <c r="L62" s="26"/>
+      <c r="L62" s="27"/>
       <c r="M62" s="24"/>
       <c r="N62" s="25"/>
       <c r="O62" s="24"/>
@@ -3121,12 +3204,12 @@
       <c r="B63" s="2">
         <v>2000</v>
       </c>
-      <c r="I63" s="22"/>
+      <c r="I63" s="26"/>
       <c r="J63" s="18">
         <v>3600</v>
       </c>
       <c r="K63" s="24"/>
-      <c r="L63" s="26"/>
+      <c r="L63" s="27"/>
       <c r="M63" s="24"/>
       <c r="N63" s="25"/>
       <c r="O63" s="24"/>
@@ -3150,12 +3233,12 @@
       <c r="B64" s="2">
         <v>5000</v>
       </c>
-      <c r="I64" s="22"/>
+      <c r="I64" s="26"/>
       <c r="J64" s="18">
         <v>3600</v>
       </c>
       <c r="K64" s="24"/>
-      <c r="L64" s="26"/>
+      <c r="L64" s="27"/>
       <c r="M64" s="24"/>
       <c r="N64" s="25"/>
       <c r="O64" s="24"/>
@@ -3189,14 +3272,14 @@
       <c r="B66" s="2">
         <v>500</v>
       </c>
-      <c r="I66" s="22">
+      <c r="I66" s="26">
         <v>0</v>
       </c>
       <c r="J66" s="18">
         <v>3600</v>
       </c>
       <c r="K66" s="24"/>
-      <c r="L66" s="26"/>
+      <c r="L66" s="27"/>
       <c r="M66" s="24">
         <v>0.21826059724466901</v>
       </c>
@@ -3232,12 +3315,12 @@
       <c r="B67" s="2">
         <v>1000</v>
       </c>
-      <c r="I67" s="22"/>
+      <c r="I67" s="26"/>
       <c r="J67" s="18">
         <v>3600</v>
       </c>
       <c r="K67" s="24"/>
-      <c r="L67" s="26"/>
+      <c r="L67" s="27"/>
       <c r="M67" s="24"/>
       <c r="N67" s="25"/>
       <c r="O67" s="24"/>
@@ -3261,12 +3344,12 @@
       <c r="B68" s="2">
         <v>2000</v>
       </c>
-      <c r="I68" s="22"/>
+      <c r="I68" s="26"/>
       <c r="J68" s="18">
         <v>3600</v>
       </c>
       <c r="K68" s="24"/>
-      <c r="L68" s="26"/>
+      <c r="L68" s="27"/>
       <c r="M68" s="24"/>
       <c r="N68" s="25"/>
       <c r="O68" s="24"/>
@@ -3290,12 +3373,12 @@
       <c r="B69" s="2">
         <v>5000</v>
       </c>
-      <c r="I69" s="22"/>
+      <c r="I69" s="26"/>
       <c r="J69" s="18">
         <v>3600</v>
       </c>
       <c r="K69" s="24"/>
-      <c r="L69" s="26"/>
+      <c r="L69" s="27"/>
       <c r="M69" s="24"/>
       <c r="N69" s="25"/>
       <c r="O69" s="24"/>
@@ -3329,14 +3412,14 @@
       <c r="B71" s="2">
         <v>500</v>
       </c>
-      <c r="I71" s="22">
+      <c r="I71" s="26">
         <v>6.7616724409469602E-3</v>
       </c>
       <c r="J71" s="18">
         <v>3600</v>
       </c>
       <c r="K71" s="24"/>
-      <c r="L71" s="26"/>
+      <c r="L71" s="27"/>
       <c r="M71" s="24">
         <v>0.24797844874295</v>
       </c>
@@ -3372,12 +3455,12 @@
       <c r="B72" s="2">
         <v>1000</v>
       </c>
-      <c r="I72" s="22"/>
+      <c r="I72" s="26"/>
       <c r="J72" s="18">
         <v>3600</v>
       </c>
       <c r="K72" s="24"/>
-      <c r="L72" s="26"/>
+      <c r="L72" s="27"/>
       <c r="M72" s="24"/>
       <c r="N72" s="25"/>
       <c r="O72" s="24"/>
@@ -3401,12 +3484,12 @@
       <c r="B73" s="2">
         <v>2000</v>
       </c>
-      <c r="I73" s="22"/>
+      <c r="I73" s="26"/>
       <c r="J73" s="18">
         <v>3600</v>
       </c>
       <c r="K73" s="24"/>
-      <c r="L73" s="26"/>
+      <c r="L73" s="27"/>
       <c r="M73" s="24"/>
       <c r="N73" s="25"/>
       <c r="O73" s="24"/>
@@ -3430,12 +3513,12 @@
       <c r="B74" s="2">
         <v>5000</v>
       </c>
-      <c r="I74" s="22"/>
+      <c r="I74" s="26"/>
       <c r="J74" s="18">
         <v>3600</v>
       </c>
       <c r="K74" s="24"/>
-      <c r="L74" s="26"/>
+      <c r="L74" s="27"/>
       <c r="M74" s="24"/>
       <c r="N74" s="25"/>
       <c r="O74" s="24"/>
@@ -3469,14 +3552,14 @@
       <c r="B76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="22">
+      <c r="I76" s="26">
         <v>2.6177659710813601E-3</v>
       </c>
       <c r="J76" s="18">
         <v>3600</v>
       </c>
       <c r="K76" s="24"/>
-      <c r="L76" s="26"/>
+      <c r="L76" s="27"/>
       <c r="M76" s="24">
         <v>0.28420023201354799</v>
       </c>
@@ -3512,12 +3595,12 @@
       <c r="B77" s="2">
         <v>1000</v>
       </c>
-      <c r="I77" s="22"/>
+      <c r="I77" s="26"/>
       <c r="J77" s="18">
         <v>3600</v>
       </c>
       <c r="K77" s="24"/>
-      <c r="L77" s="26"/>
+      <c r="L77" s="27"/>
       <c r="M77" s="24"/>
       <c r="N77" s="25"/>
       <c r="O77" s="24"/>
@@ -3541,12 +3624,12 @@
       <c r="B78" s="2">
         <v>2000</v>
       </c>
-      <c r="I78" s="22"/>
+      <c r="I78" s="26"/>
       <c r="J78" s="18">
         <v>3600</v>
       </c>
       <c r="K78" s="24"/>
-      <c r="L78" s="26"/>
+      <c r="L78" s="27"/>
       <c r="M78" s="24"/>
       <c r="N78" s="25"/>
       <c r="O78" s="24"/>
@@ -3570,12 +3653,12 @@
       <c r="B79" s="2">
         <v>5000</v>
       </c>
-      <c r="I79" s="22"/>
+      <c r="I79" s="26"/>
       <c r="J79" s="18">
         <v>3600</v>
       </c>
       <c r="K79" s="24"/>
-      <c r="L79" s="26"/>
+      <c r="L79" s="27"/>
       <c r="M79" s="24"/>
       <c r="N79" s="25"/>
       <c r="O79" s="24"/>
@@ -3601,14 +3684,14 @@
       <c r="B80" s="2">
         <v>500</v>
       </c>
-      <c r="I80" s="22">
+      <c r="I80" s="26">
         <v>2.37598662590718E-2</v>
       </c>
       <c r="J80" s="18">
         <v>3600</v>
       </c>
       <c r="K80" s="24"/>
-      <c r="L80" s="26"/>
+      <c r="L80" s="27"/>
       <c r="M80" s="24">
         <v>0.29386831802036401</v>
       </c>
@@ -3644,12 +3727,12 @@
       <c r="B81" s="2">
         <v>1000</v>
       </c>
-      <c r="I81" s="22"/>
+      <c r="I81" s="26"/>
       <c r="J81" s="18">
         <v>3600</v>
       </c>
       <c r="K81" s="24"/>
-      <c r="L81" s="26"/>
+      <c r="L81" s="27"/>
       <c r="M81" s="24"/>
       <c r="N81" s="25"/>
       <c r="O81" s="24"/>
@@ -3673,12 +3756,12 @@
       <c r="B82" s="2">
         <v>2000</v>
       </c>
-      <c r="I82" s="22"/>
+      <c r="I82" s="26"/>
       <c r="J82" s="18">
         <v>3600</v>
       </c>
       <c r="K82" s="24"/>
-      <c r="L82" s="26"/>
+      <c r="L82" s="27"/>
       <c r="M82" s="24"/>
       <c r="N82" s="25"/>
       <c r="O82" s="24"/>
@@ -3702,12 +3785,12 @@
       <c r="B83" s="2">
         <v>5000</v>
       </c>
-      <c r="I83" s="22"/>
+      <c r="I83" s="26"/>
       <c r="J83" s="18">
         <v>3600</v>
       </c>
       <c r="K83" s="24"/>
-      <c r="L83" s="26"/>
+      <c r="L83" s="27"/>
       <c r="M83" s="24"/>
       <c r="N83" s="25"/>
       <c r="O83" s="24"/>
@@ -3733,14 +3816,14 @@
       <c r="B84" s="2">
         <v>500</v>
       </c>
-      <c r="I84" s="22">
+      <c r="I84" s="26">
         <v>1.47481695465506E-2</v>
       </c>
       <c r="J84" s="18">
         <v>3600</v>
       </c>
       <c r="K84" s="24"/>
-      <c r="L84" s="26"/>
+      <c r="L84" s="27"/>
       <c r="M84" s="24">
         <v>0.167989635290166</v>
       </c>
@@ -3776,12 +3859,12 @@
       <c r="B85" s="2">
         <v>1000</v>
       </c>
-      <c r="I85" s="22"/>
+      <c r="I85" s="26"/>
       <c r="J85" s="18">
         <v>3600</v>
       </c>
       <c r="K85" s="24"/>
-      <c r="L85" s="26"/>
+      <c r="L85" s="27"/>
       <c r="M85" s="24"/>
       <c r="N85" s="25"/>
       <c r="O85" s="24"/>
@@ -3805,12 +3888,12 @@
       <c r="B86" s="2">
         <v>2000</v>
       </c>
-      <c r="I86" s="22"/>
+      <c r="I86" s="26"/>
       <c r="J86" s="18">
         <v>3600</v>
       </c>
       <c r="K86" s="24"/>
-      <c r="L86" s="26"/>
+      <c r="L86" s="27"/>
       <c r="M86" s="24"/>
       <c r="N86" s="25"/>
       <c r="O86" s="24"/>
@@ -3834,12 +3917,12 @@
       <c r="B87" s="2">
         <v>5000</v>
       </c>
-      <c r="I87" s="22"/>
+      <c r="I87" s="26"/>
       <c r="J87" s="18">
         <v>3600</v>
       </c>
       <c r="K87" s="24"/>
-      <c r="L87" s="26"/>
+      <c r="L87" s="27"/>
       <c r="M87" s="24"/>
       <c r="N87" s="25"/>
       <c r="O87" s="24"/>
@@ -3873,14 +3956,14 @@
       <c r="B89" s="2">
         <v>500</v>
       </c>
-      <c r="I89" s="22">
+      <c r="I89" s="26">
         <v>0</v>
       </c>
       <c r="J89" s="18">
         <v>3600</v>
       </c>
       <c r="K89" s="24"/>
-      <c r="L89" s="26"/>
+      <c r="L89" s="27"/>
       <c r="M89" s="24">
         <v>0.16062893658948699</v>
       </c>
@@ -3916,12 +3999,12 @@
       <c r="B90" s="2">
         <v>1000</v>
       </c>
-      <c r="I90" s="22"/>
+      <c r="I90" s="26"/>
       <c r="J90" s="18">
         <v>3600</v>
       </c>
       <c r="K90" s="24"/>
-      <c r="L90" s="26"/>
+      <c r="L90" s="27"/>
       <c r="M90" s="24"/>
       <c r="N90" s="25"/>
       <c r="O90" s="24"/>
@@ -3945,12 +4028,12 @@
       <c r="B91" s="2">
         <v>2000</v>
       </c>
-      <c r="I91" s="22"/>
+      <c r="I91" s="26"/>
       <c r="J91" s="18">
         <v>3600</v>
       </c>
       <c r="K91" s="24"/>
-      <c r="L91" s="26"/>
+      <c r="L91" s="27"/>
       <c r="M91" s="24"/>
       <c r="N91" s="25"/>
       <c r="O91" s="24"/>
@@ -3974,12 +4057,12 @@
       <c r="B92" s="2">
         <v>5000</v>
       </c>
-      <c r="I92" s="22"/>
+      <c r="I92" s="26"/>
       <c r="J92" s="18">
         <v>3600</v>
       </c>
       <c r="K92" s="24"/>
-      <c r="L92" s="26"/>
+      <c r="L92" s="27"/>
       <c r="M92" s="24"/>
       <c r="N92" s="25"/>
       <c r="O92" s="24"/>
@@ -4005,14 +4088,14 @@
       <c r="B93" s="2">
         <v>500</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="26">
         <v>0</v>
       </c>
       <c r="J93" s="18">
         <v>3600</v>
       </c>
       <c r="K93" s="24"/>
-      <c r="L93" s="26"/>
+      <c r="L93" s="27"/>
       <c r="M93" s="24">
         <v>1.0883629283854401E-2</v>
       </c>
@@ -4048,12 +4131,12 @@
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="I94" s="22"/>
+      <c r="I94" s="26"/>
       <c r="J94" s="18">
         <v>3600</v>
       </c>
       <c r="K94" s="24"/>
-      <c r="L94" s="26"/>
+      <c r="L94" s="27"/>
       <c r="M94" s="24"/>
       <c r="N94" s="25"/>
       <c r="O94" s="24"/>
@@ -4077,12 +4160,12 @@
       <c r="B95" s="2">
         <v>2000</v>
       </c>
-      <c r="I95" s="22"/>
+      <c r="I95" s="26"/>
       <c r="J95" s="18">
         <v>3600</v>
       </c>
       <c r="K95" s="24"/>
-      <c r="L95" s="26"/>
+      <c r="L95" s="27"/>
       <c r="M95" s="24"/>
       <c r="N95" s="25"/>
       <c r="O95" s="24"/>
@@ -4106,12 +4189,12 @@
       <c r="B96" s="2">
         <v>5000</v>
       </c>
-      <c r="I96" s="22"/>
+      <c r="I96" s="26"/>
       <c r="J96" s="18">
         <v>3600</v>
       </c>
       <c r="K96" s="24"/>
-      <c r="L96" s="26"/>
+      <c r="L96" s="27"/>
       <c r="M96" s="24"/>
       <c r="N96" s="25"/>
       <c r="O96" s="24"/>
@@ -4137,14 +4220,14 @@
       <c r="B97" s="2">
         <v>500</v>
       </c>
-      <c r="I97" s="22">
+      <c r="I97" s="26">
         <v>0</v>
       </c>
       <c r="J97" s="18">
         <v>3600</v>
       </c>
       <c r="K97" s="24"/>
-      <c r="L97" s="26"/>
+      <c r="L97" s="27"/>
       <c r="M97" s="24">
         <v>2.1265476753851299E-2</v>
       </c>
@@ -4180,12 +4263,12 @@
       <c r="B98" s="2">
         <v>1000</v>
       </c>
-      <c r="I98" s="22"/>
+      <c r="I98" s="26"/>
       <c r="J98" s="18">
         <v>3600</v>
       </c>
       <c r="K98" s="24"/>
-      <c r="L98" s="26"/>
+      <c r="L98" s="27"/>
       <c r="M98" s="24"/>
       <c r="N98" s="25"/>
       <c r="O98" s="24"/>
@@ -4209,12 +4292,12 @@
       <c r="B99" s="2">
         <v>2000</v>
       </c>
-      <c r="I99" s="22"/>
+      <c r="I99" s="26"/>
       <c r="J99" s="18">
         <v>3600</v>
       </c>
       <c r="K99" s="24"/>
-      <c r="L99" s="26"/>
+      <c r="L99" s="27"/>
       <c r="M99" s="24"/>
       <c r="N99" s="25"/>
       <c r="O99" s="24"/>
@@ -4238,12 +4321,12 @@
       <c r="B100" s="2">
         <v>5000</v>
       </c>
-      <c r="I100" s="22"/>
+      <c r="I100" s="26"/>
       <c r="J100" s="18">
         <v>3600</v>
       </c>
       <c r="K100" s="24"/>
-      <c r="L100" s="26"/>
+      <c r="L100" s="27"/>
       <c r="M100" s="24"/>
       <c r="N100" s="25"/>
       <c r="O100" s="24"/>
@@ -4269,14 +4352,14 @@
       <c r="B101" s="2">
         <v>500</v>
       </c>
-      <c r="I101" s="22">
+      <c r="I101" s="26">
         <v>0</v>
       </c>
       <c r="J101" s="18">
         <v>3600</v>
       </c>
       <c r="K101" s="24"/>
-      <c r="L101" s="26"/>
+      <c r="L101" s="27"/>
       <c r="M101" s="24">
         <v>0.17058616214445499</v>
       </c>
@@ -4312,12 +4395,12 @@
       <c r="B102" s="2">
         <v>1000</v>
       </c>
-      <c r="I102" s="22"/>
+      <c r="I102" s="26"/>
       <c r="J102" s="18">
         <v>3600</v>
       </c>
       <c r="K102" s="24"/>
-      <c r="L102" s="26"/>
+      <c r="L102" s="27"/>
       <c r="M102" s="24"/>
       <c r="N102" s="25"/>
       <c r="O102" s="24"/>
@@ -4341,12 +4424,12 @@
       <c r="B103" s="2">
         <v>2000</v>
       </c>
-      <c r="I103" s="22"/>
+      <c r="I103" s="26"/>
       <c r="J103" s="18">
         <v>3600</v>
       </c>
       <c r="K103" s="24"/>
-      <c r="L103" s="26"/>
+      <c r="L103" s="27"/>
       <c r="M103" s="24"/>
       <c r="N103" s="25"/>
       <c r="O103" s="24"/>
@@ -4370,12 +4453,12 @@
       <c r="B104" s="2">
         <v>5000</v>
       </c>
-      <c r="I104" s="22"/>
+      <c r="I104" s="26"/>
       <c r="J104" s="18">
         <v>3600</v>
       </c>
       <c r="K104" s="24"/>
-      <c r="L104" s="26"/>
+      <c r="L104" s="27"/>
       <c r="M104" s="24"/>
       <c r="N104" s="25"/>
       <c r="O104" s="24"/>
@@ -4401,14 +4484,14 @@
       <c r="B105" s="2">
         <v>500</v>
       </c>
-      <c r="I105" s="22">
+      <c r="I105" s="26">
         <v>0</v>
       </c>
       <c r="J105" s="18">
         <v>3600</v>
       </c>
       <c r="K105" s="24"/>
-      <c r="L105" s="26"/>
+      <c r="L105" s="27"/>
       <c r="M105" s="24">
         <v>0.219652082835287</v>
       </c>
@@ -4444,12 +4527,12 @@
       <c r="B106" s="2">
         <v>1000</v>
       </c>
-      <c r="I106" s="22"/>
+      <c r="I106" s="26"/>
       <c r="J106" s="18">
         <v>3600</v>
       </c>
       <c r="K106" s="24"/>
-      <c r="L106" s="26"/>
+      <c r="L106" s="27"/>
       <c r="M106" s="24"/>
       <c r="N106" s="25"/>
       <c r="O106" s="24"/>
@@ -4473,12 +4556,12 @@
       <c r="B107" s="2">
         <v>2000</v>
       </c>
-      <c r="I107" s="22"/>
+      <c r="I107" s="26"/>
       <c r="J107" s="18">
         <v>3600</v>
       </c>
       <c r="K107" s="24"/>
-      <c r="L107" s="26"/>
+      <c r="L107" s="27"/>
       <c r="M107" s="24"/>
       <c r="N107" s="25"/>
       <c r="O107" s="24"/>
@@ -4502,12 +4585,12 @@
       <c r="B108" s="2">
         <v>5000</v>
       </c>
-      <c r="I108" s="22"/>
+      <c r="I108" s="26"/>
       <c r="J108" s="18">
         <v>3600</v>
       </c>
       <c r="K108" s="24"/>
-      <c r="L108" s="26"/>
+      <c r="L108" s="27"/>
       <c r="M108" s="24"/>
       <c r="N108" s="25"/>
       <c r="O108" s="24"/>
@@ -4533,14 +4616,14 @@
       <c r="B109" s="2">
         <v>500</v>
       </c>
-      <c r="I109" s="22">
+      <c r="I109" s="26">
         <v>0</v>
       </c>
       <c r="J109" s="18">
         <v>3600</v>
       </c>
       <c r="K109" s="24"/>
-      <c r="L109" s="26"/>
+      <c r="L109" s="27"/>
       <c r="M109" s="24">
         <v>0.27256493121848202</v>
       </c>
@@ -4576,12 +4659,12 @@
       <c r="B110" s="2">
         <v>1000</v>
       </c>
-      <c r="I110" s="22"/>
+      <c r="I110" s="26"/>
       <c r="J110" s="18">
         <v>3600</v>
       </c>
       <c r="K110" s="24"/>
-      <c r="L110" s="26"/>
+      <c r="L110" s="27"/>
       <c r="M110" s="24"/>
       <c r="N110" s="25"/>
       <c r="O110" s="24"/>
@@ -4605,12 +4688,12 @@
       <c r="B111" s="2">
         <v>2000</v>
       </c>
-      <c r="I111" s="22"/>
+      <c r="I111" s="26"/>
       <c r="J111" s="18">
         <v>3600</v>
       </c>
       <c r="K111" s="24"/>
-      <c r="L111" s="26"/>
+      <c r="L111" s="27"/>
       <c r="M111" s="24"/>
       <c r="N111" s="25"/>
       <c r="O111" s="24"/>
@@ -4634,12 +4717,12 @@
       <c r="B112" s="2">
         <v>5000</v>
       </c>
-      <c r="I112" s="22"/>
+      <c r="I112" s="26"/>
       <c r="J112" s="18">
         <v>3600</v>
       </c>
       <c r="K112" s="24"/>
-      <c r="L112" s="26"/>
+      <c r="L112" s="27"/>
       <c r="M112" s="24"/>
       <c r="N112" s="25"/>
       <c r="O112" s="24"/>
@@ -4665,14 +4748,14 @@
       <c r="B113" s="2">
         <v>500</v>
       </c>
-      <c r="I113" s="22">
+      <c r="I113" s="26">
         <v>0</v>
       </c>
       <c r="J113" s="18">
         <v>3600</v>
       </c>
       <c r="K113" s="24"/>
-      <c r="L113" s="26"/>
+      <c r="L113" s="27"/>
       <c r="M113" s="24">
         <v>6.2700060480871303E-2</v>
       </c>
@@ -4708,12 +4791,12 @@
       <c r="B114" s="2">
         <v>1000</v>
       </c>
-      <c r="I114" s="22"/>
+      <c r="I114" s="26"/>
       <c r="J114" s="18">
         <v>3600</v>
       </c>
       <c r="K114" s="24"/>
-      <c r="L114" s="26"/>
+      <c r="L114" s="27"/>
       <c r="M114" s="24"/>
       <c r="N114" s="25"/>
       <c r="O114" s="24"/>
@@ -4737,12 +4820,12 @@
       <c r="B115" s="2">
         <v>2000</v>
       </c>
-      <c r="I115" s="22"/>
+      <c r="I115" s="26"/>
       <c r="J115" s="18">
         <v>3600</v>
       </c>
       <c r="K115" s="24"/>
-      <c r="L115" s="26"/>
+      <c r="L115" s="27"/>
       <c r="M115" s="24"/>
       <c r="N115" s="25"/>
       <c r="O115" s="24"/>
@@ -4766,12 +4849,12 @@
       <c r="B116" s="2">
         <v>5000</v>
       </c>
-      <c r="I116" s="22"/>
+      <c r="I116" s="26"/>
       <c r="J116" s="18">
         <v>3600</v>
       </c>
       <c r="K116" s="24"/>
-      <c r="L116" s="26"/>
+      <c r="L116" s="27"/>
       <c r="M116" s="24"/>
       <c r="N116" s="25"/>
       <c r="O116" s="24"/>
@@ -4797,14 +4880,14 @@
       <c r="B117" s="2">
         <v>500</v>
       </c>
-      <c r="I117" s="22">
+      <c r="I117" s="26">
         <v>0</v>
       </c>
       <c r="J117" s="18">
         <v>3600</v>
       </c>
       <c r="K117" s="24"/>
-      <c r="L117" s="26"/>
+      <c r="L117" s="27"/>
       <c r="M117" s="24">
         <v>0.21402465142211599</v>
       </c>
@@ -4840,12 +4923,12 @@
       <c r="B118" s="2">
         <v>1000</v>
       </c>
-      <c r="I118" s="22"/>
+      <c r="I118" s="26"/>
       <c r="J118" s="18">
         <v>3600</v>
       </c>
       <c r="K118" s="24"/>
-      <c r="L118" s="26"/>
+      <c r="L118" s="27"/>
       <c r="M118" s="24"/>
       <c r="N118" s="25"/>
       <c r="O118" s="24"/>
@@ -4869,12 +4952,12 @@
       <c r="B119" s="2">
         <v>2000</v>
       </c>
-      <c r="I119" s="22"/>
+      <c r="I119" s="26"/>
       <c r="J119" s="18">
         <v>3600</v>
       </c>
       <c r="K119" s="24"/>
-      <c r="L119" s="26"/>
+      <c r="L119" s="27"/>
       <c r="M119" s="24"/>
       <c r="N119" s="25"/>
       <c r="O119" s="24"/>
@@ -4898,12 +4981,12 @@
       <c r="B120" s="2">
         <v>5000</v>
       </c>
-      <c r="I120" s="22"/>
+      <c r="I120" s="26"/>
       <c r="J120" s="18">
         <v>3600</v>
       </c>
       <c r="K120" s="24"/>
-      <c r="L120" s="26"/>
+      <c r="L120" s="27"/>
       <c r="M120" s="24"/>
       <c r="N120" s="25"/>
       <c r="O120" s="24"/>
@@ -4924,23 +5007,256 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -4965,256 +5281,23 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81BC9A0-CC17-4983-AEF4-D14C471F57CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A434A-4ED6-4EDA-B72A-CA099E34A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -212,7 +212,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -280,6 +280,12 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,9 +293,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -678,10 +681,10 @@
   <dimension ref="A1:CF120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G43" sqref="G43"/>
+      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -720,38 +723,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="25"/>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23" t="s">
+      <c r="F1" s="25"/>
+      <c r="G1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23" t="s">
+      <c r="H1" s="25"/>
+      <c r="I1" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23" t="s">
+      <c r="J1" s="25"/>
+      <c r="K1" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23" t="s">
+      <c r="L1" s="25"/>
+      <c r="M1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23" t="s">
+      <c r="N1" s="25"/>
+      <c r="O1" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23" t="s">
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="23"/>
+      <c r="R1" s="25"/>
       <c r="U1" s="9" t="s">
         <v>42</v>
       </c>
@@ -759,18 +762,18 @@
         <v>43</v>
       </c>
       <c r="W1" s="1"/>
-      <c r="BM1" s="23" t="s">
+      <c r="BM1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23" t="s">
+      <c r="BN1" s="25"/>
+      <c r="BO1" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23" t="s">
+      <c r="BP1" s="25"/>
+      <c r="BQ1" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="23"/>
+      <c r="BR1" s="25"/>
       <c r="CE1" s="13" t="s">
         <v>45</v>
       </c>
@@ -866,7 +869,7 @@
       </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -881,32 +884,32 @@
       <c r="G3" s="21">
         <v>5.8592720000000001E-2</v>
       </c>
-      <c r="I3" s="26"/>
+      <c r="I3" s="24"/>
       <c r="J3" s="8">
         <v>3600</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K3" s="26">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="27">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="25" t="s">
+      <c r="M3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="11">
@@ -945,7 +948,7 @@
       </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="25"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -958,18 +961,18 @@
       <c r="G4" s="21">
         <v>5.345987E-2</v>
       </c>
-      <c r="I4" s="26"/>
+      <c r="I4" s="24"/>
       <c r="J4" s="18">
         <v>3600</v>
       </c>
-      <c r="K4" s="24"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="25"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="25"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="25"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="27"/>
       <c r="T4" s="11">
         <v>1.6109789999999999</v>
       </c>
@@ -1006,7 +1009,7 @@
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="23"/>
+      <c r="A5" s="25"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -1019,18 +1022,18 @@
       <c r="G5" s="21">
         <v>5.1010319999999998E-2</v>
       </c>
-      <c r="I5" s="26"/>
+      <c r="I5" s="24"/>
       <c r="J5" s="18">
         <v>3600</v>
       </c>
-      <c r="K5" s="24"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="24"/>
-      <c r="P5" s="25"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="26"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="26"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="27"/>
       <c r="T5" s="11">
         <v>3.1995640000000001</v>
       </c>
@@ -1067,7 +1070,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="23"/>
+      <c r="A6" s="25"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -1080,18 +1083,18 @@
       <c r="G6" s="21">
         <v>4.5764609999999997E-2</v>
       </c>
-      <c r="I6" s="26"/>
+      <c r="I6" s="24"/>
       <c r="J6" s="18">
         <v>3600</v>
       </c>
-      <c r="K6" s="24"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="25"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="25"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="25"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="27"/>
       <c r="S6" s="4"/>
       <c r="T6" s="11">
         <v>7.9486220000000003</v>
@@ -1123,34 +1126,34 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="26"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="18">
         <v>3600</v>
       </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="25" t="s">
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="11"/>
@@ -1159,66 +1162,66 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="26"/>
+      <c r="I8" s="24"/>
       <c r="J8" s="18">
         <v>3600</v>
       </c>
-      <c r="K8" s="24"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="24"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="25"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="27"/>
       <c r="T8" s="11"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
-      <c r="I9" s="26"/>
+      <c r="I9" s="24"/>
       <c r="J9" s="18">
         <v>3600</v>
       </c>
-      <c r="K9" s="24"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="24"/>
-      <c r="P9" s="25"/>
-      <c r="Q9" s="24"/>
-      <c r="R9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="26"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="26"/>
+      <c r="R9" s="27"/>
       <c r="T9" s="11"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="26"/>
+      <c r="I10" s="24"/>
       <c r="J10" s="18">
         <v>3600</v>
       </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
-      <c r="O10" s="24"/>
-      <c r="P10" s="25"/>
-      <c r="Q10" s="24"/>
-      <c r="R10" s="25"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
+      <c r="O10" s="26"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="27"/>
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
       <c r="U10" s="10"/>
@@ -1226,38 +1229,38 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="26"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="18">
         <v>3600</v>
       </c>
-      <c r="K11" s="24">
+      <c r="K11" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="27">
         <v>0.435</v>
       </c>
-      <c r="M11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="25" t="s">
+      <c r="M11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="11"/>
@@ -1272,22 +1275,22 @@
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="26"/>
+      <c r="I12" s="24"/>
       <c r="J12" s="18">
         <v>3600</v>
       </c>
-      <c r="K12" s="24"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="24"/>
-      <c r="P12" s="25"/>
-      <c r="Q12" s="24"/>
-      <c r="R12" s="25"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="26"/>
+      <c r="R12" s="27"/>
       <c r="T12" s="11"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -1300,22 +1303,22 @@
       </c>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="23"/>
+      <c r="A13" s="25"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="I13" s="26"/>
+      <c r="I13" s="24"/>
       <c r="J13" s="18">
         <v>3600</v>
       </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="25"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="25"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
+      <c r="O13" s="26"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="27"/>
       <c r="T13" s="11"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -1328,22 +1331,22 @@
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="23"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
-      <c r="I14" s="26"/>
+      <c r="I14" s="24"/>
       <c r="J14" s="18">
         <v>3600</v>
       </c>
-      <c r="K14" s="24"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="25"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="26"/>
+      <c r="R14" s="27"/>
       <c r="S14" s="4"/>
       <c r="T14" s="11"/>
       <c r="U14" s="10"/>
@@ -1351,7 +1354,7 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="25" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1360,28 +1363,28 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="26"/>
+      <c r="I15" s="24"/>
       <c r="J15" s="18">
         <v>3600</v>
       </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="25" t="s">
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="27" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1391,25 +1394,25 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="23"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="26"/>
+      <c r="I16" s="24"/>
       <c r="J16" s="18">
         <v>3600</v>
       </c>
-      <c r="K16" s="24"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="24"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="24"/>
-      <c r="P16" s="25"/>
-      <c r="Q16" s="24"/>
-      <c r="R16" s="25"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="26"/>
+      <c r="R16" s="27"/>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="10"/>
@@ -1417,25 +1420,25 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="23"/>
+      <c r="A17" s="25"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="26"/>
+      <c r="I17" s="24"/>
       <c r="J17" s="18">
         <v>3600</v>
       </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="24"/>
-      <c r="N17" s="25"/>
-      <c r="O17" s="24"/>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="24"/>
-      <c r="R17" s="25"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="26"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="27"/>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="10"/>
@@ -1445,7 +1448,7 @@
       <c r="CF17" s="14"/>
     </row>
     <row r="18" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23"/>
+      <c r="A18" s="25"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1455,18 +1458,18 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="26"/>
+      <c r="I18" s="24"/>
       <c r="J18" s="18">
         <v>3600</v>
       </c>
-      <c r="K18" s="24"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="24"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="24"/>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="24"/>
-      <c r="R18" s="25"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="26"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="26"/>
+      <c r="R18" s="27"/>
       <c r="S18" s="4"/>
       <c r="T18" s="11"/>
       <c r="U18" s="10"/>
@@ -1476,7 +1479,7 @@
       <c r="CF18" s="16"/>
     </row>
     <row r="19" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
+      <c r="A19" s="25" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1488,28 +1491,28 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="26"/>
+      <c r="I19" s="24"/>
       <c r="J19" s="18">
         <v>3600</v>
       </c>
-      <c r="K19" s="24"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="25" t="s">
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="27" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1521,7 +1524,7 @@
       <c r="CF19" s="16"/>
     </row>
     <row r="20" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1531,18 +1534,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="26"/>
+      <c r="I20" s="24"/>
       <c r="J20" s="18">
         <v>3600</v>
       </c>
-      <c r="K20" s="24"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="24"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="24"/>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="24"/>
-      <c r="R20" s="25"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="26"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="26"/>
+      <c r="R20" s="27"/>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
       <c r="U20" s="10"/>
@@ -1552,7 +1555,7 @@
       <c r="CF20" s="16"/>
     </row>
     <row r="21" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1562,18 +1565,18 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="26"/>
+      <c r="I21" s="24"/>
       <c r="J21" s="18">
         <v>3600</v>
       </c>
-      <c r="K21" s="24"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="24"/>
-      <c r="N21" s="25"/>
-      <c r="O21" s="24"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="24"/>
-      <c r="R21" s="25"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="26"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="26"/>
+      <c r="R21" s="27"/>
       <c r="S21" s="4"/>
       <c r="T21" s="11"/>
       <c r="U21" s="10"/>
@@ -1583,7 +1586,7 @@
       <c r="CF21" s="16"/>
     </row>
     <row r="22" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1593,18 +1596,18 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="26"/>
+      <c r="I22" s="24"/>
       <c r="J22" s="18">
         <v>3600</v>
       </c>
-      <c r="K22" s="24"/>
-      <c r="L22" s="25"/>
-      <c r="M22" s="24"/>
-      <c r="N22" s="25"/>
-      <c r="O22" s="24"/>
-      <c r="P22" s="25"/>
-      <c r="Q22" s="24"/>
-      <c r="R22" s="25"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="26"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="26"/>
+      <c r="R22" s="27"/>
       <c r="S22" s="4"/>
       <c r="T22" s="11"/>
       <c r="U22" s="10"/>
@@ -1621,7 +1624,7 @@
       <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="23" t="s">
+      <c r="A24" s="25" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1634,34 +1637,34 @@
       <c r="G24" s="22">
         <v>0.12707135</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="24">
         <v>8.0775444264943394E-5</v>
       </c>
       <c r="J24" s="18">
         <v>3600</v>
       </c>
-      <c r="K24" s="24">
+      <c r="K24" s="26">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="27">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="24">
+      <c r="M24" s="26">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="24">
+      <c r="N24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="26">
         <v>0.153</v>
       </c>
-      <c r="P24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="25" t="s">
+      <c r="P24" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="11">
@@ -1682,7 +1685,7 @@
       </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="23"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1693,18 +1696,18 @@
       <c r="G25" s="22">
         <v>0.11860896</v>
       </c>
-      <c r="I25" s="26"/>
+      <c r="I25" s="24"/>
       <c r="J25" s="18">
         <v>3600</v>
       </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="25"/>
-      <c r="M25" s="24"/>
-      <c r="N25" s="25"/>
-      <c r="O25" s="24"/>
-      <c r="P25" s="25"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="25"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+      <c r="M25" s="26"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="26"/>
+      <c r="P25" s="27"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="27"/>
       <c r="T25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1723,7 +1726,7 @@
       </c>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="23"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1734,18 +1737,18 @@
       <c r="G26" s="22">
         <v>0.11498809</v>
       </c>
-      <c r="I26" s="26"/>
+      <c r="I26" s="24"/>
       <c r="J26" s="18">
         <v>3600</v>
       </c>
-      <c r="K26" s="24"/>
-      <c r="L26" s="25"/>
-      <c r="M26" s="24"/>
-      <c r="N26" s="25"/>
-      <c r="O26" s="24"/>
-      <c r="P26" s="25"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="25"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="26"/>
+      <c r="N26" s="27"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="27"/>
       <c r="T26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="23"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1775,18 +1778,18 @@
       <c r="G27" s="22">
         <v>0.10464065</v>
       </c>
-      <c r="I27" s="26"/>
+      <c r="I27" s="24"/>
       <c r="J27" s="18">
         <v>3600</v>
       </c>
-      <c r="K27" s="24"/>
-      <c r="L27" s="25"/>
-      <c r="M27" s="24"/>
-      <c r="N27" s="25"/>
-      <c r="O27" s="24"/>
-      <c r="P27" s="25"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="25"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="26"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="26"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="25"/>
+      <c r="R27" s="27"/>
       <c r="T27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1799,7 +1802,7 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="25" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -1812,34 +1815,34 @@
       <c r="G28" s="22">
         <v>0.16553485000000001</v>
       </c>
-      <c r="I28" s="26">
+      <c r="I28" s="24">
         <v>2.1135191933276802E-3</v>
       </c>
       <c r="J28" s="18">
         <v>3600</v>
       </c>
-      <c r="K28" s="24">
+      <c r="K28" s="26">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="27">
         <v>0.624</v>
       </c>
-      <c r="M28" s="24">
+      <c r="M28" s="26">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="24">
+      <c r="N28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="26">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="25" t="s">
+      <c r="P28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="11">
@@ -1860,7 +1863,7 @@
       </c>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="23"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1871,18 +1874,18 @@
       <c r="G29" s="22">
         <v>0.15381023999999999</v>
       </c>
-      <c r="I29" s="26"/>
+      <c r="I29" s="24"/>
       <c r="J29" s="18">
         <v>3600</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="25"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="24"/>
-      <c r="P29" s="25"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="25"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="26"/>
+      <c r="N29" s="27"/>
+      <c r="O29" s="26"/>
+      <c r="P29" s="27"/>
+      <c r="Q29" s="25"/>
+      <c r="R29" s="27"/>
       <c r="T29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="23"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1912,18 +1915,18 @@
       <c r="G30" s="22">
         <v>0.14907977</v>
       </c>
-      <c r="I30" s="26"/>
+      <c r="I30" s="24"/>
       <c r="J30" s="18">
         <v>3600</v>
       </c>
-      <c r="K30" s="24"/>
-      <c r="L30" s="25"/>
-      <c r="M30" s="24"/>
-      <c r="N30" s="25"/>
-      <c r="O30" s="24"/>
-      <c r="P30" s="25"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="25"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="26"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="26"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="25"/>
+      <c r="R30" s="27"/>
       <c r="T30" s="11">
         <v>15.800986</v>
       </c>
@@ -1942,7 +1945,7 @@
       </c>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="23"/>
+      <c r="A31" s="25"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1953,18 +1956,18 @@
       <c r="G31" s="22">
         <v>0.14077903</v>
       </c>
-      <c r="I31" s="26"/>
+      <c r="I31" s="24"/>
       <c r="J31" s="18">
         <v>3600</v>
       </c>
-      <c r="K31" s="24"/>
-      <c r="L31" s="25"/>
-      <c r="M31" s="24"/>
-      <c r="N31" s="25"/>
-      <c r="O31" s="24"/>
-      <c r="P31" s="25"/>
-      <c r="Q31" s="23"/>
-      <c r="R31" s="25"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
+      <c r="M31" s="26"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="26"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="25"/>
+      <c r="R31" s="27"/>
       <c r="T31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -1977,7 +1980,7 @@
       <c r="W31" s="12"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="A32" s="25" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -1990,34 +1993,34 @@
       <c r="G32" s="22">
         <v>0.14890099000000001</v>
       </c>
-      <c r="I32" s="26">
+      <c r="I32" s="24">
         <v>7.0089728609427004E-3</v>
       </c>
       <c r="J32" s="18">
         <v>3600</v>
       </c>
-      <c r="K32" s="24">
+      <c r="K32" s="26">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="27">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="24">
+      <c r="M32" s="26">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="24">
+      <c r="N32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="26">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="25" t="s">
+      <c r="P32" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="11">
@@ -2038,7 +2041,7 @@
       </c>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
+      <c r="A33" s="25"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -2049,18 +2052,18 @@
       <c r="G33" s="22">
         <v>0.14093238999999999</v>
       </c>
-      <c r="I33" s="26"/>
+      <c r="I33" s="24"/>
       <c r="J33" s="18">
         <v>3600</v>
       </c>
-      <c r="K33" s="24"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="24"/>
-      <c r="N33" s="25"/>
-      <c r="O33" s="24"/>
-      <c r="P33" s="25"/>
-      <c r="Q33" s="23"/>
-      <c r="R33" s="25"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="26"/>
+      <c r="N33" s="27"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="27"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="27"/>
       <c r="T33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2079,7 +2082,7 @@
       </c>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
+      <c r="A34" s="25"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -2090,18 +2093,18 @@
       <c r="G34" s="22">
         <v>0.13792193</v>
       </c>
-      <c r="I34" s="26"/>
+      <c r="I34" s="24"/>
       <c r="J34" s="18">
         <v>3600</v>
       </c>
-      <c r="K34" s="24"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="24"/>
-      <c r="N34" s="25"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="25"/>
-      <c r="Q34" s="23"/>
-      <c r="R34" s="25"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="26"/>
+      <c r="N34" s="27"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="27"/>
+      <c r="Q34" s="25"/>
+      <c r="R34" s="27"/>
       <c r="T34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
+      <c r="A35" s="25"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -2131,18 +2134,18 @@
       <c r="G35" s="22">
         <v>0.12556243</v>
       </c>
-      <c r="I35" s="26"/>
+      <c r="I35" s="24"/>
       <c r="J35" s="18">
         <v>3600</v>
       </c>
-      <c r="K35" s="24"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="24"/>
-      <c r="N35" s="25"/>
-      <c r="O35" s="24"/>
-      <c r="P35" s="25"/>
-      <c r="Q35" s="23"/>
-      <c r="R35" s="25"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="26"/>
+      <c r="N35" s="27"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="27"/>
+      <c r="Q35" s="25"/>
+      <c r="R35" s="27"/>
       <c r="T35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2155,7 +2158,7 @@
       <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="23" t="s">
+      <c r="A36" s="25" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
@@ -2168,34 +2171,34 @@
       <c r="G36" s="22">
         <v>0.18608110999999999</v>
       </c>
-      <c r="I36" s="26">
+      <c r="I36" s="24">
         <v>2.0514895543250498E-2</v>
       </c>
       <c r="J36" s="18">
         <v>3600</v>
       </c>
-      <c r="K36" s="24">
+      <c r="K36" s="26">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="27">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="24">
+      <c r="M36" s="26">
         <v>0.189</v>
       </c>
-      <c r="N36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="24">
+      <c r="N36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="26">
         <v>0.18</v>
       </c>
-      <c r="P36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="25" t="s">
+      <c r="P36" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T36" s="11">
@@ -2216,7 +2219,7 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
+      <c r="A37" s="25"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -2227,18 +2230,18 @@
       <c r="G37" s="22">
         <v>0.18200377000000001</v>
       </c>
-      <c r="I37" s="26"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="18">
         <v>3600</v>
       </c>
-      <c r="K37" s="24"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="24"/>
-      <c r="N37" s="25"/>
-      <c r="O37" s="24"/>
-      <c r="P37" s="25"/>
-      <c r="Q37" s="23"/>
-      <c r="R37" s="25"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="26"/>
+      <c r="N37" s="27"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="27"/>
+      <c r="Q37" s="25"/>
+      <c r="R37" s="27"/>
       <c r="T37" s="11">
         <v>10.807356</v>
       </c>
@@ -2257,7 +2260,7 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
+      <c r="A38" s="25"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -2268,18 +2271,18 @@
       <c r="G38" s="22">
         <v>0.17299987999999999</v>
       </c>
-      <c r="I38" s="26"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="18">
         <v>3600</v>
       </c>
-      <c r="K38" s="24"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="24"/>
-      <c r="N38" s="25"/>
-      <c r="O38" s="24"/>
-      <c r="P38" s="25"/>
-      <c r="Q38" s="23"/>
-      <c r="R38" s="25"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27"/>
+      <c r="M38" s="26"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="25"/>
+      <c r="R38" s="27"/>
       <c r="T38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2298,7 +2301,7 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
+      <c r="A39" s="25"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2309,18 +2312,18 @@
       <c r="G39" s="22">
         <v>0.16159451999999999</v>
       </c>
-      <c r="I39" s="26"/>
+      <c r="I39" s="24"/>
       <c r="J39" s="18">
         <v>3600</v>
       </c>
-      <c r="K39" s="24"/>
-      <c r="L39" s="25"/>
-      <c r="M39" s="24"/>
-      <c r="N39" s="25"/>
-      <c r="O39" s="24"/>
-      <c r="P39" s="25"/>
-      <c r="Q39" s="23"/>
-      <c r="R39" s="25"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+      <c r="M39" s="26"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="26"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="25"/>
+      <c r="R39" s="27"/>
       <c r="T39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2333,7 +2336,7 @@
       <c r="W39" s="12"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="23" t="s">
+      <c r="A40" s="25" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -2346,34 +2349,34 @@
       <c r="G40" s="22">
         <v>0.21995459000000001</v>
       </c>
-      <c r="I40" s="26">
+      <c r="I40" s="24">
         <v>2.97301842356399E-2</v>
       </c>
       <c r="J40" s="18">
         <v>3600</v>
       </c>
-      <c r="K40" s="24">
+      <c r="K40" s="26">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="27">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="24">
+      <c r="M40" s="26">
         <v>0.254</v>
       </c>
-      <c r="N40" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="24">
+      <c r="N40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="26">
         <v>0.187</v>
       </c>
-      <c r="P40" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="24">
+      <c r="P40" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="26">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="25">
+      <c r="R40" s="27">
         <v>600</v>
       </c>
       <c r="T40" s="11">
@@ -2394,7 +2397,7 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="23"/>
+      <c r="A41" s="25"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2405,18 +2408,18 @@
       <c r="G41" s="22">
         <v>0.21548316000000001</v>
       </c>
-      <c r="I41" s="26"/>
+      <c r="I41" s="24"/>
       <c r="J41" s="18">
         <v>3600</v>
       </c>
-      <c r="K41" s="24"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="24"/>
-      <c r="N41" s="25"/>
-      <c r="O41" s="24"/>
-      <c r="P41" s="25"/>
-      <c r="Q41" s="24"/>
-      <c r="R41" s="25"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="26"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="27"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="27"/>
       <c r="T41" s="11">
         <v>13.471734</v>
       </c>
@@ -2435,7 +2438,7 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
+      <c r="A42" s="25"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2446,18 +2449,18 @@
       <c r="G42" s="22">
         <v>0.20450039</v>
       </c>
-      <c r="I42" s="26"/>
+      <c r="I42" s="24"/>
       <c r="J42" s="18">
         <v>3600</v>
       </c>
-      <c r="K42" s="24"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="24"/>
-      <c r="N42" s="25"/>
-      <c r="O42" s="24"/>
-      <c r="P42" s="25"/>
-      <c r="Q42" s="24"/>
-      <c r="R42" s="25"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="26"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="27"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="27"/>
       <c r="T42" s="11">
         <v>26.813558</v>
       </c>
@@ -2476,7 +2479,7 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
+      <c r="A43" s="25"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2487,18 +2490,18 @@
       <c r="G43" s="22">
         <v>0.18931542000000001</v>
       </c>
-      <c r="I43" s="26"/>
+      <c r="I43" s="24"/>
       <c r="J43" s="18">
         <v>3600</v>
       </c>
-      <c r="K43" s="24"/>
-      <c r="L43" s="25"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="25"/>
-      <c r="O43" s="24"/>
-      <c r="P43" s="25"/>
-      <c r="Q43" s="24"/>
-      <c r="R43" s="25"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="27"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="27"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="27"/>
       <c r="T43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2511,43 +2514,47 @@
       <c r="W43" s="12"/>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A44" s="23" t="s">
+      <c r="A44" s="25" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
         <v>500</v>
       </c>
       <c r="C44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="I44" s="26">
+      <c r="E44" s="23">
+        <v>0.14035653000000001</v>
+      </c>
+      <c r="G44" s="23">
+        <v>0.14159316</v>
+      </c>
+      <c r="I44" s="24">
         <v>1.3831368901879601E-3</v>
       </c>
       <c r="J44" s="18">
         <v>3600</v>
       </c>
-      <c r="K44" s="24">
+      <c r="K44" s="26">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="27">
         <v>2.7</v>
       </c>
-      <c r="M44" s="24">
+      <c r="M44" s="26">
         <v>0.159</v>
       </c>
-      <c r="N44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="24">
+      <c r="N44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="26">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="25" t="s">
+      <c r="P44" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T44" s="11">
@@ -2568,25 +2575,29 @@
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="23"/>
+      <c r="A45" s="25"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
       <c r="C45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="I45" s="26"/>
+      <c r="E45" s="23">
+        <v>0.13759636</v>
+      </c>
+      <c r="G45" s="23">
+        <v>0.13304566000000001</v>
+      </c>
+      <c r="I45" s="24"/>
       <c r="J45" s="18">
         <v>3600</v>
       </c>
-      <c r="K45" s="24"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="24"/>
-      <c r="N45" s="25"/>
-      <c r="O45" s="24"/>
-      <c r="P45" s="25"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="25"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
+      <c r="M45" s="26"/>
+      <c r="N45" s="27"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="27"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="27"/>
       <c r="T45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2605,25 +2616,29 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="23"/>
+      <c r="A46" s="25"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
       <c r="C46" s="7"/>
-      <c r="E46" s="7"/>
-      <c r="G46" s="7"/>
-      <c r="I46" s="26"/>
+      <c r="E46" s="23">
+        <v>0.12504580000000001</v>
+      </c>
+      <c r="G46" s="23">
+        <v>0.1227824</v>
+      </c>
+      <c r="I46" s="24"/>
       <c r="J46" s="18">
         <v>3600</v>
       </c>
-      <c r="K46" s="24"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="24"/>
-      <c r="N46" s="25"/>
-      <c r="O46" s="24"/>
-      <c r="P46" s="25"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="25"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="26"/>
+      <c r="N46" s="27"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="27"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="27"/>
       <c r="T46" s="11">
         <v>34.49512</v>
       </c>
@@ -2642,25 +2657,29 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="23"/>
+      <c r="A47" s="25"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
       <c r="C47" s="7"/>
-      <c r="E47" s="7"/>
-      <c r="G47" s="7"/>
-      <c r="I47" s="26"/>
+      <c r="E47" s="23">
+        <v>0.1119463</v>
+      </c>
+      <c r="G47" s="23">
+        <v>0.10990411999999999</v>
+      </c>
+      <c r="I47" s="24"/>
       <c r="J47" s="18">
         <v>3600</v>
       </c>
-      <c r="K47" s="24"/>
-      <c r="L47" s="25"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="25"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="25"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="25"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
+      <c r="M47" s="26"/>
+      <c r="N47" s="27"/>
+      <c r="O47" s="26"/>
+      <c r="P47" s="27"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="27"/>
       <c r="T47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2673,7 +2692,7 @@
       <c r="W47" s="12"/>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="23" t="s">
+      <c r="A48" s="25" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -2682,34 +2701,34 @@
       <c r="C48" s="7"/>
       <c r="E48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="I48" s="26">
+      <c r="I48" s="24">
         <v>2.2173780908445601E-2</v>
       </c>
       <c r="J48" s="18">
         <v>3600</v>
       </c>
-      <c r="K48" s="24">
+      <c r="K48" s="26">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="27">
         <v>4.883</v>
       </c>
-      <c r="M48" s="24">
+      <c r="M48" s="26">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="24">
+      <c r="N48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="26">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="25" t="s">
+      <c r="P48" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T48" s="11">
@@ -2730,25 +2749,25 @@
       </c>
     </row>
     <row r="49" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A49" s="23"/>
+      <c r="A49" s="25"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
       <c r="C49" s="7"/>
       <c r="E49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="I49" s="26"/>
+      <c r="I49" s="24"/>
       <c r="J49" s="18">
         <v>3600</v>
       </c>
-      <c r="K49" s="24"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
-      <c r="O49" s="24"/>
-      <c r="P49" s="25"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="25"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="27"/>
       <c r="T49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -2767,25 +2786,25 @@
       </c>
     </row>
     <row r="50" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A50" s="23"/>
+      <c r="A50" s="25"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
       <c r="C50" s="7"/>
       <c r="E50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="I50" s="26"/>
+      <c r="I50" s="24"/>
       <c r="J50" s="18">
         <v>3600</v>
       </c>
-      <c r="K50" s="24"/>
-      <c r="L50" s="25"/>
-      <c r="M50" s="24"/>
-      <c r="N50" s="25"/>
-      <c r="O50" s="24"/>
-      <c r="P50" s="25"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="25"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
+      <c r="M50" s="26"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="26"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="27"/>
       <c r="T50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -2804,25 +2823,25 @@
       </c>
     </row>
     <row r="51" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A51" s="23"/>
+      <c r="A51" s="25"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
       <c r="C51" s="7"/>
       <c r="E51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="I51" s="26"/>
+      <c r="I51" s="24"/>
       <c r="J51" s="18">
         <v>3600</v>
       </c>
-      <c r="K51" s="24"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="24"/>
-      <c r="N51" s="25"/>
-      <c r="O51" s="24"/>
-      <c r="P51" s="25"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="25"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="27"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="27"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="27"/>
       <c r="T51" s="11">
         <v>115.449259</v>
       </c>
@@ -2836,40 +2855,40 @@
       <c r="AV51" s="13"/>
     </row>
     <row r="52" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A52" s="23" t="s">
+      <c r="A52" s="25" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="I52" s="26">
+      <c r="I52" s="24">
         <v>3.8355352332044797E-2</v>
       </c>
       <c r="J52" s="18">
         <v>3600</v>
       </c>
-      <c r="K52" s="24">
+      <c r="K52" s="26">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="27">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="24">
+      <c r="M52" s="26">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="24">
+      <c r="N52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="26">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="25" t="s">
+      <c r="P52" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="11">
@@ -2890,22 +2909,22 @@
       </c>
     </row>
     <row r="53" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A53" s="23"/>
+      <c r="A53" s="25"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="I53" s="26"/>
+      <c r="I53" s="24"/>
       <c r="J53" s="18">
         <v>3600</v>
       </c>
-      <c r="K53" s="24"/>
-      <c r="L53" s="25"/>
-      <c r="M53" s="24"/>
-      <c r="N53" s="25"/>
-      <c r="O53" s="24"/>
-      <c r="P53" s="25"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="25"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="26"/>
+      <c r="N53" s="27"/>
+      <c r="O53" s="26"/>
+      <c r="P53" s="27"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="27"/>
       <c r="T53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -2924,22 +2943,22 @@
       </c>
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A54" s="23"/>
+      <c r="A54" s="25"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
-      <c r="I54" s="26"/>
+      <c r="I54" s="24"/>
       <c r="J54" s="18">
         <v>3600</v>
       </c>
-      <c r="K54" s="24"/>
-      <c r="L54" s="25"/>
-      <c r="M54" s="24"/>
-      <c r="N54" s="25"/>
-      <c r="O54" s="24"/>
-      <c r="P54" s="25"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="25"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
+      <c r="M54" s="26"/>
+      <c r="N54" s="27"/>
+      <c r="O54" s="26"/>
+      <c r="P54" s="27"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="27"/>
       <c r="T54" s="11">
         <v>130.456557</v>
       </c>
@@ -2958,22 +2977,22 @@
       </c>
     </row>
     <row r="55" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A55" s="23"/>
+      <c r="A55" s="25"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
-      <c r="I55" s="26"/>
+      <c r="I55" s="24"/>
       <c r="J55" s="18">
         <v>3600</v>
       </c>
-      <c r="K55" s="24"/>
-      <c r="L55" s="25"/>
-      <c r="M55" s="24"/>
-      <c r="N55" s="25"/>
-      <c r="O55" s="24"/>
-      <c r="P55" s="25"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="25"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="27"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="27"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="27"/>
       <c r="T55" s="11">
         <v>323.3809</v>
       </c>
@@ -2994,36 +3013,36 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A57" s="23" t="s">
+      <c r="A57" s="25" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>500</v>
       </c>
-      <c r="I57" s="26">
+      <c r="I57" s="24">
         <v>0</v>
       </c>
       <c r="J57" s="18">
         <v>3600</v>
       </c>
-      <c r="K57" s="24"/>
-      <c r="L57" s="27"/>
-      <c r="M57" s="24">
+      <c r="K57" s="26"/>
+      <c r="L57" s="28"/>
+      <c r="M57" s="26">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="24">
+      <c r="N57" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="26">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="25" t="s">
+      <c r="P57" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T57" s="11">
@@ -3039,22 +3058,22 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A58" s="23"/>
+      <c r="A58" s="25"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="I58" s="26"/>
+      <c r="I58" s="24"/>
       <c r="J58" s="18">
         <v>3600</v>
       </c>
-      <c r="K58" s="24"/>
-      <c r="L58" s="27"/>
-      <c r="M58" s="24"/>
-      <c r="N58" s="25"/>
-      <c r="O58" s="24"/>
-      <c r="P58" s="25"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="25"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="28"/>
+      <c r="M58" s="26"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="26"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="27"/>
       <c r="T58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3068,22 +3087,22 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
+      <c r="A59" s="25"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
-      <c r="I59" s="26"/>
+      <c r="I59" s="24"/>
       <c r="J59" s="18">
         <v>3600</v>
       </c>
-      <c r="K59" s="24"/>
-      <c r="L59" s="27"/>
-      <c r="M59" s="24"/>
-      <c r="N59" s="25"/>
-      <c r="O59" s="24"/>
-      <c r="P59" s="25"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="25"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="28"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="26"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="27"/>
       <c r="T59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3097,22 +3116,22 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A60" s="23"/>
+      <c r="A60" s="25"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
-      <c r="I60" s="26"/>
+      <c r="I60" s="24"/>
       <c r="J60" s="18">
         <v>3600</v>
       </c>
-      <c r="K60" s="24"/>
-      <c r="L60" s="27"/>
-      <c r="M60" s="24"/>
-      <c r="N60" s="25"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="25"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="25"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="28"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="27"/>
+      <c r="O60" s="26"/>
+      <c r="P60" s="27"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="27"/>
       <c r="T60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3126,36 +3145,36 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A61" s="23" t="s">
+      <c r="A61" s="25" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
         <v>500</v>
       </c>
-      <c r="I61" s="26">
+      <c r="I61" s="24">
         <v>6.94753242196072E-3</v>
       </c>
       <c r="J61" s="18">
         <v>3600</v>
       </c>
-      <c r="K61" s="24"/>
-      <c r="L61" s="27"/>
-      <c r="M61" s="24">
+      <c r="K61" s="26"/>
+      <c r="L61" s="28"/>
+      <c r="M61" s="26">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="24">
+      <c r="N61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="26">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="25" t="s">
+      <c r="P61" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T61" s="11">
@@ -3171,22 +3190,22 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A62" s="23"/>
+      <c r="A62" s="25"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
-      <c r="I62" s="26"/>
+      <c r="I62" s="24"/>
       <c r="J62" s="18">
         <v>3600</v>
       </c>
-      <c r="K62" s="24"/>
-      <c r="L62" s="27"/>
-      <c r="M62" s="24"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="24"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="25"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="28"/>
+      <c r="M62" s="26"/>
+      <c r="N62" s="27"/>
+      <c r="O62" s="26"/>
+      <c r="P62" s="27"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="27"/>
       <c r="T62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3200,22 +3219,22 @@
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
+      <c r="A63" s="25"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
-      <c r="I63" s="26"/>
+      <c r="I63" s="24"/>
       <c r="J63" s="18">
         <v>3600</v>
       </c>
-      <c r="K63" s="24"/>
-      <c r="L63" s="27"/>
-      <c r="M63" s="24"/>
-      <c r="N63" s="25"/>
-      <c r="O63" s="24"/>
-      <c r="P63" s="25"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="25"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="28"/>
+      <c r="M63" s="26"/>
+      <c r="N63" s="27"/>
+      <c r="O63" s="26"/>
+      <c r="P63" s="27"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="27"/>
       <c r="T63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3229,22 +3248,22 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A64" s="23"/>
+      <c r="A64" s="25"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
-      <c r="I64" s="26"/>
+      <c r="I64" s="24"/>
       <c r="J64" s="18">
         <v>3600</v>
       </c>
-      <c r="K64" s="24"/>
-      <c r="L64" s="27"/>
-      <c r="M64" s="24"/>
-      <c r="N64" s="25"/>
-      <c r="O64" s="24"/>
-      <c r="P64" s="25"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="25"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="28"/>
+      <c r="M64" s="26"/>
+      <c r="N64" s="27"/>
+      <c r="O64" s="26"/>
+      <c r="P64" s="27"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="27"/>
       <c r="T64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3266,36 +3285,36 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="23" t="s">
+      <c r="A66" s="25" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
       </c>
-      <c r="I66" s="26">
+      <c r="I66" s="24">
         <v>0</v>
       </c>
       <c r="J66" s="18">
         <v>3600</v>
       </c>
-      <c r="K66" s="24"/>
-      <c r="L66" s="27"/>
-      <c r="M66" s="24">
+      <c r="K66" s="26"/>
+      <c r="L66" s="28"/>
+      <c r="M66" s="26">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="24">
+      <c r="N66" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="26">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="25" t="s">
+      <c r="P66" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T66" s="11">
@@ -3311,22 +3330,22 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="23"/>
+      <c r="A67" s="25"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
-      <c r="I67" s="26"/>
+      <c r="I67" s="24"/>
       <c r="J67" s="18">
         <v>3600</v>
       </c>
-      <c r="K67" s="24"/>
-      <c r="L67" s="27"/>
-      <c r="M67" s="24"/>
-      <c r="N67" s="25"/>
-      <c r="O67" s="24"/>
-      <c r="P67" s="25"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="25"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="28"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="27"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="27"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="27"/>
       <c r="T67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3340,22 +3359,22 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="23"/>
+      <c r="A68" s="25"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
-      <c r="I68" s="26"/>
+      <c r="I68" s="24"/>
       <c r="J68" s="18">
         <v>3600</v>
       </c>
-      <c r="K68" s="24"/>
-      <c r="L68" s="27"/>
-      <c r="M68" s="24"/>
-      <c r="N68" s="25"/>
-      <c r="O68" s="24"/>
-      <c r="P68" s="25"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="25"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="28"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="27"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="27"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="27"/>
       <c r="T68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3369,22 +3388,22 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="23"/>
+      <c r="A69" s="25"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
-      <c r="I69" s="26"/>
+      <c r="I69" s="24"/>
       <c r="J69" s="18">
         <v>3600</v>
       </c>
-      <c r="K69" s="24"/>
-      <c r="L69" s="27"/>
-      <c r="M69" s="24"/>
-      <c r="N69" s="25"/>
-      <c r="O69" s="24"/>
-      <c r="P69" s="25"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="25"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="28"/>
+      <c r="M69" s="26"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="26"/>
+      <c r="P69" s="27"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="27"/>
       <c r="T69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3406,36 +3425,36 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="23" t="s">
+      <c r="A71" s="25" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
       </c>
-      <c r="I71" s="26">
+      <c r="I71" s="24">
         <v>6.7616724409469602E-3</v>
       </c>
       <c r="J71" s="18">
         <v>3600</v>
       </c>
-      <c r="K71" s="24"/>
-      <c r="L71" s="27"/>
-      <c r="M71" s="24">
+      <c r="K71" s="26"/>
+      <c r="L71" s="28"/>
+      <c r="M71" s="26">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="24">
+      <c r="N71" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="26">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="25" t="s">
+      <c r="P71" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T71" s="11">
@@ -3451,22 +3470,22 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="23"/>
+      <c r="A72" s="25"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
-      <c r="I72" s="26"/>
+      <c r="I72" s="24"/>
       <c r="J72" s="18">
         <v>3600</v>
       </c>
-      <c r="K72" s="24"/>
-      <c r="L72" s="27"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="25"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="25"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="25"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="28"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="27"/>
+      <c r="O72" s="26"/>
+      <c r="P72" s="27"/>
+      <c r="Q72" s="25"/>
+      <c r="R72" s="27"/>
       <c r="T72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3480,22 +3499,22 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="23"/>
+      <c r="A73" s="25"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
-      <c r="I73" s="26"/>
+      <c r="I73" s="24"/>
       <c r="J73" s="18">
         <v>3600</v>
       </c>
-      <c r="K73" s="24"/>
-      <c r="L73" s="27"/>
-      <c r="M73" s="24"/>
-      <c r="N73" s="25"/>
-      <c r="O73" s="24"/>
-      <c r="P73" s="25"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="25"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="28"/>
+      <c r="M73" s="26"/>
+      <c r="N73" s="27"/>
+      <c r="O73" s="26"/>
+      <c r="P73" s="27"/>
+      <c r="Q73" s="25"/>
+      <c r="R73" s="27"/>
       <c r="T73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3509,22 +3528,22 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="23"/>
+      <c r="A74" s="25"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
-      <c r="I74" s="26"/>
+      <c r="I74" s="24"/>
       <c r="J74" s="18">
         <v>3600</v>
       </c>
-      <c r="K74" s="24"/>
-      <c r="L74" s="27"/>
-      <c r="M74" s="24"/>
-      <c r="N74" s="25"/>
-      <c r="O74" s="24"/>
-      <c r="P74" s="25"/>
-      <c r="Q74" s="23"/>
-      <c r="R74" s="25"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="28"/>
+      <c r="M74" s="26"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="26"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="25"/>
+      <c r="R74" s="27"/>
       <c r="T74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3546,36 +3565,36 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
+      <c r="A76" s="25" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="26">
+      <c r="I76" s="24">
         <v>2.6177659710813601E-3</v>
       </c>
       <c r="J76" s="18">
         <v>3600</v>
       </c>
-      <c r="K76" s="24"/>
-      <c r="L76" s="27"/>
-      <c r="M76" s="24">
+      <c r="K76" s="26"/>
+      <c r="L76" s="28"/>
+      <c r="M76" s="26">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="24">
+      <c r="N76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="26">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="25" t="s">
+      <c r="P76" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T76" s="11">
@@ -3591,22 +3610,22 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="23"/>
+      <c r="A77" s="25"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
-      <c r="I77" s="26"/>
+      <c r="I77" s="24"/>
       <c r="J77" s="18">
         <v>3600</v>
       </c>
-      <c r="K77" s="24"/>
-      <c r="L77" s="27"/>
-      <c r="M77" s="24"/>
-      <c r="N77" s="25"/>
-      <c r="O77" s="24"/>
-      <c r="P77" s="25"/>
-      <c r="Q77" s="23"/>
-      <c r="R77" s="25"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="28"/>
+      <c r="M77" s="26"/>
+      <c r="N77" s="27"/>
+      <c r="O77" s="26"/>
+      <c r="P77" s="27"/>
+      <c r="Q77" s="25"/>
+      <c r="R77" s="27"/>
       <c r="T77" s="11">
         <v>11.555717</v>
       </c>
@@ -3620,22 +3639,22 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="23"/>
+      <c r="A78" s="25"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
-      <c r="I78" s="26"/>
+      <c r="I78" s="24"/>
       <c r="J78" s="18">
         <v>3600</v>
       </c>
-      <c r="K78" s="24"/>
-      <c r="L78" s="27"/>
-      <c r="M78" s="24"/>
-      <c r="N78" s="25"/>
-      <c r="O78" s="24"/>
-      <c r="P78" s="25"/>
-      <c r="Q78" s="23"/>
-      <c r="R78" s="25"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="28"/>
+      <c r="M78" s="26"/>
+      <c r="N78" s="27"/>
+      <c r="O78" s="26"/>
+      <c r="P78" s="27"/>
+      <c r="Q78" s="25"/>
+      <c r="R78" s="27"/>
       <c r="T78" s="11">
         <v>23.124298</v>
       </c>
@@ -3649,22 +3668,22 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="23"/>
+      <c r="A79" s="25"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
-      <c r="I79" s="26"/>
+      <c r="I79" s="24"/>
       <c r="J79" s="18">
         <v>3600</v>
       </c>
-      <c r="K79" s="24"/>
-      <c r="L79" s="27"/>
-      <c r="M79" s="24"/>
-      <c r="N79" s="25"/>
-      <c r="O79" s="24"/>
-      <c r="P79" s="25"/>
-      <c r="Q79" s="23"/>
-      <c r="R79" s="25"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="28"/>
+      <c r="M79" s="26"/>
+      <c r="N79" s="27"/>
+      <c r="O79" s="26"/>
+      <c r="P79" s="27"/>
+      <c r="Q79" s="25"/>
+      <c r="R79" s="27"/>
       <c r="T79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -3678,36 +3697,36 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="25" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
       </c>
-      <c r="I80" s="26">
+      <c r="I80" s="24">
         <v>2.37598662590718E-2</v>
       </c>
       <c r="J80" s="18">
         <v>3600</v>
       </c>
-      <c r="K80" s="24"/>
-      <c r="L80" s="27"/>
-      <c r="M80" s="24">
+      <c r="K80" s="26"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="26">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="24">
+      <c r="N80" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="26">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="25" t="s">
+      <c r="P80" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T80" s="11">
@@ -3723,22 +3742,22 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="23"/>
+      <c r="A81" s="25"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
-      <c r="I81" s="26"/>
+      <c r="I81" s="24"/>
       <c r="J81" s="18">
         <v>3600</v>
       </c>
-      <c r="K81" s="24"/>
-      <c r="L81" s="27"/>
-      <c r="M81" s="24"/>
-      <c r="N81" s="25"/>
-      <c r="O81" s="24"/>
-      <c r="P81" s="25"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="25"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="26"/>
+      <c r="N81" s="27"/>
+      <c r="O81" s="26"/>
+      <c r="P81" s="27"/>
+      <c r="Q81" s="25"/>
+      <c r="R81" s="27"/>
       <c r="T81" s="11">
         <v>14.007052</v>
       </c>
@@ -3752,22 +3771,22 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="23"/>
+      <c r="A82" s="25"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
-      <c r="I82" s="26"/>
+      <c r="I82" s="24"/>
       <c r="J82" s="18">
         <v>3600</v>
       </c>
-      <c r="K82" s="24"/>
-      <c r="L82" s="27"/>
-      <c r="M82" s="24"/>
-      <c r="N82" s="25"/>
-      <c r="O82" s="24"/>
-      <c r="P82" s="25"/>
-      <c r="Q82" s="23"/>
-      <c r="R82" s="25"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="28"/>
+      <c r="M82" s="26"/>
+      <c r="N82" s="27"/>
+      <c r="O82" s="26"/>
+      <c r="P82" s="27"/>
+      <c r="Q82" s="25"/>
+      <c r="R82" s="27"/>
       <c r="T82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -3781,22 +3800,22 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
+      <c r="A83" s="25"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
-      <c r="I83" s="26"/>
+      <c r="I83" s="24"/>
       <c r="J83" s="18">
         <v>3600</v>
       </c>
-      <c r="K83" s="24"/>
-      <c r="L83" s="27"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="25"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="25"/>
-      <c r="Q83" s="23"/>
-      <c r="R83" s="25"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="28"/>
+      <c r="M83" s="26"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="26"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="25"/>
+      <c r="R83" s="27"/>
       <c r="T83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -3810,36 +3829,36 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
+      <c r="A84" s="25" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>500</v>
       </c>
-      <c r="I84" s="26">
+      <c r="I84" s="24">
         <v>1.47481695465506E-2</v>
       </c>
       <c r="J84" s="18">
         <v>3600</v>
       </c>
-      <c r="K84" s="24"/>
-      <c r="L84" s="27"/>
-      <c r="M84" s="24">
+      <c r="K84" s="26"/>
+      <c r="L84" s="28"/>
+      <c r="M84" s="26">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="24">
+      <c r="N84" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="26">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="25" t="s">
+      <c r="P84" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T84" s="11">
@@ -3855,22 +3874,22 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
+      <c r="A85" s="25"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
-      <c r="I85" s="26"/>
+      <c r="I85" s="24"/>
       <c r="J85" s="18">
         <v>3600</v>
       </c>
-      <c r="K85" s="24"/>
-      <c r="L85" s="27"/>
-      <c r="M85" s="24"/>
-      <c r="N85" s="25"/>
-      <c r="O85" s="24"/>
-      <c r="P85" s="25"/>
-      <c r="Q85" s="23"/>
-      <c r="R85" s="25"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="28"/>
+      <c r="M85" s="26"/>
+      <c r="N85" s="27"/>
+      <c r="O85" s="26"/>
+      <c r="P85" s="27"/>
+      <c r="Q85" s="25"/>
+      <c r="R85" s="27"/>
       <c r="T85" s="11">
         <v>14.86237</v>
       </c>
@@ -3884,22 +3903,22 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="23"/>
+      <c r="A86" s="25"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
-      <c r="I86" s="26"/>
+      <c r="I86" s="24"/>
       <c r="J86" s="18">
         <v>3600</v>
       </c>
-      <c r="K86" s="24"/>
-      <c r="L86" s="27"/>
-      <c r="M86" s="24"/>
-      <c r="N86" s="25"/>
-      <c r="O86" s="24"/>
-      <c r="P86" s="25"/>
-      <c r="Q86" s="23"/>
-      <c r="R86" s="25"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="28"/>
+      <c r="M86" s="26"/>
+      <c r="N86" s="27"/>
+      <c r="O86" s="26"/>
+      <c r="P86" s="27"/>
+      <c r="Q86" s="25"/>
+      <c r="R86" s="27"/>
       <c r="T86" s="11">
         <v>29.561377</v>
       </c>
@@ -3913,22 +3932,22 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="23"/>
+      <c r="A87" s="25"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
-      <c r="I87" s="26"/>
+      <c r="I87" s="24"/>
       <c r="J87" s="18">
         <v>3600</v>
       </c>
-      <c r="K87" s="24"/>
-      <c r="L87" s="27"/>
-      <c r="M87" s="24"/>
-      <c r="N87" s="25"/>
-      <c r="O87" s="24"/>
-      <c r="P87" s="25"/>
-      <c r="Q87" s="23"/>
-      <c r="R87" s="25"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="28"/>
+      <c r="M87" s="26"/>
+      <c r="N87" s="27"/>
+      <c r="O87" s="26"/>
+      <c r="P87" s="27"/>
+      <c r="Q87" s="25"/>
+      <c r="R87" s="27"/>
       <c r="T87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -3950,36 +3969,36 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="23" t="s">
+      <c r="A89" s="25" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>500</v>
       </c>
-      <c r="I89" s="26">
+      <c r="I89" s="24">
         <v>0</v>
       </c>
       <c r="J89" s="18">
         <v>3600</v>
       </c>
-      <c r="K89" s="24"/>
-      <c r="L89" s="27"/>
-      <c r="M89" s="24">
+      <c r="K89" s="26"/>
+      <c r="L89" s="28"/>
+      <c r="M89" s="26">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="24">
+      <c r="N89" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="26">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="25" t="s">
+      <c r="P89" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T89" s="11">
@@ -3995,22 +4014,22 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="23"/>
+      <c r="A90" s="25"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
-      <c r="I90" s="26"/>
+      <c r="I90" s="24"/>
       <c r="J90" s="18">
         <v>3600</v>
       </c>
-      <c r="K90" s="24"/>
-      <c r="L90" s="27"/>
-      <c r="M90" s="24"/>
-      <c r="N90" s="25"/>
-      <c r="O90" s="24"/>
-      <c r="P90" s="25"/>
-      <c r="Q90" s="23"/>
-      <c r="R90" s="25"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="28"/>
+      <c r="M90" s="26"/>
+      <c r="N90" s="27"/>
+      <c r="O90" s="26"/>
+      <c r="P90" s="27"/>
+      <c r="Q90" s="25"/>
+      <c r="R90" s="27"/>
       <c r="T90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4024,22 +4043,22 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="23"/>
+      <c r="A91" s="25"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
-      <c r="I91" s="26"/>
+      <c r="I91" s="24"/>
       <c r="J91" s="18">
         <v>3600</v>
       </c>
-      <c r="K91" s="24"/>
-      <c r="L91" s="27"/>
-      <c r="M91" s="24"/>
-      <c r="N91" s="25"/>
-      <c r="O91" s="24"/>
-      <c r="P91" s="25"/>
-      <c r="Q91" s="23"/>
-      <c r="R91" s="25"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="28"/>
+      <c r="M91" s="26"/>
+      <c r="N91" s="27"/>
+      <c r="O91" s="26"/>
+      <c r="P91" s="27"/>
+      <c r="Q91" s="25"/>
+      <c r="R91" s="27"/>
       <c r="T91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4053,22 +4072,22 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="23"/>
+      <c r="A92" s="25"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
-      <c r="I92" s="26"/>
+      <c r="I92" s="24"/>
       <c r="J92" s="18">
         <v>3600</v>
       </c>
-      <c r="K92" s="24"/>
-      <c r="L92" s="27"/>
-      <c r="M92" s="24"/>
-      <c r="N92" s="25"/>
-      <c r="O92" s="24"/>
-      <c r="P92" s="25"/>
-      <c r="Q92" s="23"/>
-      <c r="R92" s="25"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="28"/>
+      <c r="M92" s="26"/>
+      <c r="N92" s="27"/>
+      <c r="O92" s="26"/>
+      <c r="P92" s="27"/>
+      <c r="Q92" s="25"/>
+      <c r="R92" s="27"/>
       <c r="T92" s="11">
         <v>27.119754</v>
       </c>
@@ -4082,36 +4101,36 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="23" t="s">
+      <c r="A93" s="25" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
       </c>
-      <c r="I93" s="26">
+      <c r="I93" s="24">
         <v>0</v>
       </c>
       <c r="J93" s="18">
         <v>3600</v>
       </c>
-      <c r="K93" s="24"/>
-      <c r="L93" s="27"/>
-      <c r="M93" s="24">
+      <c r="K93" s="26"/>
+      <c r="L93" s="28"/>
+      <c r="M93" s="26">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="24">
+      <c r="N93" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="26">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="25" t="s">
+      <c r="P93" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T93" s="11">
@@ -4127,22 +4146,22 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="23"/>
+      <c r="A94" s="25"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="I94" s="26"/>
+      <c r="I94" s="24"/>
       <c r="J94" s="18">
         <v>3600</v>
       </c>
-      <c r="K94" s="24"/>
-      <c r="L94" s="27"/>
-      <c r="M94" s="24"/>
-      <c r="N94" s="25"/>
-      <c r="O94" s="24"/>
-      <c r="P94" s="25"/>
-      <c r="Q94" s="23"/>
-      <c r="R94" s="25"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="28"/>
+      <c r="M94" s="26"/>
+      <c r="N94" s="27"/>
+      <c r="O94" s="26"/>
+      <c r="P94" s="27"/>
+      <c r="Q94" s="25"/>
+      <c r="R94" s="27"/>
       <c r="T94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4156,22 +4175,22 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="23"/>
+      <c r="A95" s="25"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
-      <c r="I95" s="26"/>
+      <c r="I95" s="24"/>
       <c r="J95" s="18">
         <v>3600</v>
       </c>
-      <c r="K95" s="24"/>
-      <c r="L95" s="27"/>
-      <c r="M95" s="24"/>
-      <c r="N95" s="25"/>
-      <c r="O95" s="24"/>
-      <c r="P95" s="25"/>
-      <c r="Q95" s="23"/>
-      <c r="R95" s="25"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="28"/>
+      <c r="M95" s="26"/>
+      <c r="N95" s="27"/>
+      <c r="O95" s="26"/>
+      <c r="P95" s="27"/>
+      <c r="Q95" s="25"/>
+      <c r="R95" s="27"/>
       <c r="T95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4185,22 +4204,22 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="23"/>
+      <c r="A96" s="25"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
-      <c r="I96" s="26"/>
+      <c r="I96" s="24"/>
       <c r="J96" s="18">
         <v>3600</v>
       </c>
-      <c r="K96" s="24"/>
-      <c r="L96" s="27"/>
-      <c r="M96" s="24"/>
-      <c r="N96" s="25"/>
-      <c r="O96" s="24"/>
-      <c r="P96" s="25"/>
-      <c r="Q96" s="23"/>
-      <c r="R96" s="25"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="28"/>
+      <c r="M96" s="26"/>
+      <c r="N96" s="27"/>
+      <c r="O96" s="26"/>
+      <c r="P96" s="27"/>
+      <c r="Q96" s="25"/>
+      <c r="R96" s="27"/>
       <c r="T96" s="11">
         <v>31.354782</v>
       </c>
@@ -4214,36 +4233,36 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="23" t="s">
+      <c r="A97" s="25" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
       </c>
-      <c r="I97" s="26">
+      <c r="I97" s="24">
         <v>0</v>
       </c>
       <c r="J97" s="18">
         <v>3600</v>
       </c>
-      <c r="K97" s="24"/>
-      <c r="L97" s="27"/>
-      <c r="M97" s="24">
+      <c r="K97" s="26"/>
+      <c r="L97" s="28"/>
+      <c r="M97" s="26">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="24">
+      <c r="N97" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="26">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="25" t="s">
+      <c r="P97" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T97" s="11">
@@ -4259,22 +4278,22 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
+      <c r="A98" s="25"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
-      <c r="I98" s="26"/>
+      <c r="I98" s="24"/>
       <c r="J98" s="18">
         <v>3600</v>
       </c>
-      <c r="K98" s="24"/>
-      <c r="L98" s="27"/>
-      <c r="M98" s="24"/>
-      <c r="N98" s="25"/>
-      <c r="O98" s="24"/>
-      <c r="P98" s="25"/>
-      <c r="Q98" s="23"/>
-      <c r="R98" s="25"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="28"/>
+      <c r="M98" s="26"/>
+      <c r="N98" s="27"/>
+      <c r="O98" s="26"/>
+      <c r="P98" s="27"/>
+      <c r="Q98" s="25"/>
+      <c r="R98" s="27"/>
       <c r="T98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4288,22 +4307,22 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="23"/>
+      <c r="A99" s="25"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
-      <c r="I99" s="26"/>
+      <c r="I99" s="24"/>
       <c r="J99" s="18">
         <v>3600</v>
       </c>
-      <c r="K99" s="24"/>
-      <c r="L99" s="27"/>
-      <c r="M99" s="24"/>
-      <c r="N99" s="25"/>
-      <c r="O99" s="24"/>
-      <c r="P99" s="25"/>
-      <c r="Q99" s="23"/>
-      <c r="R99" s="25"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="28"/>
+      <c r="M99" s="26"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="26"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="25"/>
+      <c r="R99" s="27"/>
       <c r="T99" s="11">
         <v>14.859114</v>
       </c>
@@ -4317,22 +4336,22 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="23"/>
+      <c r="A100" s="25"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
-      <c r="I100" s="26"/>
+      <c r="I100" s="24"/>
       <c r="J100" s="18">
         <v>3600</v>
       </c>
-      <c r="K100" s="24"/>
-      <c r="L100" s="27"/>
-      <c r="M100" s="24"/>
-      <c r="N100" s="25"/>
-      <c r="O100" s="24"/>
-      <c r="P100" s="25"/>
-      <c r="Q100" s="23"/>
-      <c r="R100" s="25"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="28"/>
+      <c r="M100" s="26"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="26"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="25"/>
+      <c r="R100" s="27"/>
       <c r="T100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4346,36 +4365,36 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
+      <c r="A101" s="25" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
       </c>
-      <c r="I101" s="26">
+      <c r="I101" s="24">
         <v>0</v>
       </c>
       <c r="J101" s="18">
         <v>3600</v>
       </c>
-      <c r="K101" s="24"/>
-      <c r="L101" s="27"/>
-      <c r="M101" s="24">
+      <c r="K101" s="26"/>
+      <c r="L101" s="28"/>
+      <c r="M101" s="26">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="24">
+      <c r="N101" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="26">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="25" t="s">
+      <c r="P101" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T101" s="11">
@@ -4391,22 +4410,22 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="23"/>
+      <c r="A102" s="25"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
-      <c r="I102" s="26"/>
+      <c r="I102" s="24"/>
       <c r="J102" s="18">
         <v>3600</v>
       </c>
-      <c r="K102" s="24"/>
-      <c r="L102" s="27"/>
-      <c r="M102" s="24"/>
-      <c r="N102" s="25"/>
-      <c r="O102" s="24"/>
-      <c r="P102" s="25"/>
-      <c r="Q102" s="23"/>
-      <c r="R102" s="25"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="28"/>
+      <c r="M102" s="26"/>
+      <c r="N102" s="27"/>
+      <c r="O102" s="26"/>
+      <c r="P102" s="27"/>
+      <c r="Q102" s="25"/>
+      <c r="R102" s="27"/>
       <c r="T102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4420,22 +4439,22 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="23"/>
+      <c r="A103" s="25"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
-      <c r="I103" s="26"/>
+      <c r="I103" s="24"/>
       <c r="J103" s="18">
         <v>3600</v>
       </c>
-      <c r="K103" s="24"/>
-      <c r="L103" s="27"/>
-      <c r="M103" s="24"/>
-      <c r="N103" s="25"/>
-      <c r="O103" s="24"/>
-      <c r="P103" s="25"/>
-      <c r="Q103" s="23"/>
-      <c r="R103" s="25"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="28"/>
+      <c r="M103" s="26"/>
+      <c r="N103" s="27"/>
+      <c r="O103" s="26"/>
+      <c r="P103" s="27"/>
+      <c r="Q103" s="25"/>
+      <c r="R103" s="27"/>
       <c r="T103" s="11">
         <v>14.081699</v>
       </c>
@@ -4449,22 +4468,22 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="23"/>
+      <c r="A104" s="25"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
-      <c r="I104" s="26"/>
+      <c r="I104" s="24"/>
       <c r="J104" s="18">
         <v>3600</v>
       </c>
-      <c r="K104" s="24"/>
-      <c r="L104" s="27"/>
-      <c r="M104" s="24"/>
-      <c r="N104" s="25"/>
-      <c r="O104" s="24"/>
-      <c r="P104" s="25"/>
-      <c r="Q104" s="23"/>
-      <c r="R104" s="25"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="28"/>
+      <c r="M104" s="26"/>
+      <c r="N104" s="27"/>
+      <c r="O104" s="26"/>
+      <c r="P104" s="27"/>
+      <c r="Q104" s="25"/>
+      <c r="R104" s="27"/>
       <c r="T104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4478,36 +4497,36 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="23" t="s">
+      <c r="A105" s="25" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
         <v>500</v>
       </c>
-      <c r="I105" s="26">
+      <c r="I105" s="24">
         <v>0</v>
       </c>
       <c r="J105" s="18">
         <v>3600</v>
       </c>
-      <c r="K105" s="24"/>
-      <c r="L105" s="27"/>
-      <c r="M105" s="24">
+      <c r="K105" s="26"/>
+      <c r="L105" s="28"/>
+      <c r="M105" s="26">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="24">
+      <c r="N105" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="26">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="25" t="s">
+      <c r="P105" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T105" s="11">
@@ -4523,22 +4542,22 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="23"/>
+      <c r="A106" s="25"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
-      <c r="I106" s="26"/>
+      <c r="I106" s="24"/>
       <c r="J106" s="18">
         <v>3600</v>
       </c>
-      <c r="K106" s="24"/>
-      <c r="L106" s="27"/>
-      <c r="M106" s="24"/>
-      <c r="N106" s="25"/>
-      <c r="O106" s="24"/>
-      <c r="P106" s="25"/>
-      <c r="Q106" s="23"/>
-      <c r="R106" s="25"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="28"/>
+      <c r="M106" s="26"/>
+      <c r="N106" s="27"/>
+      <c r="O106" s="26"/>
+      <c r="P106" s="27"/>
+      <c r="Q106" s="25"/>
+      <c r="R106" s="27"/>
       <c r="T106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4552,22 +4571,22 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="23"/>
+      <c r="A107" s="25"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
-      <c r="I107" s="26"/>
+      <c r="I107" s="24"/>
       <c r="J107" s="18">
         <v>3600</v>
       </c>
-      <c r="K107" s="24"/>
-      <c r="L107" s="27"/>
-      <c r="M107" s="24"/>
-      <c r="N107" s="25"/>
-      <c r="O107" s="24"/>
-      <c r="P107" s="25"/>
-      <c r="Q107" s="23"/>
-      <c r="R107" s="25"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="28"/>
+      <c r="M107" s="26"/>
+      <c r="N107" s="27"/>
+      <c r="O107" s="26"/>
+      <c r="P107" s="27"/>
+      <c r="Q107" s="25"/>
+      <c r="R107" s="27"/>
       <c r="T107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4581,22 +4600,22 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="23"/>
+      <c r="A108" s="25"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
-      <c r="I108" s="26"/>
+      <c r="I108" s="24"/>
       <c r="J108" s="18">
         <v>3600</v>
       </c>
-      <c r="K108" s="24"/>
-      <c r="L108" s="27"/>
-      <c r="M108" s="24"/>
-      <c r="N108" s="25"/>
-      <c r="O108" s="24"/>
-      <c r="P108" s="25"/>
-      <c r="Q108" s="23"/>
-      <c r="R108" s="25"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="28"/>
+      <c r="M108" s="26"/>
+      <c r="N108" s="27"/>
+      <c r="O108" s="26"/>
+      <c r="P108" s="27"/>
+      <c r="Q108" s="25"/>
+      <c r="R108" s="27"/>
       <c r="T108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4610,36 +4629,36 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="23" t="s">
+      <c r="A109" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>500</v>
       </c>
-      <c r="I109" s="26">
+      <c r="I109" s="24">
         <v>0</v>
       </c>
       <c r="J109" s="18">
         <v>3600</v>
       </c>
-      <c r="K109" s="24"/>
-      <c r="L109" s="27"/>
-      <c r="M109" s="24">
+      <c r="K109" s="26"/>
+      <c r="L109" s="28"/>
+      <c r="M109" s="26">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="24">
+      <c r="N109" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="26">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="25" t="s">
+      <c r="P109" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T109" s="11">
@@ -4655,22 +4674,22 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="23"/>
+      <c r="A110" s="25"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
-      <c r="I110" s="26"/>
+      <c r="I110" s="24"/>
       <c r="J110" s="18">
         <v>3600</v>
       </c>
-      <c r="K110" s="24"/>
-      <c r="L110" s="27"/>
-      <c r="M110" s="24"/>
-      <c r="N110" s="25"/>
-      <c r="O110" s="24"/>
-      <c r="P110" s="25"/>
-      <c r="Q110" s="23"/>
-      <c r="R110" s="25"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="28"/>
+      <c r="M110" s="26"/>
+      <c r="N110" s="27"/>
+      <c r="O110" s="26"/>
+      <c r="P110" s="27"/>
+      <c r="Q110" s="25"/>
+      <c r="R110" s="27"/>
       <c r="T110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -4684,22 +4703,22 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="23"/>
+      <c r="A111" s="25"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
-      <c r="I111" s="26"/>
+      <c r="I111" s="24"/>
       <c r="J111" s="18">
         <v>3600</v>
       </c>
-      <c r="K111" s="24"/>
-      <c r="L111" s="27"/>
-      <c r="M111" s="24"/>
-      <c r="N111" s="25"/>
-      <c r="O111" s="24"/>
-      <c r="P111" s="25"/>
-      <c r="Q111" s="23"/>
-      <c r="R111" s="25"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="28"/>
+      <c r="M111" s="26"/>
+      <c r="N111" s="27"/>
+      <c r="O111" s="26"/>
+      <c r="P111" s="27"/>
+      <c r="Q111" s="25"/>
+      <c r="R111" s="27"/>
       <c r="T111" s="11">
         <v>19.316754</v>
       </c>
@@ -4713,22 +4732,22 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="23"/>
+      <c r="A112" s="25"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
-      <c r="I112" s="26"/>
+      <c r="I112" s="24"/>
       <c r="J112" s="18">
         <v>3600</v>
       </c>
-      <c r="K112" s="24"/>
-      <c r="L112" s="27"/>
-      <c r="M112" s="24"/>
-      <c r="N112" s="25"/>
-      <c r="O112" s="24"/>
-      <c r="P112" s="25"/>
-      <c r="Q112" s="23"/>
-      <c r="R112" s="25"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="28"/>
+      <c r="M112" s="26"/>
+      <c r="N112" s="27"/>
+      <c r="O112" s="26"/>
+      <c r="P112" s="27"/>
+      <c r="Q112" s="25"/>
+      <c r="R112" s="27"/>
       <c r="T112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -4742,36 +4761,36 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="23" t="s">
+      <c r="A113" s="25" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
         <v>500</v>
       </c>
-      <c r="I113" s="26">
+      <c r="I113" s="24">
         <v>0</v>
       </c>
       <c r="J113" s="18">
         <v>3600</v>
       </c>
-      <c r="K113" s="24"/>
-      <c r="L113" s="27"/>
-      <c r="M113" s="24">
+      <c r="K113" s="26"/>
+      <c r="L113" s="28"/>
+      <c r="M113" s="26">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="24">
+      <c r="N113" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="26">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="25" t="s">
+      <c r="P113" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T113" s="11">
@@ -4787,22 +4806,22 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="23"/>
+      <c r="A114" s="25"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
-      <c r="I114" s="26"/>
+      <c r="I114" s="24"/>
       <c r="J114" s="18">
         <v>3600</v>
       </c>
-      <c r="K114" s="24"/>
-      <c r="L114" s="27"/>
-      <c r="M114" s="24"/>
-      <c r="N114" s="25"/>
-      <c r="O114" s="24"/>
-      <c r="P114" s="25"/>
-      <c r="Q114" s="23"/>
-      <c r="R114" s="25"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="28"/>
+      <c r="M114" s="26"/>
+      <c r="N114" s="27"/>
+      <c r="O114" s="26"/>
+      <c r="P114" s="27"/>
+      <c r="Q114" s="25"/>
+      <c r="R114" s="27"/>
       <c r="T114" s="11">
         <v>12.293174</v>
       </c>
@@ -4816,22 +4835,22 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="23"/>
+      <c r="A115" s="25"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
-      <c r="I115" s="26"/>
+      <c r="I115" s="24"/>
       <c r="J115" s="18">
         <v>3600</v>
       </c>
-      <c r="K115" s="24"/>
-      <c r="L115" s="27"/>
-      <c r="M115" s="24"/>
-      <c r="N115" s="25"/>
-      <c r="O115" s="24"/>
-      <c r="P115" s="25"/>
-      <c r="Q115" s="23"/>
-      <c r="R115" s="25"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="28"/>
+      <c r="M115" s="26"/>
+      <c r="N115" s="27"/>
+      <c r="O115" s="26"/>
+      <c r="P115" s="27"/>
+      <c r="Q115" s="25"/>
+      <c r="R115" s="27"/>
       <c r="T115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -4845,22 +4864,22 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="23"/>
+      <c r="A116" s="25"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
-      <c r="I116" s="26"/>
+      <c r="I116" s="24"/>
       <c r="J116" s="18">
         <v>3600</v>
       </c>
-      <c r="K116" s="24"/>
-      <c r="L116" s="27"/>
-      <c r="M116" s="24"/>
-      <c r="N116" s="25"/>
-      <c r="O116" s="24"/>
-      <c r="P116" s="25"/>
-      <c r="Q116" s="23"/>
-      <c r="R116" s="25"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="28"/>
+      <c r="M116" s="26"/>
+      <c r="N116" s="27"/>
+      <c r="O116" s="26"/>
+      <c r="P116" s="27"/>
+      <c r="Q116" s="25"/>
+      <c r="R116" s="27"/>
       <c r="T116" s="11">
         <v>61.224843</v>
       </c>
@@ -4874,36 +4893,36 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="23" t="s">
+      <c r="A117" s="25" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
         <v>500</v>
       </c>
-      <c r="I117" s="26">
+      <c r="I117" s="24">
         <v>0</v>
       </c>
       <c r="J117" s="18">
         <v>3600</v>
       </c>
-      <c r="K117" s="24"/>
-      <c r="L117" s="27"/>
-      <c r="M117" s="24">
+      <c r="K117" s="26"/>
+      <c r="L117" s="28"/>
+      <c r="M117" s="26">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="24">
+      <c r="N117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="26">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="25" t="s">
+      <c r="P117" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="27" t="s">
         <v>10</v>
       </c>
       <c r="T117" s="11">
@@ -4919,22 +4938,22 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="23"/>
+      <c r="A118" s="25"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
-      <c r="I118" s="26"/>
+      <c r="I118" s="24"/>
       <c r="J118" s="18">
         <v>3600</v>
       </c>
-      <c r="K118" s="24"/>
-      <c r="L118" s="27"/>
-      <c r="M118" s="24"/>
-      <c r="N118" s="25"/>
-      <c r="O118" s="24"/>
-      <c r="P118" s="25"/>
-      <c r="Q118" s="23"/>
-      <c r="R118" s="25"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="28"/>
+      <c r="M118" s="26"/>
+      <c r="N118" s="27"/>
+      <c r="O118" s="26"/>
+      <c r="P118" s="27"/>
+      <c r="Q118" s="25"/>
+      <c r="R118" s="27"/>
       <c r="T118" s="11">
         <v>10.24381</v>
       </c>
@@ -4948,22 +4967,22 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="23"/>
+      <c r="A119" s="25"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
-      <c r="I119" s="26"/>
+      <c r="I119" s="24"/>
       <c r="J119" s="18">
         <v>3600</v>
       </c>
-      <c r="K119" s="24"/>
-      <c r="L119" s="27"/>
-      <c r="M119" s="24"/>
-      <c r="N119" s="25"/>
-      <c r="O119" s="24"/>
-      <c r="P119" s="25"/>
-      <c r="Q119" s="23"/>
-      <c r="R119" s="25"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="28"/>
+      <c r="M119" s="26"/>
+      <c r="N119" s="27"/>
+      <c r="O119" s="26"/>
+      <c r="P119" s="27"/>
+      <c r="Q119" s="25"/>
+      <c r="R119" s="27"/>
       <c r="T119" s="11">
         <v>20.481614</v>
       </c>
@@ -4977,22 +4996,22 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
+      <c r="A120" s="25"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
-      <c r="I120" s="26"/>
+      <c r="I120" s="24"/>
       <c r="J120" s="18">
         <v>3600</v>
       </c>
-      <c r="K120" s="24"/>
-      <c r="L120" s="27"/>
-      <c r="M120" s="24"/>
-      <c r="N120" s="25"/>
-      <c r="O120" s="24"/>
-      <c r="P120" s="25"/>
-      <c r="Q120" s="23"/>
-      <c r="R120" s="25"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="28"/>
+      <c r="M120" s="26"/>
+      <c r="N120" s="27"/>
+      <c r="O120" s="26"/>
+      <c r="P120" s="27"/>
+      <c r="Q120" s="25"/>
+      <c r="R120" s="27"/>
       <c r="T120" s="11">
         <v>51.171509</v>
       </c>
@@ -5007,15 +5026,264 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="A24:A27"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q3:Q6"/>
+    <mergeCell ref="R3:R6"/>
+    <mergeCell ref="K7:K10"/>
+    <mergeCell ref="L7:L10"/>
+    <mergeCell ref="M7:M10"/>
+    <mergeCell ref="N7:N10"/>
+    <mergeCell ref="O7:O10"/>
+    <mergeCell ref="P7:P10"/>
+    <mergeCell ref="K3:K6"/>
+    <mergeCell ref="L3:L6"/>
+    <mergeCell ref="M3:M6"/>
+    <mergeCell ref="N3:N6"/>
+    <mergeCell ref="O3:O6"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
     <mergeCell ref="BM1:BN1"/>
     <mergeCell ref="BO1:BP1"/>
     <mergeCell ref="BQ1:BR1"/>
@@ -5040,264 +5308,15 @@
     <mergeCell ref="O105:O108"/>
     <mergeCell ref="P105:P108"/>
     <mergeCell ref="M93:M96"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="Q3:Q6"/>
-    <mergeCell ref="R3:R6"/>
-    <mergeCell ref="K7:K10"/>
-    <mergeCell ref="L7:L10"/>
-    <mergeCell ref="M7:M10"/>
-    <mergeCell ref="N7:N10"/>
-    <mergeCell ref="O7:O10"/>
-    <mergeCell ref="P7:P10"/>
-    <mergeCell ref="K3:K6"/>
-    <mergeCell ref="L3:L6"/>
-    <mergeCell ref="M3:M6"/>
-    <mergeCell ref="N3:N6"/>
-    <mergeCell ref="O3:O6"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="I89:I92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95A434A-4ED6-4EDA-B72A-CA099E34A665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,7 +168,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
@@ -283,9 +282,6 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -295,13 +291,16 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -677,14 +676,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CF120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G47" sqref="G47"/>
+      <selection pane="bottomRight" activeCell="I19" sqref="I19:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -723,38 +722,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="24"/>
+      <c r="G1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25" t="s">
+      <c r="H1" s="24"/>
+      <c r="I1" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25" t="s">
+      <c r="J1" s="24"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25" t="s">
+      <c r="N1" s="24"/>
+      <c r="O1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="25"/>
+      <c r="R1" s="24"/>
       <c r="U1" s="9" t="s">
         <v>42</v>
       </c>
@@ -762,18 +761,18 @@
         <v>43</v>
       </c>
       <c r="W1" s="1"/>
-      <c r="BM1" s="25" t="s">
+      <c r="BM1" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="BN1" s="25"/>
-      <c r="BO1" s="25" t="s">
+      <c r="BN1" s="24"/>
+      <c r="BO1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="BP1" s="25"/>
-      <c r="BQ1" s="25" t="s">
+      <c r="BP1" s="24"/>
+      <c r="BQ1" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="BR1" s="25"/>
+      <c r="BR1" s="24"/>
       <c r="CE1" s="13" t="s">
         <v>45</v>
       </c>
@@ -869,7 +868,7 @@
       </c>
     </row>
     <row r="3" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="2">
@@ -884,32 +883,34 @@
       <c r="G3" s="21">
         <v>5.8592720000000001E-2</v>
       </c>
-      <c r="I3" s="24"/>
+      <c r="I3" s="27">
+        <v>0</v>
+      </c>
       <c r="J3" s="8">
         <v>3600</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>0.22309999999999999</v>
       </c>
-      <c r="L3" s="27">
+      <c r="L3" s="26">
         <v>0.17599999999999999</v>
       </c>
-      <c r="M3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P3" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R3" s="27" t="s">
+      <c r="M3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P3" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T3" s="11">
@@ -948,7 +949,7 @@
       </c>
     </row>
     <row r="4" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="2">
         <v>1000</v>
       </c>
@@ -961,18 +962,18 @@
       <c r="G4" s="21">
         <v>5.345987E-2</v>
       </c>
-      <c r="I4" s="24"/>
+      <c r="I4" s="27"/>
       <c r="J4" s="18">
         <v>3600</v>
       </c>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="26"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="26"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="26"/>
-      <c r="R4" s="27"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="26"/>
       <c r="T4" s="11">
         <v>1.6109789999999999</v>
       </c>
@@ -1009,7 +1010,7 @@
       </c>
     </row>
     <row r="5" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="24"/>
       <c r="B5" s="2">
         <v>2000</v>
       </c>
@@ -1022,18 +1023,18 @@
       <c r="G5" s="21">
         <v>5.1010319999999998E-2</v>
       </c>
-      <c r="I5" s="24"/>
+      <c r="I5" s="27"/>
       <c r="J5" s="18">
         <v>3600</v>
       </c>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="26"/>
-      <c r="N5" s="27"/>
-      <c r="O5" s="26"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="26"/>
-      <c r="R5" s="27"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="26"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="26"/>
       <c r="T5" s="11">
         <v>3.1995640000000001</v>
       </c>
@@ -1070,7 +1071,7 @@
       </c>
     </row>
     <row r="6" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="2">
         <v>5000</v>
       </c>
@@ -1083,18 +1084,18 @@
       <c r="G6" s="21">
         <v>4.5764609999999997E-2</v>
       </c>
-      <c r="I6" s="24"/>
+      <c r="I6" s="27"/>
       <c r="J6" s="18">
         <v>3600</v>
       </c>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="26"/>
-      <c r="N6" s="27"/>
-      <c r="O6" s="26"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="26"/>
-      <c r="R6" s="27"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="26"/>
       <c r="S6" s="4"/>
       <c r="T6" s="11">
         <v>7.9486220000000003</v>
@@ -1126,34 +1127,36 @@
       </c>
     </row>
     <row r="7" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="24" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="2">
         <v>500</v>
       </c>
-      <c r="I7" s="24"/>
+      <c r="I7" s="27">
+        <v>0</v>
+      </c>
       <c r="J7" s="18">
         <v>3600</v>
       </c>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P7" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q7" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R7" s="27" t="s">
+      <c r="K7" s="25"/>
+      <c r="L7" s="26"/>
+      <c r="M7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P7" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R7" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T7" s="11"/>
@@ -1162,66 +1165,66 @@
       <c r="W7" s="11"/>
     </row>
     <row r="8" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="2">
         <v>1000</v>
       </c>
-      <c r="I8" s="24"/>
+      <c r="I8" s="27"/>
       <c r="J8" s="18">
         <v>3600</v>
       </c>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="27"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="26"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="26"/>
       <c r="T8" s="11"/>
       <c r="U8" s="10"/>
       <c r="V8" s="10"/>
       <c r="W8" s="11"/>
     </row>
     <row r="9" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="2">
         <v>2000</v>
       </c>
-      <c r="I9" s="24"/>
+      <c r="I9" s="27"/>
       <c r="J9" s="18">
         <v>3600</v>
       </c>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="26"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="26"/>
-      <c r="R9" s="27"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="26"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="26"/>
       <c r="T9" s="11"/>
       <c r="U9" s="10"/>
       <c r="V9" s="10"/>
       <c r="W9" s="11"/>
     </row>
     <row r="10" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="2">
         <v>5000</v>
       </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="27"/>
       <c r="J10" s="18">
         <v>3600</v>
       </c>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="26"/>
-      <c r="N10" s="27"/>
-      <c r="O10" s="26"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="27"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="26"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="26"/>
       <c r="S10" s="4"/>
       <c r="T10" s="11"/>
       <c r="U10" s="10"/>
@@ -1229,38 +1232,40 @@
       <c r="W10" s="11"/>
     </row>
     <row r="11" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2">
         <v>500</v>
       </c>
-      <c r="I11" s="24"/>
+      <c r="I11" s="27">
+        <v>0</v>
+      </c>
       <c r="J11" s="18">
         <v>3600</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L11" s="27">
+      <c r="L11" s="26">
         <v>0.435</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P11" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="27" t="s">
+      <c r="M11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P11" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q11" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T11" s="11"/>
@@ -1275,22 +1280,22 @@
       </c>
     </row>
     <row r="12" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="2">
         <v>1000</v>
       </c>
-      <c r="I12" s="24"/>
+      <c r="I12" s="27"/>
       <c r="J12" s="18">
         <v>3600</v>
       </c>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="27"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="26"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="26"/>
       <c r="T12" s="11"/>
       <c r="U12" s="10"/>
       <c r="V12" s="10"/>
@@ -1303,22 +1308,22 @@
       </c>
     </row>
     <row r="13" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="2">
         <v>2000</v>
       </c>
-      <c r="I13" s="24"/>
+      <c r="I13" s="27"/>
       <c r="J13" s="18">
         <v>3600</v>
       </c>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
-      <c r="O13" s="26"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="27"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="26"/>
       <c r="T13" s="11"/>
       <c r="U13" s="10"/>
       <c r="V13" s="10"/>
@@ -1331,22 +1336,22 @@
       </c>
     </row>
     <row r="14" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="2">
         <v>5000</v>
       </c>
-      <c r="I14" s="24"/>
+      <c r="I14" s="27"/>
       <c r="J14" s="18">
         <v>3600</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="27"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="26"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
       <c r="S14" s="4"/>
       <c r="T14" s="11"/>
       <c r="U14" s="10"/>
@@ -1354,7 +1359,7 @@
       <c r="W14" s="11"/>
     </row>
     <row r="15" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B15" s="5">
@@ -1363,28 +1368,30 @@
       <c r="C15" s="6"/>
       <c r="E15" s="6"/>
       <c r="G15" s="6"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="27">
+        <v>0</v>
+      </c>
       <c r="J15" s="18">
         <v>3600</v>
       </c>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P15" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q15" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R15" s="27" t="s">
+      <c r="K15" s="25"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P15" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R15" s="26" t="s">
         <v>10</v>
       </c>
       <c r="S15" s="6"/>
@@ -1394,25 +1401,25 @@
       <c r="W15" s="11"/>
     </row>
     <row r="16" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="5">
         <v>1000</v>
       </c>
       <c r="C16" s="6"/>
       <c r="E16" s="6"/>
       <c r="G16" s="6"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="27"/>
       <c r="J16" s="18">
         <v>3600</v>
       </c>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="26"/>
-      <c r="R16" s="27"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="26"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="26"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="26"/>
       <c r="S16" s="6"/>
       <c r="T16" s="11"/>
       <c r="U16" s="10"/>
@@ -1420,25 +1427,25 @@
       <c r="W16" s="11"/>
     </row>
     <row r="17" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="5">
         <v>2000</v>
       </c>
       <c r="C17" s="6"/>
       <c r="E17" s="6"/>
       <c r="G17" s="6"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="27"/>
       <c r="J17" s="18">
         <v>3600</v>
       </c>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="26"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="26"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="26"/>
-      <c r="R17" s="27"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="26"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="26"/>
       <c r="S17" s="6"/>
       <c r="T17" s="11"/>
       <c r="U17" s="10"/>
@@ -1448,7 +1455,7 @@
       <c r="CF17" s="14"/>
     </row>
     <row r="18" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="5">
         <v>5000</v>
       </c>
@@ -1458,18 +1465,18 @@
       <c r="F18" s="8"/>
       <c r="G18" s="6"/>
       <c r="H18" s="8"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="27"/>
       <c r="J18" s="18">
         <v>3600</v>
       </c>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="26"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="26"/>
-      <c r="R18" s="27"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="26"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="26"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="26"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="26"/>
       <c r="S18" s="4"/>
       <c r="T18" s="11"/>
       <c r="U18" s="10"/>
@@ -1479,7 +1486,7 @@
       <c r="CF18" s="16"/>
     </row>
     <row r="19" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="24" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="5">
@@ -1491,28 +1498,30 @@
       <c r="F19" s="8"/>
       <c r="G19" s="6"/>
       <c r="H19" s="8"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="27">
+        <v>0</v>
+      </c>
       <c r="J19" s="18">
         <v>3600</v>
       </c>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="N19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="P19" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q19" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="27" t="s">
+      <c r="K19" s="25"/>
+      <c r="L19" s="26"/>
+      <c r="M19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q19" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="R19" s="26" t="s">
         <v>10</v>
       </c>
       <c r="S19" s="4"/>
@@ -1524,7 +1533,7 @@
       <c r="CF19" s="16"/>
     </row>
     <row r="20" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="5">
         <v>1000</v>
       </c>
@@ -1534,18 +1543,18 @@
       <c r="F20" s="8"/>
       <c r="G20" s="6"/>
       <c r="H20" s="8"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="27"/>
       <c r="J20" s="18">
         <v>3600</v>
       </c>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="26"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="26"/>
-      <c r="R20" s="27"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="26"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="26"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="26"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="26"/>
       <c r="S20" s="4"/>
       <c r="T20" s="11"/>
       <c r="U20" s="10"/>
@@ -1555,7 +1564,7 @@
       <c r="CF20" s="16"/>
     </row>
     <row r="21" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="5">
         <v>2000</v>
       </c>
@@ -1565,18 +1574,18 @@
       <c r="F21" s="8"/>
       <c r="G21" s="6"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="27"/>
       <c r="J21" s="18">
         <v>3600</v>
       </c>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="26"/>
-      <c r="P21" s="27"/>
-      <c r="Q21" s="26"/>
-      <c r="R21" s="27"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="26"/>
+      <c r="M21" s="25"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="25"/>
+      <c r="P21" s="26"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="26"/>
       <c r="S21" s="4"/>
       <c r="T21" s="11"/>
       <c r="U21" s="10"/>
@@ -1586,7 +1595,7 @@
       <c r="CF21" s="16"/>
     </row>
     <row r="22" spans="1:84" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="5">
         <v>5000</v>
       </c>
@@ -1596,18 +1605,18 @@
       <c r="F22" s="8"/>
       <c r="G22" s="6"/>
       <c r="H22" s="8"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="27"/>
       <c r="J22" s="18">
         <v>3600</v>
       </c>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="26"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
-      <c r="P22" s="27"/>
-      <c r="Q22" s="26"/>
-      <c r="R22" s="27"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="26"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="26"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="26"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="26"/>
       <c r="S22" s="4"/>
       <c r="T22" s="11"/>
       <c r="U22" s="10"/>
@@ -1624,7 +1633,7 @@
       <c r="W23" s="11"/>
     </row>
     <row r="24" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="24" t="s">
         <v>13</v>
       </c>
       <c r="B24" s="2">
@@ -1637,34 +1646,34 @@
       <c r="G24" s="22">
         <v>0.12707135</v>
       </c>
-      <c r="I24" s="24">
+      <c r="I24" s="27">
         <v>8.0775444264943394E-5</v>
       </c>
       <c r="J24" s="18">
         <v>3600</v>
       </c>
-      <c r="K24" s="26">
+      <c r="K24" s="25">
         <v>0.26700000000000002</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="26">
         <v>0.44700000000000001</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="25">
         <v>0.17100000000000001</v>
       </c>
-      <c r="N24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O24" s="26">
+      <c r="N24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O24" s="25">
         <v>0.153</v>
       </c>
-      <c r="P24" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q24" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R24" s="27" t="s">
+      <c r="P24" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R24" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T24" s="11">
@@ -1685,7 +1694,7 @@
       </c>
     </row>
     <row r="25" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="2">
         <v>1000</v>
       </c>
@@ -1696,18 +1705,18 @@
       <c r="G25" s="22">
         <v>0.11860896</v>
       </c>
-      <c r="I25" s="24"/>
+      <c r="I25" s="27"/>
       <c r="J25" s="18">
         <v>3600</v>
       </c>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="26"/>
-      <c r="N25" s="27"/>
-      <c r="O25" s="26"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="25"/>
-      <c r="R25" s="27"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="26"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="26"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="26"/>
       <c r="T25" s="11">
         <v>6.6267579999999997</v>
       </c>
@@ -1726,7 +1735,7 @@
       </c>
     </row>
     <row r="26" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="2">
         <v>2000</v>
       </c>
@@ -1737,18 +1746,18 @@
       <c r="G26" s="22">
         <v>0.11498809</v>
       </c>
-      <c r="I26" s="24"/>
+      <c r="I26" s="27"/>
       <c r="J26" s="18">
         <v>3600</v>
       </c>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="26"/>
-      <c r="N26" s="27"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="25"/>
-      <c r="R26" s="27"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="26"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="26"/>
+      <c r="O26" s="25"/>
+      <c r="P26" s="26"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="26"/>
       <c r="T26" s="11">
         <v>13.110008000000001</v>
       </c>
@@ -1767,7 +1776,7 @@
       </c>
     </row>
     <row r="27" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="2">
         <v>5000</v>
       </c>
@@ -1778,18 +1787,18 @@
       <c r="G27" s="22">
         <v>0.10464065</v>
       </c>
-      <c r="I27" s="24"/>
+      <c r="I27" s="27"/>
       <c r="J27" s="18">
         <v>3600</v>
       </c>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="26"/>
-      <c r="N27" s="27"/>
-      <c r="O27" s="26"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="25"/>
-      <c r="R27" s="27"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="26"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="26"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="26"/>
       <c r="T27" s="11">
         <v>32.676729999999999</v>
       </c>
@@ -1802,7 +1811,7 @@
       <c r="W27" s="12"/>
     </row>
     <row r="28" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>14</v>
       </c>
       <c r="B28" s="2">
@@ -1815,34 +1824,34 @@
       <c r="G28" s="22">
         <v>0.16553485000000001</v>
       </c>
-      <c r="I28" s="24">
+      <c r="I28" s="27">
         <v>2.1135191933276802E-3</v>
       </c>
       <c r="J28" s="18">
         <v>3600</v>
       </c>
-      <c r="K28" s="26">
+      <c r="K28" s="25">
         <v>0.2601</v>
       </c>
-      <c r="L28" s="27">
+      <c r="L28" s="26">
         <v>0.624</v>
       </c>
-      <c r="M28" s="26">
+      <c r="M28" s="25">
         <v>0.20200000000000001</v>
       </c>
-      <c r="N28" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O28" s="26">
+      <c r="N28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O28" s="25">
         <v>0.19400000000000001</v>
       </c>
-      <c r="P28" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q28" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R28" s="27" t="s">
+      <c r="P28" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q28" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R28" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T28" s="11">
@@ -1863,7 +1872,7 @@
       </c>
     </row>
     <row r="29" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="2">
         <v>1000</v>
       </c>
@@ -1874,18 +1883,18 @@
       <c r="G29" s="22">
         <v>0.15381023999999999</v>
       </c>
-      <c r="I29" s="24"/>
+      <c r="I29" s="27"/>
       <c r="J29" s="18">
         <v>3600</v>
       </c>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="26"/>
-      <c r="N29" s="27"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="25"/>
-      <c r="R29" s="27"/>
+      <c r="K29" s="25"/>
+      <c r="L29" s="26"/>
+      <c r="M29" s="25"/>
+      <c r="N29" s="26"/>
+      <c r="O29" s="25"/>
+      <c r="P29" s="26"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="26"/>
       <c r="T29" s="11">
         <v>7.9348150000000004</v>
       </c>
@@ -1904,7 +1913,7 @@
       </c>
     </row>
     <row r="30" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="2">
         <v>2000</v>
       </c>
@@ -1915,18 +1924,18 @@
       <c r="G30" s="22">
         <v>0.14907977</v>
       </c>
-      <c r="I30" s="24"/>
+      <c r="I30" s="27"/>
       <c r="J30" s="18">
         <v>3600</v>
       </c>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="26"/>
-      <c r="N30" s="27"/>
-      <c r="O30" s="26"/>
-      <c r="P30" s="27"/>
-      <c r="Q30" s="25"/>
-      <c r="R30" s="27"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="25"/>
+      <c r="N30" s="26"/>
+      <c r="O30" s="25"/>
+      <c r="P30" s="26"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="26"/>
       <c r="T30" s="11">
         <v>15.800986</v>
       </c>
@@ -1945,7 +1954,7 @@
       </c>
     </row>
     <row r="31" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="2">
         <v>5000</v>
       </c>
@@ -1956,18 +1965,18 @@
       <c r="G31" s="22">
         <v>0.14077903</v>
       </c>
-      <c r="I31" s="24"/>
+      <c r="I31" s="27"/>
       <c r="J31" s="18">
         <v>3600</v>
       </c>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-      <c r="M31" s="26"/>
-      <c r="N31" s="27"/>
-      <c r="O31" s="26"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="25"/>
-      <c r="R31" s="27"/>
+      <c r="K31" s="25"/>
+      <c r="L31" s="26"/>
+      <c r="M31" s="25"/>
+      <c r="N31" s="26"/>
+      <c r="O31" s="25"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="24"/>
+      <c r="R31" s="26"/>
       <c r="T31" s="11">
         <v>39.365931000000003</v>
       </c>
@@ -1980,7 +1989,7 @@
       <c r="W31" s="12"/>
     </row>
     <row r="32" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A32" s="25" t="s">
+      <c r="A32" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B32" s="2">
@@ -1993,34 +2002,34 @@
       <c r="G32" s="22">
         <v>0.14890099000000001</v>
       </c>
-      <c r="I32" s="24">
+      <c r="I32" s="27">
         <v>7.0089728609427004E-3</v>
       </c>
       <c r="J32" s="18">
         <v>3600</v>
       </c>
-      <c r="K32" s="26">
+      <c r="K32" s="25">
         <v>0.30220000000000002</v>
       </c>
-      <c r="L32" s="27">
+      <c r="L32" s="26">
         <v>0.93700000000000006</v>
       </c>
-      <c r="M32" s="26">
+      <c r="M32" s="25">
         <v>0.22800000000000001</v>
       </c>
-      <c r="N32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="26">
+      <c r="N32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O32" s="25">
         <v>0.17199999999999999</v>
       </c>
-      <c r="P32" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q32" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R32" s="27" t="s">
+      <c r="P32" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q32" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R32" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T32" s="11">
@@ -2041,7 +2050,7 @@
       </c>
     </row>
     <row r="33" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="2">
         <v>1000</v>
       </c>
@@ -2052,18 +2061,18 @@
       <c r="G33" s="22">
         <v>0.14093238999999999</v>
       </c>
-      <c r="I33" s="24"/>
+      <c r="I33" s="27"/>
       <c r="J33" s="18">
         <v>3600</v>
       </c>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
-      <c r="M33" s="26"/>
-      <c r="N33" s="27"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="27"/>
-      <c r="Q33" s="25"/>
-      <c r="R33" s="27"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="26"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="26"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="26"/>
       <c r="T33" s="11">
         <v>9.7972990000000006</v>
       </c>
@@ -2082,7 +2091,7 @@
       </c>
     </row>
     <row r="34" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="2">
         <v>2000</v>
       </c>
@@ -2093,18 +2102,18 @@
       <c r="G34" s="22">
         <v>0.13792193</v>
       </c>
-      <c r="I34" s="24"/>
+      <c r="I34" s="27"/>
       <c r="J34" s="18">
         <v>3600</v>
       </c>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
-      <c r="M34" s="26"/>
-      <c r="N34" s="27"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="27"/>
-      <c r="Q34" s="25"/>
-      <c r="R34" s="27"/>
+      <c r="K34" s="25"/>
+      <c r="L34" s="26"/>
+      <c r="M34" s="25"/>
+      <c r="N34" s="26"/>
+      <c r="O34" s="25"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="26"/>
       <c r="T34" s="11">
         <v>19.567959999999999</v>
       </c>
@@ -2123,7 +2132,7 @@
       </c>
     </row>
     <row r="35" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="2">
         <v>5000</v>
       </c>
@@ -2134,18 +2143,18 @@
       <c r="G35" s="22">
         <v>0.12556243</v>
       </c>
-      <c r="I35" s="24"/>
+      <c r="I35" s="27"/>
       <c r="J35" s="18">
         <v>3600</v>
       </c>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
-      <c r="M35" s="26"/>
-      <c r="N35" s="27"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="27"/>
-      <c r="Q35" s="25"/>
-      <c r="R35" s="27"/>
+      <c r="K35" s="25"/>
+      <c r="L35" s="26"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="25"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="24"/>
+      <c r="R35" s="26"/>
       <c r="T35" s="11">
         <v>48.782482999999999</v>
       </c>
@@ -2158,7 +2167,7 @@
       <c r="W35" s="12"/>
     </row>
     <row r="36" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>16</v>
       </c>
       <c r="B36" s="2">
@@ -2171,34 +2180,34 @@
       <c r="G36" s="22">
         <v>0.18608110999999999</v>
       </c>
-      <c r="I36" s="24">
+      <c r="I36" s="27">
         <v>2.0514895543250498E-2</v>
       </c>
       <c r="J36" s="18">
         <v>3600</v>
       </c>
-      <c r="K36" s="26">
+      <c r="K36" s="25">
         <v>0.3165</v>
       </c>
-      <c r="L36" s="27">
+      <c r="L36" s="26">
         <v>1.1140000000000001</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="25">
         <v>0.189</v>
       </c>
-      <c r="N36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O36" s="26">
+      <c r="N36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O36" s="25">
         <v>0.18</v>
       </c>
-      <c r="P36" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q36" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R36" s="27" t="s">
+      <c r="P36" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q36" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R36" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T36" s="11">
@@ -2219,7 +2228,7 @@
       </c>
     </row>
     <row r="37" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="2">
         <v>1000</v>
       </c>
@@ -2230,18 +2239,18 @@
       <c r="G37" s="22">
         <v>0.18200377000000001</v>
       </c>
-      <c r="I37" s="24"/>
+      <c r="I37" s="27"/>
       <c r="J37" s="18">
         <v>3600</v>
       </c>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="26"/>
-      <c r="N37" s="27"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="27"/>
-      <c r="Q37" s="25"/>
-      <c r="R37" s="27"/>
+      <c r="K37" s="25"/>
+      <c r="L37" s="26"/>
+      <c r="M37" s="25"/>
+      <c r="N37" s="26"/>
+      <c r="O37" s="25"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="26"/>
       <c r="T37" s="11">
         <v>10.807356</v>
       </c>
@@ -2260,7 +2269,7 @@
       </c>
     </row>
     <row r="38" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="2">
         <v>2000</v>
       </c>
@@ -2271,18 +2280,18 @@
       <c r="G38" s="22">
         <v>0.17299987999999999</v>
       </c>
-      <c r="I38" s="24"/>
+      <c r="I38" s="27"/>
       <c r="J38" s="18">
         <v>3600</v>
       </c>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
-      <c r="M38" s="26"/>
-      <c r="N38" s="27"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="27"/>
-      <c r="Q38" s="25"/>
-      <c r="R38" s="27"/>
+      <c r="K38" s="25"/>
+      <c r="L38" s="26"/>
+      <c r="M38" s="25"/>
+      <c r="N38" s="26"/>
+      <c r="O38" s="25"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="26"/>
       <c r="T38" s="11">
         <v>21.628416999999999</v>
       </c>
@@ -2301,7 +2310,7 @@
       </c>
     </row>
     <row r="39" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="2">
         <v>5000</v>
       </c>
@@ -2312,18 +2321,18 @@
       <c r="G39" s="22">
         <v>0.16159451999999999</v>
       </c>
-      <c r="I39" s="24"/>
+      <c r="I39" s="27"/>
       <c r="J39" s="18">
         <v>3600</v>
       </c>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
-      <c r="M39" s="26"/>
-      <c r="N39" s="27"/>
-      <c r="O39" s="26"/>
-      <c r="P39" s="27"/>
-      <c r="Q39" s="25"/>
-      <c r="R39" s="27"/>
+      <c r="K39" s="25"/>
+      <c r="L39" s="26"/>
+      <c r="M39" s="25"/>
+      <c r="N39" s="26"/>
+      <c r="O39" s="25"/>
+      <c r="P39" s="26"/>
+      <c r="Q39" s="24"/>
+      <c r="R39" s="26"/>
       <c r="T39" s="11">
         <v>53.830657000000002</v>
       </c>
@@ -2336,7 +2345,7 @@
       <c r="W39" s="12"/>
     </row>
     <row r="40" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A40" s="25" t="s">
+      <c r="A40" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B40" s="2">
@@ -2349,34 +2358,34 @@
       <c r="G40" s="22">
         <v>0.21995459000000001</v>
       </c>
-      <c r="I40" s="24">
+      <c r="I40" s="27">
         <v>2.97301842356399E-2</v>
       </c>
       <c r="J40" s="18">
         <v>3600</v>
       </c>
-      <c r="K40" s="26">
+      <c r="K40" s="25">
         <v>0.33110000000000001</v>
       </c>
-      <c r="L40" s="27">
+      <c r="L40" s="26">
         <v>1.7989999999999999</v>
       </c>
-      <c r="M40" s="26">
+      <c r="M40" s="25">
         <v>0.254</v>
       </c>
-      <c r="N40" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O40" s="26">
+      <c r="N40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O40" s="25">
         <v>0.187</v>
       </c>
-      <c r="P40" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q40" s="26">
+      <c r="P40" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q40" s="25">
         <v>0.13080554883214199</v>
       </c>
-      <c r="R40" s="27">
+      <c r="R40" s="26">
         <v>600</v>
       </c>
       <c r="T40" s="11">
@@ -2397,7 +2406,7 @@
       </c>
     </row>
     <row r="41" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="2">
         <v>1000</v>
       </c>
@@ -2408,18 +2417,18 @@
       <c r="G41" s="22">
         <v>0.21548316000000001</v>
       </c>
-      <c r="I41" s="24"/>
+      <c r="I41" s="27"/>
       <c r="J41" s="18">
         <v>3600</v>
       </c>
-      <c r="K41" s="26"/>
-      <c r="L41" s="27"/>
-      <c r="M41" s="26"/>
-      <c r="N41" s="27"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="27"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="27"/>
+      <c r="K41" s="25"/>
+      <c r="L41" s="26"/>
+      <c r="M41" s="25"/>
+      <c r="N41" s="26"/>
+      <c r="O41" s="25"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="25"/>
+      <c r="R41" s="26"/>
       <c r="T41" s="11">
         <v>13.471734</v>
       </c>
@@ -2438,7 +2447,7 @@
       </c>
     </row>
     <row r="42" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="2">
         <v>2000</v>
       </c>
@@ -2449,18 +2458,18 @@
       <c r="G42" s="22">
         <v>0.20450039</v>
       </c>
-      <c r="I42" s="24"/>
+      <c r="I42" s="27"/>
       <c r="J42" s="18">
         <v>3600</v>
       </c>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
-      <c r="M42" s="26"/>
-      <c r="N42" s="27"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="27"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="27"/>
+      <c r="K42" s="25"/>
+      <c r="L42" s="26"/>
+      <c r="M42" s="25"/>
+      <c r="N42" s="26"/>
+      <c r="O42" s="25"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="25"/>
+      <c r="R42" s="26"/>
       <c r="T42" s="11">
         <v>26.813558</v>
       </c>
@@ -2479,7 +2488,7 @@
       </c>
     </row>
     <row r="43" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="2">
         <v>5000</v>
       </c>
@@ -2490,18 +2499,18 @@
       <c r="G43" s="22">
         <v>0.18931542000000001</v>
       </c>
-      <c r="I43" s="24"/>
+      <c r="I43" s="27"/>
       <c r="J43" s="18">
         <v>3600</v>
       </c>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="26"/>
-      <c r="N43" s="27"/>
-      <c r="O43" s="26"/>
-      <c r="P43" s="27"/>
-      <c r="Q43" s="26"/>
-      <c r="R43" s="27"/>
+      <c r="K43" s="25"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="25"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="26"/>
       <c r="T43" s="11">
         <v>66.724900000000005</v>
       </c>
@@ -2514,7 +2523,7 @@
       <c r="W43" s="12"/>
     </row>
     <row r="44" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>18</v>
       </c>
       <c r="B44" s="2">
@@ -2527,34 +2536,34 @@
       <c r="G44" s="23">
         <v>0.14159316</v>
       </c>
-      <c r="I44" s="24">
+      <c r="I44" s="27">
         <v>1.3831368901879601E-3</v>
       </c>
       <c r="J44" s="18">
         <v>3600</v>
       </c>
-      <c r="K44" s="26">
+      <c r="K44" s="25">
         <v>0.33660000000000001</v>
       </c>
-      <c r="L44" s="27">
+      <c r="L44" s="26">
         <v>2.7</v>
       </c>
-      <c r="M44" s="26">
+      <c r="M44" s="25">
         <v>0.159</v>
       </c>
-      <c r="N44" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O44" s="26">
+      <c r="N44" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="25">
         <v>0.13800000000000001</v>
       </c>
-      <c r="P44" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q44" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R44" s="27" t="s">
+      <c r="P44" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q44" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R44" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T44" s="11">
@@ -2575,7 +2584,7 @@
       </c>
     </row>
     <row r="45" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="2">
         <v>1000</v>
       </c>
@@ -2586,18 +2595,18 @@
       <c r="G45" s="23">
         <v>0.13304566000000001</v>
       </c>
-      <c r="I45" s="24"/>
+      <c r="I45" s="27"/>
       <c r="J45" s="18">
         <v>3600</v>
       </c>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="26"/>
-      <c r="N45" s="27"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="27"/>
-      <c r="Q45" s="25"/>
-      <c r="R45" s="27"/>
+      <c r="K45" s="25"/>
+      <c r="L45" s="26"/>
+      <c r="M45" s="25"/>
+      <c r="N45" s="26"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="24"/>
+      <c r="R45" s="26"/>
       <c r="T45" s="11">
         <v>17.285457000000001</v>
       </c>
@@ -2616,7 +2625,7 @@
       </c>
     </row>
     <row r="46" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="2">
         <v>2000</v>
       </c>
@@ -2627,18 +2636,18 @@
       <c r="G46" s="23">
         <v>0.1227824</v>
       </c>
-      <c r="I46" s="24"/>
+      <c r="I46" s="27"/>
       <c r="J46" s="18">
         <v>3600</v>
       </c>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="26"/>
-      <c r="N46" s="27"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="27"/>
-      <c r="Q46" s="25"/>
-      <c r="R46" s="27"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="26"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="24"/>
+      <c r="R46" s="26"/>
       <c r="T46" s="11">
         <v>34.49512</v>
       </c>
@@ -2657,7 +2666,7 @@
       </c>
     </row>
     <row r="47" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="2">
         <v>5000</v>
       </c>
@@ -2668,18 +2677,18 @@
       <c r="G47" s="23">
         <v>0.10990411999999999</v>
       </c>
-      <c r="I47" s="24"/>
+      <c r="I47" s="27"/>
       <c r="J47" s="18">
         <v>3600</v>
       </c>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
-      <c r="M47" s="26"/>
-      <c r="N47" s="27"/>
-      <c r="O47" s="26"/>
-      <c r="P47" s="27"/>
-      <c r="Q47" s="25"/>
-      <c r="R47" s="27"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="26"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="26"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="26"/>
+      <c r="Q47" s="24"/>
+      <c r="R47" s="26"/>
       <c r="T47" s="11">
         <v>85.965810000000005</v>
       </c>
@@ -2692,7 +2701,7 @@
       <c r="W47" s="12"/>
     </row>
     <row r="48" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B48" s="2">
@@ -2701,34 +2710,34 @@
       <c r="C48" s="7"/>
       <c r="E48" s="7"/>
       <c r="G48" s="7"/>
-      <c r="I48" s="24">
+      <c r="I48" s="27">
         <v>2.2173780908445601E-2</v>
       </c>
       <c r="J48" s="18">
         <v>3600</v>
       </c>
-      <c r="K48" s="26">
+      <c r="K48" s="25">
         <v>0.22470000000000001</v>
       </c>
-      <c r="L48" s="27">
+      <c r="L48" s="26">
         <v>4.883</v>
       </c>
-      <c r="M48" s="26">
+      <c r="M48" s="25">
         <v>0.17399999999999999</v>
       </c>
-      <c r="N48" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O48" s="26">
+      <c r="N48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O48" s="25">
         <v>0.13500000000000001</v>
       </c>
-      <c r="P48" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q48" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R48" s="27" t="s">
+      <c r="P48" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q48" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R48" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T48" s="11">
@@ -2749,25 +2758,25 @@
       </c>
     </row>
     <row r="49" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="2">
         <v>1000</v>
       </c>
       <c r="C49" s="7"/>
       <c r="E49" s="7"/>
       <c r="G49" s="7"/>
-      <c r="I49" s="24"/>
+      <c r="I49" s="27"/>
       <c r="J49" s="18">
         <v>3600</v>
       </c>
-      <c r="K49" s="26"/>
-      <c r="L49" s="27"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="27"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="25"/>
-      <c r="R49" s="27"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="26"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="24"/>
+      <c r="R49" s="26"/>
       <c r="T49" s="11">
         <v>23.158722999999998</v>
       </c>
@@ -2786,25 +2795,25 @@
       </c>
     </row>
     <row r="50" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="2">
         <v>2000</v>
       </c>
       <c r="C50" s="7"/>
       <c r="E50" s="7"/>
       <c r="G50" s="7"/>
-      <c r="I50" s="24"/>
+      <c r="I50" s="27"/>
       <c r="J50" s="18">
         <v>3600</v>
       </c>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
-      <c r="M50" s="26"/>
-      <c r="N50" s="27"/>
-      <c r="O50" s="26"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="25"/>
-      <c r="R50" s="27"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="26"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="26"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="26"/>
+      <c r="Q50" s="24"/>
+      <c r="R50" s="26"/>
       <c r="T50" s="11">
         <v>46.277225999999999</v>
       </c>
@@ -2823,25 +2832,25 @@
       </c>
     </row>
     <row r="51" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="2">
         <v>5000</v>
       </c>
       <c r="C51" s="7"/>
       <c r="E51" s="7"/>
       <c r="G51" s="7"/>
-      <c r="I51" s="24"/>
+      <c r="I51" s="27"/>
       <c r="J51" s="18">
         <v>3600</v>
       </c>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="27"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="27"/>
-      <c r="Q51" s="25"/>
-      <c r="R51" s="27"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="26"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="24"/>
+      <c r="R51" s="26"/>
       <c r="T51" s="11">
         <v>115.449259</v>
       </c>
@@ -2855,40 +2864,40 @@
       <c r="AV51" s="13"/>
     </row>
     <row r="52" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A52" s="25" t="s">
+      <c r="A52" s="24" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="2">
         <v>500</v>
       </c>
-      <c r="I52" s="24">
+      <c r="I52" s="27">
         <v>3.8355352332044797E-2</v>
       </c>
       <c r="J52" s="18">
         <v>3600</v>
       </c>
-      <c r="K52" s="26">
+      <c r="K52" s="25">
         <v>0.26550000000000001</v>
       </c>
-      <c r="L52" s="27">
+      <c r="L52" s="26">
         <v>28.327999999999999</v>
       </c>
-      <c r="M52" s="26">
+      <c r="M52" s="25">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="N52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O52" s="26">
+      <c r="N52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O52" s="25">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="P52" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q52" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R52" s="27" t="s">
+      <c r="P52" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q52" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R52" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T52" s="11">
@@ -2909,22 +2918,22 @@
       </c>
     </row>
     <row r="53" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="2">
         <v>1000</v>
       </c>
-      <c r="I53" s="24"/>
+      <c r="I53" s="27"/>
       <c r="J53" s="18">
         <v>3600</v>
       </c>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
-      <c r="M53" s="26"/>
-      <c r="N53" s="27"/>
-      <c r="O53" s="26"/>
-      <c r="P53" s="27"/>
-      <c r="Q53" s="25"/>
-      <c r="R53" s="27"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="26"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="26"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="26"/>
+      <c r="Q53" s="24"/>
+      <c r="R53" s="26"/>
       <c r="T53" s="11">
         <v>65.318888000000001</v>
       </c>
@@ -2943,22 +2952,22 @@
       </c>
     </row>
     <row r="54" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="2">
         <v>2000</v>
       </c>
-      <c r="I54" s="24"/>
+      <c r="I54" s="27"/>
       <c r="J54" s="18">
         <v>3600</v>
       </c>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
-      <c r="M54" s="26"/>
-      <c r="N54" s="27"/>
-      <c r="O54" s="26"/>
-      <c r="P54" s="27"/>
-      <c r="Q54" s="25"/>
-      <c r="R54" s="27"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="26"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="26"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="26"/>
+      <c r="Q54" s="24"/>
+      <c r="R54" s="26"/>
       <c r="T54" s="11">
         <v>130.456557</v>
       </c>
@@ -2977,22 +2986,22 @@
       </c>
     </row>
     <row r="55" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="2">
         <v>5000</v>
       </c>
-      <c r="I55" s="24"/>
+      <c r="I55" s="27"/>
       <c r="J55" s="18">
         <v>3600</v>
       </c>
-      <c r="K55" s="26"/>
-      <c r="L55" s="27"/>
-      <c r="M55" s="26"/>
-      <c r="N55" s="27"/>
-      <c r="O55" s="26"/>
-      <c r="P55" s="27"/>
-      <c r="Q55" s="25"/>
-      <c r="R55" s="27"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="24"/>
+      <c r="R55" s="26"/>
       <c r="T55" s="11">
         <v>323.3809</v>
       </c>
@@ -3013,36 +3022,36 @@
       <c r="Y56" s="2"/>
     </row>
     <row r="57" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A57" s="25" t="s">
+      <c r="A57" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B57" s="2">
         <v>500</v>
       </c>
-      <c r="I57" s="24">
+      <c r="I57" s="27">
         <v>0</v>
       </c>
       <c r="J57" s="18">
         <v>3600</v>
       </c>
-      <c r="K57" s="26"/>
+      <c r="K57" s="25"/>
       <c r="L57" s="28"/>
-      <c r="M57" s="26">
+      <c r="M57" s="25">
         <v>0.101239449255883</v>
       </c>
-      <c r="N57" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O57" s="26">
+      <c r="N57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O57" s="25">
         <v>6.1477473699407502E-2</v>
       </c>
-      <c r="P57" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q57" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R57" s="27" t="s">
+      <c r="P57" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q57" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R57" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T57" s="11">
@@ -3058,22 +3067,22 @@
       <c r="Y57" s="2"/>
     </row>
     <row r="58" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="2">
         <v>1000</v>
       </c>
-      <c r="I58" s="24"/>
+      <c r="I58" s="27"/>
       <c r="J58" s="18">
         <v>3600</v>
       </c>
-      <c r="K58" s="26"/>
+      <c r="K58" s="25"/>
       <c r="L58" s="28"/>
-      <c r="M58" s="26"/>
-      <c r="N58" s="27"/>
-      <c r="O58" s="26"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="25"/>
-      <c r="R58" s="27"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="26"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="26"/>
+      <c r="Q58" s="24"/>
+      <c r="R58" s="26"/>
       <c r="T58" s="11">
         <v>14.524684000000001</v>
       </c>
@@ -3087,22 +3096,22 @@
       <c r="Y58" s="2"/>
     </row>
     <row r="59" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="2">
         <v>2000</v>
       </c>
-      <c r="I59" s="24"/>
+      <c r="I59" s="27"/>
       <c r="J59" s="18">
         <v>3600</v>
       </c>
-      <c r="K59" s="26"/>
+      <c r="K59" s="25"/>
       <c r="L59" s="28"/>
-      <c r="M59" s="26"/>
-      <c r="N59" s="27"/>
-      <c r="O59" s="26"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="25"/>
-      <c r="R59" s="27"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="26"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="26"/>
+      <c r="Q59" s="24"/>
+      <c r="R59" s="26"/>
       <c r="T59" s="11">
         <v>29.065647999999999</v>
       </c>
@@ -3116,22 +3125,22 @@
       <c r="Y59" s="2"/>
     </row>
     <row r="60" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="2">
         <v>5000</v>
       </c>
-      <c r="I60" s="24"/>
+      <c r="I60" s="27"/>
       <c r="J60" s="18">
         <v>3600</v>
       </c>
-      <c r="K60" s="26"/>
+      <c r="K60" s="25"/>
       <c r="L60" s="28"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="27"/>
-      <c r="O60" s="26"/>
-      <c r="P60" s="27"/>
-      <c r="Q60" s="25"/>
-      <c r="R60" s="27"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="26"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="26"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="26"/>
       <c r="T60" s="11">
         <v>72.090327000000002</v>
       </c>
@@ -3145,36 +3154,36 @@
       <c r="Y60" s="2"/>
     </row>
     <row r="61" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A61" s="25" t="s">
+      <c r="A61" s="24" t="s">
         <v>22</v>
       </c>
       <c r="B61" s="2">
         <v>500</v>
       </c>
-      <c r="I61" s="24">
+      <c r="I61" s="27">
         <v>6.94753242196072E-3</v>
       </c>
       <c r="J61" s="18">
         <v>3600</v>
       </c>
-      <c r="K61" s="26"/>
+      <c r="K61" s="25"/>
       <c r="L61" s="28"/>
-      <c r="M61" s="26">
+      <c r="M61" s="25">
         <v>0.29018026080021198</v>
       </c>
-      <c r="N61" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O61" s="26">
+      <c r="N61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O61" s="25">
         <v>0.205463324203739</v>
       </c>
-      <c r="P61" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q61" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R61" s="27" t="s">
+      <c r="P61" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R61" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T61" s="11">
@@ -3190,22 +3199,22 @@
       <c r="Y61" s="2"/>
     </row>
     <row r="62" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="2">
         <v>1000</v>
       </c>
-      <c r="I62" s="24"/>
+      <c r="I62" s="27"/>
       <c r="J62" s="18">
         <v>3600</v>
       </c>
-      <c r="K62" s="26"/>
+      <c r="K62" s="25"/>
       <c r="L62" s="28"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="27"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="27"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="27"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="26"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="26"/>
+      <c r="Q62" s="24"/>
+      <c r="R62" s="26"/>
       <c r="T62" s="11">
         <v>16.511437999999998</v>
       </c>
@@ -3219,22 +3228,22 @@
       <c r="Y62" s="2"/>
     </row>
     <row r="63" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="2">
         <v>2000</v>
       </c>
-      <c r="I63" s="24"/>
+      <c r="I63" s="27"/>
       <c r="J63" s="18">
         <v>3600</v>
       </c>
-      <c r="K63" s="26"/>
+      <c r="K63" s="25"/>
       <c r="L63" s="28"/>
-      <c r="M63" s="26"/>
-      <c r="N63" s="27"/>
-      <c r="O63" s="26"/>
-      <c r="P63" s="27"/>
-      <c r="Q63" s="25"/>
-      <c r="R63" s="27"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="26"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="26"/>
+      <c r="Q63" s="24"/>
+      <c r="R63" s="26"/>
       <c r="T63" s="11">
         <v>32.639651000000001</v>
       </c>
@@ -3248,22 +3257,22 @@
       <c r="Y63" s="2"/>
     </row>
     <row r="64" spans="1:84" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="2">
         <v>5000</v>
       </c>
-      <c r="I64" s="24"/>
+      <c r="I64" s="27"/>
       <c r="J64" s="18">
         <v>3600</v>
       </c>
-      <c r="K64" s="26"/>
+      <c r="K64" s="25"/>
       <c r="L64" s="28"/>
-      <c r="M64" s="26"/>
-      <c r="N64" s="27"/>
-      <c r="O64" s="26"/>
-      <c r="P64" s="27"/>
-      <c r="Q64" s="25"/>
-      <c r="R64" s="27"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="26"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="26"/>
+      <c r="Q64" s="24"/>
+      <c r="R64" s="26"/>
       <c r="T64" s="11">
         <v>81.209215999999998</v>
       </c>
@@ -3285,36 +3294,36 @@
       <c r="Y65" s="2"/>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>35</v>
       </c>
       <c r="B66" s="2">
         <v>500</v>
       </c>
-      <c r="I66" s="24">
+      <c r="I66" s="27">
         <v>0</v>
       </c>
       <c r="J66" s="18">
         <v>3600</v>
       </c>
-      <c r="K66" s="26"/>
+      <c r="K66" s="25"/>
       <c r="L66" s="28"/>
-      <c r="M66" s="26">
+      <c r="M66" s="25">
         <v>0.21826059724466901</v>
       </c>
-      <c r="N66" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O66" s="26">
+      <c r="N66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O66" s="25">
         <v>0.199782125806655</v>
       </c>
-      <c r="P66" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q66" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R66" s="27" t="s">
+      <c r="P66" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q66" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R66" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T66" s="11">
@@ -3330,22 +3339,22 @@
       <c r="Y66" s="2"/>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="2">
         <v>1000</v>
       </c>
-      <c r="I67" s="24"/>
+      <c r="I67" s="27"/>
       <c r="J67" s="18">
         <v>3600</v>
       </c>
-      <c r="K67" s="26"/>
+      <c r="K67" s="25"/>
       <c r="L67" s="28"/>
-      <c r="M67" s="26"/>
-      <c r="N67" s="27"/>
-      <c r="O67" s="26"/>
-      <c r="P67" s="27"/>
-      <c r="Q67" s="25"/>
-      <c r="R67" s="27"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="24"/>
+      <c r="R67" s="26"/>
       <c r="T67" s="11">
         <v>4.5111670000000004</v>
       </c>
@@ -3359,22 +3368,22 @@
       <c r="Y67" s="2"/>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="2">
         <v>2000</v>
       </c>
-      <c r="I68" s="24"/>
+      <c r="I68" s="27"/>
       <c r="J68" s="18">
         <v>3600</v>
       </c>
-      <c r="K68" s="26"/>
+      <c r="K68" s="25"/>
       <c r="L68" s="28"/>
-      <c r="M68" s="26"/>
-      <c r="N68" s="27"/>
-      <c r="O68" s="26"/>
-      <c r="P68" s="27"/>
-      <c r="Q68" s="25"/>
-      <c r="R68" s="27"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="24"/>
+      <c r="R68" s="26"/>
       <c r="T68" s="11">
         <v>8.9939009999999993</v>
       </c>
@@ -3388,22 +3397,22 @@
       <c r="Y68" s="2"/>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="2">
         <v>5000</v>
       </c>
-      <c r="I69" s="24"/>
+      <c r="I69" s="27"/>
       <c r="J69" s="18">
         <v>3600</v>
       </c>
-      <c r="K69" s="26"/>
+      <c r="K69" s="25"/>
       <c r="L69" s="28"/>
-      <c r="M69" s="26"/>
-      <c r="N69" s="27"/>
-      <c r="O69" s="26"/>
-      <c r="P69" s="27"/>
-      <c r="Q69" s="25"/>
-      <c r="R69" s="27"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="26"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="26"/>
+      <c r="Q69" s="24"/>
+      <c r="R69" s="26"/>
       <c r="T69" s="11">
         <v>22.490936999999999</v>
       </c>
@@ -3425,36 +3434,36 @@
       <c r="Y70" s="2"/>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
+      <c r="A71" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B71" s="2">
         <v>500</v>
       </c>
-      <c r="I71" s="24">
+      <c r="I71" s="27">
         <v>6.7616724409469602E-3</v>
       </c>
       <c r="J71" s="18">
         <v>3600</v>
       </c>
-      <c r="K71" s="26"/>
+      <c r="K71" s="25"/>
       <c r="L71" s="28"/>
-      <c r="M71" s="26">
+      <c r="M71" s="25">
         <v>0.24797844874295</v>
       </c>
-      <c r="N71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O71" s="26">
+      <c r="N71" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O71" s="25">
         <v>0.18443317167635301</v>
       </c>
-      <c r="P71" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q71" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R71" s="27" t="s">
+      <c r="P71" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q71" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R71" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T71" s="11">
@@ -3470,22 +3479,22 @@
       <c r="Y71" s="2"/>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="2">
         <v>1000</v>
       </c>
-      <c r="I72" s="24"/>
+      <c r="I72" s="27"/>
       <c r="J72" s="18">
         <v>3600</v>
       </c>
-      <c r="K72" s="26"/>
+      <c r="K72" s="25"/>
       <c r="L72" s="28"/>
-      <c r="M72" s="26"/>
-      <c r="N72" s="27"/>
-      <c r="O72" s="26"/>
-      <c r="P72" s="27"/>
-      <c r="Q72" s="25"/>
-      <c r="R72" s="27"/>
+      <c r="M72" s="25"/>
+      <c r="N72" s="26"/>
+      <c r="O72" s="25"/>
+      <c r="P72" s="26"/>
+      <c r="Q72" s="24"/>
+      <c r="R72" s="26"/>
       <c r="T72" s="11">
         <v>16.520105999999998</v>
       </c>
@@ -3499,22 +3508,22 @@
       <c r="Y72" s="2"/>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="2">
         <v>2000</v>
       </c>
-      <c r="I73" s="24"/>
+      <c r="I73" s="27"/>
       <c r="J73" s="18">
         <v>3600</v>
       </c>
-      <c r="K73" s="26"/>
+      <c r="K73" s="25"/>
       <c r="L73" s="28"/>
-      <c r="M73" s="26"/>
-      <c r="N73" s="27"/>
-      <c r="O73" s="26"/>
-      <c r="P73" s="27"/>
-      <c r="Q73" s="25"/>
-      <c r="R73" s="27"/>
+      <c r="M73" s="25"/>
+      <c r="N73" s="26"/>
+      <c r="O73" s="25"/>
+      <c r="P73" s="26"/>
+      <c r="Q73" s="24"/>
+      <c r="R73" s="26"/>
       <c r="T73" s="11">
         <v>32.814861000000001</v>
       </c>
@@ -3528,22 +3537,22 @@
       <c r="Y73" s="2"/>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="2">
         <v>5000</v>
       </c>
-      <c r="I74" s="24"/>
+      <c r="I74" s="27"/>
       <c r="J74" s="18">
         <v>3600</v>
       </c>
-      <c r="K74" s="26"/>
+      <c r="K74" s="25"/>
       <c r="L74" s="28"/>
-      <c r="M74" s="26"/>
-      <c r="N74" s="27"/>
-      <c r="O74" s="26"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="25"/>
-      <c r="R74" s="27"/>
+      <c r="M74" s="25"/>
+      <c r="N74" s="26"/>
+      <c r="O74" s="25"/>
+      <c r="P74" s="26"/>
+      <c r="Q74" s="24"/>
+      <c r="R74" s="26"/>
       <c r="T74" s="11">
         <v>80.115144999999998</v>
       </c>
@@ -3565,36 +3574,36 @@
       <c r="Y75" s="2"/>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
+      <c r="A76" s="24" t="s">
         <v>24</v>
       </c>
       <c r="B76" s="2">
         <v>500</v>
       </c>
-      <c r="I76" s="24">
+      <c r="I76" s="27">
         <v>2.6177659710813601E-3</v>
       </c>
       <c r="J76" s="18">
         <v>3600</v>
       </c>
-      <c r="K76" s="26"/>
+      <c r="K76" s="25"/>
       <c r="L76" s="28"/>
-      <c r="M76" s="26">
+      <c r="M76" s="25">
         <v>0.28420023201354799</v>
       </c>
-      <c r="N76" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O76" s="26">
+      <c r="N76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O76" s="25">
         <v>0.34385002851765301</v>
       </c>
-      <c r="P76" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q76" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R76" s="27" t="s">
+      <c r="P76" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q76" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R76" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T76" s="11">
@@ -3610,22 +3619,22 @@
       <c r="Y76" s="2"/>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="2">
         <v>1000</v>
       </c>
-      <c r="I77" s="24"/>
+      <c r="I77" s="27"/>
       <c r="J77" s="18">
         <v>3600</v>
       </c>
-      <c r="K77" s="26"/>
+      <c r="K77" s="25"/>
       <c r="L77" s="28"/>
-      <c r="M77" s="26"/>
-      <c r="N77" s="27"/>
-      <c r="O77" s="26"/>
-      <c r="P77" s="27"/>
-      <c r="Q77" s="25"/>
-      <c r="R77" s="27"/>
+      <c r="M77" s="25"/>
+      <c r="N77" s="26"/>
+      <c r="O77" s="25"/>
+      <c r="P77" s="26"/>
+      <c r="Q77" s="24"/>
+      <c r="R77" s="26"/>
       <c r="T77" s="11">
         <v>11.555717</v>
       </c>
@@ -3639,22 +3648,22 @@
       <c r="Y77" s="2"/>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="2">
         <v>2000</v>
       </c>
-      <c r="I78" s="24"/>
+      <c r="I78" s="27"/>
       <c r="J78" s="18">
         <v>3600</v>
       </c>
-      <c r="K78" s="26"/>
+      <c r="K78" s="25"/>
       <c r="L78" s="28"/>
-      <c r="M78" s="26"/>
-      <c r="N78" s="27"/>
-      <c r="O78" s="26"/>
-      <c r="P78" s="27"/>
-      <c r="Q78" s="25"/>
-      <c r="R78" s="27"/>
+      <c r="M78" s="25"/>
+      <c r="N78" s="26"/>
+      <c r="O78" s="25"/>
+      <c r="P78" s="26"/>
+      <c r="Q78" s="24"/>
+      <c r="R78" s="26"/>
       <c r="T78" s="11">
         <v>23.124298</v>
       </c>
@@ -3668,22 +3677,22 @@
       <c r="Y78" s="2"/>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="2">
         <v>5000</v>
       </c>
-      <c r="I79" s="24"/>
+      <c r="I79" s="27"/>
       <c r="J79" s="18">
         <v>3600</v>
       </c>
-      <c r="K79" s="26"/>
+      <c r="K79" s="25"/>
       <c r="L79" s="28"/>
-      <c r="M79" s="26"/>
-      <c r="N79" s="27"/>
-      <c r="O79" s="26"/>
-      <c r="P79" s="27"/>
-      <c r="Q79" s="25"/>
-      <c r="R79" s="27"/>
+      <c r="M79" s="25"/>
+      <c r="N79" s="26"/>
+      <c r="O79" s="25"/>
+      <c r="P79" s="26"/>
+      <c r="Q79" s="24"/>
+      <c r="R79" s="26"/>
       <c r="T79" s="11">
         <v>58.029696999999999</v>
       </c>
@@ -3697,36 +3706,36 @@
       <c r="Y79" s="2"/>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
+      <c r="A80" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B80" s="2">
         <v>500</v>
       </c>
-      <c r="I80" s="24">
+      <c r="I80" s="27">
         <v>2.37598662590718E-2</v>
       </c>
       <c r="J80" s="18">
         <v>3600</v>
       </c>
-      <c r="K80" s="26"/>
+      <c r="K80" s="25"/>
       <c r="L80" s="28"/>
-      <c r="M80" s="26">
+      <c r="M80" s="25">
         <v>0.29386831802036401</v>
       </c>
-      <c r="N80" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O80" s="26">
+      <c r="N80" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O80" s="25">
         <v>0.30511472915739701</v>
       </c>
-      <c r="P80" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q80" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R80" s="27" t="s">
+      <c r="P80" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q80" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R80" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T80" s="11">
@@ -3742,22 +3751,22 @@
       <c r="Y80" s="2"/>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="2">
         <v>1000</v>
       </c>
-      <c r="I81" s="24"/>
+      <c r="I81" s="27"/>
       <c r="J81" s="18">
         <v>3600</v>
       </c>
-      <c r="K81" s="26"/>
+      <c r="K81" s="25"/>
       <c r="L81" s="28"/>
-      <c r="M81" s="26"/>
-      <c r="N81" s="27"/>
-      <c r="O81" s="26"/>
-      <c r="P81" s="27"/>
-      <c r="Q81" s="25"/>
-      <c r="R81" s="27"/>
+      <c r="M81" s="25"/>
+      <c r="N81" s="26"/>
+      <c r="O81" s="25"/>
+      <c r="P81" s="26"/>
+      <c r="Q81" s="24"/>
+      <c r="R81" s="26"/>
       <c r="T81" s="11">
         <v>14.007052</v>
       </c>
@@ -3771,22 +3780,22 @@
       <c r="Y81" s="2"/>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="2">
         <v>2000</v>
       </c>
-      <c r="I82" s="24"/>
+      <c r="I82" s="27"/>
       <c r="J82" s="18">
         <v>3600</v>
       </c>
-      <c r="K82" s="26"/>
+      <c r="K82" s="25"/>
       <c r="L82" s="28"/>
-      <c r="M82" s="26"/>
-      <c r="N82" s="27"/>
-      <c r="O82" s="26"/>
-      <c r="P82" s="27"/>
-      <c r="Q82" s="25"/>
-      <c r="R82" s="27"/>
+      <c r="M82" s="25"/>
+      <c r="N82" s="26"/>
+      <c r="O82" s="25"/>
+      <c r="P82" s="26"/>
+      <c r="Q82" s="24"/>
+      <c r="R82" s="26"/>
       <c r="T82" s="11">
         <v>27.958158999999998</v>
       </c>
@@ -3800,22 +3809,22 @@
       <c r="Y82" s="2"/>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="2">
         <v>5000</v>
       </c>
-      <c r="I83" s="24"/>
+      <c r="I83" s="27"/>
       <c r="J83" s="18">
         <v>3600</v>
       </c>
-      <c r="K83" s="26"/>
+      <c r="K83" s="25"/>
       <c r="L83" s="28"/>
-      <c r="M83" s="26"/>
-      <c r="N83" s="27"/>
-      <c r="O83" s="26"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="25"/>
-      <c r="R83" s="27"/>
+      <c r="M83" s="25"/>
+      <c r="N83" s="26"/>
+      <c r="O83" s="25"/>
+      <c r="P83" s="26"/>
+      <c r="Q83" s="24"/>
+      <c r="R83" s="26"/>
       <c r="T83" s="11">
         <v>69.326909000000001</v>
       </c>
@@ -3829,36 +3838,36 @@
       <c r="Y83" s="2"/>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
+      <c r="A84" s="24" t="s">
         <v>26</v>
       </c>
       <c r="B84" s="2">
         <v>500</v>
       </c>
-      <c r="I84" s="24">
+      <c r="I84" s="27">
         <v>1.47481695465506E-2</v>
       </c>
       <c r="J84" s="18">
         <v>3600</v>
       </c>
-      <c r="K84" s="26"/>
+      <c r="K84" s="25"/>
       <c r="L84" s="28"/>
-      <c r="M84" s="26">
+      <c r="M84" s="25">
         <v>0.167989635290166</v>
       </c>
-      <c r="N84" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O84" s="26">
+      <c r="N84" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O84" s="25">
         <v>0.25329462101632999</v>
       </c>
-      <c r="P84" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q84" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R84" s="27" t="s">
+      <c r="P84" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q84" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R84" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T84" s="11">
@@ -3874,22 +3883,22 @@
       <c r="Y84" s="2"/>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="2">
         <v>1000</v>
       </c>
-      <c r="I85" s="24"/>
+      <c r="I85" s="27"/>
       <c r="J85" s="18">
         <v>3600</v>
       </c>
-      <c r="K85" s="26"/>
+      <c r="K85" s="25"/>
       <c r="L85" s="28"/>
-      <c r="M85" s="26"/>
-      <c r="N85" s="27"/>
-      <c r="O85" s="26"/>
-      <c r="P85" s="27"/>
-      <c r="Q85" s="25"/>
-      <c r="R85" s="27"/>
+      <c r="M85" s="25"/>
+      <c r="N85" s="26"/>
+      <c r="O85" s="25"/>
+      <c r="P85" s="26"/>
+      <c r="Q85" s="24"/>
+      <c r="R85" s="26"/>
       <c r="T85" s="11">
         <v>14.86237</v>
       </c>
@@ -3903,22 +3912,22 @@
       <c r="Y85" s="2"/>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="2">
         <v>2000</v>
       </c>
-      <c r="I86" s="24"/>
+      <c r="I86" s="27"/>
       <c r="J86" s="18">
         <v>3600</v>
       </c>
-      <c r="K86" s="26"/>
+      <c r="K86" s="25"/>
       <c r="L86" s="28"/>
-      <c r="M86" s="26"/>
-      <c r="N86" s="27"/>
-      <c r="O86" s="26"/>
-      <c r="P86" s="27"/>
-      <c r="Q86" s="25"/>
-      <c r="R86" s="27"/>
+      <c r="M86" s="25"/>
+      <c r="N86" s="26"/>
+      <c r="O86" s="25"/>
+      <c r="P86" s="26"/>
+      <c r="Q86" s="24"/>
+      <c r="R86" s="26"/>
       <c r="T86" s="11">
         <v>29.561377</v>
       </c>
@@ -3932,22 +3941,22 @@
       <c r="Y86" s="2"/>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A87" s="25"/>
+      <c r="A87" s="24"/>
       <c r="B87" s="2">
         <v>5000</v>
       </c>
-      <c r="I87" s="24"/>
+      <c r="I87" s="27"/>
       <c r="J87" s="18">
         <v>3600</v>
       </c>
-      <c r="K87" s="26"/>
+      <c r="K87" s="25"/>
       <c r="L87" s="28"/>
-      <c r="M87" s="26"/>
-      <c r="N87" s="27"/>
-      <c r="O87" s="26"/>
-      <c r="P87" s="27"/>
-      <c r="Q87" s="25"/>
-      <c r="R87" s="27"/>
+      <c r="M87" s="25"/>
+      <c r="N87" s="26"/>
+      <c r="O87" s="25"/>
+      <c r="P87" s="26"/>
+      <c r="Q87" s="24"/>
+      <c r="R87" s="26"/>
       <c r="T87" s="11">
         <v>73.479196999999999</v>
       </c>
@@ -3969,36 +3978,36 @@
       <c r="Y88" s="2"/>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
+      <c r="A89" s="24" t="s">
         <v>28</v>
       </c>
       <c r="B89" s="2">
         <v>500</v>
       </c>
-      <c r="I89" s="24">
+      <c r="I89" s="27">
         <v>0</v>
       </c>
       <c r="J89" s="18">
         <v>3600</v>
       </c>
-      <c r="K89" s="26"/>
+      <c r="K89" s="25"/>
       <c r="L89" s="28"/>
-      <c r="M89" s="26">
+      <c r="M89" s="25">
         <v>0.16062893658948699</v>
       </c>
-      <c r="N89" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O89" s="26">
+      <c r="N89" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O89" s="25">
         <v>0.121214337893307</v>
       </c>
-      <c r="P89" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q89" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R89" s="27" t="s">
+      <c r="P89" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q89" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R89" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T89" s="11">
@@ -4014,22 +4023,22 @@
       <c r="Y89" s="2"/>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A90" s="25"/>
+      <c r="A90" s="24"/>
       <c r="B90" s="2">
         <v>1000</v>
       </c>
-      <c r="I90" s="24"/>
+      <c r="I90" s="27"/>
       <c r="J90" s="18">
         <v>3600</v>
       </c>
-      <c r="K90" s="26"/>
+      <c r="K90" s="25"/>
       <c r="L90" s="28"/>
-      <c r="M90" s="26"/>
-      <c r="N90" s="27"/>
-      <c r="O90" s="26"/>
-      <c r="P90" s="27"/>
-      <c r="Q90" s="25"/>
-      <c r="R90" s="27"/>
+      <c r="M90" s="25"/>
+      <c r="N90" s="26"/>
+      <c r="O90" s="25"/>
+      <c r="P90" s="26"/>
+      <c r="Q90" s="24"/>
+      <c r="R90" s="26"/>
       <c r="T90" s="11">
         <v>5.4598659999999999</v>
       </c>
@@ -4043,22 +4052,22 @@
       <c r="Y90" s="2"/>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A91" s="25"/>
+      <c r="A91" s="24"/>
       <c r="B91" s="2">
         <v>2000</v>
       </c>
-      <c r="I91" s="24"/>
+      <c r="I91" s="27"/>
       <c r="J91" s="18">
         <v>3600</v>
       </c>
-      <c r="K91" s="26"/>
+      <c r="K91" s="25"/>
       <c r="L91" s="28"/>
-      <c r="M91" s="26"/>
-      <c r="N91" s="27"/>
-      <c r="O91" s="26"/>
-      <c r="P91" s="27"/>
-      <c r="Q91" s="25"/>
-      <c r="R91" s="27"/>
+      <c r="M91" s="25"/>
+      <c r="N91" s="26"/>
+      <c r="O91" s="25"/>
+      <c r="P91" s="26"/>
+      <c r="Q91" s="24"/>
+      <c r="R91" s="26"/>
       <c r="T91" s="11">
         <v>10.888598999999999</v>
       </c>
@@ -4072,22 +4081,22 @@
       <c r="Y91" s="2"/>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A92" s="25"/>
+      <c r="A92" s="24"/>
       <c r="B92" s="2">
         <v>5000</v>
       </c>
-      <c r="I92" s="24"/>
+      <c r="I92" s="27"/>
       <c r="J92" s="18">
         <v>3600</v>
       </c>
-      <c r="K92" s="26"/>
+      <c r="K92" s="25"/>
       <c r="L92" s="28"/>
-      <c r="M92" s="26"/>
-      <c r="N92" s="27"/>
-      <c r="O92" s="26"/>
-      <c r="P92" s="27"/>
-      <c r="Q92" s="25"/>
-      <c r="R92" s="27"/>
+      <c r="M92" s="25"/>
+      <c r="N92" s="26"/>
+      <c r="O92" s="25"/>
+      <c r="P92" s="26"/>
+      <c r="Q92" s="24"/>
+      <c r="R92" s="26"/>
       <c r="T92" s="11">
         <v>27.119754</v>
       </c>
@@ -4101,36 +4110,36 @@
       <c r="Y92" s="2"/>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B93" s="2">
         <v>500</v>
       </c>
-      <c r="I93" s="24">
+      <c r="I93" s="27">
         <v>0</v>
       </c>
       <c r="J93" s="18">
         <v>3600</v>
       </c>
-      <c r="K93" s="26"/>
+      <c r="K93" s="25"/>
       <c r="L93" s="28"/>
-      <c r="M93" s="26">
+      <c r="M93" s="25">
         <v>1.0883629283854401E-2</v>
       </c>
-      <c r="N93" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O93" s="26">
+      <c r="N93" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O93" s="25">
         <v>2.6516853932584201E-2</v>
       </c>
-      <c r="P93" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q93" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R93" s="27" t="s">
+      <c r="P93" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q93" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R93" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T93" s="11">
@@ -4146,22 +4155,22 @@
       <c r="Y93" s="2"/>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A94" s="25"/>
+      <c r="A94" s="24"/>
       <c r="B94" s="2">
         <v>1000</v>
       </c>
-      <c r="I94" s="24"/>
+      <c r="I94" s="27"/>
       <c r="J94" s="18">
         <v>3600</v>
       </c>
-      <c r="K94" s="26"/>
+      <c r="K94" s="25"/>
       <c r="L94" s="28"/>
-      <c r="M94" s="26"/>
-      <c r="N94" s="27"/>
-      <c r="O94" s="26"/>
-      <c r="P94" s="27"/>
-      <c r="Q94" s="25"/>
-      <c r="R94" s="27"/>
+      <c r="M94" s="25"/>
+      <c r="N94" s="26"/>
+      <c r="O94" s="25"/>
+      <c r="P94" s="26"/>
+      <c r="Q94" s="24"/>
+      <c r="R94" s="26"/>
       <c r="T94" s="11">
         <v>6.2835929999999998</v>
       </c>
@@ -4175,22 +4184,22 @@
       <c r="Y94" s="2"/>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="24"/>
       <c r="B95" s="2">
         <v>2000</v>
       </c>
-      <c r="I95" s="24"/>
+      <c r="I95" s="27"/>
       <c r="J95" s="18">
         <v>3600</v>
       </c>
-      <c r="K95" s="26"/>
+      <c r="K95" s="25"/>
       <c r="L95" s="28"/>
-      <c r="M95" s="26"/>
-      <c r="N95" s="27"/>
-      <c r="O95" s="26"/>
-      <c r="P95" s="27"/>
-      <c r="Q95" s="25"/>
-      <c r="R95" s="27"/>
+      <c r="M95" s="25"/>
+      <c r="N95" s="26"/>
+      <c r="O95" s="25"/>
+      <c r="P95" s="26"/>
+      <c r="Q95" s="24"/>
+      <c r="R95" s="26"/>
       <c r="T95" s="11">
         <v>12.554895999999999</v>
       </c>
@@ -4204,22 +4213,22 @@
       <c r="Y95" s="2"/>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A96" s="25"/>
+      <c r="A96" s="24"/>
       <c r="B96" s="2">
         <v>5000</v>
       </c>
-      <c r="I96" s="24"/>
+      <c r="I96" s="27"/>
       <c r="J96" s="18">
         <v>3600</v>
       </c>
-      <c r="K96" s="26"/>
+      <c r="K96" s="25"/>
       <c r="L96" s="28"/>
-      <c r="M96" s="26"/>
-      <c r="N96" s="27"/>
-      <c r="O96" s="26"/>
-      <c r="P96" s="27"/>
-      <c r="Q96" s="25"/>
-      <c r="R96" s="27"/>
+      <c r="M96" s="25"/>
+      <c r="N96" s="26"/>
+      <c r="O96" s="25"/>
+      <c r="P96" s="26"/>
+      <c r="Q96" s="24"/>
+      <c r="R96" s="26"/>
       <c r="T96" s="11">
         <v>31.354782</v>
       </c>
@@ -4233,36 +4242,36 @@
       <c r="Y96" s="2"/>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
+      <c r="A97" s="24" t="s">
         <v>30</v>
       </c>
       <c r="B97" s="2">
         <v>500</v>
       </c>
-      <c r="I97" s="24">
+      <c r="I97" s="27">
         <v>0</v>
       </c>
       <c r="J97" s="18">
         <v>3600</v>
       </c>
-      <c r="K97" s="26"/>
+      <c r="K97" s="25"/>
       <c r="L97" s="28"/>
-      <c r="M97" s="26">
+      <c r="M97" s="25">
         <v>2.1265476753851299E-2</v>
       </c>
-      <c r="N97" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O97" s="26">
+      <c r="N97" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O97" s="25">
         <v>3.6388931451421497E-2</v>
       </c>
-      <c r="P97" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q97" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R97" s="27" t="s">
+      <c r="P97" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q97" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R97" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T97" s="11">
@@ -4278,22 +4287,22 @@
       <c r="Y97" s="2"/>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A98" s="25"/>
+      <c r="A98" s="24"/>
       <c r="B98" s="2">
         <v>1000</v>
       </c>
-      <c r="I98" s="24"/>
+      <c r="I98" s="27"/>
       <c r="J98" s="18">
         <v>3600</v>
       </c>
-      <c r="K98" s="26"/>
+      <c r="K98" s="25"/>
       <c r="L98" s="28"/>
-      <c r="M98" s="26"/>
-      <c r="N98" s="27"/>
-      <c r="O98" s="26"/>
-      <c r="P98" s="27"/>
-      <c r="Q98" s="25"/>
-      <c r="R98" s="27"/>
+      <c r="M98" s="25"/>
+      <c r="N98" s="26"/>
+      <c r="O98" s="25"/>
+      <c r="P98" s="26"/>
+      <c r="Q98" s="24"/>
+      <c r="R98" s="26"/>
       <c r="T98" s="11">
         <v>7.4339560000000002</v>
       </c>
@@ -4307,22 +4316,22 @@
       <c r="Y98" s="2"/>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
+      <c r="A99" s="24"/>
       <c r="B99" s="2">
         <v>2000</v>
       </c>
-      <c r="I99" s="24"/>
+      <c r="I99" s="27"/>
       <c r="J99" s="18">
         <v>3600</v>
       </c>
-      <c r="K99" s="26"/>
+      <c r="K99" s="25"/>
       <c r="L99" s="28"/>
-      <c r="M99" s="26"/>
-      <c r="N99" s="27"/>
-      <c r="O99" s="26"/>
-      <c r="P99" s="27"/>
-      <c r="Q99" s="25"/>
-      <c r="R99" s="27"/>
+      <c r="M99" s="25"/>
+      <c r="N99" s="26"/>
+      <c r="O99" s="25"/>
+      <c r="P99" s="26"/>
+      <c r="Q99" s="24"/>
+      <c r="R99" s="26"/>
       <c r="T99" s="11">
         <v>14.859114</v>
       </c>
@@ -4336,22 +4345,22 @@
       <c r="Y99" s="2"/>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
+      <c r="A100" s="24"/>
       <c r="B100" s="2">
         <v>5000</v>
       </c>
-      <c r="I100" s="24"/>
+      <c r="I100" s="27"/>
       <c r="J100" s="18">
         <v>3600</v>
       </c>
-      <c r="K100" s="26"/>
+      <c r="K100" s="25"/>
       <c r="L100" s="28"/>
-      <c r="M100" s="26"/>
-      <c r="N100" s="27"/>
-      <c r="O100" s="26"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="25"/>
-      <c r="R100" s="27"/>
+      <c r="M100" s="25"/>
+      <c r="N100" s="26"/>
+      <c r="O100" s="25"/>
+      <c r="P100" s="26"/>
+      <c r="Q100" s="24"/>
+      <c r="R100" s="26"/>
       <c r="T100" s="11">
         <v>37.086013000000001</v>
       </c>
@@ -4365,36 +4374,36 @@
       <c r="Y100" s="2"/>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A101" s="25" t="s">
+      <c r="A101" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B101" s="2">
         <v>500</v>
       </c>
-      <c r="I101" s="24">
+      <c r="I101" s="27">
         <v>0</v>
       </c>
       <c r="J101" s="18">
         <v>3600</v>
       </c>
-      <c r="K101" s="26"/>
+      <c r="K101" s="25"/>
       <c r="L101" s="28"/>
-      <c r="M101" s="26">
+      <c r="M101" s="25">
         <v>0.17058616214445499</v>
       </c>
-      <c r="N101" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O101" s="26">
+      <c r="N101" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O101" s="25">
         <v>0.11949852870448099</v>
       </c>
-      <c r="P101" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q101" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R101" s="27" t="s">
+      <c r="P101" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q101" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R101" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T101" s="11">
@@ -4410,22 +4419,22 @@
       <c r="Y101" s="2"/>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="24"/>
       <c r="B102" s="2">
         <v>1000</v>
       </c>
-      <c r="I102" s="24"/>
+      <c r="I102" s="27"/>
       <c r="J102" s="18">
         <v>3600</v>
       </c>
-      <c r="K102" s="26"/>
+      <c r="K102" s="25"/>
       <c r="L102" s="28"/>
-      <c r="M102" s="26"/>
-      <c r="N102" s="27"/>
-      <c r="O102" s="26"/>
-      <c r="P102" s="27"/>
-      <c r="Q102" s="25"/>
-      <c r="R102" s="27"/>
+      <c r="M102" s="25"/>
+      <c r="N102" s="26"/>
+      <c r="O102" s="25"/>
+      <c r="P102" s="26"/>
+      <c r="Q102" s="24"/>
+      <c r="R102" s="26"/>
       <c r="T102" s="11">
         <v>6.9478160000000004</v>
       </c>
@@ -4439,22 +4448,22 @@
       <c r="Y102" s="2"/>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
+      <c r="A103" s="24"/>
       <c r="B103" s="2">
         <v>2000</v>
       </c>
-      <c r="I103" s="24"/>
+      <c r="I103" s="27"/>
       <c r="J103" s="18">
         <v>3600</v>
       </c>
-      <c r="K103" s="26"/>
+      <c r="K103" s="25"/>
       <c r="L103" s="28"/>
-      <c r="M103" s="26"/>
-      <c r="N103" s="27"/>
-      <c r="O103" s="26"/>
-      <c r="P103" s="27"/>
-      <c r="Q103" s="25"/>
-      <c r="R103" s="27"/>
+      <c r="M103" s="25"/>
+      <c r="N103" s="26"/>
+      <c r="O103" s="25"/>
+      <c r="P103" s="26"/>
+      <c r="Q103" s="24"/>
+      <c r="R103" s="26"/>
       <c r="T103" s="11">
         <v>14.081699</v>
       </c>
@@ -4468,22 +4477,22 @@
       <c r="Y103" s="2"/>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="24"/>
       <c r="B104" s="2">
         <v>5000</v>
       </c>
-      <c r="I104" s="24"/>
+      <c r="I104" s="27"/>
       <c r="J104" s="18">
         <v>3600</v>
       </c>
-      <c r="K104" s="26"/>
+      <c r="K104" s="25"/>
       <c r="L104" s="28"/>
-      <c r="M104" s="26"/>
-      <c r="N104" s="27"/>
-      <c r="O104" s="26"/>
-      <c r="P104" s="27"/>
-      <c r="Q104" s="25"/>
-      <c r="R104" s="27"/>
+      <c r="M104" s="25"/>
+      <c r="N104" s="26"/>
+      <c r="O104" s="25"/>
+      <c r="P104" s="26"/>
+      <c r="Q104" s="24"/>
+      <c r="R104" s="26"/>
       <c r="T104" s="11">
         <v>35.508873000000001</v>
       </c>
@@ -4497,36 +4506,36 @@
       <c r="Y104" s="2"/>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A105" s="25" t="s">
+      <c r="A105" s="24" t="s">
         <v>32</v>
       </c>
       <c r="B105" s="2">
         <v>500</v>
       </c>
-      <c r="I105" s="24">
+      <c r="I105" s="27">
         <v>0</v>
       </c>
       <c r="J105" s="18">
         <v>3600</v>
       </c>
-      <c r="K105" s="26"/>
+      <c r="K105" s="25"/>
       <c r="L105" s="28"/>
-      <c r="M105" s="26">
+      <c r="M105" s="25">
         <v>0.219652082835287</v>
       </c>
-      <c r="N105" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O105" s="26">
+      <c r="N105" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O105" s="25">
         <v>0.145969617876444</v>
       </c>
-      <c r="P105" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q105" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R105" s="27" t="s">
+      <c r="P105" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q105" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R105" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T105" s="11">
@@ -4542,22 +4551,22 @@
       <c r="Y105" s="2"/>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
+      <c r="A106" s="24"/>
       <c r="B106" s="2">
         <v>1000</v>
       </c>
-      <c r="I106" s="24"/>
+      <c r="I106" s="27"/>
       <c r="J106" s="18">
         <v>3600</v>
       </c>
-      <c r="K106" s="26"/>
+      <c r="K106" s="25"/>
       <c r="L106" s="28"/>
-      <c r="M106" s="26"/>
-      <c r="N106" s="27"/>
-      <c r="O106" s="26"/>
-      <c r="P106" s="27"/>
-      <c r="Q106" s="25"/>
-      <c r="R106" s="27"/>
+      <c r="M106" s="25"/>
+      <c r="N106" s="26"/>
+      <c r="O106" s="25"/>
+      <c r="P106" s="26"/>
+      <c r="Q106" s="24"/>
+      <c r="R106" s="26"/>
       <c r="T106" s="11">
         <v>8.2311809999999994</v>
       </c>
@@ -4571,22 +4580,22 @@
       <c r="Y106" s="2"/>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
+      <c r="A107" s="24"/>
       <c r="B107" s="2">
         <v>2000</v>
       </c>
-      <c r="I107" s="24"/>
+      <c r="I107" s="27"/>
       <c r="J107" s="18">
         <v>3600</v>
       </c>
-      <c r="K107" s="26"/>
+      <c r="K107" s="25"/>
       <c r="L107" s="28"/>
-      <c r="M107" s="26"/>
-      <c r="N107" s="27"/>
-      <c r="O107" s="26"/>
-      <c r="P107" s="27"/>
-      <c r="Q107" s="25"/>
-      <c r="R107" s="27"/>
+      <c r="M107" s="25"/>
+      <c r="N107" s="26"/>
+      <c r="O107" s="25"/>
+      <c r="P107" s="26"/>
+      <c r="Q107" s="24"/>
+      <c r="R107" s="26"/>
       <c r="T107" s="11">
         <v>16.372955999999999</v>
       </c>
@@ -4600,22 +4609,22 @@
       <c r="Y107" s="2"/>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A108" s="25"/>
+      <c r="A108" s="24"/>
       <c r="B108" s="2">
         <v>5000</v>
       </c>
-      <c r="I108" s="24"/>
+      <c r="I108" s="27"/>
       <c r="J108" s="18">
         <v>3600</v>
       </c>
-      <c r="K108" s="26"/>
+      <c r="K108" s="25"/>
       <c r="L108" s="28"/>
-      <c r="M108" s="26"/>
-      <c r="N108" s="27"/>
-      <c r="O108" s="26"/>
-      <c r="P108" s="27"/>
-      <c r="Q108" s="25"/>
-      <c r="R108" s="27"/>
+      <c r="M108" s="25"/>
+      <c r="N108" s="26"/>
+      <c r="O108" s="25"/>
+      <c r="P108" s="26"/>
+      <c r="Q108" s="24"/>
+      <c r="R108" s="26"/>
       <c r="T108" s="11">
         <v>41.484876999999997</v>
       </c>
@@ -4629,36 +4638,36 @@
       <c r="Y108" s="2"/>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A109" s="25" t="s">
+      <c r="A109" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B109" s="2">
         <v>500</v>
       </c>
-      <c r="I109" s="24">
+      <c r="I109" s="27">
         <v>0</v>
       </c>
       <c r="J109" s="18">
         <v>3600</v>
       </c>
-      <c r="K109" s="26"/>
+      <c r="K109" s="25"/>
       <c r="L109" s="28"/>
-      <c r="M109" s="26">
+      <c r="M109" s="25">
         <v>0.27256493121848202</v>
       </c>
-      <c r="N109" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O109" s="26">
+      <c r="N109" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O109" s="25">
         <v>0.15719859527191099</v>
       </c>
-      <c r="P109" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q109" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R109" s="27" t="s">
+      <c r="P109" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q109" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R109" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T109" s="11">
@@ -4674,22 +4683,22 @@
       <c r="Y109" s="2"/>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
+      <c r="A110" s="24"/>
       <c r="B110" s="2">
         <v>1000</v>
       </c>
-      <c r="I110" s="24"/>
+      <c r="I110" s="27"/>
       <c r="J110" s="18">
         <v>3600</v>
       </c>
-      <c r="K110" s="26"/>
+      <c r="K110" s="25"/>
       <c r="L110" s="28"/>
-      <c r="M110" s="26"/>
-      <c r="N110" s="27"/>
-      <c r="O110" s="26"/>
-      <c r="P110" s="27"/>
-      <c r="Q110" s="25"/>
-      <c r="R110" s="27"/>
+      <c r="M110" s="25"/>
+      <c r="N110" s="26"/>
+      <c r="O110" s="25"/>
+      <c r="P110" s="26"/>
+      <c r="Q110" s="24"/>
+      <c r="R110" s="26"/>
       <c r="T110" s="11">
         <v>9.6713889999999996</v>
       </c>
@@ -4703,22 +4712,22 @@
       <c r="Y110" s="2"/>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
+      <c r="A111" s="24"/>
       <c r="B111" s="2">
         <v>2000</v>
       </c>
-      <c r="I111" s="24"/>
+      <c r="I111" s="27"/>
       <c r="J111" s="18">
         <v>3600</v>
       </c>
-      <c r="K111" s="26"/>
+      <c r="K111" s="25"/>
       <c r="L111" s="28"/>
-      <c r="M111" s="26"/>
-      <c r="N111" s="27"/>
-      <c r="O111" s="26"/>
-      <c r="P111" s="27"/>
-      <c r="Q111" s="25"/>
-      <c r="R111" s="27"/>
+      <c r="M111" s="25"/>
+      <c r="N111" s="26"/>
+      <c r="O111" s="25"/>
+      <c r="P111" s="26"/>
+      <c r="Q111" s="24"/>
+      <c r="R111" s="26"/>
       <c r="T111" s="11">
         <v>19.316754</v>
       </c>
@@ -4732,22 +4741,22 @@
       <c r="Y111" s="2"/>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
+      <c r="A112" s="24"/>
       <c r="B112" s="2">
         <v>5000</v>
       </c>
-      <c r="I112" s="24"/>
+      <c r="I112" s="27"/>
       <c r="J112" s="18">
         <v>3600</v>
       </c>
-      <c r="K112" s="26"/>
+      <c r="K112" s="25"/>
       <c r="L112" s="28"/>
-      <c r="M112" s="26"/>
-      <c r="N112" s="27"/>
-      <c r="O112" s="26"/>
-      <c r="P112" s="27"/>
-      <c r="Q112" s="25"/>
-      <c r="R112" s="27"/>
+      <c r="M112" s="25"/>
+      <c r="N112" s="26"/>
+      <c r="O112" s="25"/>
+      <c r="P112" s="26"/>
+      <c r="Q112" s="24"/>
+      <c r="R112" s="26"/>
       <c r="T112" s="11">
         <v>47.262852000000002</v>
       </c>
@@ -4761,36 +4770,36 @@
       <c r="Y112" s="2"/>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A113" s="25" t="s">
+      <c r="A113" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B113" s="2">
         <v>500</v>
       </c>
-      <c r="I113" s="24">
+      <c r="I113" s="27">
         <v>0</v>
       </c>
       <c r="J113" s="18">
         <v>3600</v>
       </c>
-      <c r="K113" s="26"/>
+      <c r="K113" s="25"/>
       <c r="L113" s="28"/>
-      <c r="M113" s="26">
+      <c r="M113" s="25">
         <v>6.2700060480871303E-2</v>
       </c>
-      <c r="N113" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O113" s="26">
+      <c r="N113" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O113" s="25">
         <v>3.09751238890398E-2</v>
       </c>
-      <c r="P113" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q113" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R113" s="27" t="s">
+      <c r="P113" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q113" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R113" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T113" s="11">
@@ -4806,22 +4815,22 @@
       <c r="Y113" s="2"/>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A114" s="25"/>
+      <c r="A114" s="24"/>
       <c r="B114" s="2">
         <v>1000</v>
       </c>
-      <c r="I114" s="24"/>
+      <c r="I114" s="27"/>
       <c r="J114" s="18">
         <v>3600</v>
       </c>
-      <c r="K114" s="26"/>
+      <c r="K114" s="25"/>
       <c r="L114" s="28"/>
-      <c r="M114" s="26"/>
-      <c r="N114" s="27"/>
-      <c r="O114" s="26"/>
-      <c r="P114" s="27"/>
-      <c r="Q114" s="25"/>
-      <c r="R114" s="27"/>
+      <c r="M114" s="25"/>
+      <c r="N114" s="26"/>
+      <c r="O114" s="25"/>
+      <c r="P114" s="26"/>
+      <c r="Q114" s="24"/>
+      <c r="R114" s="26"/>
       <c r="T114" s="11">
         <v>12.293174</v>
       </c>
@@ -4835,22 +4844,22 @@
       <c r="Y114" s="2"/>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
+      <c r="A115" s="24"/>
       <c r="B115" s="2">
         <v>2000</v>
       </c>
-      <c r="I115" s="24"/>
+      <c r="I115" s="27"/>
       <c r="J115" s="18">
         <v>3600</v>
       </c>
-      <c r="K115" s="26"/>
+      <c r="K115" s="25"/>
       <c r="L115" s="28"/>
-      <c r="M115" s="26"/>
-      <c r="N115" s="27"/>
-      <c r="O115" s="26"/>
-      <c r="P115" s="27"/>
-      <c r="Q115" s="25"/>
-      <c r="R115" s="27"/>
+      <c r="M115" s="25"/>
+      <c r="N115" s="26"/>
+      <c r="O115" s="25"/>
+      <c r="P115" s="26"/>
+      <c r="Q115" s="24"/>
+      <c r="R115" s="26"/>
       <c r="T115" s="11">
         <v>24.530194999999999</v>
       </c>
@@ -4864,22 +4873,22 @@
       <c r="Y115" s="2"/>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
+      <c r="A116" s="24"/>
       <c r="B116" s="2">
         <v>5000</v>
       </c>
-      <c r="I116" s="24"/>
+      <c r="I116" s="27"/>
       <c r="J116" s="18">
         <v>3600</v>
       </c>
-      <c r="K116" s="26"/>
+      <c r="K116" s="25"/>
       <c r="L116" s="28"/>
-      <c r="M116" s="26"/>
-      <c r="N116" s="27"/>
-      <c r="O116" s="26"/>
-      <c r="P116" s="27"/>
-      <c r="Q116" s="25"/>
-      <c r="R116" s="27"/>
+      <c r="M116" s="25"/>
+      <c r="N116" s="26"/>
+      <c r="O116" s="25"/>
+      <c r="P116" s="26"/>
+      <c r="Q116" s="24"/>
+      <c r="R116" s="26"/>
       <c r="T116" s="11">
         <v>61.224843</v>
       </c>
@@ -4893,36 +4902,36 @@
       <c r="Y116" s="2"/>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A117" s="25" t="s">
+      <c r="A117" s="24" t="s">
         <v>34</v>
       </c>
       <c r="B117" s="2">
         <v>500</v>
       </c>
-      <c r="I117" s="24">
+      <c r="I117" s="27">
         <v>0</v>
       </c>
       <c r="J117" s="18">
         <v>3600</v>
       </c>
-      <c r="K117" s="26"/>
+      <c r="K117" s="25"/>
       <c r="L117" s="28"/>
-      <c r="M117" s="26">
+      <c r="M117" s="25">
         <v>0.21402465142211599</v>
       </c>
-      <c r="N117" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="O117" s="26">
+      <c r="N117" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="O117" s="25">
         <v>0.16071994068421799</v>
       </c>
-      <c r="P117" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q117" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="R117" s="27" t="s">
+      <c r="P117" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q117" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="R117" s="26" t="s">
         <v>10</v>
       </c>
       <c r="T117" s="11">
@@ -4938,22 +4947,22 @@
       <c r="Y117" s="2"/>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
+      <c r="A118" s="24"/>
       <c r="B118" s="2">
         <v>1000</v>
       </c>
-      <c r="I118" s="24"/>
+      <c r="I118" s="27"/>
       <c r="J118" s="18">
         <v>3600</v>
       </c>
-      <c r="K118" s="26"/>
+      <c r="K118" s="25"/>
       <c r="L118" s="28"/>
-      <c r="M118" s="26"/>
-      <c r="N118" s="27"/>
-      <c r="O118" s="26"/>
-      <c r="P118" s="27"/>
-      <c r="Q118" s="25"/>
-      <c r="R118" s="27"/>
+      <c r="M118" s="25"/>
+      <c r="N118" s="26"/>
+      <c r="O118" s="25"/>
+      <c r="P118" s="26"/>
+      <c r="Q118" s="24"/>
+      <c r="R118" s="26"/>
       <c r="T118" s="11">
         <v>10.24381</v>
       </c>
@@ -4967,22 +4976,22 @@
       <c r="Y118" s="2"/>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+      <c r="A119" s="24"/>
       <c r="B119" s="2">
         <v>2000</v>
       </c>
-      <c r="I119" s="24"/>
+      <c r="I119" s="27"/>
       <c r="J119" s="18">
         <v>3600</v>
       </c>
-      <c r="K119" s="26"/>
+      <c r="K119" s="25"/>
       <c r="L119" s="28"/>
-      <c r="M119" s="26"/>
-      <c r="N119" s="27"/>
-      <c r="O119" s="26"/>
-      <c r="P119" s="27"/>
-      <c r="Q119" s="25"/>
-      <c r="R119" s="27"/>
+      <c r="M119" s="25"/>
+      <c r="N119" s="26"/>
+      <c r="O119" s="25"/>
+      <c r="P119" s="26"/>
+      <c r="Q119" s="24"/>
+      <c r="R119" s="26"/>
       <c r="T119" s="11">
         <v>20.481614</v>
       </c>
@@ -4996,22 +5005,22 @@
       <c r="Y119" s="2"/>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A120" s="25"/>
+      <c r="A120" s="24"/>
       <c r="B120" s="2">
         <v>5000</v>
       </c>
-      <c r="I120" s="24"/>
+      <c r="I120" s="27"/>
       <c r="J120" s="18">
         <v>3600</v>
       </c>
-      <c r="K120" s="26"/>
+      <c r="K120" s="25"/>
       <c r="L120" s="28"/>
-      <c r="M120" s="26"/>
-      <c r="N120" s="27"/>
-      <c r="O120" s="26"/>
-      <c r="P120" s="27"/>
-      <c r="Q120" s="25"/>
-      <c r="R120" s="27"/>
+      <c r="M120" s="25"/>
+      <c r="N120" s="26"/>
+      <c r="O120" s="25"/>
+      <c r="P120" s="26"/>
+      <c r="Q120" s="24"/>
+      <c r="R120" s="26"/>
       <c r="T120" s="11">
         <v>51.171509</v>
       </c>
@@ -5026,23 +5035,256 @@
     </row>
   </sheetData>
   <mergeCells count="291">
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="K19:K22"/>
-    <mergeCell ref="L19:L22"/>
-    <mergeCell ref="M19:M22"/>
-    <mergeCell ref="N19:N22"/>
-    <mergeCell ref="O19:O22"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="P3:P6"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="I57:I60"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="I66:I69"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="I80:I83"/>
+    <mergeCell ref="I84:I87"/>
+    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="BM1:BN1"/>
+    <mergeCell ref="BO1:BP1"/>
+    <mergeCell ref="BQ1:BR1"/>
+    <mergeCell ref="M117:M120"/>
+    <mergeCell ref="N117:N120"/>
+    <mergeCell ref="O117:O120"/>
+    <mergeCell ref="P117:P120"/>
+    <mergeCell ref="M109:M112"/>
+    <mergeCell ref="N109:N112"/>
+    <mergeCell ref="O109:O112"/>
+    <mergeCell ref="P109:P112"/>
+    <mergeCell ref="M113:M116"/>
+    <mergeCell ref="N113:N116"/>
+    <mergeCell ref="O113:O116"/>
+    <mergeCell ref="P113:P116"/>
+    <mergeCell ref="M101:M104"/>
+    <mergeCell ref="N101:N104"/>
+    <mergeCell ref="O101:O104"/>
+    <mergeCell ref="P101:P104"/>
+    <mergeCell ref="M105:M108"/>
+    <mergeCell ref="N105:N108"/>
+    <mergeCell ref="O105:O108"/>
+    <mergeCell ref="P105:P108"/>
+    <mergeCell ref="M93:M96"/>
+    <mergeCell ref="N93:N96"/>
+    <mergeCell ref="O93:O96"/>
+    <mergeCell ref="P93:P96"/>
+    <mergeCell ref="M97:M100"/>
+    <mergeCell ref="N97:N100"/>
+    <mergeCell ref="O97:O100"/>
+    <mergeCell ref="P97:P100"/>
+    <mergeCell ref="M84:M87"/>
+    <mergeCell ref="N84:N87"/>
+    <mergeCell ref="O84:O87"/>
+    <mergeCell ref="P84:P87"/>
+    <mergeCell ref="M89:M92"/>
+    <mergeCell ref="N89:N92"/>
+    <mergeCell ref="O89:O92"/>
+    <mergeCell ref="P89:P92"/>
+    <mergeCell ref="O76:O79"/>
+    <mergeCell ref="P76:P79"/>
+    <mergeCell ref="M80:M83"/>
+    <mergeCell ref="N80:N83"/>
+    <mergeCell ref="O80:O83"/>
+    <mergeCell ref="P80:P83"/>
+    <mergeCell ref="M66:M69"/>
+    <mergeCell ref="N66:N69"/>
+    <mergeCell ref="O66:O69"/>
+    <mergeCell ref="P66:P69"/>
+    <mergeCell ref="M71:M74"/>
+    <mergeCell ref="N71:N74"/>
+    <mergeCell ref="O71:O74"/>
+    <mergeCell ref="P71:P74"/>
+    <mergeCell ref="N57:N60"/>
+    <mergeCell ref="O57:O60"/>
+    <mergeCell ref="P57:P60"/>
+    <mergeCell ref="M61:M64"/>
+    <mergeCell ref="N61:N64"/>
+    <mergeCell ref="O61:O64"/>
+    <mergeCell ref="P61:P64"/>
+    <mergeCell ref="R105:R108"/>
+    <mergeCell ref="Q109:Q112"/>
+    <mergeCell ref="R109:R112"/>
+    <mergeCell ref="R71:R74"/>
+    <mergeCell ref="Q76:Q79"/>
+    <mergeCell ref="R76:R79"/>
+    <mergeCell ref="Q80:Q83"/>
+    <mergeCell ref="R80:R83"/>
+    <mergeCell ref="Q84:Q87"/>
+    <mergeCell ref="R84:R87"/>
+    <mergeCell ref="R57:R60"/>
+    <mergeCell ref="Q61:Q64"/>
+    <mergeCell ref="R61:R64"/>
+    <mergeCell ref="Q66:Q69"/>
+    <mergeCell ref="R66:R69"/>
+    <mergeCell ref="M76:M79"/>
+    <mergeCell ref="N76:N79"/>
+    <mergeCell ref="Q113:Q116"/>
+    <mergeCell ref="R113:R116"/>
+    <mergeCell ref="Q117:Q120"/>
+    <mergeCell ref="R117:R120"/>
+    <mergeCell ref="R89:R92"/>
+    <mergeCell ref="Q93:Q96"/>
+    <mergeCell ref="R93:R96"/>
+    <mergeCell ref="Q97:Q100"/>
+    <mergeCell ref="R97:R100"/>
+    <mergeCell ref="Q101:Q104"/>
+    <mergeCell ref="R101:R104"/>
+    <mergeCell ref="L109:L112"/>
+    <mergeCell ref="K113:K116"/>
+    <mergeCell ref="L113:L116"/>
+    <mergeCell ref="K117:K120"/>
+    <mergeCell ref="L117:L120"/>
+    <mergeCell ref="Q57:Q60"/>
+    <mergeCell ref="Q71:Q74"/>
+    <mergeCell ref="Q89:Q92"/>
+    <mergeCell ref="Q105:Q108"/>
+    <mergeCell ref="M57:M60"/>
+    <mergeCell ref="L93:L96"/>
+    <mergeCell ref="K97:K100"/>
+    <mergeCell ref="L97:L100"/>
+    <mergeCell ref="K101:K104"/>
+    <mergeCell ref="L101:L104"/>
+    <mergeCell ref="K105:K108"/>
+    <mergeCell ref="L105:L108"/>
+    <mergeCell ref="L76:L79"/>
+    <mergeCell ref="K80:K83"/>
+    <mergeCell ref="L80:L83"/>
+    <mergeCell ref="K84:K87"/>
+    <mergeCell ref="L84:L87"/>
+    <mergeCell ref="K89:K92"/>
+    <mergeCell ref="L89:L92"/>
+    <mergeCell ref="L57:L60"/>
+    <mergeCell ref="K61:K64"/>
+    <mergeCell ref="L61:L64"/>
+    <mergeCell ref="K66:K69"/>
+    <mergeCell ref="L66:L69"/>
+    <mergeCell ref="K71:K74"/>
+    <mergeCell ref="L71:L74"/>
+    <mergeCell ref="A101:A104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="I93:I96"/>
+    <mergeCell ref="I97:I100"/>
+    <mergeCell ref="I101:I104"/>
+    <mergeCell ref="I105:I108"/>
+    <mergeCell ref="A109:A112"/>
+    <mergeCell ref="A113:A116"/>
+    <mergeCell ref="A117:A120"/>
+    <mergeCell ref="K57:K60"/>
+    <mergeCell ref="K76:K79"/>
+    <mergeCell ref="K93:K96"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="A76:A79"/>
+    <mergeCell ref="A80:A83"/>
+    <mergeCell ref="A84:A87"/>
+    <mergeCell ref="A89:A92"/>
+    <mergeCell ref="A93:A96"/>
+    <mergeCell ref="A97:A100"/>
+    <mergeCell ref="I109:I112"/>
+    <mergeCell ref="I113:I116"/>
+    <mergeCell ref="I117:I120"/>
+    <mergeCell ref="K48:K51"/>
+    <mergeCell ref="K52:K55"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="A61:A64"/>
+    <mergeCell ref="A66:A69"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="K24:K27"/>
+    <mergeCell ref="K28:K31"/>
+    <mergeCell ref="K32:K35"/>
+    <mergeCell ref="K36:K39"/>
+    <mergeCell ref="K40:K43"/>
+    <mergeCell ref="K44:K47"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="A48:A51"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A40:A43"/>
+    <mergeCell ref="I24:I27"/>
+    <mergeCell ref="I28:I31"/>
+    <mergeCell ref="I32:I35"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="R48:R51"/>
+    <mergeCell ref="L52:L55"/>
+    <mergeCell ref="M52:M55"/>
+    <mergeCell ref="N52:N55"/>
+    <mergeCell ref="O52:O55"/>
+    <mergeCell ref="P52:P55"/>
+    <mergeCell ref="Q52:Q55"/>
+    <mergeCell ref="R52:R55"/>
+    <mergeCell ref="L48:L51"/>
+    <mergeCell ref="M48:M51"/>
+    <mergeCell ref="N48:N51"/>
+    <mergeCell ref="O48:O51"/>
+    <mergeCell ref="P48:P51"/>
+    <mergeCell ref="Q48:Q51"/>
+    <mergeCell ref="R40:R43"/>
+    <mergeCell ref="L44:L47"/>
+    <mergeCell ref="M44:M47"/>
+    <mergeCell ref="N44:N47"/>
+    <mergeCell ref="O44:O47"/>
+    <mergeCell ref="P44:P47"/>
+    <mergeCell ref="Q44:Q47"/>
+    <mergeCell ref="R44:R47"/>
+    <mergeCell ref="L40:L43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="N40:N43"/>
+    <mergeCell ref="O40:O43"/>
+    <mergeCell ref="P40:P43"/>
+    <mergeCell ref="Q40:Q43"/>
+    <mergeCell ref="R32:R35"/>
+    <mergeCell ref="L36:L39"/>
+    <mergeCell ref="M36:M39"/>
+    <mergeCell ref="N36:N39"/>
+    <mergeCell ref="O36:O39"/>
+    <mergeCell ref="P36:P39"/>
+    <mergeCell ref="Q36:Q39"/>
+    <mergeCell ref="R36:R39"/>
+    <mergeCell ref="L32:L35"/>
+    <mergeCell ref="M32:M35"/>
+    <mergeCell ref="N32:N35"/>
+    <mergeCell ref="O32:O35"/>
+    <mergeCell ref="P32:P35"/>
+    <mergeCell ref="Q32:Q35"/>
+    <mergeCell ref="R24:R27"/>
+    <mergeCell ref="L28:L31"/>
+    <mergeCell ref="M28:M31"/>
+    <mergeCell ref="N28:N31"/>
+    <mergeCell ref="O28:O31"/>
+    <mergeCell ref="P28:P31"/>
+    <mergeCell ref="Q28:Q31"/>
+    <mergeCell ref="R28:R31"/>
+    <mergeCell ref="Q15:Q18"/>
+    <mergeCell ref="R15:R18"/>
+    <mergeCell ref="L24:L27"/>
+    <mergeCell ref="M24:M27"/>
+    <mergeCell ref="N24:N27"/>
+    <mergeCell ref="O24:O27"/>
+    <mergeCell ref="P24:P27"/>
+    <mergeCell ref="Q24:Q27"/>
+    <mergeCell ref="Q19:Q22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q11:Q14"/>
+    <mergeCell ref="R11:R14"/>
+    <mergeCell ref="K15:K18"/>
+    <mergeCell ref="L15:L18"/>
+    <mergeCell ref="M15:M18"/>
+    <mergeCell ref="N15:N18"/>
+    <mergeCell ref="O15:O18"/>
+    <mergeCell ref="P15:P18"/>
+    <mergeCell ref="Q7:Q10"/>
+    <mergeCell ref="R7:R10"/>
+    <mergeCell ref="K11:K14"/>
+    <mergeCell ref="L11:L14"/>
+    <mergeCell ref="M11:M14"/>
+    <mergeCell ref="N11:N14"/>
+    <mergeCell ref="O11:O14"/>
+    <mergeCell ref="P11:P14"/>
     <mergeCell ref="O1:P1"/>
     <mergeCell ref="Q1:R1"/>
     <mergeCell ref="A24:A27"/>
@@ -5067,256 +5309,23 @@
     <mergeCell ref="M3:M6"/>
     <mergeCell ref="N3:N6"/>
     <mergeCell ref="O3:O6"/>
-    <mergeCell ref="Q11:Q14"/>
-    <mergeCell ref="R11:R14"/>
-    <mergeCell ref="K15:K18"/>
-    <mergeCell ref="L15:L18"/>
-    <mergeCell ref="M15:M18"/>
-    <mergeCell ref="N15:N18"/>
-    <mergeCell ref="O15:O18"/>
-    <mergeCell ref="P15:P18"/>
-    <mergeCell ref="Q7:Q10"/>
-    <mergeCell ref="R7:R10"/>
-    <mergeCell ref="K11:K14"/>
-    <mergeCell ref="L11:L14"/>
-    <mergeCell ref="M11:M14"/>
-    <mergeCell ref="N11:N14"/>
-    <mergeCell ref="O11:O14"/>
-    <mergeCell ref="P11:P14"/>
-    <mergeCell ref="R24:R27"/>
-    <mergeCell ref="L28:L31"/>
-    <mergeCell ref="M28:M31"/>
-    <mergeCell ref="N28:N31"/>
-    <mergeCell ref="O28:O31"/>
-    <mergeCell ref="P28:P31"/>
-    <mergeCell ref="Q28:Q31"/>
-    <mergeCell ref="R28:R31"/>
-    <mergeCell ref="Q15:Q18"/>
-    <mergeCell ref="R15:R18"/>
-    <mergeCell ref="L24:L27"/>
-    <mergeCell ref="M24:M27"/>
-    <mergeCell ref="N24:N27"/>
-    <mergeCell ref="O24:O27"/>
-    <mergeCell ref="P24:P27"/>
-    <mergeCell ref="Q24:Q27"/>
-    <mergeCell ref="Q19:Q22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="R32:R35"/>
-    <mergeCell ref="L36:L39"/>
-    <mergeCell ref="M36:M39"/>
-    <mergeCell ref="N36:N39"/>
-    <mergeCell ref="O36:O39"/>
-    <mergeCell ref="P36:P39"/>
-    <mergeCell ref="Q36:Q39"/>
-    <mergeCell ref="R36:R39"/>
-    <mergeCell ref="L32:L35"/>
-    <mergeCell ref="M32:M35"/>
-    <mergeCell ref="N32:N35"/>
-    <mergeCell ref="O32:O35"/>
-    <mergeCell ref="P32:P35"/>
-    <mergeCell ref="Q32:Q35"/>
-    <mergeCell ref="R40:R43"/>
-    <mergeCell ref="L44:L47"/>
-    <mergeCell ref="M44:M47"/>
-    <mergeCell ref="N44:N47"/>
-    <mergeCell ref="O44:O47"/>
-    <mergeCell ref="P44:P47"/>
-    <mergeCell ref="Q44:Q47"/>
-    <mergeCell ref="R44:R47"/>
-    <mergeCell ref="L40:L43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="N40:N43"/>
-    <mergeCell ref="O40:O43"/>
-    <mergeCell ref="P40:P43"/>
-    <mergeCell ref="Q40:Q43"/>
-    <mergeCell ref="R48:R51"/>
-    <mergeCell ref="L52:L55"/>
-    <mergeCell ref="M52:M55"/>
-    <mergeCell ref="N52:N55"/>
-    <mergeCell ref="O52:O55"/>
-    <mergeCell ref="P52:P55"/>
-    <mergeCell ref="Q52:Q55"/>
-    <mergeCell ref="R52:R55"/>
-    <mergeCell ref="L48:L51"/>
-    <mergeCell ref="M48:M51"/>
-    <mergeCell ref="N48:N51"/>
-    <mergeCell ref="O48:O51"/>
-    <mergeCell ref="P48:P51"/>
-    <mergeCell ref="Q48:Q51"/>
-    <mergeCell ref="K48:K51"/>
-    <mergeCell ref="K52:K55"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="A61:A64"/>
-    <mergeCell ref="A66:A69"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="K24:K27"/>
-    <mergeCell ref="K28:K31"/>
-    <mergeCell ref="K32:K35"/>
-    <mergeCell ref="K36:K39"/>
-    <mergeCell ref="K40:K43"/>
-    <mergeCell ref="K44:K47"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="A48:A51"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A40:A43"/>
-    <mergeCell ref="I24:I27"/>
-    <mergeCell ref="I28:I31"/>
-    <mergeCell ref="I32:I35"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="I48:I51"/>
-    <mergeCell ref="A109:A112"/>
-    <mergeCell ref="A113:A116"/>
-    <mergeCell ref="A117:A120"/>
-    <mergeCell ref="K57:K60"/>
-    <mergeCell ref="K76:K79"/>
-    <mergeCell ref="K93:K96"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="A76:A79"/>
-    <mergeCell ref="A80:A83"/>
-    <mergeCell ref="A84:A87"/>
-    <mergeCell ref="A89:A92"/>
-    <mergeCell ref="A93:A96"/>
-    <mergeCell ref="A97:A100"/>
-    <mergeCell ref="I109:I112"/>
-    <mergeCell ref="I113:I116"/>
-    <mergeCell ref="I117:I120"/>
-    <mergeCell ref="L57:L60"/>
-    <mergeCell ref="K61:K64"/>
-    <mergeCell ref="L61:L64"/>
-    <mergeCell ref="K66:K69"/>
-    <mergeCell ref="L66:L69"/>
-    <mergeCell ref="K71:K74"/>
-    <mergeCell ref="L71:L74"/>
-    <mergeCell ref="A101:A104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="I93:I96"/>
-    <mergeCell ref="I97:I100"/>
-    <mergeCell ref="I101:I104"/>
-    <mergeCell ref="I105:I108"/>
-    <mergeCell ref="L109:L112"/>
-    <mergeCell ref="K113:K116"/>
-    <mergeCell ref="L113:L116"/>
-    <mergeCell ref="K117:K120"/>
-    <mergeCell ref="L117:L120"/>
-    <mergeCell ref="Q57:Q60"/>
-    <mergeCell ref="Q71:Q74"/>
-    <mergeCell ref="Q89:Q92"/>
-    <mergeCell ref="Q105:Q108"/>
-    <mergeCell ref="M57:M60"/>
-    <mergeCell ref="L93:L96"/>
-    <mergeCell ref="K97:K100"/>
-    <mergeCell ref="L97:L100"/>
-    <mergeCell ref="K101:K104"/>
-    <mergeCell ref="L101:L104"/>
-    <mergeCell ref="K105:K108"/>
-    <mergeCell ref="L105:L108"/>
-    <mergeCell ref="L76:L79"/>
-    <mergeCell ref="K80:K83"/>
-    <mergeCell ref="L80:L83"/>
-    <mergeCell ref="K84:K87"/>
-    <mergeCell ref="L84:L87"/>
-    <mergeCell ref="K89:K92"/>
-    <mergeCell ref="L89:L92"/>
-    <mergeCell ref="Q113:Q116"/>
-    <mergeCell ref="R113:R116"/>
-    <mergeCell ref="Q117:Q120"/>
-    <mergeCell ref="R117:R120"/>
-    <mergeCell ref="R89:R92"/>
-    <mergeCell ref="Q93:Q96"/>
-    <mergeCell ref="R93:R96"/>
-    <mergeCell ref="Q97:Q100"/>
-    <mergeCell ref="R97:R100"/>
-    <mergeCell ref="Q101:Q104"/>
-    <mergeCell ref="R101:R104"/>
-    <mergeCell ref="N57:N60"/>
-    <mergeCell ref="O57:O60"/>
-    <mergeCell ref="P57:P60"/>
-    <mergeCell ref="M61:M64"/>
-    <mergeCell ref="N61:N64"/>
-    <mergeCell ref="O61:O64"/>
-    <mergeCell ref="P61:P64"/>
-    <mergeCell ref="R105:R108"/>
-    <mergeCell ref="Q109:Q112"/>
-    <mergeCell ref="R109:R112"/>
-    <mergeCell ref="R71:R74"/>
-    <mergeCell ref="Q76:Q79"/>
-    <mergeCell ref="R76:R79"/>
-    <mergeCell ref="Q80:Q83"/>
-    <mergeCell ref="R80:R83"/>
-    <mergeCell ref="Q84:Q87"/>
-    <mergeCell ref="R84:R87"/>
-    <mergeCell ref="R57:R60"/>
-    <mergeCell ref="Q61:Q64"/>
-    <mergeCell ref="R61:R64"/>
-    <mergeCell ref="Q66:Q69"/>
-    <mergeCell ref="R66:R69"/>
-    <mergeCell ref="M76:M79"/>
-    <mergeCell ref="N76:N79"/>
-    <mergeCell ref="O76:O79"/>
-    <mergeCell ref="P76:P79"/>
-    <mergeCell ref="M80:M83"/>
-    <mergeCell ref="N80:N83"/>
-    <mergeCell ref="O80:O83"/>
-    <mergeCell ref="P80:P83"/>
-    <mergeCell ref="M66:M69"/>
-    <mergeCell ref="N66:N69"/>
-    <mergeCell ref="O66:O69"/>
-    <mergeCell ref="P66:P69"/>
-    <mergeCell ref="M71:M74"/>
-    <mergeCell ref="N71:N74"/>
-    <mergeCell ref="O71:O74"/>
-    <mergeCell ref="P71:P74"/>
-    <mergeCell ref="N93:N96"/>
-    <mergeCell ref="O93:O96"/>
-    <mergeCell ref="P93:P96"/>
-    <mergeCell ref="M97:M100"/>
-    <mergeCell ref="N97:N100"/>
-    <mergeCell ref="O97:O100"/>
-    <mergeCell ref="P97:P100"/>
-    <mergeCell ref="M84:M87"/>
-    <mergeCell ref="N84:N87"/>
-    <mergeCell ref="O84:O87"/>
-    <mergeCell ref="P84:P87"/>
-    <mergeCell ref="M89:M92"/>
-    <mergeCell ref="N89:N92"/>
-    <mergeCell ref="O89:O92"/>
-    <mergeCell ref="P89:P92"/>
-    <mergeCell ref="BM1:BN1"/>
-    <mergeCell ref="BO1:BP1"/>
-    <mergeCell ref="BQ1:BR1"/>
-    <mergeCell ref="M117:M120"/>
-    <mergeCell ref="N117:N120"/>
-    <mergeCell ref="O117:O120"/>
-    <mergeCell ref="P117:P120"/>
-    <mergeCell ref="M109:M112"/>
-    <mergeCell ref="N109:N112"/>
-    <mergeCell ref="O109:O112"/>
-    <mergeCell ref="P109:P112"/>
-    <mergeCell ref="M113:M116"/>
-    <mergeCell ref="N113:N116"/>
-    <mergeCell ref="O113:O116"/>
-    <mergeCell ref="P113:P116"/>
-    <mergeCell ref="M101:M104"/>
-    <mergeCell ref="N101:N104"/>
-    <mergeCell ref="O101:O104"/>
-    <mergeCell ref="P101:P104"/>
-    <mergeCell ref="M105:M108"/>
-    <mergeCell ref="N105:N108"/>
-    <mergeCell ref="O105:O108"/>
-    <mergeCell ref="P105:P108"/>
-    <mergeCell ref="M93:M96"/>
-    <mergeCell ref="I52:I55"/>
-    <mergeCell ref="I57:I60"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="I66:I69"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I76:I79"/>
-    <mergeCell ref="I80:I83"/>
-    <mergeCell ref="I84:I87"/>
-    <mergeCell ref="I89:I92"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="K19:K22"/>
+    <mergeCell ref="L19:L22"/>
+    <mergeCell ref="M19:M22"/>
+    <mergeCell ref="N19:N22"/>
+    <mergeCell ref="O19:O22"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="P3:P6"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I11:I14"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -273,6 +273,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,13 +300,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>32397</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>140979</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -609,10 +612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA91"/>
+  <dimension ref="A1:AA92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,99 +625,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="15"/>
-      <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="15"/>
-      <c r="X1" s="15"/>
-      <c r="Y1" s="15"/>
-      <c r="Z1" s="15"/>
-      <c r="AA1" s="15"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="15"/>
-      <c r="P2" s="15" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="15"/>
-      <c r="Z2" s="15" t="s">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="15"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="15"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1167,101 +1170,101 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-      <c r="R12" s="15" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="15"/>
-      <c r="T12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-      <c r="X12" s="15" t="s">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="15"/>
-      <c r="Z12" s="15" t="s">
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="15"/>
+      <c r="AA12" s="16"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="15"/>
-      <c r="R13" s="15" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="15"/>
-      <c r="T13" s="15" t="s">
+      <c r="S13" s="16"/>
+      <c r="T13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15" t="s">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="15" t="s">
+      <c r="W13" s="16"/>
+      <c r="X13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="15"/>
-      <c r="Z13" s="15" t="s">
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="15"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -1682,40 +1685,40 @@
       <c r="AA22" s="12"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="15"/>
-      <c r="H27" s="15" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="15"/>
-      <c r="J27" s="15" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15" t="s">
+      <c r="K27" s="16"/>
+      <c r="L27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="15"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -1916,26 +1919,26 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15" t="s">
+      <c r="D37" s="16"/>
+      <c r="E37" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15" t="s">
+      <c r="F37" s="16"/>
+      <c r="G37" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="15"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
       <c r="C38" s="1" t="s">
         <v>15</v>
       </c>
@@ -1956,7 +1959,7 @@
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B39" s="3">
@@ -1970,21 +1973,21 @@
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="3">
+      <c r="A40" s="16"/>
+      <c r="B40" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="8"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="3">
         <v>2000</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="2"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="3">
-        <v>5000</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="2"/>
@@ -1993,33 +1996,31 @@
       <c r="G41" s="10"/>
       <c r="H41" s="2"/>
     </row>
-    <row r="70" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P70" s="9"/>
-      <c r="Q70" s="8"/>
-      <c r="R70" s="9"/>
-      <c r="S70" s="8"/>
-      <c r="T70" s="9"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="9"/>
-      <c r="W70" s="8"/>
-      <c r="X70" s="9"/>
-      <c r="Y70" s="8"/>
-      <c r="Z70" s="9"/>
-      <c r="AA70" s="8"/>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="2"/>
     </row>
     <row r="71" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P71" s="10"/>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="6"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="6"/>
-      <c r="V71" s="10"/>
-      <c r="W71" s="6"/>
-      <c r="X71" s="10"/>
-      <c r="Y71" s="5"/>
-      <c r="Z71" s="10"/>
-      <c r="AA71" s="6"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="8"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="8"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="8"/>
+      <c r="V71" s="9"/>
+      <c r="W71" s="8"/>
+      <c r="X71" s="9"/>
+      <c r="Y71" s="8"/>
+      <c r="Z71" s="9"/>
+      <c r="AA71" s="8"/>
     </row>
     <row r="72" spans="16:27" x14ac:dyDescent="0.25">
       <c r="P72" s="10"/>
@@ -2260,17 +2261,17 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P89" s="4"/>
+      <c r="P89" s="10"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="4"/>
+      <c r="R89" s="10"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="4"/>
+      <c r="T89" s="10"/>
       <c r="U89" s="6"/>
-      <c r="V89" s="4"/>
+      <c r="V89" s="10"/>
       <c r="W89" s="6"/>
-      <c r="X89" s="4"/>
+      <c r="X89" s="10"/>
       <c r="Y89" s="5"/>
-      <c r="Z89" s="4"/>
+      <c r="Z89" s="10"/>
       <c r="AA89" s="6"/>
     </row>
     <row r="90" spans="16:27" x14ac:dyDescent="0.25">
@@ -2288,6 +2289,10 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="P91" s="4"/>
+      <c r="Q91" s="6"/>
+      <c r="R91" s="4"/>
+      <c r="S91" s="6"/>
       <c r="T91" s="4"/>
       <c r="U91" s="6"/>
       <c r="V91" s="4"/>
@@ -2297,35 +2302,23 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="6"/>
     </row>
+    <row r="92" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="T92" s="4"/>
+      <c r="U92" s="6"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="6"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="5"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="6"/>
+    </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A37:B38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="A39:A42"/>
     <mergeCell ref="R12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="Z12:AA12"/>
@@ -2342,11 +2335,33 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
   <si>
     <t>Methods</t>
   </si>
@@ -230,7 +230,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -276,6 +276,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -299,15 +305,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>32397</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>140979</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>594372</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>102879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -336,7 +342,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="47625" y="10229850"/>
+          <a:off x="0" y="14763750"/>
           <a:ext cx="5852172" cy="4389129"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -612,10 +618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA92"/>
+  <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,99 +631,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="16"/>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16" t="s">
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16"/>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+      <c r="Z1" s="17"/>
+      <c r="AA1" s="17"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16" t="s">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="17"/>
+      <c r="D2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16" t="s">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16" t="s">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="17"/>
+      <c r="N2" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16" t="s">
+      <c r="O2" s="17"/>
+      <c r="P2" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16" t="s">
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16" t="s">
+      <c r="S2" s="17"/>
+      <c r="T2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16" t="s">
+      <c r="U2" s="17"/>
+      <c r="V2" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
+      <c r="W2" s="17"/>
+      <c r="X2" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16" t="s">
+      <c r="Y2" s="17"/>
+      <c r="Z2" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="16"/>
+      <c r="AA2" s="17"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="16"/>
+      <c r="A3" s="17"/>
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1170,101 +1176,101 @@
       <c r="AA11" s="8"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
-      <c r="X12" s="16" t="s">
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="16"/>
-      <c r="Z12" s="16" t="s">
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="16"/>
+      <c r="AA12" s="17"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16" t="s">
+      <c r="G13" s="17"/>
+      <c r="H13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16" t="s">
+      <c r="I13" s="17"/>
+      <c r="J13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16" t="s">
+      <c r="K13" s="17"/>
+      <c r="L13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16" t="s">
+      <c r="M13" s="17"/>
+      <c r="N13" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16" t="s">
+      <c r="O13" s="17"/>
+      <c r="P13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16" t="s">
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16" t="s">
+      <c r="S13" s="17"/>
+      <c r="T13" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16" t="s">
+      <c r="U13" s="17"/>
+      <c r="V13" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16" t="s">
+      <c r="W13" s="17"/>
+      <c r="X13" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16" t="s">
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="16"/>
+      <c r="AA13" s="17"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -1685,40 +1691,40 @@
       <c r="AA22" s="12"/>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16" t="s">
+      <c r="C27" s="17"/>
+      <c r="D27" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16" t="s">
+      <c r="E27" s="17"/>
+      <c r="F27" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16" t="s">
+      <c r="G27" s="17"/>
+      <c r="H27" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16" t="s">
+      <c r="I27" s="17"/>
+      <c r="J27" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16" t="s">
+      <c r="K27" s="17"/>
+      <c r="L27" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16" t="s">
+      <c r="M27" s="17"/>
+      <c r="N27" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="16"/>
+      <c r="O27" s="17"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="16"/>
+      <c r="A28" s="17"/>
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -1919,110 +1925,219 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G37" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="10">
+        <v>0.223</v>
+      </c>
+      <c r="D38" s="10"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39" s="17"/>
+      <c r="B39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D39" s="10"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41" s="17"/>
+      <c r="B41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="D42" s="10"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43" s="17"/>
+      <c r="B43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="8">
+        <v>0.435</v>
+      </c>
+      <c r="D43" s="10"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45" s="17"/>
+      <c r="B45" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47" s="17"/>
+      <c r="B47" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="17"/>
+      <c r="B49" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="17"/>
+      <c r="B51" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I70" s="18"/>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I71" s="8"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="8"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="8"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="8"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="6"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="6"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="6"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="5"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="6"/>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="16" t="s">
+      <c r="B72" s="17"/>
+      <c r="C72" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16" t="s">
+      <c r="D72" s="17"/>
+      <c r="E72" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16" t="s">
+      <c r="F72" s="17"/>
+      <c r="G72" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="H37" s="16"/>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="16"/>
-      <c r="C38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" s="3">
-        <v>500</v>
-      </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="2"/>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="16"/>
-      <c r="B40" s="15">
-        <v>1000</v>
-      </c>
-      <c r="C40" s="10"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="16"/>
-      <c r="B41" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C41" s="10"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="2"/>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="16"/>
-      <c r="B42" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="2"/>
-    </row>
-    <row r="71" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P71" s="9"/>
-      <c r="Q71" s="8"/>
-      <c r="R71" s="9"/>
-      <c r="S71" s="8"/>
-      <c r="T71" s="9"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="9"/>
-      <c r="W71" s="8"/>
-      <c r="X71" s="9"/>
-      <c r="Y71" s="8"/>
-      <c r="Z71" s="9"/>
-      <c r="AA71" s="8"/>
-    </row>
-    <row r="72" spans="16:27" x14ac:dyDescent="0.25">
+      <c r="H72" s="17"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="8"/>
       <c r="P72" s="10"/>
       <c r="Q72" s="6"/>
       <c r="R72" s="10"/>
@@ -2036,7 +2151,34 @@
       <c r="Z72" s="10"/>
       <c r="AA72" s="6"/>
     </row>
-    <row r="73" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="8"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="8"/>
       <c r="P73" s="10"/>
       <c r="Q73" s="6"/>
       <c r="R73" s="10"/>
@@ -2050,7 +2192,26 @@
       <c r="Z73" s="10"/>
       <c r="AA73" s="6"/>
     </row>
-    <row r="74" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B74" s="3">
+        <v>500</v>
+      </c>
+      <c r="C74" s="10"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="10"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="8"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="8"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="8"/>
       <c r="P74" s="10"/>
       <c r="Q74" s="6"/>
       <c r="R74" s="10"/>
@@ -2064,7 +2225,24 @@
       <c r="Z74" s="10"/>
       <c r="AA74" s="6"/>
     </row>
-    <row r="75" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75" s="17"/>
+      <c r="B75" s="15">
+        <v>1000</v>
+      </c>
+      <c r="C75" s="10"/>
+      <c r="D75" s="8"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="8"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="8"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="8"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="10"/>
@@ -2078,7 +2256,24 @@
       <c r="Z75" s="10"/>
       <c r="AA75" s="6"/>
     </row>
-    <row r="76" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76" s="17"/>
+      <c r="B76" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C76" s="10"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="10"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="8"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="8"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="8"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="10"/>
@@ -2092,7 +2287,17 @@
       <c r="Z76" s="10"/>
       <c r="AA76" s="6"/>
     </row>
-    <row r="77" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77" s="17"/>
+      <c r="B77" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C77" s="10"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="10"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="2"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="10"/>
@@ -2106,7 +2311,7 @@
       <c r="Z77" s="10"/>
       <c r="AA77" s="6"/>
     </row>
-    <row r="78" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P78" s="10"/>
       <c r="Q78" s="6"/>
       <c r="R78" s="10"/>
@@ -2120,7 +2325,7 @@
       <c r="Z78" s="10"/>
       <c r="AA78" s="6"/>
     </row>
-    <row r="79" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P79" s="10"/>
       <c r="Q79" s="6"/>
       <c r="R79" s="10"/>
@@ -2134,7 +2339,7 @@
       <c r="Z79" s="10"/>
       <c r="AA79" s="6"/>
     </row>
-    <row r="80" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P80" s="10"/>
       <c r="Q80" s="6"/>
       <c r="R80" s="10"/>
@@ -2148,7 +2353,7 @@
       <c r="Z80" s="10"/>
       <c r="AA80" s="6"/>
     </row>
-    <row r="81" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P81" s="10"/>
       <c r="Q81" s="6"/>
       <c r="R81" s="10"/>
@@ -2162,7 +2367,7 @@
       <c r="Z81" s="10"/>
       <c r="AA81" s="6"/>
     </row>
-    <row r="82" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P82" s="10"/>
       <c r="Q82" s="6"/>
       <c r="R82" s="10"/>
@@ -2176,7 +2381,7 @@
       <c r="Z82" s="10"/>
       <c r="AA82" s="6"/>
     </row>
-    <row r="83" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P83" s="10"/>
       <c r="Q83" s="6"/>
       <c r="R83" s="10"/>
@@ -2190,7 +2395,7 @@
       <c r="Z83" s="10"/>
       <c r="AA83" s="6"/>
     </row>
-    <row r="84" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P84" s="10"/>
       <c r="Q84" s="6"/>
       <c r="R84" s="10"/>
@@ -2204,7 +2409,7 @@
       <c r="Z84" s="10"/>
       <c r="AA84" s="6"/>
     </row>
-    <row r="85" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P85" s="10"/>
       <c r="Q85" s="6"/>
       <c r="R85" s="10"/>
@@ -2218,7 +2423,7 @@
       <c r="Z85" s="10"/>
       <c r="AA85" s="6"/>
     </row>
-    <row r="86" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P86" s="10"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="10"/>
@@ -2232,7 +2437,7 @@
       <c r="Z86" s="10"/>
       <c r="AA86" s="6"/>
     </row>
-    <row r="87" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="P87" s="10"/>
       <c r="Q87" s="6"/>
       <c r="R87" s="10"/>
@@ -2246,7 +2451,22 @@
       <c r="Z87" s="10"/>
       <c r="AA87" s="6"/>
     </row>
-    <row r="88" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
+      <c r="H88" s="17"/>
+      <c r="I88" s="17"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="17"/>
+      <c r="L88" s="17"/>
+      <c r="M88" s="17"/>
+      <c r="N88" s="17"/>
+      <c r="O88" s="17"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="10"/>
@@ -2260,21 +2480,51 @@
       <c r="Z88" s="10"/>
       <c r="AA88" s="6"/>
     </row>
-    <row r="89" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P89" s="10"/>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89" s="17"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="8"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="8"/>
+      <c r="L89" s="9"/>
+      <c r="M89" s="8"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="8"/>
+      <c r="P89" s="4"/>
       <c r="Q89" s="6"/>
-      <c r="R89" s="10"/>
+      <c r="R89" s="4"/>
       <c r="S89" s="6"/>
-      <c r="T89" s="10"/>
+      <c r="T89" s="4"/>
       <c r="U89" s="6"/>
-      <c r="V89" s="10"/>
+      <c r="V89" s="4"/>
       <c r="W89" s="6"/>
-      <c r="X89" s="10"/>
+      <c r="X89" s="4"/>
       <c r="Y89" s="5"/>
-      <c r="Z89" s="10"/>
+      <c r="Z89" s="4"/>
       <c r="AA89" s="6"/>
     </row>
-    <row r="90" spans="16:27" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90" s="16"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="8"/>
+      <c r="F90" s="10"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="8"/>
       <c r="P90" s="4"/>
       <c r="Q90" s="6"/>
       <c r="R90" s="4"/>
@@ -2288,11 +2538,22 @@
       <c r="Z90" s="4"/>
       <c r="AA90" s="6"/>
     </row>
-    <row r="91" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="P91" s="4"/>
-      <c r="Q91" s="6"/>
-      <c r="R91" s="4"/>
-      <c r="S91" s="6"/>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="8"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="8"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="8"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="8"/>
       <c r="T91" s="4"/>
       <c r="U91" s="6"/>
       <c r="V91" s="4"/>
@@ -2302,23 +2563,119 @@
       <c r="Z91" s="4"/>
       <c r="AA91" s="6"/>
     </row>
-    <row r="92" spans="16:27" x14ac:dyDescent="0.25">
-      <c r="T92" s="4"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="4"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="4"/>
-      <c r="Y92" s="5"/>
-      <c r="Z92" s="4"/>
-      <c r="AA92" s="6"/>
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A92" s="16"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="10"/>
+      <c r="E92" s="8"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="8"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="8"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="8"/>
+    </row>
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="8"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="8"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="8"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="8"/>
+    </row>
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="10"/>
+      <c r="E94" s="8"/>
+      <c r="F94" s="10"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="8"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="8"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="8"/>
+    </row>
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A95" s="9"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="10"/>
+      <c r="E95" s="8"/>
+      <c r="F95" s="10"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="8"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="8"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="48">
-    <mergeCell ref="A37:B38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="E37:F37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="A39:A42"/>
+  <mergeCells count="64">
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="Z12:AA12"/>
@@ -2335,33 +2692,11 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A74:A77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D97E1-CCEC-4663-8F1B-2560380A2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -230,7 +231,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,12 +266,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -282,12 +278,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="22">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -617,11 +771,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:H77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,99 +785,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17" t="s">
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16"/>
+      <c r="Z1" s="16"/>
+      <c r="AA1" s="16"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="16"/>
+      <c r="D2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="16"/>
+      <c r="H2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="16"/>
+      <c r="J2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="16"/>
+      <c r="L2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="16"/>
+      <c r="N2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="16"/>
+      <c r="P2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="16"/>
+      <c r="T2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17" t="s">
+      <c r="U2" s="16"/>
+      <c r="V2" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17" t="s">
+      <c r="W2" s="16"/>
+      <c r="X2" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="Y2" s="16"/>
+      <c r="Z2" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="17"/>
+      <c r="AA2" s="16"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="16"/>
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
@@ -930,15 +1084,21 @@
       <c r="U5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V5" s="10"/>
+      <c r="V5" s="10">
+        <v>0.29090909090909001</v>
+      </c>
       <c r="W5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X5" s="10"/>
+      <c r="X5" s="10">
+        <v>0.227956989247311</v>
+      </c>
       <c r="Y5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Z5" s="10"/>
+      <c r="Z5" s="10">
+        <v>0.14849785407725299</v>
+      </c>
       <c r="AA5" s="11" t="s">
         <v>19</v>
       </c>
@@ -1007,15 +1167,21 @@
       <c r="U6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="V6" s="10"/>
+      <c r="V6" s="10">
+        <v>7.2727272727272696E-2</v>
+      </c>
       <c r="W6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="X6" s="10"/>
+      <c r="X6" s="10">
+        <v>0.19462365591397801</v>
+      </c>
       <c r="Y6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="Z6" s="10"/>
+      <c r="Z6" s="10">
+        <v>0.28583690987124399</v>
+      </c>
       <c r="AA6" s="11" t="s">
         <v>19</v>
       </c>
@@ -1024,253 +1190,513 @@
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="8"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="11"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="8"/>
+      <c r="B7" s="10">
+        <v>1.0807754442649399E-3</v>
+      </c>
+      <c r="C7" s="11">
+        <v>459.03001770973202</v>
+      </c>
+      <c r="D7" s="10">
+        <v>2.1135191933276802E-3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>2914.78698203563</v>
+      </c>
+      <c r="F7" s="10">
+        <v>7.0089728609427004E-3</v>
+      </c>
+      <c r="G7" s="8">
+        <v>3600.0991677284201</v>
+      </c>
+      <c r="H7" s="10">
+        <v>2.0574668406370601E-2</v>
+      </c>
+      <c r="I7" s="8">
+        <v>2920.6671427249898</v>
+      </c>
+      <c r="J7" s="10">
+        <v>2.81282767152011E-2</v>
+      </c>
+      <c r="K7" s="8">
+        <v>3600.1475996971099</v>
+      </c>
+      <c r="L7" s="10">
+        <v>0</v>
+      </c>
+      <c r="M7" s="8">
+        <v>1461.7352493762901</v>
+      </c>
+      <c r="N7" s="10">
+        <v>2.8331751830319898E-2</v>
+      </c>
+      <c r="O7" s="8">
+        <v>3395.8439426898899</v>
+      </c>
+      <c r="P7" s="10">
+        <v>3.9499206812886899E-2</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>3600.1762412786402</v>
+      </c>
+      <c r="R7" s="10">
+        <v>0</v>
+      </c>
+      <c r="S7" s="8">
+        <v>0.84702169895172097</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1.04563043517852E-2</v>
+      </c>
+      <c r="U7" s="8">
+        <v>3600.0280909538201</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="8">
+        <v>0.11403975486755299</v>
+      </c>
+      <c r="X7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="11">
+        <v>4.07002854347229</v>
+      </c>
+      <c r="Z7" s="10">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="8">
+        <v>4.8487064838409397</v>
+      </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="8"/>
+      <c r="B8" s="10">
+        <v>8.8319065930810056E-2</v>
+      </c>
+      <c r="C8" s="8">
+        <v>3.355451</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.1185429528575996</v>
+      </c>
+      <c r="E8" s="8">
+        <v>4.002434</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.12111896004168329</v>
+      </c>
+      <c r="G8" s="8">
+        <v>4.9335690000000003</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.14421314168178831</v>
+      </c>
+      <c r="I8" s="8">
+        <v>5.413564</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.17860678581396131</v>
+      </c>
+      <c r="K8" s="8">
+        <v>6.7596759999999998</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.10439483389276601</v>
+      </c>
+      <c r="M8" s="8">
+        <v>8.6928560000000008</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.12992137132774251</v>
+      </c>
+      <c r="O8" s="8">
+        <v>11.603604000000001</v>
+      </c>
+      <c r="P8" s="10">
+        <v>7.9994044081325669E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>32.667169999999999</v>
+      </c>
+      <c r="R8" s="10">
+        <v>2.3510263289511901E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>7.3689210000000003</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.1148070933683587</v>
+      </c>
+      <c r="U8" s="8">
+        <v>8.3890449999999994</v>
+      </c>
+      <c r="V8" s="10">
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="W8" s="8">
+        <v>8.1963670299999993</v>
+      </c>
+      <c r="X8" s="10">
+        <v>8.4946236559139784E-2</v>
+      </c>
+      <c r="Y8" s="11">
+        <v>11.63407254</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>6.094420600858369E-2</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>13.70040298</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="8"/>
+      <c r="B9" s="10">
+        <v>6.3406503885491627E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>6.6267579999999997</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1052724914331214</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.9348150000000004</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.1090638899724522</v>
+      </c>
+      <c r="G9" s="8">
+        <v>9.7972990000000006</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.12191192948808779</v>
+      </c>
+      <c r="I9" s="8">
+        <v>10.807356</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.16371155561560641</v>
+      </c>
+      <c r="K9" s="8">
+        <v>13.471734</v>
+      </c>
+      <c r="L9" s="10">
+        <v>8.4802549402621538E-2</v>
+      </c>
+      <c r="M9" s="8">
+        <v>17.285457000000001</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.1137326529945689</v>
+      </c>
+      <c r="O9" s="8">
+        <v>23.158722999999998</v>
+      </c>
+      <c r="P9" s="10">
+        <v>6.2411836794186312E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>65.318888000000001</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2.3510263289511901E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>14.524684000000001</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.1056937278984208</v>
+      </c>
+      <c r="U9" s="8">
+        <v>16.511437999999998</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>16.44934392</v>
+      </c>
+      <c r="X9" s="10">
+        <v>8.4946236559139784E-2</v>
+      </c>
+      <c r="Y9" s="11">
+        <v>23.683983560000001</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>3.8626609442060089E-2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>26.47232962</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="8"/>
+      <c r="B10" s="10">
+        <v>5.9198328400309003E-2</v>
+      </c>
+      <c r="C10" s="8">
+        <v>13.110008000000001</v>
+      </c>
+      <c r="D10" s="10">
+        <v>9.052960679210878E-2</v>
+      </c>
+      <c r="E10" s="8">
+        <v>15.800986</v>
+      </c>
+      <c r="F10" s="10">
+        <v>9.8589591513201569E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>19.567959999999999</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.1060713906999449</v>
+      </c>
+      <c r="I10" s="8">
+        <v>21.628416999999999</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.14339756274343879</v>
+      </c>
+      <c r="K10" s="8">
+        <v>26.813558</v>
+      </c>
+      <c r="L10" s="10">
+        <v>6.5230345258080899E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>34.49512</v>
+      </c>
+      <c r="N10" s="10">
+        <v>9.2500142278731767E-2</v>
+      </c>
+      <c r="O10" s="8">
+        <v>46.277225999999999</v>
+      </c>
+      <c r="P10" s="10">
+        <v>4.2753334272401251E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>130.456557</v>
+      </c>
+      <c r="R10" s="10">
+        <v>1.7337508658012379E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>29.065647999999999</v>
+      </c>
+      <c r="T10" s="10">
+        <v>9.3778901891753641E-2</v>
+      </c>
+      <c r="U10" s="8">
+        <v>32.639651000000001</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>33.216393230000001</v>
+      </c>
+      <c r="X10" s="10">
+        <v>6.236559139784946E-2</v>
+      </c>
+      <c r="Y10" s="11">
+        <v>46.928876879999997</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>1.459227467811159E-2</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>52.51105905</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="8"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="8"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="8"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="8"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="11"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="8"/>
+      <c r="B11" s="10">
+        <v>5.5387918583447902E-2</v>
+      </c>
+      <c r="C11" s="8">
+        <v>32.676729999999999</v>
+      </c>
+      <c r="D11" s="10">
+        <v>7.9843729037163177E-2</v>
+      </c>
+      <c r="E11" s="8">
+        <v>39.365931000000003</v>
+      </c>
+      <c r="F11" s="10">
+        <v>8.5980999112314466E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>48.782482999999999</v>
+      </c>
+      <c r="H11" s="10">
+        <v>8.5440141909351952E-2</v>
+      </c>
+      <c r="I11" s="8">
+        <v>53.830657000000002</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0.1269164950059381</v>
+      </c>
+      <c r="K11" s="8">
+        <v>66.724900000000005</v>
+      </c>
+      <c r="L11" s="10">
+        <v>4.0753239413382887E-2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>85.965810000000005</v>
+      </c>
+      <c r="N11" s="10">
+        <v>6.5094337705316488E-2</v>
+      </c>
+      <c r="O11" s="8">
+        <v>115.449259</v>
+      </c>
+      <c r="P11" s="10">
+        <v>2.2959744419035189E-2</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>323.3809</v>
+      </c>
+      <c r="R11" s="10">
+        <v>8.3237228679805646E-3</v>
+      </c>
+      <c r="S11" s="8">
+        <v>72.090327000000002</v>
+      </c>
+      <c r="T11" s="10">
+        <v>8.7339499551093727E-2</v>
+      </c>
+      <c r="U11" s="8">
+        <v>81.209215999999998</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="8">
+        <v>83.711698530000007</v>
+      </c>
+      <c r="X11" s="10">
+        <v>4.7311827956989252E-2</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>118.27766633</v>
+      </c>
+      <c r="Z11" s="10">
+        <v>1.11587982832618E-2</v>
+      </c>
+      <c r="AA11" s="8">
+        <v>130.65982937999999</v>
+      </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17" t="s">
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17" t="s">
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="AA12" s="17"/>
+      <c r="AA12" s="16"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="16"/>
+      <c r="D13" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17" t="s">
+      <c r="E13" s="16"/>
+      <c r="F13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17" t="s">
+      <c r="G13" s="16"/>
+      <c r="H13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17" t="s">
+      <c r="I13" s="16"/>
+      <c r="J13" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17" t="s">
+      <c r="K13" s="16"/>
+      <c r="L13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="M13" s="17"/>
-      <c r="N13" s="17" t="s">
+      <c r="M13" s="16"/>
+      <c r="N13" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="17"/>
-      <c r="P13" s="17" t="s">
+      <c r="O13" s="16"/>
+      <c r="P13" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="Q13" s="17"/>
-      <c r="R13" s="17" t="s">
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17" t="s">
+      <c r="S13" s="16"/>
+      <c r="T13" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17" t="s">
+      <c r="U13" s="16"/>
+      <c r="V13" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="W13" s="17"/>
-      <c r="X13" s="17" t="s">
+      <c r="W13" s="16"/>
+      <c r="X13" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="Y13" s="17"/>
-      <c r="Z13" s="17" t="s">
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="AA13" s="17"/>
+      <c r="AA13" s="16"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="17"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="9" t="s">
         <v>40</v>
       </c>
@@ -1368,7 +1794,7 @@
       <c r="M15" s="8"/>
       <c r="N15" s="10"/>
       <c r="O15" s="8"/>
-      <c r="P15" s="13"/>
+      <c r="P15" s="12"/>
       <c r="Q15" s="11"/>
       <c r="R15" s="10"/>
       <c r="S15" s="8"/>
@@ -1427,7 +1853,7 @@
       <c r="O16" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="12">
         <v>0.21402465142211599</v>
       </c>
       <c r="Q16" s="11" t="s">
@@ -1510,7 +1936,7 @@
       <c r="O17" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="12">
         <v>0.16071994068421799</v>
       </c>
       <c r="Q17" s="11" t="s">
@@ -1551,180 +1977,452 @@
       <c r="A18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="8"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="8"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="8"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="10"/>
-      <c r="S18" s="8"/>
-      <c r="T18" s="10"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="10"/>
-      <c r="W18" s="8"/>
-      <c r="X18" s="10"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="10"/>
-      <c r="AA18" s="8"/>
+      <c r="B18" s="10">
+        <v>0</v>
+      </c>
+      <c r="C18" s="11">
+        <v>5.7085466384887602E-2</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.21715178489685</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.52210750579833898</v>
+      </c>
+      <c r="H18" s="10">
+        <v>0</v>
+      </c>
+      <c r="I18" s="8">
+        <v>0.41839680671691798</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0</v>
+      </c>
+      <c r="K18" s="8">
+        <v>20.985214900970401</v>
+      </c>
+      <c r="L18" s="10">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>774.63966784477202</v>
+      </c>
+      <c r="N18" s="10">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>13.6944531440734</v>
+      </c>
+      <c r="P18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>30.1233789920806</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1E-3</v>
+      </c>
+      <c r="S18" s="8">
+        <v>2918.8498802661802</v>
+      </c>
+      <c r="T18" s="10">
+        <v>2.5316738198741199E-2</v>
+      </c>
+      <c r="U18" s="8">
+        <v>3600.0324543952902</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1.6004510679173901E-2</v>
+      </c>
+      <c r="W18" s="8">
+        <v>1761.28317077159</v>
+      </c>
+      <c r="X18" s="10">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="11">
+        <v>4.78551089763641</v>
+      </c>
+      <c r="Z18" s="10">
+        <v>5.2120856640874604E-3</v>
+      </c>
+      <c r="AA18" s="8">
+        <v>3600.0377377271602</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="8"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="8"/>
-      <c r="P19" s="13"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="10"/>
-      <c r="S19" s="8"/>
-      <c r="T19" s="10"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="8"/>
-      <c r="X19" s="10"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="10"/>
-      <c r="AA19" s="8"/>
+      <c r="B19" s="10">
+        <v>2.3759400485975531E-2</v>
+      </c>
+      <c r="C19" s="8">
+        <v>2.7527020000000002</v>
+      </c>
+      <c r="D19" s="10">
+        <v>0</v>
+      </c>
+      <c r="E19" s="8">
+        <v>3.1482399999999999</v>
+      </c>
+      <c r="F19" s="10">
+        <v>0</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3.7235830000000001</v>
+      </c>
+      <c r="H19" s="10">
+        <v>4.4058860943305578E-2</v>
+      </c>
+      <c r="I19" s="8">
+        <v>3.4546389999999998</v>
+      </c>
+      <c r="J19" s="10">
+        <v>4.7496041414769888E-2</v>
+      </c>
+      <c r="K19" s="8">
+        <v>4.0850150000000003</v>
+      </c>
+      <c r="L19" s="10">
+        <v>7.0127577099635199E-2</v>
+      </c>
+      <c r="M19" s="8">
+        <v>4.7877510000000001</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1.120997843193256E-3</v>
+      </c>
+      <c r="O19" s="8">
+        <v>6.1680070000000002</v>
+      </c>
+      <c r="P19" s="10">
+        <v>8.3736208669213802E-2</v>
+      </c>
+      <c r="Q19" s="8">
+        <v>5.129162</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0.29578974757073428</v>
+      </c>
+      <c r="S19" s="8">
+        <v>5.8302040000000002</v>
+      </c>
+      <c r="T19" s="10">
+        <v>0.25482002358530398</v>
+      </c>
+      <c r="U19" s="8">
+        <v>7.0910570000000002</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0.21375308977276081</v>
+      </c>
+      <c r="W19" s="8">
+        <v>7.4597910000000001</v>
+      </c>
+      <c r="X19" s="10">
+        <v>8.1191649032816088E-2</v>
+      </c>
+      <c r="Y19" s="8">
+        <v>2.2728280000000001</v>
+      </c>
+      <c r="Z19" s="10">
+        <v>0.13606254505449589</v>
+      </c>
+      <c r="AA19" s="8">
+        <v>8.1978240000000007</v>
+      </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="8"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="8"/>
-      <c r="P20" s="13"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="10"/>
-      <c r="S20" s="8"/>
-      <c r="T20" s="10"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="10"/>
-      <c r="W20" s="8"/>
-      <c r="X20" s="10"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="10"/>
-      <c r="AA20" s="8"/>
+      <c r="B20" s="10">
+        <v>1.6332825249851839E-2</v>
+      </c>
+      <c r="C20" s="8">
+        <v>5.4598659999999999</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="8">
+        <v>6.2835929999999998</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7.4339560000000002</v>
+      </c>
+      <c r="H20" s="10">
+        <v>2.3332716785270029E-2</v>
+      </c>
+      <c r="I20" s="8">
+        <v>6.9478160000000004</v>
+      </c>
+      <c r="J20" s="10">
+        <v>3.8675003384874222E-2</v>
+      </c>
+      <c r="K20" s="8">
+        <v>8.2311809999999994</v>
+      </c>
+      <c r="L20" s="10">
+        <v>5.6954595686739863E-2</v>
+      </c>
+      <c r="M20" s="8">
+        <v>9.6713889999999996</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>12.293174</v>
+      </c>
+      <c r="P20" s="10">
+        <v>7.8879661766220827E-2</v>
+      </c>
+      <c r="Q20" s="8">
+        <v>10.24381</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0.24493551166939559</v>
+      </c>
+      <c r="S20" s="8">
+        <v>11.555717</v>
+      </c>
+      <c r="T20" s="10">
+        <v>0.23460150967558899</v>
+      </c>
+      <c r="U20" s="8">
+        <v>14.007052</v>
+      </c>
+      <c r="V20" s="10">
+        <v>0.19931266781887749</v>
+      </c>
+      <c r="W20" s="8">
+        <v>14.86237</v>
+      </c>
+      <c r="X20" s="10">
+        <v>6.4821895270122332E-2</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>4.5111670000000004</v>
+      </c>
+      <c r="Z20" s="10">
+        <v>0.1143516371138191</v>
+      </c>
+      <c r="AA20" s="8">
+        <v>16.520105999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="8"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="13"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="10"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="10"/>
-      <c r="W21" s="8"/>
-      <c r="X21" s="10"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="10"/>
-      <c r="AA21" s="8"/>
+      <c r="B21" s="10">
+        <v>1.6332825249851839E-2</v>
+      </c>
+      <c r="C21" s="8">
+        <v>10.888598999999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>12.554895999999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>0</v>
+      </c>
+      <c r="G21" s="8">
+        <v>14.859114</v>
+      </c>
+      <c r="H21" s="10">
+        <v>1.7960997267209049E-2</v>
+      </c>
+      <c r="I21" s="8">
+        <v>14.081699</v>
+      </c>
+      <c r="J21" s="10">
+        <v>3.8675003384874222E-2</v>
+      </c>
+      <c r="K21" s="8">
+        <v>16.372955999999999</v>
+      </c>
+      <c r="L21" s="10">
+        <v>3.4072789048127411E-2</v>
+      </c>
+      <c r="M21" s="8">
+        <v>19.316754</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>24.530194999999999</v>
+      </c>
+      <c r="P21" s="10">
+        <v>6.1683187748807169E-2</v>
+      </c>
+      <c r="Q21" s="8">
+        <v>20.481614</v>
+      </c>
+      <c r="R21" s="10">
+        <v>0.21759096256505889</v>
+      </c>
+      <c r="S21" s="8">
+        <v>23.124298</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0.21744111148154929</v>
+      </c>
+      <c r="U21" s="8">
+        <v>27.958158999999998</v>
+      </c>
+      <c r="V21" s="10">
+        <v>0.18872228228747701</v>
+      </c>
+      <c r="W21" s="8">
+        <v>29.561377</v>
+      </c>
+      <c r="X21" s="10">
+        <v>5.436290946304282E-2</v>
+      </c>
+      <c r="Y21" s="8">
+        <v>8.9939009999999993</v>
+      </c>
+      <c r="Z21" s="10">
+        <v>9.4402819663700274E-2</v>
+      </c>
+      <c r="AA21" s="8">
+        <v>32.814861000000001</v>
+      </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="K22" s="12"/>
-      <c r="M22" s="12"/>
-      <c r="O22" s="12"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="12"/>
-      <c r="S22" s="12"/>
-      <c r="U22" s="12"/>
-      <c r="W22" s="12"/>
-      <c r="Y22" s="12"/>
-      <c r="AA22" s="12"/>
+      <c r="B22" s="10">
+        <v>1.6332825249851839E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>27.119754</v>
+      </c>
+      <c r="D22" s="12">
+        <v>0</v>
+      </c>
+      <c r="E22" s="8">
+        <v>31.354782</v>
+      </c>
+      <c r="F22" s="12">
+        <v>0</v>
+      </c>
+      <c r="G22" s="8">
+        <v>37.086013000000001</v>
+      </c>
+      <c r="H22" s="10">
+        <v>8.5131326106575901E-3</v>
+      </c>
+      <c r="I22" s="8">
+        <v>35.508873000000001</v>
+      </c>
+      <c r="J22" s="10">
+        <v>3.5061338902915962E-2</v>
+      </c>
+      <c r="K22" s="8">
+        <v>41.484876999999997</v>
+      </c>
+      <c r="L22" s="10">
+        <v>2.6265349776872352E-2</v>
+      </c>
+      <c r="M22" s="8">
+        <v>47.262852000000002</v>
+      </c>
+      <c r="N22" s="10">
+        <v>0</v>
+      </c>
+      <c r="O22" s="8">
+        <v>61.224843</v>
+      </c>
+      <c r="P22" s="10">
+        <v>5.0274688959644528E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>51.171509</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0.17799831804215391</v>
+      </c>
+      <c r="S22" s="8">
+        <v>58.029696999999999</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.17034563299297639</v>
+      </c>
+      <c r="U22" s="8">
+        <v>69.326909000000001</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0.17314940163783521</v>
+      </c>
+      <c r="W22" s="8">
+        <v>73.479196999999999</v>
+      </c>
+      <c r="X22" s="10">
+        <v>3.9943614254775703E-2</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>22.490936999999999</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>7.4238334620750746E-2</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>80.115144999999998</v>
+      </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="17" t="s">
+      <c r="A27" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17" t="s">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17" t="s">
+      <c r="E27" s="16"/>
+      <c r="F27" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17" t="s">
+      <c r="G27" s="16"/>
+      <c r="H27" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17" t="s">
+      <c r="I27" s="16"/>
+      <c r="J27" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17" t="s">
+      <c r="K27" s="16"/>
+      <c r="L27" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="M27" s="17"/>
-      <c r="N27" s="17" t="s">
+      <c r="M27" s="16"/>
+      <c r="N27" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="O27" s="17"/>
+      <c r="O27" s="16"/>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="17"/>
+      <c r="A28" s="16"/>
       <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
@@ -1925,31 +2623,31 @@
       <c r="O36" s="6"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="17" t="s">
+      <c r="A37" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="16" t="s">
+      <c r="B37" s="16"/>
+      <c r="C37" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="16" t="s">
+      <c r="E37" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="F37" s="16" t="s">
+      <c r="F37" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="G37" s="16" t="s">
+      <c r="G37" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="H37" s="16" t="s">
+      <c r="H37" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="17" t="s">
+      <c r="A38" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B38" s="9" t="s">
@@ -1965,7 +2663,7 @@
       <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="17"/>
+      <c r="A39" s="16"/>
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
@@ -1979,7 +2677,7 @@
       <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="17" t="s">
+      <c r="A40" s="16" t="s">
         <v>31</v>
       </c>
       <c r="B40" s="9" t="s">
@@ -1993,7 +2691,7 @@
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
+      <c r="A41" s="16"/>
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
@@ -2005,7 +2703,7 @@
       <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B42" s="9" t="s">
@@ -2021,7 +2719,7 @@
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="16"/>
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2035,7 +2733,7 @@
       <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="16" t="s">
         <v>32</v>
       </c>
       <c r="B44" s="9" t="s">
@@ -2043,13 +2741,13 @@
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="16"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="16" t="s">
         <v>5</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -2057,13 +2755,13 @@
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="16"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="16" t="s">
         <v>11</v>
       </c>
       <c r="B48" s="9" t="s">
@@ -2071,13 +2769,13 @@
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="A49" s="16"/>
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="A50" s="16" t="s">
         <v>44</v>
       </c>
       <c r="B50" s="9" t="s">
@@ -2085,13 +2783,13 @@
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="A51" s="16"/>
       <c r="B51" s="8" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I70" s="18"/>
+      <c r="I70" s="15"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="I71" s="8"/>
@@ -2115,22 +2813,22 @@
       <c r="AA71" s="6"/>
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72" s="17" t="s">
+      <c r="A72" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B72" s="17"/>
-      <c r="C72" s="17" t="s">
+      <c r="B72" s="16"/>
+      <c r="C72" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="D72" s="17"/>
-      <c r="E72" s="17" t="s">
+      <c r="D72" s="16"/>
+      <c r="E72" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="F72" s="17"/>
-      <c r="G72" s="17" t="s">
+      <c r="F72" s="16"/>
+      <c r="G72" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="H72" s="17"/>
+      <c r="H72" s="16"/>
       <c r="I72" s="8"/>
       <c r="J72" s="10"/>
       <c r="K72" s="8"/>
@@ -2152,8 +2850,8 @@
       <c r="AA72" s="6"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="17"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="1" t="s">
         <v>15</v>
       </c>
@@ -2193,7 +2891,7 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="17" t="s">
+      <c r="A74" s="16" t="s">
         <v>35</v>
       </c>
       <c r="B74" s="3">
@@ -2226,8 +2924,8 @@
       <c r="AA74" s="6"/>
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75" s="17"/>
-      <c r="B75" s="15">
+      <c r="A75" s="16"/>
+      <c r="B75" s="13">
         <v>1000</v>
       </c>
       <c r="C75" s="10"/>
@@ -2257,7 +2955,7 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="17"/>
+      <c r="A76" s="16"/>
       <c r="B76" s="3">
         <v>2000</v>
       </c>
@@ -2288,7 +2986,7 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="3">
         <v>5000</v>
       </c>
@@ -2452,21 +3150,21 @@
       <c r="AA87" s="6"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="17"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
-      <c r="K88" s="17"/>
-      <c r="L88" s="17"/>
-      <c r="M88" s="17"/>
-      <c r="N88" s="17"/>
-      <c r="O88" s="17"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="16"/>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16"/>
+      <c r="N88" s="16"/>
+      <c r="O88" s="16"/>
       <c r="P88" s="10"/>
       <c r="Q88" s="6"/>
       <c r="R88" s="10"/>
@@ -2481,7 +3179,7 @@
       <c r="AA88" s="6"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="17"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="9"/>
       <c r="C89" s="8"/>
       <c r="D89" s="9"/>
@@ -2510,7 +3208,7 @@
       <c r="AA89" s="6"/>
     </row>
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90" s="16"/>
+      <c r="A90" s="14"/>
       <c r="B90" s="10"/>
       <c r="C90" s="8"/>
       <c r="D90" s="10"/>
@@ -2539,7 +3237,7 @@
       <c r="AA90" s="6"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91" s="16"/>
+      <c r="A91" s="14"/>
       <c r="B91" s="10"/>
       <c r="C91" s="11"/>
       <c r="D91" s="10"/>
@@ -2564,7 +3262,7 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="16"/>
+      <c r="A92" s="14"/>
       <c r="B92" s="10"/>
       <c r="C92" s="11"/>
       <c r="D92" s="10"/>
@@ -2581,7 +3279,7 @@
       <c r="O92" s="8"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="16"/>
+      <c r="A93" s="14"/>
       <c r="B93" s="10"/>
       <c r="C93" s="11"/>
       <c r="D93" s="10"/>
@@ -2598,7 +3296,7 @@
       <c r="O93" s="8"/>
     </row>
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="16"/>
+      <c r="A94" s="14"/>
       <c r="B94" s="10"/>
       <c r="C94" s="11"/>
       <c r="D94" s="10"/>
@@ -2633,49 +3331,11 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A72:B73"/>
+    <mergeCell ref="C72:D72"/>
+    <mergeCell ref="E72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="A74:A77"/>
     <mergeCell ref="R12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="Z12:AA12"/>
@@ -2692,12 +3352,160 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
   </mergeCells>
+  <conditionalFormatting sqref="B8:B11">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>B8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:D11">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>D8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8:F11">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>F8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8:H11">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>H8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8:J11">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>J8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8:L11">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>L8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8:N11">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>N8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P8:P11">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>P8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8:R11">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>R8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8:T11">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>T8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19:X22">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>X19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z19:Z22">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>Z19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19:R22">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>R19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T19:T22">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>T19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19:V22">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>V19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:B22">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>B19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8:Z11">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>Z8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19:H22">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>H19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19:J22">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>J19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L19:L22">
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>L19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19:P22">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>P19=MIN($AD19:$AH19)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X8:X11">
+    <cfRule type="expression" dxfId="0" priority="2">
+      <formula>X8=MIN($AD8:$AH8)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271D97E1-CCEC-4663-8F1B-2560380A2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="49">
   <si>
     <t>Methods</t>
   </si>
@@ -183,7 +182,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -283,8 +282,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -460,13 +459,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>594372</xdr:colOff>
-      <xdr:row>100</xdr:row>
+      <xdr:row>98</xdr:row>
       <xdr:rowOff>102879</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -771,11 +770,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA95"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA93"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2494,11 +2493,11 @@
       <c r="O29" s="8"/>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>21</v>
+      <c r="A30" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="B30" s="10"/>
-      <c r="C30" s="11"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="10"/>
       <c r="E30" s="8"/>
       <c r="F30" s="10"/>
@@ -2514,7 +2513,7 @@
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B31" s="10"/>
       <c r="C31" s="11"/>
@@ -2532,11 +2531,8 @@
       <c r="O31" s="8"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="B32" s="10"/>
-      <c r="C32" s="11"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="10"/>
       <c r="E32" s="8"/>
       <c r="F32" s="10"/>
@@ -2551,111 +2547,101 @@
       <c r="O32" s="8"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="6"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="6"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="6"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="6"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" s="16"/>
+      <c r="C35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="11"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="8"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="8"/>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="9" t="s">
+      <c r="H35" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="8"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="8"/>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="9"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="4"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="4"/>
-      <c r="O35" s="6"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="9"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="4"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="4"/>
-      <c r="O36" s="6"/>
+      <c r="A36" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="10">
+        <v>0.223</v>
+      </c>
+      <c r="D36" s="10"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="10"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="16"/>
-      <c r="C37" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>48</v>
-      </c>
+      <c r="A37" s="16"/>
+      <c r="B37" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="8">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="D37" s="10"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="10">
-        <v>0.223</v>
-      </c>
+      <c r="C38" s="11"/>
       <c r="D38" s="10"/>
       <c r="E38" s="8"/>
       <c r="F38" s="10"/>
@@ -2667,9 +2653,7 @@
       <c r="B39" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C39" s="8">
-        <v>0.17599999999999999</v>
-      </c>
+      <c r="C39" s="11"/>
       <c r="D39" s="10"/>
       <c r="E39" s="8"/>
       <c r="F39" s="10"/>
@@ -2678,12 +2662,14 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="B40" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="11"/>
+      <c r="C40" s="10">
+        <v>0.26700000000000002</v>
+      </c>
       <c r="D40" s="10"/>
       <c r="E40" s="8"/>
       <c r="F40" s="10"/>
@@ -2695,7 +2681,9 @@
       <c r="B41" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="11"/>
+      <c r="C41" s="8">
+        <v>0.435</v>
+      </c>
       <c r="D41" s="10"/>
       <c r="E41" s="8"/>
       <c r="F41" s="10"/>
@@ -2704,37 +2692,21 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="10">
-        <v>0.26700000000000002</v>
-      </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="16"/>
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C43" s="8">
-        <v>0.435</v>
-      </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="16" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>40</v>
@@ -2748,7 +2720,7 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="16" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>40</v>
@@ -2762,7 +2734,7 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="16" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>40</v>
@@ -2774,24 +2746,88 @@
         <v>41</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="B50" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="16"/>
-      <c r="B51" s="8" t="s">
-        <v>41</v>
-      </c>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I68" s="15"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="I69" s="8"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="8"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="8"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="8"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="6"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="6"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="6"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="5"/>
+      <c r="Z69" s="10"/>
+      <c r="AA69" s="6"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="I70" s="15"/>
+      <c r="A70" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="8"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="8"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="6"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="6"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="6"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="5"/>
+      <c r="Z70" s="10"/>
+      <c r="AA70" s="6"/>
     </row>
     <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="I71" s="8"/>
       <c r="J71" s="10"/>
       <c r="K71" s="8"/>
@@ -2814,21 +2850,17 @@
     </row>
     <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B72" s="16"/>
-      <c r="C72" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="16"/>
+        <v>35</v>
+      </c>
+      <c r="B72" s="3">
+        <v>500</v>
+      </c>
+      <c r="C72" s="10"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="10"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="2"/>
       <c r="I72" s="8"/>
       <c r="J72" s="10"/>
       <c r="K72" s="8"/>
@@ -2851,25 +2883,15 @@
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="16"/>
-      <c r="B73" s="16"/>
-      <c r="C73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="B73" s="13">
+        <v>1000</v>
+      </c>
+      <c r="C73" s="10"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="8"/>
       <c r="I73" s="8"/>
       <c r="J73" s="10"/>
       <c r="K73" s="8"/>
@@ -2891,11 +2913,9 @@
       <c r="AA73" s="6"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A74" s="16"/>
       <c r="B74" s="3">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="C74" s="10"/>
       <c r="D74" s="2"/>
@@ -2925,22 +2945,15 @@
     </row>
     <row r="75" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A75" s="16"/>
-      <c r="B75" s="13">
-        <v>1000</v>
+      <c r="B75" s="3">
+        <v>5000</v>
       </c>
       <c r="C75" s="10"/>
-      <c r="D75" s="8"/>
+      <c r="D75" s="2"/>
       <c r="E75" s="10"/>
-      <c r="F75" s="8"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="10"/>
-      <c r="H75" s="8"/>
-      <c r="I75" s="8"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="8"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="8"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="8"/>
+      <c r="H75" s="2"/>
       <c r="P75" s="10"/>
       <c r="Q75" s="6"/>
       <c r="R75" s="10"/>
@@ -2955,23 +2968,6 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="16"/>
-      <c r="B76" s="3">
-        <v>2000</v>
-      </c>
-      <c r="C76" s="10"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="2"/>
-      <c r="I76" s="8"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="8"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="8"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="8"/>
       <c r="P76" s="10"/>
       <c r="Q76" s="6"/>
       <c r="R76" s="10"/>
@@ -2986,16 +2982,6 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="16"/>
-      <c r="B77" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C77" s="10"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="2"/>
       <c r="P77" s="10"/>
       <c r="Q77" s="6"/>
       <c r="R77" s="10"/>
@@ -3122,6 +3108,21 @@
       <c r="AA85" s="6"/>
     </row>
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="16"/>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16"/>
+      <c r="N86" s="16"/>
+      <c r="O86" s="16"/>
       <c r="P86" s="10"/>
       <c r="Q86" s="6"/>
       <c r="R86" s="10"/>
@@ -3136,68 +3137,79 @@
       <c r="AA86" s="6"/>
     </row>
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="P87" s="10"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="8"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="8"/>
+      <c r="L87" s="9"/>
+      <c r="M87" s="8"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="8"/>
+      <c r="P87" s="4"/>
       <c r="Q87" s="6"/>
-      <c r="R87" s="10"/>
+      <c r="R87" s="4"/>
       <c r="S87" s="6"/>
-      <c r="T87" s="10"/>
+      <c r="T87" s="4"/>
       <c r="U87" s="6"/>
-      <c r="V87" s="10"/>
+      <c r="V87" s="4"/>
       <c r="W87" s="6"/>
-      <c r="X87" s="10"/>
+      <c r="X87" s="4"/>
       <c r="Y87" s="5"/>
-      <c r="Z87" s="10"/>
+      <c r="Z87" s="4"/>
       <c r="AA87" s="6"/>
     </row>
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88" s="16"/>
-      <c r="B88" s="16"/>
-      <c r="C88" s="16"/>
-      <c r="D88" s="16"/>
-      <c r="E88" s="16"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="16"/>
-      <c r="I88" s="16"/>
-      <c r="J88" s="16"/>
-      <c r="K88" s="16"/>
-      <c r="L88" s="16"/>
-      <c r="M88" s="16"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="10"/>
+      <c r="A88" s="14"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="8"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="8"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="8"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="8"/>
+      <c r="P88" s="4"/>
       <c r="Q88" s="6"/>
-      <c r="R88" s="10"/>
+      <c r="R88" s="4"/>
       <c r="S88" s="6"/>
-      <c r="T88" s="10"/>
+      <c r="T88" s="4"/>
       <c r="U88" s="6"/>
-      <c r="V88" s="10"/>
+      <c r="V88" s="4"/>
       <c r="W88" s="6"/>
-      <c r="X88" s="10"/>
+      <c r="X88" s="4"/>
       <c r="Y88" s="5"/>
-      <c r="Z88" s="10"/>
+      <c r="Z88" s="4"/>
       <c r="AA88" s="6"/>
     </row>
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89" s="16"/>
-      <c r="B89" s="9"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="9"/>
+      <c r="A89" s="14"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="10"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="9"/>
+      <c r="F89" s="10"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="9"/>
+      <c r="H89" s="10"/>
       <c r="I89" s="8"/>
-      <c r="J89" s="9"/>
+      <c r="J89" s="10"/>
       <c r="K89" s="8"/>
-      <c r="L89" s="9"/>
+      <c r="L89" s="10"/>
       <c r="M89" s="8"/>
-      <c r="N89" s="9"/>
+      <c r="N89" s="10"/>
       <c r="O89" s="8"/>
-      <c r="P89" s="4"/>
-      <c r="Q89" s="6"/>
-      <c r="R89" s="4"/>
-      <c r="S89" s="6"/>
       <c r="T89" s="4"/>
       <c r="U89" s="6"/>
       <c r="V89" s="4"/>
@@ -3210,7 +3222,7 @@
     <row r="90" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
       <c r="B90" s="10"/>
-      <c r="C90" s="8"/>
+      <c r="C90" s="11"/>
       <c r="D90" s="10"/>
       <c r="E90" s="8"/>
       <c r="F90" s="10"/>
@@ -3223,18 +3235,6 @@
       <c r="M90" s="8"/>
       <c r="N90" s="10"/>
       <c r="O90" s="8"/>
-      <c r="P90" s="4"/>
-      <c r="Q90" s="6"/>
-      <c r="R90" s="4"/>
-      <c r="S90" s="6"/>
-      <c r="T90" s="4"/>
-      <c r="U90" s="6"/>
-      <c r="V90" s="4"/>
-      <c r="W90" s="6"/>
-      <c r="X90" s="4"/>
-      <c r="Y90" s="5"/>
-      <c r="Z90" s="4"/>
-      <c r="AA90" s="6"/>
     </row>
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="14"/>
@@ -3252,14 +3252,6 @@
       <c r="M91" s="8"/>
       <c r="N91" s="10"/>
       <c r="O91" s="8"/>
-      <c r="T91" s="4"/>
-      <c r="U91" s="6"/>
-      <c r="V91" s="4"/>
-      <c r="W91" s="6"/>
-      <c r="X91" s="4"/>
-      <c r="Y91" s="5"/>
-      <c r="Z91" s="4"/>
-      <c r="AA91" s="6"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
@@ -3279,9 +3271,9 @@
       <c r="O92" s="8"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="14"/>
+      <c r="A93" s="9"/>
       <c r="B93" s="10"/>
-      <c r="C93" s="11"/>
+      <c r="C93" s="8"/>
       <c r="D93" s="10"/>
       <c r="E93" s="8"/>
       <c r="F93" s="10"/>
@@ -3295,47 +3287,51 @@
       <c r="N93" s="10"/>
       <c r="O93" s="8"/>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A94" s="14"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="11"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="10"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="10"/>
-      <c r="K94" s="8"/>
-      <c r="L94" s="10"/>
-      <c r="M94" s="8"/>
-      <c r="N94" s="10"/>
-      <c r="O94" s="8"/>
-    </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A95" s="9"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="10"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="10"/>
-      <c r="K95" s="8"/>
-      <c r="L95" s="10"/>
-      <c r="M95" s="8"/>
-      <c r="N95" s="10"/>
-      <c r="O95" s="8"/>
-    </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A72:B73"/>
-    <mergeCell ref="C72:D72"/>
-    <mergeCell ref="E72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="A74:A77"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A86:A87"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="N27:O27"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:Q12"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R12:W12"/>
     <mergeCell ref="X12:Y12"/>
     <mergeCell ref="Z12:AA12"/>
@@ -3352,49 +3348,11 @@
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="P13:Q13"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="B12:Q12"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="L27:M27"/>
-    <mergeCell ref="N27:O27"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A70:B71"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="E70:F70"/>
+    <mergeCell ref="G70:H70"/>
+    <mergeCell ref="A72:A75"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B11">
     <cfRule type="expression" dxfId="21" priority="22">

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD8722-8756-4EB6-A663-C20BD75B6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
@@ -294,8 +295,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="22">
     <dxf>
@@ -782,11 +783,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:A24"/>
+      <selection activeCell="AA10" sqref="AA10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,94 +1285,250 @@
       <c r="A8" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="8"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="11"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="8"/>
+      <c r="B8" s="10">
+        <v>0.11919315004374439</v>
+      </c>
+      <c r="C8" s="8">
+        <v>177.34741938114169</v>
+      </c>
+      <c r="D8" s="10">
+        <v>0.14447014660503391</v>
+      </c>
+      <c r="E8" s="8">
+        <v>219.0369166135788</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.1567514657636021</v>
+      </c>
+      <c r="G8" s="8">
+        <v>388.52986879348748</v>
+      </c>
+      <c r="H8" s="10">
+        <v>0.1788179100387029</v>
+      </c>
+      <c r="I8" s="8">
+        <v>328.40986764431</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.2007270790968356</v>
+      </c>
+      <c r="K8" s="8">
+        <v>496.06448032855991</v>
+      </c>
+      <c r="L8" s="10">
+        <v>0.1246522670328311</v>
+      </c>
+      <c r="M8" s="8">
+        <v>435.21578061580658</v>
+      </c>
+      <c r="N8" s="10">
+        <v>0.1366930910035925</v>
+      </c>
+      <c r="O8" s="8">
+        <v>758.30861377716064</v>
+      </c>
+      <c r="P8" s="10">
+        <v>7.2523663243741904E-2</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1562.7214083194731</v>
+      </c>
+      <c r="R8" s="10">
+        <v>6.1977618930582942E-2</v>
+      </c>
+      <c r="S8" s="8">
+        <v>118.0770499706268</v>
+      </c>
+      <c r="T8" s="10">
+        <v>0.16544923941986769</v>
+      </c>
+      <c r="U8" s="8">
+        <v>299.07535227139789</v>
+      </c>
+      <c r="V8" s="10">
+        <v>3.6363636363636362E-2</v>
+      </c>
+      <c r="W8" s="8">
+        <v>171.2180361747742</v>
+      </c>
+      <c r="X8" s="10">
+        <v>0.1010752688172043</v>
+      </c>
+      <c r="Y8" s="8">
+        <v>358.52416348457342</v>
+      </c>
+      <c r="Z8" s="10">
+        <v>9.7854077253218888E-2</v>
+      </c>
+      <c r="AA8" s="8">
+        <v>388.79673194885248</v>
+      </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="11"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="8"/>
+      <c r="B9" s="10">
+        <v>9.7596358858481308E-2</v>
+      </c>
+      <c r="C9" s="8">
+        <v>446.46345396041869</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0.1303050474220987</v>
+      </c>
+      <c r="E9" s="8">
+        <v>599.84845511913295</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.13251120529953969</v>
+      </c>
+      <c r="G9" s="8">
+        <v>979.76974110603328</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.1497396168733256</v>
+      </c>
+      <c r="I9" s="8">
+        <v>842.22239589691162</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0.17535579325333911</v>
+      </c>
+      <c r="K9" s="8">
+        <v>1356.608294534683</v>
+      </c>
+      <c r="L9" s="10">
+        <v>0.1047452112372969</v>
+      </c>
+      <c r="M9" s="8">
+        <v>993.84527640342708</v>
+      </c>
+      <c r="N9" s="10">
+        <v>0.1184353847434812</v>
+      </c>
+      <c r="O9" s="8">
+        <v>2015.0174452066419</v>
+      </c>
+      <c r="P9" s="10">
+        <v>6.3651946032952239E-2</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>3097.1185442209239</v>
+      </c>
+      <c r="R9" s="10">
+        <v>2.7402286918366329E-2</v>
+      </c>
+      <c r="S9" s="8">
+        <v>210.5504447221756</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.1333384634332071</v>
+      </c>
+      <c r="U9" s="8">
+        <v>632.2178407510122</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>204.67261099815369</v>
+      </c>
+      <c r="X9" s="10">
+        <v>5.5913978494623658E-2</v>
+      </c>
+      <c r="Y9" s="8">
+        <v>496.2646267414093</v>
+      </c>
+      <c r="Z9" s="10">
+        <v>6.8669527896995708E-2</v>
+      </c>
+      <c r="AA9" s="8">
+        <v>452.93807005882257</v>
+      </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="10"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="8"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="11"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="8"/>
+      <c r="B10" s="10">
+        <v>0.105287546</v>
+      </c>
+      <c r="C10" s="8">
+        <v>443.13558870000003</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.118075843</v>
+      </c>
+      <c r="E10" s="8">
+        <v>603.09332400000005</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.12021036</v>
+      </c>
+      <c r="G10" s="8">
+        <v>981.33045970000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.143512475</v>
+      </c>
+      <c r="I10" s="8">
+        <v>780.11120670000003</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0.169429249</v>
+      </c>
+      <c r="K10" s="8">
+        <v>1423.5380680000001</v>
+      </c>
+      <c r="L10" s="10">
+        <v>9.2423447000000006E-2</v>
+      </c>
+      <c r="M10" s="8">
+        <v>967.78968599999996</v>
+      </c>
+      <c r="N10" s="10">
+        <v>0.108999789</v>
+      </c>
+      <c r="O10" s="8">
+        <v>2093.061099</v>
+      </c>
+      <c r="P10" s="10">
+        <v>5.4012677000000002E-2</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>3221.169633</v>
+      </c>
+      <c r="R10" s="10">
+        <v>2.1164651E-2</v>
+      </c>
+      <c r="S10" s="8">
+        <v>209.48986830000001</v>
+      </c>
+      <c r="T10" s="10">
+        <v>0.10887027000000001</v>
+      </c>
+      <c r="U10" s="8">
+        <v>653.44996860000003</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="8">
+        <v>212.35576248168951</v>
+      </c>
+      <c r="X10" s="10">
+        <v>6.2365590999999998E-2</v>
+      </c>
+      <c r="Y10" s="8">
+        <v>466.70456862449652</v>
+      </c>
+      <c r="Z10" s="10">
+        <v>6.6094421E-2</v>
+      </c>
+      <c r="AA10" s="8">
+        <v>445.4284508228302</v>
+      </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -2164,94 +2321,250 @@
       <c r="A22" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="8"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="8"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="10"/>
-      <c r="S22" s="8"/>
-      <c r="T22" s="10"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="8"/>
-      <c r="X22" s="10"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="10"/>
-      <c r="AA22" s="8"/>
+      <c r="B22" s="10">
+        <v>4.7694936188380263E-2</v>
+      </c>
+      <c r="C22" s="8">
+        <v>63.481905508041379</v>
+      </c>
+      <c r="D22" s="10">
+        <v>5.8426966292134831E-3</v>
+      </c>
+      <c r="E22" s="8">
+        <v>76.518795537948606</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2.8169014084507039E-3</v>
+      </c>
+      <c r="G22" s="8">
+        <v>102.170387840271</v>
+      </c>
+      <c r="H22" s="10">
+        <v>5.7619513634548633E-2</v>
+      </c>
+      <c r="I22" s="8">
+        <v>118.34480156898501</v>
+      </c>
+      <c r="J22" s="10">
+        <v>0.1035339950449147</v>
+      </c>
+      <c r="K22" s="8">
+        <v>180.411180639267</v>
+      </c>
+      <c r="L22" s="10">
+        <v>0.1122173356078458</v>
+      </c>
+      <c r="M22" s="8">
+        <v>226.06469445228581</v>
+      </c>
+      <c r="N22" s="10">
+        <v>2.4015331791874789E-2</v>
+      </c>
+      <c r="O22" s="8">
+        <v>225.17802476882929</v>
+      </c>
+      <c r="P22" s="10">
+        <v>9.5381963083332771E-2</v>
+      </c>
+      <c r="Q22" s="8">
+        <v>28.83382263183594</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0.33660823767351988</v>
+      </c>
+      <c r="S22" s="8">
+        <v>163.00923953056329</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0.29147521129415838</v>
+      </c>
+      <c r="U22" s="8">
+        <v>279.94948601722717</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0.21982162003559791</v>
+      </c>
+      <c r="W22" s="8">
+        <v>227.3926122426987</v>
+      </c>
+      <c r="X22" s="10">
+        <v>0.1155082420668227</v>
+      </c>
+      <c r="Y22" s="8">
+        <v>85.049606633186343</v>
+      </c>
+      <c r="Z22" s="10">
+        <v>0.1449391240327049</v>
+      </c>
+      <c r="AA22" s="8">
+        <v>504.84763121604919</v>
+      </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="8"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="8"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="10"/>
-      <c r="S23" s="8"/>
-      <c r="T23" s="10"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="10"/>
-      <c r="W23" s="8"/>
-      <c r="X23" s="10"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="10"/>
-      <c r="AA23" s="8"/>
+      <c r="B23" s="10">
+        <v>2.936508132589458E-2</v>
+      </c>
+      <c r="C23" s="8">
+        <v>83.88672399520874</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0</v>
+      </c>
+      <c r="E23" s="8">
+        <v>81.826181888580322</v>
+      </c>
+      <c r="F23" s="10">
+        <v>0</v>
+      </c>
+      <c r="G23" s="8">
+        <v>89.627849960327154</v>
+      </c>
+      <c r="H23" s="10">
+        <v>3.619544595283844E-2</v>
+      </c>
+      <c r="I23" s="8">
+        <v>229.13486652374269</v>
+      </c>
+      <c r="J23" s="10">
+        <v>6.1476613287929048E-2</v>
+      </c>
+      <c r="K23" s="8">
+        <v>346.27242608070372</v>
+      </c>
+      <c r="L23" s="10">
+        <v>8.3173115247760637E-2</v>
+      </c>
+      <c r="M23" s="8">
+        <v>423.79730730056758</v>
+      </c>
+      <c r="N23" s="10">
+        <v>2.7890761185357352E-3</v>
+      </c>
+      <c r="O23" s="8">
+        <v>312.828950214386</v>
+      </c>
+      <c r="P23" s="10">
+        <v>8.4233937331010506E-2</v>
+      </c>
+      <c r="Q23" s="8">
+        <v>602.97341628074651</v>
+      </c>
+      <c r="R23" s="10">
+        <v>0.25928634691683572</v>
+      </c>
+      <c r="S23" s="8">
+        <v>317.27634882926941</v>
+      </c>
+      <c r="T23" s="10">
+        <v>0.25816450629594312</v>
+      </c>
+      <c r="U23" s="8">
+        <v>630.88973193168636</v>
+      </c>
+      <c r="V23" s="10">
+        <v>0.212727567822034</v>
+      </c>
+      <c r="W23" s="8">
+        <v>323.9487479</v>
+      </c>
+      <c r="X23" s="10">
+        <v>8.1825496208350626E-2</v>
+      </c>
+      <c r="Y23" s="8">
+        <v>187.37013864517209</v>
+      </c>
+      <c r="Z23" s="10">
+        <v>0.13703333051313099</v>
+      </c>
+      <c r="AA23" s="8">
+        <v>1048.1515985131259</v>
+      </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="8"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="8"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="8"/>
-      <c r="T24" s="10"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="10"/>
-      <c r="W24" s="8"/>
-      <c r="X24" s="10"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="8"/>
+      <c r="B24" s="10">
+        <v>1.8822966999999999E-2</v>
+      </c>
+      <c r="C24" s="8">
+        <v>82.295451021194452</v>
+      </c>
+      <c r="D24" s="10">
+        <v>0</v>
+      </c>
+      <c r="E24" s="8">
+        <v>82.442834186553952</v>
+      </c>
+      <c r="F24" s="10">
+        <v>9.9419999999999999E-4</v>
+      </c>
+      <c r="G24" s="8">
+        <v>100.1673861980438</v>
+      </c>
+      <c r="H24" s="10">
+        <v>4.9735107000000001E-2</v>
+      </c>
+      <c r="I24" s="8">
+        <v>234.71022467613221</v>
+      </c>
+      <c r="J24" s="10">
+        <v>6.0259618000000001E-2</v>
+      </c>
+      <c r="K24" s="8">
+        <v>345.30031981468198</v>
+      </c>
+      <c r="L24" s="10">
+        <v>6.059718E-2</v>
+      </c>
+      <c r="M24" s="8">
+        <v>418.23555932044991</v>
+      </c>
+      <c r="N24" s="10">
+        <v>2.32423E-3</v>
+      </c>
+      <c r="O24" s="8">
+        <v>301.96352152824397</v>
+      </c>
+      <c r="P24" s="10">
+        <v>9.0291408000000004E-2</v>
+      </c>
+      <c r="Q24" s="8">
+        <v>595.11907973289487</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0.25483457799999998</v>
+      </c>
+      <c r="S24" s="8">
+        <v>300.75050829999998</v>
+      </c>
+      <c r="T24" s="10">
+        <v>0.25230619700000001</v>
+      </c>
+      <c r="U24" s="8">
+        <v>616.55839779999997</v>
+      </c>
+      <c r="V24" s="10">
+        <v>0.206440809</v>
+      </c>
+      <c r="W24" s="8">
+        <v>334.9487479</v>
+      </c>
+      <c r="X24" s="10">
+        <v>7.9896529999999993E-2</v>
+      </c>
+      <c r="Y24" s="8">
+        <v>182.01399040000001</v>
+      </c>
+      <c r="Z24" s="10">
+        <v>0.11963523600000001</v>
+      </c>
+      <c r="AA24" s="8">
+        <v>1038.316194</v>
+      </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
@@ -3487,11 +3800,49 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R15:W15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
@@ -3508,49 +3859,11 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A78:A81"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B14">
     <cfRule type="expression" dxfId="21" priority="22">

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82BD8722-8756-4EB6-A663-C20BD75B6069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4C9F8-E2BF-4906-A3E5-77749CD2AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="53">
   <si>
     <t>Methods</t>
   </si>
@@ -168,15 +168,6 @@
     <t>200x50</t>
   </si>
   <si>
-    <t>Greedy</t>
-  </si>
-  <si>
-    <t>Best</t>
-  </si>
-  <si>
-    <t>First</t>
-  </si>
-  <si>
     <t>L2S</t>
   </si>
   <si>
@@ -187,6 +178,18 @@
   </si>
   <si>
     <t>BI-5000</t>
+  </si>
+  <si>
+    <t>L2S-500</t>
+  </si>
+  <si>
+    <t>L2S-1000</t>
+  </si>
+  <si>
+    <t>L2S-2000</t>
+  </si>
+  <si>
+    <t>L2S-5000</t>
   </si>
 </sst>
 </file>
@@ -240,7 +243,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -293,12 +296,267 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="58">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -786,8 +1044,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA10" sqref="AA10"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -797,99 +1055,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17"/>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17" t="s">
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17" t="s">
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
-      <c r="Y1" s="17"/>
-      <c r="Z1" s="17"/>
-      <c r="AA1" s="17"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="18"/>
+      <c r="B2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17" t="s">
+      <c r="I2" s="18"/>
+      <c r="J2" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17" t="s">
+      <c r="K2" s="18"/>
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="17"/>
-      <c r="P2" s="17" t="s">
+      <c r="O2" s="18"/>
+      <c r="P2" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17" t="s">
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17" t="s">
+      <c r="S2" s="18"/>
+      <c r="T2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17" t="s">
+      <c r="U2" s="18"/>
+      <c r="V2" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="17"/>
-      <c r="X2" s="17" t="s">
+      <c r="W2" s="18"/>
+      <c r="X2" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Y2" s="17"/>
-      <c r="Z2" s="17" t="s">
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="17"/>
+      <c r="AA2" s="18"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
+      <c r="A3" s="18"/>
       <c r="B3" s="9" t="s">
         <v>40</v>
       </c>
@@ -1283,7 +1541,7 @@
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="10">
         <v>0.11919315004374439</v>
@@ -1366,7 +1624,7 @@
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="10">
         <v>9.7596358858481308E-2</v>
@@ -1449,7 +1707,7 @@
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B10" s="10">
         <v>0.105287546</v>
@@ -1863,101 +2121,101 @@
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="17"/>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="17"/>
-      <c r="Q15" s="17"/>
-      <c r="R15" s="17" t="s">
+      <c r="C15" s="18"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-      <c r="X15" s="17" t="s">
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+      <c r="X15" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="Y15" s="17"/>
-      <c r="Z15" s="17" t="s">
+      <c r="Y15" s="18"/>
+      <c r="Z15" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="AA15" s="17"/>
+      <c r="AA15" s="18"/>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="17" t="s">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="18"/>
+      <c r="D16" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17" t="s">
+      <c r="E16" s="18"/>
+      <c r="F16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17" t="s">
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17" t="s">
+      <c r="I16" s="18"/>
+      <c r="J16" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17" t="s">
+      <c r="K16" s="18"/>
+      <c r="L16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17" t="s">
+      <c r="M16" s="18"/>
+      <c r="N16" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17" t="s">
+      <c r="O16" s="18"/>
+      <c r="P16" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17" t="s">
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17" t="s">
+      <c r="S16" s="18"/>
+      <c r="T16" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17" t="s">
+      <c r="U16" s="18"/>
+      <c r="V16" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17" t="s">
+      <c r="W16" s="18"/>
+      <c r="X16" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17" t="s">
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="AA16" s="17"/>
+      <c r="AA16" s="18"/>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="9" t="s">
         <v>40</v>
       </c>
@@ -2319,7 +2577,7 @@
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B22" s="10">
         <v>4.7694936188380263E-2</v>
@@ -2402,7 +2660,7 @@
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B23" s="10">
         <v>2.936508132589458E-2</v>
@@ -2485,7 +2743,7 @@
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B24" s="10">
         <v>1.8822966999999999E-2</v>
@@ -2899,40 +3157,40 @@
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="18"/>
+      <c r="D33" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17" t="s">
+      <c r="E33" s="18"/>
+      <c r="F33" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
+      <c r="G33" s="18"/>
+      <c r="H33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17" t="s">
+      <c r="I33" s="18"/>
+      <c r="J33" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17" t="s">
+      <c r="K33" s="18"/>
+      <c r="L33" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M33" s="17"/>
-      <c r="N33" s="17" t="s">
+      <c r="M33" s="18"/>
+      <c r="N33" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="O33" s="17"/>
+      <c r="O33" s="18"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="9" t="s">
         <v>40</v>
       </c>
@@ -3005,7 +3263,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B36" s="10"/>
       <c r="C36" s="8"/>
@@ -3092,169 +3350,356 @@
       <c r="O40" s="6"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="17" t="s">
+      <c r="A41" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="14" t="s">
+      <c r="B41" s="18"/>
+      <c r="C41" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D41" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="14" t="s">
-        <v>21</v>
-      </c>
       <c r="E41" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G41" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="H41" s="14" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="F41" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="G41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H41" s="17" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="17" t="s">
+      <c r="A42" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B42" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="12">
+        <v>0</v>
+      </c>
+      <c r="D42" s="10">
         <v>0.223</v>
       </c>
-      <c r="D42" s="10"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="10"/>
+      <c r="E42" s="10">
+        <v>4.443657641724328E-2</v>
+      </c>
+      <c r="F42" s="10">
+        <v>3.5344166024718369E-2</v>
+      </c>
+      <c r="G42" s="10">
+        <v>2.8082599737989749E-2</v>
+      </c>
+      <c r="H42" s="10">
+        <v>2.2452105312462039E-2</v>
+      </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="17"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C43" s="8">
+        <v>0.30371521711349397</v>
+      </c>
+      <c r="D43" s="8">
         <v>0.17599999999999999</v>
       </c>
-      <c r="D43" s="10"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="10"/>
+      <c r="E43" s="8">
+        <v>0.65504715999999996</v>
+      </c>
+      <c r="F43" s="8">
+        <v>1.3226829200000001</v>
+      </c>
+      <c r="G43" s="8">
+        <v>2.6550896700000002</v>
+      </c>
+      <c r="H43" s="8">
+        <v>6.6145462200000003</v>
+      </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="17" t="s">
+      <c r="A44" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C44" s="11"/>
-      <c r="D44" s="10"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="10"/>
+      <c r="C44" s="12">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>7.2048173803759316E-2</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5.6758318629485167E-2</v>
+      </c>
+      <c r="G44" s="10">
+        <v>4.7662490138002327E-2</v>
+      </c>
+      <c r="H44" s="10">
+        <v>4.0376989444373172E-2</v>
+      </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="11"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="10"/>
+      <c r="C45" s="8">
+        <v>8.2205666327476496</v>
+      </c>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8">
+        <v>0.87865729999999997</v>
+      </c>
+      <c r="F45" s="8">
+        <v>1.76605298</v>
+      </c>
+      <c r="G45" s="8">
+        <v>3.5515640199999998</v>
+      </c>
+      <c r="H45" s="8">
+        <v>8.9006872799999996</v>
+      </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="17" t="s">
+      <c r="A46" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B46" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="12">
+        <v>0</v>
+      </c>
+      <c r="D46" s="10">
         <v>0.26700000000000002</v>
       </c>
-      <c r="D46" s="10"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="10"/>
+      <c r="E46" s="10">
+        <v>8.7467979802072063E-2</v>
+      </c>
+      <c r="F46" s="10">
+        <v>7.855730478344583E-2</v>
+      </c>
+      <c r="G46" s="10">
+        <v>6.8253186603608476E-2</v>
+      </c>
+      <c r="H46" s="10">
+        <v>5.87882610342184E-2</v>
+      </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="17"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="8" t="s">
         <v>41</v>
       </c>
       <c r="C47" s="8">
+        <v>153.227003788948</v>
+      </c>
+      <c r="D47" s="8">
         <v>0.435</v>
       </c>
-      <c r="D47" s="10"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="10"/>
+      <c r="E47" s="8">
+        <v>1.25209444</v>
+      </c>
+      <c r="F47" s="8">
+        <v>2.5191461899999998</v>
+      </c>
+      <c r="G47" s="8">
+        <v>5.0715352200000003</v>
+      </c>
+      <c r="H47" s="8">
+        <v>12.74088523</v>
+      </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="17" t="s">
+      <c r="A48" s="18" t="s">
         <v>32</v>
       </c>
       <c r="B48" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
+      <c r="C48" s="12">
+        <v>0</v>
+      </c>
+      <c r="D48" s="12"/>
+      <c r="E48" s="10">
+        <v>4.2879558600080837E-2</v>
+      </c>
+      <c r="F48" s="10">
+        <v>3.4445270799277831E-2</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2.7424926965867302E-2</v>
+      </c>
+      <c r="H48" s="10">
+        <v>2.2523265245784279E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="18"/>
       <c r="B49" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="17" t="s">
+      <c r="C49" s="8">
+        <v>231.86337982177699</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8">
+        <v>1.12514376</v>
+      </c>
+      <c r="F49" s="8">
+        <v>2.2569923099999998</v>
+      </c>
+      <c r="G49" s="8">
+        <v>4.52811933</v>
+      </c>
+      <c r="H49" s="8">
+        <v>11.343518299999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="18" t="s">
         <v>5</v>
       </c>
       <c r="B50" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="17"/>
+      <c r="C50" s="12">
+        <v>0</v>
+      </c>
+      <c r="D50" s="12"/>
+      <c r="E50" s="10">
+        <v>0.1086027439136556</v>
+      </c>
+      <c r="F50" s="10">
+        <v>9.5904343084801488E-2</v>
+      </c>
+      <c r="G50" s="10">
+        <v>8.37114933739177E-2</v>
+      </c>
+      <c r="H50" s="10">
+        <v>7.2208894330190579E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="18"/>
       <c r="B51" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="17" t="s">
+      <c r="C51" s="8">
+        <v>2739.5941991662899</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8">
+        <v>1.63403611</v>
+      </c>
+      <c r="F51" s="8">
+        <v>3.2883392499999999</v>
+      </c>
+      <c r="G51" s="8">
+        <v>6.6154758899999999</v>
+      </c>
+      <c r="H51" s="8">
+        <v>16.654988320000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="18" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
+      <c r="C52" s="12">
+        <v>0</v>
+      </c>
+      <c r="D52" s="12"/>
+      <c r="E52" s="10">
+        <v>1.92186245486137E-2</v>
+      </c>
+      <c r="F52" s="10">
+        <v>8.0255699013973558E-3</v>
+      </c>
+      <c r="G52" s="10">
+        <v>-8.3340930177667571E-4</v>
+      </c>
+      <c r="H52" s="10">
+        <v>-8.3381560930186668E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="18"/>
       <c r="B53" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="17" t="s">
+      <c r="C53" s="8">
+        <v>3600</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8">
+        <v>20.962957670000002</v>
+      </c>
+      <c r="F53" s="8">
+        <v>42.01817381</v>
+      </c>
+      <c r="G53" s="8">
+        <v>87.208036879999995</v>
+      </c>
+      <c r="H53" s="8">
+        <v>210.04748799999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="18" t="s">
         <v>44</v>
       </c>
       <c r="B54" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
+      <c r="C54" s="12">
+        <v>0</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="10">
+        <v>-0.18284418161722041</v>
+      </c>
+      <c r="F54" s="10">
+        <v>-0.1905707206353994</v>
+      </c>
+      <c r="G54" s="10">
+        <v>-0.19794645005219361</v>
+      </c>
+      <c r="H54" s="10">
+        <v>-0.2062492000597044</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="18"/>
       <c r="B55" s="8" t="s">
         <v>41</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3600</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8">
+        <v>34.254490799999999</v>
+      </c>
+      <c r="F55" s="8">
+        <v>68.979702639999999</v>
+      </c>
+      <c r="G55" s="8">
+        <v>138.47564661999999</v>
+      </c>
+      <c r="H55" s="8">
+        <v>343.88938311999999</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
@@ -3282,22 +3727,22 @@
       <c r="AA75" s="6"/>
     </row>
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76" s="17" t="s">
+      <c r="A76" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="B76" s="17"/>
-      <c r="C76" s="17" t="s">
+      <c r="B76" s="18"/>
+      <c r="C76" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D76" s="17"/>
-      <c r="E76" s="17" t="s">
+      <c r="D76" s="18"/>
+      <c r="E76" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17" t="s">
+      <c r="F76" s="18"/>
+      <c r="G76" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H76" s="17"/>
+      <c r="H76" s="18"/>
       <c r="I76" s="8"/>
       <c r="J76" s="10"/>
       <c r="K76" s="8"/>
@@ -3319,8 +3764,8 @@
       <c r="AA76" s="6"/>
     </row>
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="17"/>
+      <c r="A77" s="18"/>
+      <c r="B77" s="18"/>
       <c r="C77" s="1" t="s">
         <v>15</v>
       </c>
@@ -3360,7 +3805,7 @@
       <c r="AA77" s="6"/>
     </row>
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78" s="17" t="s">
+      <c r="A78" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B78" s="3">
@@ -3393,7 +3838,7 @@
       <c r="AA78" s="6"/>
     </row>
     <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79" s="17"/>
+      <c r="A79" s="18"/>
       <c r="B79" s="13">
         <v>1000</v>
       </c>
@@ -3424,7 +3869,7 @@
       <c r="AA79" s="6"/>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80" s="17"/>
+      <c r="A80" s="18"/>
       <c r="B80" s="3">
         <v>2000</v>
       </c>
@@ -3455,7 +3900,7 @@
       <c r="AA80" s="6"/>
     </row>
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81" s="17"/>
+      <c r="A81" s="18"/>
       <c r="B81" s="3">
         <v>5000</v>
       </c>
@@ -3619,21 +4064,21 @@
       <c r="AA91" s="6"/>
     </row>
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A92" s="17"/>
-      <c r="B92" s="17"/>
-      <c r="C92" s="17"/>
-      <c r="D92" s="17"/>
-      <c r="E92" s="17"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
-      <c r="K92" s="17"/>
-      <c r="L92" s="17"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="17"/>
-      <c r="O92" s="17"/>
+      <c r="A92" s="18"/>
+      <c r="B92" s="18"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="18"/>
+      <c r="E92" s="18"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="18"/>
+      <c r="I92" s="18"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="18"/>
+      <c r="L92" s="18"/>
+      <c r="M92" s="18"/>
+      <c r="N92" s="18"/>
+      <c r="O92" s="18"/>
       <c r="P92" s="10"/>
       <c r="Q92" s="6"/>
       <c r="R92" s="10"/>
@@ -3648,7 +4093,7 @@
       <c r="AA92" s="6"/>
     </row>
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A93" s="17"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="9"/>
       <c r="C93" s="8"/>
       <c r="D93" s="9"/>
@@ -3866,113 +4311,253 @@
     <mergeCell ref="A78:A81"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="expression" dxfId="21" priority="22">
+    <cfRule type="expression" dxfId="57" priority="58">
       <formula>B11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="expression" dxfId="20" priority="21">
+    <cfRule type="expression" dxfId="56" priority="57">
       <formula>D11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F14">
+    <cfRule type="expression" dxfId="55" priority="56">
+      <formula>F11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>H11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11:J14">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>J11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L14">
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>L11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11:N14">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>N11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11:P14">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>P11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11:R14">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>R11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:T14">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>T11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25:X28">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>X25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:Z28">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>Z25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25:R28">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>R25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>T25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:V28">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>V25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:B28">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>B25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z14">
+    <cfRule type="expression" dxfId="41" priority="37">
+      <formula>Z11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25:H28">
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>H25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J28">
+    <cfRule type="expression" dxfId="39" priority="41">
+      <formula>J25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25:L28">
+    <cfRule type="expression" dxfId="38" priority="40">
+      <formula>L25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P28">
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>P25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11:X14">
+    <cfRule type="expression" dxfId="36" priority="38">
+      <formula>X11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>E42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>F42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>G42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>H42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>E44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>F44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>G44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>H44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
     <cfRule type="expression" dxfId="19" priority="20">
-      <formula>F11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
+      <formula>E50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
     <cfRule type="expression" dxfId="18" priority="19">
-      <formula>H11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
+      <formula>F50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
     <cfRule type="expression" dxfId="17" priority="18">
-      <formula>J11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L14">
+      <formula>G50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
     <cfRule type="expression" dxfId="16" priority="17">
-      <formula>L11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N14">
+      <formula>H50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
     <cfRule type="expression" dxfId="15" priority="16">
-      <formula>N11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P14">
+      <formula>E52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
     <cfRule type="expression" dxfId="14" priority="15">
-      <formula>P11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R14">
+      <formula>F52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
     <cfRule type="expression" dxfId="13" priority="14">
-      <formula>R11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T11:T14">
+      <formula>G52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
     <cfRule type="expression" dxfId="12" priority="13">
-      <formula>T11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X25:X28">
+      <formula>H52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
     <cfRule type="expression" dxfId="11" priority="12">
-      <formula>X25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z28">
+      <formula>E54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
     <cfRule type="expression" dxfId="10" priority="11">
-      <formula>Z25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R28">
+      <formula>F54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
     <cfRule type="expression" dxfId="9" priority="10">
-      <formula>R25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T28">
+      <formula>G54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
     <cfRule type="expression" dxfId="8" priority="9">
-      <formula>T25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:V28">
+      <formula>H54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
     <cfRule type="expression" dxfId="7" priority="8">
-      <formula>V25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B28">
+      <formula>E46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
     <cfRule type="expression" dxfId="6" priority="7">
-      <formula>B25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:Z14">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>Z11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>H25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>J25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L28">
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>L25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>P25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:X14">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>X11=MIN($AD11:$AH11)</formula>
+      <formula>F46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>G46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>H46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>E48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>F48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>G48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>H48=MIN($AD48:$AH48)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC4C9F8-E2BF-4906-A3E5-77749CD2AB85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C94066-A372-4D39-B9A8-FAC1A8D6A792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,63 +304,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="58">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <fill>
         <patternFill>
@@ -1045,7 +989,7 @@
   <dimension ref="A1:AA99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:H44"/>
+      <selection activeCell="E55" sqref="E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3644,16 +3588,16 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8">
-        <v>20.962957670000002</v>
+        <v>27.962957673072811</v>
       </c>
       <c r="F53" s="8">
-        <v>42.01817381</v>
+        <v>56.01817380666732</v>
       </c>
       <c r="G53" s="8">
-        <v>87.208036879999995</v>
+        <v>112.2080368804932</v>
       </c>
       <c r="H53" s="8">
-        <v>210.04748799999999</v>
+        <v>280.04748799562452</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
@@ -3690,16 +3634,16 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8">
-        <v>34.254490799999999</v>
+        <v>68.508981597423556</v>
       </c>
       <c r="F55" s="8">
-        <v>68.979702639999999</v>
+        <v>137.9594052886963</v>
       </c>
       <c r="G55" s="8">
-        <v>138.47564661999999</v>
+        <v>276.95129324197768</v>
       </c>
       <c r="H55" s="8">
-        <v>343.88938311999999</v>
+        <v>687.77876624584201</v>
       </c>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
@@ -4245,49 +4189,11 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A78:A81"/>
     <mergeCell ref="R15:W15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
@@ -4304,159 +4210,197 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
   </mergeCells>
   <conditionalFormatting sqref="B11:B14">
-    <cfRule type="expression" dxfId="57" priority="58">
+    <cfRule type="expression" dxfId="49" priority="58">
       <formula>B11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D14">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="48" priority="57">
       <formula>D11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11:F14">
-    <cfRule type="expression" dxfId="55" priority="56">
+    <cfRule type="expression" dxfId="47" priority="56">
       <formula>F11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11:H14">
-    <cfRule type="expression" dxfId="54" priority="55">
+    <cfRule type="expression" dxfId="46" priority="55">
       <formula>H11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J14">
-    <cfRule type="expression" dxfId="53" priority="54">
+    <cfRule type="expression" dxfId="45" priority="54">
       <formula>J11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L14">
-    <cfRule type="expression" dxfId="52" priority="53">
+    <cfRule type="expression" dxfId="44" priority="53">
       <formula>L11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N14">
-    <cfRule type="expression" dxfId="51" priority="52">
+    <cfRule type="expression" dxfId="43" priority="52">
       <formula>N11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P14">
-    <cfRule type="expression" dxfId="50" priority="51">
+    <cfRule type="expression" dxfId="42" priority="51">
       <formula>P11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R14">
-    <cfRule type="expression" dxfId="49" priority="50">
+    <cfRule type="expression" dxfId="41" priority="50">
       <formula>R11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T14">
-    <cfRule type="expression" dxfId="48" priority="49">
+    <cfRule type="expression" dxfId="40" priority="49">
       <formula>T11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X25:X28">
-    <cfRule type="expression" dxfId="47" priority="48">
+    <cfRule type="expression" dxfId="39" priority="48">
       <formula>X25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z25:Z28">
-    <cfRule type="expression" dxfId="46" priority="47">
+    <cfRule type="expression" dxfId="38" priority="47">
       <formula>Z25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R25:R28">
-    <cfRule type="expression" dxfId="45" priority="46">
+    <cfRule type="expression" dxfId="37" priority="46">
       <formula>R25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T25:T28">
-    <cfRule type="expression" dxfId="44" priority="45">
+    <cfRule type="expression" dxfId="36" priority="45">
       <formula>T25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V25:V28">
-    <cfRule type="expression" dxfId="43" priority="44">
+    <cfRule type="expression" dxfId="35" priority="44">
       <formula>V25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:B28">
-    <cfRule type="expression" dxfId="42" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>B25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z14">
-    <cfRule type="expression" dxfId="41" priority="37">
+    <cfRule type="expression" dxfId="33" priority="37">
       <formula>Z11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25:H28">
-    <cfRule type="expression" dxfId="40" priority="42">
+    <cfRule type="expression" dxfId="32" priority="42">
       <formula>H25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J25:J28">
-    <cfRule type="expression" dxfId="39" priority="41">
+    <cfRule type="expression" dxfId="31" priority="41">
       <formula>J25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L25:L28">
-    <cfRule type="expression" dxfId="38" priority="40">
+    <cfRule type="expression" dxfId="30" priority="40">
       <formula>L25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P25:P28">
-    <cfRule type="expression" dxfId="37" priority="39">
+    <cfRule type="expression" dxfId="29" priority="39">
       <formula>P25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X14">
-    <cfRule type="expression" dxfId="36" priority="38">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>X11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="35" priority="36">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>E42=MIN($AD42:$AH42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="34" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>F42=MIN($AD42:$AH42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="33" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>G42=MIN($AD42:$AH42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="32" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>H42=MIN($AD42:$AH42)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="31" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>E44=MIN($AD44:$AH44)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="30" priority="31">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>F44=MIN($AD44:$AH44)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="29" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>G44=MIN($AD44:$AH44)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="28" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>H44=MIN($AD44:$AH44)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/test_results/table2paper.xlsx
+++ b/test_results/table2paper.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C94066-A372-4D39-B9A8-FAC1A8D6A792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01885679-418C-45C7-A05C-CF4BAB45CD54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -304,7 +304,252 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="85">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -988,8 +1233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25:Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1737,19 +1982,19 @@
         <v>22</v>
       </c>
       <c r="B11" s="10">
-        <v>8.8319065930810056E-2</v>
+        <v>8.6726467448838496E-2</v>
       </c>
       <c r="C11" s="8">
         <v>3.355451</v>
       </c>
       <c r="D11" s="10">
-        <v>0.1185429528575996</v>
+        <v>0.1163044528988758</v>
       </c>
       <c r="E11" s="8">
         <v>4.002434</v>
       </c>
       <c r="F11" s="10">
-        <v>0.12111896004168329</v>
+        <v>0.1202350944469823</v>
       </c>
       <c r="G11" s="8">
         <v>4.9335690000000003</v>
@@ -1761,7 +2006,7 @@
         <v>5.413564</v>
       </c>
       <c r="J11" s="10">
-        <v>0.17860678581396131</v>
+        <v>0.17854571364358801</v>
       </c>
       <c r="K11" s="8">
         <v>6.7596759999999998</v>
@@ -1773,13 +2018,13 @@
         <v>8.6928560000000008</v>
       </c>
       <c r="N11" s="10">
-        <v>0.12992137132774251</v>
+        <v>0.12871352049736001</v>
       </c>
       <c r="O11" s="8">
         <v>11.603604000000001</v>
       </c>
       <c r="P11" s="10">
-        <v>7.9994044081325669E-2</v>
+        <v>7.6265979278213561E-2</v>
       </c>
       <c r="Q11" s="8">
         <v>32.667169999999999</v>
@@ -1797,7 +2042,7 @@
         <v>8.3890449999999994</v>
       </c>
       <c r="V11" s="10">
-        <v>3.6363636363636362E-2</v>
+        <v>0</v>
       </c>
       <c r="W11" s="8">
         <v>8.1963670299999993</v>
@@ -1826,7 +2071,7 @@
         <v>6.6267579999999997</v>
       </c>
       <c r="D12" s="10">
-        <v>0.1052724914331214</v>
+        <v>0.1042414482018479</v>
       </c>
       <c r="E12" s="8">
         <v>7.9348150000000004</v>
@@ -1856,7 +2101,7 @@
         <v>17.285457000000001</v>
       </c>
       <c r="N12" s="10">
-        <v>0.1137326529945689</v>
+        <v>0.1097314570532905</v>
       </c>
       <c r="O12" s="8">
         <v>23.158722999999998</v>
@@ -1868,7 +2113,7 @@
         <v>65.318888000000001</v>
       </c>
       <c r="R12" s="10">
-        <v>2.3510263289511901E-2</v>
+        <v>1.674240458139907E-2</v>
       </c>
       <c r="S12" s="8">
         <v>14.524684000000001</v>
@@ -1886,7 +2131,7 @@
         <v>16.44934392</v>
       </c>
       <c r="X12" s="10">
-        <v>8.4946236559139784E-2</v>
+        <v>7.9569892473118284E-2</v>
       </c>
       <c r="Y12" s="11">
         <v>23.683983560000001</v>
@@ -1915,7 +2160,7 @@
         <v>15.800986</v>
       </c>
       <c r="F13" s="10">
-        <v>9.8589591513201569E-2</v>
+        <v>9.6083796945094974E-2</v>
       </c>
       <c r="G13" s="8">
         <v>19.567959999999999</v>
@@ -1939,7 +2184,7 @@
         <v>34.49512</v>
       </c>
       <c r="N13" s="10">
-        <v>9.2500142278731767E-2</v>
+        <v>9.2076329934596288E-2</v>
       </c>
       <c r="O13" s="8">
         <v>46.277225999999999</v>
@@ -1951,7 +2196,7 @@
         <v>130.456557</v>
       </c>
       <c r="R13" s="10">
-        <v>1.7337508658012379E-2</v>
+        <v>1.674240458139907E-2</v>
       </c>
       <c r="S13" s="8">
         <v>29.065647999999999</v>
@@ -1969,7 +2214,7 @@
         <v>33.216393230000001</v>
       </c>
       <c r="X13" s="10">
-        <v>6.236559139784946E-2</v>
+        <v>5.6989247311827959E-2</v>
       </c>
       <c r="Y13" s="11">
         <v>46.928876879999997</v>
@@ -2010,7 +2255,7 @@
         <v>53.830657000000002</v>
       </c>
       <c r="J14" s="10">
-        <v>0.1269164950059381</v>
+        <v>0.12435979569678179</v>
       </c>
       <c r="K14" s="8">
         <v>66.724900000000005</v>
@@ -2040,7 +2285,7 @@
         <v>72.090327000000002</v>
       </c>
       <c r="T14" s="10">
-        <v>8.7339499551093727E-2</v>
+        <v>8.5246578836471701E-2</v>
       </c>
       <c r="U14" s="8">
         <v>81.209215999999998</v>
@@ -2773,7 +3018,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="10">
-        <v>2.3759400485975531E-2</v>
+        <v>2.1100303474199091E-2</v>
       </c>
       <c r="C25" s="8">
         <v>2.7527020000000002</v>
@@ -2791,7 +3036,7 @@
         <v>3.7235830000000001</v>
       </c>
       <c r="H25" s="10">
-        <v>4.4058860943305578E-2</v>
+        <v>3.0062993195820249E-2</v>
       </c>
       <c r="I25" s="8">
         <v>3.4546389999999998</v>
@@ -2803,7 +3048,7 @@
         <v>4.0850150000000003</v>
       </c>
       <c r="L25" s="10">
-        <v>7.0127577099635199E-2</v>
+        <v>6.8850567294550802E-2</v>
       </c>
       <c r="M25" s="8">
         <v>4.7877510000000001</v>
@@ -2815,13 +3060,13 @@
         <v>6.1680070000000002</v>
       </c>
       <c r="P25" s="10">
-        <v>8.3736208669213802E-2</v>
+        <v>7.3404256024677206E-2</v>
       </c>
       <c r="Q25" s="8">
         <v>5.129162</v>
       </c>
       <c r="R25" s="10">
-        <v>0.29578974757073428</v>
+        <v>0.27243100390358749</v>
       </c>
       <c r="S25" s="8">
         <v>5.8302040000000002</v>
@@ -2839,13 +3084,13 @@
         <v>7.4597910000000001</v>
       </c>
       <c r="X25" s="10">
-        <v>8.1191649032816088E-2</v>
+        <v>7.9810163936832018E-2</v>
       </c>
       <c r="Y25" s="8">
         <v>2.2728280000000001</v>
       </c>
       <c r="Z25" s="10">
-        <v>0.13606254505449589</v>
+        <v>0.1240730191234113</v>
       </c>
       <c r="AA25" s="8">
         <v>8.1978240000000007</v>
@@ -2898,7 +3143,7 @@
         <v>12.293174</v>
       </c>
       <c r="P26" s="10">
-        <v>7.8879661766220827E-2</v>
+        <v>6.5825031627171487E-2</v>
       </c>
       <c r="Q26" s="8">
         <v>10.24381</v>
@@ -2928,7 +3173,7 @@
         <v>4.5111670000000004</v>
       </c>
       <c r="Z26" s="10">
-        <v>0.1143516371138191</v>
+        <v>0.10497358572785789</v>
       </c>
       <c r="AA26" s="8">
         <v>16.520105999999998</v>
@@ -2987,7 +3232,7 @@
         <v>20.481614</v>
       </c>
       <c r="R27" s="10">
-        <v>0.21759096256505889</v>
+        <v>0.21674673410014911</v>
       </c>
       <c r="S27" s="8">
         <v>23.124298</v>
@@ -3046,7 +3291,7 @@
         <v>35.508873000000001</v>
       </c>
       <c r="J28" s="10">
-        <v>3.5061338902915962E-2</v>
+        <v>3.3576767334169297E-2</v>
       </c>
       <c r="K28" s="8">
         <v>41.484876999999997</v>
@@ -3082,13 +3327,13 @@
         <v>69.326909000000001</v>
       </c>
       <c r="V28" s="10">
-        <v>0.17314940163783521</v>
+        <v>0.17062986179388201</v>
       </c>
       <c r="W28" s="8">
         <v>73.479196999999999</v>
       </c>
       <c r="X28" s="10">
-        <v>3.9943614254775703E-2</v>
+        <v>3.8227712744106017E-2</v>
       </c>
       <c r="Y28" s="8">
         <v>22.490936999999999</v>
@@ -4189,11 +4434,49 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A76:B77"/>
-    <mergeCell ref="C76:D76"/>
-    <mergeCell ref="E76:F76"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="A78:A81"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A92:A93"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="N33:O33"/>
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B1:Q1"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="V1:AA1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="X2:Y2"/>
     <mergeCell ref="R15:W15"/>
     <mergeCell ref="X15:Y15"/>
     <mergeCell ref="Z15:AA15"/>
@@ -4210,298 +4493,395 @@
     <mergeCell ref="L16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="R1:U1"/>
-    <mergeCell ref="V1:AA1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="Z2:AA2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="T2:U2"/>
-    <mergeCell ref="V2:W2"/>
-    <mergeCell ref="X2:Y2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B1:Q1"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="N33:O33"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A41:B41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A76:B77"/>
+    <mergeCell ref="C76:D76"/>
+    <mergeCell ref="E76:F76"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="A78:A81"/>
   </mergeCells>
-  <conditionalFormatting sqref="B11:B14">
-    <cfRule type="expression" dxfId="49" priority="58">
+  <conditionalFormatting sqref="B12:B14">
+    <cfRule type="expression" dxfId="84" priority="92">
+      <formula>B12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="expression" dxfId="82" priority="90">
+      <formula>F14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11:H14">
+    <cfRule type="expression" dxfId="81" priority="89">
+      <formula>H11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L11:L14">
+    <cfRule type="expression" dxfId="79" priority="87">
+      <formula>L11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:P14">
+    <cfRule type="expression" dxfId="77" priority="85">
+      <formula>P12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26:X27">
+    <cfRule type="expression" dxfId="74" priority="82">
+      <formula>X26=MIN($AD26:$AH26)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z27:Z28">
+    <cfRule type="expression" dxfId="73" priority="81">
+      <formula>Z27=MIN($AD27:$AH27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R28">
+    <cfRule type="expression" dxfId="72" priority="80">
+      <formula>R28=MIN($AD28:$AH28)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T25:T28">
+    <cfRule type="expression" dxfId="71" priority="79">
+      <formula>T25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V25:V27">
+    <cfRule type="expression" dxfId="70" priority="78">
+      <formula>V25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:B28">
+    <cfRule type="expression" dxfId="69" priority="77">
+      <formula>B26=MIN($AD26:$AH26)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z11:Z14">
+    <cfRule type="expression" dxfId="68" priority="71">
+      <formula>Z11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26:H28">
+    <cfRule type="expression" dxfId="67" priority="76">
+      <formula>H26=MIN($AD26:$AH26)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L26:L28">
+    <cfRule type="expression" dxfId="65" priority="74">
+      <formula>L26=MIN($AD26:$AH26)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P28">
+    <cfRule type="expression" dxfId="64" priority="73">
+      <formula>P27=MIN($AD27:$AH27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="expression" dxfId="62" priority="70">
+      <formula>E42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="expression" dxfId="61" priority="69">
+      <formula>F42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G42">
+    <cfRule type="expression" dxfId="60" priority="68">
+      <formula>G42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H42">
+    <cfRule type="expression" dxfId="59" priority="67">
+      <formula>H42=MIN($AD42:$AH42)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E44">
+    <cfRule type="expression" dxfId="58" priority="66">
+      <formula>E44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="57" priority="65">
+      <formula>F44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G44">
+    <cfRule type="expression" dxfId="56" priority="64">
+      <formula>G44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="expression" dxfId="55" priority="63">
+      <formula>H44=MIN($AD44:$AH44)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E50">
+    <cfRule type="expression" dxfId="54" priority="54">
+      <formula>E50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F50">
+    <cfRule type="expression" dxfId="53" priority="53">
+      <formula>F50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50">
+    <cfRule type="expression" dxfId="52" priority="52">
+      <formula>G50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H50">
+    <cfRule type="expression" dxfId="51" priority="51">
+      <formula>H50=MIN($AD50:$AH50)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E52">
+    <cfRule type="expression" dxfId="50" priority="50">
+      <formula>E52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F52">
+    <cfRule type="expression" dxfId="49" priority="49">
+      <formula>F52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G52">
+    <cfRule type="expression" dxfId="48" priority="48">
+      <formula>G52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52">
+    <cfRule type="expression" dxfId="47" priority="47">
+      <formula>H52=MIN($AD52:$AH52)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="expression" dxfId="46" priority="46">
+      <formula>E54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="expression" dxfId="45" priority="45">
+      <formula>F54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G54">
+    <cfRule type="expression" dxfId="44" priority="44">
+      <formula>G54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H54">
+    <cfRule type="expression" dxfId="43" priority="43">
+      <formula>H54=MIN($AD54:$AH54)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="expression" dxfId="42" priority="42">
+      <formula>E46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="expression" dxfId="41" priority="41">
+      <formula>F46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G46">
+    <cfRule type="expression" dxfId="40" priority="40">
+      <formula>G46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H46">
+    <cfRule type="expression" dxfId="39" priority="39">
+      <formula>H46=MIN($AD46:$AH46)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E48">
+    <cfRule type="expression" dxfId="38" priority="38">
+      <formula>E48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F48">
+    <cfRule type="expression" dxfId="37" priority="37">
+      <formula>F48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48">
+    <cfRule type="expression" dxfId="36" priority="36">
+      <formula>G48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H48">
+    <cfRule type="expression" dxfId="35" priority="35">
+      <formula>H48=MIN($AD48:$AH48)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11">
+    <cfRule type="expression" dxfId="34" priority="34">
       <formula>B11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D14">
-    <cfRule type="expression" dxfId="48" priority="57">
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="expression" dxfId="33" priority="33">
       <formula>D11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F11:F14">
-    <cfRule type="expression" dxfId="47" priority="56">
+  <conditionalFormatting sqref="D13:D14">
+    <cfRule type="expression" dxfId="32" priority="32">
+      <formula>D13=MIN($AD13:$AH13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="expression" dxfId="31" priority="31">
       <formula>F11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H11:H14">
-    <cfRule type="expression" dxfId="46" priority="55">
-      <formula>H11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J11:J14">
-    <cfRule type="expression" dxfId="45" priority="54">
+  <conditionalFormatting sqref="F12">
+    <cfRule type="expression" dxfId="30" priority="30">
+      <formula>F12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="expression" dxfId="29" priority="29">
+      <formula>F13=MIN($AD13:$AH13)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="expression" dxfId="28" priority="28">
       <formula>J11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L14">
-    <cfRule type="expression" dxfId="44" priority="53">
-      <formula>L11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11:N14">
-    <cfRule type="expression" dxfId="43" priority="52">
+  <conditionalFormatting sqref="J12:J13">
+    <cfRule type="expression" dxfId="27" priority="27">
+      <formula>J12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="expression" dxfId="26" priority="26">
+      <formula>J14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="expression" dxfId="25" priority="25">
       <formula>N11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P11:P14">
-    <cfRule type="expression" dxfId="42" priority="51">
+  <conditionalFormatting sqref="N12:N13">
+    <cfRule type="expression" dxfId="24" priority="24">
+      <formula>N12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="expression" dxfId="23" priority="23">
+      <formula>N14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="expression" dxfId="22" priority="22">
       <formula>P11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R11:R14">
-    <cfRule type="expression" dxfId="41" priority="50">
+  <conditionalFormatting sqref="R11">
+    <cfRule type="expression" dxfId="21" priority="21">
       <formula>R11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T11:T14">
-    <cfRule type="expression" dxfId="40" priority="49">
+  <conditionalFormatting sqref="R12:R13">
+    <cfRule type="expression" dxfId="20" priority="20">
+      <formula>R12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R14">
+    <cfRule type="expression" dxfId="19" priority="19">
+      <formula>R14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11:T13">
+    <cfRule type="expression" dxfId="18" priority="18">
       <formula>T11=MIN($AD11:$AH11)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="X25:X28">
-    <cfRule type="expression" dxfId="39" priority="48">
+  <conditionalFormatting sqref="T14">
+    <cfRule type="expression" dxfId="17" priority="17">
+      <formula>T14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X11">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>X11=MIN($AD11:$AH11)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12:X13">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>X12=MIN($AD12:$AH12)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X14">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>X14=MIN($AD14:$AH14)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>B25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>H25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:J27">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>J25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>J28=MIN($AD28:$AH28)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L25">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>L25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P25:P26">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>P25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R25">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>R25=MIN($AD25:$AH25)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>R26=MIN($AD26:$AH26)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>R27=MIN($AD27:$AH27)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>V28=MIN($AD28:$AH28)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X25">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>X25=MIN($AD25:$AH25)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Z25:Z28">
-    <cfRule type="expression" dxfId="38" priority="47">
+  <conditionalFormatting sqref="X28">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>X28=MIN($AD28:$AH28)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z25:Z26">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>Z25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R25:R28">
-    <cfRule type="expression" dxfId="37" priority="46">
-      <formula>R25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T25:T28">
-    <cfRule type="expression" dxfId="36" priority="45">
-      <formula>T25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V25:V28">
-    <cfRule type="expression" dxfId="35" priority="44">
-      <formula>V25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B25:B28">
-    <cfRule type="expression" dxfId="34" priority="43">
-      <formula>B25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z11:Z14">
-    <cfRule type="expression" dxfId="33" priority="37">
-      <formula>Z11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25:H28">
-    <cfRule type="expression" dxfId="32" priority="42">
-      <formula>H25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J28">
-    <cfRule type="expression" dxfId="31" priority="41">
-      <formula>J25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L25:L28">
-    <cfRule type="expression" dxfId="30" priority="40">
-      <formula>L25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P25:P28">
-    <cfRule type="expression" dxfId="29" priority="39">
-      <formula>P25=MIN($AD25:$AH25)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X11:X14">
-    <cfRule type="expression" dxfId="28" priority="38">
-      <formula>X11=MIN($AD11:$AH11)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="expression" dxfId="27" priority="36">
-      <formula>E42=MIN($AD42:$AH42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="expression" dxfId="26" priority="35">
-      <formula>F42=MIN($AD42:$AH42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G42">
-    <cfRule type="expression" dxfId="25" priority="34">
-      <formula>G42=MIN($AD42:$AH42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H42">
-    <cfRule type="expression" dxfId="24" priority="33">
-      <formula>H42=MIN($AD42:$AH42)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E44">
-    <cfRule type="expression" dxfId="23" priority="32">
-      <formula>E44=MIN($AD44:$AH44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="expression" dxfId="22" priority="31">
-      <formula>F44=MIN($AD44:$AH44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G44">
-    <cfRule type="expression" dxfId="21" priority="30">
-      <formula>G44=MIN($AD44:$AH44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="expression" dxfId="20" priority="29">
-      <formula>H44=MIN($AD44:$AH44)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E50">
-    <cfRule type="expression" dxfId="19" priority="20">
-      <formula>E50=MIN($AD50:$AH50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>F50=MIN($AD50:$AH50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50">
-    <cfRule type="expression" dxfId="17" priority="18">
-      <formula>G50=MIN($AD50:$AH50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50">
-    <cfRule type="expression" dxfId="16" priority="17">
-      <formula>H50=MIN($AD50:$AH50)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E52">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>E52=MIN($AD52:$AH52)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F52">
-    <cfRule type="expression" dxfId="14" priority="15">
-      <formula>F52=MIN($AD52:$AH52)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G52">
-    <cfRule type="expression" dxfId="13" priority="14">
-      <formula>G52=MIN($AD52:$AH52)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H52">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>H52=MIN($AD52:$AH52)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E54">
-    <cfRule type="expression" dxfId="11" priority="12">
-      <formula>E54=MIN($AD54:$AH54)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F54">
-    <cfRule type="expression" dxfId="10" priority="11">
-      <formula>F54=MIN($AD54:$AH54)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G54">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>G54=MIN($AD54:$AH54)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H54">
-    <cfRule type="expression" dxfId="8" priority="9">
-      <formula>H54=MIN($AD54:$AH54)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>E46=MIN($AD46:$AH46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>F46=MIN($AD46:$AH46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G46">
-    <cfRule type="expression" dxfId="5" priority="6">
-      <formula>G46=MIN($AD46:$AH46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H46">
-    <cfRule type="expression" dxfId="4" priority="5">
-      <formula>H46=MIN($AD46:$AH46)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E48">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>E48=MIN($AD48:$AH48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F48">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>F48=MIN($AD48:$AH48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>G48=MIN($AD48:$AH48)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>H48=MIN($AD48:$AH48)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
